--- a/2020-sgfdevs-statement-of-activity-detail.xlsx
+++ b/2020-sgfdevs-statement-of-activity-detail.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1601" uniqueCount="522">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1640" uniqueCount="541">
   <si>
     <t>Date</t>
   </si>
@@ -1007,6 +1007,33 @@
     <t>04/05/2020</t>
   </si>
   <si>
+    <t>04/15/2020</t>
+  </si>
+  <si>
+    <t>Meetup.com</t>
+  </si>
+  <si>
+    <t>Organizer Subscription 04/14-10/14</t>
+  </si>
+  <si>
+    <t>04/30/2020</t>
+  </si>
+  <si>
+    <t>sgfcovidsupport.org</t>
+  </si>
+  <si>
+    <t>05/01/2020</t>
+  </si>
+  <si>
+    <t>05/04/2020</t>
+  </si>
+  <si>
+    <t>AMAZON WEB SERVICES DBT CRD 2025 05/03/20 DBEYSGV7</t>
+  </si>
+  <si>
+    <t>05/05/2020</t>
+  </si>
+  <si>
     <t xml:space="preserve">         Total for Devs Software &amp; Hosting</t>
   </si>
   <si>
@@ -1029,6 +1056,21 @@
     <t xml:space="preserve">         Total for Devs Sponsor Gifts</t>
   </si>
   <si>
+    <t xml:space="preserve">         Devs Taxes &amp; Licenses</t>
+  </si>
+  <si>
+    <t>Check</t>
+  </si>
+  <si>
+    <t>Internal Revenue Service</t>
+  </si>
+  <si>
+    <t>IRS Nonprofit 501(c)(6) Application Fee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         Total for Devs Taxes &amp; Licenses</t>
+  </si>
+  <si>
     <t xml:space="preserve">      Total for Devs</t>
   </si>
   <si>
@@ -1083,42 +1125,25 @@
     <t>Discount Mugs</t>
   </si>
   <si>
+    <t>Item 101WB Black, Front Side Imprint 130 @ 3.48</t>
+  </si>
+  <si>
+    <t>Coupon Code</t>
+  </si>
+  <si>
     <t>Screen Charge</t>
   </si>
   <si>
-    <t>Coupon Code</t>
-  </si>
-  <si>
-    <t>Item 101WB Black, Front Side Imprint 130 @ 3.48</t>
-  </si>
-  <si>
     <t xml:space="preserve">         Total for Method Attendee Bags</t>
   </si>
   <si>
     <t xml:space="preserve">         Method Attendee Shirts</t>
   </si>
   <si>
+    <t>Ink Change - 2 Colors  2@ $7</t>
+  </si>
+  <si>
     <t>Sales Tax $2101@ 8.10%</t>
-  </si>
-  <si>
-    <t>Shipping from Manufacturer</t>
-  </si>
-  <si>
-    <t>Upcharge - Size 3XL 6@ $5</t>
-  </si>
-  <si>
-    <t>Upcharge - Size 2XL 14@ $3</t>
-  </si>
-  <si>
-    <t>Ink Change - 2 Colors  2@ $7</t>
-  </si>
-  <si>
-    <t>Set up Fee *Waived 3rd Set Up Fee for placing 100+ Pieces* 2@ $25</t>
-  </si>
-  <si>
-    <t>8413 Bella + Canvas - Women's Triblend Short Sleeve Tee 16@ $15
-Solid Black Triblend: AS - 7, AM - 3, AL - 3, AXL - 1, A2XL - 2
-**Price includes Two Color front, 1 Color Back. Solid black triblend - Front is rojo red and white ink. Back is white ink</t>
   </si>
   <si>
     <t>3413 Bella + Canvas - Triblend Short Sleeve T-Shirt Solid 114@ $15
@@ -1127,6 +1152,23 @@
 **Price includes Two Color front, 1 Color Back. Solid black triblend - Front is rojo red and white ink. Back is white ink. Red triblend - Front is white and black ink. Back is white ink.</t>
   </si>
   <si>
+    <t>8413 Bella + Canvas - Women's Triblend Short Sleeve Tee 16@ $15
+Solid Black Triblend: AS - 7, AM - 3, AL - 3, AXL - 1, A2XL - 2
+**Price includes Two Color front, 1 Color Back. Solid black triblend - Front is rojo red and white ink. Back is white ink</t>
+  </si>
+  <si>
+    <t>Set up Fee *Waived 3rd Set Up Fee for placing 100+ Pieces* 2@ $25</t>
+  </si>
+  <si>
+    <t>Upcharge - Size 2XL 14@ $3</t>
+  </si>
+  <si>
+    <t>Upcharge - Size 3XL 6@ $5</t>
+  </si>
+  <si>
+    <t>Shipping from Manufacturer</t>
+  </si>
+  <si>
     <t xml:space="preserve">         Total for Method Attendee Shirts</t>
   </si>
   <si>
@@ -1136,10 +1178,16 @@
     <t>Headline Productions</t>
   </si>
   <si>
+    <t>Equipment Rental, Replacement Cost $49,521</t>
+  </si>
+  <si>
     <t>Equipment Crew</t>
   </si>
   <si>
-    <t>Equipment Rental, Replacement Cost $49,521</t>
+    <t>Shipping, Deliver by Friday 02/28</t>
+  </si>
+  <si>
+    <t>Sales Tax</t>
   </si>
   <si>
     <t>2 of REAL USA Professional Grade Gaffer Tape By Gaffer Power (2 Inches x 30 Yards, Black)</t>
@@ -1154,15 +1202,24 @@
     <t>2 of Cable Matters Snagless Cat6 Ethernet Cable (Cat6 Cable/Cat 6 Cable) in Black 25</t>
   </si>
   <si>
-    <t>Shipping, Deliver by Friday 02/28</t>
-  </si>
-  <si>
-    <t>Sales Tax</t>
-  </si>
-  <si>
     <t xml:space="preserve">         Total for Method Audio Visual</t>
   </si>
   <si>
+    <t xml:space="preserve">         Method Design</t>
+  </si>
+  <si>
+    <t>04/08/2020</t>
+  </si>
+  <si>
+    <t>Brad Hill Design Group</t>
+  </si>
+  <si>
+    <t>DEVS Event Website Responsive Design (Initial Payment 50%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         Total for Method Design</t>
+  </si>
+  <si>
     <t xml:space="preserve">         Method Door Prizes</t>
   </si>
   <si>
@@ -1187,24 +1244,24 @@
     <t>FS KT  5 @ 1.64</t>
   </si>
   <si>
+    <t>Drinkware  2 @ 4.96</t>
+  </si>
+  <si>
+    <t>Sales Tax 8.10%</t>
+  </si>
+  <si>
+    <t>Flour Sack  1 @ 4.47</t>
+  </si>
+  <si>
+    <t>Fever Tree  2 @ 5.98</t>
+  </si>
+  <si>
     <t>Land Coffee  4 @ 1.48</t>
   </si>
   <si>
-    <t>Sales Tax 8.10%</t>
-  </si>
-  <si>
     <t>Sales Tax 5.10%</t>
   </si>
   <si>
-    <t>Fever Tree  2 @ 5.98</t>
-  </si>
-  <si>
-    <t>Flour Sack  1 @ 4.47</t>
-  </si>
-  <si>
-    <t>Drinkware  2 @ 4.96</t>
-  </si>
-  <si>
     <t>02/23/2020</t>
   </si>
   <si>
@@ -1217,6 +1274,9 @@
     <t>02/27/2020</t>
   </si>
   <si>
+    <t>2 of: Amazon.com Gift Card in a Black Gift Box</t>
+  </si>
+  <si>
     <t>4401039-2</t>
   </si>
   <si>
@@ -1244,9 +1304,6 @@
     <t>1 of: Ember Temperature Control Smart Mug, 10 oz</t>
   </si>
   <si>
-    <t>2 of: Amazon.com Gift Card in a Black Gift Box</t>
-  </si>
-  <si>
     <t>03/02/2020</t>
   </si>
   <si>
@@ -1262,36 +1319,36 @@
     <t>Diamond Room / Simply Delicious</t>
   </si>
   <si>
+    <t>Room Rental</t>
+  </si>
+  <si>
+    <t>Sales Tax 8.1%</t>
+  </si>
+  <si>
     <t>Credit for Deposit Received</t>
   </si>
   <si>
-    <t>Sales Tax 8.1%</t>
-  </si>
-  <si>
-    <t>Room Rental</t>
-  </si>
-  <si>
     <t>Morning Pastries and Fruit, Taco Station Lunch, Evening Charcuterie Station ($24.50/person x 130)</t>
   </si>
   <si>
     <t>02/29/2020</t>
   </si>
   <si>
+    <t>Ice 10lb</t>
+  </si>
+  <si>
+    <t>SC 20oz 12pk</t>
+  </si>
+  <si>
+    <t>Limes x6</t>
+  </si>
+  <si>
     <t>Lemons x6</t>
   </si>
   <si>
-    <t>Limes x6</t>
-  </si>
-  <si>
     <t>Coke x2</t>
   </si>
   <si>
-    <t>SC 20oz 12pk</t>
-  </si>
-  <si>
-    <t>Ice 10lb</t>
-  </si>
-  <si>
     <t>Bar Gratuity for Method Conference ($523 at 19.12%)</t>
   </si>
   <si>
@@ -1319,12 +1376,12 @@
     <t>Added Innovation (2.9% + 0.25)</t>
   </si>
   <si>
+    <t>Code Scientists (1% max $10)</t>
+  </si>
+  <si>
     <t>Mycra Therapy (2.9% + 0.25)</t>
   </si>
   <si>
-    <t>Code Scientists (1% max $10)</t>
-  </si>
-  <si>
     <t xml:space="preserve">         Total for Method Payment Fees (Intuit)</t>
   </si>
   <si>
@@ -1409,24 +1466,24 @@
     <t>02/28/2020</t>
   </si>
   <si>
+    <t>Method Folded Note Cards x50</t>
+  </si>
+  <si>
+    <t>Method Podium Sign Foam Core</t>
+  </si>
+  <si>
+    <t>Method Retractable Banner 1 Sided w/ Stand and Carry Bag</t>
+  </si>
+  <si>
+    <t>Blank Envelopes for Folded Note Cards x50</t>
+  </si>
+  <si>
     <t>Method Flat Note Card 4x6  x150</t>
   </si>
   <si>
-    <t>Method Folded Note Cards x50</t>
-  </si>
-  <si>
-    <t>Method Podium Sign Foam Core</t>
-  </si>
-  <si>
-    <t>Method Retractable Banner 1 Sided w/ Stand and Carry Bag</t>
-  </si>
-  <si>
     <t>Creative for Conference Materials</t>
   </si>
   <si>
-    <t>Blank Envelopes for Folded Note Cards x50</t>
-  </si>
-  <si>
     <t>Cmnd Pic Hng x2</t>
   </si>
   <si>
@@ -1442,39 +1499,39 @@
     <t>Houlihans Restaurant</t>
   </si>
   <si>
+    <t>Food, Drinks, Sales Tax</t>
+  </si>
+  <si>
     <t>Gratuity (~19.5% of ~$400)</t>
   </si>
   <si>
-    <t>Food, Drinks, Sales Tax</t>
-  </si>
-  <si>
     <t xml:space="preserve">         Total for Method Speaker Dinner</t>
   </si>
   <si>
     <t xml:space="preserve">         Method Speaker Gifts</t>
   </si>
   <si>
+    <t>Chabom Teas and Spices</t>
+  </si>
+  <si>
+    <t>Detail Not Provided</t>
+  </si>
+  <si>
     <t>Askinosie Chocolate LLC</t>
   </si>
   <si>
     <t>Itty Bar Zamora Amazonia  31@ $0.85 + Tax</t>
   </si>
   <si>
-    <t>Chabom Teas and Spices</t>
-  </si>
-  <si>
-    <t>Detail Not Provided</t>
+    <t>3 of: Uber Gift Card $100</t>
+  </si>
+  <si>
+    <t>7 of: Amazon.com Gift Card in a Black Gift Box</t>
   </si>
   <si>
     <t>1 of: The Gift Wrap Company 4832-03 Decorative Confetti Bows, Large, Red Metallic</t>
   </si>
   <si>
-    <t>7 of: Amazon.com Gift Card in a Black Gift Box</t>
-  </si>
-  <si>
-    <t>3 of: Uber Gift Card $100</t>
-  </si>
-  <si>
     <t>1 of: The Gift Wrap Company Decorative Confetti Gift Bows, Large, Black, pack of 12</t>
   </si>
   <si>
@@ -1493,21 +1550,21 @@
     <t xml:space="preserve">         Method Speaker Travel</t>
   </si>
   <si>
+    <t>Katie Womersley</t>
+  </si>
+  <si>
+    <t>Speaker Travel for Method Conference in Springfield Missouri on 03/05/2020</t>
+  </si>
+  <si>
+    <t>Erika Gerdes</t>
+  </si>
+  <si>
+    <t>Sam Basu</t>
+  </si>
+  <si>
     <t>Randy Walker</t>
   </si>
   <si>
-    <t>Speaker Travel for Method Conference in Springfield Missouri on 03/05/2020</t>
-  </si>
-  <si>
-    <t>Sam Basu</t>
-  </si>
-  <si>
-    <t>Katie Womersley</t>
-  </si>
-  <si>
-    <t>Erika Gerdes</t>
-  </si>
-  <si>
     <t>03/11/2020</t>
   </si>
   <si>
@@ -1580,7 +1637,7 @@
     <t>Net Revenue</t>
   </si>
   <si>
-    <t>Saturday, Apr 11, 2020 09:37:00 AM GMT-7 - Accrual Basis</t>
+    <t>Wednesday, May 06, 2020 08:34:14 AM GMT-7 - Accrual Basis</t>
   </si>
   <si>
     <t>Springfield Devs</t>
@@ -1589,7 +1646,7 @@
     <t>Statement of Activity Detail</t>
   </si>
   <si>
-    <t>January 1 - April 11, 2020</t>
+    <t>January 1 - May 6, 2020</t>
   </si>
 </sst>
 </file>
@@ -1714,7 +1771,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="7" t="s">
-        <v>519</v>
+        <v>538</v>
       </c>
       <c r="B1"/>
       <c r="C1"/>
@@ -1726,7 +1783,7 @@
     </row>
     <row r="2">
       <c r="A2" s="7" t="s">
-        <v>520</v>
+        <v>539</v>
       </c>
       <c r="B2"/>
       <c r="C2"/>
@@ -1738,7 +1795,7 @@
     </row>
     <row r="3">
       <c r="A3" s="8" t="s">
-        <v>521</v>
+        <v>540</v>
       </c>
       <c r="B3"/>
       <c r="C3"/>
@@ -5881,380 +5938,401 @@
       </c>
     </row>
     <row r="202">
-      <c r="A202" t="s" s="2">
+      <c r="B202" t="s" s="3">
         <v>329</v>
       </c>
-      <c r="H202" t="n" s="5">
-        <v>419.85</v>
+      <c r="C202" t="s" s="3">
+        <v>290</v>
+      </c>
+      <c r="D202" s="3"/>
+      <c r="E202" t="s" s="3">
+        <v>330</v>
+      </c>
+      <c r="F202" t="s" s="3">
+        <v>331</v>
+      </c>
+      <c r="G202" t="s" s="3">
+        <v>293</v>
+      </c>
+      <c r="H202" t="n" s="4">
+        <v>98.94</v>
       </c>
     </row>
     <row r="203">
-      <c r="A203" t="s" s="2">
-        <v>330</v>
+      <c r="B203" t="s" s="3">
+        <v>332</v>
+      </c>
+      <c r="C203" t="s" s="3">
+        <v>290</v>
+      </c>
+      <c r="D203" s="3"/>
+      <c r="E203" t="s" s="3">
+        <v>318</v>
+      </c>
+      <c r="F203" t="s" s="3">
+        <v>333</v>
+      </c>
+      <c r="G203" t="s" s="3">
+        <v>293</v>
+      </c>
+      <c r="H203" t="n" s="4">
+        <v>12.98</v>
       </c>
     </row>
     <row r="204">
       <c r="B204" t="s" s="3">
-        <v>42</v>
+        <v>334</v>
       </c>
       <c r="C204" t="s" s="3">
         <v>297</v>
       </c>
-      <c r="D204" t="n" s="3">
-        <v>162673.0</v>
-      </c>
+      <c r="D204" s="3"/>
       <c r="E204" t="s" s="3">
-        <v>331</v>
+        <v>310</v>
       </c>
       <c r="F204" t="s" s="3">
-        <v>332</v>
+        <v>311</v>
       </c>
       <c r="G204" t="s" s="3">
         <v>300</v>
       </c>
       <c r="H204" t="n" s="4">
-        <v>40.75</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="205">
       <c r="B205" t="s" s="3">
-        <v>42</v>
+        <v>335</v>
       </c>
       <c r="C205" t="s" s="3">
-        <v>297</v>
-      </c>
-      <c r="D205" t="n" s="3">
-        <v>162673.0</v>
-      </c>
+        <v>290</v>
+      </c>
+      <c r="D205" s="3"/>
       <c r="E205" t="s" s="3">
-        <v>331</v>
+        <v>312</v>
       </c>
       <c r="F205" t="s" s="3">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="G205" t="s" s="3">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="H205" t="n" s="4">
-        <v>503.1</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="206">
       <c r="B206" t="s" s="3">
-        <v>209</v>
+        <v>337</v>
       </c>
       <c r="C206" t="s" s="3">
-        <v>290</v>
-      </c>
-      <c r="D206" t="n" s="3">
-        <v>163049.0</v>
-      </c>
+        <v>297</v>
+      </c>
+      <c r="D206" s="3"/>
       <c r="E206" t="s" s="3">
-        <v>331</v>
+        <v>315</v>
       </c>
       <c r="F206" t="s" s="3">
-        <v>334</v>
+        <v>316</v>
       </c>
       <c r="G206" t="s" s="3">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="H206" t="n" s="4">
-        <v>30.21</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="s" s="2">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="H207" t="n" s="5">
-        <v>574.06</v>
+        <v>572.37</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="s" s="2">
-        <v>336</v>
-      </c>
-      <c r="H208" t="n" s="5">
-        <v>1513.14</v>
+        <v>339</v>
       </c>
     </row>
     <row r="209">
-      <c r="A209" t="s" s="2">
-        <v>337</v>
+      <c r="B209" t="s" s="3">
+        <v>42</v>
+      </c>
+      <c r="C209" t="s" s="3">
+        <v>297</v>
+      </c>
+      <c r="D209" t="n" s="3">
+        <v>162673.0</v>
+      </c>
+      <c r="E209" t="s" s="3">
+        <v>340</v>
+      </c>
+      <c r="F209" t="s" s="3">
+        <v>341</v>
+      </c>
+      <c r="G209" t="s" s="3">
+        <v>300</v>
+      </c>
+      <c r="H209" t="n" s="4">
+        <v>40.75</v>
       </c>
     </row>
     <row r="210">
-      <c r="A210" t="s" s="2">
-        <v>338</v>
+      <c r="B210" t="s" s="3">
+        <v>42</v>
+      </c>
+      <c r="C210" t="s" s="3">
+        <v>297</v>
+      </c>
+      <c r="D210" t="n" s="3">
+        <v>162673.0</v>
+      </c>
+      <c r="E210" t="s" s="3">
+        <v>340</v>
+      </c>
+      <c r="F210" t="s" s="3">
+        <v>342</v>
+      </c>
+      <c r="G210" t="s" s="3">
+        <v>300</v>
+      </c>
+      <c r="H210" t="n" s="4">
+        <v>503.1</v>
       </c>
     </row>
     <row r="211">
       <c r="B211" t="s" s="3">
-        <v>42</v>
+        <v>209</v>
       </c>
       <c r="C211" t="s" s="3">
         <v>290</v>
       </c>
-      <c r="D211" t="s" s="3">
-        <v>339</v>
+      <c r="D211" t="n" s="3">
+        <v>163049.0</v>
       </c>
       <c r="E211" t="s" s="3">
         <v>340</v>
       </c>
       <c r="F211" t="s" s="3">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="G211" t="s" s="3">
         <v>293</v>
       </c>
       <c r="H211" t="n" s="4">
-        <v>25.0</v>
+        <v>30.21</v>
       </c>
     </row>
     <row r="212">
-      <c r="B212" t="s" s="3">
-        <v>324</v>
-      </c>
-      <c r="C212" t="s" s="3">
-        <v>297</v>
-      </c>
-      <c r="D212" t="n" s="3">
-        <v>5517958.0</v>
-      </c>
-      <c r="E212" t="s" s="3">
-        <v>340</v>
-      </c>
-      <c r="F212" t="s" s="3">
-        <v>342</v>
-      </c>
-      <c r="G212" t="s" s="3">
-        <v>300</v>
-      </c>
-      <c r="H212" t="n" s="4">
-        <v>6.37</v>
+      <c r="A212" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="H212" t="n" s="5">
+        <v>574.06</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="s" s="2">
-        <v>343</v>
-      </c>
-      <c r="H213" t="n" s="5">
-        <v>31.37</v>
+        <v>345</v>
       </c>
     </row>
     <row r="214">
-      <c r="A214" t="s" s="2">
-        <v>344</v>
+      <c r="B214" t="s" s="3">
+        <v>329</v>
+      </c>
+      <c r="C214" t="s" s="3">
+        <v>346</v>
+      </c>
+      <c r="D214" s="3"/>
+      <c r="E214" t="s" s="3">
+        <v>347</v>
+      </c>
+      <c r="F214" t="s" s="3">
+        <v>348</v>
+      </c>
+      <c r="G214" t="s" s="3">
+        <v>293</v>
+      </c>
+      <c r="H214" t="n" s="4">
+        <v>600.0</v>
       </c>
     </row>
     <row r="215">
-      <c r="B215" t="s" s="3">
-        <v>42</v>
-      </c>
-      <c r="C215" t="s" s="3">
-        <v>290</v>
-      </c>
-      <c r="D215" t="n" s="3">
-        <v>3300212.0</v>
-      </c>
-      <c r="E215" t="s" s="3">
-        <v>345</v>
-      </c>
-      <c r="F215" t="s" s="3">
-        <v>346</v>
-      </c>
-      <c r="G215" t="s" s="3">
-        <v>293</v>
-      </c>
-      <c r="H215" t="n" s="4">
-        <v>25.99</v>
+      <c r="A215" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="H215" t="n" s="5">
+        <v>600.0</v>
       </c>
     </row>
     <row r="216">
-      <c r="B216" t="s" s="3">
-        <v>146</v>
-      </c>
-      <c r="C216" t="s" s="3">
-        <v>290</v>
-      </c>
-      <c r="D216" t="n" s="3">
-        <v>119025.0</v>
-      </c>
-      <c r="E216" t="s" s="3">
-        <v>347</v>
-      </c>
-      <c r="F216" t="s" s="3">
-        <v>348</v>
-      </c>
-      <c r="G216" t="s" s="3">
-        <v>293</v>
-      </c>
-      <c r="H216" t="n" s="4">
-        <v>1.9</v>
+      <c r="A216" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="H216" t="n" s="5">
+        <v>2265.66</v>
       </c>
     </row>
     <row r="217">
-      <c r="B217" t="s" s="3">
-        <v>146</v>
-      </c>
-      <c r="C217" t="s" s="3">
-        <v>290</v>
-      </c>
-      <c r="D217" t="n" s="3">
-        <v>119025.0</v>
-      </c>
-      <c r="E217" t="s" s="3">
-        <v>347</v>
-      </c>
-      <c r="F217" t="s" s="3">
-        <v>349</v>
-      </c>
-      <c r="G217" t="s" s="3">
-        <v>293</v>
-      </c>
-      <c r="H217" t="n" s="4">
-        <v>16.97</v>
+      <c r="A217" t="s" s="2">
+        <v>351</v>
       </c>
     </row>
     <row r="218">
-      <c r="B218" t="s" s="3">
-        <v>146</v>
-      </c>
-      <c r="C218" t="s" s="3">
-        <v>290</v>
-      </c>
-      <c r="D218" t="n" s="3">
-        <v>119025.0</v>
-      </c>
-      <c r="E218" t="s" s="3">
-        <v>347</v>
-      </c>
-      <c r="F218" t="s" s="3">
-        <v>348</v>
-      </c>
-      <c r="G218" t="s" s="3">
-        <v>293</v>
-      </c>
-      <c r="H218" t="n" s="4">
-        <v>1.9</v>
+      <c r="A218" t="s" s="2">
+        <v>352</v>
       </c>
     </row>
     <row r="219">
       <c r="B219" t="s" s="3">
-        <v>146</v>
+        <v>42</v>
       </c>
       <c r="C219" t="s" s="3">
         <v>290</v>
       </c>
-      <c r="D219" t="n" s="3">
-        <v>119025.0</v>
+      <c r="D219" t="s" s="3">
+        <v>353</v>
       </c>
       <c r="E219" t="s" s="3">
-        <v>347</v>
+        <v>354</v>
       </c>
       <c r="F219" t="s" s="3">
-        <v>348</v>
+        <v>355</v>
       </c>
       <c r="G219" t="s" s="3">
         <v>293</v>
       </c>
       <c r="H219" t="n" s="4">
-        <v>1.9</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="220">
-      <c r="A220" t="s" s="2">
-        <v>350</v>
-      </c>
-      <c r="H220" t="n" s="5">
-        <v>48.66</v>
+      <c r="B220" t="s" s="3">
+        <v>324</v>
+      </c>
+      <c r="C220" t="s" s="3">
+        <v>297</v>
+      </c>
+      <c r="D220" t="n" s="3">
+        <v>5517958.0</v>
+      </c>
+      <c r="E220" t="s" s="3">
+        <v>354</v>
+      </c>
+      <c r="F220" t="s" s="3">
+        <v>356</v>
+      </c>
+      <c r="G220" t="s" s="3">
+        <v>300</v>
+      </c>
+      <c r="H220" t="n" s="4">
+        <v>6.37</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="s" s="2">
-        <v>351</v>
+        <v>357</v>
+      </c>
+      <c r="H221" t="n" s="5">
+        <v>31.37</v>
       </c>
     </row>
     <row r="222">
-      <c r="B222" t="s" s="3">
-        <v>164</v>
-      </c>
-      <c r="C222" t="s" s="3">
-        <v>290</v>
-      </c>
-      <c r="D222" t="s" s="3">
-        <v>352</v>
-      </c>
-      <c r="E222" t="s" s="3">
-        <v>353</v>
-      </c>
-      <c r="F222" t="s" s="3">
-        <v>354</v>
-      </c>
-      <c r="G222" t="s" s="3">
-        <v>293</v>
-      </c>
-      <c r="H222" t="n" s="4">
-        <v>49.0</v>
+      <c r="A222" t="s" s="2">
+        <v>358</v>
       </c>
     </row>
     <row r="223">
       <c r="B223" t="s" s="3">
-        <v>164</v>
+        <v>42</v>
       </c>
       <c r="C223" t="s" s="3">
         <v>290</v>
       </c>
-      <c r="D223" t="s" s="3">
-        <v>352</v>
+      <c r="D223" t="n" s="3">
+        <v>3300212.0</v>
       </c>
       <c r="E223" t="s" s="3">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="F223" t="s" s="3">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="G223" t="s" s="3">
         <v>293</v>
       </c>
       <c r="H223" t="n" s="4">
-        <v>-50.0</v>
+        <v>25.99</v>
       </c>
     </row>
     <row r="224">
       <c r="B224" t="s" s="3">
-        <v>164</v>
+        <v>146</v>
       </c>
       <c r="C224" t="s" s="3">
         <v>290</v>
       </c>
-      <c r="D224" t="s" s="3">
-        <v>352</v>
+      <c r="D224" t="n" s="3">
+        <v>119025.0</v>
       </c>
       <c r="E224" t="s" s="3">
-        <v>353</v>
+        <v>361</v>
       </c>
       <c r="F224" t="s" s="3">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="G224" t="s" s="3">
         <v>293</v>
       </c>
       <c r="H224" t="n" s="4">
-        <v>452.4</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="225">
-      <c r="A225" t="s" s="2">
-        <v>357</v>
-      </c>
-      <c r="H225" t="n" s="5">
-        <v>451.4</v>
+      <c r="B225" t="s" s="3">
+        <v>146</v>
+      </c>
+      <c r="C225" t="s" s="3">
+        <v>290</v>
+      </c>
+      <c r="D225" t="n" s="3">
+        <v>119025.0</v>
+      </c>
+      <c r="E225" t="s" s="3">
+        <v>361</v>
+      </c>
+      <c r="F225" t="s" s="3">
+        <v>362</v>
+      </c>
+      <c r="G225" t="s" s="3">
+        <v>293</v>
+      </c>
+      <c r="H225" t="n" s="4">
+        <v>1.9</v>
       </c>
     </row>
     <row r="226">
-      <c r="A226" t="s" s="2">
-        <v>358</v>
+      <c r="B226" t="s" s="3">
+        <v>146</v>
+      </c>
+      <c r="C226" t="s" s="3">
+        <v>290</v>
+      </c>
+      <c r="D226" t="n" s="3">
+        <v>119025.0</v>
+      </c>
+      <c r="E226" t="s" s="3">
+        <v>361</v>
+      </c>
+      <c r="F226" t="s" s="3">
+        <v>362</v>
+      </c>
+      <c r="G226" t="s" s="3">
+        <v>293</v>
+      </c>
+      <c r="H226" t="n" s="4">
+        <v>1.9</v>
       </c>
     </row>
     <row r="227">
@@ -6262,2730 +6340,2884 @@
         <v>146</v>
       </c>
       <c r="C227" t="s" s="3">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="D227" t="n" s="3">
-        <v>27817.0</v>
+        <v>119025.0</v>
       </c>
       <c r="E227" t="s" s="3">
-        <v>298</v>
+        <v>361</v>
       </c>
       <c r="F227" t="s" s="3">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="G227" t="s" s="3">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="H227" t="n" s="4">
-        <v>170.18</v>
+        <v>16.97</v>
       </c>
     </row>
     <row r="228">
-      <c r="B228" t="s" s="3">
-        <v>146</v>
-      </c>
-      <c r="C228" t="s" s="3">
-        <v>297</v>
-      </c>
-      <c r="D228" t="n" s="3">
-        <v>27817.0</v>
-      </c>
-      <c r="E228" t="s" s="3">
-        <v>298</v>
-      </c>
-      <c r="F228" t="s" s="3">
-        <v>360</v>
-      </c>
-      <c r="G228" t="s" s="3">
-        <v>300</v>
-      </c>
-      <c r="H228" t="n" s="4">
-        <v>15.0</v>
+      <c r="A228" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="H228" t="n" s="5">
+        <v>48.66</v>
       </c>
     </row>
     <row r="229">
-      <c r="B229" t="s" s="3">
-        <v>146</v>
-      </c>
-      <c r="C229" t="s" s="3">
-        <v>297</v>
-      </c>
-      <c r="D229" t="n" s="3">
-        <v>27817.0</v>
-      </c>
-      <c r="E229" t="s" s="3">
-        <v>298</v>
-      </c>
-      <c r="F229" t="s" s="3">
-        <v>361</v>
-      </c>
-      <c r="G229" t="s" s="3">
-        <v>300</v>
-      </c>
-      <c r="H229" t="n" s="4">
-        <v>30.0</v>
+      <c r="A229" t="s" s="2">
+        <v>365</v>
       </c>
     </row>
     <row r="230">
       <c r="B230" t="s" s="3">
-        <v>146</v>
+        <v>164</v>
       </c>
       <c r="C230" t="s" s="3">
-        <v>297</v>
-      </c>
-      <c r="D230" t="n" s="3">
-        <v>27817.0</v>
+        <v>290</v>
+      </c>
+      <c r="D230" t="s" s="3">
+        <v>366</v>
       </c>
       <c r="E230" t="s" s="3">
-        <v>298</v>
+        <v>367</v>
       </c>
       <c r="F230" t="s" s="3">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="G230" t="s" s="3">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="H230" t="n" s="4">
-        <v>42.0</v>
+        <v>452.4</v>
       </c>
     </row>
     <row r="231">
       <c r="B231" t="s" s="3">
-        <v>146</v>
+        <v>164</v>
       </c>
       <c r="C231" t="s" s="3">
-        <v>297</v>
-      </c>
-      <c r="D231" t="n" s="3">
-        <v>27817.0</v>
+        <v>290</v>
+      </c>
+      <c r="D231" t="s" s="3">
+        <v>366</v>
       </c>
       <c r="E231" t="s" s="3">
-        <v>298</v>
+        <v>367</v>
       </c>
       <c r="F231" t="s" s="3">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="G231" t="s" s="3">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="H231" t="n" s="4">
-        <v>14.0</v>
+        <v>-50.0</v>
       </c>
     </row>
     <row r="232">
       <c r="B232" t="s" s="3">
+        <v>164</v>
+      </c>
+      <c r="C232" t="s" s="3">
+        <v>290</v>
+      </c>
+      <c r="D232" t="s" s="3">
+        <v>366</v>
+      </c>
+      <c r="E232" t="s" s="3">
+        <v>367</v>
+      </c>
+      <c r="F232" t="s" s="3">
+        <v>370</v>
+      </c>
+      <c r="G232" t="s" s="3">
+        <v>293</v>
+      </c>
+      <c r="H232" t="n" s="4">
+        <v>49.0</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="H233" t="n" s="5">
+        <v>451.4</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="s" s="2">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="B235" t="s" s="3">
         <v>146</v>
       </c>
-      <c r="C232" t="s" s="3">
+      <c r="C235" t="s" s="3">
         <v>297</v>
       </c>
-      <c r="D232" t="n" s="3">
+      <c r="D235" t="n" s="3">
         <v>27817.0</v>
       </c>
-      <c r="E232" t="s" s="3">
+      <c r="E235" t="s" s="3">
         <v>298</v>
       </c>
-      <c r="F232" t="s" s="3">
-        <v>364</v>
-      </c>
-      <c r="G232" t="s" s="3">
+      <c r="F235" t="s" s="3">
+        <v>373</v>
+      </c>
+      <c r="G235" t="s" s="3">
         <v>300</v>
       </c>
-      <c r="H232" t="n" s="4">
-        <v>50.0</v>
-      </c>
-    </row>
-    <row r="233">
-      <c r="B233" t="s" s="3">
+      <c r="H235" t="n" s="4">
+        <v>14.0</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="B236" t="s" s="3">
         <v>146</v>
       </c>
-      <c r="C233" t="s" s="3">
+      <c r="C236" t="s" s="3">
         <v>297</v>
       </c>
-      <c r="D233" t="n" s="3">
+      <c r="D236" t="n" s="3">
         <v>27817.0</v>
       </c>
-      <c r="E233" t="s" s="3">
+      <c r="E236" t="s" s="3">
         <v>298</v>
       </c>
-      <c r="F233" t="s" s="3">
-        <v>365</v>
-      </c>
-      <c r="G233" t="s" s="3">
+      <c r="F236" t="s" s="3">
+        <v>374</v>
+      </c>
+      <c r="G236" t="s" s="3">
         <v>300</v>
       </c>
-      <c r="H233" t="n" s="4">
-        <v>240.0</v>
-      </c>
-    </row>
-    <row r="234">
-      <c r="B234" t="s" s="3">
-        <v>146</v>
-      </c>
-      <c r="C234" t="s" s="3">
-        <v>297</v>
-      </c>
-      <c r="D234" t="n" s="3">
-        <v>27817.0</v>
-      </c>
-      <c r="E234" t="s" s="3">
-        <v>298</v>
-      </c>
-      <c r="F234" t="s" s="3">
-        <v>366</v>
-      </c>
-      <c r="G234" t="s" s="3">
-        <v>300</v>
-      </c>
-      <c r="H234" t="n" s="4">
-        <v>1710.0</v>
-      </c>
-    </row>
-    <row r="235">
-      <c r="A235" t="s" s="2">
-        <v>367</v>
-      </c>
-      <c r="H235" t="n" s="5">
-        <v>2271.18</v>
-      </c>
-    </row>
-    <row r="236">
-      <c r="A236" t="s" s="2">
-        <v>368</v>
+      <c r="H236" t="n" s="4">
+        <v>170.18</v>
       </c>
     </row>
     <row r="237">
       <c r="B237" t="s" s="3">
-        <v>209</v>
+        <v>146</v>
       </c>
       <c r="C237" t="s" s="3">
         <v>297</v>
       </c>
       <c r="D237" t="n" s="3">
-        <v>10196.0</v>
+        <v>27817.0</v>
       </c>
       <c r="E237" t="s" s="3">
-        <v>369</v>
+        <v>298</v>
       </c>
       <c r="F237" t="s" s="3">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="G237" t="s" s="3">
         <v>300</v>
       </c>
       <c r="H237" t="n" s="4">
-        <v>1800.0</v>
+        <v>1710.0</v>
       </c>
     </row>
     <row r="238">
       <c r="B238" t="s" s="3">
-        <v>209</v>
+        <v>146</v>
       </c>
       <c r="C238" t="s" s="3">
         <v>297</v>
       </c>
       <c r="D238" t="n" s="3">
-        <v>10196.0</v>
+        <v>27817.0</v>
       </c>
       <c r="E238" t="s" s="3">
-        <v>369</v>
+        <v>298</v>
       </c>
       <c r="F238" t="s" s="3">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="G238" t="s" s="3">
         <v>300</v>
       </c>
       <c r="H238" t="n" s="4">
-        <v>760.2</v>
+        <v>240.0</v>
       </c>
     </row>
     <row r="239">
       <c r="B239" t="s" s="3">
-        <v>275</v>
+        <v>146</v>
       </c>
       <c r="C239" t="s" s="3">
-        <v>290</v>
-      </c>
-      <c r="D239" s="3"/>
+        <v>297</v>
+      </c>
+      <c r="D239" t="n" s="3">
+        <v>27817.0</v>
+      </c>
       <c r="E239" t="s" s="3">
-        <v>345</v>
+        <v>298</v>
       </c>
       <c r="F239" t="s" s="3">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="G239" t="s" s="3">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="H239" t="n" s="4">
-        <v>33.98</v>
+        <v>50.0</v>
       </c>
     </row>
     <row r="240">
       <c r="B240" t="s" s="3">
-        <v>275</v>
+        <v>146</v>
       </c>
       <c r="C240" t="s" s="3">
-        <v>290</v>
-      </c>
-      <c r="D240" s="3"/>
+        <v>297</v>
+      </c>
+      <c r="D240" t="n" s="3">
+        <v>27817.0</v>
+      </c>
       <c r="E240" t="s" s="3">
-        <v>345</v>
+        <v>298</v>
       </c>
       <c r="F240" t="s" s="3">
-        <v>373</v>
+        <v>378</v>
       </c>
       <c r="G240" t="s" s="3">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="H240" t="n" s="4">
-        <v>37.98</v>
+        <v>42.0</v>
       </c>
     </row>
     <row r="241">
       <c r="B241" t="s" s="3">
-        <v>275</v>
+        <v>146</v>
       </c>
       <c r="C241" t="s" s="3">
-        <v>290</v>
-      </c>
-      <c r="D241" s="3"/>
+        <v>297</v>
+      </c>
+      <c r="D241" t="n" s="3">
+        <v>27817.0</v>
+      </c>
       <c r="E241" t="s" s="3">
-        <v>345</v>
+        <v>298</v>
       </c>
       <c r="F241" t="s" s="3">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="G241" t="s" s="3">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="H241" t="n" s="4">
-        <v>12.99</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="242">
       <c r="B242" t="s" s="3">
-        <v>275</v>
+        <v>146</v>
       </c>
       <c r="C242" t="s" s="3">
-        <v>290</v>
-      </c>
-      <c r="D242" s="3"/>
+        <v>297</v>
+      </c>
+      <c r="D242" t="n" s="3">
+        <v>27817.0</v>
+      </c>
       <c r="E242" t="s" s="3">
-        <v>345</v>
+        <v>298</v>
       </c>
       <c r="F242" t="s" s="3">
-        <v>375</v>
+        <v>380</v>
       </c>
       <c r="G242" t="s" s="3">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="H242" t="n" s="4">
-        <v>15.98</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="243">
-      <c r="B243" t="s" s="3">
-        <v>275</v>
-      </c>
-      <c r="C243" t="s" s="3">
-        <v>290</v>
-      </c>
-      <c r="D243" s="3"/>
-      <c r="E243" t="s" s="3">
-        <v>345</v>
-      </c>
-      <c r="F243" t="s" s="3">
-        <v>376</v>
-      </c>
-      <c r="G243" t="s" s="3">
-        <v>293</v>
-      </c>
-      <c r="H243" t="n" s="4">
-        <v>0.0</v>
+      <c r="A243" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="H243" t="n" s="5">
+        <v>2271.18</v>
       </c>
     </row>
     <row r="244">
-      <c r="B244" t="s" s="3">
-        <v>275</v>
-      </c>
-      <c r="C244" t="s" s="3">
-        <v>290</v>
-      </c>
-      <c r="D244" s="3"/>
-      <c r="E244" t="s" s="3">
-        <v>345</v>
-      </c>
-      <c r="F244" t="s" s="3">
-        <v>377</v>
-      </c>
-      <c r="G244" t="s" s="3">
-        <v>293</v>
-      </c>
-      <c r="H244" t="n" s="4">
-        <v>4.26</v>
+      <c r="A244" t="s" s="2">
+        <v>382</v>
       </c>
     </row>
     <row r="245">
-      <c r="A245" t="s" s="2">
-        <v>378</v>
-      </c>
-      <c r="H245" t="n" s="5">
-        <v>2665.39</v>
+      <c r="B245" t="s" s="3">
+        <v>209</v>
+      </c>
+      <c r="C245" t="s" s="3">
+        <v>297</v>
+      </c>
+      <c r="D245" t="n" s="3">
+        <v>10196.0</v>
+      </c>
+      <c r="E245" t="s" s="3">
+        <v>383</v>
+      </c>
+      <c r="F245" t="s" s="3">
+        <v>384</v>
+      </c>
+      <c r="G245" t="s" s="3">
+        <v>300</v>
+      </c>
+      <c r="H245" t="n" s="4">
+        <v>760.2</v>
       </c>
     </row>
     <row r="246">
-      <c r="A246" t="s" s="2">
-        <v>379</v>
+      <c r="B246" t="s" s="3">
+        <v>209</v>
+      </c>
+      <c r="C246" t="s" s="3">
+        <v>297</v>
+      </c>
+      <c r="D246" t="n" s="3">
+        <v>10196.0</v>
+      </c>
+      <c r="E246" t="s" s="3">
+        <v>383</v>
+      </c>
+      <c r="F246" t="s" s="3">
+        <v>385</v>
+      </c>
+      <c r="G246" t="s" s="3">
+        <v>300</v>
+      </c>
+      <c r="H246" t="n" s="4">
+        <v>1800.0</v>
       </c>
     </row>
     <row r="247">
       <c r="B247" t="s" s="3">
-        <v>380</v>
+        <v>275</v>
       </c>
       <c r="C247" t="s" s="3">
         <v>290</v>
       </c>
       <c r="D247" s="3"/>
       <c r="E247" t="s" s="3">
-        <v>381</v>
+        <v>359</v>
       </c>
       <c r="F247" t="s" s="3">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="G247" t="s" s="3">
         <v>293</v>
       </c>
       <c r="H247" t="n" s="4">
-        <v>42.13</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="248">
       <c r="B248" t="s" s="3">
-        <v>383</v>
+        <v>275</v>
       </c>
       <c r="C248" t="s" s="3">
         <v>290</v>
       </c>
       <c r="D248" s="3"/>
       <c r="E248" t="s" s="3">
-        <v>384</v>
+        <v>359</v>
       </c>
       <c r="F248" t="s" s="3">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="G248" t="s" s="3">
         <v>293</v>
       </c>
       <c r="H248" t="n" s="4">
-        <v>6.48</v>
+        <v>4.26</v>
       </c>
     </row>
     <row r="249">
       <c r="B249" t="s" s="3">
-        <v>383</v>
+        <v>275</v>
       </c>
       <c r="C249" t="s" s="3">
         <v>290</v>
       </c>
       <c r="D249" s="3"/>
       <c r="E249" t="s" s="3">
-        <v>384</v>
+        <v>359</v>
       </c>
       <c r="F249" t="s" s="3">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="G249" t="s" s="3">
         <v>293</v>
       </c>
       <c r="H249" t="n" s="4">
-        <v>8.2</v>
+        <v>33.98</v>
       </c>
     </row>
     <row r="250">
       <c r="B250" t="s" s="3">
-        <v>383</v>
+        <v>275</v>
       </c>
       <c r="C250" t="s" s="3">
         <v>290</v>
       </c>
       <c r="D250" s="3"/>
       <c r="E250" t="s" s="3">
-        <v>384</v>
+        <v>359</v>
       </c>
       <c r="F250" t="s" s="3">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="G250" t="s" s="3">
         <v>293</v>
       </c>
       <c r="H250" t="n" s="4">
-        <v>5.92</v>
+        <v>37.98</v>
       </c>
     </row>
     <row r="251">
       <c r="B251" t="s" s="3">
-        <v>383</v>
+        <v>275</v>
       </c>
       <c r="C251" t="s" s="3">
         <v>290</v>
       </c>
       <c r="D251" s="3"/>
       <c r="E251" t="s" s="3">
-        <v>384</v>
+        <v>359</v>
       </c>
       <c r="F251" t="s" s="3">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="G251" t="s" s="3">
         <v>293</v>
       </c>
       <c r="H251" t="n" s="4">
-        <v>1.83</v>
+        <v>12.99</v>
       </c>
     </row>
     <row r="252">
       <c r="B252" t="s" s="3">
-        <v>383</v>
+        <v>275</v>
       </c>
       <c r="C252" t="s" s="3">
         <v>290</v>
       </c>
       <c r="D252" s="3"/>
       <c r="E252" t="s" s="3">
-        <v>384</v>
+        <v>359</v>
       </c>
       <c r="F252" t="s" s="3">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="G252" t="s" s="3">
         <v>293</v>
       </c>
       <c r="H252" t="n" s="4">
-        <v>1.24</v>
+        <v>15.98</v>
       </c>
     </row>
     <row r="253">
-      <c r="B253" t="s" s="3">
-        <v>383</v>
-      </c>
-      <c r="C253" t="s" s="3">
-        <v>290</v>
-      </c>
-      <c r="D253" s="3"/>
-      <c r="E253" t="s" s="3">
-        <v>384</v>
-      </c>
-      <c r="F253" t="s" s="3">
-        <v>390</v>
-      </c>
-      <c r="G253" t="s" s="3">
-        <v>293</v>
-      </c>
-      <c r="H253" t="n" s="4">
-        <v>11.96</v>
+      <c r="A253" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="H253" t="n" s="5">
+        <v>2665.39</v>
       </c>
     </row>
     <row r="254">
-      <c r="B254" t="s" s="3">
-        <v>383</v>
-      </c>
-      <c r="C254" t="s" s="3">
-        <v>290</v>
-      </c>
-      <c r="D254" s="3"/>
-      <c r="E254" t="s" s="3">
-        <v>384</v>
-      </c>
-      <c r="F254" t="s" s="3">
-        <v>391</v>
-      </c>
-      <c r="G254" t="s" s="3">
-        <v>293</v>
-      </c>
-      <c r="H254" t="n" s="4">
-        <v>4.47</v>
+      <c r="A254" t="s" s="2">
+        <v>393</v>
       </c>
     </row>
     <row r="255">
       <c r="B255" t="s" s="3">
-        <v>383</v>
+        <v>394</v>
       </c>
       <c r="C255" t="s" s="3">
-        <v>290</v>
-      </c>
-      <c r="D255" s="3"/>
+        <v>297</v>
+      </c>
+      <c r="D255" t="n" s="3">
+        <v>333.0</v>
+      </c>
       <c r="E255" t="s" s="3">
-        <v>384</v>
+        <v>395</v>
       </c>
       <c r="F255" t="s" s="3">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="G255" t="s" s="3">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="H255" t="n" s="4">
-        <v>9.92</v>
+        <v>1000.0</v>
       </c>
     </row>
     <row r="256">
-      <c r="B256" t="s" s="3">
-        <v>393</v>
-      </c>
-      <c r="C256" t="s" s="3">
-        <v>394</v>
-      </c>
-      <c r="D256" s="3"/>
-      <c r="E256" t="s" s="3">
-        <v>384</v>
-      </c>
-      <c r="F256" t="s" s="3">
-        <v>395</v>
-      </c>
-      <c r="G256" t="s" s="3">
-        <v>293</v>
-      </c>
-      <c r="H256" t="n" s="4">
-        <v>-10.72</v>
+      <c r="A256" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="H256" t="n" s="5">
+        <v>1000.0</v>
       </c>
     </row>
     <row r="257">
-      <c r="B257" t="s" s="3">
-        <v>396</v>
-      </c>
-      <c r="C257" t="s" s="3">
-        <v>290</v>
-      </c>
-      <c r="D257" t="s" s="3">
-        <v>397</v>
-      </c>
-      <c r="E257" t="s" s="3">
-        <v>345</v>
-      </c>
-      <c r="F257" t="s" s="3">
+      <c r="A257" t="s" s="2">
         <v>398</v>
-      </c>
-      <c r="G257" t="s" s="3">
-        <v>293</v>
-      </c>
-      <c r="H257" t="n" s="4">
-        <v>169.99</v>
       </c>
     </row>
     <row r="258">
       <c r="B258" t="s" s="3">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="C258" t="s" s="3">
         <v>290</v>
       </c>
-      <c r="D258" t="s" s="3">
-        <v>399</v>
-      </c>
+      <c r="D258" s="3"/>
       <c r="E258" t="s" s="3">
-        <v>345</v>
+        <v>400</v>
       </c>
       <c r="F258" t="s" s="3">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="G258" t="s" s="3">
         <v>293</v>
       </c>
       <c r="H258" t="n" s="4">
-        <v>59.99</v>
+        <v>42.13</v>
       </c>
     </row>
     <row r="259">
       <c r="B259" t="s" s="3">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="C259" t="s" s="3">
         <v>290</v>
       </c>
-      <c r="D259" t="s" s="3">
-        <v>399</v>
-      </c>
+      <c r="D259" s="3"/>
       <c r="E259" t="s" s="3">
-        <v>345</v>
+        <v>403</v>
       </c>
       <c r="F259" t="s" s="3">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="G259" t="s" s="3">
         <v>293</v>
       </c>
       <c r="H259" t="n" s="4">
-        <v>74.97</v>
+        <v>6.48</v>
       </c>
     </row>
     <row r="260">
       <c r="B260" t="s" s="3">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="C260" t="s" s="3">
         <v>290</v>
       </c>
-      <c r="D260" t="s" s="3">
-        <v>399</v>
-      </c>
+      <c r="D260" s="3"/>
       <c r="E260" t="s" s="3">
-        <v>345</v>
+        <v>403</v>
       </c>
       <c r="F260" t="s" s="3">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="G260" t="s" s="3">
         <v>293</v>
       </c>
       <c r="H260" t="n" s="4">
-        <v>24.99</v>
+        <v>8.2</v>
       </c>
     </row>
     <row r="261">
       <c r="B261" t="s" s="3">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="C261" t="s" s="3">
         <v>290</v>
       </c>
-      <c r="D261" t="s" s="3">
-        <v>399</v>
-      </c>
+      <c r="D261" s="3"/>
       <c r="E261" t="s" s="3">
-        <v>345</v>
+        <v>403</v>
       </c>
       <c r="F261" t="s" s="3">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="G261" t="s" s="3">
         <v>293</v>
       </c>
       <c r="H261" t="n" s="4">
-        <v>358.0</v>
+        <v>9.92</v>
       </c>
     </row>
     <row r="262">
       <c r="B262" t="s" s="3">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="C262" t="s" s="3">
         <v>290</v>
       </c>
-      <c r="D262" t="s" s="3">
-        <v>399</v>
-      </c>
+      <c r="D262" s="3"/>
       <c r="E262" t="s" s="3">
-        <v>345</v>
+        <v>403</v>
       </c>
       <c r="F262" t="s" s="3">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="G262" t="s" s="3">
         <v>293</v>
       </c>
       <c r="H262" t="n" s="4">
-        <v>-12.0</v>
+        <v>1.83</v>
       </c>
     </row>
     <row r="263">
       <c r="B263" t="s" s="3">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="C263" t="s" s="3">
         <v>290</v>
       </c>
-      <c r="D263" t="s" s="3">
-        <v>399</v>
-      </c>
+      <c r="D263" s="3"/>
       <c r="E263" t="s" s="3">
-        <v>345</v>
+        <v>403</v>
       </c>
       <c r="F263" t="s" s="3">
-        <v>377</v>
+        <v>408</v>
       </c>
       <c r="G263" t="s" s="3">
         <v>293</v>
       </c>
       <c r="H263" t="n" s="4">
-        <v>30.59</v>
+        <v>4.47</v>
       </c>
     </row>
     <row r="264">
       <c r="B264" t="s" s="3">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="C264" t="s" s="3">
         <v>290</v>
       </c>
-      <c r="D264" t="n" s="3">
-        <v>8997855.0</v>
-      </c>
+      <c r="D264" s="3"/>
       <c r="E264" t="s" s="3">
-        <v>345</v>
+        <v>403</v>
       </c>
       <c r="F264" t="s" s="3">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="G264" t="s" s="3">
         <v>293</v>
       </c>
       <c r="H264" t="n" s="4">
-        <v>79.94</v>
+        <v>11.96</v>
       </c>
     </row>
     <row r="265">
       <c r="B265" t="s" s="3">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="C265" t="s" s="3">
         <v>290</v>
       </c>
-      <c r="D265" t="n" s="3">
-        <v>2343429.0</v>
-      </c>
+      <c r="D265" s="3"/>
       <c r="E265" t="s" s="3">
-        <v>345</v>
+        <v>403</v>
       </c>
       <c r="F265" t="s" s="3">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="G265" t="s" s="3">
         <v>293</v>
       </c>
       <c r="H265" t="n" s="4">
-        <v>100.0</v>
+        <v>5.92</v>
       </c>
     </row>
     <row r="266">
       <c r="B266" t="s" s="3">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="C266" t="s" s="3">
-        <v>394</v>
+        <v>290</v>
       </c>
       <c r="D266" s="3"/>
       <c r="E266" t="s" s="3">
-        <v>345</v>
+        <v>403</v>
       </c>
       <c r="F266" t="s" s="3">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="G266" t="s" s="3">
         <v>293</v>
       </c>
       <c r="H266" t="n" s="4">
-        <v>-6.26</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="267">
-      <c r="A267" t="s" s="2">
-        <v>409</v>
-      </c>
-      <c r="H267" t="n" s="5">
-        <v>961.64</v>
+      <c r="B267" t="s" s="3">
+        <v>412</v>
+      </c>
+      <c r="C267" t="s" s="3">
+        <v>413</v>
+      </c>
+      <c r="D267" s="3"/>
+      <c r="E267" t="s" s="3">
+        <v>403</v>
+      </c>
+      <c r="F267" t="s" s="3">
+        <v>414</v>
+      </c>
+      <c r="G267" t="s" s="3">
+        <v>293</v>
+      </c>
+      <c r="H267" t="n" s="4">
+        <v>-10.72</v>
       </c>
     </row>
     <row r="268">
-      <c r="A268" t="s" s="2">
-        <v>410</v>
+      <c r="B268" t="s" s="3">
+        <v>415</v>
+      </c>
+      <c r="C268" t="s" s="3">
+        <v>290</v>
+      </c>
+      <c r="D268" t="n" s="3">
+        <v>2343429.0</v>
+      </c>
+      <c r="E268" t="s" s="3">
+        <v>359</v>
+      </c>
+      <c r="F268" t="s" s="3">
+        <v>416</v>
+      </c>
+      <c r="G268" t="s" s="3">
+        <v>293</v>
+      </c>
+      <c r="H268" t="n" s="4">
+        <v>100.0</v>
       </c>
     </row>
     <row r="269">
       <c r="B269" t="s" s="3">
-        <v>275</v>
+        <v>415</v>
       </c>
       <c r="C269" t="s" s="3">
-        <v>297</v>
-      </c>
-      <c r="D269" s="3"/>
+        <v>290</v>
+      </c>
+      <c r="D269" t="s" s="3">
+        <v>417</v>
+      </c>
       <c r="E269" t="s" s="3">
-        <v>411</v>
+        <v>359</v>
       </c>
       <c r="F269" t="s" s="3">
-        <v>412</v>
+        <v>418</v>
       </c>
       <c r="G269" t="s" s="3">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="H269" t="n" s="4">
-        <v>-500.0</v>
+        <v>169.99</v>
       </c>
     </row>
     <row r="270">
       <c r="B270" t="s" s="3">
-        <v>275</v>
+        <v>415</v>
       </c>
       <c r="C270" t="s" s="3">
-        <v>297</v>
-      </c>
-      <c r="D270" s="3"/>
+        <v>290</v>
+      </c>
+      <c r="D270" t="s" s="3">
+        <v>419</v>
+      </c>
       <c r="E270" t="s" s="3">
-        <v>411</v>
+        <v>359</v>
       </c>
       <c r="F270" t="s" s="3">
-        <v>413</v>
+        <v>420</v>
       </c>
       <c r="G270" t="s" s="3">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="H270" t="n" s="4">
-        <v>338.99</v>
+        <v>59.99</v>
       </c>
     </row>
     <row r="271">
       <c r="B271" t="s" s="3">
-        <v>275</v>
+        <v>415</v>
       </c>
       <c r="C271" t="s" s="3">
-        <v>297</v>
-      </c>
-      <c r="D271" s="3"/>
+        <v>290</v>
+      </c>
+      <c r="D271" t="s" s="3">
+        <v>419</v>
+      </c>
       <c r="E271" t="s" s="3">
-        <v>411</v>
+        <v>359</v>
       </c>
       <c r="F271" t="s" s="3">
-        <v>414</v>
+        <v>421</v>
       </c>
       <c r="G271" t="s" s="3">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="H271" t="n" s="4">
-        <v>1000.0</v>
+        <v>74.97</v>
       </c>
     </row>
     <row r="272">
       <c r="B272" t="s" s="3">
-        <v>275</v>
+        <v>415</v>
       </c>
       <c r="C272" t="s" s="3">
-        <v>297</v>
-      </c>
-      <c r="D272" s="3"/>
+        <v>290</v>
+      </c>
+      <c r="D272" t="s" s="3">
+        <v>419</v>
+      </c>
       <c r="E272" t="s" s="3">
-        <v>411</v>
+        <v>359</v>
       </c>
       <c r="F272" t="s" s="3">
-        <v>415</v>
+        <v>422</v>
       </c>
       <c r="G272" t="s" s="3">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="H272" t="n" s="4">
-        <v>3185.0</v>
+        <v>24.99</v>
       </c>
     </row>
     <row r="273">
       <c r="B273" t="s" s="3">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C273" t="s" s="3">
         <v>290</v>
       </c>
-      <c r="D273" t="n" s="3">
-        <v>550835.0</v>
+      <c r="D273" t="s" s="3">
+        <v>419</v>
       </c>
       <c r="E273" t="s" s="3">
-        <v>384</v>
+        <v>359</v>
       </c>
       <c r="F273" t="s" s="3">
-        <v>417</v>
+        <v>423</v>
       </c>
       <c r="G273" t="s" s="3">
         <v>293</v>
       </c>
       <c r="H273" t="n" s="4">
-        <v>3.24</v>
+        <v>358.0</v>
       </c>
     </row>
     <row r="274">
       <c r="B274" t="s" s="3">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C274" t="s" s="3">
         <v>290</v>
       </c>
-      <c r="D274" t="n" s="3">
-        <v>550835.0</v>
+      <c r="D274" t="s" s="3">
+        <v>419</v>
       </c>
       <c r="E274" t="s" s="3">
-        <v>384</v>
+        <v>359</v>
       </c>
       <c r="F274" t="s" s="3">
-        <v>418</v>
+        <v>424</v>
       </c>
       <c r="G274" t="s" s="3">
         <v>293</v>
       </c>
       <c r="H274" t="n" s="4">
-        <v>2.64</v>
+        <v>-12.0</v>
       </c>
     </row>
     <row r="275">
       <c r="B275" t="s" s="3">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C275" t="s" s="3">
         <v>290</v>
       </c>
       <c r="D275" t="n" s="3">
-        <v>550835.0</v>
+        <v>8997855.0</v>
       </c>
       <c r="E275" t="s" s="3">
-        <v>384</v>
+        <v>359</v>
       </c>
       <c r="F275" t="s" s="3">
-        <v>419</v>
+        <v>425</v>
       </c>
       <c r="G275" t="s" s="3">
         <v>293</v>
       </c>
       <c r="H275" t="n" s="4">
-        <v>5.0</v>
+        <v>79.94</v>
       </c>
     </row>
     <row r="276">
       <c r="B276" t="s" s="3">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C276" t="s" s="3">
         <v>290</v>
       </c>
-      <c r="D276" t="n" s="3">
-        <v>550835.0</v>
+      <c r="D276" t="s" s="3">
+        <v>419</v>
       </c>
       <c r="E276" t="s" s="3">
-        <v>384</v>
+        <v>359</v>
       </c>
       <c r="F276" t="s" s="3">
-        <v>420</v>
+        <v>387</v>
       </c>
       <c r="G276" t="s" s="3">
         <v>293</v>
       </c>
       <c r="H276" t="n" s="4">
-        <v>2.64</v>
+        <v>30.59</v>
       </c>
     </row>
     <row r="277">
       <c r="B277" t="s" s="3">
-        <v>416</v>
+        <v>426</v>
       </c>
       <c r="C277" t="s" s="3">
-        <v>290</v>
-      </c>
-      <c r="D277" t="n" s="3">
-        <v>550835.0</v>
-      </c>
+        <v>413</v>
+      </c>
+      <c r="D277" s="3"/>
       <c r="E277" t="s" s="3">
-        <v>384</v>
+        <v>359</v>
       </c>
       <c r="F277" t="s" s="3">
-        <v>421</v>
+        <v>427</v>
       </c>
       <c r="G277" t="s" s="3">
         <v>293</v>
       </c>
       <c r="H277" t="n" s="4">
-        <v>2.0</v>
+        <v>-6.26</v>
       </c>
     </row>
     <row r="278">
-      <c r="B278" t="s" s="3">
-        <v>416</v>
-      </c>
-      <c r="C278" t="s" s="3">
-        <v>290</v>
-      </c>
-      <c r="D278" t="n" s="3">
-        <v>550835.0</v>
-      </c>
-      <c r="E278" t="s" s="3">
-        <v>384</v>
-      </c>
-      <c r="F278" t="s" s="3">
-        <v>389</v>
-      </c>
-      <c r="G278" t="s" s="3">
-        <v>293</v>
-      </c>
-      <c r="H278" t="n" s="4">
-        <v>0.79</v>
+      <c r="A278" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="H278" t="n" s="5">
+        <v>961.64</v>
       </c>
     </row>
     <row r="279">
-      <c r="B279" t="s" s="3">
-        <v>416</v>
-      </c>
-      <c r="C279" t="s" s="3">
-        <v>290</v>
-      </c>
-      <c r="D279" t="n" s="3">
-        <v>550835.0</v>
-      </c>
-      <c r="E279" t="s" s="3">
-        <v>384</v>
-      </c>
-      <c r="F279" t="s" s="3">
-        <v>388</v>
-      </c>
-      <c r="G279" t="s" s="3">
-        <v>293</v>
-      </c>
-      <c r="H279" t="n" s="4">
-        <v>0.39</v>
+      <c r="A279" t="s" s="2">
+        <v>429</v>
       </c>
     </row>
     <row r="280">
       <c r="B280" t="s" s="3">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="C280" t="s" s="3">
         <v>297</v>
       </c>
       <c r="D280" s="3"/>
       <c r="E280" t="s" s="3">
-        <v>411</v>
+        <v>430</v>
       </c>
       <c r="F280" t="s" s="3">
-        <v>422</v>
+        <v>431</v>
       </c>
       <c r="G280" t="s" s="3">
         <v>300</v>
       </c>
       <c r="H280" t="n" s="4">
-        <v>100.0</v>
+        <v>1000.0</v>
       </c>
     </row>
     <row r="281">
       <c r="B281" t="s" s="3">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="C281" t="s" s="3">
         <v>297</v>
       </c>
       <c r="D281" s="3"/>
       <c r="E281" t="s" s="3">
-        <v>411</v>
+        <v>430</v>
       </c>
       <c r="F281" t="s" s="3">
-        <v>423</v>
+        <v>432</v>
       </c>
       <c r="G281" t="s" s="3">
         <v>300</v>
       </c>
       <c r="H281" t="n" s="4">
-        <v>610.65</v>
+        <v>338.99</v>
       </c>
     </row>
     <row r="282">
       <c r="B282" t="s" s="3">
-        <v>424</v>
+        <v>275</v>
       </c>
       <c r="C282" t="s" s="3">
         <v>297</v>
       </c>
       <c r="D282" s="3"/>
       <c r="E282" t="s" s="3">
-        <v>411</v>
+        <v>430</v>
       </c>
       <c r="F282" t="s" s="3">
-        <v>425</v>
+        <v>433</v>
       </c>
       <c r="G282" t="s" s="3">
         <v>300</v>
       </c>
       <c r="H282" t="n" s="4">
-        <v>523.0</v>
+        <v>-500.0</v>
       </c>
     </row>
     <row r="283">
       <c r="B283" t="s" s="3">
-        <v>424</v>
+        <v>275</v>
       </c>
       <c r="C283" t="s" s="3">
         <v>297</v>
       </c>
       <c r="D283" s="3"/>
       <c r="E283" t="s" s="3">
-        <v>411</v>
+        <v>430</v>
       </c>
       <c r="F283" t="s" s="3">
-        <v>413</v>
+        <v>434</v>
       </c>
       <c r="G283" t="s" s="3">
         <v>300</v>
       </c>
       <c r="H283" t="n" s="4">
-        <v>42.36</v>
+        <v>3185.0</v>
       </c>
     </row>
     <row r="284">
-      <c r="A284" t="s" s="2">
-        <v>426</v>
-      </c>
-      <c r="H284" t="n" s="5">
-        <v>5316.7</v>
+      <c r="B284" t="s" s="3">
+        <v>435</v>
+      </c>
+      <c r="C284" t="s" s="3">
+        <v>290</v>
+      </c>
+      <c r="D284" t="n" s="3">
+        <v>550835.0</v>
+      </c>
+      <c r="E284" t="s" s="3">
+        <v>403</v>
+      </c>
+      <c r="F284" t="s" s="3">
+        <v>436</v>
+      </c>
+      <c r="G284" t="s" s="3">
+        <v>293</v>
+      </c>
+      <c r="H284" t="n" s="4">
+        <v>2.0</v>
       </c>
     </row>
     <row r="285">
-      <c r="A285" t="s" s="2">
-        <v>427</v>
+      <c r="B285" t="s" s="3">
+        <v>435</v>
+      </c>
+      <c r="C285" t="s" s="3">
+        <v>290</v>
+      </c>
+      <c r="D285" t="n" s="3">
+        <v>550835.0</v>
+      </c>
+      <c r="E285" t="s" s="3">
+        <v>403</v>
+      </c>
+      <c r="F285" t="s" s="3">
+        <v>407</v>
+      </c>
+      <c r="G285" t="s" s="3">
+        <v>293</v>
+      </c>
+      <c r="H285" t="n" s="4">
+        <v>0.39</v>
       </c>
     </row>
     <row r="286">
       <c r="B286" t="s" s="3">
-        <v>16</v>
+        <v>435</v>
       </c>
       <c r="C286" t="s" s="3">
         <v>290</v>
       </c>
-      <c r="D286" s="3"/>
+      <c r="D286" t="n" s="3">
+        <v>550835.0</v>
+      </c>
       <c r="E286" t="s" s="3">
-        <v>304</v>
+        <v>403</v>
       </c>
       <c r="F286" t="s" s="3">
-        <v>428</v>
+        <v>411</v>
       </c>
       <c r="G286" t="s" s="3">
         <v>293</v>
       </c>
       <c r="H286" t="n" s="4">
-        <v>26.35</v>
+        <v>0.79</v>
       </c>
     </row>
     <row r="287">
       <c r="B287" t="s" s="3">
-        <v>16</v>
+        <v>435</v>
       </c>
       <c r="C287" t="s" s="3">
         <v>290</v>
       </c>
-      <c r="D287" s="3"/>
+      <c r="D287" t="n" s="3">
+        <v>550835.0</v>
+      </c>
       <c r="E287" t="s" s="3">
-        <v>304</v>
+        <v>403</v>
       </c>
       <c r="F287" t="s" s="3">
-        <v>429</v>
+        <v>437</v>
       </c>
       <c r="G287" t="s" s="3">
         <v>293</v>
       </c>
       <c r="H287" t="n" s="4">
-        <v>52.45</v>
+        <v>2.64</v>
       </c>
     </row>
     <row r="288">
       <c r="B288" t="s" s="3">
-        <v>16</v>
+        <v>435</v>
       </c>
       <c r="C288" t="s" s="3">
         <v>290</v>
       </c>
-      <c r="D288" s="3"/>
+      <c r="D288" t="n" s="3">
+        <v>550835.0</v>
+      </c>
       <c r="E288" t="s" s="3">
-        <v>304</v>
+        <v>403</v>
       </c>
       <c r="F288" t="s" s="3">
-        <v>430</v>
+        <v>438</v>
       </c>
       <c r="G288" t="s" s="3">
         <v>293</v>
       </c>
       <c r="H288" t="n" s="4">
-        <v>52.45</v>
+        <v>2.64</v>
       </c>
     </row>
     <row r="289">
       <c r="B289" t="s" s="3">
-        <v>209</v>
+        <v>435</v>
       </c>
       <c r="C289" t="s" s="3">
         <v>290</v>
       </c>
-      <c r="D289" s="3"/>
+      <c r="D289" t="n" s="3">
+        <v>550835.0</v>
+      </c>
       <c r="E289" t="s" s="3">
-        <v>304</v>
+        <v>403</v>
       </c>
       <c r="F289" t="s" s="3">
-        <v>431</v>
+        <v>439</v>
       </c>
       <c r="G289" t="s" s="3">
         <v>293</v>
       </c>
       <c r="H289" t="n" s="4">
-        <v>13.3</v>
+        <v>3.24</v>
       </c>
     </row>
     <row r="290">
       <c r="B290" t="s" s="3">
-        <v>209</v>
+        <v>435</v>
       </c>
       <c r="C290" t="s" s="3">
         <v>290</v>
       </c>
-      <c r="D290" s="3"/>
+      <c r="D290" t="n" s="3">
+        <v>550835.0</v>
+      </c>
       <c r="E290" t="s" s="3">
-        <v>304</v>
+        <v>403</v>
       </c>
       <c r="F290" t="s" s="3">
-        <v>432</v>
+        <v>440</v>
       </c>
       <c r="G290" t="s" s="3">
         <v>293</v>
       </c>
       <c r="H290" t="n" s="4">
-        <v>10.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="291">
-      <c r="A291" t="s" s="2">
-        <v>433</v>
-      </c>
-      <c r="H291" t="n" s="5">
-        <v>154.55</v>
+      <c r="B291" t="s" s="3">
+        <v>280</v>
+      </c>
+      <c r="C291" t="s" s="3">
+        <v>297</v>
+      </c>
+      <c r="D291" s="3"/>
+      <c r="E291" t="s" s="3">
+        <v>430</v>
+      </c>
+      <c r="F291" t="s" s="3">
+        <v>441</v>
+      </c>
+      <c r="G291" t="s" s="3">
+        <v>300</v>
+      </c>
+      <c r="H291" t="n" s="4">
+        <v>100.0</v>
       </c>
     </row>
     <row r="292">
-      <c r="A292" t="s" s="2">
-        <v>434</v>
+      <c r="B292" t="s" s="3">
+        <v>280</v>
+      </c>
+      <c r="C292" t="s" s="3">
+        <v>297</v>
+      </c>
+      <c r="D292" s="3"/>
+      <c r="E292" t="s" s="3">
+        <v>430</v>
+      </c>
+      <c r="F292" t="s" s="3">
+        <v>442</v>
+      </c>
+      <c r="G292" t="s" s="3">
+        <v>300</v>
+      </c>
+      <c r="H292" t="n" s="4">
+        <v>610.65</v>
       </c>
     </row>
     <row r="293">
       <c r="B293" t="s" s="3">
-        <v>209</v>
+        <v>443</v>
       </c>
       <c r="C293" t="s" s="3">
         <v>297</v>
       </c>
       <c r="D293" s="3"/>
       <c r="E293" t="s" s="3">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="F293" t="s" s="3">
-        <v>436</v>
+        <v>444</v>
       </c>
       <c r="G293" t="s" s="3">
         <v>300</v>
       </c>
       <c r="H293" t="n" s="4">
-        <v>4.99</v>
+        <v>523.0</v>
       </c>
     </row>
     <row r="294">
-      <c r="A294" t="s" s="2">
-        <v>437</v>
-      </c>
-      <c r="H294" t="n" s="5">
-        <v>4.99</v>
+      <c r="B294" t="s" s="3">
+        <v>443</v>
+      </c>
+      <c r="C294" t="s" s="3">
+        <v>297</v>
+      </c>
+      <c r="D294" s="3"/>
+      <c r="E294" t="s" s="3">
+        <v>430</v>
+      </c>
+      <c r="F294" t="s" s="3">
+        <v>432</v>
+      </c>
+      <c r="G294" t="s" s="3">
+        <v>300</v>
+      </c>
+      <c r="H294" t="n" s="4">
+        <v>42.36</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="s" s="2">
-        <v>438</v>
+        <v>445</v>
+      </c>
+      <c r="H295" t="n" s="5">
+        <v>5316.7</v>
       </c>
     </row>
     <row r="296">
-      <c r="B296" t="s" s="3">
-        <v>98</v>
-      </c>
-      <c r="C296" t="s" s="3">
-        <v>290</v>
-      </c>
-      <c r="D296" s="3"/>
-      <c r="E296" t="s" s="3">
-        <v>439</v>
-      </c>
-      <c r="F296" t="s" s="3">
-        <v>440</v>
-      </c>
-      <c r="G296" t="s" s="3">
-        <v>65</v>
-      </c>
-      <c r="H296" t="n" s="4">
-        <v>27.69</v>
+      <c r="A296" t="s" s="2">
+        <v>446</v>
       </c>
     </row>
     <row r="297">
       <c r="B297" t="s" s="3">
-        <v>441</v>
+        <v>16</v>
       </c>
       <c r="C297" t="s" s="3">
         <v>290</v>
       </c>
       <c r="D297" s="3"/>
       <c r="E297" t="s" s="3">
-        <v>439</v>
+        <v>304</v>
       </c>
       <c r="F297" t="s" s="3">
-        <v>442</v>
+        <v>447</v>
       </c>
       <c r="G297" t="s" s="3">
-        <v>65</v>
+        <v>293</v>
       </c>
       <c r="H297" t="n" s="4">
-        <v>3.2</v>
+        <v>26.35</v>
       </c>
     </row>
     <row r="298">
       <c r="B298" t="s" s="3">
-        <v>443</v>
+        <v>16</v>
       </c>
       <c r="C298" t="s" s="3">
         <v>290</v>
       </c>
       <c r="D298" s="3"/>
       <c r="E298" t="s" s="3">
-        <v>439</v>
+        <v>304</v>
       </c>
       <c r="F298" t="s" s="3">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="G298" t="s" s="3">
-        <v>65</v>
+        <v>293</v>
       </c>
       <c r="H298" t="n" s="4">
-        <v>1.75</v>
+        <v>52.45</v>
       </c>
     </row>
     <row r="299">
       <c r="B299" t="s" s="3">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="C299" t="s" s="3">
         <v>290</v>
       </c>
       <c r="D299" s="3"/>
       <c r="E299" t="s" s="3">
-        <v>439</v>
+        <v>304</v>
       </c>
       <c r="F299" t="s" s="3">
-        <v>442</v>
+        <v>449</v>
       </c>
       <c r="G299" t="s" s="3">
-        <v>65</v>
+        <v>293</v>
       </c>
       <c r="H299" t="n" s="4">
-        <v>3.2</v>
+        <v>52.45</v>
       </c>
     </row>
     <row r="300">
       <c r="B300" t="s" s="3">
-        <v>113</v>
+        <v>209</v>
       </c>
       <c r="C300" t="s" s="3">
         <v>290</v>
       </c>
       <c r="D300" s="3"/>
       <c r="E300" t="s" s="3">
-        <v>439</v>
+        <v>304</v>
       </c>
       <c r="F300" t="s" s="3">
-        <v>442</v>
+        <v>450</v>
       </c>
       <c r="G300" t="s" s="3">
-        <v>65</v>
+        <v>293</v>
       </c>
       <c r="H300" t="n" s="4">
-        <v>3.2</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="301">
       <c r="B301" t="s" s="3">
-        <v>40</v>
+        <v>209</v>
       </c>
       <c r="C301" t="s" s="3">
         <v>290</v>
       </c>
       <c r="D301" s="3"/>
       <c r="E301" t="s" s="3">
-        <v>439</v>
+        <v>304</v>
       </c>
       <c r="F301" t="s" s="3">
-        <v>445</v>
+        <v>451</v>
       </c>
       <c r="G301" t="s" s="3">
-        <v>65</v>
+        <v>293</v>
       </c>
       <c r="H301" t="n" s="4">
-        <v>6.99</v>
+        <v>13.3</v>
       </c>
     </row>
     <row r="302">
-      <c r="B302" t="s" s="3">
-        <v>128</v>
-      </c>
-      <c r="C302" t="s" s="3">
-        <v>290</v>
-      </c>
-      <c r="D302" s="3"/>
-      <c r="E302" t="s" s="3">
-        <v>439</v>
-      </c>
-      <c r="F302" t="s" s="3">
-        <v>446</v>
-      </c>
-      <c r="G302" t="s" s="3">
-        <v>65</v>
-      </c>
-      <c r="H302" t="n" s="4">
-        <v>11.04</v>
+      <c r="A302" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="H302" t="n" s="5">
+        <v>154.55</v>
       </c>
     </row>
     <row r="303">
-      <c r="B303" t="s" s="3">
-        <v>133</v>
-      </c>
-      <c r="C303" t="s" s="3">
-        <v>290</v>
-      </c>
-      <c r="D303" s="3"/>
-      <c r="E303" t="s" s="3">
-        <v>439</v>
-      </c>
-      <c r="F303" t="s" s="3">
-        <v>447</v>
-      </c>
-      <c r="G303" t="s" s="3">
-        <v>65</v>
-      </c>
-      <c r="H303" t="n" s="4">
-        <v>4.08</v>
+      <c r="A303" t="s" s="2">
+        <v>453</v>
       </c>
     </row>
     <row r="304">
       <c r="B304" t="s" s="3">
-        <v>45</v>
+        <v>209</v>
       </c>
       <c r="C304" t="s" s="3">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="D304" s="3"/>
       <c r="E304" t="s" s="3">
-        <v>439</v>
+        <v>454</v>
       </c>
       <c r="F304" t="s" s="3">
-        <v>448</v>
+        <v>455</v>
       </c>
       <c r="G304" t="s" s="3">
-        <v>65</v>
+        <v>300</v>
       </c>
       <c r="H304" t="n" s="4">
-        <v>13.08</v>
+        <v>4.99</v>
       </c>
     </row>
     <row r="305">
-      <c r="B305" t="s" s="3">
-        <v>48</v>
-      </c>
-      <c r="C305" t="s" s="3">
-        <v>290</v>
-      </c>
-      <c r="D305" s="3"/>
-      <c r="E305" t="s" s="3">
-        <v>439</v>
-      </c>
-      <c r="F305" t="s" s="3">
-        <v>449</v>
-      </c>
-      <c r="G305" t="s" s="3">
-        <v>65</v>
-      </c>
-      <c r="H305" t="n" s="4">
-        <v>10.18</v>
+      <c r="A305" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="H305" t="n" s="5">
+        <v>4.99</v>
       </c>
     </row>
     <row r="306">
-      <c r="B306" t="s" s="3">
-        <v>164</v>
-      </c>
-      <c r="C306" t="s" s="3">
-        <v>290</v>
-      </c>
-      <c r="D306" s="3"/>
-      <c r="E306" t="s" s="3">
-        <v>439</v>
-      </c>
-      <c r="F306" t="s" s="3">
-        <v>450</v>
-      </c>
-      <c r="G306" t="s" s="3">
-        <v>65</v>
-      </c>
-      <c r="H306" t="n" s="4">
-        <v>15.4</v>
+      <c r="A306" t="s" s="2">
+        <v>457</v>
       </c>
     </row>
     <row r="307">
       <c r="B307" t="s" s="3">
-        <v>184</v>
+        <v>98</v>
       </c>
       <c r="C307" t="s" s="3">
         <v>290</v>
       </c>
       <c r="D307" s="3"/>
       <c r="E307" t="s" s="3">
-        <v>439</v>
+        <v>458</v>
       </c>
       <c r="F307" t="s" s="3">
-        <v>451</v>
+        <v>459</v>
       </c>
       <c r="G307" t="s" s="3">
         <v>65</v>
       </c>
       <c r="H307" t="n" s="4">
-        <v>3.5</v>
+        <v>27.69</v>
       </c>
     </row>
     <row r="308">
       <c r="B308" t="s" s="3">
-        <v>57</v>
+        <v>460</v>
       </c>
       <c r="C308" t="s" s="3">
         <v>290</v>
       </c>
       <c r="D308" s="3"/>
       <c r="E308" t="s" s="3">
-        <v>439</v>
+        <v>458</v>
       </c>
       <c r="F308" t="s" s="3">
-        <v>452</v>
+        <v>461</v>
       </c>
       <c r="G308" t="s" s="3">
         <v>65</v>
       </c>
       <c r="H308" t="n" s="4">
-        <v>6.7</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="309">
       <c r="B309" t="s" s="3">
-        <v>209</v>
+        <v>462</v>
       </c>
       <c r="C309" t="s" s="3">
         <v>290</v>
       </c>
       <c r="D309" s="3"/>
       <c r="E309" t="s" s="3">
-        <v>439</v>
+        <v>458</v>
       </c>
       <c r="F309" t="s" s="3">
-        <v>453</v>
+        <v>463</v>
       </c>
       <c r="G309" t="s" s="3">
         <v>65</v>
       </c>
       <c r="H309" t="n" s="4">
-        <v>19.48</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="310">
       <c r="B310" t="s" s="3">
-        <v>262</v>
+        <v>38</v>
       </c>
       <c r="C310" t="s" s="3">
         <v>290</v>
       </c>
       <c r="D310" s="3"/>
       <c r="E310" t="s" s="3">
-        <v>439</v>
+        <v>458</v>
       </c>
       <c r="F310" t="s" s="3">
-        <v>454</v>
+        <v>461</v>
       </c>
       <c r="G310" t="s" s="3">
         <v>65</v>
       </c>
       <c r="H310" t="n" s="4">
-        <v>26.78</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="311">
       <c r="B311" t="s" s="3">
-        <v>393</v>
+        <v>113</v>
       </c>
       <c r="C311" t="s" s="3">
         <v>290</v>
       </c>
       <c r="D311" s="3"/>
       <c r="E311" t="s" s="3">
-        <v>439</v>
+        <v>458</v>
       </c>
       <c r="F311" t="s" s="3">
-        <v>455</v>
+        <v>461</v>
       </c>
       <c r="G311" t="s" s="3">
         <v>65</v>
       </c>
       <c r="H311" t="n" s="4">
-        <v>10.78</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="312">
       <c r="B312" t="s" s="3">
-        <v>424</v>
+        <v>40</v>
       </c>
       <c r="C312" t="s" s="3">
         <v>290</v>
       </c>
       <c r="D312" s="3"/>
       <c r="E312" t="s" s="3">
-        <v>439</v>
+        <v>458</v>
       </c>
       <c r="F312" t="s" s="3">
-        <v>442</v>
+        <v>464</v>
       </c>
       <c r="G312" t="s" s="3">
         <v>65</v>
       </c>
       <c r="H312" t="n" s="4">
-        <v>3.2</v>
+        <v>6.99</v>
       </c>
     </row>
     <row r="313">
-      <c r="A313" t="s" s="2">
-        <v>456</v>
-      </c>
-      <c r="H313" t="n" s="5">
-        <v>170.25</v>
+      <c r="B313" t="s" s="3">
+        <v>128</v>
+      </c>
+      <c r="C313" t="s" s="3">
+        <v>290</v>
+      </c>
+      <c r="D313" s="3"/>
+      <c r="E313" t="s" s="3">
+        <v>458</v>
+      </c>
+      <c r="F313" t="s" s="3">
+        <v>465</v>
+      </c>
+      <c r="G313" t="s" s="3">
+        <v>65</v>
+      </c>
+      <c r="H313" t="n" s="4">
+        <v>11.04</v>
       </c>
     </row>
     <row r="314">
-      <c r="A314" t="s" s="2">
-        <v>457</v>
+      <c r="B314" t="s" s="3">
+        <v>133</v>
+      </c>
+      <c r="C314" t="s" s="3">
+        <v>290</v>
+      </c>
+      <c r="D314" s="3"/>
+      <c r="E314" t="s" s="3">
+        <v>458</v>
+      </c>
+      <c r="F314" t="s" s="3">
+        <v>466</v>
+      </c>
+      <c r="G314" t="s" s="3">
+        <v>65</v>
+      </c>
+      <c r="H314" t="n" s="4">
+        <v>4.08</v>
       </c>
     </row>
     <row r="315">
       <c r="B315" t="s" s="3">
-        <v>380</v>
+        <v>45</v>
       </c>
       <c r="C315" t="s" s="3">
         <v>290</v>
       </c>
-      <c r="D315" t="n" s="3">
-        <v>698456.0</v>
-      </c>
+      <c r="D315" s="3"/>
       <c r="E315" t="s" s="3">
         <v>458</v>
       </c>
       <c r="F315" t="s" s="3">
-        <v>459</v>
+        <v>467</v>
       </c>
       <c r="G315" t="s" s="3">
-        <v>293</v>
+        <v>65</v>
       </c>
       <c r="H315" t="n" s="4">
-        <v>200.0</v>
+        <v>13.08</v>
       </c>
     </row>
     <row r="316">
       <c r="B316" t="s" s="3">
-        <v>460</v>
+        <v>48</v>
       </c>
       <c r="C316" t="s" s="3">
         <v>290</v>
       </c>
-      <c r="D316" t="n" s="3">
-        <v>430970.0</v>
-      </c>
+      <c r="D316" s="3"/>
       <c r="E316" t="s" s="3">
         <v>458</v>
       </c>
       <c r="F316" t="s" s="3">
-        <v>377</v>
+        <v>468</v>
       </c>
       <c r="G316" t="s" s="3">
-        <v>293</v>
+        <v>65</v>
       </c>
       <c r="H316" t="n" s="4">
-        <v>38.62</v>
+        <v>10.18</v>
       </c>
     </row>
     <row r="317">
       <c r="B317" t="s" s="3">
-        <v>460</v>
+        <v>164</v>
       </c>
       <c r="C317" t="s" s="3">
         <v>290</v>
       </c>
-      <c r="D317" t="n" s="3">
-        <v>430970.0</v>
-      </c>
+      <c r="D317" s="3"/>
       <c r="E317" t="s" s="3">
         <v>458</v>
       </c>
       <c r="F317" t="s" s="3">
-        <v>461</v>
+        <v>469</v>
       </c>
       <c r="G317" t="s" s="3">
-        <v>293</v>
+        <v>65</v>
       </c>
       <c r="H317" t="n" s="4">
-        <v>35.03</v>
+        <v>15.4</v>
       </c>
     </row>
     <row r="318">
       <c r="B318" t="s" s="3">
-        <v>460</v>
+        <v>184</v>
       </c>
       <c r="C318" t="s" s="3">
         <v>290</v>
       </c>
-      <c r="D318" t="n" s="3">
-        <v>430970.0</v>
-      </c>
+      <c r="D318" s="3"/>
       <c r="E318" t="s" s="3">
         <v>458</v>
       </c>
       <c r="F318" t="s" s="3">
-        <v>462</v>
+        <v>470</v>
       </c>
       <c r="G318" t="s" s="3">
-        <v>293</v>
+        <v>65</v>
       </c>
       <c r="H318" t="n" s="4">
-        <v>46.77</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="319">
       <c r="B319" t="s" s="3">
-        <v>460</v>
+        <v>57</v>
       </c>
       <c r="C319" t="s" s="3">
         <v>290</v>
       </c>
-      <c r="D319" t="n" s="3">
-        <v>430970.0</v>
-      </c>
+      <c r="D319" s="3"/>
       <c r="E319" t="s" s="3">
         <v>458</v>
       </c>
       <c r="F319" t="s" s="3">
-        <v>463</v>
+        <v>471</v>
       </c>
       <c r="G319" t="s" s="3">
-        <v>293</v>
+        <v>65</v>
       </c>
       <c r="H319" t="n" s="4">
-        <v>37.34</v>
+        <v>6.7</v>
       </c>
     </row>
     <row r="320">
       <c r="B320" t="s" s="3">
-        <v>460</v>
+        <v>209</v>
       </c>
       <c r="C320" t="s" s="3">
         <v>290</v>
       </c>
-      <c r="D320" t="n" s="3">
-        <v>430970.0</v>
-      </c>
+      <c r="D320" s="3"/>
       <c r="E320" t="s" s="3">
         <v>458</v>
       </c>
       <c r="F320" t="s" s="3">
-        <v>464</v>
+        <v>472</v>
       </c>
       <c r="G320" t="s" s="3">
-        <v>293</v>
+        <v>65</v>
       </c>
       <c r="H320" t="n" s="4">
-        <v>172.49</v>
+        <v>19.48</v>
       </c>
     </row>
     <row r="321">
       <c r="B321" t="s" s="3">
-        <v>460</v>
+        <v>262</v>
       </c>
       <c r="C321" t="s" s="3">
         <v>290</v>
       </c>
-      <c r="D321" t="n" s="3">
-        <v>430970.0</v>
-      </c>
+      <c r="D321" s="3"/>
       <c r="E321" t="s" s="3">
         <v>458</v>
       </c>
       <c r="F321" t="s" s="3">
-        <v>465</v>
+        <v>473</v>
       </c>
       <c r="G321" t="s" s="3">
-        <v>293</v>
+        <v>65</v>
       </c>
       <c r="H321" t="n" s="4">
-        <v>180.26</v>
+        <v>26.78</v>
       </c>
     </row>
     <row r="322">
       <c r="B322" t="s" s="3">
-        <v>460</v>
+        <v>412</v>
       </c>
       <c r="C322" t="s" s="3">
         <v>290</v>
       </c>
-      <c r="D322" t="n" s="3">
-        <v>430970.0</v>
-      </c>
+      <c r="D322" s="3"/>
       <c r="E322" t="s" s="3">
         <v>458</v>
       </c>
       <c r="F322" t="s" s="3">
-        <v>459</v>
+        <v>474</v>
       </c>
       <c r="G322" t="s" s="3">
-        <v>293</v>
+        <v>65</v>
       </c>
       <c r="H322" t="n" s="4">
-        <v>-200.0</v>
+        <v>10.78</v>
       </c>
     </row>
     <row r="323">
       <c r="B323" t="s" s="3">
-        <v>460</v>
+        <v>443</v>
       </c>
       <c r="C323" t="s" s="3">
         <v>290</v>
       </c>
-      <c r="D323" t="n" s="3">
-        <v>430970.0</v>
-      </c>
+      <c r="D323" s="3"/>
       <c r="E323" t="s" s="3">
         <v>458</v>
       </c>
       <c r="F323" t="s" s="3">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="G323" t="s" s="3">
-        <v>293</v>
+        <v>65</v>
       </c>
       <c r="H323" t="n" s="4">
-        <v>4.84</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="324">
-      <c r="B324" t="s" s="3">
-        <v>416</v>
-      </c>
-      <c r="C324" t="s" s="3">
-        <v>290</v>
-      </c>
-      <c r="D324" t="n" s="3">
-        <v>550835.0</v>
-      </c>
-      <c r="E324" t="s" s="3">
-        <v>384</v>
-      </c>
-      <c r="F324" t="s" s="3">
-        <v>467</v>
-      </c>
-      <c r="G324" t="s" s="3">
-        <v>293</v>
-      </c>
-      <c r="H324" t="n" s="4">
-        <v>4.76</v>
+      <c r="A324" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="H324" t="n" s="5">
+        <v>170.25</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="s" s="2">
-        <v>468</v>
-      </c>
-      <c r="H325" t="n" s="5">
-        <v>520.11</v>
+        <v>476</v>
       </c>
     </row>
     <row r="326">
-      <c r="A326" t="s" s="2">
-        <v>469</v>
+      <c r="B326" t="s" s="3">
+        <v>399</v>
+      </c>
+      <c r="C326" t="s" s="3">
+        <v>290</v>
+      </c>
+      <c r="D326" t="n" s="3">
+        <v>698456.0</v>
+      </c>
+      <c r="E326" t="s" s="3">
+        <v>477</v>
+      </c>
+      <c r="F326" t="s" s="3">
+        <v>478</v>
+      </c>
+      <c r="G326" t="s" s="3">
+        <v>293</v>
+      </c>
+      <c r="H326" t="n" s="4">
+        <v>200.0</v>
       </c>
     </row>
     <row r="327">
       <c r="B327" t="s" s="3">
-        <v>470</v>
+        <v>479</v>
       </c>
       <c r="C327" t="s" s="3">
         <v>290</v>
       </c>
-      <c r="D327" s="3"/>
+      <c r="D327" t="n" s="3">
+        <v>430970.0</v>
+      </c>
       <c r="E327" t="s" s="3">
-        <v>471</v>
+        <v>477</v>
       </c>
       <c r="F327" t="s" s="3">
-        <v>472</v>
+        <v>480</v>
       </c>
       <c r="G327" t="s" s="3">
         <v>293</v>
       </c>
       <c r="H327" t="n" s="4">
-        <v>78.0</v>
+        <v>46.77</v>
       </c>
     </row>
     <row r="328">
       <c r="B328" t="s" s="3">
-        <v>470</v>
+        <v>479</v>
       </c>
       <c r="C328" t="s" s="3">
         <v>290</v>
       </c>
-      <c r="D328" s="3"/>
+      <c r="D328" t="n" s="3">
+        <v>430970.0</v>
+      </c>
       <c r="E328" t="s" s="3">
-        <v>471</v>
+        <v>477</v>
       </c>
       <c r="F328" t="s" s="3">
-        <v>473</v>
+        <v>481</v>
       </c>
       <c r="G328" t="s" s="3">
         <v>293</v>
       </c>
       <c r="H328" t="n" s="4">
-        <v>433.41</v>
+        <v>37.34</v>
       </c>
     </row>
     <row r="329">
-      <c r="A329" t="s" s="2">
-        <v>474</v>
-      </c>
-      <c r="H329" t="n" s="5">
-        <v>511.41</v>
+      <c r="B329" t="s" s="3">
+        <v>479</v>
+      </c>
+      <c r="C329" t="s" s="3">
+        <v>290</v>
+      </c>
+      <c r="D329" t="n" s="3">
+        <v>430970.0</v>
+      </c>
+      <c r="E329" t="s" s="3">
+        <v>477</v>
+      </c>
+      <c r="F329" t="s" s="3">
+        <v>482</v>
+      </c>
+      <c r="G329" t="s" s="3">
+        <v>293</v>
+      </c>
+      <c r="H329" t="n" s="4">
+        <v>172.49</v>
       </c>
     </row>
     <row r="330">
-      <c r="A330" t="s" s="2">
-        <v>475</v>
+      <c r="B330" t="s" s="3">
+        <v>479</v>
+      </c>
+      <c r="C330" t="s" s="3">
+        <v>290</v>
+      </c>
+      <c r="D330" t="n" s="3">
+        <v>430970.0</v>
+      </c>
+      <c r="E330" t="s" s="3">
+        <v>477</v>
+      </c>
+      <c r="F330" t="s" s="3">
+        <v>387</v>
+      </c>
+      <c r="G330" t="s" s="3">
+        <v>293</v>
+      </c>
+      <c r="H330" t="n" s="4">
+        <v>38.62</v>
       </c>
     </row>
     <row r="331">
       <c r="B331" t="s" s="3">
-        <v>262</v>
+        <v>479</v>
       </c>
       <c r="C331" t="s" s="3">
         <v>290</v>
       </c>
-      <c r="D331" s="3"/>
+      <c r="D331" t="n" s="3">
+        <v>430970.0</v>
+      </c>
       <c r="E331" t="s" s="3">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="F331" t="s" s="3">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="G331" t="s" s="3">
         <v>293</v>
       </c>
       <c r="H331" t="n" s="4">
-        <v>30.87</v>
+        <v>-200.0</v>
       </c>
     </row>
     <row r="332">
       <c r="B332" t="s" s="3">
-        <v>262</v>
+        <v>479</v>
       </c>
       <c r="C332" t="s" s="3">
         <v>290</v>
       </c>
-      <c r="D332" s="3"/>
+      <c r="D332" t="n" s="3">
+        <v>430970.0</v>
+      </c>
       <c r="E332" t="s" s="3">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="F332" t="s" s="3">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="G332" t="s" s="3">
         <v>293</v>
       </c>
       <c r="H332" t="n" s="4">
-        <v>68.58</v>
+        <v>4.84</v>
       </c>
     </row>
     <row r="333">
       <c r="B333" t="s" s="3">
-        <v>383</v>
+        <v>479</v>
       </c>
       <c r="C333" t="s" s="3">
         <v>290</v>
       </c>
       <c r="D333" t="n" s="3">
-        <v>477011.0</v>
+        <v>430970.0</v>
       </c>
       <c r="E333" t="s" s="3">
-        <v>345</v>
+        <v>477</v>
       </c>
       <c r="F333" t="s" s="3">
-        <v>377</v>
+        <v>484</v>
       </c>
       <c r="G333" t="s" s="3">
         <v>293</v>
       </c>
       <c r="H333" t="n" s="4">
-        <v>1.96</v>
+        <v>35.03</v>
       </c>
     </row>
     <row r="334">
       <c r="B334" t="s" s="3">
-        <v>383</v>
+        <v>479</v>
       </c>
       <c r="C334" t="s" s="3">
         <v>290</v>
       </c>
       <c r="D334" t="n" s="3">
-        <v>477011.0</v>
+        <v>430970.0</v>
       </c>
       <c r="E334" t="s" s="3">
-        <v>345</v>
+        <v>477</v>
       </c>
       <c r="F334" t="s" s="3">
-        <v>480</v>
+        <v>485</v>
       </c>
       <c r="G334" t="s" s="3">
         <v>293</v>
       </c>
       <c r="H334" t="n" s="4">
-        <v>12.63</v>
+        <v>180.26</v>
       </c>
     </row>
     <row r="335">
       <c r="B335" t="s" s="3">
-        <v>383</v>
+        <v>435</v>
       </c>
       <c r="C335" t="s" s="3">
         <v>290</v>
       </c>
       <c r="D335" t="n" s="3">
-        <v>477011.0</v>
+        <v>550835.0</v>
       </c>
       <c r="E335" t="s" s="3">
-        <v>345</v>
+        <v>403</v>
       </c>
       <c r="F335" t="s" s="3">
-        <v>481</v>
+        <v>486</v>
       </c>
       <c r="G335" t="s" s="3">
         <v>293</v>
       </c>
       <c r="H335" t="n" s="4">
-        <v>350.0</v>
+        <v>4.76</v>
       </c>
     </row>
     <row r="336">
-      <c r="B336" t="s" s="3">
-        <v>383</v>
-      </c>
-      <c r="C336" t="s" s="3">
-        <v>290</v>
-      </c>
-      <c r="D336" t="n" s="3">
-        <v>477011.0</v>
-      </c>
-      <c r="E336" t="s" s="3">
-        <v>345</v>
-      </c>
-      <c r="F336" t="s" s="3">
-        <v>482</v>
-      </c>
-      <c r="G336" t="s" s="3">
-        <v>293</v>
-      </c>
-      <c r="H336" t="n" s="4">
-        <v>300.0</v>
+      <c r="A336" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="H336" t="n" s="5">
+        <v>520.11</v>
       </c>
     </row>
     <row r="337">
-      <c r="B337" t="s" s="3">
-        <v>383</v>
-      </c>
-      <c r="C337" t="s" s="3">
-        <v>290</v>
-      </c>
-      <c r="D337" t="n" s="3">
-        <v>477011.0</v>
-      </c>
-      <c r="E337" t="s" s="3">
-        <v>345</v>
-      </c>
-      <c r="F337" t="s" s="3">
-        <v>483</v>
-      </c>
-      <c r="G337" t="s" s="3">
-        <v>293</v>
-      </c>
-      <c r="H337" t="n" s="4">
-        <v>11.58</v>
+      <c r="A337" t="s" s="2">
+        <v>488</v>
       </c>
     </row>
     <row r="338">
       <c r="B338" t="s" s="3">
-        <v>484</v>
+        <v>489</v>
       </c>
       <c r="C338" t="s" s="3">
-        <v>394</v>
+        <v>290</v>
       </c>
       <c r="D338" s="3"/>
       <c r="E338" t="s" s="3">
-        <v>345</v>
+        <v>490</v>
       </c>
       <c r="F338" t="s" s="3">
-        <v>485</v>
+        <v>491</v>
       </c>
       <c r="G338" t="s" s="3">
         <v>293</v>
       </c>
       <c r="H338" t="n" s="4">
-        <v>-0.04</v>
+        <v>433.41</v>
       </c>
     </row>
     <row r="339">
       <c r="B339" t="s" s="3">
-        <v>416</v>
+        <v>489</v>
       </c>
       <c r="C339" t="s" s="3">
         <v>290</v>
       </c>
-      <c r="D339" t="n" s="3">
-        <v>550835.0</v>
-      </c>
+      <c r="D339" s="3"/>
       <c r="E339" t="s" s="3">
-        <v>384</v>
+        <v>490</v>
       </c>
       <c r="F339" t="s" s="3">
-        <v>486</v>
+        <v>492</v>
       </c>
       <c r="G339" t="s" s="3">
         <v>293</v>
       </c>
       <c r="H339" t="n" s="4">
-        <v>11.0</v>
+        <v>78.0</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="s" s="2">
-        <v>487</v>
+        <v>493</v>
       </c>
       <c r="H340" t="n" s="5">
-        <v>786.58</v>
+        <v>511.41</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="s" s="2">
-        <v>488</v>
+        <v>494</v>
       </c>
     </row>
     <row r="342">
       <c r="B342" t="s" s="3">
-        <v>164</v>
+        <v>262</v>
       </c>
       <c r="C342" t="s" s="3">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="D342" s="3"/>
       <c r="E342" t="s" s="3">
-        <v>489</v>
+        <v>495</v>
       </c>
       <c r="F342" t="s" s="3">
-        <v>490</v>
+        <v>496</v>
       </c>
       <c r="G342" t="s" s="3">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="H342" t="n" s="4">
-        <v>450.0</v>
+        <v>68.58</v>
       </c>
     </row>
     <row r="343">
       <c r="B343" t="s" s="3">
-        <v>164</v>
+        <v>262</v>
       </c>
       <c r="C343" t="s" s="3">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="D343" s="3"/>
       <c r="E343" t="s" s="3">
-        <v>491</v>
+        <v>497</v>
       </c>
       <c r="F343" t="s" s="3">
-        <v>490</v>
+        <v>498</v>
       </c>
       <c r="G343" t="s" s="3">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="H343" t="n" s="4">
-        <v>450.0</v>
+        <v>30.87</v>
       </c>
     </row>
     <row r="344">
       <c r="B344" t="s" s="3">
-        <v>164</v>
+        <v>402</v>
       </c>
       <c r="C344" t="s" s="3">
-        <v>297</v>
-      </c>
-      <c r="D344" s="3"/>
+        <v>290</v>
+      </c>
+      <c r="D344" t="n" s="3">
+        <v>477011.0</v>
+      </c>
       <c r="E344" t="s" s="3">
-        <v>492</v>
+        <v>359</v>
       </c>
       <c r="F344" t="s" s="3">
-        <v>490</v>
+        <v>387</v>
       </c>
       <c r="G344" t="s" s="3">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="H344" t="n" s="4">
-        <v>1600.0</v>
+        <v>1.96</v>
       </c>
     </row>
     <row r="345">
       <c r="B345" t="s" s="3">
-        <v>164</v>
+        <v>402</v>
       </c>
       <c r="C345" t="s" s="3">
-        <v>297</v>
-      </c>
-      <c r="D345" s="3"/>
+        <v>290</v>
+      </c>
+      <c r="D345" t="n" s="3">
+        <v>477011.0</v>
+      </c>
       <c r="E345" t="s" s="3">
-        <v>493</v>
+        <v>359</v>
       </c>
       <c r="F345" t="s" s="3">
-        <v>490</v>
+        <v>499</v>
       </c>
       <c r="G345" t="s" s="3">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="H345" t="n" s="4">
-        <v>717.0</v>
+        <v>300.0</v>
       </c>
     </row>
     <row r="346">
       <c r="B346" t="s" s="3">
-        <v>494</v>
+        <v>402</v>
       </c>
       <c r="C346" t="s" s="3">
-        <v>297</v>
-      </c>
-      <c r="D346" t="s" s="3">
-        <v>495</v>
+        <v>290</v>
+      </c>
+      <c r="D346" t="n" s="3">
+        <v>477011.0</v>
       </c>
       <c r="E346" t="s" s="3">
-        <v>496</v>
+        <v>359</v>
       </c>
       <c r="F346" t="s" s="3">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="G346" t="s" s="3">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="H346" t="n" s="4">
-        <v>1150.16</v>
+        <v>350.0</v>
       </c>
     </row>
     <row r="347">
-      <c r="A347" t="s" s="2">
-        <v>498</v>
-      </c>
-      <c r="H347" t="n" s="5">
-        <v>4367.16</v>
+      <c r="B347" t="s" s="3">
+        <v>402</v>
+      </c>
+      <c r="C347" t="s" s="3">
+        <v>290</v>
+      </c>
+      <c r="D347" t="n" s="3">
+        <v>477011.0</v>
+      </c>
+      <c r="E347" t="s" s="3">
+        <v>359</v>
+      </c>
+      <c r="F347" t="s" s="3">
+        <v>501</v>
+      </c>
+      <c r="G347" t="s" s="3">
+        <v>293</v>
+      </c>
+      <c r="H347" t="n" s="4">
+        <v>12.63</v>
       </c>
     </row>
     <row r="348">
-      <c r="A348" t="s" s="2">
-        <v>499</v>
+      <c r="B348" t="s" s="3">
+        <v>402</v>
+      </c>
+      <c r="C348" t="s" s="3">
+        <v>290</v>
+      </c>
+      <c r="D348" t="n" s="3">
+        <v>477011.0</v>
+      </c>
+      <c r="E348" t="s" s="3">
+        <v>359</v>
+      </c>
+      <c r="F348" t="s" s="3">
+        <v>502</v>
+      </c>
+      <c r="G348" t="s" s="3">
+        <v>293</v>
+      </c>
+      <c r="H348" t="n" s="4">
+        <v>11.58</v>
       </c>
     </row>
     <row r="349">
       <c r="B349" t="s" s="3">
-        <v>98</v>
+        <v>503</v>
       </c>
       <c r="C349" t="s" s="3">
-        <v>290</v>
+        <v>413</v>
       </c>
       <c r="D349" s="3"/>
       <c r="E349" t="s" s="3">
-        <v>439</v>
+        <v>359</v>
       </c>
       <c r="F349" t="s" s="3">
-        <v>500</v>
+        <v>504</v>
       </c>
       <c r="G349" t="s" s="3">
-        <v>65</v>
+        <v>293</v>
       </c>
       <c r="H349" t="n" s="4">
-        <v>24.31</v>
+        <v>-0.04</v>
       </c>
     </row>
     <row r="350">
       <c r="B350" t="s" s="3">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="C350" t="s" s="3">
         <v>290</v>
       </c>
-      <c r="D350" s="3"/>
+      <c r="D350" t="n" s="3">
+        <v>550835.0</v>
+      </c>
       <c r="E350" t="s" s="3">
-        <v>439</v>
+        <v>403</v>
       </c>
       <c r="F350" t="s" s="3">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="G350" t="s" s="3">
-        <v>65</v>
+        <v>293</v>
       </c>
       <c r="H350" t="n" s="4">
-        <v>3.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="351">
-      <c r="B351" t="s" s="3">
-        <v>443</v>
-      </c>
-      <c r="C351" t="s" s="3">
-        <v>290</v>
-      </c>
-      <c r="D351" s="3"/>
-      <c r="E351" t="s" s="3">
-        <v>439</v>
-      </c>
-      <c r="F351" t="s" s="3">
-        <v>502</v>
-      </c>
-      <c r="G351" t="s" s="3">
-        <v>65</v>
-      </c>
-      <c r="H351" t="n" s="4">
-        <v>1.5</v>
+      <c r="A351" t="s" s="2">
+        <v>506</v>
+      </c>
+      <c r="H351" t="n" s="5">
+        <v>786.58</v>
       </c>
     </row>
     <row r="352">
-      <c r="B352" t="s" s="3">
-        <v>38</v>
-      </c>
-      <c r="C352" t="s" s="3">
-        <v>290</v>
-      </c>
-      <c r="D352" s="3"/>
-      <c r="E352" t="s" s="3">
-        <v>439</v>
-      </c>
-      <c r="F352" t="s" s="3">
-        <v>501</v>
-      </c>
-      <c r="G352" t="s" s="3">
-        <v>65</v>
-      </c>
-      <c r="H352" t="n" s="4">
-        <v>3.0</v>
+      <c r="A352" t="s" s="2">
+        <v>507</v>
       </c>
     </row>
     <row r="353">
       <c r="B353" t="s" s="3">
-        <v>113</v>
+        <v>164</v>
       </c>
       <c r="C353" t="s" s="3">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="D353" s="3"/>
       <c r="E353" t="s" s="3">
-        <v>439</v>
+        <v>508</v>
       </c>
       <c r="F353" t="s" s="3">
-        <v>501</v>
+        <v>509</v>
       </c>
       <c r="G353" t="s" s="3">
-        <v>65</v>
+        <v>300</v>
       </c>
       <c r="H353" t="n" s="4">
-        <v>3.0</v>
+        <v>1600.0</v>
       </c>
     </row>
     <row r="354">
       <c r="B354" t="s" s="3">
-        <v>40</v>
+        <v>164</v>
       </c>
       <c r="C354" t="s" s="3">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="D354" s="3"/>
       <c r="E354" t="s" s="3">
-        <v>439</v>
+        <v>510</v>
       </c>
       <c r="F354" t="s" s="3">
-        <v>503</v>
+        <v>509</v>
       </c>
       <c r="G354" t="s" s="3">
-        <v>65</v>
+        <v>300</v>
       </c>
       <c r="H354" t="n" s="4">
-        <v>6.3</v>
+        <v>717.0</v>
       </c>
     </row>
     <row r="355">
       <c r="B355" t="s" s="3">
-        <v>128</v>
+        <v>164</v>
       </c>
       <c r="C355" t="s" s="3">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="D355" s="3"/>
       <c r="E355" t="s" s="3">
-        <v>439</v>
+        <v>511</v>
       </c>
       <c r="F355" t="s" s="3">
-        <v>504</v>
+        <v>509</v>
       </c>
       <c r="G355" t="s" s="3">
-        <v>65</v>
+        <v>300</v>
       </c>
       <c r="H355" t="n" s="4">
-        <v>10.81</v>
+        <v>450.0</v>
       </c>
     </row>
     <row r="356">
       <c r="B356" t="s" s="3">
-        <v>133</v>
+        <v>164</v>
       </c>
       <c r="C356" t="s" s="3">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="D356" s="3"/>
       <c r="E356" t="s" s="3">
-        <v>439</v>
+        <v>512</v>
       </c>
       <c r="F356" t="s" s="3">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="G356" t="s" s="3">
-        <v>65</v>
+        <v>300</v>
       </c>
       <c r="H356" t="n" s="4">
-        <v>3.6</v>
+        <v>450.0</v>
       </c>
     </row>
     <row r="357">
       <c r="B357" t="s" s="3">
-        <v>45</v>
+        <v>513</v>
       </c>
       <c r="C357" t="s" s="3">
-        <v>290</v>
-      </c>
-      <c r="D357" s="3"/>
+        <v>297</v>
+      </c>
+      <c r="D357" t="s" s="3">
+        <v>514</v>
+      </c>
       <c r="E357" t="s" s="3">
-        <v>439</v>
+        <v>515</v>
       </c>
       <c r="F357" t="s" s="3">
-        <v>506</v>
+        <v>516</v>
       </c>
       <c r="G357" t="s" s="3">
-        <v>65</v>
+        <v>300</v>
       </c>
       <c r="H357" t="n" s="4">
-        <v>12.59</v>
+        <v>1150.16</v>
       </c>
     </row>
     <row r="358">
-      <c r="B358" t="s" s="3">
-        <v>48</v>
-      </c>
-      <c r="C358" t="s" s="3">
-        <v>290</v>
-      </c>
-      <c r="D358" s="3"/>
-      <c r="E358" t="s" s="3">
-        <v>439</v>
-      </c>
-      <c r="F358" t="s" s="3">
-        <v>507</v>
-      </c>
-      <c r="G358" t="s" s="3">
-        <v>65</v>
-      </c>
-      <c r="H358" t="n" s="4">
-        <v>9.59</v>
+      <c r="A358" t="s" s="2">
+        <v>517</v>
+      </c>
+      <c r="H358" t="n" s="5">
+        <v>4367.16</v>
       </c>
     </row>
     <row r="359">
-      <c r="B359" t="s" s="3">
-        <v>164</v>
-      </c>
-      <c r="C359" t="s" s="3">
-        <v>290</v>
-      </c>
-      <c r="D359" s="3"/>
-      <c r="E359" t="s" s="3">
-        <v>439</v>
-      </c>
-      <c r="F359" t="s" s="3">
-        <v>508</v>
-      </c>
-      <c r="G359" t="s" s="3">
-        <v>65</v>
-      </c>
-      <c r="H359" t="n" s="4">
-        <v>15.01</v>
+      <c r="A359" t="s" s="2">
+        <v>518</v>
       </c>
     </row>
     <row r="360">
       <c r="B360" t="s" s="3">
-        <v>184</v>
+        <v>98</v>
       </c>
       <c r="C360" t="s" s="3">
         <v>290</v>
       </c>
       <c r="D360" s="3"/>
       <c r="E360" t="s" s="3">
-        <v>439</v>
+        <v>458</v>
       </c>
       <c r="F360" t="s" s="3">
-        <v>501</v>
+        <v>519</v>
       </c>
       <c r="G360" t="s" s="3">
         <v>65</v>
       </c>
       <c r="H360" t="n" s="4">
-        <v>3.0</v>
+        <v>24.31</v>
       </c>
     </row>
     <row r="361">
       <c r="B361" t="s" s="3">
-        <v>57</v>
+        <v>460</v>
       </c>
       <c r="C361" t="s" s="3">
         <v>290</v>
       </c>
       <c r="D361" s="3"/>
       <c r="E361" t="s" s="3">
-        <v>439</v>
+        <v>458</v>
       </c>
       <c r="F361" t="s" s="3">
-        <v>509</v>
+        <v>520</v>
       </c>
       <c r="G361" t="s" s="3">
         <v>65</v>
       </c>
       <c r="H361" t="n" s="4">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="362">
       <c r="B362" t="s" s="3">
-        <v>209</v>
+        <v>462</v>
       </c>
       <c r="C362" t="s" s="3">
         <v>290</v>
       </c>
       <c r="D362" s="3"/>
       <c r="E362" t="s" s="3">
-        <v>439</v>
+        <v>458</v>
       </c>
       <c r="F362" t="s" s="3">
-        <v>510</v>
+        <v>521</v>
       </c>
       <c r="G362" t="s" s="3">
         <v>65</v>
       </c>
       <c r="H362" t="n" s="4">
-        <v>18.0</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="363">
       <c r="B363" t="s" s="3">
-        <v>262</v>
+        <v>38</v>
       </c>
       <c r="C363" t="s" s="3">
         <v>290</v>
       </c>
       <c r="D363" s="3"/>
       <c r="E363" t="s" s="3">
-        <v>439</v>
+        <v>458</v>
       </c>
       <c r="F363" t="s" s="3">
-        <v>511</v>
+        <v>520</v>
       </c>
       <c r="G363" t="s" s="3">
         <v>65</v>
       </c>
       <c r="H363" t="n" s="4">
-        <v>24.6</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="364">
       <c r="B364" t="s" s="3">
-        <v>393</v>
+        <v>113</v>
       </c>
       <c r="C364" t="s" s="3">
         <v>290</v>
       </c>
       <c r="D364" s="3"/>
       <c r="E364" t="s" s="3">
-        <v>439</v>
+        <v>458</v>
       </c>
       <c r="F364" t="s" s="3">
-        <v>512</v>
+        <v>520</v>
       </c>
       <c r="G364" t="s" s="3">
         <v>65</v>
       </c>
       <c r="H364" t="n" s="4">
-        <v>9.6</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="365">
       <c r="B365" t="s" s="3">
-        <v>424</v>
+        <v>40</v>
       </c>
       <c r="C365" t="s" s="3">
         <v>290</v>
       </c>
       <c r="D365" s="3"/>
       <c r="E365" t="s" s="3">
-        <v>439</v>
+        <v>458</v>
       </c>
       <c r="F365" t="s" s="3">
-        <v>513</v>
+        <v>522</v>
       </c>
       <c r="G365" t="s" s="3">
         <v>65</v>
       </c>
       <c r="H365" t="n" s="4">
+        <v>6.3</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="B366" t="s" s="3">
+        <v>128</v>
+      </c>
+      <c r="C366" t="s" s="3">
+        <v>290</v>
+      </c>
+      <c r="D366" s="3"/>
+      <c r="E366" t="s" s="3">
+        <v>458</v>
+      </c>
+      <c r="F366" t="s" s="3">
+        <v>523</v>
+      </c>
+      <c r="G366" t="s" s="3">
+        <v>65</v>
+      </c>
+      <c r="H366" t="n" s="4">
+        <v>10.81</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="B367" t="s" s="3">
+        <v>133</v>
+      </c>
+      <c r="C367" t="s" s="3">
+        <v>290</v>
+      </c>
+      <c r="D367" s="3"/>
+      <c r="E367" t="s" s="3">
+        <v>458</v>
+      </c>
+      <c r="F367" t="s" s="3">
+        <v>524</v>
+      </c>
+      <c r="G367" t="s" s="3">
+        <v>65</v>
+      </c>
+      <c r="H367" t="n" s="4">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="B368" t="s" s="3">
+        <v>45</v>
+      </c>
+      <c r="C368" t="s" s="3">
+        <v>290</v>
+      </c>
+      <c r="D368" s="3"/>
+      <c r="E368" t="s" s="3">
+        <v>458</v>
+      </c>
+      <c r="F368" t="s" s="3">
+        <v>525</v>
+      </c>
+      <c r="G368" t="s" s="3">
+        <v>65</v>
+      </c>
+      <c r="H368" t="n" s="4">
+        <v>12.59</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="B369" t="s" s="3">
+        <v>48</v>
+      </c>
+      <c r="C369" t="s" s="3">
+        <v>290</v>
+      </c>
+      <c r="D369" s="3"/>
+      <c r="E369" t="s" s="3">
+        <v>458</v>
+      </c>
+      <c r="F369" t="s" s="3">
+        <v>526</v>
+      </c>
+      <c r="G369" t="s" s="3">
+        <v>65</v>
+      </c>
+      <c r="H369" t="n" s="4">
+        <v>9.59</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="B370" t="s" s="3">
+        <v>164</v>
+      </c>
+      <c r="C370" t="s" s="3">
+        <v>290</v>
+      </c>
+      <c r="D370" s="3"/>
+      <c r="E370" t="s" s="3">
+        <v>458</v>
+      </c>
+      <c r="F370" t="s" s="3">
+        <v>527</v>
+      </c>
+      <c r="G370" t="s" s="3">
+        <v>65</v>
+      </c>
+      <c r="H370" t="n" s="4">
+        <v>15.01</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="B371" t="s" s="3">
+        <v>184</v>
+      </c>
+      <c r="C371" t="s" s="3">
+        <v>290</v>
+      </c>
+      <c r="D371" s="3"/>
+      <c r="E371" t="s" s="3">
+        <v>458</v>
+      </c>
+      <c r="F371" t="s" s="3">
+        <v>520</v>
+      </c>
+      <c r="G371" t="s" s="3">
+        <v>65</v>
+      </c>
+      <c r="H371" t="n" s="4">
         <v>3.0</v>
       </c>
     </row>
-    <row r="366">
-      <c r="A366" t="s" s="2">
-        <v>514</v>
-      </c>
-      <c r="H366" t="n" s="5">
+    <row r="372">
+      <c r="B372" t="s" s="3">
+        <v>57</v>
+      </c>
+      <c r="C372" t="s" s="3">
+        <v>290</v>
+      </c>
+      <c r="D372" s="3"/>
+      <c r="E372" t="s" s="3">
+        <v>458</v>
+      </c>
+      <c r="F372" t="s" s="3">
+        <v>528</v>
+      </c>
+      <c r="G372" t="s" s="3">
+        <v>65</v>
+      </c>
+      <c r="H372" t="n" s="4">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="B373" t="s" s="3">
+        <v>209</v>
+      </c>
+      <c r="C373" t="s" s="3">
+        <v>290</v>
+      </c>
+      <c r="D373" s="3"/>
+      <c r="E373" t="s" s="3">
+        <v>458</v>
+      </c>
+      <c r="F373" t="s" s="3">
+        <v>529</v>
+      </c>
+      <c r="G373" t="s" s="3">
+        <v>65</v>
+      </c>
+      <c r="H373" t="n" s="4">
+        <v>18.0</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="B374" t="s" s="3">
+        <v>262</v>
+      </c>
+      <c r="C374" t="s" s="3">
+        <v>290</v>
+      </c>
+      <c r="D374" s="3"/>
+      <c r="E374" t="s" s="3">
+        <v>458</v>
+      </c>
+      <c r="F374" t="s" s="3">
+        <v>530</v>
+      </c>
+      <c r="G374" t="s" s="3">
+        <v>65</v>
+      </c>
+      <c r="H374" t="n" s="4">
+        <v>24.6</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="B375" t="s" s="3">
+        <v>412</v>
+      </c>
+      <c r="C375" t="s" s="3">
+        <v>290</v>
+      </c>
+      <c r="D375" s="3"/>
+      <c r="E375" t="s" s="3">
+        <v>458</v>
+      </c>
+      <c r="F375" t="s" s="3">
+        <v>531</v>
+      </c>
+      <c r="G375" t="s" s="3">
+        <v>65</v>
+      </c>
+      <c r="H375" t="n" s="4">
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="B376" t="s" s="3">
+        <v>443</v>
+      </c>
+      <c r="C376" t="s" s="3">
+        <v>290</v>
+      </c>
+      <c r="D376" s="3"/>
+      <c r="E376" t="s" s="3">
+        <v>458</v>
+      </c>
+      <c r="F376" t="s" s="3">
+        <v>532</v>
+      </c>
+      <c r="G376" t="s" s="3">
+        <v>65</v>
+      </c>
+      <c r="H376" t="n" s="4">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="s" s="2">
+        <v>533</v>
+      </c>
+      <c r="H377" t="n" s="5">
         <v>156.91</v>
       </c>
     </row>
-    <row r="367">
-      <c r="A367" t="s" s="2">
-        <v>515</v>
-      </c>
-      <c r="H367" t="n" s="5">
-        <v>18418.3</v>
-      </c>
-    </row>
-    <row r="368">
-      <c r="A368" t="s" s="2">
-        <v>516</v>
-      </c>
-      <c r="H368" t="n" s="5">
-        <v>19931.44</v>
-      </c>
-    </row>
-    <row r="369">
-      <c r="A369" t="s" s="2">
-        <v>517</v>
-      </c>
-      <c r="H369" t="n" s="5">
-        <v>2273.56</v>
-      </c>
-    </row>
-    <row r="372">
-      <c r="A372" s="6" t="s">
-        <v>518</v>
-      </c>
-      <c r="B372"/>
-      <c r="C372"/>
-      <c r="D372"/>
-      <c r="E372"/>
-      <c r="F372"/>
-      <c r="G372"/>
-      <c r="H372"/>
+    <row r="378">
+      <c r="A378" t="s" s="2">
+        <v>534</v>
+      </c>
+      <c r="H378" t="n" s="5">
+        <v>19418.3</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="s" s="2">
+        <v>535</v>
+      </c>
+      <c r="H379" t="n" s="5">
+        <v>21683.96</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="s" s="2">
+        <v>536</v>
+      </c>
+      <c r="H380" t="n" s="5">
+        <v>521.04</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" s="6" t="s">
+        <v>537</v>
+      </c>
+      <c r="B383"/>
+      <c r="C383"/>
+      <c r="D383"/>
+      <c r="E383"/>
+      <c r="F383"/>
+      <c r="G383"/>
+      <c r="H383"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -9011,45 +9243,49 @@
     <mergeCell ref="A179"/>
     <mergeCell ref="A185"/>
     <mergeCell ref="A186"/>
-    <mergeCell ref="A202"/>
-    <mergeCell ref="A203"/>
     <mergeCell ref="A207"/>
     <mergeCell ref="A208"/>
-    <mergeCell ref="A209"/>
-    <mergeCell ref="A210"/>
+    <mergeCell ref="A212"/>
     <mergeCell ref="A213"/>
-    <mergeCell ref="A214"/>
-    <mergeCell ref="A220"/>
+    <mergeCell ref="A215"/>
+    <mergeCell ref="A216"/>
+    <mergeCell ref="A217"/>
+    <mergeCell ref="A218"/>
     <mergeCell ref="A221"/>
-    <mergeCell ref="A225"/>
-    <mergeCell ref="A226"/>
-    <mergeCell ref="A235"/>
-    <mergeCell ref="A236"/>
-    <mergeCell ref="A245"/>
-    <mergeCell ref="A246"/>
-    <mergeCell ref="A267"/>
-    <mergeCell ref="A268"/>
-    <mergeCell ref="A284"/>
-    <mergeCell ref="A285"/>
-    <mergeCell ref="A291"/>
-    <mergeCell ref="A292"/>
-    <mergeCell ref="A294"/>
+    <mergeCell ref="A222"/>
+    <mergeCell ref="A228"/>
+    <mergeCell ref="A229"/>
+    <mergeCell ref="A233"/>
+    <mergeCell ref="A234"/>
+    <mergeCell ref="A243"/>
+    <mergeCell ref="A244"/>
+    <mergeCell ref="A253"/>
+    <mergeCell ref="A254"/>
+    <mergeCell ref="A256"/>
+    <mergeCell ref="A257"/>
+    <mergeCell ref="A278"/>
+    <mergeCell ref="A279"/>
     <mergeCell ref="A295"/>
-    <mergeCell ref="A313"/>
-    <mergeCell ref="A314"/>
+    <mergeCell ref="A296"/>
+    <mergeCell ref="A302"/>
+    <mergeCell ref="A303"/>
+    <mergeCell ref="A305"/>
+    <mergeCell ref="A306"/>
+    <mergeCell ref="A324"/>
     <mergeCell ref="A325"/>
-    <mergeCell ref="A326"/>
-    <mergeCell ref="A329"/>
-    <mergeCell ref="A330"/>
+    <mergeCell ref="A336"/>
+    <mergeCell ref="A337"/>
     <mergeCell ref="A340"/>
     <mergeCell ref="A341"/>
-    <mergeCell ref="A347"/>
-    <mergeCell ref="A348"/>
-    <mergeCell ref="A366"/>
-    <mergeCell ref="A367"/>
-    <mergeCell ref="A368"/>
-    <mergeCell ref="A369"/>
-    <mergeCell ref="A372:H372"/>
+    <mergeCell ref="A351"/>
+    <mergeCell ref="A352"/>
+    <mergeCell ref="A358"/>
+    <mergeCell ref="A359"/>
+    <mergeCell ref="A377"/>
+    <mergeCell ref="A378"/>
+    <mergeCell ref="A379"/>
+    <mergeCell ref="A380"/>
+    <mergeCell ref="A383:H383"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="A3:H3"/>

--- a/2020-sgfdevs-statement-of-activity-detail.xlsx
+++ b/2020-sgfdevs-statement-of-activity-detail.xlsx
@@ -1637,7 +1637,7 @@
     <t>Net Revenue</t>
   </si>
   <si>
-    <t>Wednesday, May 06, 2020 08:34:14 AM GMT-7 - Accrual Basis</t>
+    <t>Monday, Jun 08, 2020 09:22:47 AM GMT-7 - Accrual Basis</t>
   </si>
   <si>
     <t>Springfield Devs</t>
@@ -1646,7 +1646,7 @@
     <t>Statement of Activity Detail</t>
   </si>
   <si>
-    <t>January 1 - May 6, 2020</t>
+    <t>January - May, 2020</t>
   </si>
 </sst>
 </file>

--- a/2020-sgfdevs-statement-of-activity-detail.xlsx
+++ b/2020-sgfdevs-statement-of-activity-detail.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1640" uniqueCount="541">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1665" uniqueCount="548">
   <si>
     <t>Date</t>
   </si>
@@ -65,12 +65,12 @@
     <t>01/27/2020</t>
   </si>
   <si>
+    <t>GigSalad</t>
+  </si>
+  <si>
     <t>Marlin Network</t>
   </si>
   <si>
-    <t>GigSalad</t>
-  </si>
-  <si>
     <t xml:space="preserve">         Total for Devs Sponsorships</t>
   </si>
   <si>
@@ -92,42 +92,42 @@
     <t>Mobile App Sponsor ($750) for METHOD Developer Conference 03/05/2020. Refer to Sponsor Packet for Terms and Sponsor Benefits. ALL PAYMENTS DUE BY 02/15/2020. Founding Sponsor Discount 10%</t>
   </si>
   <si>
+    <t>Gravitate Solutions</t>
+  </si>
+  <si>
+    <t>EVENING DRINK Sponsorship for METHOD Developer Conference 03/05/2020. Refer to Sponsor Packet for Terms and Sponsor Benefits. ALL PAYMENTS DUE BY 02/15/2020.</t>
+  </si>
+  <si>
+    <t>BEVERAGE Sponsorship for METHOD Developer Conference 03/05/2020. Refer to Sponsor Packet for Terms and Sponsor Benefits. ALL PAYMENTS DUE BY 02/15/2020.</t>
+  </si>
+  <si>
+    <t>Added Innovation</t>
+  </si>
+  <si>
+    <t>Springfield Devs Founding Sponsor Discount (10%)</t>
+  </si>
+  <si>
     <t>Mostly Serious</t>
   </si>
   <si>
-    <t>Springfield Devs Founding Sponsor Discount (10%)</t>
-  </si>
-  <si>
-    <t>Added Innovation</t>
+    <t>Mycra Therapy</t>
+  </si>
+  <si>
+    <t>DIVERSITY Sponsorship for METHOD Developer Conference 03/05/2020. Refer to Sponsor Packet for Terms and Sponsor Benefits. ALL PAYMENTS DUE BY 02/15/2020.</t>
+  </si>
+  <si>
+    <t>BADGE Sponsorship for METHOD Developer Conference 03/05/2020. Refer to Sponsor Packet for Terms and Sponsor Benefits. ALL PAYMENTS DUE BY 02/15/2020.</t>
   </si>
   <si>
     <t>SPEAKER (Randy Walker) Sponsorship for METHOD Developer Conference 03/05/2020. Refer to Sponsor Packet for Terms and Sponsor Benefits. ALL PAYMENTS DUE BY 02/15/2020.</t>
   </si>
   <si>
-    <t>BADGE Sponsorship for METHOD Developer Conference 03/05/2020. Refer to Sponsor Packet for Terms and Sponsor Benefits. ALL PAYMENTS DUE BY 02/15/2020.</t>
-  </si>
-  <si>
-    <t>Gravitate Solutions</t>
-  </si>
-  <si>
-    <t>EVENING DRINK Sponsorship for METHOD Developer Conference 03/05/2020. Refer to Sponsor Packet for Terms and Sponsor Benefits. ALL PAYMENTS DUE BY 02/15/2020.</t>
+    <t>SPEAKER (Ruby Fleener) Sponsorship for METHOD Developer Conference 03/05/2020. Refer to Sponsor Packet for Terms and Sponsor Benefits. ALL PAYMENTS DUE BY 02/15/2020.</t>
   </si>
   <si>
     <t>LANYARD Sponsorship for METHOD Developer Conference 03/05/2020. Refer to Sponsor Packet for Terms and Sponsor Benefits. ALL PAYMENTS DUE BY 02/15/2020.</t>
   </si>
   <si>
-    <t>SPEAKER (Ruby Fleener) Sponsorship for METHOD Developer Conference 03/05/2020. Refer to Sponsor Packet for Terms and Sponsor Benefits. ALL PAYMENTS DUE BY 02/15/2020.</t>
-  </si>
-  <si>
-    <t>Mycra Therapy</t>
-  </si>
-  <si>
-    <t>DIVERSITY Sponsorship for METHOD Developer Conference 03/05/2020. Refer to Sponsor Packet for Terms and Sponsor Benefits. ALL PAYMENTS DUE BY 02/15/2020.</t>
-  </si>
-  <si>
-    <t>BEVERAGE Sponsorship for METHOD Developer Conference 03/05/2020. Refer to Sponsor Packet for Terms and Sponsor Benefits. ALL PAYMENTS DUE BY 02/15/2020.</t>
-  </si>
-  <si>
     <t>01/30/2020</t>
   </si>
   <si>
@@ -203,27 +203,45 @@
     <t>Receipt</t>
   </si>
   <si>
+    <t>David Hahn</t>
+  </si>
+  <si>
+    <t>Attendee David Hahn -50% (sudo)</t>
+  </si>
+  <si>
+    <t>Devs Stripe</t>
+  </si>
+  <si>
+    <t>Benjamin Stange</t>
+  </si>
+  <si>
+    <t>Attendee Benjamin Stange -50% (sudo)</t>
+  </si>
+  <si>
+    <t>Kimberly Myers</t>
+  </si>
+  <si>
+    <t>Attendee Kimberly Myers</t>
+  </si>
+  <si>
+    <t>David Schlum</t>
+  </si>
+  <si>
+    <t>Attendee UNASSIGNED -50% (sudo)</t>
+  </si>
+  <si>
     <t>David Hamilton</t>
   </si>
   <si>
     <t>Attendee David Hamilton -100% (volunteer)</t>
   </si>
   <si>
-    <t>Devs Stripe</t>
-  </si>
-  <si>
     <t>Frederick Lawler</t>
   </si>
   <si>
     <t>Attendee Frederick Lawler -100% (volunteer)</t>
   </si>
   <si>
-    <t>Kimberly Myers</t>
-  </si>
-  <si>
-    <t>Attendee Kimberly Myers</t>
-  </si>
-  <si>
     <t>Thomas Rankin</t>
   </si>
   <si>
@@ -236,57 +254,39 @@
     <t>Attendee Mark Stepp -50% (sudo)</t>
   </si>
   <si>
+    <t>Matt Johnson</t>
+  </si>
+  <si>
+    <t>Attendee Matt Johnson -50% (sudo)</t>
+  </si>
+  <si>
+    <t>Kevin Kirchner</t>
+  </si>
+  <si>
+    <t>Attendee Kevin Kirchner -50% (sudo)</t>
+  </si>
+  <si>
+    <t>Keith Davis</t>
+  </si>
+  <si>
+    <t>Attendee Keith Davis -50% (sudo)</t>
+  </si>
+  <si>
     <t>David Alger</t>
   </si>
   <si>
     <t>Attendee David Alger -50% (sudo)</t>
   </si>
   <si>
-    <t>David Hahn</t>
-  </si>
-  <si>
-    <t>Attendee David Hahn -50% (sudo)</t>
-  </si>
-  <si>
-    <t>Matt Johnson</t>
-  </si>
-  <si>
-    <t>Attendee Matt Johnson -50% (sudo)</t>
-  </si>
-  <si>
-    <t>Kevin Kirchner</t>
-  </si>
-  <si>
-    <t>Attendee Kevin Kirchner -50% (sudo)</t>
-  </si>
-  <si>
-    <t>Keith Davis</t>
-  </si>
-  <si>
-    <t>Attendee Keith Davis -50% (sudo)</t>
-  </si>
-  <si>
     <t>Erik Hansen</t>
   </si>
   <si>
+    <t>Attendee Perry Holden -50% (sudo)</t>
+  </si>
+  <si>
     <t>Attendee Erik Hansen -50% (sudo)</t>
   </si>
   <si>
-    <t>Attendee Perry Holden -50% (sudo)</t>
-  </si>
-  <si>
-    <t>David Schlum</t>
-  </si>
-  <si>
-    <t>Attendee UNASSIGNED -50% (sudo)</t>
-  </si>
-  <si>
-    <t>Benjamin Stange</t>
-  </si>
-  <si>
-    <t>Attendee Benjamin Stange -50% (sudo)</t>
-  </si>
-  <si>
     <t>Rich Clingman</t>
   </si>
   <si>
@@ -332,18 +332,18 @@
     <t>Attendee Christopher Wilding</t>
   </si>
   <si>
+    <t>Katie Kensinger</t>
+  </si>
+  <si>
+    <t>Attendee Rhyan Friesen</t>
+  </si>
+  <si>
     <t>Ruby Fleener</t>
   </si>
   <si>
     <t>Attendee Ruby Fleener -100% (speaker)</t>
   </si>
   <si>
-    <t>Katie Kensinger</t>
-  </si>
-  <si>
-    <t>Attendee Rhyan Friesen</t>
-  </si>
-  <si>
     <t>01/31/2020</t>
   </si>
   <si>
@@ -362,87 +362,87 @@
     <t>Attendee Landon Lewis -30% (banno)</t>
   </si>
   <si>
+    <t>Kalin Bowden</t>
+  </si>
+  <si>
+    <t>Attendee Kalin Bowden -30% (sgfdev)</t>
+  </si>
+  <si>
     <t>Daniel Chilton</t>
   </si>
   <si>
     <t>Attendee Dan Chilton -30% (banno)</t>
   </si>
   <si>
-    <t>Kalin Bowden</t>
-  </si>
-  <si>
-    <t>Attendee Kalin Bowden -30% (sgfdev)</t>
-  </si>
-  <si>
     <t>Justin Wells</t>
   </si>
   <si>
+    <t>Attendee Warren Scott -40% (sgfdev)</t>
+  </si>
+  <si>
+    <t>Attendee Jacob Schaum -40% (sgfdev)</t>
+  </si>
+  <si>
+    <t>Attendee Christy Bracher -40% (sgfdev)</t>
+  </si>
+  <si>
+    <t>Levi Zitting</t>
+  </si>
+  <si>
+    <t>Attendee Melissa Worthen -40% (sgfdev)</t>
+  </si>
+  <si>
+    <t>Attendee Miles Collins -40% (sgfdev)</t>
+  </si>
+  <si>
     <t>Attendee Trevor Glauz -40% (sgfdev)</t>
   </si>
   <si>
-    <t>Attendee Jacob Schaum -40% (sgfdev)</t>
-  </si>
-  <si>
-    <t>Attendee Warren Scott -40% (sgfdev)</t>
-  </si>
-  <si>
-    <t>Levi Zitting</t>
-  </si>
-  <si>
-    <t>Attendee Melissa Worthen -40% (sgfdev)</t>
-  </si>
-  <si>
-    <t>Attendee Christy Bracher -40% (sgfdev)</t>
-  </si>
-  <si>
-    <t>Attendee Miles Collins -40% (sgfdev)</t>
-  </si>
-  <si>
     <t>02/05/2020</t>
   </si>
   <si>
+    <t>Kendall Roberts</t>
+  </si>
+  <si>
+    <t>Attendee Kendall Roberts -50% (student)</t>
+  </si>
+  <si>
     <t>Jonathan Mann</t>
   </si>
   <si>
     <t>Attendee Jonathan Mann -30% (sgfdev)</t>
   </si>
   <si>
-    <t>Kendall Roberts</t>
-  </si>
-  <si>
-    <t>Attendee Kendall Roberts -50% (student)</t>
-  </si>
-  <si>
     <t>02/06/2020</t>
   </si>
   <si>
     <t>Benjamin Ellis</t>
   </si>
   <si>
+    <t>Attendee Don Worthley -30% (sgfdev)</t>
+  </si>
+  <si>
     <t>Attendee Daniel Mayfield -30% (sgfdev)</t>
   </si>
   <si>
-    <t>Attendee Don Worthley -30% (sgfdev)</t>
+    <t>Attendee Dan Bennett -30% (sgfdev)</t>
+  </si>
+  <si>
+    <t>Chad Killingsworth</t>
+  </si>
+  <si>
+    <t>Attendee Chad Killingsworth -30% (banno)</t>
+  </si>
+  <si>
+    <t>Mike Andrews</t>
+  </si>
+  <si>
+    <t>Attendee Mike Andrews -30% (sgfdev)</t>
   </si>
   <si>
     <t>Attendee Ben Ellis -30% (sgfdev)</t>
   </si>
   <si>
-    <t>Chad Killingsworth</t>
-  </si>
-  <si>
-    <t>Attendee Chad Killingsworth -30% (banno)</t>
-  </si>
-  <si>
-    <t>Mike Andrews</t>
-  </si>
-  <si>
-    <t>Attendee Mike Andrews -30% (sgfdev)</t>
-  </si>
-  <si>
-    <t>Attendee Dan Bennett -30% (sgfdev)</t>
-  </si>
-  <si>
     <t>Christopher Baunach</t>
   </si>
   <si>
@@ -458,12 +458,12 @@
     <t>Aaron Van Gorp</t>
   </si>
   <si>
+    <t>Attendee Aaron Van Gorp</t>
+  </si>
+  <si>
     <t>Attendee Cornelius Ukena</t>
   </si>
   <si>
-    <t>Attendee Aaron Van Gorp</t>
-  </si>
-  <si>
     <t>Darren Williams</t>
   </si>
   <si>
@@ -473,42 +473,48 @@
     <t>Charles Hicks</t>
   </si>
   <si>
+    <t>Attendee CK Hicks</t>
+  </si>
+  <si>
+    <t>Otto Borchert</t>
+  </si>
+  <si>
+    <t>Attendee Otto Borchert -50% (mssu)</t>
+  </si>
+  <si>
+    <t>Attendee Michael Blades -50% (mssu)</t>
+  </si>
+  <si>
+    <t>Attendee Dulio Gonzalez -50% (mssu)</t>
+  </si>
+  <si>
+    <t>Attendee Clayton Woodbridge -50% (mssu)</t>
+  </si>
+  <si>
+    <t>Attendee Ojurere Shonekan -50% (mssu)</t>
+  </si>
+  <si>
+    <t>Attendee Matt Griffin -50% (mssu)</t>
+  </si>
+  <si>
+    <t>Attendee Josh Ellis -50% (mssu)</t>
+  </si>
+  <si>
+    <t>Attendee Mark Gertiser -50% (volt)</t>
+  </si>
+  <si>
     <t>Attendee CK Hicks -30% (sgfdev) Manual Refund</t>
   </si>
   <si>
-    <t>Attendee CK Hicks</t>
-  </si>
-  <si>
-    <t>Otto Borchert</t>
-  </si>
-  <si>
-    <t>Attendee Josh Ellis -50% (mssu)</t>
-  </si>
-  <si>
-    <t>Attendee Matt Griffin -50% (mssu)</t>
-  </si>
-  <si>
-    <t>Attendee Ojurere Shonekan -50% (mssu)</t>
-  </si>
-  <si>
-    <t>Attendee Clayton Woodbridge -50% (mssu)</t>
-  </si>
-  <si>
-    <t>Attendee Dulio Gonzalez -50% (mssu)</t>
-  </si>
-  <si>
-    <t>Attendee Michael Blades -50% (mssu)</t>
-  </si>
-  <si>
-    <t>Attendee Otto Borchert -50% (mssu)</t>
-  </si>
-  <si>
-    <t>Attendee Mark Gertiser -50% (volt)</t>
-  </si>
-  <si>
     <t>02/13/2020</t>
   </si>
   <si>
+    <t>Jared Carpenter</t>
+  </si>
+  <si>
+    <t>Attendee Jared Carpenter -50% (codesci)</t>
+  </si>
+  <si>
     <t>Ben Pomerenke</t>
   </si>
   <si>
@@ -521,12 +527,6 @@
     <t>Attendee Jordan Gilmore -50% (codesci)</t>
   </si>
   <si>
-    <t>Jared Carpenter</t>
-  </si>
-  <si>
-    <t>Attendee Jared Carpenter -50% (codesci)</t>
-  </si>
-  <si>
     <t>Attendee Rebecca Collins -50% (mssu)</t>
   </si>
   <si>
@@ -545,30 +545,66 @@
     <t>02/16/2020</t>
   </si>
   <si>
+    <t>Attendee Charlie Rosenbury -100% (volunteer)</t>
+  </si>
+  <si>
+    <t>Myke Bates</t>
+  </si>
+  <si>
+    <t>Attendee Myke Bates -100% (volunteer)</t>
+  </si>
+  <si>
+    <t>Logic Forte</t>
+  </si>
+  <si>
+    <t>Attendee Jason Klein -100% (volunteer)</t>
+  </si>
+  <si>
     <t>Jason Amschler</t>
   </si>
   <si>
     <t>Attendee Jason Amschler -100% (volunteer)</t>
   </si>
   <si>
-    <t>Attendee Charlie Rosenbury -100% (volunteer)</t>
-  </si>
-  <si>
-    <t>Myke Bates</t>
-  </si>
-  <si>
-    <t>Attendee Myke Bates -100% (volunteer)</t>
-  </si>
-  <si>
-    <t>Logic Forte</t>
-  </si>
-  <si>
-    <t>Attendee Jason Klein -100% (volunteer)</t>
-  </si>
-  <si>
     <t>02/17/2020</t>
   </si>
   <si>
+    <t>David Harris</t>
+  </si>
+  <si>
+    <t>Attendee David Harris</t>
+  </si>
+  <si>
+    <t>Jason Arend</t>
+  </si>
+  <si>
+    <t>Attendee Jason Arend -50% (kind)</t>
+  </si>
+  <si>
+    <t>Amber Donaldson</t>
+  </si>
+  <si>
+    <t>Attendee Amber Donaldson -100% (scholarship)</t>
+  </si>
+  <si>
+    <t>Brenden Reeves</t>
+  </si>
+  <si>
+    <t>Attendee Brenden Reeves -100% (scholarship)</t>
+  </si>
+  <si>
+    <t>Jeremy Boles</t>
+  </si>
+  <si>
+    <t>Attendee Jeremy Boles -50% (kind)</t>
+  </si>
+  <si>
+    <t>Tylor Hindery</t>
+  </si>
+  <si>
+    <t>Attendee Tylor Hindery -50% (kind)</t>
+  </si>
+  <si>
     <t>Melissa Smith</t>
   </si>
   <si>
@@ -581,225 +617,189 @@
     <t>Attendee Carter Luther -50% (kind)</t>
   </si>
   <si>
-    <t>Jason Arend</t>
-  </si>
-  <si>
-    <t>Attendee Jason Arend -50% (kind)</t>
-  </si>
-  <si>
     <t>Attendee Randy Baker -50% (kind)</t>
   </si>
   <si>
-    <t>Tylor Hindery</t>
-  </si>
-  <si>
-    <t>Attendee Tylor Hindery -50% (kind)</t>
-  </si>
-  <si>
-    <t>Amber Donaldson</t>
-  </si>
-  <si>
-    <t>Attendee Amber Donaldson -100% (scholarship)</t>
-  </si>
-  <si>
     <t>Tim Franklin</t>
   </si>
   <si>
     <t>Attendee Tim Franklin -100% (volunteer)</t>
   </si>
   <si>
-    <t>Jeremy Boles</t>
-  </si>
-  <si>
-    <t>Attendee Jeremy Boles -50% (kind)</t>
-  </si>
-  <si>
-    <t>David Harris</t>
-  </si>
-  <si>
-    <t>Attendee David Harris</t>
-  </si>
-  <si>
-    <t>Brenden Reeves</t>
-  </si>
-  <si>
-    <t>Attendee Brenden Reeves -100% (scholarship)</t>
+    <t>Carwin Young</t>
+  </si>
+  <si>
+    <t>Attendee Carwin Young</t>
+  </si>
+  <si>
+    <t>Laura Caruso</t>
+  </si>
+  <si>
+    <t>Attendee Laura Caruso -50% (wwt)</t>
   </si>
   <si>
     <t>Attendee Kirk Coleman -100% (sponsor)</t>
   </si>
   <si>
-    <t>Laura Caruso</t>
-  </si>
-  <si>
-    <t>Attendee Laura Caruso -50% (wwt)</t>
-  </si>
-  <si>
-    <t>Carwin Young</t>
-  </si>
-  <si>
-    <t>Attendee Carwin Young</t>
-  </si>
-  <si>
     <t>02/19/2020</t>
   </si>
   <si>
+    <t>Zackary Turner</t>
+  </si>
+  <si>
+    <t>Attendee Zackary Turner -100% (studentscholarship)</t>
+  </si>
+  <si>
+    <t>Caleb Whitlow</t>
+  </si>
+  <si>
+    <t>Attendee Caleb Whitlow -100% (scholarship)</t>
+  </si>
+  <si>
+    <t>Kero Miller</t>
+  </si>
+  <si>
+    <t>Attendee Kero Miller -100% (scholarship)</t>
+  </si>
+  <si>
+    <t>Carmen Creswell</t>
+  </si>
+  <si>
+    <t>Attendee Carmen Creswell -100% (scholarship)</t>
+  </si>
+  <si>
+    <t>Krista Peryer</t>
+  </si>
+  <si>
+    <t>Attendee Krista Peryer -100% (scholarship)</t>
+  </si>
+  <si>
     <t>Wes Livesay</t>
   </si>
   <si>
     <t>Attendee Wes Livesay -100% (sponsor)</t>
   </si>
   <si>
+    <t>Attendee Markus Pope -100% (sponsor)</t>
+  </si>
+  <si>
     <t>Attendee Joel Nel -100% (sponsor)</t>
   </si>
   <si>
-    <t>Attendee Markus Pope -100% (sponsor)</t>
-  </si>
-  <si>
     <t>Scarlett Isbell</t>
   </si>
   <si>
     <t>Attendee Scarlett Isbell -100% (scholarship)</t>
   </si>
   <si>
+    <t>Kelly Crane</t>
+  </si>
+  <si>
+    <t>Attendee Kelly Crane -100% (scholarship)</t>
+  </si>
+  <si>
+    <t>Keegan Hart</t>
+  </si>
+  <si>
+    <t>Attendee Keegan Hart -100% (studentscholarship)</t>
+  </si>
+  <si>
+    <t>Attendee Megan Blevins -100% (sponsor)</t>
+  </si>
+  <si>
+    <t>Attendee Jeff Kern -100% (sponsor)</t>
+  </si>
+  <si>
+    <t>Jordan McAdoo</t>
+  </si>
+  <si>
+    <t>Attendee Jordan McAdoo -100% (scholarship)</t>
+  </si>
+  <si>
+    <t>Attendee Jim Carr -100% (sponsor)</t>
+  </si>
+  <si>
+    <t>Attendee Maddie Carr -100% (sponsor)</t>
+  </si>
+  <si>
+    <t>Christopher Smith</t>
+  </si>
+  <si>
+    <t>Attendee Christopher Smith -30% (banno)</t>
+  </si>
+  <si>
+    <t>Elliott Campbell</t>
+  </si>
+  <si>
+    <t>Attendee Elliott Campbell -30% (banno)</t>
+  </si>
+  <si>
+    <t>Attendee Craig Coenen -50% (kind)</t>
+  </si>
+  <si>
+    <t>Ryan Zachary De Lap</t>
+  </si>
+  <si>
+    <t>Attendee Ryan De Lap -50% (student)</t>
+  </si>
+  <si>
+    <t>Carissa Hurt</t>
+  </si>
+  <si>
+    <t>Attendee Carissa Hurt -50% (student)</t>
+  </si>
+  <si>
+    <t>Attendee Josh Sharp -50% (gravitate)</t>
+  </si>
+  <si>
+    <t>Seth Mabry</t>
+  </si>
+  <si>
+    <t>Attendee Seth Mabry -50% (codesci)</t>
+  </si>
+  <si>
+    <t>Attendee Tara Walton -50% (codesci)</t>
+  </si>
+  <si>
+    <t>Attendee Morgen Ohmsted -50% (codesci)</t>
+  </si>
+  <si>
+    <t>Attendee Josh Sutterfield -50% (codesci)</t>
+  </si>
+  <si>
+    <t>Attendee Enoch Pyle -50% (codesci)</t>
+  </si>
+  <si>
+    <t>Attendee Grant Jennings -50% (codesci)</t>
+  </si>
+  <si>
+    <t>Attendee Curt Buechter -50% (gravitate)</t>
+  </si>
+  <si>
+    <t>Attendee Mark Rosenkrans -50% (gravitate)</t>
+  </si>
+  <si>
+    <t>Attendee Brian Norris -50% (marlinnetwork)</t>
+  </si>
+  <si>
+    <t>Attendee Eli Estes -50% (marlinnetwork)</t>
+  </si>
+  <si>
+    <t>Trayvon Northern</t>
+  </si>
+  <si>
+    <t>Attendee Trayvon Northern -50% (kind)</t>
+  </si>
+  <si>
+    <t>Attendee Hannah Sartin -50% (marlinnetwork)</t>
+  </si>
+  <si>
     <t>Maranda Provance</t>
   </si>
   <si>
     <t>Attendee Maranda Provance -100% (sponsor)</t>
   </si>
   <si>
-    <t>Attendee Craig Coenen -50% (kind)</t>
-  </si>
-  <si>
-    <t>Attendee Mark Rosenkrans -50% (gravitate)</t>
-  </si>
-  <si>
-    <t>Attendee Curt Buechter -50% (gravitate)</t>
-  </si>
-  <si>
-    <t>Kelly Crane</t>
-  </si>
-  <si>
-    <t>Attendee Kelly Crane -100% (scholarship)</t>
-  </si>
-  <si>
-    <t>Keegan Hart</t>
-  </si>
-  <si>
-    <t>Attendee Keegan Hart -100% (studentscholarship)</t>
-  </si>
-  <si>
-    <t>Attendee Jeff Kern -100% (sponsor)</t>
-  </si>
-  <si>
-    <t>Attendee Megan Blevins -100% (sponsor)</t>
-  </si>
-  <si>
-    <t>Attendee Eli Estes -50% (marlinnetwork)</t>
-  </si>
-  <si>
-    <t>Attendee Brian Norris -50% (marlinnetwork)</t>
-  </si>
-  <si>
-    <t>Jordan McAdoo</t>
-  </si>
-  <si>
-    <t>Attendee Jordan McAdoo -100% (scholarship)</t>
-  </si>
-  <si>
-    <t>Attendee Maddie Carr -100% (sponsor)</t>
-  </si>
-  <si>
-    <t>Attendee Jim Carr -100% (sponsor)</t>
-  </si>
-  <si>
-    <t>Trayvon Northern</t>
-  </si>
-  <si>
-    <t>Attendee Trayvon Northern -50% (kind)</t>
-  </si>
-  <si>
-    <t>Attendee Hannah Sartin -50% (marlinnetwork)</t>
-  </si>
-  <si>
-    <t>Zackary Turner</t>
-  </si>
-  <si>
-    <t>Attendee Zackary Turner -100% (studentscholarship)</t>
-  </si>
-  <si>
-    <t>Ryan Zachary De Lap</t>
-  </si>
-  <si>
-    <t>Attendee Ryan De Lap -50% (student)</t>
-  </si>
-  <si>
-    <t>Christopher Smith</t>
-  </si>
-  <si>
-    <t>Attendee Christopher Smith -30% (banno)</t>
-  </si>
-  <si>
-    <t>Carissa Hurt</t>
-  </si>
-  <si>
-    <t>Attendee Carissa Hurt -50% (student)</t>
-  </si>
-  <si>
-    <t>Attendee Josh Sharp -50% (gravitate)</t>
-  </si>
-  <si>
-    <t>Caleb Whitlow</t>
-  </si>
-  <si>
-    <t>Attendee Caleb Whitlow -100% (scholarship)</t>
-  </si>
-  <si>
-    <t>Elliott Campbell</t>
-  </si>
-  <si>
-    <t>Attendee Elliott Campbell -30% (banno)</t>
-  </si>
-  <si>
-    <t>Seth Mabry</t>
-  </si>
-  <si>
-    <t>Attendee Seth Mabry -50% (codesci)</t>
-  </si>
-  <si>
-    <t>Kero Miller</t>
-  </si>
-  <si>
-    <t>Attendee Kero Miller -100% (scholarship)</t>
-  </si>
-  <si>
-    <t>Carmen Creswell</t>
-  </si>
-  <si>
-    <t>Attendee Carmen Creswell -100% (scholarship)</t>
-  </si>
-  <si>
-    <t>Attendee Grant Jennings -50% (codesci)</t>
-  </si>
-  <si>
-    <t>Attendee Enoch Pyle -50% (codesci)</t>
-  </si>
-  <si>
-    <t>Attendee Josh Sutterfield -50% (codesci)</t>
-  </si>
-  <si>
-    <t>Attendee Morgen Ohmsted -50% (codesci)</t>
-  </si>
-  <si>
-    <t>Attendee Tara Walton -50% (codesci)</t>
-  </si>
-  <si>
-    <t>Krista Peryer</t>
-  </si>
-  <si>
-    <t>Attendee Krista Peryer -100% (scholarship)</t>
-  </si>
-  <si>
     <t>02/20/2020</t>
   </si>
   <si>
@@ -809,12 +809,24 @@
     <t>Attendee River Ginther</t>
   </si>
   <si>
+    <t>Danielle Kelly</t>
+  </si>
+  <si>
+    <t>Attendee Danielle Kelly -50% (student)</t>
+  </si>
+  <si>
     <t>Mark Whisler</t>
   </si>
   <si>
     <t>Attendee Mark Whisler -50% (kind)</t>
   </si>
   <si>
+    <t>Bonnie Granda</t>
+  </si>
+  <si>
+    <t>Attendee Bonnie Granda -100% (scholarship)</t>
+  </si>
+  <si>
     <t>Madison Vodicka</t>
   </si>
   <si>
@@ -827,18 +839,6 @@
     <t>Attendee Alexander Hansen -100% (studentscholarship)</t>
   </si>
   <si>
-    <t>Bonnie Granda</t>
-  </si>
-  <si>
-    <t>Attendee Bonnie Granda -100% (scholarship)</t>
-  </si>
-  <si>
-    <t>Danielle Kelly</t>
-  </si>
-  <si>
-    <t>Attendee Danielle Kelly -50% (student)</t>
-  </si>
-  <si>
     <t>02/26/2020</t>
   </si>
   <si>
@@ -878,6 +878,33 @@
     <t xml:space="preserve">      Devs</t>
   </si>
   <si>
+    <t xml:space="preserve">         Devs Design</t>
+  </si>
+  <si>
+    <t>04/08/2020</t>
+  </si>
+  <si>
+    <t>Bill</t>
+  </si>
+  <si>
+    <t>Brad Hill Design Group</t>
+  </si>
+  <si>
+    <t>DEVS Event Website Responsive Design (Initial Payment 50%)</t>
+  </si>
+  <si>
+    <t>Accounts Payable (A/P)</t>
+  </si>
+  <si>
+    <t>06/14/2020</t>
+  </si>
+  <si>
+    <t>DEVS Event Website Responsive Design (Final Payment 50%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         Total for Devs Design</t>
+  </si>
+  <si>
     <t xml:space="preserve">         Devs Member Meals</t>
   </si>
   <si>
@@ -903,9 +930,6 @@
   </si>
   <si>
     <t>01/07/2020</t>
-  </si>
-  <si>
-    <t>Bill</t>
   </si>
   <si>
     <t>Missouri Embroidery</t>
@@ -920,9 +944,6 @@
 Credit Card Charge 3.5% $9.16</t>
   </si>
   <si>
-    <t>Accounts Payable (A/P)</t>
-  </si>
-  <si>
     <t xml:space="preserve">         Total for Devs Membership Gifts</t>
   </si>
   <si>
@@ -941,6 +962,9 @@
     <t>GigSalad (2.9% + 0.25)</t>
   </si>
   <si>
+    <t>06/23/2020</t>
+  </si>
+  <si>
     <t xml:space="preserve">         Total for Devs Payment Fees (Intuit)</t>
   </si>
   <si>
@@ -1034,6 +1058,18 @@
     <t>05/05/2020</t>
   </si>
   <si>
+    <t>06/01/2020</t>
+  </si>
+  <si>
+    <t>06/03/2020</t>
+  </si>
+  <si>
+    <t>AMAZON WEB SERVICES DBT CRD 1557 06/02/20 DBEWR7LH</t>
+  </si>
+  <si>
+    <t>06/05/2020</t>
+  </si>
+  <si>
     <t xml:space="preserve">         Total for Devs Software &amp; Hosting</t>
   </si>
   <si>
@@ -1043,10 +1079,10 @@
     <t>BJ's Trophy</t>
   </si>
   <si>
+    <t>Springfield Devs Founding Sponsor Plaques (18@ $27.95)</t>
+  </si>
+  <si>
     <t>Springfield Devs Founding Sponsor Plaques (Sales Tax 8.10%)</t>
-  </si>
-  <si>
-    <t>Springfield Devs Founding Sponsor Plaques (18@ $27.95)</t>
   </si>
   <si>
     <t>Founding Sponsor Plaque 1@ $27.95 + Tax
@@ -1128,22 +1164,39 @@
     <t>Item 101WB Black, Front Side Imprint 130 @ 3.48</t>
   </si>
   <si>
+    <t>Screen Charge</t>
+  </si>
+  <si>
     <t>Coupon Code</t>
   </si>
   <si>
-    <t>Screen Charge</t>
-  </si>
-  <si>
     <t xml:space="preserve">         Total for Method Attendee Bags</t>
   </si>
   <si>
     <t xml:space="preserve">         Method Attendee Shirts</t>
   </si>
   <si>
+    <t>Sales Tax $2101@ 8.10%</t>
+  </si>
+  <si>
+    <t>Set up Fee *Waived 3rd Set Up Fee for placing 100+ Pieces* 2@ $25</t>
+  </si>
+  <si>
+    <t>Upcharge - Size 2XL 14@ $3</t>
+  </si>
+  <si>
     <t>Ink Change - 2 Colors  2@ $7</t>
   </si>
   <si>
-    <t>Sales Tax $2101@ 8.10%</t>
+    <t>8413 Bella + Canvas - Women's Triblend Short Sleeve Tee 16@ $15
+Solid Black Triblend: AS - 7, AM - 3, AL - 3, AXL - 1, A2XL - 2
+**Price includes Two Color front, 1 Color Back. Solid black triblend - Front is rojo red and white ink. Back is white ink</t>
+  </si>
+  <si>
+    <t>Shipping from Manufacturer</t>
+  </si>
+  <si>
+    <t>Upcharge - Size 3XL 6@ $5</t>
   </si>
   <si>
     <t>3413 Bella + Canvas - Triblend Short Sleeve T-Shirt Solid 114@ $15
@@ -1152,23 +1205,6 @@
 **Price includes Two Color front, 1 Color Back. Solid black triblend - Front is rojo red and white ink. Back is white ink. Red triblend - Front is white and black ink. Back is white ink.</t>
   </si>
   <si>
-    <t>8413 Bella + Canvas - Women's Triblend Short Sleeve Tee 16@ $15
-Solid Black Triblend: AS - 7, AM - 3, AL - 3, AXL - 1, A2XL - 2
-**Price includes Two Color front, 1 Color Back. Solid black triblend - Front is rojo red and white ink. Back is white ink</t>
-  </si>
-  <si>
-    <t>Set up Fee *Waived 3rd Set Up Fee for placing 100+ Pieces* 2@ $25</t>
-  </si>
-  <si>
-    <t>Upcharge - Size 2XL 14@ $3</t>
-  </si>
-  <si>
-    <t>Upcharge - Size 3XL 6@ $5</t>
-  </si>
-  <si>
-    <t>Shipping from Manufacturer</t>
-  </si>
-  <si>
     <t xml:space="preserve">         Total for Method Attendee Shirts</t>
   </si>
   <si>
@@ -1190,36 +1226,21 @@
     <t>Sales Tax</t>
   </si>
   <si>
+    <t>2 of Cable Matters Snagless Cat6 Ethernet Cable (Cat6 Cable/Cat 6 Cable) in Black 75 Feet</t>
+  </si>
+  <si>
+    <t>2 of Cable Matters Snagless Cat6 Ethernet Cable (Cat6 Cable/Cat 6 Cable) in Black 25</t>
+  </si>
+  <si>
     <t>2 of REAL USA Professional Grade Gaffer Tape By Gaffer Power (2 Inches x 30 Yards, Black)</t>
   </si>
   <si>
-    <t>2 of Cable Matters Snagless Cat6 Ethernet Cable (Cat6 Cable/Cat 6 Cable) in Black 75 Feet</t>
-  </si>
-  <si>
     <t>1 of Cable Matters Snagless Cat6 Ethernet Cable (Cat6 Cable, Cat 6 Cable) in Black 50 Feet</t>
   </si>
   <si>
-    <t>2 of Cable Matters Snagless Cat6 Ethernet Cable (Cat6 Cable/Cat 6 Cable) in Black 25</t>
-  </si>
-  <si>
     <t xml:space="preserve">         Total for Method Audio Visual</t>
   </si>
   <si>
-    <t xml:space="preserve">         Method Design</t>
-  </si>
-  <si>
-    <t>04/08/2020</t>
-  </si>
-  <si>
-    <t>Brad Hill Design Group</t>
-  </si>
-  <si>
-    <t>DEVS Event Website Responsive Design (Initial Payment 50%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">         Total for Method Design</t>
-  </si>
-  <si>
     <t xml:space="preserve">         Method Door Prizes</t>
   </si>
   <si>
@@ -1238,6 +1259,15 @@
     <t>Walmart</t>
   </si>
   <si>
+    <t>Sales Tax 8.10%</t>
+  </si>
+  <si>
+    <t>Flour Sack  1 @ 4.47</t>
+  </si>
+  <si>
+    <t>Fever Tree  2 @ 5.98</t>
+  </si>
+  <si>
     <t>CC Sinl Coff  1 @ 6.48</t>
   </si>
   <si>
@@ -1247,21 +1277,12 @@
     <t>Drinkware  2 @ 4.96</t>
   </si>
   <si>
-    <t>Sales Tax 8.10%</t>
-  </si>
-  <si>
-    <t>Flour Sack  1 @ 4.47</t>
-  </si>
-  <si>
-    <t>Fever Tree  2 @ 5.98</t>
+    <t>Sales Tax 5.10%</t>
   </si>
   <si>
     <t>Land Coffee  4 @ 1.48</t>
   </si>
   <si>
-    <t>Sales Tax 5.10%</t>
-  </si>
-  <si>
     <t>02/23/2020</t>
   </si>
   <si>
@@ -1274,6 +1295,24 @@
     <t>02/27/2020</t>
   </si>
   <si>
+    <t>4401039-1</t>
+  </si>
+  <si>
+    <t>Coupon</t>
+  </si>
+  <si>
+    <t>1 of: YETI Rambler 14 oz Stainless Steel Vacuum Insulated Mug with Lid, Brick Red</t>
+  </si>
+  <si>
+    <t>Anker Soundcore Life Q20 Hybrid Active Noise Cancelling Headphones</t>
+  </si>
+  <si>
+    <t>3 of: Yootech Wireless Charger, [2 Pack] Qi-Certified 10W</t>
+  </si>
+  <si>
+    <t>1 of: Ember Temperature Control Smart Mug, 10 oz</t>
+  </si>
+  <si>
     <t>2 of: Amazon.com Gift Card in a Black Gift Box</t>
   </si>
   <si>
@@ -1283,27 +1322,9 @@
     <t>1 of: GPS Drone, DROCON 5G WiFi FPV Drone</t>
   </si>
   <si>
-    <t>4401039-1</t>
-  </si>
-  <si>
-    <t>Anker Soundcore Life Q20 Hybrid Active Noise Cancelling Headphones</t>
-  </si>
-  <si>
-    <t>3 of: Yootech Wireless Charger, [2 Pack] Qi-Certified 10W</t>
-  </si>
-  <si>
-    <t>1 of: YETI Rambler 14 oz Stainless Steel Vacuum Insulated Mug with Lid, Brick Red</t>
-  </si>
-  <si>
     <t>2 of: Audio-Technica ATH-M50xBT Wireless Bluetooth Over-Ear Headphones, Black</t>
   </si>
   <si>
-    <t>Coupon</t>
-  </si>
-  <si>
-    <t>1 of: Ember Temperature Control Smart Mug, 10 oz</t>
-  </si>
-  <si>
     <t>03/02/2020</t>
   </si>
   <si>
@@ -1337,24 +1358,24 @@
     <t>Ice 10lb</t>
   </si>
   <si>
+    <t>Limes x6</t>
+  </si>
+  <si>
+    <t>Coke x2</t>
+  </si>
+  <si>
+    <t>Lemons x6</t>
+  </si>
+  <si>
     <t>SC 20oz 12pk</t>
   </si>
   <si>
-    <t>Limes x6</t>
-  </si>
-  <si>
-    <t>Lemons x6</t>
-  </si>
-  <si>
-    <t>Coke x2</t>
+    <t>Food Gratuity for Method Conference ($3185 at 19.17%)</t>
   </si>
   <si>
     <t>Bar Gratuity for Method Conference ($523 at 19.12%)</t>
   </si>
   <si>
-    <t>Food Gratuity for Method Conference ($3185 at 19.17%)</t>
-  </si>
-  <si>
     <t>03/06/2020</t>
   </si>
   <si>
@@ -1367,12 +1388,12 @@
     <t xml:space="preserve">         Method Payment Fees (Intuit)</t>
   </si>
   <si>
+    <t>Gravitate Solutions (2.9% + 0.25)</t>
+  </si>
+  <si>
     <t>Mostly Serious (2.9% + 0.25)</t>
   </si>
   <si>
-    <t>Gravitate Solutions (2.9% + 0.25)</t>
-  </si>
-  <si>
     <t>Added Innovation (2.9% + 0.25)</t>
   </si>
   <si>
@@ -1469,21 +1490,21 @@
     <t>Method Folded Note Cards x50</t>
   </si>
   <si>
+    <t>Method Retractable Banner 1 Sided w/ Stand and Carry Bag</t>
+  </si>
+  <si>
+    <t>Creative for Conference Materials</t>
+  </si>
+  <si>
     <t>Method Podium Sign Foam Core</t>
   </si>
   <si>
-    <t>Method Retractable Banner 1 Sided w/ Stand and Carry Bag</t>
-  </si>
-  <si>
     <t>Blank Envelopes for Folded Note Cards x50</t>
   </si>
   <si>
     <t>Method Flat Note Card 4x6  x150</t>
   </si>
   <si>
-    <t>Creative for Conference Materials</t>
-  </si>
-  <si>
     <t>Cmnd Pic Hng x2</t>
   </si>
   <si>
@@ -1523,18 +1544,18 @@
     <t>Itty Bar Zamora Amazonia  31@ $0.85 + Tax</t>
   </si>
   <si>
+    <t>7 of: Amazon.com Gift Card in a Black Gift Box</t>
+  </si>
+  <si>
     <t>3 of: Uber Gift Card $100</t>
   </si>
   <si>
-    <t>7 of: Amazon.com Gift Card in a Black Gift Box</t>
+    <t>1 of: The Gift Wrap Company Decorative Confetti Gift Bows, Large, Black, pack of 12</t>
   </si>
   <si>
     <t>1 of: The Gift Wrap Company 4832-03 Decorative Confetti Bows, Large, Red Metallic</t>
   </si>
   <si>
-    <t>1 of: The Gift Wrap Company Decorative Confetti Gift Bows, Large, Black, pack of 12</t>
-  </si>
-  <si>
     <t>02/24/2020</t>
   </si>
   <si>
@@ -1550,21 +1571,21 @@
     <t xml:space="preserve">         Method Speaker Travel</t>
   </si>
   <si>
+    <t>Sam Basu</t>
+  </si>
+  <si>
+    <t>Speaker Travel for Method Conference in Springfield Missouri on 03/05/2020</t>
+  </si>
+  <si>
+    <t>Randy Walker</t>
+  </si>
+  <si>
+    <t>Erika Gerdes</t>
+  </si>
+  <si>
     <t>Katie Womersley</t>
   </si>
   <si>
-    <t>Speaker Travel for Method Conference in Springfield Missouri on 03/05/2020</t>
-  </si>
-  <si>
-    <t>Erika Gerdes</t>
-  </si>
-  <si>
-    <t>Sam Basu</t>
-  </si>
-  <si>
-    <t>Randy Walker</t>
-  </si>
-  <si>
     <t>03/11/2020</t>
   </si>
   <si>
@@ -1637,7 +1658,7 @@
     <t>Net Revenue</t>
   </si>
   <si>
-    <t>Monday, Jun 08, 2020 09:22:47 AM GMT-7 - Accrual Basis</t>
+    <t>Tuesday, Jul 07, 2020 04:00:24 PM GMT-7 - Accrual Basis</t>
   </si>
   <si>
     <t>Springfield Devs</t>
@@ -1646,7 +1667,7 @@
     <t>Statement of Activity Detail</t>
   </si>
   <si>
-    <t>January - May, 2020</t>
+    <t>January - June, 2020</t>
   </si>
 </sst>
 </file>
@@ -1771,7 +1792,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="7" t="s">
-        <v>538</v>
+        <v>545</v>
       </c>
       <c r="B1"/>
       <c r="C1"/>
@@ -1783,7 +1804,7 @@
     </row>
     <row r="2">
       <c r="A2" s="7" t="s">
-        <v>539</v>
+        <v>546</v>
       </c>
       <c r="B2"/>
       <c r="C2"/>
@@ -1795,7 +1816,7 @@
     </row>
     <row r="3">
       <c r="A3" s="8" t="s">
-        <v>540</v>
+        <v>547</v>
       </c>
       <c r="B3"/>
       <c r="C3"/>
@@ -1879,7 +1900,7 @@
         <v>12</v>
       </c>
       <c r="D11" t="n" s="3">
-        <v>1069.0</v>
+        <v>1070.0</v>
       </c>
       <c r="E11" t="s" s="3">
         <v>17</v>
@@ -1902,7 +1923,7 @@
         <v>12</v>
       </c>
       <c r="D12" t="n" s="3">
-        <v>1070.0</v>
+        <v>1069.0</v>
       </c>
       <c r="E12" t="s" s="3">
         <v>18</v>
@@ -1974,7 +1995,7 @@
         <v>12</v>
       </c>
       <c r="D18" t="n" s="3">
-        <v>1071.0</v>
+        <v>1072.0</v>
       </c>
       <c r="E18" t="s" s="3">
         <v>26</v>
@@ -1986,7 +2007,7 @@
         <v>15</v>
       </c>
       <c r="H18" t="n" s="4">
-        <v>-100.0</v>
+        <v>1000.0</v>
       </c>
     </row>
     <row r="19">
@@ -1997,13 +2018,13 @@
         <v>12</v>
       </c>
       <c r="D19" t="n" s="3">
-        <v>1074.0</v>
+        <v>1073.0</v>
       </c>
       <c r="E19" t="s" s="3">
+        <v>13</v>
+      </c>
+      <c r="F19" t="s" s="3">
         <v>28</v>
-      </c>
-      <c r="F19" t="s" s="3">
-        <v>29</v>
       </c>
       <c r="G19" t="s" s="3">
         <v>15</v>
@@ -2023,7 +2044,7 @@
         <v>1074.0</v>
       </c>
       <c r="E20" t="s" s="3">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F20" t="s" s="3">
         <v>30</v>
@@ -2032,7 +2053,7 @@
         <v>15</v>
       </c>
       <c r="H20" t="n" s="4">
-        <v>1000.0</v>
+        <v>-200.0</v>
       </c>
     </row>
     <row r="21">
@@ -2043,13 +2064,13 @@
         <v>12</v>
       </c>
       <c r="D21" t="n" s="3">
-        <v>1074.0</v>
+        <v>1072.0</v>
       </c>
       <c r="E21" t="s" s="3">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F21" t="s" s="3">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="G21" t="s" s="3">
         <v>15</v>
@@ -2066,19 +2087,19 @@
         <v>12</v>
       </c>
       <c r="D22" t="n" s="3">
-        <v>1072.0</v>
+        <v>1071.0</v>
       </c>
       <c r="E22" t="s" s="3">
         <v>31</v>
       </c>
       <c r="F22" t="s" s="3">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G22" t="s" s="3">
         <v>15</v>
       </c>
       <c r="H22" t="n" s="4">
-        <v>1000.0</v>
+        <v>-100.0</v>
       </c>
     </row>
     <row r="23">
@@ -2089,19 +2110,19 @@
         <v>12</v>
       </c>
       <c r="D23" t="n" s="3">
-        <v>1072.0</v>
+        <v>1073.0</v>
       </c>
       <c r="E23" t="s" s="3">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="F23" t="s" s="3">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G23" t="s" s="3">
         <v>15</v>
       </c>
       <c r="H23" t="n" s="4">
-        <v>1000.0</v>
+        <v>-100.0</v>
       </c>
     </row>
     <row r="24">
@@ -2112,19 +2133,19 @@
         <v>12</v>
       </c>
       <c r="D24" t="n" s="3">
-        <v>1072.0</v>
+        <v>1075.0</v>
       </c>
       <c r="E24" t="s" s="3">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F24" t="s" s="3">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="G24" t="s" s="3">
         <v>15</v>
       </c>
       <c r="H24" t="n" s="4">
-        <v>-200.0</v>
+        <v>-50.0</v>
       </c>
     </row>
     <row r="25">
@@ -2135,19 +2156,19 @@
         <v>12</v>
       </c>
       <c r="D25" t="n" s="3">
-        <v>1071.0</v>
+        <v>1075.0</v>
       </c>
       <c r="E25" t="s" s="3">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="F25" t="s" s="3">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G25" t="s" s="3">
         <v>15</v>
       </c>
       <c r="H25" t="n" s="4">
-        <v>1000.0</v>
+        <v>500.0</v>
       </c>
     </row>
     <row r="26">
@@ -2158,19 +2179,19 @@
         <v>12</v>
       </c>
       <c r="D26" t="n" s="3">
-        <v>1075.0</v>
+        <v>1074.0</v>
       </c>
       <c r="E26" t="s" s="3">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="F26" t="s" s="3">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G26" t="s" s="3">
         <v>15</v>
       </c>
       <c r="H26" t="n" s="4">
-        <v>500.0</v>
+        <v>1000.0</v>
       </c>
     </row>
     <row r="27">
@@ -2181,19 +2202,19 @@
         <v>12</v>
       </c>
       <c r="D27" t="n" s="3">
-        <v>1075.0</v>
+        <v>1074.0</v>
       </c>
       <c r="E27" t="s" s="3">
+        <v>29</v>
+      </c>
+      <c r="F27" t="s" s="3">
         <v>35</v>
-      </c>
-      <c r="F27" t="s" s="3">
-        <v>27</v>
       </c>
       <c r="G27" t="s" s="3">
         <v>15</v>
       </c>
       <c r="H27" t="n" s="4">
-        <v>-50.0</v>
+        <v>1000.0</v>
       </c>
     </row>
     <row r="28">
@@ -2204,13 +2225,13 @@
         <v>12</v>
       </c>
       <c r="D28" t="n" s="3">
-        <v>1073.0</v>
+        <v>1071.0</v>
       </c>
       <c r="E28" t="s" s="3">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="F28" t="s" s="3">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G28" t="s" s="3">
         <v>15</v>
@@ -2227,19 +2248,19 @@
         <v>12</v>
       </c>
       <c r="D29" t="n" s="3">
-        <v>1073.0</v>
+        <v>1072.0</v>
       </c>
       <c r="E29" t="s" s="3">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="F29" t="s" s="3">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="G29" t="s" s="3">
         <v>15</v>
       </c>
       <c r="H29" t="n" s="4">
-        <v>-100.0</v>
+        <v>1000.0</v>
       </c>
     </row>
     <row r="30">
@@ -2253,16 +2274,16 @@
         <v>1093.0</v>
       </c>
       <c r="E30" t="s" s="3">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F30" t="s" s="3">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G30" t="s" s="3">
         <v>15</v>
       </c>
       <c r="H30" t="n" s="4">
-        <v>500.0</v>
+        <v>-50.0</v>
       </c>
     </row>
     <row r="31">
@@ -2276,16 +2297,16 @@
         <v>1093.0</v>
       </c>
       <c r="E31" t="s" s="3">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F31" t="s" s="3">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G31" t="s" s="3">
         <v>15</v>
       </c>
       <c r="H31" t="n" s="4">
-        <v>-50.0</v>
+        <v>500.0</v>
       </c>
     </row>
     <row r="32">
@@ -2302,13 +2323,13 @@
         <v>41</v>
       </c>
       <c r="F32" t="s" s="3">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G32" t="s" s="3">
         <v>15</v>
       </c>
       <c r="H32" t="n" s="4">
-        <v>-50.0</v>
+        <v>500.0</v>
       </c>
     </row>
     <row r="33">
@@ -2325,13 +2346,13 @@
         <v>41</v>
       </c>
       <c r="F33" t="s" s="3">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G33" t="s" s="3">
         <v>15</v>
       </c>
       <c r="H33" t="n" s="4">
-        <v>500.0</v>
+        <v>-50.0</v>
       </c>
     </row>
     <row r="34">
@@ -2539,7 +2560,7 @@
         <v>62</v>
       </c>
       <c r="D44" t="n" s="3">
-        <v>1085.0</v>
+        <v>1082.0</v>
       </c>
       <c r="E44" t="s" s="3">
         <v>63</v>
@@ -2551,7 +2572,7 @@
         <v>65</v>
       </c>
       <c r="H44" t="n" s="4">
-        <v>0.0</v>
+        <v>50.0</v>
       </c>
     </row>
     <row r="45">
@@ -2562,7 +2583,7 @@
         <v>62</v>
       </c>
       <c r="D45" t="n" s="3">
-        <v>1081.0</v>
+        <v>1076.0</v>
       </c>
       <c r="E45" t="s" s="3">
         <v>66</v>
@@ -2574,7 +2595,7 @@
         <v>65</v>
       </c>
       <c r="H45" t="n" s="4">
-        <v>0.0</v>
+        <v>50.0</v>
       </c>
     </row>
     <row r="46">
@@ -2608,7 +2629,7 @@
         <v>62</v>
       </c>
       <c r="D47" t="n" s="3">
-        <v>1080.0</v>
+        <v>1077.0</v>
       </c>
       <c r="E47" t="s" s="3">
         <v>70</v>
@@ -2620,7 +2641,7 @@
         <v>65</v>
       </c>
       <c r="H47" t="n" s="4">
-        <v>0.0</v>
+        <v>50.0</v>
       </c>
     </row>
     <row r="48">
@@ -2631,7 +2652,7 @@
         <v>62</v>
       </c>
       <c r="D48" t="n" s="3">
-        <v>1087.0</v>
+        <v>1085.0</v>
       </c>
       <c r="E48" t="s" s="3">
         <v>72</v>
@@ -2643,7 +2664,7 @@
         <v>65</v>
       </c>
       <c r="H48" t="n" s="4">
-        <v>50.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="49">
@@ -2654,7 +2675,7 @@
         <v>62</v>
       </c>
       <c r="D49" t="n" s="3">
-        <v>1086.0</v>
+        <v>1081.0</v>
       </c>
       <c r="E49" t="s" s="3">
         <v>74</v>
@@ -2666,7 +2687,7 @@
         <v>65</v>
       </c>
       <c r="H49" t="n" s="4">
-        <v>50.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="50">
@@ -2677,7 +2698,7 @@
         <v>62</v>
       </c>
       <c r="D50" t="n" s="3">
-        <v>1082.0</v>
+        <v>1080.0</v>
       </c>
       <c r="E50" t="s" s="3">
         <v>76</v>
@@ -2689,7 +2710,7 @@
         <v>65</v>
       </c>
       <c r="H50" t="n" s="4">
-        <v>50.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="51">
@@ -2700,7 +2721,7 @@
         <v>62</v>
       </c>
       <c r="D51" t="n" s="3">
-        <v>1088.0</v>
+        <v>1087.0</v>
       </c>
       <c r="E51" t="s" s="3">
         <v>78</v>
@@ -2723,7 +2744,7 @@
         <v>62</v>
       </c>
       <c r="D52" t="n" s="3">
-        <v>1084.0</v>
+        <v>1088.0</v>
       </c>
       <c r="E52" t="s" s="3">
         <v>80</v>
@@ -2746,7 +2767,7 @@
         <v>62</v>
       </c>
       <c r="D53" t="n" s="3">
-        <v>1083.0</v>
+        <v>1084.0</v>
       </c>
       <c r="E53" t="s" s="3">
         <v>82</v>
@@ -2769,7 +2790,7 @@
         <v>62</v>
       </c>
       <c r="D54" t="n" s="3">
-        <v>1079.0</v>
+        <v>1083.0</v>
       </c>
       <c r="E54" t="s" s="3">
         <v>84</v>
@@ -2792,13 +2813,13 @@
         <v>62</v>
       </c>
       <c r="D55" t="n" s="3">
-        <v>1079.0</v>
+        <v>1086.0</v>
       </c>
       <c r="E55" t="s" s="3">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F55" t="s" s="3">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G55" t="s" s="3">
         <v>65</v>
@@ -2815,13 +2836,13 @@
         <v>62</v>
       </c>
       <c r="D56" t="n" s="3">
-        <v>1077.0</v>
+        <v>1079.0</v>
       </c>
       <c r="E56" t="s" s="3">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F56" t="s" s="3">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G56" t="s" s="3">
         <v>65</v>
@@ -2838,10 +2859,10 @@
         <v>62</v>
       </c>
       <c r="D57" t="n" s="3">
-        <v>1076.0</v>
+        <v>1079.0</v>
       </c>
       <c r="E57" t="s" s="3">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F57" t="s" s="3">
         <v>90</v>
@@ -2999,7 +3020,7 @@
         <v>62</v>
       </c>
       <c r="D64" t="n" s="3">
-        <v>1097.0</v>
+        <v>1096.0</v>
       </c>
       <c r="E64" t="s" s="3">
         <v>106</v>
@@ -3011,7 +3032,7 @@
         <v>65</v>
       </c>
       <c r="H64" t="n" s="4">
-        <v>0.0</v>
+        <v>100.0</v>
       </c>
     </row>
     <row r="65">
@@ -3022,7 +3043,7 @@
         <v>62</v>
       </c>
       <c r="D65" t="n" s="3">
-        <v>1096.0</v>
+        <v>1097.0</v>
       </c>
       <c r="E65" t="s" s="3">
         <v>108</v>
@@ -3034,7 +3055,7 @@
         <v>65</v>
       </c>
       <c r="H65" t="n" s="4">
-        <v>100.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="66">
@@ -3091,7 +3112,7 @@
         <v>62</v>
       </c>
       <c r="D68" t="n" s="3">
-        <v>1100.0</v>
+        <v>1099.0</v>
       </c>
       <c r="E68" t="s" s="3">
         <v>116</v>
@@ -3114,7 +3135,7 @@
         <v>62</v>
       </c>
       <c r="D69" t="n" s="3">
-        <v>1099.0</v>
+        <v>1100.0</v>
       </c>
       <c r="E69" t="s" s="3">
         <v>118</v>
@@ -3275,7 +3296,7 @@
         <v>62</v>
       </c>
       <c r="D76" t="n" s="3">
-        <v>1112.0</v>
+        <v>1111.0</v>
       </c>
       <c r="E76" t="s" s="3">
         <v>129</v>
@@ -3287,7 +3308,7 @@
         <v>65</v>
       </c>
       <c r="H76" t="n" s="4">
-        <v>70.0</v>
+        <v>50.0</v>
       </c>
     </row>
     <row r="77">
@@ -3298,7 +3319,7 @@
         <v>62</v>
       </c>
       <c r="D77" t="n" s="3">
-        <v>1111.0</v>
+        <v>1112.0</v>
       </c>
       <c r="E77" t="s" s="3">
         <v>131</v>
@@ -3310,7 +3331,7 @@
         <v>65</v>
       </c>
       <c r="H77" t="n" s="4">
-        <v>50.0</v>
+        <v>70.0</v>
       </c>
     </row>
     <row r="78">
@@ -3586,7 +3607,7 @@
         <v>65</v>
       </c>
       <c r="H89" t="n" s="4">
-        <v>-30.0</v>
+        <v>100.0</v>
       </c>
     </row>
     <row r="90">
@@ -3597,19 +3618,19 @@
         <v>62</v>
       </c>
       <c r="D90" t="n" s="3">
-        <v>1120.0</v>
+        <v>1121.0</v>
       </c>
       <c r="E90" t="s" s="3">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="F90" t="s" s="3">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="G90" t="s" s="3">
         <v>65</v>
       </c>
       <c r="H90" t="n" s="4">
-        <v>100.0</v>
+        <v>50.0</v>
       </c>
     </row>
     <row r="91">
@@ -3623,7 +3644,7 @@
         <v>1121.0</v>
       </c>
       <c r="E91" t="s" s="3">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F91" t="s" s="3">
         <v>156</v>
@@ -3646,7 +3667,7 @@
         <v>1121.0</v>
       </c>
       <c r="E92" t="s" s="3">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F92" t="s" s="3">
         <v>157</v>
@@ -3669,7 +3690,7 @@
         <v>1121.0</v>
       </c>
       <c r="E93" t="s" s="3">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F93" t="s" s="3">
         <v>158</v>
@@ -3692,7 +3713,7 @@
         <v>1121.0</v>
       </c>
       <c r="E94" t="s" s="3">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F94" t="s" s="3">
         <v>159</v>
@@ -3715,7 +3736,7 @@
         <v>1121.0</v>
       </c>
       <c r="E95" t="s" s="3">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F95" t="s" s="3">
         <v>160</v>
@@ -3738,7 +3759,7 @@
         <v>1121.0</v>
       </c>
       <c r="E96" t="s" s="3">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F96" t="s" s="3">
         <v>161</v>
@@ -3758,10 +3779,10 @@
         <v>62</v>
       </c>
       <c r="D97" t="n" s="3">
-        <v>1121.0</v>
+        <v>1122.0</v>
       </c>
       <c r="E97" t="s" s="3">
-        <v>155</v>
+        <v>52</v>
       </c>
       <c r="F97" t="s" s="3">
         <v>162</v>
@@ -3781,10 +3802,10 @@
         <v>62</v>
       </c>
       <c r="D98" t="n" s="3">
-        <v>1122.0</v>
+        <v>1120.0</v>
       </c>
       <c r="E98" t="s" s="3">
-        <v>52</v>
+        <v>152</v>
       </c>
       <c r="F98" t="s" s="3">
         <v>163</v>
@@ -3793,7 +3814,7 @@
         <v>65</v>
       </c>
       <c r="H98" t="n" s="4">
-        <v>50.0</v>
+        <v>-30.0</v>
       </c>
     </row>
     <row r="99">
@@ -3804,7 +3825,7 @@
         <v>62</v>
       </c>
       <c r="D99" t="n" s="3">
-        <v>1123.0</v>
+        <v>1124.0</v>
       </c>
       <c r="E99" t="s" s="3">
         <v>165</v>
@@ -3827,7 +3848,7 @@
         <v>62</v>
       </c>
       <c r="D100" t="n" s="3">
-        <v>1125.0</v>
+        <v>1123.0</v>
       </c>
       <c r="E100" t="s" s="3">
         <v>167</v>
@@ -3850,7 +3871,7 @@
         <v>62</v>
       </c>
       <c r="D101" t="n" s="3">
-        <v>1124.0</v>
+        <v>1125.0</v>
       </c>
       <c r="E101" t="s" s="3">
         <v>169</v>
@@ -3876,7 +3897,7 @@
         <v>1127.0</v>
       </c>
       <c r="E102" t="s" s="3">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F102" t="s" s="3">
         <v>171</v>
@@ -3922,7 +3943,7 @@
         <v>1127.0</v>
       </c>
       <c r="E104" t="s" s="3">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F104" t="s" s="3">
         <v>173</v>
@@ -3965,13 +3986,13 @@
         <v>62</v>
       </c>
       <c r="D106" t="n" s="3">
-        <v>1132.0</v>
+        <v>1129.0</v>
       </c>
       <c r="E106" t="s" s="3">
+        <v>41</v>
+      </c>
+      <c r="F106" t="s" s="3">
         <v>177</v>
-      </c>
-      <c r="F106" t="s" s="3">
-        <v>178</v>
       </c>
       <c r="G106" t="s" s="3">
         <v>65</v>
@@ -3988,10 +4009,10 @@
         <v>62</v>
       </c>
       <c r="D107" t="n" s="3">
-        <v>1129.0</v>
+        <v>1130.0</v>
       </c>
       <c r="E107" t="s" s="3">
-        <v>41</v>
+        <v>178</v>
       </c>
       <c r="F107" t="s" s="3">
         <v>179</v>
@@ -4011,7 +4032,7 @@
         <v>62</v>
       </c>
       <c r="D108" t="n" s="3">
-        <v>1130.0</v>
+        <v>1131.0</v>
       </c>
       <c r="E108" t="s" s="3">
         <v>180</v>
@@ -4034,7 +4055,7 @@
         <v>62</v>
       </c>
       <c r="D109" t="n" s="3">
-        <v>1131.0</v>
+        <v>1132.0</v>
       </c>
       <c r="E109" t="s" s="3">
         <v>182</v>
@@ -4057,7 +4078,7 @@
         <v>62</v>
       </c>
       <c r="D110" t="n" s="3">
-        <v>1136.0</v>
+        <v>1137.0</v>
       </c>
       <c r="E110" t="s" s="3">
         <v>185</v>
@@ -4069,7 +4090,7 @@
         <v>65</v>
       </c>
       <c r="H110" t="n" s="4">
-        <v>50.0</v>
+        <v>100.0</v>
       </c>
     </row>
     <row r="111">
@@ -4080,13 +4101,13 @@
         <v>62</v>
       </c>
       <c r="D111" t="n" s="3">
-        <v>1136.0</v>
+        <v>1134.0</v>
       </c>
       <c r="E111" t="s" s="3">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="F111" t="s" s="3">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="G111" t="s" s="3">
         <v>65</v>
@@ -4103,19 +4124,19 @@
         <v>62</v>
       </c>
       <c r="D112" t="n" s="3">
-        <v>1136.0</v>
+        <v>1139.0</v>
       </c>
       <c r="E112" t="s" s="3">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="F112" t="s" s="3">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="G112" t="s" s="3">
         <v>65</v>
       </c>
       <c r="H112" t="n" s="4">
-        <v>50.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="113">
@@ -4126,19 +4147,19 @@
         <v>62</v>
       </c>
       <c r="D113" t="n" s="3">
-        <v>1134.0</v>
+        <v>1138.0</v>
       </c>
       <c r="E113" t="s" s="3">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="F113" t="s" s="3">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="G113" t="s" s="3">
         <v>65</v>
       </c>
       <c r="H113" t="n" s="4">
-        <v>50.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="114">
@@ -4149,13 +4170,13 @@
         <v>62</v>
       </c>
       <c r="D114" t="n" s="3">
-        <v>1136.0</v>
+        <v>1135.0</v>
       </c>
       <c r="E114" t="s" s="3">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="F114" t="s" s="3">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="G114" t="s" s="3">
         <v>65</v>
@@ -4175,10 +4196,10 @@
         <v>1140.0</v>
       </c>
       <c r="E115" t="s" s="3">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="F115" t="s" s="3">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="G115" t="s" s="3">
         <v>65</v>
@@ -4195,19 +4216,19 @@
         <v>62</v>
       </c>
       <c r="D116" t="n" s="3">
-        <v>1139.0</v>
+        <v>1136.0</v>
       </c>
       <c r="E116" t="s" s="3">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="F116" t="s" s="3">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="G116" t="s" s="3">
         <v>65</v>
       </c>
       <c r="H116" t="n" s="4">
-        <v>0.0</v>
+        <v>50.0</v>
       </c>
     </row>
     <row r="117">
@@ -4218,19 +4239,19 @@
         <v>62</v>
       </c>
       <c r="D117" t="n" s="3">
-        <v>1133.0</v>
+        <v>1136.0</v>
       </c>
       <c r="E117" t="s" s="3">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="F117" t="s" s="3">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="G117" t="s" s="3">
         <v>65</v>
       </c>
       <c r="H117" t="n" s="4">
-        <v>0.0</v>
+        <v>50.0</v>
       </c>
     </row>
     <row r="118">
@@ -4241,13 +4262,13 @@
         <v>62</v>
       </c>
       <c r="D118" t="n" s="3">
-        <v>1135.0</v>
+        <v>1136.0</v>
       </c>
       <c r="E118" t="s" s="3">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F118" t="s" s="3">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="G118" t="s" s="3">
         <v>65</v>
@@ -4264,10 +4285,10 @@
         <v>62</v>
       </c>
       <c r="D119" t="n" s="3">
-        <v>1137.0</v>
+        <v>1136.0</v>
       </c>
       <c r="E119" t="s" s="3">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="F119" t="s" s="3">
         <v>201</v>
@@ -4276,7 +4297,7 @@
         <v>65</v>
       </c>
       <c r="H119" t="n" s="4">
-        <v>100.0</v>
+        <v>50.0</v>
       </c>
     </row>
     <row r="120">
@@ -4287,7 +4308,7 @@
         <v>62</v>
       </c>
       <c r="D120" t="n" s="3">
-        <v>1138.0</v>
+        <v>1133.0</v>
       </c>
       <c r="E120" t="s" s="3">
         <v>202</v>
@@ -4310,19 +4331,19 @@
         <v>62</v>
       </c>
       <c r="D121" t="n" s="3">
-        <v>1142.0</v>
+        <v>1143.0</v>
       </c>
       <c r="E121" t="s" s="3">
-        <v>13</v>
+        <v>204</v>
       </c>
       <c r="F121" t="s" s="3">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="G121" t="s" s="3">
         <v>65</v>
       </c>
       <c r="H121" t="n" s="4">
-        <v>0.0</v>
+        <v>100.0</v>
       </c>
     </row>
     <row r="122">
@@ -4336,10 +4357,10 @@
         <v>1141.0</v>
       </c>
       <c r="E122" t="s" s="3">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F122" t="s" s="3">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="G122" t="s" s="3">
         <v>65</v>
@@ -4356,10 +4377,10 @@
         <v>62</v>
       </c>
       <c r="D123" t="n" s="3">
-        <v>1143.0</v>
+        <v>1142.0</v>
       </c>
       <c r="E123" t="s" s="3">
-        <v>207</v>
+        <v>13</v>
       </c>
       <c r="F123" t="s" s="3">
         <v>208</v>
@@ -4368,7 +4389,7 @@
         <v>65</v>
       </c>
       <c r="H123" t="n" s="4">
-        <v>100.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="124">
@@ -4379,7 +4400,7 @@
         <v>62</v>
       </c>
       <c r="D124" t="n" s="3">
-        <v>1153.0</v>
+        <v>1167.0</v>
       </c>
       <c r="E124" t="s" s="3">
         <v>210</v>
@@ -4402,13 +4423,13 @@
         <v>62</v>
       </c>
       <c r="D125" t="n" s="3">
-        <v>1154.0</v>
+        <v>1146.0</v>
       </c>
       <c r="E125" t="s" s="3">
-        <v>49</v>
+        <v>212</v>
       </c>
       <c r="F125" t="s" s="3">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="G125" t="s" s="3">
         <v>65</v>
@@ -4425,13 +4446,13 @@
         <v>62</v>
       </c>
       <c r="D126" t="n" s="3">
-        <v>1154.0</v>
+        <v>1150.0</v>
       </c>
       <c r="E126" t="s" s="3">
-        <v>49</v>
+        <v>214</v>
       </c>
       <c r="F126" t="s" s="3">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="G126" t="s" s="3">
         <v>65</v>
@@ -4448,13 +4469,13 @@
         <v>62</v>
       </c>
       <c r="D127" t="n" s="3">
-        <v>1155.0</v>
+        <v>1151.0</v>
       </c>
       <c r="E127" t="s" s="3">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="F127" t="s" s="3">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="G127" t="s" s="3">
         <v>65</v>
@@ -4471,13 +4492,13 @@
         <v>62</v>
       </c>
       <c r="D128" t="n" s="3">
-        <v>1149.0</v>
+        <v>1152.0</v>
       </c>
       <c r="E128" t="s" s="3">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="F128" t="s" s="3">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="G128" t="s" s="3">
         <v>65</v>
@@ -4494,19 +4515,19 @@
         <v>62</v>
       </c>
       <c r="D129" t="n" s="3">
-        <v>1159.0</v>
+        <v>1153.0</v>
       </c>
       <c r="E129" t="s" s="3">
-        <v>35</v>
+        <v>220</v>
       </c>
       <c r="F129" t="s" s="3">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="G129" t="s" s="3">
         <v>65</v>
       </c>
       <c r="H129" t="n" s="4">
-        <v>50.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="130">
@@ -4517,19 +4538,19 @@
         <v>62</v>
       </c>
       <c r="D130" t="n" s="3">
-        <v>1157.0</v>
+        <v>1154.0</v>
       </c>
       <c r="E130" t="s" s="3">
-        <v>196</v>
+        <v>49</v>
       </c>
       <c r="F130" t="s" s="3">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="G130" t="s" s="3">
         <v>65</v>
       </c>
       <c r="H130" t="n" s="4">
-        <v>50.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="131">
@@ -4540,19 +4561,19 @@
         <v>62</v>
       </c>
       <c r="D131" t="n" s="3">
-        <v>1157.0</v>
+        <v>1154.0</v>
       </c>
       <c r="E131" t="s" s="3">
-        <v>196</v>
+        <v>49</v>
       </c>
       <c r="F131" t="s" s="3">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="G131" t="s" s="3">
         <v>65</v>
       </c>
       <c r="H131" t="n" s="4">
-        <v>50.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="132">
@@ -4563,13 +4584,13 @@
         <v>62</v>
       </c>
       <c r="D132" t="n" s="3">
-        <v>1158.0</v>
+        <v>1155.0</v>
       </c>
       <c r="E132" t="s" s="3">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="F132" t="s" s="3">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="G132" t="s" s="3">
         <v>65</v>
@@ -4586,13 +4607,13 @@
         <v>62</v>
       </c>
       <c r="D133" t="n" s="3">
-        <v>1160.0</v>
+        <v>1158.0</v>
       </c>
       <c r="E133" t="s" s="3">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="F133" t="s" s="3">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="G133" t="s" s="3">
         <v>65</v>
@@ -4609,13 +4630,13 @@
         <v>62</v>
       </c>
       <c r="D134" t="n" s="3">
-        <v>1161.0</v>
+        <v>1160.0</v>
       </c>
       <c r="E134" t="s" s="3">
-        <v>17</v>
+        <v>228</v>
       </c>
       <c r="F134" t="s" s="3">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="G134" t="s" s="3">
         <v>65</v>
@@ -4635,10 +4656,10 @@
         <v>1161.0</v>
       </c>
       <c r="E135" t="s" s="3">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F135" t="s" s="3">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="G135" t="s" s="3">
         <v>65</v>
@@ -4655,19 +4676,19 @@
         <v>62</v>
       </c>
       <c r="D136" t="n" s="3">
-        <v>1162.0</v>
+        <v>1161.0</v>
       </c>
       <c r="E136" t="s" s="3">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F136" t="s" s="3">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="G136" t="s" s="3">
         <v>65</v>
       </c>
       <c r="H136" t="n" s="4">
-        <v>50.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="137">
@@ -4678,19 +4699,19 @@
         <v>62</v>
       </c>
       <c r="D137" t="n" s="3">
-        <v>1162.0</v>
+        <v>1163.0</v>
       </c>
       <c r="E137" t="s" s="3">
-        <v>17</v>
+        <v>232</v>
       </c>
       <c r="F137" t="s" s="3">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="G137" t="s" s="3">
         <v>65</v>
       </c>
       <c r="H137" t="n" s="4">
-        <v>50.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="138">
@@ -4701,13 +4722,13 @@
         <v>62</v>
       </c>
       <c r="D138" t="n" s="3">
-        <v>1163.0</v>
+        <v>1164.0</v>
       </c>
       <c r="E138" t="s" s="3">
-        <v>229</v>
+        <v>43</v>
       </c>
       <c r="F138" t="s" s="3">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="G138" t="s" s="3">
         <v>65</v>
@@ -4730,7 +4751,7 @@
         <v>43</v>
       </c>
       <c r="F139" t="s" s="3">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="G139" t="s" s="3">
         <v>65</v>
@@ -4747,19 +4768,19 @@
         <v>62</v>
       </c>
       <c r="D140" t="n" s="3">
-        <v>1164.0</v>
+        <v>1169.0</v>
       </c>
       <c r="E140" t="s" s="3">
-        <v>43</v>
+        <v>236</v>
       </c>
       <c r="F140" t="s" s="3">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="G140" t="s" s="3">
         <v>65</v>
       </c>
       <c r="H140" t="n" s="4">
-        <v>0.0</v>
+        <v>70.0</v>
       </c>
     </row>
     <row r="141">
@@ -4770,19 +4791,19 @@
         <v>62</v>
       </c>
       <c r="D141" t="n" s="3">
-        <v>1165.0</v>
+        <v>1147.0</v>
       </c>
       <c r="E141" t="s" s="3">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="F141" t="s" s="3">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="G141" t="s" s="3">
         <v>65</v>
       </c>
       <c r="H141" t="n" s="4">
-        <v>50.0</v>
+        <v>70.0</v>
       </c>
     </row>
     <row r="142">
@@ -4793,13 +4814,13 @@
         <v>62</v>
       </c>
       <c r="D142" t="n" s="3">
-        <v>1166.0</v>
+        <v>1159.0</v>
       </c>
       <c r="E142" t="s" s="3">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="F142" t="s" s="3">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="G142" t="s" s="3">
         <v>65</v>
@@ -4816,19 +4837,19 @@
         <v>62</v>
       </c>
       <c r="D143" t="n" s="3">
-        <v>1167.0</v>
+        <v>1168.0</v>
       </c>
       <c r="E143" t="s" s="3">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="F143" t="s" s="3">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="G143" t="s" s="3">
         <v>65</v>
       </c>
       <c r="H143" t="n" s="4">
-        <v>0.0</v>
+        <v>50.0</v>
       </c>
     </row>
     <row r="144">
@@ -4839,13 +4860,13 @@
         <v>62</v>
       </c>
       <c r="D144" t="n" s="3">
-        <v>1168.0</v>
+        <v>1144.0</v>
       </c>
       <c r="E144" t="s" s="3">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="F144" t="s" s="3">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="G144" t="s" s="3">
         <v>65</v>
@@ -4862,19 +4883,19 @@
         <v>62</v>
       </c>
       <c r="D145" t="n" s="3">
-        <v>1169.0</v>
+        <v>1145.0</v>
       </c>
       <c r="E145" t="s" s="3">
-        <v>240</v>
+        <v>202</v>
       </c>
       <c r="F145" t="s" s="3">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="G145" t="s" s="3">
         <v>65</v>
       </c>
       <c r="H145" t="n" s="4">
-        <v>70.0</v>
+        <v>50.0</v>
       </c>
     </row>
     <row r="146">
@@ -4885,13 +4906,13 @@
         <v>62</v>
       </c>
       <c r="D146" t="n" s="3">
-        <v>1144.0</v>
+        <v>1148.0</v>
       </c>
       <c r="E146" t="s" s="3">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="F146" t="s" s="3">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="G146" t="s" s="3">
         <v>65</v>
@@ -4908,13 +4929,13 @@
         <v>62</v>
       </c>
       <c r="D147" t="n" s="3">
-        <v>1145.0</v>
+        <v>1156.0</v>
       </c>
       <c r="E147" t="s" s="3">
-        <v>196</v>
+        <v>49</v>
       </c>
       <c r="F147" t="s" s="3">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="G147" t="s" s="3">
         <v>65</v>
@@ -4931,19 +4952,19 @@
         <v>62</v>
       </c>
       <c r="D148" t="n" s="3">
-        <v>1146.0</v>
+        <v>1156.0</v>
       </c>
       <c r="E148" t="s" s="3">
-        <v>245</v>
+        <v>49</v>
       </c>
       <c r="F148" t="s" s="3">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="G148" t="s" s="3">
         <v>65</v>
       </c>
       <c r="H148" t="n" s="4">
-        <v>0.0</v>
+        <v>50.0</v>
       </c>
     </row>
     <row r="149">
@@ -4954,19 +4975,19 @@
         <v>62</v>
       </c>
       <c r="D149" t="n" s="3">
-        <v>1147.0</v>
+        <v>1156.0</v>
       </c>
       <c r="E149" t="s" s="3">
-        <v>247</v>
+        <v>49</v>
       </c>
       <c r="F149" t="s" s="3">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="G149" t="s" s="3">
         <v>65</v>
       </c>
       <c r="H149" t="n" s="4">
-        <v>70.0</v>
+        <v>50.0</v>
       </c>
     </row>
     <row r="150">
@@ -4977,13 +4998,13 @@
         <v>62</v>
       </c>
       <c r="D150" t="n" s="3">
-        <v>1148.0</v>
+        <v>1156.0</v>
       </c>
       <c r="E150" t="s" s="3">
-        <v>249</v>
+        <v>49</v>
       </c>
       <c r="F150" t="s" s="3">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="G150" t="s" s="3">
         <v>65</v>
@@ -5000,10 +5021,10 @@
         <v>62</v>
       </c>
       <c r="D151" t="n" s="3">
-        <v>1150.0</v>
+        <v>1156.0</v>
       </c>
       <c r="E151" t="s" s="3">
-        <v>251</v>
+        <v>49</v>
       </c>
       <c r="F151" t="s" s="3">
         <v>252</v>
@@ -5012,7 +5033,7 @@
         <v>65</v>
       </c>
       <c r="H151" t="n" s="4">
-        <v>0.0</v>
+        <v>50.0</v>
       </c>
     </row>
     <row r="152">
@@ -5023,19 +5044,19 @@
         <v>62</v>
       </c>
       <c r="D152" t="n" s="3">
-        <v>1151.0</v>
+        <v>1157.0</v>
       </c>
       <c r="E152" t="s" s="3">
+        <v>202</v>
+      </c>
+      <c r="F152" t="s" s="3">
         <v>253</v>
       </c>
-      <c r="F152" t="s" s="3">
-        <v>254</v>
-      </c>
       <c r="G152" t="s" s="3">
         <v>65</v>
       </c>
       <c r="H152" t="n" s="4">
-        <v>0.0</v>
+        <v>50.0</v>
       </c>
     </row>
     <row r="153">
@@ -5046,13 +5067,13 @@
         <v>62</v>
       </c>
       <c r="D153" t="n" s="3">
-        <v>1156.0</v>
+        <v>1157.0</v>
       </c>
       <c r="E153" t="s" s="3">
-        <v>49</v>
+        <v>202</v>
       </c>
       <c r="F153" t="s" s="3">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G153" t="s" s="3">
         <v>65</v>
@@ -5069,13 +5090,13 @@
         <v>62</v>
       </c>
       <c r="D154" t="n" s="3">
-        <v>1156.0</v>
+        <v>1162.0</v>
       </c>
       <c r="E154" t="s" s="3">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="F154" t="s" s="3">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G154" t="s" s="3">
         <v>65</v>
@@ -5092,13 +5113,13 @@
         <v>62</v>
       </c>
       <c r="D155" t="n" s="3">
-        <v>1156.0</v>
+        <v>1162.0</v>
       </c>
       <c r="E155" t="s" s="3">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="F155" t="s" s="3">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G155" t="s" s="3">
         <v>65</v>
@@ -5115,10 +5136,10 @@
         <v>62</v>
       </c>
       <c r="D156" t="n" s="3">
-        <v>1156.0</v>
+        <v>1165.0</v>
       </c>
       <c r="E156" t="s" s="3">
-        <v>49</v>
+        <v>257</v>
       </c>
       <c r="F156" t="s" s="3">
         <v>258</v>
@@ -5138,10 +5159,10 @@
         <v>62</v>
       </c>
       <c r="D157" t="n" s="3">
-        <v>1156.0</v>
+        <v>1166.0</v>
       </c>
       <c r="E157" t="s" s="3">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="F157" t="s" s="3">
         <v>259</v>
@@ -5161,7 +5182,7 @@
         <v>62</v>
       </c>
       <c r="D158" t="n" s="3">
-        <v>1152.0</v>
+        <v>1149.0</v>
       </c>
       <c r="E158" t="s" s="3">
         <v>260</v>
@@ -5207,7 +5228,7 @@
         <v>62</v>
       </c>
       <c r="D160" t="n" s="3">
-        <v>1174.0</v>
+        <v>1172.0</v>
       </c>
       <c r="E160" t="s" s="3">
         <v>265</v>
@@ -5230,7 +5251,7 @@
         <v>62</v>
       </c>
       <c r="D161" t="n" s="3">
-        <v>1170.0</v>
+        <v>1174.0</v>
       </c>
       <c r="E161" t="s" s="3">
         <v>267</v>
@@ -5242,7 +5263,7 @@
         <v>65</v>
       </c>
       <c r="H161" t="n" s="4">
-        <v>0.0</v>
+        <v>50.0</v>
       </c>
     </row>
     <row r="162">
@@ -5253,7 +5274,7 @@
         <v>62</v>
       </c>
       <c r="D162" t="n" s="3">
-        <v>1175.0</v>
+        <v>1171.0</v>
       </c>
       <c r="E162" t="s" s="3">
         <v>269</v>
@@ -5276,7 +5297,7 @@
         <v>62</v>
       </c>
       <c r="D163" t="n" s="3">
-        <v>1171.0</v>
+        <v>1170.0</v>
       </c>
       <c r="E163" t="s" s="3">
         <v>271</v>
@@ -5299,7 +5320,7 @@
         <v>62</v>
       </c>
       <c r="D164" t="n" s="3">
-        <v>1172.0</v>
+        <v>1175.0</v>
       </c>
       <c r="E164" t="s" s="3">
         <v>273</v>
@@ -5311,7 +5332,7 @@
         <v>65</v>
       </c>
       <c r="H164" t="n" s="4">
-        <v>50.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="165">
@@ -5429,7 +5450,9 @@
       <c r="C174" t="s" s="3">
         <v>290</v>
       </c>
-      <c r="D174" s="3"/>
+      <c r="D174" t="n" s="3">
+        <v>333.0</v>
+      </c>
       <c r="E174" t="s" s="3">
         <v>291</v>
       </c>
@@ -5440,218 +5463,218 @@
         <v>293</v>
       </c>
       <c r="H174" t="n" s="4">
-        <v>186.79</v>
+        <v>1000.0</v>
       </c>
     </row>
     <row r="175">
-      <c r="A175" t="s" s="2">
+      <c r="B175" t="s" s="3">
         <v>294</v>
       </c>
-      <c r="H175" t="n" s="5">
-        <v>186.79</v>
+      <c r="C175" t="s" s="3">
+        <v>290</v>
+      </c>
+      <c r="D175" t="n" s="3">
+        <v>341.0</v>
+      </c>
+      <c r="E175" t="s" s="3">
+        <v>291</v>
+      </c>
+      <c r="F175" t="s" s="3">
+        <v>295</v>
+      </c>
+      <c r="G175" t="s" s="3">
+        <v>293</v>
+      </c>
+      <c r="H175" t="n" s="4">
+        <v>1000.0</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
+      </c>
+      <c r="H176" t="n" s="5">
+        <v>2000.0</v>
       </c>
     </row>
     <row r="177">
-      <c r="B177" t="s" s="3">
-        <v>296</v>
-      </c>
-      <c r="C177" t="s" s="3">
+      <c r="A177" t="s" s="2">
         <v>297</v>
       </c>
-      <c r="D177" t="n" s="3">
-        <v>27413.0</v>
-      </c>
-      <c r="E177" t="s" s="3">
+    </row>
+    <row r="178">
+      <c r="B178" t="s" s="3">
         <v>298</v>
       </c>
-      <c r="F177" t="s" s="3">
-        <v>299</v>
-      </c>
-      <c r="G177" t="s" s="3">
+      <c r="C178" t="s" s="3">
+        <v>299</v>
+      </c>
+      <c r="D178" s="3"/>
+      <c r="E178" t="s" s="3">
         <v>300</v>
       </c>
-      <c r="H177" t="n" s="4">
-        <v>270.76</v>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" t="s" s="2">
+      <c r="F178" t="s" s="3">
         <v>301</v>
       </c>
-      <c r="H178" t="n" s="5">
-        <v>270.76</v>
+      <c r="G178" t="s" s="3">
+        <v>302</v>
+      </c>
+      <c r="H178" t="n" s="4">
+        <v>186.79</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
+      </c>
+      <c r="H179" t="n" s="5">
+        <v>186.79</v>
       </c>
     </row>
     <row r="180">
-      <c r="B180" t="s" s="3">
-        <v>303</v>
-      </c>
-      <c r="C180" t="s" s="3">
-        <v>290</v>
-      </c>
-      <c r="D180" s="3"/>
-      <c r="E180" t="s" s="3">
+      <c r="A180" t="s" s="2">
         <v>304</v>
-      </c>
-      <c r="F180" t="s" s="3">
-        <v>305</v>
-      </c>
-      <c r="G180" t="s" s="3">
-        <v>293</v>
-      </c>
-      <c r="H180" t="n" s="4">
-        <v>14.75</v>
       </c>
     </row>
     <row r="181">
       <c r="B181" t="s" s="3">
-        <v>289</v>
+        <v>305</v>
       </c>
       <c r="C181" t="s" s="3">
         <v>290</v>
       </c>
-      <c r="D181" s="3"/>
+      <c r="D181" t="n" s="3">
+        <v>27413.0</v>
+      </c>
       <c r="E181" t="s" s="3">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="F181" t="s" s="3">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="G181" t="s" s="3">
         <v>293</v>
       </c>
       <c r="H181" t="n" s="4">
-        <v>15.73</v>
+        <v>270.76</v>
       </c>
     </row>
     <row r="182">
-      <c r="B182" t="s" s="3">
-        <v>16</v>
-      </c>
-      <c r="C182" t="s" s="3">
-        <v>290</v>
-      </c>
-      <c r="D182" s="3"/>
-      <c r="E182" t="s" s="3">
-        <v>304</v>
-      </c>
-      <c r="F182" t="s" s="3">
-        <v>306</v>
-      </c>
-      <c r="G182" t="s" s="3">
-        <v>293</v>
-      </c>
-      <c r="H182" t="n" s="4">
-        <v>14.75</v>
+      <c r="A182" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="H182" t="n" s="5">
+        <v>270.76</v>
       </c>
     </row>
     <row r="183">
-      <c r="B183" t="s" s="3">
-        <v>103</v>
-      </c>
-      <c r="C183" t="s" s="3">
-        <v>290</v>
-      </c>
-      <c r="D183" s="3"/>
-      <c r="E183" t="s" s="3">
-        <v>304</v>
-      </c>
-      <c r="F183" t="s" s="3">
-        <v>305</v>
-      </c>
-      <c r="G183" t="s" s="3">
-        <v>293</v>
-      </c>
-      <c r="H183" t="n" s="4">
-        <v>14.75</v>
+      <c r="A183" t="s" s="2">
+        <v>309</v>
       </c>
     </row>
     <row r="184">
       <c r="B184" t="s" s="3">
-        <v>40</v>
+        <v>310</v>
       </c>
       <c r="C184" t="s" s="3">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="D184" s="3"/>
       <c r="E184" t="s" s="3">
-        <v>304</v>
+        <v>311</v>
       </c>
       <c r="F184" t="s" s="3">
-        <v>305</v>
+        <v>312</v>
       </c>
       <c r="G184" t="s" s="3">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="H184" t="n" s="4">
-        <v>1.7</v>
+        <v>14.75</v>
       </c>
     </row>
     <row r="185">
-      <c r="A185" t="s" s="2">
-        <v>307</v>
-      </c>
-      <c r="H185" t="n" s="5">
-        <v>61.68</v>
+      <c r="B185" t="s" s="3">
+        <v>298</v>
+      </c>
+      <c r="C185" t="s" s="3">
+        <v>299</v>
+      </c>
+      <c r="D185" s="3"/>
+      <c r="E185" t="s" s="3">
+        <v>311</v>
+      </c>
+      <c r="F185" t="s" s="3">
+        <v>312</v>
+      </c>
+      <c r="G185" t="s" s="3">
+        <v>302</v>
+      </c>
+      <c r="H185" t="n" s="4">
+        <v>15.73</v>
       </c>
     </row>
     <row r="186">
-      <c r="A186" t="s" s="2">
-        <v>308</v>
+      <c r="B186" t="s" s="3">
+        <v>16</v>
+      </c>
+      <c r="C186" t="s" s="3">
+        <v>299</v>
+      </c>
+      <c r="D186" s="3"/>
+      <c r="E186" t="s" s="3">
+        <v>311</v>
+      </c>
+      <c r="F186" t="s" s="3">
+        <v>313</v>
+      </c>
+      <c r="G186" t="s" s="3">
+        <v>302</v>
+      </c>
+      <c r="H186" t="n" s="4">
+        <v>14.75</v>
       </c>
     </row>
     <row r="187">
       <c r="B187" t="s" s="3">
-        <v>309</v>
+        <v>103</v>
       </c>
       <c r="C187" t="s" s="3">
-        <v>297</v>
-      </c>
-      <c r="D187" t="n" s="3">
-        <v>7336.0</v>
-      </c>
+        <v>299</v>
+      </c>
+      <c r="D187" s="3"/>
       <c r="E187" t="s" s="3">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="F187" t="s" s="3">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="G187" t="s" s="3">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="H187" t="n" s="4">
-        <v>20.0</v>
+        <v>14.75</v>
       </c>
     </row>
     <row r="188">
       <c r="B188" t="s" s="3">
-        <v>303</v>
+        <v>40</v>
       </c>
       <c r="C188" t="s" s="3">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="D188" s="3"/>
       <c r="E188" t="s" s="3">
+        <v>311</v>
+      </c>
+      <c r="F188" t="s" s="3">
         <v>312</v>
       </c>
-      <c r="F188" t="s" s="3">
-        <v>313</v>
-      </c>
       <c r="G188" t="s" s="3">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="H188" t="n" s="4">
-        <v>0.59</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="189">
@@ -5659,82 +5682,53 @@
         <v>314</v>
       </c>
       <c r="C189" t="s" s="3">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="D189" s="3"/>
       <c r="E189" t="s" s="3">
+        <v>311</v>
+      </c>
+      <c r="F189" t="s" s="3">
+        <v>312</v>
+      </c>
+      <c r="G189" t="s" s="3">
+        <v>302</v>
+      </c>
+      <c r="H189" t="n" s="4">
+        <v>14.75</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="s" s="2">
         <v>315</v>
       </c>
-      <c r="F189" t="s" s="3">
+      <c r="H190" t="n" s="5">
+        <v>76.43</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="s" s="2">
         <v>316</v>
-      </c>
-      <c r="G189" t="s" s="3">
-        <v>300</v>
-      </c>
-      <c r="H189" t="n" s="4">
-        <v>20.0</v>
-      </c>
-    </row>
-    <row r="190">
-      <c r="B190" t="s" s="3">
-        <v>317</v>
-      </c>
-      <c r="C190" t="s" s="3">
-        <v>297</v>
-      </c>
-      <c r="D190" s="3"/>
-      <c r="E190" t="s" s="3">
-        <v>310</v>
-      </c>
-      <c r="F190" t="s" s="3">
-        <v>311</v>
-      </c>
-      <c r="G190" t="s" s="3">
-        <v>300</v>
-      </c>
-      <c r="H190" t="n" s="4">
-        <v>20.0</v>
-      </c>
-    </row>
-    <row r="191">
-      <c r="B191" t="s" s="3">
-        <v>113</v>
-      </c>
-      <c r="C191" t="s" s="3">
-        <v>290</v>
-      </c>
-      <c r="D191" t="n" s="3">
-        <v>3.86095465E8</v>
-      </c>
-      <c r="E191" t="s" s="3">
-        <v>312</v>
-      </c>
-      <c r="F191" t="s" s="3">
-        <v>312</v>
-      </c>
-      <c r="G191" t="s" s="3">
-        <v>293</v>
-      </c>
-      <c r="H191" t="n" s="4">
-        <v>0.59</v>
       </c>
     </row>
     <row r="192">
       <c r="B192" t="s" s="3">
-        <v>128</v>
+        <v>317</v>
       </c>
       <c r="C192" t="s" s="3">
-        <v>297</v>
-      </c>
-      <c r="D192" s="3"/>
+        <v>290</v>
+      </c>
+      <c r="D192" t="n" s="3">
+        <v>7336.0</v>
+      </c>
       <c r="E192" t="s" s="3">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="F192" t="s" s="3">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="G192" t="s" s="3">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="H192" t="n" s="4">
         <v>20.0</v>
@@ -5742,196 +5736,196 @@
     </row>
     <row r="193">
       <c r="B193" t="s" s="3">
-        <v>133</v>
+        <v>310</v>
       </c>
       <c r="C193" t="s" s="3">
-        <v>290</v>
-      </c>
-      <c r="D193" t="n" s="3">
-        <v>1.5662137E7</v>
-      </c>
+        <v>299</v>
+      </c>
+      <c r="D193" s="3"/>
       <c r="E193" t="s" s="3">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="F193" t="s" s="3">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="G193" t="s" s="3">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="H193" t="n" s="4">
-        <v>116.24</v>
+        <v>0.59</v>
       </c>
     </row>
     <row r="194">
       <c r="B194" t="s" s="3">
-        <v>133</v>
+        <v>322</v>
       </c>
       <c r="C194" t="s" s="3">
         <v>290</v>
       </c>
-      <c r="D194" t="n" s="3">
-        <v>1.5662137E7</v>
-      </c>
+      <c r="D194" s="3"/>
       <c r="E194" t="s" s="3">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="F194" t="s" s="3">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="G194" t="s" s="3">
         <v>293</v>
       </c>
       <c r="H194" t="n" s="4">
-        <v>116.24</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="195">
       <c r="B195" t="s" s="3">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="C195" t="s" s="3">
         <v>290</v>
       </c>
       <c r="D195" s="3"/>
       <c r="E195" t="s" s="3">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="F195" t="s" s="3">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="G195" t="s" s="3">
         <v>293</v>
       </c>
       <c r="H195" t="n" s="4">
-        <v>25.0</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="196">
       <c r="B196" t="s" s="3">
-        <v>324</v>
+        <v>113</v>
       </c>
       <c r="C196" t="s" s="3">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="D196" t="n" s="3">
-        <v>7509.0</v>
+        <v>3.86095465E8</v>
       </c>
       <c r="E196" t="s" s="3">
-        <v>310</v>
+        <v>320</v>
       </c>
       <c r="F196" t="s" s="3">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="G196" t="s" s="3">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="H196" t="n" s="4">
-        <v>20.0</v>
+        <v>0.59</v>
       </c>
     </row>
     <row r="197">
       <c r="B197" t="s" s="3">
-        <v>325</v>
+        <v>128</v>
       </c>
       <c r="C197" t="s" s="3">
         <v>290</v>
       </c>
       <c r="D197" s="3"/>
       <c r="E197" t="s" s="3">
-        <v>312</v>
-      </c>
-      <c r="F197" t="n" s="3">
-        <v>3.98900485E8</v>
+        <v>323</v>
+      </c>
+      <c r="F197" t="s" s="3">
+        <v>324</v>
       </c>
       <c r="G197" t="s" s="3">
         <v>293</v>
       </c>
       <c r="H197" t="n" s="4">
-        <v>0.59</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="198">
       <c r="B198" t="s" s="3">
-        <v>280</v>
+        <v>133</v>
       </c>
       <c r="C198" t="s" s="3">
-        <v>297</v>
-      </c>
-      <c r="D198" s="3"/>
+        <v>299</v>
+      </c>
+      <c r="D198" t="n" s="3">
+        <v>1.5662137E7</v>
+      </c>
       <c r="E198" t="s" s="3">
-        <v>315</v>
+        <v>326</v>
       </c>
       <c r="F198" t="s" s="3">
-        <v>316</v>
+        <v>327</v>
       </c>
       <c r="G198" t="s" s="3">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="H198" t="n" s="4">
-        <v>20.0</v>
+        <v>116.24</v>
       </c>
     </row>
     <row r="199">
       <c r="B199" t="s" s="3">
+        <v>133</v>
+      </c>
+      <c r="C199" t="s" s="3">
+        <v>299</v>
+      </c>
+      <c r="D199" t="n" s="3">
+        <v>1.5662137E7</v>
+      </c>
+      <c r="E199" t="s" s="3">
         <v>326</v>
       </c>
-      <c r="C199" t="s" s="3">
-        <v>297</v>
-      </c>
-      <c r="D199" t="n" s="3">
-        <v>7681.0</v>
-      </c>
-      <c r="E199" t="s" s="3">
-        <v>310</v>
-      </c>
       <c r="F199" t="s" s="3">
-        <v>311</v>
+        <v>328</v>
       </c>
       <c r="G199" t="s" s="3">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="H199" t="n" s="4">
-        <v>20.0</v>
+        <v>116.24</v>
       </c>
     </row>
     <row r="200">
       <c r="B200" t="s" s="3">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="C200" t="s" s="3">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="D200" s="3"/>
       <c r="E200" t="s" s="3">
-        <v>312</v>
-      </c>
-      <c r="F200" t="n" s="3">
-        <v>4.14747233E8</v>
+        <v>330</v>
+      </c>
+      <c r="F200" t="s" s="3">
+        <v>331</v>
       </c>
       <c r="G200" t="s" s="3">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="H200" t="n" s="4">
-        <v>0.6</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="201">
       <c r="B201" t="s" s="3">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="C201" t="s" s="3">
-        <v>297</v>
-      </c>
-      <c r="D201" s="3"/>
+        <v>290</v>
+      </c>
+      <c r="D201" t="n" s="3">
+        <v>7509.0</v>
+      </c>
       <c r="E201" t="s" s="3">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="F201" t="s" s="3">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="G201" t="s" s="3">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="H201" t="n" s="4">
         <v>20.0</v>
@@ -5939,44 +5933,44 @@
     </row>
     <row r="202">
       <c r="B202" t="s" s="3">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="C202" t="s" s="3">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="D202" s="3"/>
       <c r="E202" t="s" s="3">
-        <v>330</v>
-      </c>
-      <c r="F202" t="s" s="3">
-        <v>331</v>
+        <v>320</v>
+      </c>
+      <c r="F202" t="n" s="3">
+        <v>3.98900485E8</v>
       </c>
       <c r="G202" t="s" s="3">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="H202" t="n" s="4">
-        <v>98.94</v>
+        <v>0.59</v>
       </c>
     </row>
     <row r="203">
       <c r="B203" t="s" s="3">
-        <v>332</v>
+        <v>280</v>
       </c>
       <c r="C203" t="s" s="3">
         <v>290</v>
       </c>
       <c r="D203" s="3"/>
       <c r="E203" t="s" s="3">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="F203" t="s" s="3">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="G203" t="s" s="3">
         <v>293</v>
       </c>
       <c r="H203" t="n" s="4">
-        <v>12.98</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="204">
@@ -5984,17 +5978,19 @@
         <v>334</v>
       </c>
       <c r="C204" t="s" s="3">
-        <v>297</v>
-      </c>
-      <c r="D204" s="3"/>
+        <v>290</v>
+      </c>
+      <c r="D204" t="n" s="3">
+        <v>7681.0</v>
+      </c>
       <c r="E204" t="s" s="3">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="F204" t="s" s="3">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="G204" t="s" s="3">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="H204" t="n" s="4">
         <v>20.0</v>
@@ -6005,17 +6001,17 @@
         <v>335</v>
       </c>
       <c r="C205" t="s" s="3">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="D205" s="3"/>
       <c r="E205" t="s" s="3">
-        <v>312</v>
-      </c>
-      <c r="F205" t="s" s="3">
-        <v>336</v>
+        <v>320</v>
+      </c>
+      <c r="F205" t="n" s="3">
+        <v>4.14747233E8</v>
       </c>
       <c r="G205" t="s" s="3">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="H205" t="n" s="4">
         <v>0.6</v>
@@ -6023,434 +6019,484 @@
     </row>
     <row r="206">
       <c r="B206" t="s" s="3">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C206" t="s" s="3">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="D206" s="3"/>
       <c r="E206" t="s" s="3">
-        <v>315</v>
+        <v>323</v>
       </c>
       <c r="F206" t="s" s="3">
-        <v>316</v>
+        <v>324</v>
       </c>
       <c r="G206" t="s" s="3">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="H206" t="n" s="4">
         <v>20.0</v>
       </c>
     </row>
     <row r="207">
-      <c r="A207" t="s" s="2">
+      <c r="B207" t="s" s="3">
+        <v>337</v>
+      </c>
+      <c r="C207" t="s" s="3">
+        <v>299</v>
+      </c>
+      <c r="D207" s="3"/>
+      <c r="E207" t="s" s="3">
         <v>338</v>
       </c>
-      <c r="H207" t="n" s="5">
-        <v>572.37</v>
+      <c r="F207" t="s" s="3">
+        <v>339</v>
+      </c>
+      <c r="G207" t="s" s="3">
+        <v>302</v>
+      </c>
+      <c r="H207" t="n" s="4">
+        <v>98.94</v>
       </c>
     </row>
     <row r="208">
-      <c r="A208" t="s" s="2">
-        <v>339</v>
+      <c r="B208" t="s" s="3">
+        <v>340</v>
+      </c>
+      <c r="C208" t="s" s="3">
+        <v>299</v>
+      </c>
+      <c r="D208" s="3"/>
+      <c r="E208" t="s" s="3">
+        <v>326</v>
+      </c>
+      <c r="F208" t="s" s="3">
+        <v>341</v>
+      </c>
+      <c r="G208" t="s" s="3">
+        <v>302</v>
+      </c>
+      <c r="H208" t="n" s="4">
+        <v>12.98</v>
       </c>
     </row>
     <row r="209">
       <c r="B209" t="s" s="3">
-        <v>42</v>
+        <v>342</v>
       </c>
       <c r="C209" t="s" s="3">
-        <v>297</v>
-      </c>
-      <c r="D209" t="n" s="3">
-        <v>162673.0</v>
-      </c>
+        <v>290</v>
+      </c>
+      <c r="D209" s="3"/>
       <c r="E209" t="s" s="3">
-        <v>340</v>
+        <v>318</v>
       </c>
       <c r="F209" t="s" s="3">
-        <v>341</v>
+        <v>319</v>
       </c>
       <c r="G209" t="s" s="3">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="H209" t="n" s="4">
-        <v>40.75</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="210">
       <c r="B210" t="s" s="3">
-        <v>42</v>
+        <v>343</v>
       </c>
       <c r="C210" t="s" s="3">
-        <v>297</v>
-      </c>
-      <c r="D210" t="n" s="3">
-        <v>162673.0</v>
-      </c>
+        <v>299</v>
+      </c>
+      <c r="D210" s="3"/>
       <c r="E210" t="s" s="3">
-        <v>340</v>
+        <v>320</v>
       </c>
       <c r="F210" t="s" s="3">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="G210" t="s" s="3">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="H210" t="n" s="4">
-        <v>503.1</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="211">
       <c r="B211" t="s" s="3">
-        <v>209</v>
+        <v>345</v>
       </c>
       <c r="C211" t="s" s="3">
         <v>290</v>
       </c>
-      <c r="D211" t="n" s="3">
-        <v>163049.0</v>
-      </c>
+      <c r="D211" s="3"/>
       <c r="E211" t="s" s="3">
-        <v>340</v>
+        <v>323</v>
       </c>
       <c r="F211" t="s" s="3">
-        <v>343</v>
+        <v>324</v>
       </c>
       <c r="G211" t="s" s="3">
         <v>293</v>
       </c>
       <c r="H211" t="n" s="4">
-        <v>30.21</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="212">
-      <c r="A212" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="H212" t="n" s="5">
-        <v>574.06</v>
+      <c r="B212" t="s" s="3">
+        <v>346</v>
+      </c>
+      <c r="C212" t="s" s="3">
+        <v>290</v>
+      </c>
+      <c r="D212" s="3"/>
+      <c r="E212" t="s" s="3">
+        <v>318</v>
+      </c>
+      <c r="F212" t="s" s="3">
+        <v>319</v>
+      </c>
+      <c r="G212" t="s" s="3">
+        <v>293</v>
+      </c>
+      <c r="H212" t="n" s="4">
+        <v>20.0</v>
       </c>
     </row>
     <row r="213">
-      <c r="A213" t="s" s="2">
-        <v>345</v>
+      <c r="B213" t="s" s="3">
+        <v>347</v>
+      </c>
+      <c r="C213" t="s" s="3">
+        <v>299</v>
+      </c>
+      <c r="D213" s="3"/>
+      <c r="E213" t="s" s="3">
+        <v>320</v>
+      </c>
+      <c r="F213" t="s" s="3">
+        <v>348</v>
+      </c>
+      <c r="G213" t="s" s="3">
+        <v>302</v>
+      </c>
+      <c r="H213" t="n" s="4">
+        <v>0.6</v>
       </c>
     </row>
     <row r="214">
       <c r="B214" t="s" s="3">
-        <v>329</v>
+        <v>349</v>
       </c>
       <c r="C214" t="s" s="3">
-        <v>346</v>
+        <v>290</v>
       </c>
       <c r="D214" s="3"/>
       <c r="E214" t="s" s="3">
-        <v>347</v>
+        <v>323</v>
       </c>
       <c r="F214" t="s" s="3">
-        <v>348</v>
+        <v>324</v>
       </c>
       <c r="G214" t="s" s="3">
         <v>293</v>
       </c>
       <c r="H214" t="n" s="4">
-        <v>600.0</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="H215" t="n" s="5">
-        <v>600.0</v>
+        <v>612.97</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="s" s="2">
-        <v>350</v>
-      </c>
-      <c r="H216" t="n" s="5">
-        <v>2265.66</v>
+        <v>351</v>
       </c>
     </row>
     <row r="217">
-      <c r="A217" t="s" s="2">
-        <v>351</v>
+      <c r="B217" t="s" s="3">
+        <v>42</v>
+      </c>
+      <c r="C217" t="s" s="3">
+        <v>290</v>
+      </c>
+      <c r="D217" t="n" s="3">
+        <v>162673.0</v>
+      </c>
+      <c r="E217" t="s" s="3">
+        <v>352</v>
+      </c>
+      <c r="F217" t="s" s="3">
+        <v>353</v>
+      </c>
+      <c r="G217" t="s" s="3">
+        <v>293</v>
+      </c>
+      <c r="H217" t="n" s="4">
+        <v>503.1</v>
       </c>
     </row>
     <row r="218">
-      <c r="A218" t="s" s="2">
+      <c r="B218" t="s" s="3">
+        <v>42</v>
+      </c>
+      <c r="C218" t="s" s="3">
+        <v>290</v>
+      </c>
+      <c r="D218" t="n" s="3">
+        <v>162673.0</v>
+      </c>
+      <c r="E218" t="s" s="3">
         <v>352</v>
+      </c>
+      <c r="F218" t="s" s="3">
+        <v>354</v>
+      </c>
+      <c r="G218" t="s" s="3">
+        <v>293</v>
+      </c>
+      <c r="H218" t="n" s="4">
+        <v>40.75</v>
       </c>
     </row>
     <row r="219">
       <c r="B219" t="s" s="3">
-        <v>42</v>
+        <v>209</v>
       </c>
       <c r="C219" t="s" s="3">
-        <v>290</v>
-      </c>
-      <c r="D219" t="s" s="3">
-        <v>353</v>
+        <v>299</v>
+      </c>
+      <c r="D219" t="n" s="3">
+        <v>163049.0</v>
       </c>
       <c r="E219" t="s" s="3">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="F219" t="s" s="3">
         <v>355</v>
       </c>
       <c r="G219" t="s" s="3">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="H219" t="n" s="4">
-        <v>25.0</v>
+        <v>30.21</v>
       </c>
     </row>
     <row r="220">
-      <c r="B220" t="s" s="3">
-        <v>324</v>
-      </c>
-      <c r="C220" t="s" s="3">
-        <v>297</v>
-      </c>
-      <c r="D220" t="n" s="3">
-        <v>5517958.0</v>
-      </c>
-      <c r="E220" t="s" s="3">
-        <v>354</v>
-      </c>
-      <c r="F220" t="s" s="3">
+      <c r="A220" t="s" s="2">
         <v>356</v>
       </c>
-      <c r="G220" t="s" s="3">
-        <v>300</v>
-      </c>
-      <c r="H220" t="n" s="4">
-        <v>6.37</v>
+      <c r="H220" t="n" s="5">
+        <v>574.06</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="s" s="2">
         <v>357</v>
       </c>
-      <c r="H221" t="n" s="5">
-        <v>31.37</v>
-      </c>
     </row>
     <row r="222">
-      <c r="A222" t="s" s="2">
+      <c r="B222" t="s" s="3">
+        <v>337</v>
+      </c>
+      <c r="C222" t="s" s="3">
         <v>358</v>
       </c>
+      <c r="D222" s="3"/>
+      <c r="E222" t="s" s="3">
+        <v>359</v>
+      </c>
+      <c r="F222" t="s" s="3">
+        <v>360</v>
+      </c>
+      <c r="G222" t="s" s="3">
+        <v>302</v>
+      </c>
+      <c r="H222" t="n" s="4">
+        <v>600.0</v>
+      </c>
     </row>
     <row r="223">
-      <c r="B223" t="s" s="3">
-        <v>42</v>
-      </c>
-      <c r="C223" t="s" s="3">
-        <v>290</v>
-      </c>
-      <c r="D223" t="n" s="3">
-        <v>3300212.0</v>
-      </c>
-      <c r="E223" t="s" s="3">
-        <v>359</v>
-      </c>
-      <c r="F223" t="s" s="3">
-        <v>360</v>
-      </c>
-      <c r="G223" t="s" s="3">
-        <v>293</v>
-      </c>
-      <c r="H223" t="n" s="4">
-        <v>25.99</v>
+      <c r="A223" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="H223" t="n" s="5">
+        <v>600.0</v>
       </c>
     </row>
     <row r="224">
-      <c r="B224" t="s" s="3">
-        <v>146</v>
-      </c>
-      <c r="C224" t="s" s="3">
-        <v>290</v>
-      </c>
-      <c r="D224" t="n" s="3">
-        <v>119025.0</v>
-      </c>
-      <c r="E224" t="s" s="3">
-        <v>361</v>
-      </c>
-      <c r="F224" t="s" s="3">
+      <c r="A224" t="s" s="2">
         <v>362</v>
       </c>
-      <c r="G224" t="s" s="3">
-        <v>293</v>
-      </c>
-      <c r="H224" t="n" s="4">
-        <v>1.9</v>
+      <c r="H224" t="n" s="5">
+        <v>4321.01</v>
       </c>
     </row>
     <row r="225">
-      <c r="B225" t="s" s="3">
-        <v>146</v>
-      </c>
-      <c r="C225" t="s" s="3">
-        <v>290</v>
-      </c>
-      <c r="D225" t="n" s="3">
-        <v>119025.0</v>
-      </c>
-      <c r="E225" t="s" s="3">
-        <v>361</v>
-      </c>
-      <c r="F225" t="s" s="3">
-        <v>362</v>
-      </c>
-      <c r="G225" t="s" s="3">
-        <v>293</v>
-      </c>
-      <c r="H225" t="n" s="4">
-        <v>1.9</v>
+      <c r="A225" t="s" s="2">
+        <v>363</v>
       </c>
     </row>
     <row r="226">
-      <c r="B226" t="s" s="3">
-        <v>146</v>
-      </c>
-      <c r="C226" t="s" s="3">
-        <v>290</v>
-      </c>
-      <c r="D226" t="n" s="3">
-        <v>119025.0</v>
-      </c>
-      <c r="E226" t="s" s="3">
-        <v>361</v>
-      </c>
-      <c r="F226" t="s" s="3">
-        <v>362</v>
-      </c>
-      <c r="G226" t="s" s="3">
-        <v>293</v>
-      </c>
-      <c r="H226" t="n" s="4">
-        <v>1.9</v>
+      <c r="A226" t="s" s="2">
+        <v>364</v>
       </c>
     </row>
     <row r="227">
       <c r="B227" t="s" s="3">
-        <v>146</v>
+        <v>42</v>
       </c>
       <c r="C227" t="s" s="3">
+        <v>299</v>
+      </c>
+      <c r="D227" t="s" s="3">
+        <v>365</v>
+      </c>
+      <c r="E227" t="s" s="3">
+        <v>366</v>
+      </c>
+      <c r="F227" t="s" s="3">
+        <v>367</v>
+      </c>
+      <c r="G227" t="s" s="3">
+        <v>302</v>
+      </c>
+      <c r="H227" t="n" s="4">
+        <v>25.0</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="B228" t="s" s="3">
+        <v>332</v>
+      </c>
+      <c r="C228" t="s" s="3">
         <v>290</v>
       </c>
-      <c r="D227" t="n" s="3">
-        <v>119025.0</v>
-      </c>
-      <c r="E227" t="s" s="3">
-        <v>361</v>
-      </c>
-      <c r="F227" t="s" s="3">
-        <v>363</v>
-      </c>
-      <c r="G227" t="s" s="3">
+      <c r="D228" t="n" s="3">
+        <v>5517958.0</v>
+      </c>
+      <c r="E228" t="s" s="3">
+        <v>366</v>
+      </c>
+      <c r="F228" t="s" s="3">
+        <v>368</v>
+      </c>
+      <c r="G228" t="s" s="3">
         <v>293</v>
       </c>
-      <c r="H227" t="n" s="4">
-        <v>16.97</v>
-      </c>
-    </row>
-    <row r="228">
-      <c r="A228" t="s" s="2">
-        <v>364</v>
-      </c>
-      <c r="H228" t="n" s="5">
-        <v>48.66</v>
+      <c r="H228" t="n" s="4">
+        <v>6.37</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="s" s="2">
-        <v>365</v>
+        <v>369</v>
+      </c>
+      <c r="H229" t="n" s="5">
+        <v>31.37</v>
       </c>
     </row>
     <row r="230">
-      <c r="B230" t="s" s="3">
-        <v>164</v>
-      </c>
-      <c r="C230" t="s" s="3">
-        <v>290</v>
-      </c>
-      <c r="D230" t="s" s="3">
-        <v>366</v>
-      </c>
-      <c r="E230" t="s" s="3">
-        <v>367</v>
-      </c>
-      <c r="F230" t="s" s="3">
-        <v>368</v>
-      </c>
-      <c r="G230" t="s" s="3">
-        <v>293</v>
-      </c>
-      <c r="H230" t="n" s="4">
-        <v>452.4</v>
+      <c r="A230" t="s" s="2">
+        <v>370</v>
       </c>
     </row>
     <row r="231">
       <c r="B231" t="s" s="3">
-        <v>164</v>
+        <v>42</v>
       </c>
       <c r="C231" t="s" s="3">
-        <v>290</v>
-      </c>
-      <c r="D231" t="s" s="3">
-        <v>366</v>
+        <v>299</v>
+      </c>
+      <c r="D231" t="n" s="3">
+        <v>3300212.0</v>
       </c>
       <c r="E231" t="s" s="3">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="F231" t="s" s="3">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="G231" t="s" s="3">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="H231" t="n" s="4">
-        <v>-50.0</v>
+        <v>25.99</v>
       </c>
     </row>
     <row r="232">
       <c r="B232" t="s" s="3">
-        <v>164</v>
+        <v>146</v>
       </c>
       <c r="C232" t="s" s="3">
-        <v>290</v>
-      </c>
-      <c r="D232" t="s" s="3">
-        <v>366</v>
+        <v>299</v>
+      </c>
+      <c r="D232" t="n" s="3">
+        <v>119025.0</v>
       </c>
       <c r="E232" t="s" s="3">
-        <v>367</v>
+        <v>373</v>
       </c>
       <c r="F232" t="s" s="3">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="G232" t="s" s="3">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="H232" t="n" s="4">
-        <v>49.0</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="233">
-      <c r="A233" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="H233" t="n" s="5">
-        <v>451.4</v>
+      <c r="B233" t="s" s="3">
+        <v>146</v>
+      </c>
+      <c r="C233" t="s" s="3">
+        <v>299</v>
+      </c>
+      <c r="D233" t="n" s="3">
+        <v>119025.0</v>
+      </c>
+      <c r="E233" t="s" s="3">
+        <v>373</v>
+      </c>
+      <c r="F233" t="s" s="3">
+        <v>375</v>
+      </c>
+      <c r="G233" t="s" s="3">
+        <v>302</v>
+      </c>
+      <c r="H233" t="n" s="4">
+        <v>16.97</v>
       </c>
     </row>
     <row r="234">
-      <c r="A234" t="s" s="2">
-        <v>372</v>
+      <c r="B234" t="s" s="3">
+        <v>146</v>
+      </c>
+      <c r="C234" t="s" s="3">
+        <v>299</v>
+      </c>
+      <c r="D234" t="n" s="3">
+        <v>119025.0</v>
+      </c>
+      <c r="E234" t="s" s="3">
+        <v>373</v>
+      </c>
+      <c r="F234" t="s" s="3">
+        <v>374</v>
+      </c>
+      <c r="G234" t="s" s="3">
+        <v>302</v>
+      </c>
+      <c r="H234" t="n" s="4">
+        <v>1.9</v>
       </c>
     </row>
     <row r="235">
@@ -6458,1563 +6504,1540 @@
         <v>146</v>
       </c>
       <c r="C235" t="s" s="3">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="D235" t="n" s="3">
-        <v>27817.0</v>
+        <v>119025.0</v>
       </c>
       <c r="E235" t="s" s="3">
-        <v>298</v>
+        <v>373</v>
       </c>
       <c r="F235" t="s" s="3">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="G235" t="s" s="3">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="H235" t="n" s="4">
-        <v>14.0</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="236">
-      <c r="B236" t="s" s="3">
-        <v>146</v>
-      </c>
-      <c r="C236" t="s" s="3">
-        <v>297</v>
-      </c>
-      <c r="D236" t="n" s="3">
-        <v>27817.0</v>
-      </c>
-      <c r="E236" t="s" s="3">
-        <v>298</v>
-      </c>
-      <c r="F236" t="s" s="3">
-        <v>374</v>
-      </c>
-      <c r="G236" t="s" s="3">
-        <v>300</v>
-      </c>
-      <c r="H236" t="n" s="4">
-        <v>170.18</v>
+      <c r="A236" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="H236" t="n" s="5">
+        <v>48.66</v>
       </c>
     </row>
     <row r="237">
-      <c r="B237" t="s" s="3">
-        <v>146</v>
-      </c>
-      <c r="C237" t="s" s="3">
-        <v>297</v>
-      </c>
-      <c r="D237" t="n" s="3">
-        <v>27817.0</v>
-      </c>
-      <c r="E237" t="s" s="3">
-        <v>298</v>
-      </c>
-      <c r="F237" t="s" s="3">
-        <v>375</v>
-      </c>
-      <c r="G237" t="s" s="3">
-        <v>300</v>
-      </c>
-      <c r="H237" t="n" s="4">
-        <v>1710.0</v>
+      <c r="A237" t="s" s="2">
+        <v>377</v>
       </c>
     </row>
     <row r="238">
       <c r="B238" t="s" s="3">
-        <v>146</v>
+        <v>164</v>
       </c>
       <c r="C238" t="s" s="3">
-        <v>297</v>
-      </c>
-      <c r="D238" t="n" s="3">
-        <v>27817.0</v>
+        <v>299</v>
+      </c>
+      <c r="D238" t="s" s="3">
+        <v>378</v>
       </c>
       <c r="E238" t="s" s="3">
-        <v>298</v>
+        <v>379</v>
       </c>
       <c r="F238" t="s" s="3">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="G238" t="s" s="3">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="H238" t="n" s="4">
-        <v>240.0</v>
+        <v>452.4</v>
       </c>
     </row>
     <row r="239">
       <c r="B239" t="s" s="3">
-        <v>146</v>
+        <v>164</v>
       </c>
       <c r="C239" t="s" s="3">
-        <v>297</v>
-      </c>
-      <c r="D239" t="n" s="3">
-        <v>27817.0</v>
+        <v>299</v>
+      </c>
+      <c r="D239" t="s" s="3">
+        <v>378</v>
       </c>
       <c r="E239" t="s" s="3">
-        <v>298</v>
+        <v>379</v>
       </c>
       <c r="F239" t="s" s="3">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="G239" t="s" s="3">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="H239" t="n" s="4">
-        <v>50.0</v>
+        <v>49.0</v>
       </c>
     </row>
     <row r="240">
       <c r="B240" t="s" s="3">
+        <v>164</v>
+      </c>
+      <c r="C240" t="s" s="3">
+        <v>299</v>
+      </c>
+      <c r="D240" t="s" s="3">
+        <v>378</v>
+      </c>
+      <c r="E240" t="s" s="3">
+        <v>379</v>
+      </c>
+      <c r="F240" t="s" s="3">
+        <v>382</v>
+      </c>
+      <c r="G240" t="s" s="3">
+        <v>302</v>
+      </c>
+      <c r="H240" t="n" s="4">
+        <v>-50.0</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="H241" t="n" s="5">
+        <v>451.4</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="s" s="2">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="B243" t="s" s="3">
         <v>146</v>
       </c>
-      <c r="C240" t="s" s="3">
-        <v>297</v>
-      </c>
-      <c r="D240" t="n" s="3">
+      <c r="C243" t="s" s="3">
+        <v>290</v>
+      </c>
+      <c r="D243" t="n" s="3">
         <v>27817.0</v>
       </c>
-      <c r="E240" t="s" s="3">
-        <v>298</v>
-      </c>
-      <c r="F240" t="s" s="3">
-        <v>378</v>
-      </c>
-      <c r="G240" t="s" s="3">
-        <v>300</v>
-      </c>
-      <c r="H240" t="n" s="4">
-        <v>42.0</v>
-      </c>
-    </row>
-    <row r="241">
-      <c r="B241" t="s" s="3">
+      <c r="E243" t="s" s="3">
+        <v>306</v>
+      </c>
+      <c r="F243" t="s" s="3">
+        <v>385</v>
+      </c>
+      <c r="G243" t="s" s="3">
+        <v>293</v>
+      </c>
+      <c r="H243" t="n" s="4">
+        <v>170.18</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="B244" t="s" s="3">
         <v>146</v>
       </c>
-      <c r="C241" t="s" s="3">
-        <v>297</v>
-      </c>
-      <c r="D241" t="n" s="3">
+      <c r="C244" t="s" s="3">
+        <v>290</v>
+      </c>
+      <c r="D244" t="n" s="3">
         <v>27817.0</v>
       </c>
-      <c r="E241" t="s" s="3">
-        <v>298</v>
-      </c>
-      <c r="F241" t="s" s="3">
-        <v>379</v>
-      </c>
-      <c r="G241" t="s" s="3">
-        <v>300</v>
-      </c>
-      <c r="H241" t="n" s="4">
-        <v>30.0</v>
-      </c>
-    </row>
-    <row r="242">
-      <c r="B242" t="s" s="3">
-        <v>146</v>
-      </c>
-      <c r="C242" t="s" s="3">
-        <v>297</v>
-      </c>
-      <c r="D242" t="n" s="3">
-        <v>27817.0</v>
-      </c>
-      <c r="E242" t="s" s="3">
-        <v>298</v>
-      </c>
-      <c r="F242" t="s" s="3">
-        <v>380</v>
-      </c>
-      <c r="G242" t="s" s="3">
-        <v>300</v>
-      </c>
-      <c r="H242" t="n" s="4">
-        <v>15.0</v>
-      </c>
-    </row>
-    <row r="243">
-      <c r="A243" t="s" s="2">
-        <v>381</v>
-      </c>
-      <c r="H243" t="n" s="5">
-        <v>2271.18</v>
-      </c>
-    </row>
-    <row r="244">
-      <c r="A244" t="s" s="2">
-        <v>382</v>
+      <c r="E244" t="s" s="3">
+        <v>306</v>
+      </c>
+      <c r="F244" t="s" s="3">
+        <v>386</v>
+      </c>
+      <c r="G244" t="s" s="3">
+        <v>293</v>
+      </c>
+      <c r="H244" t="n" s="4">
+        <v>50.0</v>
       </c>
     </row>
     <row r="245">
       <c r="B245" t="s" s="3">
-        <v>209</v>
+        <v>146</v>
       </c>
       <c r="C245" t="s" s="3">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="D245" t="n" s="3">
-        <v>10196.0</v>
+        <v>27817.0</v>
       </c>
       <c r="E245" t="s" s="3">
-        <v>383</v>
+        <v>306</v>
       </c>
       <c r="F245" t="s" s="3">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="G245" t="s" s="3">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="H245" t="n" s="4">
-        <v>760.2</v>
+        <v>42.0</v>
       </c>
     </row>
     <row r="246">
       <c r="B246" t="s" s="3">
-        <v>209</v>
+        <v>146</v>
       </c>
       <c r="C246" t="s" s="3">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="D246" t="n" s="3">
-        <v>10196.0</v>
+        <v>27817.0</v>
       </c>
       <c r="E246" t="s" s="3">
-        <v>383</v>
+        <v>306</v>
       </c>
       <c r="F246" t="s" s="3">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="G246" t="s" s="3">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="H246" t="n" s="4">
-        <v>1800.0</v>
+        <v>14.0</v>
       </c>
     </row>
     <row r="247">
       <c r="B247" t="s" s="3">
-        <v>275</v>
+        <v>146</v>
       </c>
       <c r="C247" t="s" s="3">
         <v>290</v>
       </c>
-      <c r="D247" s="3"/>
+      <c r="D247" t="n" s="3">
+        <v>27817.0</v>
+      </c>
       <c r="E247" t="s" s="3">
-        <v>359</v>
+        <v>306</v>
       </c>
       <c r="F247" t="s" s="3">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="G247" t="s" s="3">
         <v>293</v>
       </c>
       <c r="H247" t="n" s="4">
-        <v>0.0</v>
+        <v>240.0</v>
       </c>
     </row>
     <row r="248">
       <c r="B248" t="s" s="3">
-        <v>275</v>
+        <v>146</v>
       </c>
       <c r="C248" t="s" s="3">
         <v>290</v>
       </c>
-      <c r="D248" s="3"/>
+      <c r="D248" t="n" s="3">
+        <v>27817.0</v>
+      </c>
       <c r="E248" t="s" s="3">
-        <v>359</v>
+        <v>306</v>
       </c>
       <c r="F248" t="s" s="3">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="G248" t="s" s="3">
         <v>293</v>
       </c>
       <c r="H248" t="n" s="4">
-        <v>4.26</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="249">
       <c r="B249" t="s" s="3">
-        <v>275</v>
+        <v>146</v>
       </c>
       <c r="C249" t="s" s="3">
         <v>290</v>
       </c>
-      <c r="D249" s="3"/>
+      <c r="D249" t="n" s="3">
+        <v>27817.0</v>
+      </c>
       <c r="E249" t="s" s="3">
-        <v>359</v>
+        <v>306</v>
       </c>
       <c r="F249" t="s" s="3">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="G249" t="s" s="3">
         <v>293</v>
       </c>
       <c r="H249" t="n" s="4">
-        <v>33.98</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="250">
       <c r="B250" t="s" s="3">
-        <v>275</v>
+        <v>146</v>
       </c>
       <c r="C250" t="s" s="3">
         <v>290</v>
       </c>
-      <c r="D250" s="3"/>
+      <c r="D250" t="n" s="3">
+        <v>27817.0</v>
+      </c>
       <c r="E250" t="s" s="3">
-        <v>359</v>
+        <v>306</v>
       </c>
       <c r="F250" t="s" s="3">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="G250" t="s" s="3">
         <v>293</v>
       </c>
       <c r="H250" t="n" s="4">
-        <v>37.98</v>
+        <v>1710.0</v>
       </c>
     </row>
     <row r="251">
-      <c r="B251" t="s" s="3">
-        <v>275</v>
-      </c>
-      <c r="C251" t="s" s="3">
+      <c r="A251" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="H251" t="n" s="5">
+        <v>2271.18</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="s" s="2">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="B253" t="s" s="3">
+        <v>209</v>
+      </c>
+      <c r="C253" t="s" s="3">
         <v>290</v>
       </c>
-      <c r="D251" s="3"/>
-      <c r="E251" t="s" s="3">
-        <v>359</v>
-      </c>
-      <c r="F251" t="s" s="3">
-        <v>390</v>
-      </c>
-      <c r="G251" t="s" s="3">
+      <c r="D253" t="n" s="3">
+        <v>10196.0</v>
+      </c>
+      <c r="E253" t="s" s="3">
+        <v>395</v>
+      </c>
+      <c r="F253" t="s" s="3">
+        <v>396</v>
+      </c>
+      <c r="G253" t="s" s="3">
         <v>293</v>
       </c>
-      <c r="H251" t="n" s="4">
-        <v>12.99</v>
-      </c>
-    </row>
-    <row r="252">
-      <c r="B252" t="s" s="3">
-        <v>275</v>
-      </c>
-      <c r="C252" t="s" s="3">
+      <c r="H253" t="n" s="4">
+        <v>760.2</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="B254" t="s" s="3">
+        <v>209</v>
+      </c>
+      <c r="C254" t="s" s="3">
         <v>290</v>
       </c>
-      <c r="D252" s="3"/>
-      <c r="E252" t="s" s="3">
-        <v>359</v>
-      </c>
-      <c r="F252" t="s" s="3">
-        <v>391</v>
-      </c>
-      <c r="G252" t="s" s="3">
+      <c r="D254" t="n" s="3">
+        <v>10196.0</v>
+      </c>
+      <c r="E254" t="s" s="3">
+        <v>395</v>
+      </c>
+      <c r="F254" t="s" s="3">
+        <v>397</v>
+      </c>
+      <c r="G254" t="s" s="3">
         <v>293</v>
       </c>
-      <c r="H252" t="n" s="4">
-        <v>15.98</v>
-      </c>
-    </row>
-    <row r="253">
-      <c r="A253" t="s" s="2">
-        <v>392</v>
-      </c>
-      <c r="H253" t="n" s="5">
-        <v>2665.39</v>
-      </c>
-    </row>
-    <row r="254">
-      <c r="A254" t="s" s="2">
-        <v>393</v>
+      <c r="H254" t="n" s="4">
+        <v>1800.0</v>
       </c>
     </row>
     <row r="255">
       <c r="B255" t="s" s="3">
-        <v>394</v>
+        <v>275</v>
       </c>
       <c r="C255" t="s" s="3">
-        <v>297</v>
-      </c>
-      <c r="D255" t="n" s="3">
-        <v>333.0</v>
-      </c>
+        <v>299</v>
+      </c>
+      <c r="D255" s="3"/>
       <c r="E255" t="s" s="3">
-        <v>395</v>
+        <v>371</v>
       </c>
       <c r="F255" t="s" s="3">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="G255" t="s" s="3">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="H255" t="n" s="4">
-        <v>1000.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="256">
-      <c r="A256" t="s" s="2">
-        <v>397</v>
-      </c>
-      <c r="H256" t="n" s="5">
-        <v>1000.0</v>
+      <c r="B256" t="s" s="3">
+        <v>275</v>
+      </c>
+      <c r="C256" t="s" s="3">
+        <v>299</v>
+      </c>
+      <c r="D256" s="3"/>
+      <c r="E256" t="s" s="3">
+        <v>371</v>
+      </c>
+      <c r="F256" t="s" s="3">
+        <v>399</v>
+      </c>
+      <c r="G256" t="s" s="3">
+        <v>302</v>
+      </c>
+      <c r="H256" t="n" s="4">
+        <v>4.26</v>
       </c>
     </row>
     <row r="257">
-      <c r="A257" t="s" s="2">
-        <v>398</v>
+      <c r="B257" t="s" s="3">
+        <v>275</v>
+      </c>
+      <c r="C257" t="s" s="3">
+        <v>299</v>
+      </c>
+      <c r="D257" s="3"/>
+      <c r="E257" t="s" s="3">
+        <v>371</v>
+      </c>
+      <c r="F257" t="s" s="3">
+        <v>400</v>
+      </c>
+      <c r="G257" t="s" s="3">
+        <v>302</v>
+      </c>
+      <c r="H257" t="n" s="4">
+        <v>37.98</v>
       </c>
     </row>
     <row r="258">
       <c r="B258" t="s" s="3">
-        <v>399</v>
+        <v>275</v>
       </c>
       <c r="C258" t="s" s="3">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="D258" s="3"/>
       <c r="E258" t="s" s="3">
-        <v>400</v>
+        <v>371</v>
       </c>
       <c r="F258" t="s" s="3">
         <v>401</v>
       </c>
       <c r="G258" t="s" s="3">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="H258" t="n" s="4">
-        <v>42.13</v>
+        <v>15.98</v>
       </c>
     </row>
     <row r="259">
       <c r="B259" t="s" s="3">
-        <v>402</v>
+        <v>275</v>
       </c>
       <c r="C259" t="s" s="3">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="D259" s="3"/>
       <c r="E259" t="s" s="3">
-        <v>403</v>
+        <v>371</v>
       </c>
       <c r="F259" t="s" s="3">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="G259" t="s" s="3">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="H259" t="n" s="4">
-        <v>6.48</v>
+        <v>33.98</v>
       </c>
     </row>
     <row r="260">
       <c r="B260" t="s" s="3">
-        <v>402</v>
+        <v>275</v>
       </c>
       <c r="C260" t="s" s="3">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="D260" s="3"/>
       <c r="E260" t="s" s="3">
+        <v>371</v>
+      </c>
+      <c r="F260" t="s" s="3">
         <v>403</v>
       </c>
-      <c r="F260" t="s" s="3">
+      <c r="G260" t="s" s="3">
+        <v>302</v>
+      </c>
+      <c r="H260" t="n" s="4">
+        <v>12.99</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="H261" t="n" s="5">
+        <v>2665.39</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="s" s="2">
         <v>405</v>
-      </c>
-      <c r="G260" t="s" s="3">
-        <v>293</v>
-      </c>
-      <c r="H260" t="n" s="4">
-        <v>8.2</v>
-      </c>
-    </row>
-    <row r="261">
-      <c r="B261" t="s" s="3">
-        <v>402</v>
-      </c>
-      <c r="C261" t="s" s="3">
-        <v>290</v>
-      </c>
-      <c r="D261" s="3"/>
-      <c r="E261" t="s" s="3">
-        <v>403</v>
-      </c>
-      <c r="F261" t="s" s="3">
-        <v>406</v>
-      </c>
-      <c r="G261" t="s" s="3">
-        <v>293</v>
-      </c>
-      <c r="H261" t="n" s="4">
-        <v>9.92</v>
-      </c>
-    </row>
-    <row r="262">
-      <c r="B262" t="s" s="3">
-        <v>402</v>
-      </c>
-      <c r="C262" t="s" s="3">
-        <v>290</v>
-      </c>
-      <c r="D262" s="3"/>
-      <c r="E262" t="s" s="3">
-        <v>403</v>
-      </c>
-      <c r="F262" t="s" s="3">
-        <v>407</v>
-      </c>
-      <c r="G262" t="s" s="3">
-        <v>293</v>
-      </c>
-      <c r="H262" t="n" s="4">
-        <v>1.83</v>
       </c>
     </row>
     <row r="263">
       <c r="B263" t="s" s="3">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="C263" t="s" s="3">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="D263" s="3"/>
       <c r="E263" t="s" s="3">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="F263" t="s" s="3">
         <v>408</v>
       </c>
       <c r="G263" t="s" s="3">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="H263" t="n" s="4">
-        <v>4.47</v>
+        <v>42.13</v>
       </c>
     </row>
     <row r="264">
       <c r="B264" t="s" s="3">
-        <v>402</v>
+        <v>409</v>
       </c>
       <c r="C264" t="s" s="3">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="D264" s="3"/>
       <c r="E264" t="s" s="3">
-        <v>403</v>
+        <v>410</v>
       </c>
       <c r="F264" t="s" s="3">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="G264" t="s" s="3">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="H264" t="n" s="4">
-        <v>11.96</v>
+        <v>1.83</v>
       </c>
     </row>
     <row r="265">
       <c r="B265" t="s" s="3">
-        <v>402</v>
+        <v>409</v>
       </c>
       <c r="C265" t="s" s="3">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="D265" s="3"/>
       <c r="E265" t="s" s="3">
-        <v>403</v>
+        <v>410</v>
       </c>
       <c r="F265" t="s" s="3">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="G265" t="s" s="3">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="H265" t="n" s="4">
-        <v>5.92</v>
+        <v>4.47</v>
       </c>
     </row>
     <row r="266">
       <c r="B266" t="s" s="3">
-        <v>402</v>
+        <v>409</v>
       </c>
       <c r="C266" t="s" s="3">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="D266" s="3"/>
       <c r="E266" t="s" s="3">
-        <v>403</v>
+        <v>410</v>
       </c>
       <c r="F266" t="s" s="3">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="G266" t="s" s="3">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="H266" t="n" s="4">
-        <v>1.24</v>
+        <v>11.96</v>
       </c>
     </row>
     <row r="267">
       <c r="B267" t="s" s="3">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="C267" t="s" s="3">
-        <v>413</v>
+        <v>299</v>
       </c>
       <c r="D267" s="3"/>
       <c r="E267" t="s" s="3">
-        <v>403</v>
+        <v>410</v>
       </c>
       <c r="F267" t="s" s="3">
         <v>414</v>
       </c>
       <c r="G267" t="s" s="3">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="H267" t="n" s="4">
-        <v>-10.72</v>
+        <v>6.48</v>
       </c>
     </row>
     <row r="268">
       <c r="B268" t="s" s="3">
+        <v>409</v>
+      </c>
+      <c r="C268" t="s" s="3">
+        <v>299</v>
+      </c>
+      <c r="D268" s="3"/>
+      <c r="E268" t="s" s="3">
+        <v>410</v>
+      </c>
+      <c r="F268" t="s" s="3">
         <v>415</v>
       </c>
-      <c r="C268" t="s" s="3">
-        <v>290</v>
-      </c>
-      <c r="D268" t="n" s="3">
-        <v>2343429.0</v>
-      </c>
-      <c r="E268" t="s" s="3">
-        <v>359</v>
-      </c>
-      <c r="F268" t="s" s="3">
-        <v>416</v>
-      </c>
       <c r="G268" t="s" s="3">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="H268" t="n" s="4">
-        <v>100.0</v>
+        <v>8.2</v>
       </c>
     </row>
     <row r="269">
       <c r="B269" t="s" s="3">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="C269" t="s" s="3">
-        <v>290</v>
-      </c>
-      <c r="D269" t="s" s="3">
-        <v>417</v>
-      </c>
+        <v>299</v>
+      </c>
+      <c r="D269" s="3"/>
       <c r="E269" t="s" s="3">
-        <v>359</v>
+        <v>410</v>
       </c>
       <c r="F269" t="s" s="3">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="G269" t="s" s="3">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="H269" t="n" s="4">
-        <v>169.99</v>
+        <v>9.92</v>
       </c>
     </row>
     <row r="270">
       <c r="B270" t="s" s="3">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="C270" t="s" s="3">
-        <v>290</v>
-      </c>
-      <c r="D270" t="s" s="3">
-        <v>419</v>
-      </c>
+        <v>299</v>
+      </c>
+      <c r="D270" s="3"/>
       <c r="E270" t="s" s="3">
-        <v>359</v>
+        <v>410</v>
       </c>
       <c r="F270" t="s" s="3">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="G270" t="s" s="3">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="H270" t="n" s="4">
-        <v>59.99</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="271">
       <c r="B271" t="s" s="3">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="C271" t="s" s="3">
-        <v>290</v>
-      </c>
-      <c r="D271" t="s" s="3">
-        <v>419</v>
-      </c>
+        <v>299</v>
+      </c>
+      <c r="D271" s="3"/>
       <c r="E271" t="s" s="3">
-        <v>359</v>
+        <v>410</v>
       </c>
       <c r="F271" t="s" s="3">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="G271" t="s" s="3">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="H271" t="n" s="4">
-        <v>74.97</v>
+        <v>5.92</v>
       </c>
     </row>
     <row r="272">
       <c r="B272" t="s" s="3">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="C272" t="s" s="3">
-        <v>290</v>
-      </c>
-      <c r="D272" t="s" s="3">
-        <v>419</v>
-      </c>
+        <v>420</v>
+      </c>
+      <c r="D272" s="3"/>
       <c r="E272" t="s" s="3">
-        <v>359</v>
+        <v>410</v>
       </c>
       <c r="F272" t="s" s="3">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="G272" t="s" s="3">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="H272" t="n" s="4">
-        <v>24.99</v>
+        <v>-10.72</v>
       </c>
     </row>
     <row r="273">
       <c r="B273" t="s" s="3">
-        <v>415</v>
+        <v>422</v>
       </c>
       <c r="C273" t="s" s="3">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="D273" t="s" s="3">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="E273" t="s" s="3">
-        <v>359</v>
+        <v>371</v>
       </c>
       <c r="F273" t="s" s="3">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="G273" t="s" s="3">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="H273" t="n" s="4">
-        <v>358.0</v>
+        <v>-12.0</v>
       </c>
     </row>
     <row r="274">
       <c r="B274" t="s" s="3">
-        <v>415</v>
+        <v>422</v>
       </c>
       <c r="C274" t="s" s="3">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="D274" t="s" s="3">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="E274" t="s" s="3">
-        <v>359</v>
+        <v>371</v>
       </c>
       <c r="F274" t="s" s="3">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="G274" t="s" s="3">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="H274" t="n" s="4">
-        <v>-12.0</v>
+        <v>24.99</v>
       </c>
     </row>
     <row r="275">
       <c r="B275" t="s" s="3">
-        <v>415</v>
+        <v>422</v>
       </c>
       <c r="C275" t="s" s="3">
-        <v>290</v>
-      </c>
-      <c r="D275" t="n" s="3">
-        <v>8997855.0</v>
+        <v>299</v>
+      </c>
+      <c r="D275" t="s" s="3">
+        <v>423</v>
       </c>
       <c r="E275" t="s" s="3">
-        <v>359</v>
+        <v>371</v>
       </c>
       <c r="F275" t="s" s="3">
-        <v>425</v>
+        <v>399</v>
       </c>
       <c r="G275" t="s" s="3">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="H275" t="n" s="4">
-        <v>79.94</v>
+        <v>30.59</v>
       </c>
     </row>
     <row r="276">
       <c r="B276" t="s" s="3">
-        <v>415</v>
+        <v>422</v>
       </c>
       <c r="C276" t="s" s="3">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="D276" t="s" s="3">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="E276" t="s" s="3">
-        <v>359</v>
+        <v>371</v>
       </c>
       <c r="F276" t="s" s="3">
-        <v>387</v>
+        <v>426</v>
       </c>
       <c r="G276" t="s" s="3">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="H276" t="n" s="4">
-        <v>30.59</v>
+        <v>59.99</v>
       </c>
     </row>
     <row r="277">
       <c r="B277" t="s" s="3">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="C277" t="s" s="3">
-        <v>413</v>
-      </c>
-      <c r="D277" s="3"/>
+        <v>299</v>
+      </c>
+      <c r="D277" t="s" s="3">
+        <v>423</v>
+      </c>
       <c r="E277" t="s" s="3">
-        <v>359</v>
+        <v>371</v>
       </c>
       <c r="F277" t="s" s="3">
         <v>427</v>
       </c>
       <c r="G277" t="s" s="3">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="H277" t="n" s="4">
-        <v>-6.26</v>
+        <v>74.97</v>
       </c>
     </row>
     <row r="278">
-      <c r="A278" t="s" s="2">
+      <c r="B278" t="s" s="3">
+        <v>422</v>
+      </c>
+      <c r="C278" t="s" s="3">
+        <v>299</v>
+      </c>
+      <c r="D278" t="n" s="3">
+        <v>8997855.0</v>
+      </c>
+      <c r="E278" t="s" s="3">
+        <v>371</v>
+      </c>
+      <c r="F278" t="s" s="3">
         <v>428</v>
       </c>
-      <c r="H278" t="n" s="5">
-        <v>961.64</v>
+      <c r="G278" t="s" s="3">
+        <v>302</v>
+      </c>
+      <c r="H278" t="n" s="4">
+        <v>79.94</v>
       </c>
     </row>
     <row r="279">
-      <c r="A279" t="s" s="2">
+      <c r="B279" t="s" s="3">
+        <v>422</v>
+      </c>
+      <c r="C279" t="s" s="3">
+        <v>299</v>
+      </c>
+      <c r="D279" t="n" s="3">
+        <v>2343429.0</v>
+      </c>
+      <c r="E279" t="s" s="3">
+        <v>371</v>
+      </c>
+      <c r="F279" t="s" s="3">
         <v>429</v>
+      </c>
+      <c r="G279" t="s" s="3">
+        <v>302</v>
+      </c>
+      <c r="H279" t="n" s="4">
+        <v>100.0</v>
       </c>
     </row>
     <row r="280">
       <c r="B280" t="s" s="3">
-        <v>275</v>
+        <v>422</v>
       </c>
       <c r="C280" t="s" s="3">
-        <v>297</v>
-      </c>
-      <c r="D280" s="3"/>
+        <v>299</v>
+      </c>
+      <c r="D280" t="s" s="3">
+        <v>430</v>
+      </c>
       <c r="E280" t="s" s="3">
-        <v>430</v>
+        <v>371</v>
       </c>
       <c r="F280" t="s" s="3">
         <v>431</v>
       </c>
       <c r="G280" t="s" s="3">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="H280" t="n" s="4">
-        <v>1000.0</v>
+        <v>169.99</v>
       </c>
     </row>
     <row r="281">
       <c r="B281" t="s" s="3">
-        <v>275</v>
+        <v>422</v>
       </c>
       <c r="C281" t="s" s="3">
-        <v>297</v>
-      </c>
-      <c r="D281" s="3"/>
+        <v>299</v>
+      </c>
+      <c r="D281" t="s" s="3">
+        <v>423</v>
+      </c>
       <c r="E281" t="s" s="3">
-        <v>430</v>
+        <v>371</v>
       </c>
       <c r="F281" t="s" s="3">
         <v>432</v>
       </c>
       <c r="G281" t="s" s="3">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="H281" t="n" s="4">
-        <v>338.99</v>
+        <v>358.0</v>
       </c>
     </row>
     <row r="282">
       <c r="B282" t="s" s="3">
-        <v>275</v>
+        <v>433</v>
       </c>
       <c r="C282" t="s" s="3">
-        <v>297</v>
+        <v>420</v>
       </c>
       <c r="D282" s="3"/>
       <c r="E282" t="s" s="3">
-        <v>430</v>
+        <v>371</v>
       </c>
       <c r="F282" t="s" s="3">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="G282" t="s" s="3">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="H282" t="n" s="4">
-        <v>-500.0</v>
+        <v>-6.26</v>
       </c>
     </row>
     <row r="283">
-      <c r="B283" t="s" s="3">
-        <v>275</v>
-      </c>
-      <c r="C283" t="s" s="3">
-        <v>297</v>
-      </c>
-      <c r="D283" s="3"/>
-      <c r="E283" t="s" s="3">
-        <v>430</v>
-      </c>
-      <c r="F283" t="s" s="3">
-        <v>434</v>
-      </c>
-      <c r="G283" t="s" s="3">
-        <v>300</v>
-      </c>
-      <c r="H283" t="n" s="4">
-        <v>3185.0</v>
+      <c r="A283" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="H283" t="n" s="5">
+        <v>961.64</v>
       </c>
     </row>
     <row r="284">
-      <c r="B284" t="s" s="3">
-        <v>435</v>
-      </c>
-      <c r="C284" t="s" s="3">
-        <v>290</v>
-      </c>
-      <c r="D284" t="n" s="3">
-        <v>550835.0</v>
-      </c>
-      <c r="E284" t="s" s="3">
-        <v>403</v>
-      </c>
-      <c r="F284" t="s" s="3">
+      <c r="A284" t="s" s="2">
         <v>436</v>
-      </c>
-      <c r="G284" t="s" s="3">
-        <v>293</v>
-      </c>
-      <c r="H284" t="n" s="4">
-        <v>2.0</v>
       </c>
     </row>
     <row r="285">
       <c r="B285" t="s" s="3">
-        <v>435</v>
+        <v>275</v>
       </c>
       <c r="C285" t="s" s="3">
         <v>290</v>
       </c>
-      <c r="D285" t="n" s="3">
-        <v>550835.0</v>
-      </c>
+      <c r="D285" s="3"/>
       <c r="E285" t="s" s="3">
-        <v>403</v>
+        <v>437</v>
       </c>
       <c r="F285" t="s" s="3">
-        <v>407</v>
+        <v>438</v>
       </c>
       <c r="G285" t="s" s="3">
         <v>293</v>
       </c>
       <c r="H285" t="n" s="4">
-        <v>0.39</v>
+        <v>1000.0</v>
       </c>
     </row>
     <row r="286">
       <c r="B286" t="s" s="3">
-        <v>435</v>
+        <v>275</v>
       </c>
       <c r="C286" t="s" s="3">
         <v>290</v>
       </c>
-      <c r="D286" t="n" s="3">
-        <v>550835.0</v>
-      </c>
+      <c r="D286" s="3"/>
       <c r="E286" t="s" s="3">
-        <v>403</v>
+        <v>437</v>
       </c>
       <c r="F286" t="s" s="3">
-        <v>411</v>
+        <v>439</v>
       </c>
       <c r="G286" t="s" s="3">
         <v>293</v>
       </c>
       <c r="H286" t="n" s="4">
-        <v>0.79</v>
+        <v>338.99</v>
       </c>
     </row>
     <row r="287">
       <c r="B287" t="s" s="3">
-        <v>435</v>
+        <v>275</v>
       </c>
       <c r="C287" t="s" s="3">
         <v>290</v>
       </c>
-      <c r="D287" t="n" s="3">
-        <v>550835.0</v>
-      </c>
+      <c r="D287" s="3"/>
       <c r="E287" t="s" s="3">
-        <v>403</v>
+        <v>437</v>
       </c>
       <c r="F287" t="s" s="3">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="G287" t="s" s="3">
         <v>293</v>
       </c>
       <c r="H287" t="n" s="4">
-        <v>2.64</v>
+        <v>-500.0</v>
       </c>
     </row>
     <row r="288">
       <c r="B288" t="s" s="3">
-        <v>435</v>
+        <v>275</v>
       </c>
       <c r="C288" t="s" s="3">
         <v>290</v>
       </c>
-      <c r="D288" t="n" s="3">
-        <v>550835.0</v>
-      </c>
+      <c r="D288" s="3"/>
       <c r="E288" t="s" s="3">
-        <v>403</v>
+        <v>437</v>
       </c>
       <c r="F288" t="s" s="3">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="G288" t="s" s="3">
         <v>293</v>
       </c>
       <c r="H288" t="n" s="4">
-        <v>2.64</v>
+        <v>3185.0</v>
       </c>
     </row>
     <row r="289">
       <c r="B289" t="s" s="3">
-        <v>435</v>
+        <v>442</v>
       </c>
       <c r="C289" t="s" s="3">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="D289" t="n" s="3">
         <v>550835.0</v>
       </c>
       <c r="E289" t="s" s="3">
-        <v>403</v>
+        <v>410</v>
       </c>
       <c r="F289" t="s" s="3">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="G289" t="s" s="3">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="H289" t="n" s="4">
-        <v>3.24</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="290">
       <c r="B290" t="s" s="3">
-        <v>435</v>
+        <v>442</v>
       </c>
       <c r="C290" t="s" s="3">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="D290" t="n" s="3">
         <v>550835.0</v>
       </c>
       <c r="E290" t="s" s="3">
-        <v>403</v>
+        <v>410</v>
       </c>
       <c r="F290" t="s" s="3">
-        <v>440</v>
+        <v>417</v>
       </c>
       <c r="G290" t="s" s="3">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="H290" t="n" s="4">
-        <v>5.0</v>
+        <v>0.79</v>
       </c>
     </row>
     <row r="291">
       <c r="B291" t="s" s="3">
-        <v>280</v>
+        <v>442</v>
       </c>
       <c r="C291" t="s" s="3">
-        <v>297</v>
-      </c>
-      <c r="D291" s="3"/>
+        <v>299</v>
+      </c>
+      <c r="D291" t="n" s="3">
+        <v>550835.0</v>
+      </c>
       <c r="E291" t="s" s="3">
-        <v>430</v>
+        <v>410</v>
       </c>
       <c r="F291" t="s" s="3">
-        <v>441</v>
+        <v>411</v>
       </c>
       <c r="G291" t="s" s="3">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="H291" t="n" s="4">
-        <v>100.0</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="292">
       <c r="B292" t="s" s="3">
-        <v>280</v>
+        <v>442</v>
       </c>
       <c r="C292" t="s" s="3">
-        <v>297</v>
-      </c>
-      <c r="D292" s="3"/>
+        <v>299</v>
+      </c>
+      <c r="D292" t="n" s="3">
+        <v>550835.0</v>
+      </c>
       <c r="E292" t="s" s="3">
-        <v>430</v>
+        <v>410</v>
       </c>
       <c r="F292" t="s" s="3">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="G292" t="s" s="3">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="H292" t="n" s="4">
-        <v>610.65</v>
+        <v>2.64</v>
       </c>
     </row>
     <row r="293">
       <c r="B293" t="s" s="3">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C293" t="s" s="3">
-        <v>297</v>
-      </c>
-      <c r="D293" s="3"/>
+        <v>299</v>
+      </c>
+      <c r="D293" t="n" s="3">
+        <v>550835.0</v>
+      </c>
       <c r="E293" t="s" s="3">
-        <v>430</v>
+        <v>410</v>
       </c>
       <c r="F293" t="s" s="3">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="G293" t="s" s="3">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="H293" t="n" s="4">
-        <v>523.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="294">
       <c r="B294" t="s" s="3">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C294" t="s" s="3">
-        <v>297</v>
-      </c>
-      <c r="D294" s="3"/>
+        <v>299</v>
+      </c>
+      <c r="D294" t="n" s="3">
+        <v>550835.0</v>
+      </c>
       <c r="E294" t="s" s="3">
-        <v>430</v>
+        <v>410</v>
       </c>
       <c r="F294" t="s" s="3">
-        <v>432</v>
+        <v>446</v>
       </c>
       <c r="G294" t="s" s="3">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="H294" t="n" s="4">
-        <v>42.36</v>
+        <v>3.24</v>
       </c>
     </row>
     <row r="295">
-      <c r="A295" t="s" s="2">
-        <v>445</v>
-      </c>
-      <c r="H295" t="n" s="5">
-        <v>5316.7</v>
+      <c r="B295" t="s" s="3">
+        <v>442</v>
+      </c>
+      <c r="C295" t="s" s="3">
+        <v>299</v>
+      </c>
+      <c r="D295" t="n" s="3">
+        <v>550835.0</v>
+      </c>
+      <c r="E295" t="s" s="3">
+        <v>410</v>
+      </c>
+      <c r="F295" t="s" s="3">
+        <v>447</v>
+      </c>
+      <c r="G295" t="s" s="3">
+        <v>302</v>
+      </c>
+      <c r="H295" t="n" s="4">
+        <v>2.64</v>
       </c>
     </row>
     <row r="296">
-      <c r="A296" t="s" s="2">
-        <v>446</v>
+      <c r="B296" t="s" s="3">
+        <v>280</v>
+      </c>
+      <c r="C296" t="s" s="3">
+        <v>290</v>
+      </c>
+      <c r="D296" s="3"/>
+      <c r="E296" t="s" s="3">
+        <v>437</v>
+      </c>
+      <c r="F296" t="s" s="3">
+        <v>448</v>
+      </c>
+      <c r="G296" t="s" s="3">
+        <v>293</v>
+      </c>
+      <c r="H296" t="n" s="4">
+        <v>610.65</v>
       </c>
     </row>
     <row r="297">
       <c r="B297" t="s" s="3">
-        <v>16</v>
+        <v>280</v>
       </c>
       <c r="C297" t="s" s="3">
         <v>290</v>
       </c>
       <c r="D297" s="3"/>
       <c r="E297" t="s" s="3">
-        <v>304</v>
+        <v>437</v>
       </c>
       <c r="F297" t="s" s="3">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="G297" t="s" s="3">
         <v>293</v>
       </c>
       <c r="H297" t="n" s="4">
-        <v>26.35</v>
+        <v>100.0</v>
       </c>
     </row>
     <row r="298">
       <c r="B298" t="s" s="3">
-        <v>16</v>
+        <v>450</v>
       </c>
       <c r="C298" t="s" s="3">
         <v>290</v>
       </c>
       <c r="D298" s="3"/>
       <c r="E298" t="s" s="3">
-        <v>304</v>
+        <v>437</v>
       </c>
       <c r="F298" t="s" s="3">
-        <v>448</v>
+        <v>439</v>
       </c>
       <c r="G298" t="s" s="3">
         <v>293</v>
       </c>
       <c r="H298" t="n" s="4">
-        <v>52.45</v>
+        <v>42.36</v>
       </c>
     </row>
     <row r="299">
       <c r="B299" t="s" s="3">
-        <v>16</v>
+        <v>450</v>
       </c>
       <c r="C299" t="s" s="3">
         <v>290</v>
       </c>
       <c r="D299" s="3"/>
       <c r="E299" t="s" s="3">
-        <v>304</v>
+        <v>437</v>
       </c>
       <c r="F299" t="s" s="3">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="G299" t="s" s="3">
         <v>293</v>
       </c>
       <c r="H299" t="n" s="4">
+        <v>523.0</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="H300" t="n" s="5">
+        <v>5316.7</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="s" s="2">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="B302" t="s" s="3">
+        <v>16</v>
+      </c>
+      <c r="C302" t="s" s="3">
+        <v>299</v>
+      </c>
+      <c r="D302" s="3"/>
+      <c r="E302" t="s" s="3">
+        <v>311</v>
+      </c>
+      <c r="F302" t="s" s="3">
+        <v>454</v>
+      </c>
+      <c r="G302" t="s" s="3">
+        <v>302</v>
+      </c>
+      <c r="H302" t="n" s="4">
         <v>52.45</v>
       </c>
     </row>
-    <row r="300">
-      <c r="B300" t="s" s="3">
-        <v>209</v>
-      </c>
-      <c r="C300" t="s" s="3">
-        <v>290</v>
-      </c>
-      <c r="D300" s="3"/>
-      <c r="E300" t="s" s="3">
-        <v>304</v>
-      </c>
-      <c r="F300" t="s" s="3">
-        <v>450</v>
-      </c>
-      <c r="G300" t="s" s="3">
-        <v>293</v>
-      </c>
-      <c r="H300" t="n" s="4">
-        <v>10.0</v>
-      </c>
-    </row>
-    <row r="301">
-      <c r="B301" t="s" s="3">
-        <v>209</v>
-      </c>
-      <c r="C301" t="s" s="3">
-        <v>290</v>
-      </c>
-      <c r="D301" s="3"/>
-      <c r="E301" t="s" s="3">
-        <v>304</v>
-      </c>
-      <c r="F301" t="s" s="3">
-        <v>451</v>
-      </c>
-      <c r="G301" t="s" s="3">
-        <v>293</v>
-      </c>
-      <c r="H301" t="n" s="4">
-        <v>13.3</v>
-      </c>
-    </row>
-    <row r="302">
-      <c r="A302" t="s" s="2">
-        <v>452</v>
-      </c>
-      <c r="H302" t="n" s="5">
-        <v>154.55</v>
-      </c>
-    </row>
     <row r="303">
-      <c r="A303" t="s" s="2">
-        <v>453</v>
+      <c r="B303" t="s" s="3">
+        <v>16</v>
+      </c>
+      <c r="C303" t="s" s="3">
+        <v>299</v>
+      </c>
+      <c r="D303" s="3"/>
+      <c r="E303" t="s" s="3">
+        <v>311</v>
+      </c>
+      <c r="F303" t="s" s="3">
+        <v>455</v>
+      </c>
+      <c r="G303" t="s" s="3">
+        <v>302</v>
+      </c>
+      <c r="H303" t="n" s="4">
+        <v>26.35</v>
       </c>
     </row>
     <row r="304">
       <c r="B304" t="s" s="3">
-        <v>209</v>
+        <v>16</v>
       </c>
       <c r="C304" t="s" s="3">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="D304" s="3"/>
       <c r="E304" t="s" s="3">
-        <v>454</v>
+        <v>311</v>
       </c>
       <c r="F304" t="s" s="3">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="G304" t="s" s="3">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="H304" t="n" s="4">
-        <v>4.99</v>
+        <v>52.45</v>
       </c>
     </row>
     <row r="305">
-      <c r="A305" t="s" s="2">
-        <v>456</v>
-      </c>
-      <c r="H305" t="n" s="5">
-        <v>4.99</v>
+      <c r="B305" t="s" s="3">
+        <v>209</v>
+      </c>
+      <c r="C305" t="s" s="3">
+        <v>299</v>
+      </c>
+      <c r="D305" s="3"/>
+      <c r="E305" t="s" s="3">
+        <v>311</v>
+      </c>
+      <c r="F305" t="s" s="3">
+        <v>457</v>
+      </c>
+      <c r="G305" t="s" s="3">
+        <v>302</v>
+      </c>
+      <c r="H305" t="n" s="4">
+        <v>10.0</v>
       </c>
     </row>
     <row r="306">
-      <c r="A306" t="s" s="2">
-        <v>457</v>
+      <c r="B306" t="s" s="3">
+        <v>209</v>
+      </c>
+      <c r="C306" t="s" s="3">
+        <v>299</v>
+      </c>
+      <c r="D306" s="3"/>
+      <c r="E306" t="s" s="3">
+        <v>311</v>
+      </c>
+      <c r="F306" t="s" s="3">
+        <v>458</v>
+      </c>
+      <c r="G306" t="s" s="3">
+        <v>302</v>
+      </c>
+      <c r="H306" t="n" s="4">
+        <v>13.3</v>
       </c>
     </row>
     <row r="307">
-      <c r="B307" t="s" s="3">
-        <v>98</v>
-      </c>
-      <c r="C307" t="s" s="3">
-        <v>290</v>
-      </c>
-      <c r="D307" s="3"/>
-      <c r="E307" t="s" s="3">
-        <v>458</v>
-      </c>
-      <c r="F307" t="s" s="3">
+      <c r="A307" t="s" s="2">
         <v>459</v>
       </c>
-      <c r="G307" t="s" s="3">
-        <v>65</v>
-      </c>
-      <c r="H307" t="n" s="4">
-        <v>27.69</v>
+      <c r="H307" t="n" s="5">
+        <v>154.55</v>
       </c>
     </row>
     <row r="308">
-      <c r="B308" t="s" s="3">
+      <c r="A308" t="s" s="2">
         <v>460</v>
-      </c>
-      <c r="C308" t="s" s="3">
-        <v>290</v>
-      </c>
-      <c r="D308" s="3"/>
-      <c r="E308" t="s" s="3">
-        <v>458</v>
-      </c>
-      <c r="F308" t="s" s="3">
-        <v>461</v>
-      </c>
-      <c r="G308" t="s" s="3">
-        <v>65</v>
-      </c>
-      <c r="H308" t="n" s="4">
-        <v>3.2</v>
       </c>
     </row>
     <row r="309">
       <c r="B309" t="s" s="3">
-        <v>462</v>
+        <v>209</v>
       </c>
       <c r="C309" t="s" s="3">
         <v>290</v>
       </c>
       <c r="D309" s="3"/>
       <c r="E309" t="s" s="3">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="F309" t="s" s="3">
+        <v>462</v>
+      </c>
+      <c r="G309" t="s" s="3">
+        <v>293</v>
+      </c>
+      <c r="H309" t="n" s="4">
+        <v>4.99</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="s" s="2">
         <v>463</v>
       </c>
-      <c r="G309" t="s" s="3">
-        <v>65</v>
-      </c>
-      <c r="H309" t="n" s="4">
-        <v>1.75</v>
-      </c>
-    </row>
-    <row r="310">
-      <c r="B310" t="s" s="3">
-        <v>38</v>
-      </c>
-      <c r="C310" t="s" s="3">
-        <v>290</v>
-      </c>
-      <c r="D310" s="3"/>
-      <c r="E310" t="s" s="3">
-        <v>458</v>
-      </c>
-      <c r="F310" t="s" s="3">
-        <v>461</v>
-      </c>
-      <c r="G310" t="s" s="3">
-        <v>65</v>
-      </c>
-      <c r="H310" t="n" s="4">
-        <v>3.2</v>
+      <c r="H310" t="n" s="5">
+        <v>4.99</v>
       </c>
     </row>
     <row r="311">
-      <c r="B311" t="s" s="3">
-        <v>113</v>
-      </c>
-      <c r="C311" t="s" s="3">
-        <v>290</v>
-      </c>
-      <c r="D311" s="3"/>
-      <c r="E311" t="s" s="3">
-        <v>458</v>
-      </c>
-      <c r="F311" t="s" s="3">
-        <v>461</v>
-      </c>
-      <c r="G311" t="s" s="3">
-        <v>65</v>
-      </c>
-      <c r="H311" t="n" s="4">
-        <v>3.2</v>
+      <c r="A311" t="s" s="2">
+        <v>464</v>
       </c>
     </row>
     <row r="312">
       <c r="B312" t="s" s="3">
-        <v>40</v>
+        <v>98</v>
       </c>
       <c r="C312" t="s" s="3">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="D312" s="3"/>
       <c r="E312" t="s" s="3">
-        <v>458</v>
+        <v>465</v>
       </c>
       <c r="F312" t="s" s="3">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="G312" t="s" s="3">
         <v>65</v>
       </c>
       <c r="H312" t="n" s="4">
-        <v>6.99</v>
+        <v>27.69</v>
       </c>
     </row>
     <row r="313">
       <c r="B313" t="s" s="3">
-        <v>128</v>
+        <v>467</v>
       </c>
       <c r="C313" t="s" s="3">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="D313" s="3"/>
       <c r="E313" t="s" s="3">
-        <v>458</v>
+        <v>465</v>
       </c>
       <c r="F313" t="s" s="3">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="G313" t="s" s="3">
         <v>65</v>
       </c>
       <c r="H313" t="n" s="4">
-        <v>11.04</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="314">
       <c r="B314" t="s" s="3">
-        <v>133</v>
+        <v>469</v>
       </c>
       <c r="C314" t="s" s="3">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="D314" s="3"/>
       <c r="E314" t="s" s="3">
-        <v>458</v>
+        <v>465</v>
       </c>
       <c r="F314" t="s" s="3">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="G314" t="s" s="3">
         <v>65</v>
       </c>
       <c r="H314" t="n" s="4">
-        <v>4.08</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="315">
       <c r="B315" t="s" s="3">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="C315" t="s" s="3">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="D315" s="3"/>
       <c r="E315" t="s" s="3">
-        <v>458</v>
+        <v>465</v>
       </c>
       <c r="F315" t="s" s="3">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="G315" t="s" s="3">
         <v>65</v>
       </c>
       <c r="H315" t="n" s="4">
-        <v>13.08</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="316">
       <c r="B316" t="s" s="3">
-        <v>48</v>
+        <v>113</v>
       </c>
       <c r="C316" t="s" s="3">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="D316" s="3"/>
       <c r="E316" t="s" s="3">
-        <v>458</v>
+        <v>465</v>
       </c>
       <c r="F316" t="s" s="3">
         <v>468</v>
@@ -8023,494 +8046,523 @@
         <v>65</v>
       </c>
       <c r="H316" t="n" s="4">
-        <v>10.18</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="317">
       <c r="B317" t="s" s="3">
-        <v>164</v>
+        <v>40</v>
       </c>
       <c r="C317" t="s" s="3">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="D317" s="3"/>
       <c r="E317" t="s" s="3">
-        <v>458</v>
+        <v>465</v>
       </c>
       <c r="F317" t="s" s="3">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="G317" t="s" s="3">
         <v>65</v>
       </c>
       <c r="H317" t="n" s="4">
-        <v>15.4</v>
+        <v>6.99</v>
       </c>
     </row>
     <row r="318">
       <c r="B318" t="s" s="3">
-        <v>184</v>
+        <v>128</v>
       </c>
       <c r="C318" t="s" s="3">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="D318" s="3"/>
       <c r="E318" t="s" s="3">
-        <v>458</v>
+        <v>465</v>
       </c>
       <c r="F318" t="s" s="3">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="G318" t="s" s="3">
         <v>65</v>
       </c>
       <c r="H318" t="n" s="4">
-        <v>3.5</v>
+        <v>11.04</v>
       </c>
     </row>
     <row r="319">
       <c r="B319" t="s" s="3">
-        <v>57</v>
+        <v>133</v>
       </c>
       <c r="C319" t="s" s="3">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="D319" s="3"/>
       <c r="E319" t="s" s="3">
-        <v>458</v>
+        <v>465</v>
       </c>
       <c r="F319" t="s" s="3">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="G319" t="s" s="3">
         <v>65</v>
       </c>
       <c r="H319" t="n" s="4">
-        <v>6.7</v>
+        <v>4.08</v>
       </c>
     </row>
     <row r="320">
       <c r="B320" t="s" s="3">
-        <v>209</v>
+        <v>45</v>
       </c>
       <c r="C320" t="s" s="3">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="D320" s="3"/>
       <c r="E320" t="s" s="3">
-        <v>458</v>
+        <v>465</v>
       </c>
       <c r="F320" t="s" s="3">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="G320" t="s" s="3">
         <v>65</v>
       </c>
       <c r="H320" t="n" s="4">
-        <v>19.48</v>
+        <v>13.08</v>
       </c>
     </row>
     <row r="321">
       <c r="B321" t="s" s="3">
-        <v>262</v>
+        <v>48</v>
       </c>
       <c r="C321" t="s" s="3">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="D321" s="3"/>
       <c r="E321" t="s" s="3">
-        <v>458</v>
+        <v>465</v>
       </c>
       <c r="F321" t="s" s="3">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="G321" t="s" s="3">
         <v>65</v>
       </c>
       <c r="H321" t="n" s="4">
-        <v>26.78</v>
+        <v>10.18</v>
       </c>
     </row>
     <row r="322">
       <c r="B322" t="s" s="3">
-        <v>412</v>
+        <v>164</v>
       </c>
       <c r="C322" t="s" s="3">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="D322" s="3"/>
       <c r="E322" t="s" s="3">
-        <v>458</v>
+        <v>465</v>
       </c>
       <c r="F322" t="s" s="3">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="G322" t="s" s="3">
         <v>65</v>
       </c>
       <c r="H322" t="n" s="4">
-        <v>10.78</v>
+        <v>15.4</v>
       </c>
     </row>
     <row r="323">
       <c r="B323" t="s" s="3">
-        <v>443</v>
+        <v>184</v>
       </c>
       <c r="C323" t="s" s="3">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="D323" s="3"/>
       <c r="E323" t="s" s="3">
-        <v>458</v>
+        <v>465</v>
       </c>
       <c r="F323" t="s" s="3">
-        <v>461</v>
+        <v>477</v>
       </c>
       <c r="G323" t="s" s="3">
         <v>65</v>
       </c>
       <c r="H323" t="n" s="4">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="324">
-      <c r="A324" t="s" s="2">
-        <v>475</v>
-      </c>
-      <c r="H324" t="n" s="5">
-        <v>170.25</v>
+      <c r="B324" t="s" s="3">
+        <v>57</v>
+      </c>
+      <c r="C324" t="s" s="3">
+        <v>299</v>
+      </c>
+      <c r="D324" s="3"/>
+      <c r="E324" t="s" s="3">
+        <v>465</v>
+      </c>
+      <c r="F324" t="s" s="3">
+        <v>478</v>
+      </c>
+      <c r="G324" t="s" s="3">
+        <v>65</v>
+      </c>
+      <c r="H324" t="n" s="4">
+        <v>6.7</v>
       </c>
     </row>
     <row r="325">
-      <c r="A325" t="s" s="2">
-        <v>476</v>
+      <c r="B325" t="s" s="3">
+        <v>209</v>
+      </c>
+      <c r="C325" t="s" s="3">
+        <v>299</v>
+      </c>
+      <c r="D325" s="3"/>
+      <c r="E325" t="s" s="3">
+        <v>465</v>
+      </c>
+      <c r="F325" t="s" s="3">
+        <v>479</v>
+      </c>
+      <c r="G325" t="s" s="3">
+        <v>65</v>
+      </c>
+      <c r="H325" t="n" s="4">
+        <v>19.48</v>
       </c>
     </row>
     <row r="326">
       <c r="B326" t="s" s="3">
-        <v>399</v>
+        <v>262</v>
       </c>
       <c r="C326" t="s" s="3">
-        <v>290</v>
-      </c>
-      <c r="D326" t="n" s="3">
-        <v>698456.0</v>
-      </c>
+        <v>299</v>
+      </c>
+      <c r="D326" s="3"/>
       <c r="E326" t="s" s="3">
-        <v>477</v>
+        <v>465</v>
       </c>
       <c r="F326" t="s" s="3">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="G326" t="s" s="3">
-        <v>293</v>
+        <v>65</v>
       </c>
       <c r="H326" t="n" s="4">
-        <v>200.0</v>
+        <v>26.78</v>
       </c>
     </row>
     <row r="327">
       <c r="B327" t="s" s="3">
-        <v>479</v>
+        <v>419</v>
       </c>
       <c r="C327" t="s" s="3">
-        <v>290</v>
-      </c>
-      <c r="D327" t="n" s="3">
-        <v>430970.0</v>
-      </c>
+        <v>299</v>
+      </c>
+      <c r="D327" s="3"/>
       <c r="E327" t="s" s="3">
-        <v>477</v>
+        <v>465</v>
       </c>
       <c r="F327" t="s" s="3">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="G327" t="s" s="3">
-        <v>293</v>
+        <v>65</v>
       </c>
       <c r="H327" t="n" s="4">
-        <v>46.77</v>
+        <v>10.78</v>
       </c>
     </row>
     <row r="328">
       <c r="B328" t="s" s="3">
-        <v>479</v>
+        <v>450</v>
       </c>
       <c r="C328" t="s" s="3">
-        <v>290</v>
-      </c>
-      <c r="D328" t="n" s="3">
-        <v>430970.0</v>
-      </c>
+        <v>299</v>
+      </c>
+      <c r="D328" s="3"/>
       <c r="E328" t="s" s="3">
-        <v>477</v>
+        <v>465</v>
       </c>
       <c r="F328" t="s" s="3">
-        <v>481</v>
+        <v>468</v>
       </c>
       <c r="G328" t="s" s="3">
-        <v>293</v>
+        <v>65</v>
       </c>
       <c r="H328" t="n" s="4">
-        <v>37.34</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="329">
-      <c r="B329" t="s" s="3">
-        <v>479</v>
-      </c>
-      <c r="C329" t="s" s="3">
-        <v>290</v>
-      </c>
-      <c r="D329" t="n" s="3">
-        <v>430970.0</v>
-      </c>
-      <c r="E329" t="s" s="3">
-        <v>477</v>
-      </c>
-      <c r="F329" t="s" s="3">
+      <c r="A329" t="s" s="2">
         <v>482</v>
       </c>
-      <c r="G329" t="s" s="3">
-        <v>293</v>
-      </c>
-      <c r="H329" t="n" s="4">
-        <v>172.49</v>
+      <c r="H329" t="n" s="5">
+        <v>170.25</v>
       </c>
     </row>
     <row r="330">
-      <c r="B330" t="s" s="3">
-        <v>479</v>
-      </c>
-      <c r="C330" t="s" s="3">
-        <v>290</v>
-      </c>
-      <c r="D330" t="n" s="3">
-        <v>430970.0</v>
-      </c>
-      <c r="E330" t="s" s="3">
-        <v>477</v>
-      </c>
-      <c r="F330" t="s" s="3">
-        <v>387</v>
-      </c>
-      <c r="G330" t="s" s="3">
-        <v>293</v>
-      </c>
-      <c r="H330" t="n" s="4">
-        <v>38.62</v>
+      <c r="A330" t="s" s="2">
+        <v>483</v>
       </c>
     </row>
     <row r="331">
       <c r="B331" t="s" s="3">
-        <v>479</v>
+        <v>406</v>
       </c>
       <c r="C331" t="s" s="3">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="D331" t="n" s="3">
-        <v>430970.0</v>
+        <v>698456.0</v>
       </c>
       <c r="E331" t="s" s="3">
-        <v>477</v>
+        <v>484</v>
       </c>
       <c r="F331" t="s" s="3">
-        <v>478</v>
+        <v>485</v>
       </c>
       <c r="G331" t="s" s="3">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="H331" t="n" s="4">
-        <v>-200.0</v>
+        <v>200.0</v>
       </c>
     </row>
     <row r="332">
       <c r="B332" t="s" s="3">
-        <v>479</v>
+        <v>486</v>
       </c>
       <c r="C332" t="s" s="3">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="D332" t="n" s="3">
         <v>430970.0</v>
       </c>
       <c r="E332" t="s" s="3">
-        <v>477</v>
+        <v>484</v>
       </c>
       <c r="F332" t="s" s="3">
-        <v>483</v>
+        <v>399</v>
       </c>
       <c r="G332" t="s" s="3">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="H332" t="n" s="4">
-        <v>4.84</v>
+        <v>38.62</v>
       </c>
     </row>
     <row r="333">
       <c r="B333" t="s" s="3">
-        <v>479</v>
+        <v>486</v>
       </c>
       <c r="C333" t="s" s="3">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="D333" t="n" s="3">
         <v>430970.0</v>
       </c>
       <c r="E333" t="s" s="3">
-        <v>477</v>
+        <v>484</v>
       </c>
       <c r="F333" t="s" s="3">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="G333" t="s" s="3">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="H333" t="n" s="4">
-        <v>35.03</v>
+        <v>46.77</v>
       </c>
     </row>
     <row r="334">
       <c r="B334" t="s" s="3">
-        <v>479</v>
+        <v>486</v>
       </c>
       <c r="C334" t="s" s="3">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="D334" t="n" s="3">
         <v>430970.0</v>
       </c>
       <c r="E334" t="s" s="3">
-        <v>477</v>
+        <v>484</v>
       </c>
       <c r="F334" t="s" s="3">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="G334" t="s" s="3">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="H334" t="n" s="4">
-        <v>180.26</v>
+        <v>172.49</v>
       </c>
     </row>
     <row r="335">
       <c r="B335" t="s" s="3">
-        <v>435</v>
+        <v>486</v>
       </c>
       <c r="C335" t="s" s="3">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="D335" t="n" s="3">
-        <v>550835.0</v>
+        <v>430970.0</v>
       </c>
       <c r="E335" t="s" s="3">
-        <v>403</v>
+        <v>484</v>
       </c>
       <c r="F335" t="s" s="3">
+        <v>489</v>
+      </c>
+      <c r="G335" t="s" s="3">
+        <v>302</v>
+      </c>
+      <c r="H335" t="n" s="4">
+        <v>180.26</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="B336" t="s" s="3">
         <v>486</v>
       </c>
-      <c r="G335" t="s" s="3">
-        <v>293</v>
-      </c>
-      <c r="H335" t="n" s="4">
-        <v>4.76</v>
-      </c>
-    </row>
-    <row r="336">
-      <c r="A336" t="s" s="2">
-        <v>487</v>
-      </c>
-      <c r="H336" t="n" s="5">
-        <v>520.11</v>
+      <c r="C336" t="s" s="3">
+        <v>299</v>
+      </c>
+      <c r="D336" t="n" s="3">
+        <v>430970.0</v>
+      </c>
+      <c r="E336" t="s" s="3">
+        <v>484</v>
+      </c>
+      <c r="F336" t="s" s="3">
+        <v>490</v>
+      </c>
+      <c r="G336" t="s" s="3">
+        <v>302</v>
+      </c>
+      <c r="H336" t="n" s="4">
+        <v>37.34</v>
       </c>
     </row>
     <row r="337">
-      <c r="A337" t="s" s="2">
-        <v>488</v>
+      <c r="B337" t="s" s="3">
+        <v>486</v>
+      </c>
+      <c r="C337" t="s" s="3">
+        <v>299</v>
+      </c>
+      <c r="D337" t="n" s="3">
+        <v>430970.0</v>
+      </c>
+      <c r="E337" t="s" s="3">
+        <v>484</v>
+      </c>
+      <c r="F337" t="s" s="3">
+        <v>491</v>
+      </c>
+      <c r="G337" t="s" s="3">
+        <v>302</v>
+      </c>
+      <c r="H337" t="n" s="4">
+        <v>4.84</v>
       </c>
     </row>
     <row r="338">
       <c r="B338" t="s" s="3">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="C338" t="s" s="3">
-        <v>290</v>
-      </c>
-      <c r="D338" s="3"/>
+        <v>299</v>
+      </c>
+      <c r="D338" t="n" s="3">
+        <v>430970.0</v>
+      </c>
       <c r="E338" t="s" s="3">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="F338" t="s" s="3">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="G338" t="s" s="3">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="H338" t="n" s="4">
-        <v>433.41</v>
+        <v>-200.0</v>
       </c>
     </row>
     <row r="339">
       <c r="B339" t="s" s="3">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="C339" t="s" s="3">
-        <v>290</v>
-      </c>
-      <c r="D339" s="3"/>
+        <v>299</v>
+      </c>
+      <c r="D339" t="n" s="3">
+        <v>430970.0</v>
+      </c>
       <c r="E339" t="s" s="3">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="F339" t="s" s="3">
         <v>492</v>
       </c>
       <c r="G339" t="s" s="3">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="H339" t="n" s="4">
-        <v>78.0</v>
+        <v>35.03</v>
       </c>
     </row>
     <row r="340">
-      <c r="A340" t="s" s="2">
+      <c r="B340" t="s" s="3">
+        <v>442</v>
+      </c>
+      <c r="C340" t="s" s="3">
+        <v>299</v>
+      </c>
+      <c r="D340" t="n" s="3">
+        <v>550835.0</v>
+      </c>
+      <c r="E340" t="s" s="3">
+        <v>410</v>
+      </c>
+      <c r="F340" t="s" s="3">
         <v>493</v>
       </c>
-      <c r="H340" t="n" s="5">
-        <v>511.41</v>
+      <c r="G340" t="s" s="3">
+        <v>302</v>
+      </c>
+      <c r="H340" t="n" s="4">
+        <v>4.76</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="s" s="2">
         <v>494</v>
       </c>
+      <c r="H341" t="n" s="5">
+        <v>520.11</v>
+      </c>
     </row>
     <row r="342">
-      <c r="B342" t="s" s="3">
-        <v>262</v>
-      </c>
-      <c r="C342" t="s" s="3">
-        <v>290</v>
-      </c>
-      <c r="D342" s="3"/>
-      <c r="E342" t="s" s="3">
+      <c r="A342" t="s" s="2">
         <v>495</v>
-      </c>
-      <c r="F342" t="s" s="3">
-        <v>496</v>
-      </c>
-      <c r="G342" t="s" s="3">
-        <v>293</v>
-      </c>
-      <c r="H342" t="n" s="4">
-        <v>68.58</v>
       </c>
     </row>
     <row r="343">
       <c r="B343" t="s" s="3">
-        <v>262</v>
+        <v>496</v>
       </c>
       <c r="C343" t="s" s="3">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="D343" s="3"/>
       <c r="E343" t="s" s="3">
@@ -8520,653 +8572,624 @@
         <v>498</v>
       </c>
       <c r="G343" t="s" s="3">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="H343" t="n" s="4">
-        <v>30.87</v>
+        <v>433.41</v>
       </c>
     </row>
     <row r="344">
       <c r="B344" t="s" s="3">
-        <v>402</v>
+        <v>496</v>
       </c>
       <c r="C344" t="s" s="3">
-        <v>290</v>
-      </c>
-      <c r="D344" t="n" s="3">
-        <v>477011.0</v>
-      </c>
+        <v>299</v>
+      </c>
+      <c r="D344" s="3"/>
       <c r="E344" t="s" s="3">
-        <v>359</v>
+        <v>497</v>
       </c>
       <c r="F344" t="s" s="3">
-        <v>387</v>
+        <v>499</v>
       </c>
       <c r="G344" t="s" s="3">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="H344" t="n" s="4">
-        <v>1.96</v>
+        <v>78.0</v>
       </c>
     </row>
     <row r="345">
-      <c r="B345" t="s" s="3">
-        <v>402</v>
-      </c>
-      <c r="C345" t="s" s="3">
-        <v>290</v>
-      </c>
-      <c r="D345" t="n" s="3">
-        <v>477011.0</v>
-      </c>
-      <c r="E345" t="s" s="3">
-        <v>359</v>
-      </c>
-      <c r="F345" t="s" s="3">
-        <v>499</v>
-      </c>
-      <c r="G345" t="s" s="3">
-        <v>293</v>
-      </c>
-      <c r="H345" t="n" s="4">
-        <v>300.0</v>
+      <c r="A345" t="s" s="2">
+        <v>500</v>
+      </c>
+      <c r="H345" t="n" s="5">
+        <v>511.41</v>
       </c>
     </row>
     <row r="346">
-      <c r="B346" t="s" s="3">
-        <v>402</v>
-      </c>
-      <c r="C346" t="s" s="3">
-        <v>290</v>
-      </c>
-      <c r="D346" t="n" s="3">
-        <v>477011.0</v>
-      </c>
-      <c r="E346" t="s" s="3">
-        <v>359</v>
-      </c>
-      <c r="F346" t="s" s="3">
-        <v>500</v>
-      </c>
-      <c r="G346" t="s" s="3">
-        <v>293</v>
-      </c>
-      <c r="H346" t="n" s="4">
-        <v>350.0</v>
+      <c r="A346" t="s" s="2">
+        <v>501</v>
       </c>
     </row>
     <row r="347">
       <c r="B347" t="s" s="3">
-        <v>402</v>
+        <v>262</v>
       </c>
       <c r="C347" t="s" s="3">
-        <v>290</v>
-      </c>
-      <c r="D347" t="n" s="3">
-        <v>477011.0</v>
-      </c>
+        <v>299</v>
+      </c>
+      <c r="D347" s="3"/>
       <c r="E347" t="s" s="3">
-        <v>359</v>
+        <v>502</v>
       </c>
       <c r="F347" t="s" s="3">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="G347" t="s" s="3">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="H347" t="n" s="4">
-        <v>12.63</v>
+        <v>68.58</v>
       </c>
     </row>
     <row r="348">
       <c r="B348" t="s" s="3">
-        <v>402</v>
+        <v>262</v>
       </c>
       <c r="C348" t="s" s="3">
-        <v>290</v>
-      </c>
-      <c r="D348" t="n" s="3">
-        <v>477011.0</v>
-      </c>
+        <v>299</v>
+      </c>
+      <c r="D348" s="3"/>
       <c r="E348" t="s" s="3">
-        <v>359</v>
+        <v>504</v>
       </c>
       <c r="F348" t="s" s="3">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="G348" t="s" s="3">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="H348" t="n" s="4">
-        <v>11.58</v>
+        <v>30.87</v>
       </c>
     </row>
     <row r="349">
       <c r="B349" t="s" s="3">
-        <v>503</v>
+        <v>409</v>
       </c>
       <c r="C349" t="s" s="3">
-        <v>413</v>
-      </c>
-      <c r="D349" s="3"/>
+        <v>299</v>
+      </c>
+      <c r="D349" t="n" s="3">
+        <v>477011.0</v>
+      </c>
       <c r="E349" t="s" s="3">
-        <v>359</v>
+        <v>371</v>
       </c>
       <c r="F349" t="s" s="3">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="G349" t="s" s="3">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="H349" t="n" s="4">
-        <v>-0.04</v>
+        <v>350.0</v>
       </c>
     </row>
     <row r="350">
       <c r="B350" t="s" s="3">
-        <v>435</v>
+        <v>409</v>
       </c>
       <c r="C350" t="s" s="3">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="D350" t="n" s="3">
-        <v>550835.0</v>
+        <v>477011.0</v>
       </c>
       <c r="E350" t="s" s="3">
-        <v>403</v>
+        <v>371</v>
       </c>
       <c r="F350" t="s" s="3">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="G350" t="s" s="3">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="H350" t="n" s="4">
-        <v>11.0</v>
+        <v>300.0</v>
       </c>
     </row>
     <row r="351">
-      <c r="A351" t="s" s="2">
-        <v>506</v>
-      </c>
-      <c r="H351" t="n" s="5">
-        <v>786.58</v>
+      <c r="B351" t="s" s="3">
+        <v>409</v>
+      </c>
+      <c r="C351" t="s" s="3">
+        <v>299</v>
+      </c>
+      <c r="D351" t="n" s="3">
+        <v>477011.0</v>
+      </c>
+      <c r="E351" t="s" s="3">
+        <v>371</v>
+      </c>
+      <c r="F351" t="s" s="3">
+        <v>508</v>
+      </c>
+      <c r="G351" t="s" s="3">
+        <v>302</v>
+      </c>
+      <c r="H351" t="n" s="4">
+        <v>11.58</v>
       </c>
     </row>
     <row r="352">
-      <c r="A352" t="s" s="2">
-        <v>507</v>
+      <c r="B352" t="s" s="3">
+        <v>409</v>
+      </c>
+      <c r="C352" t="s" s="3">
+        <v>299</v>
+      </c>
+      <c r="D352" t="n" s="3">
+        <v>477011.0</v>
+      </c>
+      <c r="E352" t="s" s="3">
+        <v>371</v>
+      </c>
+      <c r="F352" t="s" s="3">
+        <v>399</v>
+      </c>
+      <c r="G352" t="s" s="3">
+        <v>302</v>
+      </c>
+      <c r="H352" t="n" s="4">
+        <v>1.96</v>
       </c>
     </row>
     <row r="353">
       <c r="B353" t="s" s="3">
-        <v>164</v>
+        <v>409</v>
       </c>
       <c r="C353" t="s" s="3">
-        <v>297</v>
-      </c>
-      <c r="D353" s="3"/>
+        <v>299</v>
+      </c>
+      <c r="D353" t="n" s="3">
+        <v>477011.0</v>
+      </c>
       <c r="E353" t="s" s="3">
-        <v>508</v>
+        <v>371</v>
       </c>
       <c r="F353" t="s" s="3">
         <v>509</v>
       </c>
       <c r="G353" t="s" s="3">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="H353" t="n" s="4">
-        <v>1600.0</v>
+        <v>12.63</v>
       </c>
     </row>
     <row r="354">
       <c r="B354" t="s" s="3">
-        <v>164</v>
+        <v>510</v>
       </c>
       <c r="C354" t="s" s="3">
-        <v>297</v>
+        <v>420</v>
       </c>
       <c r="D354" s="3"/>
       <c r="E354" t="s" s="3">
-        <v>510</v>
+        <v>371</v>
       </c>
       <c r="F354" t="s" s="3">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="G354" t="s" s="3">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="H354" t="n" s="4">
-        <v>717.0</v>
+        <v>-0.04</v>
       </c>
     </row>
     <row r="355">
       <c r="B355" t="s" s="3">
+        <v>442</v>
+      </c>
+      <c r="C355" t="s" s="3">
+        <v>299</v>
+      </c>
+      <c r="D355" t="n" s="3">
+        <v>550835.0</v>
+      </c>
+      <c r="E355" t="s" s="3">
+        <v>410</v>
+      </c>
+      <c r="F355" t="s" s="3">
+        <v>512</v>
+      </c>
+      <c r="G355" t="s" s="3">
+        <v>302</v>
+      </c>
+      <c r="H355" t="n" s="4">
+        <v>11.0</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="s" s="2">
+        <v>513</v>
+      </c>
+      <c r="H356" t="n" s="5">
+        <v>786.58</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="s" s="2">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="B358" t="s" s="3">
         <v>164</v>
       </c>
-      <c r="C355" t="s" s="3">
-        <v>297</v>
-      </c>
-      <c r="D355" s="3"/>
-      <c r="E355" t="s" s="3">
-        <v>511</v>
-      </c>
-      <c r="F355" t="s" s="3">
-        <v>509</v>
-      </c>
-      <c r="G355" t="s" s="3">
-        <v>300</v>
-      </c>
-      <c r="H355" t="n" s="4">
+      <c r="C358" t="s" s="3">
+        <v>290</v>
+      </c>
+      <c r="D358" s="3"/>
+      <c r="E358" t="s" s="3">
+        <v>515</v>
+      </c>
+      <c r="F358" t="s" s="3">
+        <v>516</v>
+      </c>
+      <c r="G358" t="s" s="3">
+        <v>293</v>
+      </c>
+      <c r="H358" t="n" s="4">
         <v>450.0</v>
       </c>
     </row>
-    <row r="356">
-      <c r="B356" t="s" s="3">
+    <row r="359">
+      <c r="B359" t="s" s="3">
         <v>164</v>
       </c>
-      <c r="C356" t="s" s="3">
-        <v>297</v>
-      </c>
-      <c r="D356" s="3"/>
-      <c r="E356" t="s" s="3">
-        <v>512</v>
-      </c>
-      <c r="F356" t="s" s="3">
-        <v>509</v>
-      </c>
-      <c r="G356" t="s" s="3">
-        <v>300</v>
-      </c>
-      <c r="H356" t="n" s="4">
+      <c r="C359" t="s" s="3">
+        <v>290</v>
+      </c>
+      <c r="D359" s="3"/>
+      <c r="E359" t="s" s="3">
+        <v>517</v>
+      </c>
+      <c r="F359" t="s" s="3">
+        <v>516</v>
+      </c>
+      <c r="G359" t="s" s="3">
+        <v>293</v>
+      </c>
+      <c r="H359" t="n" s="4">
         <v>450.0</v>
-      </c>
-    </row>
-    <row r="357">
-      <c r="B357" t="s" s="3">
-        <v>513</v>
-      </c>
-      <c r="C357" t="s" s="3">
-        <v>297</v>
-      </c>
-      <c r="D357" t="s" s="3">
-        <v>514</v>
-      </c>
-      <c r="E357" t="s" s="3">
-        <v>515</v>
-      </c>
-      <c r="F357" t="s" s="3">
-        <v>516</v>
-      </c>
-      <c r="G357" t="s" s="3">
-        <v>300</v>
-      </c>
-      <c r="H357" t="n" s="4">
-        <v>1150.16</v>
-      </c>
-    </row>
-    <row r="358">
-      <c r="A358" t="s" s="2">
-        <v>517</v>
-      </c>
-      <c r="H358" t="n" s="5">
-        <v>4367.16</v>
-      </c>
-    </row>
-    <row r="359">
-      <c r="A359" t="s" s="2">
-        <v>518</v>
       </c>
     </row>
     <row r="360">
       <c r="B360" t="s" s="3">
-        <v>98</v>
+        <v>164</v>
       </c>
       <c r="C360" t="s" s="3">
         <v>290</v>
       </c>
       <c r="D360" s="3"/>
       <c r="E360" t="s" s="3">
-        <v>458</v>
+        <v>518</v>
       </c>
       <c r="F360" t="s" s="3">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="G360" t="s" s="3">
-        <v>65</v>
+        <v>293</v>
       </c>
       <c r="H360" t="n" s="4">
-        <v>24.31</v>
+        <v>717.0</v>
       </c>
     </row>
     <row r="361">
       <c r="B361" t="s" s="3">
-        <v>460</v>
+        <v>164</v>
       </c>
       <c r="C361" t="s" s="3">
         <v>290</v>
       </c>
       <c r="D361" s="3"/>
       <c r="E361" t="s" s="3">
-        <v>458</v>
+        <v>519</v>
       </c>
       <c r="F361" t="s" s="3">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="G361" t="s" s="3">
-        <v>65</v>
+        <v>293</v>
       </c>
       <c r="H361" t="n" s="4">
-        <v>3.0</v>
+        <v>1600.0</v>
       </c>
     </row>
     <row r="362">
       <c r="B362" t="s" s="3">
-        <v>462</v>
+        <v>520</v>
       </c>
       <c r="C362" t="s" s="3">
         <v>290</v>
       </c>
-      <c r="D362" s="3"/>
+      <c r="D362" t="s" s="3">
+        <v>521</v>
+      </c>
       <c r="E362" t="s" s="3">
-        <v>458</v>
+        <v>522</v>
       </c>
       <c r="F362" t="s" s="3">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="G362" t="s" s="3">
-        <v>65</v>
+        <v>293</v>
       </c>
       <c r="H362" t="n" s="4">
-        <v>1.5</v>
+        <v>1150.16</v>
       </c>
     </row>
     <row r="363">
-      <c r="B363" t="s" s="3">
-        <v>38</v>
-      </c>
-      <c r="C363" t="s" s="3">
-        <v>290</v>
-      </c>
-      <c r="D363" s="3"/>
-      <c r="E363" t="s" s="3">
-        <v>458</v>
-      </c>
-      <c r="F363" t="s" s="3">
-        <v>520</v>
-      </c>
-      <c r="G363" t="s" s="3">
-        <v>65</v>
-      </c>
-      <c r="H363" t="n" s="4">
-        <v>3.0</v>
+      <c r="A363" t="s" s="2">
+        <v>524</v>
+      </c>
+      <c r="H363" t="n" s="5">
+        <v>4367.16</v>
       </c>
     </row>
     <row r="364">
-      <c r="B364" t="s" s="3">
-        <v>113</v>
-      </c>
-      <c r="C364" t="s" s="3">
-        <v>290</v>
-      </c>
-      <c r="D364" s="3"/>
-      <c r="E364" t="s" s="3">
-        <v>458</v>
-      </c>
-      <c r="F364" t="s" s="3">
-        <v>520</v>
-      </c>
-      <c r="G364" t="s" s="3">
-        <v>65</v>
-      </c>
-      <c r="H364" t="n" s="4">
-        <v>3.0</v>
+      <c r="A364" t="s" s="2">
+        <v>525</v>
       </c>
     </row>
     <row r="365">
       <c r="B365" t="s" s="3">
-        <v>40</v>
+        <v>98</v>
       </c>
       <c r="C365" t="s" s="3">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="D365" s="3"/>
       <c r="E365" t="s" s="3">
-        <v>458</v>
+        <v>465</v>
       </c>
       <c r="F365" t="s" s="3">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="G365" t="s" s="3">
         <v>65</v>
       </c>
       <c r="H365" t="n" s="4">
-        <v>6.3</v>
+        <v>24.31</v>
       </c>
     </row>
     <row r="366">
       <c r="B366" t="s" s="3">
-        <v>128</v>
+        <v>467</v>
       </c>
       <c r="C366" t="s" s="3">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="D366" s="3"/>
       <c r="E366" t="s" s="3">
-        <v>458</v>
+        <v>465</v>
       </c>
       <c r="F366" t="s" s="3">
-        <v>523</v>
+        <v>527</v>
       </c>
       <c r="G366" t="s" s="3">
         <v>65</v>
       </c>
       <c r="H366" t="n" s="4">
-        <v>10.81</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="367">
       <c r="B367" t="s" s="3">
-        <v>133</v>
+        <v>469</v>
       </c>
       <c r="C367" t="s" s="3">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="D367" s="3"/>
       <c r="E367" t="s" s="3">
-        <v>458</v>
+        <v>465</v>
       </c>
       <c r="F367" t="s" s="3">
-        <v>524</v>
+        <v>528</v>
       </c>
       <c r="G367" t="s" s="3">
         <v>65</v>
       </c>
       <c r="H367" t="n" s="4">
-        <v>3.6</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="368">
       <c r="B368" t="s" s="3">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="C368" t="s" s="3">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="D368" s="3"/>
       <c r="E368" t="s" s="3">
-        <v>458</v>
+        <v>465</v>
       </c>
       <c r="F368" t="s" s="3">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="G368" t="s" s="3">
         <v>65</v>
       </c>
       <c r="H368" t="n" s="4">
-        <v>12.59</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="369">
       <c r="B369" t="s" s="3">
-        <v>48</v>
+        <v>113</v>
       </c>
       <c r="C369" t="s" s="3">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="D369" s="3"/>
       <c r="E369" t="s" s="3">
-        <v>458</v>
+        <v>465</v>
       </c>
       <c r="F369" t="s" s="3">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="G369" t="s" s="3">
         <v>65</v>
       </c>
       <c r="H369" t="n" s="4">
-        <v>9.59</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="370">
       <c r="B370" t="s" s="3">
-        <v>164</v>
+        <v>40</v>
       </c>
       <c r="C370" t="s" s="3">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="D370" s="3"/>
       <c r="E370" t="s" s="3">
-        <v>458</v>
+        <v>465</v>
       </c>
       <c r="F370" t="s" s="3">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="G370" t="s" s="3">
         <v>65</v>
       </c>
       <c r="H370" t="n" s="4">
-        <v>15.01</v>
+        <v>6.3</v>
       </c>
     </row>
     <row r="371">
       <c r="B371" t="s" s="3">
-        <v>184</v>
+        <v>128</v>
       </c>
       <c r="C371" t="s" s="3">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="D371" s="3"/>
       <c r="E371" t="s" s="3">
-        <v>458</v>
+        <v>465</v>
       </c>
       <c r="F371" t="s" s="3">
-        <v>520</v>
+        <v>530</v>
       </c>
       <c r="G371" t="s" s="3">
         <v>65</v>
       </c>
       <c r="H371" t="n" s="4">
-        <v>3.0</v>
+        <v>10.81</v>
       </c>
     </row>
     <row r="372">
       <c r="B372" t="s" s="3">
-        <v>57</v>
+        <v>133</v>
       </c>
       <c r="C372" t="s" s="3">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="D372" s="3"/>
       <c r="E372" t="s" s="3">
-        <v>458</v>
+        <v>465</v>
       </c>
       <c r="F372" t="s" s="3">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="G372" t="s" s="3">
         <v>65</v>
       </c>
       <c r="H372" t="n" s="4">
-        <v>6.0</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="373">
       <c r="B373" t="s" s="3">
-        <v>209</v>
+        <v>45</v>
       </c>
       <c r="C373" t="s" s="3">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="D373" s="3"/>
       <c r="E373" t="s" s="3">
-        <v>458</v>
+        <v>465</v>
       </c>
       <c r="F373" t="s" s="3">
-        <v>529</v>
+        <v>532</v>
       </c>
       <c r="G373" t="s" s="3">
         <v>65</v>
       </c>
       <c r="H373" t="n" s="4">
-        <v>18.0</v>
+        <v>12.59</v>
       </c>
     </row>
     <row r="374">
       <c r="B374" t="s" s="3">
-        <v>262</v>
+        <v>48</v>
       </c>
       <c r="C374" t="s" s="3">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="D374" s="3"/>
       <c r="E374" t="s" s="3">
-        <v>458</v>
+        <v>465</v>
       </c>
       <c r="F374" t="s" s="3">
-        <v>530</v>
+        <v>533</v>
       </c>
       <c r="G374" t="s" s="3">
         <v>65</v>
       </c>
       <c r="H374" t="n" s="4">
-        <v>24.6</v>
+        <v>9.59</v>
       </c>
     </row>
     <row r="375">
       <c r="B375" t="s" s="3">
-        <v>412</v>
+        <v>164</v>
       </c>
       <c r="C375" t="s" s="3">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="D375" s="3"/>
       <c r="E375" t="s" s="3">
-        <v>458</v>
+        <v>465</v>
       </c>
       <c r="F375" t="s" s="3">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="G375" t="s" s="3">
         <v>65</v>
       </c>
       <c r="H375" t="n" s="4">
-        <v>9.6</v>
+        <v>15.01</v>
       </c>
     </row>
     <row r="376">
       <c r="B376" t="s" s="3">
-        <v>443</v>
+        <v>184</v>
       </c>
       <c r="C376" t="s" s="3">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="D376" s="3"/>
       <c r="E376" t="s" s="3">
-        <v>458</v>
+        <v>465</v>
       </c>
       <c r="F376" t="s" s="3">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="G376" t="s" s="3">
         <v>65</v>
@@ -9176,48 +9199,153 @@
       </c>
     </row>
     <row r="377">
-      <c r="A377" t="s" s="2">
-        <v>533</v>
-      </c>
-      <c r="H377" t="n" s="5">
+      <c r="B377" t="s" s="3">
+        <v>57</v>
+      </c>
+      <c r="C377" t="s" s="3">
+        <v>299</v>
+      </c>
+      <c r="D377" s="3"/>
+      <c r="E377" t="s" s="3">
+        <v>465</v>
+      </c>
+      <c r="F377" t="s" s="3">
+        <v>535</v>
+      </c>
+      <c r="G377" t="s" s="3">
+        <v>65</v>
+      </c>
+      <c r="H377" t="n" s="4">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="B378" t="s" s="3">
+        <v>209</v>
+      </c>
+      <c r="C378" t="s" s="3">
+        <v>299</v>
+      </c>
+      <c r="D378" s="3"/>
+      <c r="E378" t="s" s="3">
+        <v>465</v>
+      </c>
+      <c r="F378" t="s" s="3">
+        <v>536</v>
+      </c>
+      <c r="G378" t="s" s="3">
+        <v>65</v>
+      </c>
+      <c r="H378" t="n" s="4">
+        <v>18.0</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="B379" t="s" s="3">
+        <v>262</v>
+      </c>
+      <c r="C379" t="s" s="3">
+        <v>299</v>
+      </c>
+      <c r="D379" s="3"/>
+      <c r="E379" t="s" s="3">
+        <v>465</v>
+      </c>
+      <c r="F379" t="s" s="3">
+        <v>537</v>
+      </c>
+      <c r="G379" t="s" s="3">
+        <v>65</v>
+      </c>
+      <c r="H379" t="n" s="4">
+        <v>24.6</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="B380" t="s" s="3">
+        <v>419</v>
+      </c>
+      <c r="C380" t="s" s="3">
+        <v>299</v>
+      </c>
+      <c r="D380" s="3"/>
+      <c r="E380" t="s" s="3">
+        <v>465</v>
+      </c>
+      <c r="F380" t="s" s="3">
+        <v>538</v>
+      </c>
+      <c r="G380" t="s" s="3">
+        <v>65</v>
+      </c>
+      <c r="H380" t="n" s="4">
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="B381" t="s" s="3">
+        <v>450</v>
+      </c>
+      <c r="C381" t="s" s="3">
+        <v>299</v>
+      </c>
+      <c r="D381" s="3"/>
+      <c r="E381" t="s" s="3">
+        <v>465</v>
+      </c>
+      <c r="F381" t="s" s="3">
+        <v>539</v>
+      </c>
+      <c r="G381" t="s" s="3">
+        <v>65</v>
+      </c>
+      <c r="H381" t="n" s="4">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="s" s="2">
+        <v>540</v>
+      </c>
+      <c r="H382" t="n" s="5">
         <v>156.91</v>
       </c>
     </row>
-    <row r="378">
-      <c r="A378" t="s" s="2">
-        <v>534</v>
-      </c>
-      <c r="H378" t="n" s="5">
-        <v>19418.3</v>
-      </c>
-    </row>
-    <row r="379">
-      <c r="A379" t="s" s="2">
-        <v>535</v>
-      </c>
-      <c r="H379" t="n" s="5">
-        <v>21683.96</v>
-      </c>
-    </row>
-    <row r="380">
-      <c r="A380" t="s" s="2">
-        <v>536</v>
-      </c>
-      <c r="H380" t="n" s="5">
-        <v>521.04</v>
-      </c>
-    </row>
     <row r="383">
-      <c r="A383" s="6" t="s">
-        <v>537</v>
-      </c>
-      <c r="B383"/>
-      <c r="C383"/>
-      <c r="D383"/>
-      <c r="E383"/>
-      <c r="F383"/>
-      <c r="G383"/>
-      <c r="H383"/>
+      <c r="A383" t="s" s="2">
+        <v>541</v>
+      </c>
+      <c r="H383" t="n" s="5">
+        <v>18418.3</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="s" s="2">
+        <v>542</v>
+      </c>
+      <c r="H384" t="n" s="5">
+        <v>22739.31</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="s" s="2">
+        <v>543</v>
+      </c>
+      <c r="H385" t="n" s="5">
+        <v>-534.31</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" s="6" t="s">
+        <v>544</v>
+      </c>
+      <c r="B388"/>
+      <c r="C388"/>
+      <c r="D388"/>
+      <c r="E388"/>
+      <c r="F388"/>
+      <c r="G388"/>
+      <c r="H388"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -9237,55 +9365,55 @@
     <mergeCell ref="A171"/>
     <mergeCell ref="A172"/>
     <mergeCell ref="A173"/>
-    <mergeCell ref="A175"/>
     <mergeCell ref="A176"/>
-    <mergeCell ref="A178"/>
+    <mergeCell ref="A177"/>
     <mergeCell ref="A179"/>
-    <mergeCell ref="A185"/>
-    <mergeCell ref="A186"/>
-    <mergeCell ref="A207"/>
-    <mergeCell ref="A208"/>
-    <mergeCell ref="A212"/>
-    <mergeCell ref="A213"/>
+    <mergeCell ref="A180"/>
+    <mergeCell ref="A182"/>
+    <mergeCell ref="A183"/>
+    <mergeCell ref="A190"/>
+    <mergeCell ref="A191"/>
     <mergeCell ref="A215"/>
     <mergeCell ref="A216"/>
-    <mergeCell ref="A217"/>
-    <mergeCell ref="A218"/>
+    <mergeCell ref="A220"/>
     <mergeCell ref="A221"/>
-    <mergeCell ref="A222"/>
-    <mergeCell ref="A228"/>
+    <mergeCell ref="A223"/>
+    <mergeCell ref="A224"/>
+    <mergeCell ref="A225"/>
+    <mergeCell ref="A226"/>
     <mergeCell ref="A229"/>
-    <mergeCell ref="A233"/>
-    <mergeCell ref="A234"/>
-    <mergeCell ref="A243"/>
-    <mergeCell ref="A244"/>
-    <mergeCell ref="A253"/>
-    <mergeCell ref="A254"/>
-    <mergeCell ref="A256"/>
-    <mergeCell ref="A257"/>
-    <mergeCell ref="A278"/>
-    <mergeCell ref="A279"/>
-    <mergeCell ref="A295"/>
-    <mergeCell ref="A296"/>
-    <mergeCell ref="A302"/>
-    <mergeCell ref="A303"/>
-    <mergeCell ref="A305"/>
-    <mergeCell ref="A306"/>
-    <mergeCell ref="A324"/>
-    <mergeCell ref="A325"/>
-    <mergeCell ref="A336"/>
-    <mergeCell ref="A337"/>
-    <mergeCell ref="A340"/>
+    <mergeCell ref="A230"/>
+    <mergeCell ref="A236"/>
+    <mergeCell ref="A237"/>
+    <mergeCell ref="A241"/>
+    <mergeCell ref="A242"/>
+    <mergeCell ref="A251"/>
+    <mergeCell ref="A252"/>
+    <mergeCell ref="A261"/>
+    <mergeCell ref="A262"/>
+    <mergeCell ref="A283"/>
+    <mergeCell ref="A284"/>
+    <mergeCell ref="A300"/>
+    <mergeCell ref="A301"/>
+    <mergeCell ref="A307"/>
+    <mergeCell ref="A308"/>
+    <mergeCell ref="A310"/>
+    <mergeCell ref="A311"/>
+    <mergeCell ref="A329"/>
+    <mergeCell ref="A330"/>
     <mergeCell ref="A341"/>
-    <mergeCell ref="A351"/>
-    <mergeCell ref="A352"/>
-    <mergeCell ref="A358"/>
-    <mergeCell ref="A359"/>
-    <mergeCell ref="A377"/>
-    <mergeCell ref="A378"/>
-    <mergeCell ref="A379"/>
-    <mergeCell ref="A380"/>
-    <mergeCell ref="A383:H383"/>
+    <mergeCell ref="A342"/>
+    <mergeCell ref="A345"/>
+    <mergeCell ref="A346"/>
+    <mergeCell ref="A356"/>
+    <mergeCell ref="A357"/>
+    <mergeCell ref="A363"/>
+    <mergeCell ref="A364"/>
+    <mergeCell ref="A382"/>
+    <mergeCell ref="A383"/>
+    <mergeCell ref="A384"/>
+    <mergeCell ref="A385"/>
+    <mergeCell ref="A388:H388"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="A3:H3"/>

--- a/2020-sgfdevs-statement-of-activity-detail.xlsx
+++ b/2020-sgfdevs-statement-of-activity-detail.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1665" uniqueCount="548">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1690" uniqueCount="556">
   <si>
     <t>Date</t>
   </si>
@@ -92,42 +92,42 @@
     <t>Mobile App Sponsor ($750) for METHOD Developer Conference 03/05/2020. Refer to Sponsor Packet for Terms and Sponsor Benefits. ALL PAYMENTS DUE BY 02/15/2020. Founding Sponsor Discount 10%</t>
   </si>
   <si>
+    <t>Mostly Serious</t>
+  </si>
+  <si>
+    <t>Springfield Devs Founding Sponsor Discount (10%)</t>
+  </si>
+  <si>
+    <t>BEVERAGE Sponsorship for METHOD Developer Conference 03/05/2020. Refer to Sponsor Packet for Terms and Sponsor Benefits. ALL PAYMENTS DUE BY 02/15/2020.</t>
+  </si>
+  <si>
+    <t>Mycra Therapy</t>
+  </si>
+  <si>
+    <t>DIVERSITY Sponsorship for METHOD Developer Conference 03/05/2020. Refer to Sponsor Packet for Terms and Sponsor Benefits. ALL PAYMENTS DUE BY 02/15/2020.</t>
+  </si>
+  <si>
+    <t>Added Innovation</t>
+  </si>
+  <si>
+    <t>BADGE Sponsorship for METHOD Developer Conference 03/05/2020. Refer to Sponsor Packet for Terms and Sponsor Benefits. ALL PAYMENTS DUE BY 02/15/2020.</t>
+  </si>
+  <si>
+    <t>SPEAKER (Randy Walker) Sponsorship for METHOD Developer Conference 03/05/2020. Refer to Sponsor Packet for Terms and Sponsor Benefits. ALL PAYMENTS DUE BY 02/15/2020.</t>
+  </si>
+  <si>
+    <t>SPEAKER (Ruby Fleener) Sponsorship for METHOD Developer Conference 03/05/2020. Refer to Sponsor Packet for Terms and Sponsor Benefits. ALL PAYMENTS DUE BY 02/15/2020.</t>
+  </si>
+  <si>
     <t>Gravitate Solutions</t>
   </si>
   <si>
+    <t>LANYARD Sponsorship for METHOD Developer Conference 03/05/2020. Refer to Sponsor Packet for Terms and Sponsor Benefits. ALL PAYMENTS DUE BY 02/15/2020.</t>
+  </si>
+  <si>
     <t>EVENING DRINK Sponsorship for METHOD Developer Conference 03/05/2020. Refer to Sponsor Packet for Terms and Sponsor Benefits. ALL PAYMENTS DUE BY 02/15/2020.</t>
   </si>
   <si>
-    <t>BEVERAGE Sponsorship for METHOD Developer Conference 03/05/2020. Refer to Sponsor Packet for Terms and Sponsor Benefits. ALL PAYMENTS DUE BY 02/15/2020.</t>
-  </si>
-  <si>
-    <t>Added Innovation</t>
-  </si>
-  <si>
-    <t>Springfield Devs Founding Sponsor Discount (10%)</t>
-  </si>
-  <si>
-    <t>Mostly Serious</t>
-  </si>
-  <si>
-    <t>Mycra Therapy</t>
-  </si>
-  <si>
-    <t>DIVERSITY Sponsorship for METHOD Developer Conference 03/05/2020. Refer to Sponsor Packet for Terms and Sponsor Benefits. ALL PAYMENTS DUE BY 02/15/2020.</t>
-  </si>
-  <si>
-    <t>BADGE Sponsorship for METHOD Developer Conference 03/05/2020. Refer to Sponsor Packet for Terms and Sponsor Benefits. ALL PAYMENTS DUE BY 02/15/2020.</t>
-  </si>
-  <si>
-    <t>SPEAKER (Randy Walker) Sponsorship for METHOD Developer Conference 03/05/2020. Refer to Sponsor Packet for Terms and Sponsor Benefits. ALL PAYMENTS DUE BY 02/15/2020.</t>
-  </si>
-  <si>
-    <t>SPEAKER (Ruby Fleener) Sponsorship for METHOD Developer Conference 03/05/2020. Refer to Sponsor Packet for Terms and Sponsor Benefits. ALL PAYMENTS DUE BY 02/15/2020.</t>
-  </si>
-  <si>
-    <t>LANYARD Sponsorship for METHOD Developer Conference 03/05/2020. Refer to Sponsor Packet for Terms and Sponsor Benefits. ALL PAYMENTS DUE BY 02/15/2020.</t>
-  </si>
-  <si>
     <t>01/30/2020</t>
   </si>
   <si>
@@ -203,31 +203,82 @@
     <t>Receipt</t>
   </si>
   <si>
+    <t>Thomas Rankin</t>
+  </si>
+  <si>
+    <t>Attendee Thomas Rankin -100% (volunteer)</t>
+  </si>
+  <si>
+    <t>Devs Stripe</t>
+  </si>
+  <si>
+    <t>David Alger</t>
+  </si>
+  <si>
+    <t>Attendee David Alger -50% (sudo)</t>
+  </si>
+  <si>
+    <t>Erik Hansen</t>
+  </si>
+  <si>
+    <t>Attendee Perry Holden -50% (sudo)</t>
+  </si>
+  <si>
+    <t>Attendee Erik Hansen -50% (sudo)</t>
+  </si>
+  <si>
+    <t>David Schlum</t>
+  </si>
+  <si>
+    <t>Attendee UNASSIGNED -50% (sudo)</t>
+  </si>
+  <si>
     <t>David Hahn</t>
   </si>
   <si>
     <t>Attendee David Hahn -50% (sudo)</t>
   </si>
   <si>
-    <t>Devs Stripe</t>
-  </si>
-  <si>
     <t>Benjamin Stange</t>
   </si>
   <si>
     <t>Attendee Benjamin Stange -50% (sudo)</t>
   </si>
   <si>
+    <t>Keith Davis</t>
+  </si>
+  <si>
+    <t>Attendee Keith Davis -50% (sudo)</t>
+  </si>
+  <si>
+    <t>Kevin Kirchner</t>
+  </si>
+  <si>
+    <t>Attendee Kevin Kirchner -50% (sudo)</t>
+  </si>
+  <si>
+    <t>Matt Johnson</t>
+  </si>
+  <si>
+    <t>Attendee Matt Johnson -50% (sudo)</t>
+  </si>
+  <si>
+    <t>Mark Stepp</t>
+  </si>
+  <si>
+    <t>Attendee Mark Stepp -50% (sudo)</t>
+  </si>
+  <si>
     <t>Kimberly Myers</t>
   </si>
   <si>
     <t>Attendee Kimberly Myers</t>
   </si>
   <si>
-    <t>David Schlum</t>
-  </si>
-  <si>
-    <t>Attendee UNASSIGNED -50% (sudo)</t>
+    <t>Frederick Lawler</t>
+  </si>
+  <si>
+    <t>Attendee Frederick Lawler -100% (volunteer)</t>
   </si>
   <si>
     <t>David Hamilton</t>
@@ -236,57 +287,6 @@
     <t>Attendee David Hamilton -100% (volunteer)</t>
   </si>
   <si>
-    <t>Frederick Lawler</t>
-  </si>
-  <si>
-    <t>Attendee Frederick Lawler -100% (volunteer)</t>
-  </si>
-  <si>
-    <t>Thomas Rankin</t>
-  </si>
-  <si>
-    <t>Attendee Thomas Rankin -100% (volunteer)</t>
-  </si>
-  <si>
-    <t>Mark Stepp</t>
-  </si>
-  <si>
-    <t>Attendee Mark Stepp -50% (sudo)</t>
-  </si>
-  <si>
-    <t>Matt Johnson</t>
-  </si>
-  <si>
-    <t>Attendee Matt Johnson -50% (sudo)</t>
-  </si>
-  <si>
-    <t>Kevin Kirchner</t>
-  </si>
-  <si>
-    <t>Attendee Kevin Kirchner -50% (sudo)</t>
-  </si>
-  <si>
-    <t>Keith Davis</t>
-  </si>
-  <si>
-    <t>Attendee Keith Davis -50% (sudo)</t>
-  </si>
-  <si>
-    <t>David Alger</t>
-  </si>
-  <si>
-    <t>Attendee David Alger -50% (sudo)</t>
-  </si>
-  <si>
-    <t>Erik Hansen</t>
-  </si>
-  <si>
-    <t>Attendee Perry Holden -50% (sudo)</t>
-  </si>
-  <si>
-    <t>Attendee Erik Hansen -50% (sudo)</t>
-  </si>
-  <si>
     <t>Rich Clingman</t>
   </si>
   <si>
@@ -332,18 +332,18 @@
     <t>Attendee Christopher Wilding</t>
   </si>
   <si>
+    <t>Ruby Fleener</t>
+  </si>
+  <si>
+    <t>Attendee Ruby Fleener -100% (speaker)</t>
+  </si>
+  <si>
     <t>Katie Kensinger</t>
   </si>
   <si>
     <t>Attendee Rhyan Friesen</t>
   </si>
   <si>
-    <t>Ruby Fleener</t>
-  </si>
-  <si>
-    <t>Attendee Ruby Fleener -100% (speaker)</t>
-  </si>
-  <si>
     <t>01/31/2020</t>
   </si>
   <si>
@@ -356,33 +356,39 @@
     <t>02/03/2020</t>
   </si>
   <si>
+    <t>Daniel Chilton</t>
+  </si>
+  <si>
+    <t>Attendee Dan Chilton -30% (banno)</t>
+  </si>
+  <si>
+    <t>Kalin Bowden</t>
+  </si>
+  <si>
+    <t>Attendee Kalin Bowden -30% (sgfdev)</t>
+  </si>
+  <si>
     <t>Landon Lewis</t>
   </si>
   <si>
     <t>Attendee Landon Lewis -30% (banno)</t>
   </si>
   <si>
-    <t>Kalin Bowden</t>
-  </si>
-  <si>
-    <t>Attendee Kalin Bowden -30% (sgfdev)</t>
-  </si>
-  <si>
-    <t>Daniel Chilton</t>
-  </si>
-  <si>
-    <t>Attendee Dan Chilton -30% (banno)</t>
-  </si>
-  <si>
     <t>Justin Wells</t>
   </si>
   <si>
+    <t>Attendee Miles Collins -40% (sgfdev)</t>
+  </si>
+  <si>
+    <t>Attendee Trevor Glauz -40% (sgfdev)</t>
+  </si>
+  <si>
+    <t>Attendee Jacob Schaum -40% (sgfdev)</t>
+  </si>
+  <si>
     <t>Attendee Warren Scott -40% (sgfdev)</t>
   </si>
   <si>
-    <t>Attendee Jacob Schaum -40% (sgfdev)</t>
-  </si>
-  <si>
     <t>Attendee Christy Bracher -40% (sgfdev)</t>
   </si>
   <si>
@@ -392,33 +398,36 @@
     <t>Attendee Melissa Worthen -40% (sgfdev)</t>
   </si>
   <si>
-    <t>Attendee Miles Collins -40% (sgfdev)</t>
-  </si>
-  <si>
-    <t>Attendee Trevor Glauz -40% (sgfdev)</t>
-  </si>
-  <si>
     <t>02/05/2020</t>
   </si>
   <si>
+    <t>Jonathan Mann</t>
+  </si>
+  <si>
+    <t>Attendee Jonathan Mann -30% (sgfdev)</t>
+  </si>
+  <si>
     <t>Kendall Roberts</t>
   </si>
   <si>
     <t>Attendee Kendall Roberts -50% (student)</t>
   </si>
   <si>
-    <t>Jonathan Mann</t>
-  </si>
-  <si>
-    <t>Attendee Jonathan Mann -30% (sgfdev)</t>
-  </si>
-  <si>
     <t>02/06/2020</t>
   </si>
   <si>
+    <t>Mike Andrews</t>
+  </si>
+  <si>
+    <t>Attendee Mike Andrews -30% (sgfdev)</t>
+  </si>
+  <si>
     <t>Benjamin Ellis</t>
   </si>
   <si>
+    <t>Attendee Ben Ellis -30% (sgfdev)</t>
+  </si>
+  <si>
     <t>Attendee Don Worthley -30% (sgfdev)</t>
   </si>
   <si>
@@ -434,15 +443,6 @@
     <t>Attendee Chad Killingsworth -30% (banno)</t>
   </si>
   <si>
-    <t>Mike Andrews</t>
-  </si>
-  <si>
-    <t>Attendee Mike Andrews -30% (sgfdev)</t>
-  </si>
-  <si>
-    <t>Attendee Ben Ellis -30% (sgfdev)</t>
-  </si>
-  <si>
     <t>Christopher Baunach</t>
   </si>
   <si>
@@ -458,24 +458,27 @@
     <t>Aaron Van Gorp</t>
   </si>
   <si>
+    <t>Attendee Cornelius Ukena</t>
+  </si>
+  <si>
+    <t>Darren Williams</t>
+  </si>
+  <si>
+    <t>Attendee Darren Williams -30% (banno)</t>
+  </si>
+  <si>
     <t>Attendee Aaron Van Gorp</t>
   </si>
   <si>
-    <t>Attendee Cornelius Ukena</t>
-  </si>
-  <si>
-    <t>Darren Williams</t>
-  </si>
-  <si>
-    <t>Attendee Darren Williams -30% (banno)</t>
-  </si>
-  <si>
     <t>Charles Hicks</t>
   </si>
   <si>
     <t>Attendee CK Hicks</t>
   </si>
   <si>
+    <t>Attendee CK Hicks -30% (sgfdev) Manual Refund</t>
+  </si>
+  <si>
     <t>Otto Borchert</t>
   </si>
   <si>
@@ -503,9 +506,6 @@
     <t>Attendee Mark Gertiser -50% (volt)</t>
   </si>
   <si>
-    <t>Attendee CK Hicks -30% (sgfdev) Manual Refund</t>
-  </si>
-  <si>
     <t>02/13/2020</t>
   </si>
   <si>
@@ -569,16 +569,43 @@
     <t>02/17/2020</t>
   </si>
   <si>
+    <t>Jason Arend</t>
+  </si>
+  <si>
+    <t>Attendee Jason Arend -50% (kind)</t>
+  </si>
+  <si>
+    <t>Tim Franklin</t>
+  </si>
+  <si>
+    <t>Attendee Tim Franklin -100% (volunteer)</t>
+  </si>
+  <si>
+    <t>Melissa Smith</t>
+  </si>
+  <si>
+    <t>Attendee Randy Baker -50% (kind)</t>
+  </si>
+  <si>
+    <t>Attendee Carter Luther -50% (kind)</t>
+  </si>
+  <si>
+    <t>Jeremy Boles</t>
+  </si>
+  <si>
+    <t>Attendee Jeremy Boles -50% (kind)</t>
+  </si>
+  <si>
     <t>David Harris</t>
   </si>
   <si>
     <t>Attendee David Harris</t>
   </si>
   <si>
-    <t>Jason Arend</t>
-  </si>
-  <si>
-    <t>Attendee Jason Arend -50% (kind)</t>
+    <t>Brenden Reeves</t>
+  </si>
+  <si>
+    <t>Attendee Brenden Reeves -100% (scholarship)</t>
   </si>
   <si>
     <t>Amber Donaldson</t>
@@ -587,43 +614,25 @@
     <t>Attendee Amber Donaldson -100% (scholarship)</t>
   </si>
   <si>
-    <t>Brenden Reeves</t>
-  </si>
-  <si>
-    <t>Attendee Brenden Reeves -100% (scholarship)</t>
-  </si>
-  <si>
-    <t>Jeremy Boles</t>
-  </si>
-  <si>
-    <t>Attendee Jeremy Boles -50% (kind)</t>
-  </si>
-  <si>
     <t>Tylor Hindery</t>
   </si>
   <si>
     <t>Attendee Tylor Hindery -50% (kind)</t>
   </si>
   <si>
-    <t>Melissa Smith</t>
-  </si>
-  <si>
     <t>Attendee Kevin Waterland -50% (kind)</t>
   </si>
   <si>
     <t>Attendee Will Vandergrift -50% (kind)</t>
   </si>
   <si>
-    <t>Attendee Carter Luther -50% (kind)</t>
-  </si>
-  <si>
-    <t>Attendee Randy Baker -50% (kind)</t>
-  </si>
-  <si>
-    <t>Tim Franklin</t>
-  </si>
-  <si>
-    <t>Attendee Tim Franklin -100% (volunteer)</t>
+    <t>Laura Caruso</t>
+  </si>
+  <si>
+    <t>Attendee Laura Caruso -50% (wwt)</t>
+  </si>
+  <si>
+    <t>Attendee Kirk Coleman -100% (sponsor)</t>
   </si>
   <si>
     <t>Carwin Young</t>
@@ -632,30 +641,135 @@
     <t>Attendee Carwin Young</t>
   </si>
   <si>
-    <t>Laura Caruso</t>
-  </si>
-  <si>
-    <t>Attendee Laura Caruso -50% (wwt)</t>
-  </si>
-  <si>
-    <t>Attendee Kirk Coleman -100% (sponsor)</t>
-  </si>
-  <si>
     <t>02/19/2020</t>
   </si>
   <si>
+    <t>Scarlett Isbell</t>
+  </si>
+  <si>
+    <t>Attendee Scarlett Isbell -100% (scholarship)</t>
+  </si>
+  <si>
+    <t>Attendee Tara Walton -50% (codesci)</t>
+  </si>
+  <si>
+    <t>Attendee Morgen Ohmsted -50% (codesci)</t>
+  </si>
+  <si>
+    <t>Attendee Josh Sutterfield -50% (codesci)</t>
+  </si>
+  <si>
+    <t>Attendee Enoch Pyle -50% (codesci)</t>
+  </si>
+  <si>
+    <t>Attendee Grant Jennings -50% (codesci)</t>
+  </si>
+  <si>
+    <t>Attendee Curt Buechter -50% (gravitate)</t>
+  </si>
+  <si>
+    <t>Attendee Mark Rosenkrans -50% (gravitate)</t>
+  </si>
+  <si>
+    <t>Kelly Crane</t>
+  </si>
+  <si>
+    <t>Attendee Kelly Crane -100% (scholarship)</t>
+  </si>
+  <si>
+    <t>Keegan Hart</t>
+  </si>
+  <si>
+    <t>Attendee Keegan Hart -100% (studentscholarship)</t>
+  </si>
+  <si>
+    <t>Attendee Megan Blevins -100% (sponsor)</t>
+  </si>
+  <si>
+    <t>Attendee Jeff Kern -100% (sponsor)</t>
+  </si>
+  <si>
+    <t>Attendee Brian Norris -50% (marlinnetwork)</t>
+  </si>
+  <si>
+    <t>Attendee Eli Estes -50% (marlinnetwork)</t>
+  </si>
+  <si>
+    <t>Jordan McAdoo</t>
+  </si>
+  <si>
+    <t>Attendee Jordan McAdoo -100% (scholarship)</t>
+  </si>
+  <si>
+    <t>Attendee Jim Carr -100% (sponsor)</t>
+  </si>
+  <si>
+    <t>Attendee Maddie Carr -100% (sponsor)</t>
+  </si>
+  <si>
+    <t>Trayvon Northern</t>
+  </si>
+  <si>
+    <t>Attendee Trayvon Northern -50% (kind)</t>
+  </si>
+  <si>
+    <t>Attendee Hannah Sartin -50% (marlinnetwork)</t>
+  </si>
+  <si>
+    <t>Attendee Craig Coenen -50% (kind)</t>
+  </si>
+  <si>
+    <t>Maranda Provance</t>
+  </si>
+  <si>
+    <t>Attendee Maranda Provance -100% (sponsor)</t>
+  </si>
+  <si>
+    <t>Ryan Zachary De Lap</t>
+  </si>
+  <si>
+    <t>Attendee Ryan De Lap -50% (student)</t>
+  </si>
+  <si>
     <t>Zackary Turner</t>
   </si>
   <si>
     <t>Attendee Zackary Turner -100% (studentscholarship)</t>
   </si>
   <si>
+    <t>Christopher Smith</t>
+  </si>
+  <si>
+    <t>Attendee Christopher Smith -30% (banno)</t>
+  </si>
+  <si>
+    <t>Carissa Hurt</t>
+  </si>
+  <si>
+    <t>Attendee Carissa Hurt -50% (student)</t>
+  </si>
+  <si>
+    <t>Attendee Josh Sharp -50% (gravitate)</t>
+  </si>
+  <si>
     <t>Caleb Whitlow</t>
   </si>
   <si>
     <t>Attendee Caleb Whitlow -100% (scholarship)</t>
   </si>
   <si>
+    <t>Elliott Campbell</t>
+  </si>
+  <si>
+    <t>Attendee Elliott Campbell -30% (banno)</t>
+  </si>
+  <si>
+    <t>Seth Mabry</t>
+  </si>
+  <si>
+    <t>Attendee Seth Mabry -50% (codesci)</t>
+  </si>
+  <si>
     <t>Kero Miller</t>
   </si>
   <si>
@@ -686,133 +800,31 @@
     <t>Attendee Joel Nel -100% (sponsor)</t>
   </si>
   <si>
-    <t>Scarlett Isbell</t>
-  </si>
-  <si>
-    <t>Attendee Scarlett Isbell -100% (scholarship)</t>
-  </si>
-  <si>
-    <t>Kelly Crane</t>
-  </si>
-  <si>
-    <t>Attendee Kelly Crane -100% (scholarship)</t>
-  </si>
-  <si>
-    <t>Keegan Hart</t>
-  </si>
-  <si>
-    <t>Attendee Keegan Hart -100% (studentscholarship)</t>
-  </si>
-  <si>
-    <t>Attendee Megan Blevins -100% (sponsor)</t>
-  </si>
-  <si>
-    <t>Attendee Jeff Kern -100% (sponsor)</t>
-  </si>
-  <si>
-    <t>Jordan McAdoo</t>
-  </si>
-  <si>
-    <t>Attendee Jordan McAdoo -100% (scholarship)</t>
-  </si>
-  <si>
-    <t>Attendee Jim Carr -100% (sponsor)</t>
-  </si>
-  <si>
-    <t>Attendee Maddie Carr -100% (sponsor)</t>
-  </si>
-  <si>
-    <t>Christopher Smith</t>
-  </si>
-  <si>
-    <t>Attendee Christopher Smith -30% (banno)</t>
-  </si>
-  <si>
-    <t>Elliott Campbell</t>
-  </si>
-  <si>
-    <t>Attendee Elliott Campbell -30% (banno)</t>
-  </si>
-  <si>
-    <t>Attendee Craig Coenen -50% (kind)</t>
-  </si>
-  <si>
-    <t>Ryan Zachary De Lap</t>
-  </si>
-  <si>
-    <t>Attendee Ryan De Lap -50% (student)</t>
-  </si>
-  <si>
-    <t>Carissa Hurt</t>
-  </si>
-  <si>
-    <t>Attendee Carissa Hurt -50% (student)</t>
-  </si>
-  <si>
-    <t>Attendee Josh Sharp -50% (gravitate)</t>
-  </si>
-  <si>
-    <t>Seth Mabry</t>
-  </si>
-  <si>
-    <t>Attendee Seth Mabry -50% (codesci)</t>
-  </si>
-  <si>
-    <t>Attendee Tara Walton -50% (codesci)</t>
-  </si>
-  <si>
-    <t>Attendee Morgen Ohmsted -50% (codesci)</t>
-  </si>
-  <si>
-    <t>Attendee Josh Sutterfield -50% (codesci)</t>
-  </si>
-  <si>
-    <t>Attendee Enoch Pyle -50% (codesci)</t>
-  </si>
-  <si>
-    <t>Attendee Grant Jennings -50% (codesci)</t>
-  </si>
-  <si>
-    <t>Attendee Curt Buechter -50% (gravitate)</t>
-  </si>
-  <si>
-    <t>Attendee Mark Rosenkrans -50% (gravitate)</t>
-  </si>
-  <si>
-    <t>Attendee Brian Norris -50% (marlinnetwork)</t>
-  </si>
-  <si>
-    <t>Attendee Eli Estes -50% (marlinnetwork)</t>
-  </si>
-  <si>
-    <t>Trayvon Northern</t>
-  </si>
-  <si>
-    <t>Attendee Trayvon Northern -50% (kind)</t>
-  </si>
-  <si>
-    <t>Attendee Hannah Sartin -50% (marlinnetwork)</t>
-  </si>
-  <si>
-    <t>Maranda Provance</t>
-  </si>
-  <si>
-    <t>Attendee Maranda Provance -100% (sponsor)</t>
-  </si>
-  <si>
     <t>02/20/2020</t>
   </si>
   <si>
+    <t>Bonnie Granda</t>
+  </si>
+  <si>
+    <t>Attendee Bonnie Granda -100% (scholarship)</t>
+  </si>
+  <si>
+    <t>Danielle Kelly</t>
+  </si>
+  <si>
+    <t>Attendee Danielle Kelly -50% (student)</t>
+  </si>
+  <si>
     <t>River Ginther</t>
   </si>
   <si>
     <t>Attendee River Ginther</t>
   </si>
   <si>
-    <t>Danielle Kelly</t>
-  </si>
-  <si>
-    <t>Attendee Danielle Kelly -50% (student)</t>
+    <t>Alexander Hansen</t>
+  </si>
+  <si>
+    <t>Attendee Alexander Hansen -100% (studentscholarship)</t>
   </si>
   <si>
     <t>Mark Whisler</t>
@@ -821,22 +833,10 @@
     <t>Attendee Mark Whisler -50% (kind)</t>
   </si>
   <si>
-    <t>Bonnie Granda</t>
-  </si>
-  <si>
-    <t>Attendee Bonnie Granda -100% (scholarship)</t>
-  </si>
-  <si>
     <t>Madison Vodicka</t>
   </si>
   <si>
     <t>Attendee Madison Vodicka -100% (scholarship)</t>
-  </si>
-  <si>
-    <t>Alexander Hansen</t>
-  </si>
-  <si>
-    <t>Attendee Alexander Hansen -100% (studentscholarship)</t>
   </si>
   <si>
     <t>02/26/2020</t>
@@ -1070,6 +1070,30 @@
     <t>06/05/2020</t>
   </si>
   <si>
+    <t>07/01/2020</t>
+  </si>
+  <si>
+    <t>Zoom Video</t>
+  </si>
+  <si>
+    <t>Zoom Pro Monthly Subscription</t>
+  </si>
+  <si>
+    <t>07/03/2020</t>
+  </si>
+  <si>
+    <t>AMAZON WEB SERVICES DBT CRD 2139 07/03/20 DBX1S014</t>
+  </si>
+  <si>
+    <t>07/05/2020</t>
+  </si>
+  <si>
+    <t>07/10/2020</t>
+  </si>
+  <si>
+    <t>Domain Renewals (helpsgf.com, methodconf.com)</t>
+  </si>
+  <si>
     <t xml:space="preserve">         Total for Devs Software &amp; Hosting</t>
   </si>
   <si>
@@ -1164,39 +1188,25 @@
     <t>Item 101WB Black, Front Side Imprint 130 @ 3.48</t>
   </si>
   <si>
+    <t>Coupon Code</t>
+  </si>
+  <si>
     <t>Screen Charge</t>
   </si>
   <si>
-    <t>Coupon Code</t>
-  </si>
-  <si>
     <t xml:space="preserve">         Total for Method Attendee Bags</t>
   </si>
   <si>
     <t xml:space="preserve">         Method Attendee Shirts</t>
   </si>
   <si>
+    <t>Shipping from Manufacturer</t>
+  </si>
+  <si>
     <t>Sales Tax $2101@ 8.10%</t>
   </si>
   <si>
-    <t>Set up Fee *Waived 3rd Set Up Fee for placing 100+ Pieces* 2@ $25</t>
-  </si>
-  <si>
     <t>Upcharge - Size 2XL 14@ $3</t>
-  </si>
-  <si>
-    <t>Ink Change - 2 Colors  2@ $7</t>
-  </si>
-  <si>
-    <t>8413 Bella + Canvas - Women's Triblend Short Sleeve Tee 16@ $15
-Solid Black Triblend: AS - 7, AM - 3, AL - 3, AXL - 1, A2XL - 2
-**Price includes Two Color front, 1 Color Back. Solid black triblend - Front is rojo red and white ink. Back is white ink</t>
-  </si>
-  <si>
-    <t>Shipping from Manufacturer</t>
-  </si>
-  <si>
-    <t>Upcharge - Size 3XL 6@ $5</t>
   </si>
   <si>
     <t>3413 Bella + Canvas - Triblend Short Sleeve T-Shirt Solid 114@ $15
@@ -1205,6 +1215,20 @@
 **Price includes Two Color front, 1 Color Back. Solid black triblend - Front is rojo red and white ink. Back is white ink. Red triblend - Front is white and black ink. Back is white ink.</t>
   </si>
   <si>
+    <t>8413 Bella + Canvas - Women's Triblend Short Sleeve Tee 16@ $15
+Solid Black Triblend: AS - 7, AM - 3, AL - 3, AXL - 1, A2XL - 2
+**Price includes Two Color front, 1 Color Back. Solid black triblend - Front is rojo red and white ink. Back is white ink</t>
+  </si>
+  <si>
+    <t>Set up Fee *Waived 3rd Set Up Fee for placing 100+ Pieces* 2@ $25</t>
+  </si>
+  <si>
+    <t>Ink Change - 2 Colors  2@ $7</t>
+  </si>
+  <si>
+    <t>Upcharge - Size 3XL 6@ $5</t>
+  </si>
+  <si>
     <t xml:space="preserve">         Total for Method Attendee Shirts</t>
   </si>
   <si>
@@ -1214,30 +1238,30 @@
     <t>Headline Productions</t>
   </si>
   <si>
+    <t>Equipment Crew</t>
+  </si>
+  <si>
     <t>Equipment Rental, Replacement Cost $49,521</t>
   </si>
   <si>
-    <t>Equipment Crew</t>
+    <t>2 of REAL USA Professional Grade Gaffer Tape By Gaffer Power (2 Inches x 30 Yards, Black)</t>
+  </si>
+  <si>
+    <t>2 of Cable Matters Snagless Cat6 Ethernet Cable (Cat6 Cable/Cat 6 Cable) in Black 75 Feet</t>
+  </si>
+  <si>
+    <t>1 of Cable Matters Snagless Cat6 Ethernet Cable (Cat6 Cable, Cat 6 Cable) in Black 50 Feet</t>
+  </si>
+  <si>
+    <t>2 of Cable Matters Snagless Cat6 Ethernet Cable (Cat6 Cable/Cat 6 Cable) in Black 25</t>
+  </si>
+  <si>
+    <t>Sales Tax</t>
   </si>
   <si>
     <t>Shipping, Deliver by Friday 02/28</t>
   </si>
   <si>
-    <t>Sales Tax</t>
-  </si>
-  <si>
-    <t>2 of Cable Matters Snagless Cat6 Ethernet Cable (Cat6 Cable/Cat 6 Cable) in Black 75 Feet</t>
-  </si>
-  <si>
-    <t>2 of Cable Matters Snagless Cat6 Ethernet Cable (Cat6 Cable/Cat 6 Cable) in Black 25</t>
-  </si>
-  <si>
-    <t>2 of REAL USA Professional Grade Gaffer Tape By Gaffer Power (2 Inches x 30 Yards, Black)</t>
-  </si>
-  <si>
-    <t>1 of Cable Matters Snagless Cat6 Ethernet Cable (Cat6 Cable, Cat 6 Cable) in Black 50 Feet</t>
-  </si>
-  <si>
     <t xml:space="preserve">         Total for Method Audio Visual</t>
   </si>
   <si>
@@ -1259,30 +1283,30 @@
     <t>Walmart</t>
   </si>
   <si>
+    <t>Flour Sack  1 @ 4.47</t>
+  </si>
+  <si>
+    <t>CC Sinl Coff  1 @ 6.48</t>
+  </si>
+  <si>
+    <t>FS KT  5 @ 1.64</t>
+  </si>
+  <si>
+    <t>Land Coffee  4 @ 1.48</t>
+  </si>
+  <si>
+    <t>Drinkware  2 @ 4.96</t>
+  </si>
+  <si>
     <t>Sales Tax 8.10%</t>
   </si>
   <si>
-    <t>Flour Sack  1 @ 4.47</t>
+    <t>Sales Tax 5.10%</t>
   </si>
   <si>
     <t>Fever Tree  2 @ 5.98</t>
   </si>
   <si>
-    <t>CC Sinl Coff  1 @ 6.48</t>
-  </si>
-  <si>
-    <t>FS KT  5 @ 1.64</t>
-  </si>
-  <si>
-    <t>Drinkware  2 @ 4.96</t>
-  </si>
-  <si>
-    <t>Sales Tax 5.10%</t>
-  </si>
-  <si>
-    <t>Land Coffee  4 @ 1.48</t>
-  </si>
-  <si>
     <t>02/23/2020</t>
   </si>
   <si>
@@ -1298,33 +1322,33 @@
     <t>4401039-1</t>
   </si>
   <si>
+    <t>Anker Soundcore Life Q20 Hybrid Active Noise Cancelling Headphones</t>
+  </si>
+  <si>
+    <t>3 of: Yootech Wireless Charger, [2 Pack] Qi-Certified 10W</t>
+  </si>
+  <si>
+    <t>1 of: YETI Rambler 14 oz Stainless Steel Vacuum Insulated Mug with Lid, Brick Red</t>
+  </si>
+  <si>
+    <t>1 of: Ember Temperature Control Smart Mug, 10 oz</t>
+  </si>
+  <si>
+    <t>2 of: Audio-Technica ATH-M50xBT Wireless Bluetooth Over-Ear Headphones, Black</t>
+  </si>
+  <si>
     <t>Coupon</t>
   </si>
   <si>
-    <t>1 of: YETI Rambler 14 oz Stainless Steel Vacuum Insulated Mug with Lid, Brick Red</t>
-  </si>
-  <si>
-    <t>Anker Soundcore Life Q20 Hybrid Active Noise Cancelling Headphones</t>
-  </si>
-  <si>
-    <t>3 of: Yootech Wireless Charger, [2 Pack] Qi-Certified 10W</t>
-  </si>
-  <si>
-    <t>1 of: Ember Temperature Control Smart Mug, 10 oz</t>
+    <t>4401039-2</t>
+  </si>
+  <si>
+    <t>1 of: GPS Drone, DROCON 5G WiFi FPV Drone</t>
   </si>
   <si>
     <t>2 of: Amazon.com Gift Card in a Black Gift Box</t>
   </si>
   <si>
-    <t>4401039-2</t>
-  </si>
-  <si>
-    <t>1 of: GPS Drone, DROCON 5G WiFi FPV Drone</t>
-  </si>
-  <si>
-    <t>2 of: Audio-Technica ATH-M50xBT Wireless Bluetooth Over-Ear Headphones, Black</t>
-  </si>
-  <si>
     <t>03/02/2020</t>
   </si>
   <si>
@@ -1340,42 +1364,42 @@
     <t>Diamond Room / Simply Delicious</t>
   </si>
   <si>
+    <t>Sales Tax 8.1%</t>
+  </si>
+  <si>
     <t>Room Rental</t>
   </si>
   <si>
-    <t>Sales Tax 8.1%</t>
+    <t>Morning Pastries and Fruit, Taco Station Lunch, Evening Charcuterie Station ($24.50/person x 130)</t>
   </si>
   <si>
     <t>Credit for Deposit Received</t>
   </si>
   <si>
-    <t>Morning Pastries and Fruit, Taco Station Lunch, Evening Charcuterie Station ($24.50/person x 130)</t>
-  </si>
-  <si>
     <t>02/29/2020</t>
   </si>
   <si>
+    <t>Coke x2</t>
+  </si>
+  <si>
+    <t>Lemons x6</t>
+  </si>
+  <si>
+    <t>Limes x6</t>
+  </si>
+  <si>
+    <t>SC 20oz 12pk</t>
+  </si>
+  <si>
     <t>Ice 10lb</t>
   </si>
   <si>
-    <t>Limes x6</t>
-  </si>
-  <si>
-    <t>Coke x2</t>
-  </si>
-  <si>
-    <t>Lemons x6</t>
-  </si>
-  <si>
-    <t>SC 20oz 12pk</t>
+    <t>Bar Gratuity for Method Conference ($523 at 19.12%)</t>
   </si>
   <si>
     <t>Food Gratuity for Method Conference ($3185 at 19.17%)</t>
   </si>
   <si>
-    <t>Bar Gratuity for Method Conference ($523 at 19.12%)</t>
-  </si>
-  <si>
     <t>03/06/2020</t>
   </si>
   <si>
@@ -1487,24 +1511,24 @@
     <t>02/28/2020</t>
   </si>
   <si>
+    <t>Method Podium Sign Foam Core</t>
+  </si>
+  <si>
+    <t>Creative for Conference Materials</t>
+  </si>
+  <si>
+    <t>Blank Envelopes for Folded Note Cards x50</t>
+  </si>
+  <si>
     <t>Method Folded Note Cards x50</t>
   </si>
   <si>
+    <t>Method Flat Note Card 4x6  x150</t>
+  </si>
+  <si>
     <t>Method Retractable Banner 1 Sided w/ Stand and Carry Bag</t>
   </si>
   <si>
-    <t>Creative for Conference Materials</t>
-  </si>
-  <si>
-    <t>Method Podium Sign Foam Core</t>
-  </si>
-  <si>
-    <t>Blank Envelopes for Folded Note Cards x50</t>
-  </si>
-  <si>
-    <t>Method Flat Note Card 4x6  x150</t>
-  </si>
-  <si>
     <t>Cmnd Pic Hng x2</t>
   </si>
   <si>
@@ -1520,42 +1544,42 @@
     <t>Houlihans Restaurant</t>
   </si>
   <si>
+    <t>Gratuity (~19.5% of ~$400)</t>
+  </si>
+  <si>
     <t>Food, Drinks, Sales Tax</t>
   </si>
   <si>
-    <t>Gratuity (~19.5% of ~$400)</t>
-  </si>
-  <si>
     <t xml:space="preserve">         Total for Method Speaker Dinner</t>
   </si>
   <si>
     <t xml:space="preserve">         Method Speaker Gifts</t>
   </si>
   <si>
+    <t>Askinosie Chocolate LLC</t>
+  </si>
+  <si>
+    <t>Itty Bar Zamora Amazonia  31@ $0.85 + Tax</t>
+  </si>
+  <si>
     <t>Chabom Teas and Spices</t>
   </si>
   <si>
     <t>Detail Not Provided</t>
   </si>
   <si>
-    <t>Askinosie Chocolate LLC</t>
-  </si>
-  <si>
-    <t>Itty Bar Zamora Amazonia  31@ $0.85 + Tax</t>
+    <t>1 of: The Gift Wrap Company 4832-03 Decorative Confetti Bows, Large, Red Metallic</t>
+  </si>
+  <si>
+    <t>1 of: The Gift Wrap Company Decorative Confetti Gift Bows, Large, Black, pack of 12</t>
+  </si>
+  <si>
+    <t>3 of: Uber Gift Card $100</t>
   </si>
   <si>
     <t>7 of: Amazon.com Gift Card in a Black Gift Box</t>
   </si>
   <si>
-    <t>3 of: Uber Gift Card $100</t>
-  </si>
-  <si>
-    <t>1 of: The Gift Wrap Company Decorative Confetti Gift Bows, Large, Black, pack of 12</t>
-  </si>
-  <si>
-    <t>1 of: The Gift Wrap Company 4832-03 Decorative Confetti Bows, Large, Red Metallic</t>
-  </si>
-  <si>
     <t>02/24/2020</t>
   </si>
   <si>
@@ -1571,18 +1595,18 @@
     <t xml:space="preserve">         Method Speaker Travel</t>
   </si>
   <si>
+    <t>Randy Walker</t>
+  </si>
+  <si>
+    <t>Speaker Travel for Method Conference in Springfield Missouri on 03/05/2020</t>
+  </si>
+  <si>
+    <t>Erika Gerdes</t>
+  </si>
+  <si>
     <t>Sam Basu</t>
   </si>
   <si>
-    <t>Speaker Travel for Method Conference in Springfield Missouri on 03/05/2020</t>
-  </si>
-  <si>
-    <t>Randy Walker</t>
-  </si>
-  <si>
-    <t>Erika Gerdes</t>
-  </si>
-  <si>
     <t>Katie Womersley</t>
   </si>
   <si>
@@ -1658,7 +1682,7 @@
     <t>Net Revenue</t>
   </si>
   <si>
-    <t>Tuesday, Jul 07, 2020 04:00:24 PM GMT-7 - Accrual Basis</t>
+    <t>Monday, Aug 10, 2020 08:46:08 PM GMT-7 - Accrual Basis</t>
   </si>
   <si>
     <t>Springfield Devs</t>
@@ -1667,7 +1691,7 @@
     <t>Statement of Activity Detail</t>
   </si>
   <si>
-    <t>January - June, 2020</t>
+    <t>January - July, 2020</t>
   </si>
 </sst>
 </file>
@@ -1792,7 +1816,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="7" t="s">
-        <v>545</v>
+        <v>553</v>
       </c>
       <c r="B1"/>
       <c r="C1"/>
@@ -1804,7 +1828,7 @@
     </row>
     <row r="2">
       <c r="A2" s="7" t="s">
-        <v>546</v>
+        <v>554</v>
       </c>
       <c r="B2"/>
       <c r="C2"/>
@@ -1816,7 +1840,7 @@
     </row>
     <row r="3">
       <c r="A3" s="8" t="s">
-        <v>547</v>
+        <v>555</v>
       </c>
       <c r="B3"/>
       <c r="C3"/>
@@ -1995,7 +2019,7 @@
         <v>12</v>
       </c>
       <c r="D18" t="n" s="3">
-        <v>1072.0</v>
+        <v>1071.0</v>
       </c>
       <c r="E18" t="s" s="3">
         <v>26</v>
@@ -2007,7 +2031,7 @@
         <v>15</v>
       </c>
       <c r="H18" t="n" s="4">
-        <v>1000.0</v>
+        <v>-100.0</v>
       </c>
     </row>
     <row r="19">
@@ -2041,19 +2065,19 @@
         <v>12</v>
       </c>
       <c r="D20" t="n" s="3">
-        <v>1074.0</v>
+        <v>1073.0</v>
       </c>
       <c r="E20" t="s" s="3">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="F20" t="s" s="3">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="G20" t="s" s="3">
         <v>15</v>
       </c>
       <c r="H20" t="n" s="4">
-        <v>-200.0</v>
+        <v>-100.0</v>
       </c>
     </row>
     <row r="21">
@@ -2064,10 +2088,10 @@
         <v>12</v>
       </c>
       <c r="D21" t="n" s="3">
-        <v>1072.0</v>
+        <v>1075.0</v>
       </c>
       <c r="E21" t="s" s="3">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F21" t="s" s="3">
         <v>30</v>
@@ -2076,7 +2100,7 @@
         <v>15</v>
       </c>
       <c r="H21" t="n" s="4">
-        <v>-200.0</v>
+        <v>500.0</v>
       </c>
     </row>
     <row r="22">
@@ -2087,19 +2111,19 @@
         <v>12</v>
       </c>
       <c r="D22" t="n" s="3">
-        <v>1071.0</v>
+        <v>1075.0</v>
       </c>
       <c r="E22" t="s" s="3">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F22" t="s" s="3">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="G22" t="s" s="3">
         <v>15</v>
       </c>
       <c r="H22" t="n" s="4">
-        <v>-100.0</v>
+        <v>-50.0</v>
       </c>
     </row>
     <row r="23">
@@ -2110,19 +2134,19 @@
         <v>12</v>
       </c>
       <c r="D23" t="n" s="3">
-        <v>1073.0</v>
+        <v>1074.0</v>
       </c>
       <c r="E23" t="s" s="3">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="F23" t="s" s="3">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="G23" t="s" s="3">
         <v>15</v>
       </c>
       <c r="H23" t="n" s="4">
-        <v>-100.0</v>
+        <v>-200.0</v>
       </c>
     </row>
     <row r="24">
@@ -2133,19 +2157,19 @@
         <v>12</v>
       </c>
       <c r="D24" t="n" s="3">
-        <v>1075.0</v>
+        <v>1074.0</v>
       </c>
       <c r="E24" t="s" s="3">
+        <v>31</v>
+      </c>
+      <c r="F24" t="s" s="3">
         <v>32</v>
-      </c>
-      <c r="F24" t="s" s="3">
-        <v>30</v>
       </c>
       <c r="G24" t="s" s="3">
         <v>15</v>
       </c>
       <c r="H24" t="n" s="4">
-        <v>-50.0</v>
+        <v>1000.0</v>
       </c>
     </row>
     <row r="25">
@@ -2156,10 +2180,10 @@
         <v>12</v>
       </c>
       <c r="D25" t="n" s="3">
-        <v>1075.0</v>
+        <v>1074.0</v>
       </c>
       <c r="E25" t="s" s="3">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F25" t="s" s="3">
         <v>33</v>
@@ -2168,7 +2192,7 @@
         <v>15</v>
       </c>
       <c r="H25" t="n" s="4">
-        <v>500.0</v>
+        <v>1000.0</v>
       </c>
     </row>
     <row r="26">
@@ -2179,10 +2203,10 @@
         <v>12</v>
       </c>
       <c r="D26" t="n" s="3">
-        <v>1074.0</v>
+        <v>1071.0</v>
       </c>
       <c r="E26" t="s" s="3">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F26" t="s" s="3">
         <v>34</v>
@@ -2202,19 +2226,19 @@
         <v>12</v>
       </c>
       <c r="D27" t="n" s="3">
-        <v>1074.0</v>
+        <v>1072.0</v>
       </c>
       <c r="E27" t="s" s="3">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="F27" t="s" s="3">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="G27" t="s" s="3">
         <v>15</v>
       </c>
       <c r="H27" t="n" s="4">
-        <v>1000.0</v>
+        <v>-200.0</v>
       </c>
     </row>
     <row r="28">
@@ -2225,10 +2249,10 @@
         <v>12</v>
       </c>
       <c r="D28" t="n" s="3">
-        <v>1071.0</v>
+        <v>1072.0</v>
       </c>
       <c r="E28" t="s" s="3">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F28" t="s" s="3">
         <v>36</v>
@@ -2251,7 +2275,7 @@
         <v>1072.0</v>
       </c>
       <c r="E29" t="s" s="3">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="F29" t="s" s="3">
         <v>37</v>
@@ -2277,13 +2301,13 @@
         <v>18</v>
       </c>
       <c r="F30" t="s" s="3">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="G30" t="s" s="3">
         <v>15</v>
       </c>
       <c r="H30" t="n" s="4">
-        <v>-50.0</v>
+        <v>500.0</v>
       </c>
     </row>
     <row r="31">
@@ -2300,13 +2324,13 @@
         <v>18</v>
       </c>
       <c r="F31" t="s" s="3">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G31" t="s" s="3">
         <v>15</v>
       </c>
       <c r="H31" t="n" s="4">
-        <v>500.0</v>
+        <v>-50.0</v>
       </c>
     </row>
     <row r="32">
@@ -2323,7 +2347,7 @@
         <v>41</v>
       </c>
       <c r="F32" t="s" s="3">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G32" t="s" s="3">
         <v>15</v>
@@ -2560,7 +2584,7 @@
         <v>62</v>
       </c>
       <c r="D44" t="n" s="3">
-        <v>1082.0</v>
+        <v>1080.0</v>
       </c>
       <c r="E44" t="s" s="3">
         <v>63</v>
@@ -2572,7 +2596,7 @@
         <v>65</v>
       </c>
       <c r="H44" t="n" s="4">
-        <v>50.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="45">
@@ -2583,7 +2607,7 @@
         <v>62</v>
       </c>
       <c r="D45" t="n" s="3">
-        <v>1076.0</v>
+        <v>1086.0</v>
       </c>
       <c r="E45" t="s" s="3">
         <v>66</v>
@@ -2606,7 +2630,7 @@
         <v>62</v>
       </c>
       <c r="D46" t="n" s="3">
-        <v>1078.0</v>
+        <v>1079.0</v>
       </c>
       <c r="E46" t="s" s="3">
         <v>68</v>
@@ -2618,7 +2642,7 @@
         <v>65</v>
       </c>
       <c r="H46" t="n" s="4">
-        <v>100.0</v>
+        <v>50.0</v>
       </c>
     </row>
     <row r="47">
@@ -2629,13 +2653,13 @@
         <v>62</v>
       </c>
       <c r="D47" t="n" s="3">
-        <v>1077.0</v>
+        <v>1079.0</v>
       </c>
       <c r="E47" t="s" s="3">
+        <v>68</v>
+      </c>
+      <c r="F47" t="s" s="3">
         <v>70</v>
-      </c>
-      <c r="F47" t="s" s="3">
-        <v>71</v>
       </c>
       <c r="G47" t="s" s="3">
         <v>65</v>
@@ -2652,19 +2676,19 @@
         <v>62</v>
       </c>
       <c r="D48" t="n" s="3">
-        <v>1085.0</v>
+        <v>1077.0</v>
       </c>
       <c r="E48" t="s" s="3">
+        <v>71</v>
+      </c>
+      <c r="F48" t="s" s="3">
         <v>72</v>
       </c>
-      <c r="F48" t="s" s="3">
-        <v>73</v>
-      </c>
       <c r="G48" t="s" s="3">
         <v>65</v>
       </c>
       <c r="H48" t="n" s="4">
-        <v>0.0</v>
+        <v>50.0</v>
       </c>
     </row>
     <row r="49">
@@ -2675,19 +2699,19 @@
         <v>62</v>
       </c>
       <c r="D49" t="n" s="3">
-        <v>1081.0</v>
+        <v>1082.0</v>
       </c>
       <c r="E49" t="s" s="3">
+        <v>73</v>
+      </c>
+      <c r="F49" t="s" s="3">
         <v>74</v>
       </c>
-      <c r="F49" t="s" s="3">
-        <v>75</v>
-      </c>
       <c r="G49" t="s" s="3">
         <v>65</v>
       </c>
       <c r="H49" t="n" s="4">
-        <v>0.0</v>
+        <v>50.0</v>
       </c>
     </row>
     <row r="50">
@@ -2698,19 +2722,19 @@
         <v>62</v>
       </c>
       <c r="D50" t="n" s="3">
-        <v>1080.0</v>
+        <v>1076.0</v>
       </c>
       <c r="E50" t="s" s="3">
+        <v>75</v>
+      </c>
+      <c r="F50" t="s" s="3">
         <v>76</v>
       </c>
-      <c r="F50" t="s" s="3">
-        <v>77</v>
-      </c>
       <c r="G50" t="s" s="3">
         <v>65</v>
       </c>
       <c r="H50" t="n" s="4">
-        <v>0.0</v>
+        <v>50.0</v>
       </c>
     </row>
     <row r="51">
@@ -2721,13 +2745,13 @@
         <v>62</v>
       </c>
       <c r="D51" t="n" s="3">
-        <v>1087.0</v>
+        <v>1083.0</v>
       </c>
       <c r="E51" t="s" s="3">
+        <v>77</v>
+      </c>
+      <c r="F51" t="s" s="3">
         <v>78</v>
-      </c>
-      <c r="F51" t="s" s="3">
-        <v>79</v>
       </c>
       <c r="G51" t="s" s="3">
         <v>65</v>
@@ -2744,13 +2768,13 @@
         <v>62</v>
       </c>
       <c r="D52" t="n" s="3">
-        <v>1088.0</v>
+        <v>1084.0</v>
       </c>
       <c r="E52" t="s" s="3">
+        <v>79</v>
+      </c>
+      <c r="F52" t="s" s="3">
         <v>80</v>
-      </c>
-      <c r="F52" t="s" s="3">
-        <v>81</v>
       </c>
       <c r="G52" t="s" s="3">
         <v>65</v>
@@ -2767,13 +2791,13 @@
         <v>62</v>
       </c>
       <c r="D53" t="n" s="3">
-        <v>1084.0</v>
+        <v>1088.0</v>
       </c>
       <c r="E53" t="s" s="3">
+        <v>81</v>
+      </c>
+      <c r="F53" t="s" s="3">
         <v>82</v>
-      </c>
-      <c r="F53" t="s" s="3">
-        <v>83</v>
       </c>
       <c r="G53" t="s" s="3">
         <v>65</v>
@@ -2790,13 +2814,13 @@
         <v>62</v>
       </c>
       <c r="D54" t="n" s="3">
-        <v>1083.0</v>
+        <v>1087.0</v>
       </c>
       <c r="E54" t="s" s="3">
+        <v>83</v>
+      </c>
+      <c r="F54" t="s" s="3">
         <v>84</v>
-      </c>
-      <c r="F54" t="s" s="3">
-        <v>85</v>
       </c>
       <c r="G54" t="s" s="3">
         <v>65</v>
@@ -2813,19 +2837,19 @@
         <v>62</v>
       </c>
       <c r="D55" t="n" s="3">
-        <v>1086.0</v>
+        <v>1078.0</v>
       </c>
       <c r="E55" t="s" s="3">
+        <v>85</v>
+      </c>
+      <c r="F55" t="s" s="3">
         <v>86</v>
       </c>
-      <c r="F55" t="s" s="3">
-        <v>87</v>
-      </c>
       <c r="G55" t="s" s="3">
         <v>65</v>
       </c>
       <c r="H55" t="n" s="4">
-        <v>50.0</v>
+        <v>100.0</v>
       </c>
     </row>
     <row r="56">
@@ -2836,19 +2860,19 @@
         <v>62</v>
       </c>
       <c r="D56" t="n" s="3">
-        <v>1079.0</v>
+        <v>1081.0</v>
       </c>
       <c r="E56" t="s" s="3">
+        <v>87</v>
+      </c>
+      <c r="F56" t="s" s="3">
         <v>88</v>
       </c>
-      <c r="F56" t="s" s="3">
-        <v>89</v>
-      </c>
       <c r="G56" t="s" s="3">
         <v>65</v>
       </c>
       <c r="H56" t="n" s="4">
-        <v>50.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="57">
@@ -2859,10 +2883,10 @@
         <v>62</v>
       </c>
       <c r="D57" t="n" s="3">
-        <v>1079.0</v>
+        <v>1085.0</v>
       </c>
       <c r="E57" t="s" s="3">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F57" t="s" s="3">
         <v>90</v>
@@ -2871,7 +2895,7 @@
         <v>65</v>
       </c>
       <c r="H57" t="n" s="4">
-        <v>50.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="58">
@@ -3020,7 +3044,7 @@
         <v>62</v>
       </c>
       <c r="D64" t="n" s="3">
-        <v>1096.0</v>
+        <v>1097.0</v>
       </c>
       <c r="E64" t="s" s="3">
         <v>106</v>
@@ -3032,7 +3056,7 @@
         <v>65</v>
       </c>
       <c r="H64" t="n" s="4">
-        <v>100.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="65">
@@ -3043,7 +3067,7 @@
         <v>62</v>
       </c>
       <c r="D65" t="n" s="3">
-        <v>1097.0</v>
+        <v>1096.0</v>
       </c>
       <c r="E65" t="s" s="3">
         <v>108</v>
@@ -3055,7 +3079,7 @@
         <v>65</v>
       </c>
       <c r="H65" t="n" s="4">
-        <v>0.0</v>
+        <v>100.0</v>
       </c>
     </row>
     <row r="66">
@@ -3089,7 +3113,7 @@
         <v>62</v>
       </c>
       <c r="D67" t="n" s="3">
-        <v>1101.0</v>
+        <v>1100.0</v>
       </c>
       <c r="E67" t="s" s="3">
         <v>114</v>
@@ -3135,7 +3159,7 @@
         <v>62</v>
       </c>
       <c r="D69" t="n" s="3">
-        <v>1100.0</v>
+        <v>1101.0</v>
       </c>
       <c r="E69" t="s" s="3">
         <v>118</v>
@@ -3227,13 +3251,13 @@
         <v>62</v>
       </c>
       <c r="D73" t="n" s="3">
-        <v>1109.0</v>
+        <v>1110.0</v>
       </c>
       <c r="E73" t="s" s="3">
+        <v>120</v>
+      </c>
+      <c r="F73" t="s" s="3">
         <v>124</v>
-      </c>
-      <c r="F73" t="s" s="3">
-        <v>125</v>
       </c>
       <c r="G73" t="s" s="3">
         <v>65</v>
@@ -3256,7 +3280,7 @@
         <v>120</v>
       </c>
       <c r="F74" t="s" s="3">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G74" t="s" s="3">
         <v>65</v>
@@ -3273,10 +3297,10 @@
         <v>62</v>
       </c>
       <c r="D75" t="n" s="3">
-        <v>1110.0</v>
+        <v>1109.0</v>
       </c>
       <c r="E75" t="s" s="3">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="F75" t="s" s="3">
         <v>127</v>
@@ -3296,7 +3320,7 @@
         <v>62</v>
       </c>
       <c r="D76" t="n" s="3">
-        <v>1111.0</v>
+        <v>1112.0</v>
       </c>
       <c r="E76" t="s" s="3">
         <v>129</v>
@@ -3308,7 +3332,7 @@
         <v>65</v>
       </c>
       <c r="H76" t="n" s="4">
-        <v>50.0</v>
+        <v>70.0</v>
       </c>
     </row>
     <row r="77">
@@ -3319,7 +3343,7 @@
         <v>62</v>
       </c>
       <c r="D77" t="n" s="3">
-        <v>1112.0</v>
+        <v>1111.0</v>
       </c>
       <c r="E77" t="s" s="3">
         <v>131</v>
@@ -3331,7 +3355,7 @@
         <v>65</v>
       </c>
       <c r="H77" t="n" s="4">
-        <v>70.0</v>
+        <v>50.0</v>
       </c>
     </row>
     <row r="78">
@@ -3342,7 +3366,7 @@
         <v>62</v>
       </c>
       <c r="D78" t="n" s="3">
-        <v>1115.0</v>
+        <v>1114.0</v>
       </c>
       <c r="E78" t="s" s="3">
         <v>134</v>
@@ -3368,10 +3392,10 @@
         <v>1115.0</v>
       </c>
       <c r="E79" t="s" s="3">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="F79" t="s" s="3">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G79" t="s" s="3">
         <v>65</v>
@@ -3391,10 +3415,10 @@
         <v>1115.0</v>
       </c>
       <c r="E80" t="s" s="3">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="F80" t="s" s="3">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G80" t="s" s="3">
         <v>65</v>
@@ -3411,10 +3435,10 @@
         <v>62</v>
       </c>
       <c r="D81" t="n" s="3">
-        <v>1113.0</v>
+        <v>1115.0</v>
       </c>
       <c r="E81" t="s" s="3">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F81" t="s" s="3">
         <v>139</v>
@@ -3434,13 +3458,13 @@
         <v>62</v>
       </c>
       <c r="D82" t="n" s="3">
-        <v>1114.0</v>
+        <v>1115.0</v>
       </c>
       <c r="E82" t="s" s="3">
+        <v>136</v>
+      </c>
+      <c r="F82" t="s" s="3">
         <v>140</v>
-      </c>
-      <c r="F82" t="s" s="3">
-        <v>141</v>
       </c>
       <c r="G82" t="s" s="3">
         <v>65</v>
@@ -3457,10 +3481,10 @@
         <v>62</v>
       </c>
       <c r="D83" t="n" s="3">
-        <v>1115.0</v>
+        <v>1113.0</v>
       </c>
       <c r="E83" t="s" s="3">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="F83" t="s" s="3">
         <v>142</v>
@@ -3549,19 +3573,19 @@
         <v>62</v>
       </c>
       <c r="D87" t="n" s="3">
-        <v>1118.0</v>
+        <v>1119.0</v>
       </c>
       <c r="E87" t="s" s="3">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="F87" t="s" s="3">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G87" t="s" s="3">
         <v>65</v>
       </c>
       <c r="H87" t="n" s="4">
-        <v>100.0</v>
+        <v>70.0</v>
       </c>
     </row>
     <row r="88">
@@ -3572,10 +3596,10 @@
         <v>62</v>
       </c>
       <c r="D88" t="n" s="3">
-        <v>1119.0</v>
+        <v>1118.0</v>
       </c>
       <c r="E88" t="s" s="3">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="F88" t="s" s="3">
         <v>151</v>
@@ -3584,7 +3608,7 @@
         <v>65</v>
       </c>
       <c r="H88" t="n" s="4">
-        <v>70.0</v>
+        <v>100.0</v>
       </c>
     </row>
     <row r="89">
@@ -3618,19 +3642,19 @@
         <v>62</v>
       </c>
       <c r="D90" t="n" s="3">
-        <v>1121.0</v>
+        <v>1120.0</v>
       </c>
       <c r="E90" t="s" s="3">
+        <v>152</v>
+      </c>
+      <c r="F90" t="s" s="3">
         <v>154</v>
       </c>
-      <c r="F90" t="s" s="3">
-        <v>155</v>
-      </c>
       <c r="G90" t="s" s="3">
         <v>65</v>
       </c>
       <c r="H90" t="n" s="4">
-        <v>50.0</v>
+        <v>-30.0</v>
       </c>
     </row>
     <row r="91">
@@ -3644,7 +3668,7 @@
         <v>1121.0</v>
       </c>
       <c r="E91" t="s" s="3">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F91" t="s" s="3">
         <v>156</v>
@@ -3667,7 +3691,7 @@
         <v>1121.0</v>
       </c>
       <c r="E92" t="s" s="3">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F92" t="s" s="3">
         <v>157</v>
@@ -3690,7 +3714,7 @@
         <v>1121.0</v>
       </c>
       <c r="E93" t="s" s="3">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F93" t="s" s="3">
         <v>158</v>
@@ -3713,7 +3737,7 @@
         <v>1121.0</v>
       </c>
       <c r="E94" t="s" s="3">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F94" t="s" s="3">
         <v>159</v>
@@ -3736,7 +3760,7 @@
         <v>1121.0</v>
       </c>
       <c r="E95" t="s" s="3">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F95" t="s" s="3">
         <v>160</v>
@@ -3759,7 +3783,7 @@
         <v>1121.0</v>
       </c>
       <c r="E96" t="s" s="3">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F96" t="s" s="3">
         <v>161</v>
@@ -3779,10 +3803,10 @@
         <v>62</v>
       </c>
       <c r="D97" t="n" s="3">
-        <v>1122.0</v>
+        <v>1121.0</v>
       </c>
       <c r="E97" t="s" s="3">
-        <v>52</v>
+        <v>155</v>
       </c>
       <c r="F97" t="s" s="3">
         <v>162</v>
@@ -3802,10 +3826,10 @@
         <v>62</v>
       </c>
       <c r="D98" t="n" s="3">
-        <v>1120.0</v>
+        <v>1122.0</v>
       </c>
       <c r="E98" t="s" s="3">
-        <v>152</v>
+        <v>52</v>
       </c>
       <c r="F98" t="s" s="3">
         <v>163</v>
@@ -3814,7 +3838,7 @@
         <v>65</v>
       </c>
       <c r="H98" t="n" s="4">
-        <v>-30.0</v>
+        <v>50.0</v>
       </c>
     </row>
     <row r="99">
@@ -3897,7 +3921,7 @@
         <v>1127.0</v>
       </c>
       <c r="E102" t="s" s="3">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F102" t="s" s="3">
         <v>171</v>
@@ -3920,7 +3944,7 @@
         <v>1126.0</v>
       </c>
       <c r="E103" t="s" s="3">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="F103" t="s" s="3">
         <v>172</v>
@@ -3943,7 +3967,7 @@
         <v>1127.0</v>
       </c>
       <c r="E104" t="s" s="3">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F104" t="s" s="3">
         <v>173</v>
@@ -3966,7 +3990,7 @@
         <v>1128.0</v>
       </c>
       <c r="E105" t="s" s="3">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="F105" t="s" s="3">
         <v>175</v>
@@ -4078,7 +4102,7 @@
         <v>62</v>
       </c>
       <c r="D110" t="n" s="3">
-        <v>1137.0</v>
+        <v>1134.0</v>
       </c>
       <c r="E110" t="s" s="3">
         <v>185</v>
@@ -4090,7 +4114,7 @@
         <v>65</v>
       </c>
       <c r="H110" t="n" s="4">
-        <v>100.0</v>
+        <v>50.0</v>
       </c>
     </row>
     <row r="111">
@@ -4101,7 +4125,7 @@
         <v>62</v>
       </c>
       <c r="D111" t="n" s="3">
-        <v>1134.0</v>
+        <v>1133.0</v>
       </c>
       <c r="E111" t="s" s="3">
         <v>187</v>
@@ -4113,7 +4137,7 @@
         <v>65</v>
       </c>
       <c r="H111" t="n" s="4">
-        <v>50.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="112">
@@ -4124,7 +4148,7 @@
         <v>62</v>
       </c>
       <c r="D112" t="n" s="3">
-        <v>1139.0</v>
+        <v>1136.0</v>
       </c>
       <c r="E112" t="s" s="3">
         <v>189</v>
@@ -4136,7 +4160,7 @@
         <v>65</v>
       </c>
       <c r="H112" t="n" s="4">
-        <v>0.0</v>
+        <v>50.0</v>
       </c>
     </row>
     <row r="113">
@@ -4147,19 +4171,19 @@
         <v>62</v>
       </c>
       <c r="D113" t="n" s="3">
-        <v>1138.0</v>
+        <v>1136.0</v>
       </c>
       <c r="E113" t="s" s="3">
+        <v>189</v>
+      </c>
+      <c r="F113" t="s" s="3">
         <v>191</v>
       </c>
-      <c r="F113" t="s" s="3">
-        <v>192</v>
-      </c>
       <c r="G113" t="s" s="3">
         <v>65</v>
       </c>
       <c r="H113" t="n" s="4">
-        <v>0.0</v>
+        <v>50.0</v>
       </c>
     </row>
     <row r="114">
@@ -4173,10 +4197,10 @@
         <v>1135.0</v>
       </c>
       <c r="E114" t="s" s="3">
+        <v>192</v>
+      </c>
+      <c r="F114" t="s" s="3">
         <v>193</v>
-      </c>
-      <c r="F114" t="s" s="3">
-        <v>194</v>
       </c>
       <c r="G114" t="s" s="3">
         <v>65</v>
@@ -4193,19 +4217,19 @@
         <v>62</v>
       </c>
       <c r="D115" t="n" s="3">
-        <v>1140.0</v>
+        <v>1137.0</v>
       </c>
       <c r="E115" t="s" s="3">
+        <v>194</v>
+      </c>
+      <c r="F115" t="s" s="3">
         <v>195</v>
       </c>
-      <c r="F115" t="s" s="3">
-        <v>196</v>
-      </c>
       <c r="G115" t="s" s="3">
         <v>65</v>
       </c>
       <c r="H115" t="n" s="4">
-        <v>50.0</v>
+        <v>100.0</v>
       </c>
     </row>
     <row r="116">
@@ -4216,19 +4240,19 @@
         <v>62</v>
       </c>
       <c r="D116" t="n" s="3">
-        <v>1136.0</v>
+        <v>1138.0</v>
       </c>
       <c r="E116" t="s" s="3">
+        <v>196</v>
+      </c>
+      <c r="F116" t="s" s="3">
         <v>197</v>
       </c>
-      <c r="F116" t="s" s="3">
-        <v>198</v>
-      </c>
       <c r="G116" t="s" s="3">
         <v>65</v>
       </c>
       <c r="H116" t="n" s="4">
-        <v>50.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="117">
@@ -4239,10 +4263,10 @@
         <v>62</v>
       </c>
       <c r="D117" t="n" s="3">
-        <v>1136.0</v>
+        <v>1139.0</v>
       </c>
       <c r="E117" t="s" s="3">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F117" t="s" s="3">
         <v>199</v>
@@ -4251,7 +4275,7 @@
         <v>65</v>
       </c>
       <c r="H117" t="n" s="4">
-        <v>50.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="118">
@@ -4262,13 +4286,13 @@
         <v>62</v>
       </c>
       <c r="D118" t="n" s="3">
-        <v>1136.0</v>
+        <v>1140.0</v>
       </c>
       <c r="E118" t="s" s="3">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="F118" t="s" s="3">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="G118" t="s" s="3">
         <v>65</v>
@@ -4288,10 +4312,10 @@
         <v>1136.0</v>
       </c>
       <c r="E119" t="s" s="3">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="F119" t="s" s="3">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="G119" t="s" s="3">
         <v>65</v>
@@ -4308,10 +4332,10 @@
         <v>62</v>
       </c>
       <c r="D120" t="n" s="3">
-        <v>1133.0</v>
+        <v>1136.0</v>
       </c>
       <c r="E120" t="s" s="3">
-        <v>202</v>
+        <v>189</v>
       </c>
       <c r="F120" t="s" s="3">
         <v>203</v>
@@ -4320,7 +4344,7 @@
         <v>65</v>
       </c>
       <c r="H120" t="n" s="4">
-        <v>0.0</v>
+        <v>50.0</v>
       </c>
     </row>
     <row r="121">
@@ -4331,7 +4355,7 @@
         <v>62</v>
       </c>
       <c r="D121" t="n" s="3">
-        <v>1143.0</v>
+        <v>1141.0</v>
       </c>
       <c r="E121" t="s" s="3">
         <v>204</v>
@@ -4343,7 +4367,7 @@
         <v>65</v>
       </c>
       <c r="H121" t="n" s="4">
-        <v>100.0</v>
+        <v>50.0</v>
       </c>
     </row>
     <row r="122">
@@ -4354,19 +4378,19 @@
         <v>62</v>
       </c>
       <c r="D122" t="n" s="3">
-        <v>1141.0</v>
+        <v>1142.0</v>
       </c>
       <c r="E122" t="s" s="3">
+        <v>13</v>
+      </c>
+      <c r="F122" t="s" s="3">
         <v>206</v>
       </c>
-      <c r="F122" t="s" s="3">
-        <v>207</v>
-      </c>
       <c r="G122" t="s" s="3">
         <v>65</v>
       </c>
       <c r="H122" t="n" s="4">
-        <v>50.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="123">
@@ -4377,10 +4401,10 @@
         <v>62</v>
       </c>
       <c r="D123" t="n" s="3">
-        <v>1142.0</v>
+        <v>1143.0</v>
       </c>
       <c r="E123" t="s" s="3">
-        <v>13</v>
+        <v>207</v>
       </c>
       <c r="F123" t="s" s="3">
         <v>208</v>
@@ -4389,7 +4413,7 @@
         <v>65</v>
       </c>
       <c r="H123" t="n" s="4">
-        <v>0.0</v>
+        <v>100.0</v>
       </c>
     </row>
     <row r="124">
@@ -4400,7 +4424,7 @@
         <v>62</v>
       </c>
       <c r="D124" t="n" s="3">
-        <v>1167.0</v>
+        <v>1155.0</v>
       </c>
       <c r="E124" t="s" s="3">
         <v>210</v>
@@ -4423,19 +4447,19 @@
         <v>62</v>
       </c>
       <c r="D125" t="n" s="3">
-        <v>1146.0</v>
+        <v>1156.0</v>
       </c>
       <c r="E125" t="s" s="3">
+        <v>49</v>
+      </c>
+      <c r="F125" t="s" s="3">
         <v>212</v>
       </c>
-      <c r="F125" t="s" s="3">
-        <v>213</v>
-      </c>
       <c r="G125" t="s" s="3">
         <v>65</v>
       </c>
       <c r="H125" t="n" s="4">
-        <v>0.0</v>
+        <v>50.0</v>
       </c>
     </row>
     <row r="126">
@@ -4446,19 +4470,19 @@
         <v>62</v>
       </c>
       <c r="D126" t="n" s="3">
-        <v>1150.0</v>
+        <v>1156.0</v>
       </c>
       <c r="E126" t="s" s="3">
-        <v>214</v>
+        <v>49</v>
       </c>
       <c r="F126" t="s" s="3">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="G126" t="s" s="3">
         <v>65</v>
       </c>
       <c r="H126" t="n" s="4">
-        <v>0.0</v>
+        <v>50.0</v>
       </c>
     </row>
     <row r="127">
@@ -4469,19 +4493,19 @@
         <v>62</v>
       </c>
       <c r="D127" t="n" s="3">
-        <v>1151.0</v>
+        <v>1156.0</v>
       </c>
       <c r="E127" t="s" s="3">
-        <v>216</v>
+        <v>49</v>
       </c>
       <c r="F127" t="s" s="3">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="G127" t="s" s="3">
         <v>65</v>
       </c>
       <c r="H127" t="n" s="4">
-        <v>0.0</v>
+        <v>50.0</v>
       </c>
     </row>
     <row r="128">
@@ -4492,19 +4516,19 @@
         <v>62</v>
       </c>
       <c r="D128" t="n" s="3">
-        <v>1152.0</v>
+        <v>1156.0</v>
       </c>
       <c r="E128" t="s" s="3">
-        <v>218</v>
+        <v>49</v>
       </c>
       <c r="F128" t="s" s="3">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="G128" t="s" s="3">
         <v>65</v>
       </c>
       <c r="H128" t="n" s="4">
-        <v>0.0</v>
+        <v>50.0</v>
       </c>
     </row>
     <row r="129">
@@ -4515,19 +4539,19 @@
         <v>62</v>
       </c>
       <c r="D129" t="n" s="3">
-        <v>1153.0</v>
+        <v>1156.0</v>
       </c>
       <c r="E129" t="s" s="3">
-        <v>220</v>
+        <v>49</v>
       </c>
       <c r="F129" t="s" s="3">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="G129" t="s" s="3">
         <v>65</v>
       </c>
       <c r="H129" t="n" s="4">
-        <v>0.0</v>
+        <v>50.0</v>
       </c>
     </row>
     <row r="130">
@@ -4538,19 +4562,19 @@
         <v>62</v>
       </c>
       <c r="D130" t="n" s="3">
-        <v>1154.0</v>
+        <v>1157.0</v>
       </c>
       <c r="E130" t="s" s="3">
-        <v>49</v>
+        <v>187</v>
       </c>
       <c r="F130" t="s" s="3">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="G130" t="s" s="3">
         <v>65</v>
       </c>
       <c r="H130" t="n" s="4">
-        <v>0.0</v>
+        <v>50.0</v>
       </c>
     </row>
     <row r="131">
@@ -4561,19 +4585,19 @@
         <v>62</v>
       </c>
       <c r="D131" t="n" s="3">
-        <v>1154.0</v>
+        <v>1157.0</v>
       </c>
       <c r="E131" t="s" s="3">
-        <v>49</v>
+        <v>187</v>
       </c>
       <c r="F131" t="s" s="3">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="G131" t="s" s="3">
         <v>65</v>
       </c>
       <c r="H131" t="n" s="4">
-        <v>0.0</v>
+        <v>50.0</v>
       </c>
     </row>
     <row r="132">
@@ -4584,13 +4608,13 @@
         <v>62</v>
       </c>
       <c r="D132" t="n" s="3">
-        <v>1155.0</v>
+        <v>1158.0</v>
       </c>
       <c r="E132" t="s" s="3">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="F132" t="s" s="3">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="G132" t="s" s="3">
         <v>65</v>
@@ -4607,13 +4631,13 @@
         <v>62</v>
       </c>
       <c r="D133" t="n" s="3">
-        <v>1158.0</v>
+        <v>1160.0</v>
       </c>
       <c r="E133" t="s" s="3">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="F133" t="s" s="3">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="G133" t="s" s="3">
         <v>65</v>
@@ -4630,13 +4654,13 @@
         <v>62</v>
       </c>
       <c r="D134" t="n" s="3">
-        <v>1160.0</v>
+        <v>1161.0</v>
       </c>
       <c r="E134" t="s" s="3">
-        <v>228</v>
+        <v>18</v>
       </c>
       <c r="F134" t="s" s="3">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="G134" t="s" s="3">
         <v>65</v>
@@ -4659,7 +4683,7 @@
         <v>18</v>
       </c>
       <c r="F135" t="s" s="3">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="G135" t="s" s="3">
         <v>65</v>
@@ -4676,19 +4700,19 @@
         <v>62</v>
       </c>
       <c r="D136" t="n" s="3">
-        <v>1161.0</v>
+        <v>1162.0</v>
       </c>
       <c r="E136" t="s" s="3">
         <v>18</v>
       </c>
       <c r="F136" t="s" s="3">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="G136" t="s" s="3">
         <v>65</v>
       </c>
       <c r="H136" t="n" s="4">
-        <v>0.0</v>
+        <v>50.0</v>
       </c>
     </row>
     <row r="137">
@@ -4699,19 +4723,19 @@
         <v>62</v>
       </c>
       <c r="D137" t="n" s="3">
-        <v>1163.0</v>
+        <v>1162.0</v>
       </c>
       <c r="E137" t="s" s="3">
-        <v>232</v>
+        <v>18</v>
       </c>
       <c r="F137" t="s" s="3">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="G137" t="s" s="3">
         <v>65</v>
       </c>
       <c r="H137" t="n" s="4">
-        <v>0.0</v>
+        <v>50.0</v>
       </c>
     </row>
     <row r="138">
@@ -4722,13 +4746,13 @@
         <v>62</v>
       </c>
       <c r="D138" t="n" s="3">
-        <v>1164.0</v>
+        <v>1163.0</v>
       </c>
       <c r="E138" t="s" s="3">
-        <v>43</v>
+        <v>227</v>
       </c>
       <c r="F138" t="s" s="3">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="G138" t="s" s="3">
         <v>65</v>
@@ -4751,7 +4775,7 @@
         <v>43</v>
       </c>
       <c r="F139" t="s" s="3">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="G139" t="s" s="3">
         <v>65</v>
@@ -4768,19 +4792,19 @@
         <v>62</v>
       </c>
       <c r="D140" t="n" s="3">
-        <v>1169.0</v>
+        <v>1164.0</v>
       </c>
       <c r="E140" t="s" s="3">
-        <v>236</v>
+        <v>43</v>
       </c>
       <c r="F140" t="s" s="3">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="G140" t="s" s="3">
         <v>65</v>
       </c>
       <c r="H140" t="n" s="4">
-        <v>70.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="141">
@@ -4791,19 +4815,19 @@
         <v>62</v>
       </c>
       <c r="D141" t="n" s="3">
-        <v>1147.0</v>
+        <v>1165.0</v>
       </c>
       <c r="E141" t="s" s="3">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="F141" t="s" s="3">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="G141" t="s" s="3">
         <v>65</v>
       </c>
       <c r="H141" t="n" s="4">
-        <v>70.0</v>
+        <v>50.0</v>
       </c>
     </row>
     <row r="142">
@@ -4814,13 +4838,13 @@
         <v>62</v>
       </c>
       <c r="D142" t="n" s="3">
-        <v>1159.0</v>
+        <v>1166.0</v>
       </c>
       <c r="E142" t="s" s="3">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="F142" t="s" s="3">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="G142" t="s" s="3">
         <v>65</v>
@@ -4837,13 +4861,13 @@
         <v>62</v>
       </c>
       <c r="D143" t="n" s="3">
-        <v>1168.0</v>
+        <v>1159.0</v>
       </c>
       <c r="E143" t="s" s="3">
-        <v>241</v>
+        <v>29</v>
       </c>
       <c r="F143" t="s" s="3">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="G143" t="s" s="3">
         <v>65</v>
@@ -4860,19 +4884,19 @@
         <v>62</v>
       </c>
       <c r="D144" t="n" s="3">
-        <v>1144.0</v>
+        <v>1149.0</v>
       </c>
       <c r="E144" t="s" s="3">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="F144" t="s" s="3">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="G144" t="s" s="3">
         <v>65</v>
       </c>
       <c r="H144" t="n" s="4">
-        <v>50.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="145">
@@ -4883,13 +4907,13 @@
         <v>62</v>
       </c>
       <c r="D145" t="n" s="3">
-        <v>1145.0</v>
+        <v>1168.0</v>
       </c>
       <c r="E145" t="s" s="3">
-        <v>202</v>
+        <v>237</v>
       </c>
       <c r="F145" t="s" s="3">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="G145" t="s" s="3">
         <v>65</v>
@@ -4906,19 +4930,19 @@
         <v>62</v>
       </c>
       <c r="D146" t="n" s="3">
-        <v>1148.0</v>
+        <v>1167.0</v>
       </c>
       <c r="E146" t="s" s="3">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="F146" t="s" s="3">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="G146" t="s" s="3">
         <v>65</v>
       </c>
       <c r="H146" t="n" s="4">
-        <v>50.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="147">
@@ -4929,19 +4953,19 @@
         <v>62</v>
       </c>
       <c r="D147" t="n" s="3">
-        <v>1156.0</v>
+        <v>1169.0</v>
       </c>
       <c r="E147" t="s" s="3">
-        <v>49</v>
+        <v>241</v>
       </c>
       <c r="F147" t="s" s="3">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="G147" t="s" s="3">
         <v>65</v>
       </c>
       <c r="H147" t="n" s="4">
-        <v>50.0</v>
+        <v>70.0</v>
       </c>
     </row>
     <row r="148">
@@ -4952,13 +4976,13 @@
         <v>62</v>
       </c>
       <c r="D148" t="n" s="3">
-        <v>1156.0</v>
+        <v>1144.0</v>
       </c>
       <c r="E148" t="s" s="3">
-        <v>49</v>
+        <v>243</v>
       </c>
       <c r="F148" t="s" s="3">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="G148" t="s" s="3">
         <v>65</v>
@@ -4975,13 +4999,13 @@
         <v>62</v>
       </c>
       <c r="D149" t="n" s="3">
-        <v>1156.0</v>
+        <v>1145.0</v>
       </c>
       <c r="E149" t="s" s="3">
-        <v>49</v>
+        <v>187</v>
       </c>
       <c r="F149" t="s" s="3">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="G149" t="s" s="3">
         <v>65</v>
@@ -4998,19 +5022,19 @@
         <v>62</v>
       </c>
       <c r="D150" t="n" s="3">
-        <v>1156.0</v>
+        <v>1146.0</v>
       </c>
       <c r="E150" t="s" s="3">
-        <v>49</v>
+        <v>246</v>
       </c>
       <c r="F150" t="s" s="3">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="G150" t="s" s="3">
         <v>65</v>
       </c>
       <c r="H150" t="n" s="4">
-        <v>50.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="151">
@@ -5021,19 +5045,19 @@
         <v>62</v>
       </c>
       <c r="D151" t="n" s="3">
-        <v>1156.0</v>
+        <v>1147.0</v>
       </c>
       <c r="E151" t="s" s="3">
-        <v>49</v>
+        <v>248</v>
       </c>
       <c r="F151" t="s" s="3">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="G151" t="s" s="3">
         <v>65</v>
       </c>
       <c r="H151" t="n" s="4">
-        <v>50.0</v>
+        <v>70.0</v>
       </c>
     </row>
     <row r="152">
@@ -5044,13 +5068,13 @@
         <v>62</v>
       </c>
       <c r="D152" t="n" s="3">
-        <v>1157.0</v>
+        <v>1148.0</v>
       </c>
       <c r="E152" t="s" s="3">
-        <v>202</v>
+        <v>250</v>
       </c>
       <c r="F152" t="s" s="3">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="G152" t="s" s="3">
         <v>65</v>
@@ -5067,19 +5091,19 @@
         <v>62</v>
       </c>
       <c r="D153" t="n" s="3">
-        <v>1157.0</v>
+        <v>1150.0</v>
       </c>
       <c r="E153" t="s" s="3">
-        <v>202</v>
+        <v>252</v>
       </c>
       <c r="F153" t="s" s="3">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G153" t="s" s="3">
         <v>65</v>
       </c>
       <c r="H153" t="n" s="4">
-        <v>50.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="154">
@@ -5090,10 +5114,10 @@
         <v>62</v>
       </c>
       <c r="D154" t="n" s="3">
-        <v>1162.0</v>
+        <v>1151.0</v>
       </c>
       <c r="E154" t="s" s="3">
-        <v>18</v>
+        <v>254</v>
       </c>
       <c r="F154" t="s" s="3">
         <v>255</v>
@@ -5102,7 +5126,7 @@
         <v>65</v>
       </c>
       <c r="H154" t="n" s="4">
-        <v>50.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="155">
@@ -5113,19 +5137,19 @@
         <v>62</v>
       </c>
       <c r="D155" t="n" s="3">
-        <v>1162.0</v>
+        <v>1152.0</v>
       </c>
       <c r="E155" t="s" s="3">
-        <v>18</v>
+        <v>256</v>
       </c>
       <c r="F155" t="s" s="3">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="G155" t="s" s="3">
         <v>65</v>
       </c>
       <c r="H155" t="n" s="4">
-        <v>50.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="156">
@@ -5136,19 +5160,19 @@
         <v>62</v>
       </c>
       <c r="D156" t="n" s="3">
-        <v>1165.0</v>
+        <v>1153.0</v>
       </c>
       <c r="E156" t="s" s="3">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="F156" t="s" s="3">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="G156" t="s" s="3">
         <v>65</v>
       </c>
       <c r="H156" t="n" s="4">
-        <v>50.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="157">
@@ -5159,19 +5183,19 @@
         <v>62</v>
       </c>
       <c r="D157" t="n" s="3">
-        <v>1166.0</v>
+        <v>1154.0</v>
       </c>
       <c r="E157" t="s" s="3">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="F157" t="s" s="3">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="G157" t="s" s="3">
         <v>65</v>
       </c>
       <c r="H157" t="n" s="4">
-        <v>50.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="158">
@@ -5182,10 +5206,10 @@
         <v>62</v>
       </c>
       <c r="D158" t="n" s="3">
-        <v>1149.0</v>
+        <v>1154.0</v>
       </c>
       <c r="E158" t="s" s="3">
-        <v>260</v>
+        <v>49</v>
       </c>
       <c r="F158" t="s" s="3">
         <v>261</v>
@@ -5205,7 +5229,7 @@
         <v>62</v>
       </c>
       <c r="D159" t="n" s="3">
-        <v>1173.0</v>
+        <v>1171.0</v>
       </c>
       <c r="E159" t="s" s="3">
         <v>263</v>
@@ -5217,7 +5241,7 @@
         <v>65</v>
       </c>
       <c r="H159" t="n" s="4">
-        <v>100.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="160">
@@ -5251,7 +5275,7 @@
         <v>62</v>
       </c>
       <c r="D161" t="n" s="3">
-        <v>1174.0</v>
+        <v>1173.0</v>
       </c>
       <c r="E161" t="s" s="3">
         <v>267</v>
@@ -5263,7 +5287,7 @@
         <v>65</v>
       </c>
       <c r="H161" t="n" s="4">
-        <v>50.0</v>
+        <v>100.0</v>
       </c>
     </row>
     <row r="162">
@@ -5274,7 +5298,7 @@
         <v>62</v>
       </c>
       <c r="D162" t="n" s="3">
-        <v>1171.0</v>
+        <v>1175.0</v>
       </c>
       <c r="E162" t="s" s="3">
         <v>269</v>
@@ -5297,7 +5321,7 @@
         <v>62</v>
       </c>
       <c r="D163" t="n" s="3">
-        <v>1170.0</v>
+        <v>1174.0</v>
       </c>
       <c r="E163" t="s" s="3">
         <v>271</v>
@@ -5309,7 +5333,7 @@
         <v>65</v>
       </c>
       <c r="H163" t="n" s="4">
-        <v>0.0</v>
+        <v>50.0</v>
       </c>
     </row>
     <row r="164">
@@ -5320,7 +5344,7 @@
         <v>62</v>
       </c>
       <c r="D164" t="n" s="3">
-        <v>1175.0</v>
+        <v>1170.0</v>
       </c>
       <c r="E164" t="s" s="3">
         <v>273</v>
@@ -6207,529 +6231,521 @@
       </c>
     </row>
     <row r="215">
-      <c r="A215" t="s" s="2">
+      <c r="B215" t="s" s="3">
         <v>350</v>
       </c>
-      <c r="H215" t="n" s="5">
-        <v>612.97</v>
+      <c r="C215" t="s" s="3">
+        <v>290</v>
+      </c>
+      <c r="D215" s="3"/>
+      <c r="E215" t="s" s="3">
+        <v>318</v>
+      </c>
+      <c r="F215" t="s" s="3">
+        <v>319</v>
+      </c>
+      <c r="G215" t="s" s="3">
+        <v>293</v>
+      </c>
+      <c r="H215" t="n" s="4">
+        <v>20.0</v>
       </c>
     </row>
     <row r="216">
-      <c r="A216" t="s" s="2">
+      <c r="B216" t="s" s="3">
+        <v>350</v>
+      </c>
+      <c r="C216" t="s" s="3">
+        <v>290</v>
+      </c>
+      <c r="D216" t="n" s="3">
+        <v>2.9050581E7</v>
+      </c>
+      <c r="E216" t="s" s="3">
         <v>351</v>
+      </c>
+      <c r="F216" t="s" s="3">
+        <v>352</v>
+      </c>
+      <c r="G216" t="s" s="3">
+        <v>293</v>
+      </c>
+      <c r="H216" t="n" s="4">
+        <v>14.99</v>
       </c>
     </row>
     <row r="217">
       <c r="B217" t="s" s="3">
-        <v>42</v>
+        <v>353</v>
       </c>
       <c r="C217" t="s" s="3">
-        <v>290</v>
-      </c>
-      <c r="D217" t="n" s="3">
-        <v>162673.0</v>
-      </c>
+        <v>299</v>
+      </c>
+      <c r="D217" s="3"/>
       <c r="E217" t="s" s="3">
-        <v>352</v>
+        <v>320</v>
       </c>
       <c r="F217" t="s" s="3">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="G217" t="s" s="3">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="H217" t="n" s="4">
-        <v>503.1</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="218">
       <c r="B218" t="s" s="3">
-        <v>42</v>
+        <v>355</v>
       </c>
       <c r="C218" t="s" s="3">
         <v>290</v>
       </c>
-      <c r="D218" t="n" s="3">
-        <v>162673.0</v>
-      </c>
+      <c r="D218" s="3"/>
       <c r="E218" t="s" s="3">
-        <v>352</v>
+        <v>323</v>
       </c>
       <c r="F218" t="s" s="3">
-        <v>354</v>
+        <v>324</v>
       </c>
       <c r="G218" t="s" s="3">
         <v>293</v>
       </c>
       <c r="H218" t="n" s="4">
-        <v>40.75</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="219">
       <c r="B219" t="s" s="3">
-        <v>209</v>
+        <v>356</v>
       </c>
       <c r="C219" t="s" s="3">
         <v>299</v>
       </c>
-      <c r="D219" t="n" s="3">
-        <v>163049.0</v>
-      </c>
+      <c r="D219" s="3"/>
       <c r="E219" t="s" s="3">
-        <v>352</v>
+        <v>326</v>
       </c>
       <c r="F219" t="s" s="3">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="G219" t="s" s="3">
         <v>302</v>
       </c>
       <c r="H219" t="n" s="4">
-        <v>30.21</v>
+        <v>35.96</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="s" s="2">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="H220" t="n" s="5">
-        <v>574.06</v>
+        <v>704.52</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="s" s="2">
-        <v>357</v>
+        <v>359</v>
       </c>
     </row>
     <row r="222">
       <c r="B222" t="s" s="3">
-        <v>337</v>
+        <v>42</v>
       </c>
       <c r="C222" t="s" s="3">
-        <v>358</v>
-      </c>
-      <c r="D222" s="3"/>
+        <v>290</v>
+      </c>
+      <c r="D222" t="n" s="3">
+        <v>162673.0</v>
+      </c>
       <c r="E222" t="s" s="3">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="F222" t="s" s="3">
+        <v>361</v>
+      </c>
+      <c r="G222" t="s" s="3">
+        <v>293</v>
+      </c>
+      <c r="H222" t="n" s="4">
+        <v>503.1</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="B223" t="s" s="3">
+        <v>42</v>
+      </c>
+      <c r="C223" t="s" s="3">
+        <v>290</v>
+      </c>
+      <c r="D223" t="n" s="3">
+        <v>162673.0</v>
+      </c>
+      <c r="E223" t="s" s="3">
         <v>360</v>
       </c>
-      <c r="G222" t="s" s="3">
+      <c r="F223" t="s" s="3">
+        <v>362</v>
+      </c>
+      <c r="G223" t="s" s="3">
+        <v>293</v>
+      </c>
+      <c r="H223" t="n" s="4">
+        <v>40.75</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="B224" t="s" s="3">
+        <v>209</v>
+      </c>
+      <c r="C224" t="s" s="3">
+        <v>299</v>
+      </c>
+      <c r="D224" t="n" s="3">
+        <v>163049.0</v>
+      </c>
+      <c r="E224" t="s" s="3">
+        <v>360</v>
+      </c>
+      <c r="F224" t="s" s="3">
+        <v>363</v>
+      </c>
+      <c r="G224" t="s" s="3">
         <v>302</v>
       </c>
-      <c r="H222" t="n" s="4">
-        <v>600.0</v>
-      </c>
-    </row>
-    <row r="223">
-      <c r="A223" t="s" s="2">
-        <v>361</v>
-      </c>
-      <c r="H223" t="n" s="5">
-        <v>600.0</v>
-      </c>
-    </row>
-    <row r="224">
-      <c r="A224" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="H224" t="n" s="5">
-        <v>4321.01</v>
+      <c r="H224" t="n" s="4">
+        <v>30.21</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
+      </c>
+      <c r="H225" t="n" s="5">
+        <v>574.06</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="227">
       <c r="B227" t="s" s="3">
-        <v>42</v>
+        <v>337</v>
       </c>
       <c r="C227" t="s" s="3">
-        <v>299</v>
-      </c>
-      <c r="D227" t="s" s="3">
-        <v>365</v>
-      </c>
+        <v>366</v>
+      </c>
+      <c r="D227" s="3"/>
       <c r="E227" t="s" s="3">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="F227" t="s" s="3">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="G227" t="s" s="3">
         <v>302</v>
       </c>
       <c r="H227" t="n" s="4">
-        <v>25.0</v>
+        <v>600.0</v>
       </c>
     </row>
     <row r="228">
-      <c r="B228" t="s" s="3">
-        <v>332</v>
-      </c>
-      <c r="C228" t="s" s="3">
-        <v>290</v>
-      </c>
-      <c r="D228" t="n" s="3">
-        <v>5517958.0</v>
-      </c>
-      <c r="E228" t="s" s="3">
-        <v>366</v>
-      </c>
-      <c r="F228" t="s" s="3">
-        <v>368</v>
-      </c>
-      <c r="G228" t="s" s="3">
-        <v>293</v>
-      </c>
-      <c r="H228" t="n" s="4">
-        <v>6.37</v>
+      <c r="A228" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="H228" t="n" s="5">
+        <v>600.0</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="H229" t="n" s="5">
-        <v>31.37</v>
+        <v>4412.56</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="231">
-      <c r="B231" t="s" s="3">
-        <v>42</v>
-      </c>
-      <c r="C231" t="s" s="3">
-        <v>299</v>
-      </c>
-      <c r="D231" t="n" s="3">
-        <v>3300212.0</v>
-      </c>
-      <c r="E231" t="s" s="3">
-        <v>371</v>
-      </c>
-      <c r="F231" t="s" s="3">
+      <c r="A231" t="s" s="2">
         <v>372</v>
-      </c>
-      <c r="G231" t="s" s="3">
-        <v>302</v>
-      </c>
-      <c r="H231" t="n" s="4">
-        <v>25.99</v>
       </c>
     </row>
     <row r="232">
       <c r="B232" t="s" s="3">
-        <v>146</v>
+        <v>42</v>
       </c>
       <c r="C232" t="s" s="3">
         <v>299</v>
       </c>
-      <c r="D232" t="n" s="3">
-        <v>119025.0</v>
+      <c r="D232" t="s" s="3">
+        <v>373</v>
       </c>
       <c r="E232" t="s" s="3">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="F232" t="s" s="3">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="G232" t="s" s="3">
         <v>302</v>
       </c>
       <c r="H232" t="n" s="4">
-        <v>1.9</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="233">
       <c r="B233" t="s" s="3">
+        <v>332</v>
+      </c>
+      <c r="C233" t="s" s="3">
+        <v>290</v>
+      </c>
+      <c r="D233" t="n" s="3">
+        <v>5517958.0</v>
+      </c>
+      <c r="E233" t="s" s="3">
+        <v>374</v>
+      </c>
+      <c r="F233" t="s" s="3">
+        <v>376</v>
+      </c>
+      <c r="G233" t="s" s="3">
+        <v>293</v>
+      </c>
+      <c r="H233" t="n" s="4">
+        <v>6.37</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="H234" t="n" s="5">
+        <v>31.37</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="s" s="2">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="B236" t="s" s="3">
+        <v>42</v>
+      </c>
+      <c r="C236" t="s" s="3">
+        <v>299</v>
+      </c>
+      <c r="D236" t="n" s="3">
+        <v>3300212.0</v>
+      </c>
+      <c r="E236" t="s" s="3">
+        <v>379</v>
+      </c>
+      <c r="F236" t="s" s="3">
+        <v>380</v>
+      </c>
+      <c r="G236" t="s" s="3">
+        <v>302</v>
+      </c>
+      <c r="H236" t="n" s="4">
+        <v>25.99</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="B237" t="s" s="3">
         <v>146</v>
       </c>
-      <c r="C233" t="s" s="3">
-        <v>299</v>
-      </c>
-      <c r="D233" t="n" s="3">
+      <c r="C237" t="s" s="3">
+        <v>299</v>
+      </c>
+      <c r="D237" t="n" s="3">
         <v>119025.0</v>
       </c>
-      <c r="E233" t="s" s="3">
-        <v>373</v>
-      </c>
-      <c r="F233" t="s" s="3">
-        <v>375</v>
-      </c>
-      <c r="G233" t="s" s="3">
+      <c r="E237" t="s" s="3">
+        <v>381</v>
+      </c>
+      <c r="F237" t="s" s="3">
+        <v>382</v>
+      </c>
+      <c r="G237" t="s" s="3">
         <v>302</v>
       </c>
-      <c r="H233" t="n" s="4">
-        <v>16.97</v>
-      </c>
-    </row>
-    <row r="234">
-      <c r="B234" t="s" s="3">
-        <v>146</v>
-      </c>
-      <c r="C234" t="s" s="3">
-        <v>299</v>
-      </c>
-      <c r="D234" t="n" s="3">
-        <v>119025.0</v>
-      </c>
-      <c r="E234" t="s" s="3">
-        <v>373</v>
-      </c>
-      <c r="F234" t="s" s="3">
-        <v>374</v>
-      </c>
-      <c r="G234" t="s" s="3">
-        <v>302</v>
-      </c>
-      <c r="H234" t="n" s="4">
+      <c r="H237" t="n" s="4">
         <v>1.9</v>
-      </c>
-    </row>
-    <row r="235">
-      <c r="B235" t="s" s="3">
-        <v>146</v>
-      </c>
-      <c r="C235" t="s" s="3">
-        <v>299</v>
-      </c>
-      <c r="D235" t="n" s="3">
-        <v>119025.0</v>
-      </c>
-      <c r="E235" t="s" s="3">
-        <v>373</v>
-      </c>
-      <c r="F235" t="s" s="3">
-        <v>374</v>
-      </c>
-      <c r="G235" t="s" s="3">
-        <v>302</v>
-      </c>
-      <c r="H235" t="n" s="4">
-        <v>1.9</v>
-      </c>
-    </row>
-    <row r="236">
-      <c r="A236" t="s" s="2">
-        <v>376</v>
-      </c>
-      <c r="H236" t="n" s="5">
-        <v>48.66</v>
-      </c>
-    </row>
-    <row r="237">
-      <c r="A237" t="s" s="2">
-        <v>377</v>
       </c>
     </row>
     <row r="238">
       <c r="B238" t="s" s="3">
-        <v>164</v>
+        <v>146</v>
       </c>
       <c r="C238" t="s" s="3">
         <v>299</v>
       </c>
-      <c r="D238" t="s" s="3">
-        <v>378</v>
+      <c r="D238" t="n" s="3">
+        <v>119025.0</v>
       </c>
       <c r="E238" t="s" s="3">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="F238" t="s" s="3">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="G238" t="s" s="3">
         <v>302</v>
       </c>
       <c r="H238" t="n" s="4">
-        <v>452.4</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="239">
       <c r="B239" t="s" s="3">
-        <v>164</v>
+        <v>146</v>
       </c>
       <c r="C239" t="s" s="3">
         <v>299</v>
       </c>
-      <c r="D239" t="s" s="3">
-        <v>378</v>
+      <c r="D239" t="n" s="3">
+        <v>119025.0</v>
       </c>
       <c r="E239" t="s" s="3">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="F239" t="s" s="3">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="G239" t="s" s="3">
         <v>302</v>
       </c>
       <c r="H239" t="n" s="4">
-        <v>49.0</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="240">
       <c r="B240" t="s" s="3">
-        <v>164</v>
+        <v>146</v>
       </c>
       <c r="C240" t="s" s="3">
         <v>299</v>
       </c>
-      <c r="D240" t="s" s="3">
-        <v>378</v>
+      <c r="D240" t="n" s="3">
+        <v>119025.0</v>
       </c>
       <c r="E240" t="s" s="3">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="F240" t="s" s="3">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="G240" t="s" s="3">
         <v>302</v>
       </c>
       <c r="H240" t="n" s="4">
-        <v>-50.0</v>
+        <v>16.97</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="H241" t="n" s="5">
-        <v>451.4</v>
+        <v>48.66</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="243">
       <c r="B243" t="s" s="3">
-        <v>146</v>
+        <v>164</v>
       </c>
       <c r="C243" t="s" s="3">
-        <v>290</v>
-      </c>
-      <c r="D243" t="n" s="3">
-        <v>27817.0</v>
+        <v>299</v>
+      </c>
+      <c r="D243" t="s" s="3">
+        <v>386</v>
       </c>
       <c r="E243" t="s" s="3">
-        <v>306</v>
+        <v>387</v>
       </c>
       <c r="F243" t="s" s="3">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="G243" t="s" s="3">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="H243" t="n" s="4">
-        <v>170.18</v>
+        <v>452.4</v>
       </c>
     </row>
     <row r="244">
       <c r="B244" t="s" s="3">
-        <v>146</v>
+        <v>164</v>
       </c>
       <c r="C244" t="s" s="3">
-        <v>290</v>
-      </c>
-      <c r="D244" t="n" s="3">
-        <v>27817.0</v>
+        <v>299</v>
+      </c>
+      <c r="D244" t="s" s="3">
+        <v>386</v>
       </c>
       <c r="E244" t="s" s="3">
-        <v>306</v>
+        <v>387</v>
       </c>
       <c r="F244" t="s" s="3">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="G244" t="s" s="3">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="H244" t="n" s="4">
-        <v>50.0</v>
+        <v>-50.0</v>
       </c>
     </row>
     <row r="245">
       <c r="B245" t="s" s="3">
-        <v>146</v>
+        <v>164</v>
       </c>
       <c r="C245" t="s" s="3">
-        <v>290</v>
-      </c>
-      <c r="D245" t="n" s="3">
-        <v>27817.0</v>
+        <v>299</v>
+      </c>
+      <c r="D245" t="s" s="3">
+        <v>386</v>
       </c>
       <c r="E245" t="s" s="3">
-        <v>306</v>
+        <v>387</v>
       </c>
       <c r="F245" t="s" s="3">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="G245" t="s" s="3">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="H245" t="n" s="4">
-        <v>42.0</v>
+        <v>49.0</v>
       </c>
     </row>
     <row r="246">
-      <c r="B246" t="s" s="3">
-        <v>146</v>
-      </c>
-      <c r="C246" t="s" s="3">
-        <v>290</v>
-      </c>
-      <c r="D246" t="n" s="3">
-        <v>27817.0</v>
-      </c>
-      <c r="E246" t="s" s="3">
-        <v>306</v>
-      </c>
-      <c r="F246" t="s" s="3">
-        <v>388</v>
-      </c>
-      <c r="G246" t="s" s="3">
-        <v>293</v>
-      </c>
-      <c r="H246" t="n" s="4">
-        <v>14.0</v>
+      <c r="A246" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="H246" t="n" s="5">
+        <v>451.4</v>
       </c>
     </row>
     <row r="247">
-      <c r="B247" t="s" s="3">
-        <v>146</v>
-      </c>
-      <c r="C247" t="s" s="3">
-        <v>290</v>
-      </c>
-      <c r="D247" t="n" s="3">
-        <v>27817.0</v>
-      </c>
-      <c r="E247" t="s" s="3">
-        <v>306</v>
-      </c>
-      <c r="F247" t="s" s="3">
-        <v>389</v>
-      </c>
-      <c r="G247" t="s" s="3">
-        <v>293</v>
-      </c>
-      <c r="H247" t="n" s="4">
-        <v>240.0</v>
+      <c r="A247" t="s" s="2">
+        <v>392</v>
       </c>
     </row>
     <row r="248">
@@ -6746,7 +6762,7 @@
         <v>306</v>
       </c>
       <c r="F248" t="s" s="3">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="G248" t="s" s="3">
         <v>293</v>
@@ -6769,13 +6785,13 @@
         <v>306</v>
       </c>
       <c r="F249" t="s" s="3">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="G249" t="s" s="3">
         <v>293</v>
       </c>
       <c r="H249" t="n" s="4">
-        <v>30.0</v>
+        <v>170.18</v>
       </c>
     </row>
     <row r="250">
@@ -6792,177 +6808,187 @@
         <v>306</v>
       </c>
       <c r="F250" t="s" s="3">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="G250" t="s" s="3">
         <v>293</v>
       </c>
       <c r="H250" t="n" s="4">
+        <v>42.0</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="B251" t="s" s="3">
+        <v>146</v>
+      </c>
+      <c r="C251" t="s" s="3">
+        <v>290</v>
+      </c>
+      <c r="D251" t="n" s="3">
+        <v>27817.0</v>
+      </c>
+      <c r="E251" t="s" s="3">
+        <v>306</v>
+      </c>
+      <c r="F251" t="s" s="3">
+        <v>396</v>
+      </c>
+      <c r="G251" t="s" s="3">
+        <v>293</v>
+      </c>
+      <c r="H251" t="n" s="4">
         <v>1710.0</v>
       </c>
     </row>
-    <row r="251">
-      <c r="A251" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="H251" t="n" s="5">
-        <v>2271.18</v>
-      </c>
-    </row>
     <row r="252">
-      <c r="A252" t="s" s="2">
-        <v>394</v>
+      <c r="B252" t="s" s="3">
+        <v>146</v>
+      </c>
+      <c r="C252" t="s" s="3">
+        <v>290</v>
+      </c>
+      <c r="D252" t="n" s="3">
+        <v>27817.0</v>
+      </c>
+      <c r="E252" t="s" s="3">
+        <v>306</v>
+      </c>
+      <c r="F252" t="s" s="3">
+        <v>397</v>
+      </c>
+      <c r="G252" t="s" s="3">
+        <v>293</v>
+      </c>
+      <c r="H252" t="n" s="4">
+        <v>240.0</v>
       </c>
     </row>
     <row r="253">
       <c r="B253" t="s" s="3">
-        <v>209</v>
+        <v>146</v>
       </c>
       <c r="C253" t="s" s="3">
         <v>290</v>
       </c>
       <c r="D253" t="n" s="3">
-        <v>10196.0</v>
+        <v>27817.0</v>
       </c>
       <c r="E253" t="s" s="3">
-        <v>395</v>
+        <v>306</v>
       </c>
       <c r="F253" t="s" s="3">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="G253" t="s" s="3">
         <v>293</v>
       </c>
       <c r="H253" t="n" s="4">
-        <v>760.2</v>
+        <v>50.0</v>
       </c>
     </row>
     <row r="254">
       <c r="B254" t="s" s="3">
-        <v>209</v>
+        <v>146</v>
       </c>
       <c r="C254" t="s" s="3">
         <v>290</v>
       </c>
       <c r="D254" t="n" s="3">
-        <v>10196.0</v>
+        <v>27817.0</v>
       </c>
       <c r="E254" t="s" s="3">
-        <v>395</v>
+        <v>306</v>
       </c>
       <c r="F254" t="s" s="3">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="G254" t="s" s="3">
         <v>293</v>
       </c>
       <c r="H254" t="n" s="4">
-        <v>1800.0</v>
+        <v>14.0</v>
       </c>
     </row>
     <row r="255">
       <c r="B255" t="s" s="3">
-        <v>275</v>
+        <v>146</v>
       </c>
       <c r="C255" t="s" s="3">
-        <v>299</v>
-      </c>
-      <c r="D255" s="3"/>
+        <v>290</v>
+      </c>
+      <c r="D255" t="n" s="3">
+        <v>27817.0</v>
+      </c>
       <c r="E255" t="s" s="3">
-        <v>371</v>
+        <v>306</v>
       </c>
       <c r="F255" t="s" s="3">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="G255" t="s" s="3">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="H255" t="n" s="4">
-        <v>0.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="256">
-      <c r="B256" t="s" s="3">
-        <v>275</v>
-      </c>
-      <c r="C256" t="s" s="3">
-        <v>299</v>
-      </c>
-      <c r="D256" s="3"/>
-      <c r="E256" t="s" s="3">
-        <v>371</v>
-      </c>
-      <c r="F256" t="s" s="3">
-        <v>399</v>
-      </c>
-      <c r="G256" t="s" s="3">
-        <v>302</v>
-      </c>
-      <c r="H256" t="n" s="4">
-        <v>4.26</v>
+      <c r="A256" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="H256" t="n" s="5">
+        <v>2271.18</v>
       </c>
     </row>
     <row r="257">
-      <c r="B257" t="s" s="3">
-        <v>275</v>
-      </c>
-      <c r="C257" t="s" s="3">
-        <v>299</v>
-      </c>
-      <c r="D257" s="3"/>
-      <c r="E257" t="s" s="3">
-        <v>371</v>
-      </c>
-      <c r="F257" t="s" s="3">
-        <v>400</v>
-      </c>
-      <c r="G257" t="s" s="3">
-        <v>302</v>
-      </c>
-      <c r="H257" t="n" s="4">
-        <v>37.98</v>
+      <c r="A257" t="s" s="2">
+        <v>402</v>
       </c>
     </row>
     <row r="258">
       <c r="B258" t="s" s="3">
-        <v>275</v>
+        <v>209</v>
       </c>
       <c r="C258" t="s" s="3">
-        <v>299</v>
-      </c>
-      <c r="D258" s="3"/>
+        <v>290</v>
+      </c>
+      <c r="D258" t="n" s="3">
+        <v>10196.0</v>
+      </c>
       <c r="E258" t="s" s="3">
-        <v>371</v>
+        <v>403</v>
       </c>
       <c r="F258" t="s" s="3">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="G258" t="s" s="3">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="H258" t="n" s="4">
-        <v>15.98</v>
+        <v>1800.0</v>
       </c>
     </row>
     <row r="259">
       <c r="B259" t="s" s="3">
-        <v>275</v>
+        <v>209</v>
       </c>
       <c r="C259" t="s" s="3">
-        <v>299</v>
-      </c>
-      <c r="D259" s="3"/>
+        <v>290</v>
+      </c>
+      <c r="D259" t="n" s="3">
+        <v>10196.0</v>
+      </c>
       <c r="E259" t="s" s="3">
-        <v>371</v>
+        <v>403</v>
       </c>
       <c r="F259" t="s" s="3">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="G259" t="s" s="3">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="H259" t="n" s="4">
-        <v>33.98</v>
+        <v>760.2</v>
       </c>
     </row>
     <row r="260">
@@ -6974,322 +7000,314 @@
       </c>
       <c r="D260" s="3"/>
       <c r="E260" t="s" s="3">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="F260" t="s" s="3">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="G260" t="s" s="3">
         <v>302</v>
       </c>
       <c r="H260" t="n" s="4">
+        <v>33.98</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="B261" t="s" s="3">
+        <v>275</v>
+      </c>
+      <c r="C261" t="s" s="3">
+        <v>299</v>
+      </c>
+      <c r="D261" s="3"/>
+      <c r="E261" t="s" s="3">
+        <v>379</v>
+      </c>
+      <c r="F261" t="s" s="3">
+        <v>407</v>
+      </c>
+      <c r="G261" t="s" s="3">
+        <v>302</v>
+      </c>
+      <c r="H261" t="n" s="4">
+        <v>37.98</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="B262" t="s" s="3">
+        <v>275</v>
+      </c>
+      <c r="C262" t="s" s="3">
+        <v>299</v>
+      </c>
+      <c r="D262" s="3"/>
+      <c r="E262" t="s" s="3">
+        <v>379</v>
+      </c>
+      <c r="F262" t="s" s="3">
+        <v>408</v>
+      </c>
+      <c r="G262" t="s" s="3">
+        <v>302</v>
+      </c>
+      <c r="H262" t="n" s="4">
         <v>12.99</v>
-      </c>
-    </row>
-    <row r="261">
-      <c r="A261" t="s" s="2">
-        <v>404</v>
-      </c>
-      <c r="H261" t="n" s="5">
-        <v>2665.39</v>
-      </c>
-    </row>
-    <row r="262">
-      <c r="A262" t="s" s="2">
-        <v>405</v>
       </c>
     </row>
     <row r="263">
       <c r="B263" t="s" s="3">
-        <v>406</v>
+        <v>275</v>
       </c>
       <c r="C263" t="s" s="3">
         <v>299</v>
       </c>
       <c r="D263" s="3"/>
       <c r="E263" t="s" s="3">
-        <v>407</v>
+        <v>379</v>
       </c>
       <c r="F263" t="s" s="3">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="G263" t="s" s="3">
         <v>302</v>
       </c>
       <c r="H263" t="n" s="4">
-        <v>42.13</v>
+        <v>15.98</v>
       </c>
     </row>
     <row r="264">
       <c r="B264" t="s" s="3">
-        <v>409</v>
+        <v>275</v>
       </c>
       <c r="C264" t="s" s="3">
         <v>299</v>
       </c>
       <c r="D264" s="3"/>
       <c r="E264" t="s" s="3">
+        <v>379</v>
+      </c>
+      <c r="F264" t="s" s="3">
         <v>410</v>
-      </c>
-      <c r="F264" t="s" s="3">
-        <v>411</v>
       </c>
       <c r="G264" t="s" s="3">
         <v>302</v>
       </c>
       <c r="H264" t="n" s="4">
-        <v>1.83</v>
+        <v>4.26</v>
       </c>
     </row>
     <row r="265">
       <c r="B265" t="s" s="3">
-        <v>409</v>
+        <v>275</v>
       </c>
       <c r="C265" t="s" s="3">
         <v>299</v>
       </c>
       <c r="D265" s="3"/>
       <c r="E265" t="s" s="3">
-        <v>410</v>
+        <v>379</v>
       </c>
       <c r="F265" t="s" s="3">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="G265" t="s" s="3">
         <v>302</v>
       </c>
       <c r="H265" t="n" s="4">
-        <v>4.47</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="266">
-      <c r="B266" t="s" s="3">
-        <v>409</v>
-      </c>
-      <c r="C266" t="s" s="3">
-        <v>299</v>
-      </c>
-      <c r="D266" s="3"/>
-      <c r="E266" t="s" s="3">
-        <v>410</v>
-      </c>
-      <c r="F266" t="s" s="3">
+      <c r="A266" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="H266" t="n" s="5">
+        <v>2665.39</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="s" s="2">
         <v>413</v>
-      </c>
-      <c r="G266" t="s" s="3">
-        <v>302</v>
-      </c>
-      <c r="H266" t="n" s="4">
-        <v>11.96</v>
-      </c>
-    </row>
-    <row r="267">
-      <c r="B267" t="s" s="3">
-        <v>409</v>
-      </c>
-      <c r="C267" t="s" s="3">
-        <v>299</v>
-      </c>
-      <c r="D267" s="3"/>
-      <c r="E267" t="s" s="3">
-        <v>410</v>
-      </c>
-      <c r="F267" t="s" s="3">
-        <v>414</v>
-      </c>
-      <c r="G267" t="s" s="3">
-        <v>302</v>
-      </c>
-      <c r="H267" t="n" s="4">
-        <v>6.48</v>
       </c>
     </row>
     <row r="268">
       <c r="B268" t="s" s="3">
-        <v>409</v>
+        <v>414</v>
       </c>
       <c r="C268" t="s" s="3">
         <v>299</v>
       </c>
       <c r="D268" s="3"/>
       <c r="E268" t="s" s="3">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="F268" t="s" s="3">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="G268" t="s" s="3">
         <v>302</v>
       </c>
       <c r="H268" t="n" s="4">
-        <v>8.2</v>
+        <v>42.13</v>
       </c>
     </row>
     <row r="269">
       <c r="B269" t="s" s="3">
-        <v>409</v>
+        <v>417</v>
       </c>
       <c r="C269" t="s" s="3">
         <v>299</v>
       </c>
       <c r="D269" s="3"/>
       <c r="E269" t="s" s="3">
-        <v>410</v>
+        <v>418</v>
       </c>
       <c r="F269" t="s" s="3">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="G269" t="s" s="3">
         <v>302</v>
       </c>
       <c r="H269" t="n" s="4">
-        <v>9.92</v>
+        <v>4.47</v>
       </c>
     </row>
     <row r="270">
       <c r="B270" t="s" s="3">
-        <v>409</v>
+        <v>417</v>
       </c>
       <c r="C270" t="s" s="3">
         <v>299</v>
       </c>
       <c r="D270" s="3"/>
       <c r="E270" t="s" s="3">
-        <v>410</v>
+        <v>418</v>
       </c>
       <c r="F270" t="s" s="3">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="G270" t="s" s="3">
         <v>302</v>
       </c>
       <c r="H270" t="n" s="4">
-        <v>1.24</v>
+        <v>6.48</v>
       </c>
     </row>
     <row r="271">
       <c r="B271" t="s" s="3">
-        <v>409</v>
+        <v>417</v>
       </c>
       <c r="C271" t="s" s="3">
         <v>299</v>
       </c>
       <c r="D271" s="3"/>
       <c r="E271" t="s" s="3">
-        <v>410</v>
+        <v>418</v>
       </c>
       <c r="F271" t="s" s="3">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="G271" t="s" s="3">
         <v>302</v>
       </c>
       <c r="H271" t="n" s="4">
-        <v>5.92</v>
+        <v>8.2</v>
       </c>
     </row>
     <row r="272">
       <c r="B272" t="s" s="3">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="C272" t="s" s="3">
-        <v>420</v>
+        <v>299</v>
       </c>
       <c r="D272" s="3"/>
       <c r="E272" t="s" s="3">
-        <v>410</v>
+        <v>418</v>
       </c>
       <c r="F272" t="s" s="3">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="G272" t="s" s="3">
         <v>302</v>
       </c>
       <c r="H272" t="n" s="4">
-        <v>-10.72</v>
+        <v>5.92</v>
       </c>
     </row>
     <row r="273">
       <c r="B273" t="s" s="3">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="C273" t="s" s="3">
         <v>299</v>
       </c>
-      <c r="D273" t="s" s="3">
+      <c r="D273" s="3"/>
+      <c r="E273" t="s" s="3">
+        <v>418</v>
+      </c>
+      <c r="F273" t="s" s="3">
         <v>423</v>
-      </c>
-      <c r="E273" t="s" s="3">
-        <v>371</v>
-      </c>
-      <c r="F273" t="s" s="3">
-        <v>424</v>
       </c>
       <c r="G273" t="s" s="3">
         <v>302</v>
       </c>
       <c r="H273" t="n" s="4">
-        <v>-12.0</v>
+        <v>9.92</v>
       </c>
     </row>
     <row r="274">
       <c r="B274" t="s" s="3">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="C274" t="s" s="3">
         <v>299</v>
       </c>
-      <c r="D274" t="s" s="3">
-        <v>423</v>
-      </c>
+      <c r="D274" s="3"/>
       <c r="E274" t="s" s="3">
-        <v>371</v>
+        <v>418</v>
       </c>
       <c r="F274" t="s" s="3">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="G274" t="s" s="3">
         <v>302</v>
       </c>
       <c r="H274" t="n" s="4">
-        <v>24.99</v>
+        <v>1.83</v>
       </c>
     </row>
     <row r="275">
       <c r="B275" t="s" s="3">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="C275" t="s" s="3">
         <v>299</v>
       </c>
-      <c r="D275" t="s" s="3">
-        <v>423</v>
-      </c>
+      <c r="D275" s="3"/>
       <c r="E275" t="s" s="3">
-        <v>371</v>
+        <v>418</v>
       </c>
       <c r="F275" t="s" s="3">
-        <v>399</v>
+        <v>425</v>
       </c>
       <c r="G275" t="s" s="3">
         <v>302</v>
       </c>
       <c r="H275" t="n" s="4">
-        <v>30.59</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="276">
       <c r="B276" t="s" s="3">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="C276" t="s" s="3">
         <v>299</v>
       </c>
-      <c r="D276" t="s" s="3">
-        <v>423</v>
-      </c>
+      <c r="D276" s="3"/>
       <c r="E276" t="s" s="3">
-        <v>371</v>
+        <v>418</v>
       </c>
       <c r="F276" t="s" s="3">
         <v>426</v>
@@ -7298,360 +7316,358 @@
         <v>302</v>
       </c>
       <c r="H276" t="n" s="4">
-        <v>59.99</v>
+        <v>11.96</v>
       </c>
     </row>
     <row r="277">
       <c r="B277" t="s" s="3">
-        <v>422</v>
+        <v>427</v>
       </c>
       <c r="C277" t="s" s="3">
-        <v>299</v>
-      </c>
-      <c r="D277" t="s" s="3">
-        <v>423</v>
-      </c>
+        <v>428</v>
+      </c>
+      <c r="D277" s="3"/>
       <c r="E277" t="s" s="3">
-        <v>371</v>
+        <v>418</v>
       </c>
       <c r="F277" t="s" s="3">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="G277" t="s" s="3">
         <v>302</v>
       </c>
       <c r="H277" t="n" s="4">
-        <v>74.97</v>
+        <v>-10.72</v>
       </c>
     </row>
     <row r="278">
       <c r="B278" t="s" s="3">
-        <v>422</v>
+        <v>430</v>
       </c>
       <c r="C278" t="s" s="3">
         <v>299</v>
       </c>
-      <c r="D278" t="n" s="3">
-        <v>8997855.0</v>
+      <c r="D278" t="s" s="3">
+        <v>431</v>
       </c>
       <c r="E278" t="s" s="3">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="F278" t="s" s="3">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="G278" t="s" s="3">
         <v>302</v>
       </c>
       <c r="H278" t="n" s="4">
-        <v>79.94</v>
+        <v>59.99</v>
       </c>
     </row>
     <row r="279">
       <c r="B279" t="s" s="3">
-        <v>422</v>
+        <v>430</v>
       </c>
       <c r="C279" t="s" s="3">
         <v>299</v>
       </c>
-      <c r="D279" t="n" s="3">
-        <v>2343429.0</v>
+      <c r="D279" t="s" s="3">
+        <v>431</v>
       </c>
       <c r="E279" t="s" s="3">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="F279" t="s" s="3">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="G279" t="s" s="3">
         <v>302</v>
       </c>
       <c r="H279" t="n" s="4">
-        <v>100.0</v>
+        <v>74.97</v>
       </c>
     </row>
     <row r="280">
       <c r="B280" t="s" s="3">
-        <v>422</v>
+        <v>430</v>
       </c>
       <c r="C280" t="s" s="3">
         <v>299</v>
       </c>
       <c r="D280" t="s" s="3">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="E280" t="s" s="3">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="F280" t="s" s="3">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="G280" t="s" s="3">
         <v>302</v>
       </c>
       <c r="H280" t="n" s="4">
-        <v>169.99</v>
+        <v>24.99</v>
       </c>
     </row>
     <row r="281">
       <c r="B281" t="s" s="3">
-        <v>422</v>
+        <v>430</v>
       </c>
       <c r="C281" t="s" s="3">
         <v>299</v>
       </c>
-      <c r="D281" t="s" s="3">
-        <v>423</v>
+      <c r="D281" t="n" s="3">
+        <v>8997855.0</v>
       </c>
       <c r="E281" t="s" s="3">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="F281" t="s" s="3">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="G281" t="s" s="3">
         <v>302</v>
       </c>
       <c r="H281" t="n" s="4">
-        <v>358.0</v>
+        <v>79.94</v>
       </c>
     </row>
     <row r="282">
       <c r="B282" t="s" s="3">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="C282" t="s" s="3">
-        <v>420</v>
-      </c>
-      <c r="D282" s="3"/>
+        <v>299</v>
+      </c>
+      <c r="D282" t="s" s="3">
+        <v>431</v>
+      </c>
       <c r="E282" t="s" s="3">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="F282" t="s" s="3">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="G282" t="s" s="3">
         <v>302</v>
       </c>
       <c r="H282" t="n" s="4">
-        <v>-6.26</v>
+        <v>358.0</v>
       </c>
     </row>
     <row r="283">
-      <c r="A283" t="s" s="2">
-        <v>435</v>
-      </c>
-      <c r="H283" t="n" s="5">
-        <v>961.64</v>
+      <c r="B283" t="s" s="3">
+        <v>430</v>
+      </c>
+      <c r="C283" t="s" s="3">
+        <v>299</v>
+      </c>
+      <c r="D283" t="s" s="3">
+        <v>431</v>
+      </c>
+      <c r="E283" t="s" s="3">
+        <v>379</v>
+      </c>
+      <c r="F283" t="s" s="3">
+        <v>437</v>
+      </c>
+      <c r="G283" t="s" s="3">
+        <v>302</v>
+      </c>
+      <c r="H283" t="n" s="4">
+        <v>-12.0</v>
       </c>
     </row>
     <row r="284">
-      <c r="A284" t="s" s="2">
-        <v>436</v>
+      <c r="B284" t="s" s="3">
+        <v>430</v>
+      </c>
+      <c r="C284" t="s" s="3">
+        <v>299</v>
+      </c>
+      <c r="D284" t="s" s="3">
+        <v>431</v>
+      </c>
+      <c r="E284" t="s" s="3">
+        <v>379</v>
+      </c>
+      <c r="F284" t="s" s="3">
+        <v>410</v>
+      </c>
+      <c r="G284" t="s" s="3">
+        <v>302</v>
+      </c>
+      <c r="H284" t="n" s="4">
+        <v>30.59</v>
       </c>
     </row>
     <row r="285">
       <c r="B285" t="s" s="3">
-        <v>275</v>
+        <v>430</v>
       </c>
       <c r="C285" t="s" s="3">
-        <v>290</v>
-      </c>
-      <c r="D285" s="3"/>
+        <v>299</v>
+      </c>
+      <c r="D285" t="s" s="3">
+        <v>438</v>
+      </c>
       <c r="E285" t="s" s="3">
-        <v>437</v>
+        <v>379</v>
       </c>
       <c r="F285" t="s" s="3">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="G285" t="s" s="3">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="H285" t="n" s="4">
-        <v>1000.0</v>
+        <v>169.99</v>
       </c>
     </row>
     <row r="286">
       <c r="B286" t="s" s="3">
-        <v>275</v>
+        <v>430</v>
       </c>
       <c r="C286" t="s" s="3">
-        <v>290</v>
-      </c>
-      <c r="D286" s="3"/>
+        <v>299</v>
+      </c>
+      <c r="D286" t="n" s="3">
+        <v>2343429.0</v>
+      </c>
       <c r="E286" t="s" s="3">
-        <v>437</v>
+        <v>379</v>
       </c>
       <c r="F286" t="s" s="3">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="G286" t="s" s="3">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="H286" t="n" s="4">
-        <v>338.99</v>
+        <v>100.0</v>
       </c>
     </row>
     <row r="287">
       <c r="B287" t="s" s="3">
-        <v>275</v>
+        <v>441</v>
       </c>
       <c r="C287" t="s" s="3">
-        <v>290</v>
+        <v>428</v>
       </c>
       <c r="D287" s="3"/>
       <c r="E287" t="s" s="3">
-        <v>437</v>
+        <v>379</v>
       </c>
       <c r="F287" t="s" s="3">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="G287" t="s" s="3">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="H287" t="n" s="4">
-        <v>-500.0</v>
+        <v>-6.26</v>
       </c>
     </row>
     <row r="288">
-      <c r="B288" t="s" s="3">
-        <v>275</v>
-      </c>
-      <c r="C288" t="s" s="3">
-        <v>290</v>
-      </c>
-      <c r="D288" s="3"/>
-      <c r="E288" t="s" s="3">
-        <v>437</v>
-      </c>
-      <c r="F288" t="s" s="3">
-        <v>441</v>
-      </c>
-      <c r="G288" t="s" s="3">
-        <v>293</v>
-      </c>
-      <c r="H288" t="n" s="4">
-        <v>3185.0</v>
+      <c r="A288" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="H288" t="n" s="5">
+        <v>961.64</v>
       </c>
     </row>
     <row r="289">
-      <c r="B289" t="s" s="3">
-        <v>442</v>
-      </c>
-      <c r="C289" t="s" s="3">
-        <v>299</v>
-      </c>
-      <c r="D289" t="n" s="3">
-        <v>550835.0</v>
-      </c>
-      <c r="E289" t="s" s="3">
-        <v>410</v>
-      </c>
-      <c r="F289" t="s" s="3">
-        <v>443</v>
-      </c>
-      <c r="G289" t="s" s="3">
-        <v>302</v>
-      </c>
-      <c r="H289" t="n" s="4">
-        <v>2.0</v>
+      <c r="A289" t="s" s="2">
+        <v>444</v>
       </c>
     </row>
     <row r="290">
       <c r="B290" t="s" s="3">
-        <v>442</v>
+        <v>275</v>
       </c>
       <c r="C290" t="s" s="3">
-        <v>299</v>
-      </c>
-      <c r="D290" t="n" s="3">
-        <v>550835.0</v>
-      </c>
+        <v>290</v>
+      </c>
+      <c r="D290" s="3"/>
       <c r="E290" t="s" s="3">
-        <v>410</v>
+        <v>445</v>
       </c>
       <c r="F290" t="s" s="3">
-        <v>417</v>
+        <v>446</v>
       </c>
       <c r="G290" t="s" s="3">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="H290" t="n" s="4">
-        <v>0.79</v>
+        <v>338.99</v>
       </c>
     </row>
     <row r="291">
       <c r="B291" t="s" s="3">
-        <v>442</v>
+        <v>275</v>
       </c>
       <c r="C291" t="s" s="3">
-        <v>299</v>
-      </c>
-      <c r="D291" t="n" s="3">
-        <v>550835.0</v>
-      </c>
+        <v>290</v>
+      </c>
+      <c r="D291" s="3"/>
       <c r="E291" t="s" s="3">
-        <v>410</v>
+        <v>445</v>
       </c>
       <c r="F291" t="s" s="3">
-        <v>411</v>
+        <v>447</v>
       </c>
       <c r="G291" t="s" s="3">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="H291" t="n" s="4">
-        <v>0.39</v>
+        <v>1000.0</v>
       </c>
     </row>
     <row r="292">
       <c r="B292" t="s" s="3">
-        <v>442</v>
+        <v>275</v>
       </c>
       <c r="C292" t="s" s="3">
-        <v>299</v>
-      </c>
-      <c r="D292" t="n" s="3">
-        <v>550835.0</v>
-      </c>
+        <v>290</v>
+      </c>
+      <c r="D292" s="3"/>
       <c r="E292" t="s" s="3">
-        <v>410</v>
+        <v>445</v>
       </c>
       <c r="F292" t="s" s="3">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="G292" t="s" s="3">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="H292" t="n" s="4">
-        <v>2.64</v>
+        <v>3185.0</v>
       </c>
     </row>
     <row r="293">
       <c r="B293" t="s" s="3">
-        <v>442</v>
+        <v>275</v>
       </c>
       <c r="C293" t="s" s="3">
-        <v>299</v>
-      </c>
-      <c r="D293" t="n" s="3">
-        <v>550835.0</v>
-      </c>
+        <v>290</v>
+      </c>
+      <c r="D293" s="3"/>
       <c r="E293" t="s" s="3">
-        <v>410</v>
+        <v>445</v>
       </c>
       <c r="F293" t="s" s="3">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="G293" t="s" s="3">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="H293" t="n" s="4">
-        <v>5.0</v>
+        <v>-500.0</v>
       </c>
     </row>
     <row r="294">
       <c r="B294" t="s" s="3">
-        <v>442</v>
+        <v>450</v>
       </c>
       <c r="C294" t="s" s="3">
         <v>299</v>
@@ -7660,21 +7676,21 @@
         <v>550835.0</v>
       </c>
       <c r="E294" t="s" s="3">
-        <v>410</v>
+        <v>418</v>
       </c>
       <c r="F294" t="s" s="3">
-        <v>446</v>
+        <v>451</v>
       </c>
       <c r="G294" t="s" s="3">
         <v>302</v>
       </c>
       <c r="H294" t="n" s="4">
-        <v>3.24</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="295">
       <c r="B295" t="s" s="3">
-        <v>442</v>
+        <v>450</v>
       </c>
       <c r="C295" t="s" s="3">
         <v>299</v>
@@ -7683,58 +7699,62 @@
         <v>550835.0</v>
       </c>
       <c r="E295" t="s" s="3">
-        <v>410</v>
+        <v>418</v>
       </c>
       <c r="F295" t="s" s="3">
-        <v>447</v>
+        <v>452</v>
       </c>
       <c r="G295" t="s" s="3">
         <v>302</v>
       </c>
       <c r="H295" t="n" s="4">
-        <v>2.64</v>
+        <v>3.24</v>
       </c>
     </row>
     <row r="296">
       <c r="B296" t="s" s="3">
-        <v>280</v>
+        <v>450</v>
       </c>
       <c r="C296" t="s" s="3">
-        <v>290</v>
-      </c>
-      <c r="D296" s="3"/>
+        <v>299</v>
+      </c>
+      <c r="D296" t="n" s="3">
+        <v>550835.0</v>
+      </c>
       <c r="E296" t="s" s="3">
-        <v>437</v>
+        <v>418</v>
       </c>
       <c r="F296" t="s" s="3">
-        <v>448</v>
+        <v>453</v>
       </c>
       <c r="G296" t="s" s="3">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="H296" t="n" s="4">
-        <v>610.65</v>
+        <v>2.64</v>
       </c>
     </row>
     <row r="297">
       <c r="B297" t="s" s="3">
-        <v>280</v>
+        <v>450</v>
       </c>
       <c r="C297" t="s" s="3">
-        <v>290</v>
-      </c>
-      <c r="D297" s="3"/>
+        <v>299</v>
+      </c>
+      <c r="D297" t="n" s="3">
+        <v>550835.0</v>
+      </c>
       <c r="E297" t="s" s="3">
-        <v>437</v>
+        <v>418</v>
       </c>
       <c r="F297" t="s" s="3">
-        <v>449</v>
+        <v>454</v>
       </c>
       <c r="G297" t="s" s="3">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="H297" t="n" s="4">
-        <v>100.0</v>
+        <v>2.64</v>
       </c>
     </row>
     <row r="298">
@@ -7742,20 +7762,22 @@
         <v>450</v>
       </c>
       <c r="C298" t="s" s="3">
-        <v>290</v>
-      </c>
-      <c r="D298" s="3"/>
+        <v>299</v>
+      </c>
+      <c r="D298" t="n" s="3">
+        <v>550835.0</v>
+      </c>
       <c r="E298" t="s" s="3">
-        <v>437</v>
+        <v>418</v>
       </c>
       <c r="F298" t="s" s="3">
-        <v>439</v>
+        <v>425</v>
       </c>
       <c r="G298" t="s" s="3">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="H298" t="n" s="4">
-        <v>42.36</v>
+        <v>0.79</v>
       </c>
     </row>
     <row r="299">
@@ -7763,698 +7785,692 @@
         <v>450</v>
       </c>
       <c r="C299" t="s" s="3">
+        <v>299</v>
+      </c>
+      <c r="D299" t="n" s="3">
+        <v>550835.0</v>
+      </c>
+      <c r="E299" t="s" s="3">
+        <v>418</v>
+      </c>
+      <c r="F299" t="s" s="3">
+        <v>424</v>
+      </c>
+      <c r="G299" t="s" s="3">
+        <v>302</v>
+      </c>
+      <c r="H299" t="n" s="4">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="B300" t="s" s="3">
+        <v>450</v>
+      </c>
+      <c r="C300" t="s" s="3">
+        <v>299</v>
+      </c>
+      <c r="D300" t="n" s="3">
+        <v>550835.0</v>
+      </c>
+      <c r="E300" t="s" s="3">
+        <v>418</v>
+      </c>
+      <c r="F300" t="s" s="3">
+        <v>455</v>
+      </c>
+      <c r="G300" t="s" s="3">
+        <v>302</v>
+      </c>
+      <c r="H300" t="n" s="4">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="B301" t="s" s="3">
+        <v>280</v>
+      </c>
+      <c r="C301" t="s" s="3">
         <v>290</v>
       </c>
-      <c r="D299" s="3"/>
-      <c r="E299" t="s" s="3">
-        <v>437</v>
-      </c>
-      <c r="F299" t="s" s="3">
-        <v>451</v>
-      </c>
-      <c r="G299" t="s" s="3">
+      <c r="D301" s="3"/>
+      <c r="E301" t="s" s="3">
+        <v>445</v>
+      </c>
+      <c r="F301" t="s" s="3">
+        <v>456</v>
+      </c>
+      <c r="G301" t="s" s="3">
         <v>293</v>
       </c>
-      <c r="H299" t="n" s="4">
-        <v>523.0</v>
-      </c>
-    </row>
-    <row r="300">
-      <c r="A300" t="s" s="2">
-        <v>452</v>
-      </c>
-      <c r="H300" t="n" s="5">
-        <v>5316.7</v>
-      </c>
-    </row>
-    <row r="301">
-      <c r="A301" t="s" s="2">
-        <v>453</v>
+      <c r="H301" t="n" s="4">
+        <v>100.0</v>
       </c>
     </row>
     <row r="302">
       <c r="B302" t="s" s="3">
-        <v>16</v>
+        <v>280</v>
       </c>
       <c r="C302" t="s" s="3">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="D302" s="3"/>
       <c r="E302" t="s" s="3">
-        <v>311</v>
+        <v>445</v>
       </c>
       <c r="F302" t="s" s="3">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="G302" t="s" s="3">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="H302" t="n" s="4">
-        <v>52.45</v>
+        <v>610.65</v>
       </c>
     </row>
     <row r="303">
       <c r="B303" t="s" s="3">
-        <v>16</v>
+        <v>458</v>
       </c>
       <c r="C303" t="s" s="3">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="D303" s="3"/>
       <c r="E303" t="s" s="3">
-        <v>311</v>
+        <v>445</v>
       </c>
       <c r="F303" t="s" s="3">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="G303" t="s" s="3">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="H303" t="n" s="4">
-        <v>26.35</v>
+        <v>523.0</v>
       </c>
     </row>
     <row r="304">
       <c r="B304" t="s" s="3">
-        <v>16</v>
+        <v>458</v>
       </c>
       <c r="C304" t="s" s="3">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="D304" s="3"/>
       <c r="E304" t="s" s="3">
+        <v>445</v>
+      </c>
+      <c r="F304" t="s" s="3">
+        <v>446</v>
+      </c>
+      <c r="G304" t="s" s="3">
+        <v>293</v>
+      </c>
+      <c r="H304" t="n" s="4">
+        <v>42.36</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="H305" t="n" s="5">
+        <v>5316.7</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="s" s="2">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="B307" t="s" s="3">
+        <v>16</v>
+      </c>
+      <c r="C307" t="s" s="3">
+        <v>299</v>
+      </c>
+      <c r="D307" s="3"/>
+      <c r="E307" t="s" s="3">
         <v>311</v>
       </c>
-      <c r="F304" t="s" s="3">
-        <v>456</v>
-      </c>
-      <c r="G304" t="s" s="3">
+      <c r="F307" t="s" s="3">
+        <v>462</v>
+      </c>
+      <c r="G307" t="s" s="3">
         <v>302</v>
       </c>
-      <c r="H304" t="n" s="4">
+      <c r="H307" t="n" s="4">
         <v>52.45</v>
       </c>
     </row>
-    <row r="305">
-      <c r="B305" t="s" s="3">
-        <v>209</v>
-      </c>
-      <c r="C305" t="s" s="3">
-        <v>299</v>
-      </c>
-      <c r="D305" s="3"/>
-      <c r="E305" t="s" s="3">
+    <row r="308">
+      <c r="B308" t="s" s="3">
+        <v>16</v>
+      </c>
+      <c r="C308" t="s" s="3">
+        <v>299</v>
+      </c>
+      <c r="D308" s="3"/>
+      <c r="E308" t="s" s="3">
         <v>311</v>
       </c>
-      <c r="F305" t="s" s="3">
-        <v>457</v>
-      </c>
-      <c r="G305" t="s" s="3">
+      <c r="F308" t="s" s="3">
+        <v>463</v>
+      </c>
+      <c r="G308" t="s" s="3">
         <v>302</v>
       </c>
-      <c r="H305" t="n" s="4">
-        <v>10.0</v>
-      </c>
-    </row>
-    <row r="306">
-      <c r="B306" t="s" s="3">
-        <v>209</v>
-      </c>
-      <c r="C306" t="s" s="3">
-        <v>299</v>
-      </c>
-      <c r="D306" s="3"/>
-      <c r="E306" t="s" s="3">
-        <v>311</v>
-      </c>
-      <c r="F306" t="s" s="3">
-        <v>458</v>
-      </c>
-      <c r="G306" t="s" s="3">
-        <v>302</v>
-      </c>
-      <c r="H306" t="n" s="4">
-        <v>13.3</v>
-      </c>
-    </row>
-    <row r="307">
-      <c r="A307" t="s" s="2">
-        <v>459</v>
-      </c>
-      <c r="H307" t="n" s="5">
-        <v>154.55</v>
-      </c>
-    </row>
-    <row r="308">
-      <c r="A308" t="s" s="2">
-        <v>460</v>
+      <c r="H308" t="n" s="4">
+        <v>26.35</v>
       </c>
     </row>
     <row r="309">
       <c r="B309" t="s" s="3">
-        <v>209</v>
+        <v>16</v>
       </c>
       <c r="C309" t="s" s="3">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="D309" s="3"/>
       <c r="E309" t="s" s="3">
-        <v>461</v>
+        <v>311</v>
       </c>
       <c r="F309" t="s" s="3">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="G309" t="s" s="3">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="H309" t="n" s="4">
-        <v>4.99</v>
+        <v>52.45</v>
       </c>
     </row>
     <row r="310">
-      <c r="A310" t="s" s="2">
-        <v>463</v>
-      </c>
-      <c r="H310" t="n" s="5">
-        <v>4.99</v>
+      <c r="B310" t="s" s="3">
+        <v>209</v>
+      </c>
+      <c r="C310" t="s" s="3">
+        <v>299</v>
+      </c>
+      <c r="D310" s="3"/>
+      <c r="E310" t="s" s="3">
+        <v>311</v>
+      </c>
+      <c r="F310" t="s" s="3">
+        <v>465</v>
+      </c>
+      <c r="G310" t="s" s="3">
+        <v>302</v>
+      </c>
+      <c r="H310" t="n" s="4">
+        <v>10.0</v>
       </c>
     </row>
     <row r="311">
-      <c r="A311" t="s" s="2">
-        <v>464</v>
+      <c r="B311" t="s" s="3">
+        <v>209</v>
+      </c>
+      <c r="C311" t="s" s="3">
+        <v>299</v>
+      </c>
+      <c r="D311" s="3"/>
+      <c r="E311" t="s" s="3">
+        <v>311</v>
+      </c>
+      <c r="F311" t="s" s="3">
+        <v>466</v>
+      </c>
+      <c r="G311" t="s" s="3">
+        <v>302</v>
+      </c>
+      <c r="H311" t="n" s="4">
+        <v>13.3</v>
       </c>
     </row>
     <row r="312">
-      <c r="B312" t="s" s="3">
-        <v>98</v>
-      </c>
-      <c r="C312" t="s" s="3">
-        <v>299</v>
-      </c>
-      <c r="D312" s="3"/>
-      <c r="E312" t="s" s="3">
-        <v>465</v>
-      </c>
-      <c r="F312" t="s" s="3">
-        <v>466</v>
-      </c>
-      <c r="G312" t="s" s="3">
-        <v>65</v>
-      </c>
-      <c r="H312" t="n" s="4">
-        <v>27.69</v>
+      <c r="A312" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="H312" t="n" s="5">
+        <v>154.55</v>
       </c>
     </row>
     <row r="313">
-      <c r="B313" t="s" s="3">
-        <v>467</v>
-      </c>
-      <c r="C313" t="s" s="3">
-        <v>299</v>
-      </c>
-      <c r="D313" s="3"/>
-      <c r="E313" t="s" s="3">
-        <v>465</v>
-      </c>
-      <c r="F313" t="s" s="3">
+      <c r="A313" t="s" s="2">
         <v>468</v>
-      </c>
-      <c r="G313" t="s" s="3">
-        <v>65</v>
-      </c>
-      <c r="H313" t="n" s="4">
-        <v>3.2</v>
       </c>
     </row>
     <row r="314">
       <c r="B314" t="s" s="3">
-        <v>469</v>
+        <v>209</v>
       </c>
       <c r="C314" t="s" s="3">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="D314" s="3"/>
       <c r="E314" t="s" s="3">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="F314" t="s" s="3">
         <v>470</v>
       </c>
       <c r="G314" t="s" s="3">
-        <v>65</v>
+        <v>293</v>
       </c>
       <c r="H314" t="n" s="4">
-        <v>1.75</v>
+        <v>4.99</v>
       </c>
     </row>
     <row r="315">
-      <c r="B315" t="s" s="3">
-        <v>38</v>
-      </c>
-      <c r="C315" t="s" s="3">
-        <v>299</v>
-      </c>
-      <c r="D315" s="3"/>
-      <c r="E315" t="s" s="3">
-        <v>465</v>
-      </c>
-      <c r="F315" t="s" s="3">
-        <v>468</v>
-      </c>
-      <c r="G315" t="s" s="3">
-        <v>65</v>
-      </c>
-      <c r="H315" t="n" s="4">
-        <v>3.2</v>
+      <c r="A315" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="H315" t="n" s="5">
+        <v>4.99</v>
       </c>
     </row>
     <row r="316">
-      <c r="B316" t="s" s="3">
-        <v>113</v>
-      </c>
-      <c r="C316" t="s" s="3">
-        <v>299</v>
-      </c>
-      <c r="D316" s="3"/>
-      <c r="E316" t="s" s="3">
-        <v>465</v>
-      </c>
-      <c r="F316" t="s" s="3">
-        <v>468</v>
-      </c>
-      <c r="G316" t="s" s="3">
-        <v>65</v>
-      </c>
-      <c r="H316" t="n" s="4">
-        <v>3.2</v>
+      <c r="A316" t="s" s="2">
+        <v>472</v>
       </c>
     </row>
     <row r="317">
       <c r="B317" t="s" s="3">
-        <v>40</v>
+        <v>98</v>
       </c>
       <c r="C317" t="s" s="3">
         <v>299</v>
       </c>
       <c r="D317" s="3"/>
       <c r="E317" t="s" s="3">
-        <v>465</v>
+        <v>473</v>
       </c>
       <c r="F317" t="s" s="3">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="G317" t="s" s="3">
         <v>65</v>
       </c>
       <c r="H317" t="n" s="4">
-        <v>6.99</v>
+        <v>27.69</v>
       </c>
     </row>
     <row r="318">
       <c r="B318" t="s" s="3">
-        <v>128</v>
+        <v>475</v>
       </c>
       <c r="C318" t="s" s="3">
         <v>299</v>
       </c>
       <c r="D318" s="3"/>
       <c r="E318" t="s" s="3">
-        <v>465</v>
+        <v>473</v>
       </c>
       <c r="F318" t="s" s="3">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="G318" t="s" s="3">
         <v>65</v>
       </c>
       <c r="H318" t="n" s="4">
-        <v>11.04</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="319">
       <c r="B319" t="s" s="3">
-        <v>133</v>
+        <v>477</v>
       </c>
       <c r="C319" t="s" s="3">
         <v>299</v>
       </c>
       <c r="D319" s="3"/>
       <c r="E319" t="s" s="3">
-        <v>465</v>
+        <v>473</v>
       </c>
       <c r="F319" t="s" s="3">
-        <v>473</v>
+        <v>478</v>
       </c>
       <c r="G319" t="s" s="3">
         <v>65</v>
       </c>
       <c r="H319" t="n" s="4">
-        <v>4.08</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="320">
       <c r="B320" t="s" s="3">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="C320" t="s" s="3">
         <v>299</v>
       </c>
       <c r="D320" s="3"/>
       <c r="E320" t="s" s="3">
-        <v>465</v>
+        <v>473</v>
       </c>
       <c r="F320" t="s" s="3">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="G320" t="s" s="3">
         <v>65</v>
       </c>
       <c r="H320" t="n" s="4">
-        <v>13.08</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="321">
       <c r="B321" t="s" s="3">
-        <v>48</v>
+        <v>113</v>
       </c>
       <c r="C321" t="s" s="3">
         <v>299</v>
       </c>
       <c r="D321" s="3"/>
       <c r="E321" t="s" s="3">
-        <v>465</v>
+        <v>473</v>
       </c>
       <c r="F321" t="s" s="3">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="G321" t="s" s="3">
         <v>65</v>
       </c>
       <c r="H321" t="n" s="4">
-        <v>10.18</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="322">
       <c r="B322" t="s" s="3">
-        <v>164</v>
+        <v>40</v>
       </c>
       <c r="C322" t="s" s="3">
         <v>299</v>
       </c>
       <c r="D322" s="3"/>
       <c r="E322" t="s" s="3">
-        <v>465</v>
+        <v>473</v>
       </c>
       <c r="F322" t="s" s="3">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="G322" t="s" s="3">
         <v>65</v>
       </c>
       <c r="H322" t="n" s="4">
-        <v>15.4</v>
+        <v>6.99</v>
       </c>
     </row>
     <row r="323">
       <c r="B323" t="s" s="3">
-        <v>184</v>
+        <v>128</v>
       </c>
       <c r="C323" t="s" s="3">
         <v>299</v>
       </c>
       <c r="D323" s="3"/>
       <c r="E323" t="s" s="3">
-        <v>465</v>
+        <v>473</v>
       </c>
       <c r="F323" t="s" s="3">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="G323" t="s" s="3">
         <v>65</v>
       </c>
       <c r="H323" t="n" s="4">
-        <v>3.5</v>
+        <v>11.04</v>
       </c>
     </row>
     <row r="324">
       <c r="B324" t="s" s="3">
-        <v>57</v>
+        <v>133</v>
       </c>
       <c r="C324" t="s" s="3">
         <v>299</v>
       </c>
       <c r="D324" s="3"/>
       <c r="E324" t="s" s="3">
-        <v>465</v>
+        <v>473</v>
       </c>
       <c r="F324" t="s" s="3">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="G324" t="s" s="3">
         <v>65</v>
       </c>
       <c r="H324" t="n" s="4">
-        <v>6.7</v>
+        <v>4.08</v>
       </c>
     </row>
     <row r="325">
       <c r="B325" t="s" s="3">
-        <v>209</v>
+        <v>45</v>
       </c>
       <c r="C325" t="s" s="3">
         <v>299</v>
       </c>
       <c r="D325" s="3"/>
       <c r="E325" t="s" s="3">
-        <v>465</v>
+        <v>473</v>
       </c>
       <c r="F325" t="s" s="3">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="G325" t="s" s="3">
         <v>65</v>
       </c>
       <c r="H325" t="n" s="4">
-        <v>19.48</v>
+        <v>13.08</v>
       </c>
     </row>
     <row r="326">
       <c r="B326" t="s" s="3">
-        <v>262</v>
+        <v>48</v>
       </c>
       <c r="C326" t="s" s="3">
         <v>299</v>
       </c>
       <c r="D326" s="3"/>
       <c r="E326" t="s" s="3">
-        <v>465</v>
+        <v>473</v>
       </c>
       <c r="F326" t="s" s="3">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="G326" t="s" s="3">
         <v>65</v>
       </c>
       <c r="H326" t="n" s="4">
-        <v>26.78</v>
+        <v>10.18</v>
       </c>
     </row>
     <row r="327">
       <c r="B327" t="s" s="3">
-        <v>419</v>
+        <v>164</v>
       </c>
       <c r="C327" t="s" s="3">
         <v>299</v>
       </c>
       <c r="D327" s="3"/>
       <c r="E327" t="s" s="3">
-        <v>465</v>
+        <v>473</v>
       </c>
       <c r="F327" t="s" s="3">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="G327" t="s" s="3">
         <v>65</v>
       </c>
       <c r="H327" t="n" s="4">
-        <v>10.78</v>
+        <v>15.4</v>
       </c>
     </row>
     <row r="328">
       <c r="B328" t="s" s="3">
-        <v>450</v>
+        <v>184</v>
       </c>
       <c r="C328" t="s" s="3">
         <v>299</v>
       </c>
       <c r="D328" s="3"/>
       <c r="E328" t="s" s="3">
-        <v>465</v>
+        <v>473</v>
       </c>
       <c r="F328" t="s" s="3">
-        <v>468</v>
+        <v>485</v>
       </c>
       <c r="G328" t="s" s="3">
         <v>65</v>
       </c>
       <c r="H328" t="n" s="4">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="329">
-      <c r="A329" t="s" s="2">
-        <v>482</v>
-      </c>
-      <c r="H329" t="n" s="5">
-        <v>170.25</v>
+      <c r="B329" t="s" s="3">
+        <v>57</v>
+      </c>
+      <c r="C329" t="s" s="3">
+        <v>299</v>
+      </c>
+      <c r="D329" s="3"/>
+      <c r="E329" t="s" s="3">
+        <v>473</v>
+      </c>
+      <c r="F329" t="s" s="3">
+        <v>486</v>
+      </c>
+      <c r="G329" t="s" s="3">
+        <v>65</v>
+      </c>
+      <c r="H329" t="n" s="4">
+        <v>6.7</v>
       </c>
     </row>
     <row r="330">
-      <c r="A330" t="s" s="2">
-        <v>483</v>
+      <c r="B330" t="s" s="3">
+        <v>209</v>
+      </c>
+      <c r="C330" t="s" s="3">
+        <v>299</v>
+      </c>
+      <c r="D330" s="3"/>
+      <c r="E330" t="s" s="3">
+        <v>473</v>
+      </c>
+      <c r="F330" t="s" s="3">
+        <v>487</v>
+      </c>
+      <c r="G330" t="s" s="3">
+        <v>65</v>
+      </c>
+      <c r="H330" t="n" s="4">
+        <v>19.48</v>
       </c>
     </row>
     <row r="331">
       <c r="B331" t="s" s="3">
-        <v>406</v>
+        <v>262</v>
       </c>
       <c r="C331" t="s" s="3">
         <v>299</v>
       </c>
-      <c r="D331" t="n" s="3">
-        <v>698456.0</v>
-      </c>
+      <c r="D331" s="3"/>
       <c r="E331" t="s" s="3">
-        <v>484</v>
+        <v>473</v>
       </c>
       <c r="F331" t="s" s="3">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="G331" t="s" s="3">
-        <v>302</v>
+        <v>65</v>
       </c>
       <c r="H331" t="n" s="4">
-        <v>200.0</v>
+        <v>26.78</v>
       </c>
     </row>
     <row r="332">
       <c r="B332" t="s" s="3">
-        <v>486</v>
+        <v>427</v>
       </c>
       <c r="C332" t="s" s="3">
         <v>299</v>
       </c>
-      <c r="D332" t="n" s="3">
-        <v>430970.0</v>
-      </c>
+      <c r="D332" s="3"/>
       <c r="E332" t="s" s="3">
-        <v>484</v>
+        <v>473</v>
       </c>
       <c r="F332" t="s" s="3">
-        <v>399</v>
+        <v>489</v>
       </c>
       <c r="G332" t="s" s="3">
-        <v>302</v>
+        <v>65</v>
       </c>
       <c r="H332" t="n" s="4">
-        <v>38.62</v>
+        <v>10.78</v>
       </c>
     </row>
     <row r="333">
       <c r="B333" t="s" s="3">
-        <v>486</v>
+        <v>458</v>
       </c>
       <c r="C333" t="s" s="3">
         <v>299</v>
       </c>
-      <c r="D333" t="n" s="3">
-        <v>430970.0</v>
-      </c>
+      <c r="D333" s="3"/>
       <c r="E333" t="s" s="3">
-        <v>484</v>
+        <v>473</v>
       </c>
       <c r="F333" t="s" s="3">
-        <v>487</v>
+        <v>476</v>
       </c>
       <c r="G333" t="s" s="3">
-        <v>302</v>
+        <v>65</v>
       </c>
       <c r="H333" t="n" s="4">
-        <v>46.77</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="334">
-      <c r="B334" t="s" s="3">
-        <v>486</v>
-      </c>
-      <c r="C334" t="s" s="3">
-        <v>299</v>
-      </c>
-      <c r="D334" t="n" s="3">
-        <v>430970.0</v>
-      </c>
-      <c r="E334" t="s" s="3">
-        <v>484</v>
-      </c>
-      <c r="F334" t="s" s="3">
-        <v>488</v>
-      </c>
-      <c r="G334" t="s" s="3">
-        <v>302</v>
-      </c>
-      <c r="H334" t="n" s="4">
-        <v>172.49</v>
+      <c r="A334" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="H334" t="n" s="5">
+        <v>170.25</v>
       </c>
     </row>
     <row r="335">
-      <c r="B335" t="s" s="3">
-        <v>486</v>
-      </c>
-      <c r="C335" t="s" s="3">
-        <v>299</v>
-      </c>
-      <c r="D335" t="n" s="3">
-        <v>430970.0</v>
-      </c>
-      <c r="E335" t="s" s="3">
-        <v>484</v>
-      </c>
-      <c r="F335" t="s" s="3">
-        <v>489</v>
-      </c>
-      <c r="G335" t="s" s="3">
-        <v>302</v>
-      </c>
-      <c r="H335" t="n" s="4">
-        <v>180.26</v>
+      <c r="A335" t="s" s="2">
+        <v>491</v>
       </c>
     </row>
     <row r="336">
       <c r="B336" t="s" s="3">
-        <v>486</v>
+        <v>414</v>
       </c>
       <c r="C336" t="s" s="3">
         <v>299</v>
       </c>
       <c r="D336" t="n" s="3">
-        <v>430970.0</v>
+        <v>698456.0</v>
       </c>
       <c r="E336" t="s" s="3">
-        <v>484</v>
+        <v>492</v>
       </c>
       <c r="F336" t="s" s="3">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="G336" t="s" s="3">
         <v>302</v>
       </c>
       <c r="H336" t="n" s="4">
-        <v>37.34</v>
+        <v>200.0</v>
       </c>
     </row>
     <row r="337">
       <c r="B337" t="s" s="3">
-        <v>486</v>
+        <v>494</v>
       </c>
       <c r="C337" t="s" s="3">
         <v>299</v>
@@ -8463,21 +8479,21 @@
         <v>430970.0</v>
       </c>
       <c r="E337" t="s" s="3">
-        <v>484</v>
+        <v>492</v>
       </c>
       <c r="F337" t="s" s="3">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="G337" t="s" s="3">
         <v>302</v>
       </c>
       <c r="H337" t="n" s="4">
-        <v>4.84</v>
+        <v>37.34</v>
       </c>
     </row>
     <row r="338">
       <c r="B338" t="s" s="3">
-        <v>486</v>
+        <v>494</v>
       </c>
       <c r="C338" t="s" s="3">
         <v>299</v>
@@ -8486,21 +8502,21 @@
         <v>430970.0</v>
       </c>
       <c r="E338" t="s" s="3">
-        <v>484</v>
+        <v>492</v>
       </c>
       <c r="F338" t="s" s="3">
-        <v>485</v>
+        <v>496</v>
       </c>
       <c r="G338" t="s" s="3">
         <v>302</v>
       </c>
       <c r="H338" t="n" s="4">
-        <v>-200.0</v>
+        <v>180.26</v>
       </c>
     </row>
     <row r="339">
       <c r="B339" t="s" s="3">
-        <v>486</v>
+        <v>494</v>
       </c>
       <c r="C339" t="s" s="3">
         <v>299</v>
@@ -8509,792 +8525,802 @@
         <v>430970.0</v>
       </c>
       <c r="E339" t="s" s="3">
-        <v>484</v>
+        <v>492</v>
       </c>
       <c r="F339" t="s" s="3">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="G339" t="s" s="3">
         <v>302</v>
       </c>
       <c r="H339" t="n" s="4">
-        <v>35.03</v>
+        <v>-200.0</v>
       </c>
     </row>
     <row r="340">
       <c r="B340" t="s" s="3">
-        <v>442</v>
+        <v>494</v>
       </c>
       <c r="C340" t="s" s="3">
         <v>299</v>
       </c>
       <c r="D340" t="n" s="3">
-        <v>550835.0</v>
+        <v>430970.0</v>
       </c>
       <c r="E340" t="s" s="3">
-        <v>410</v>
+        <v>492</v>
       </c>
       <c r="F340" t="s" s="3">
-        <v>493</v>
+        <v>497</v>
       </c>
       <c r="G340" t="s" s="3">
         <v>302</v>
       </c>
       <c r="H340" t="n" s="4">
-        <v>4.76</v>
+        <v>4.84</v>
       </c>
     </row>
     <row r="341">
-      <c r="A341" t="s" s="2">
+      <c r="B341" t="s" s="3">
         <v>494</v>
       </c>
-      <c r="H341" t="n" s="5">
-        <v>520.11</v>
+      <c r="C341" t="s" s="3">
+        <v>299</v>
+      </c>
+      <c r="D341" t="n" s="3">
+        <v>430970.0</v>
+      </c>
+      <c r="E341" t="s" s="3">
+        <v>492</v>
+      </c>
+      <c r="F341" t="s" s="3">
+        <v>498</v>
+      </c>
+      <c r="G341" t="s" s="3">
+        <v>302</v>
+      </c>
+      <c r="H341" t="n" s="4">
+        <v>46.77</v>
       </c>
     </row>
     <row r="342">
-      <c r="A342" t="s" s="2">
-        <v>495</v>
+      <c r="B342" t="s" s="3">
+        <v>494</v>
+      </c>
+      <c r="C342" t="s" s="3">
+        <v>299</v>
+      </c>
+      <c r="D342" t="n" s="3">
+        <v>430970.0</v>
+      </c>
+      <c r="E342" t="s" s="3">
+        <v>492</v>
+      </c>
+      <c r="F342" t="s" s="3">
+        <v>499</v>
+      </c>
+      <c r="G342" t="s" s="3">
+        <v>302</v>
+      </c>
+      <c r="H342" t="n" s="4">
+        <v>35.03</v>
       </c>
     </row>
     <row r="343">
       <c r="B343" t="s" s="3">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="C343" t="s" s="3">
         <v>299</v>
       </c>
-      <c r="D343" s="3"/>
+      <c r="D343" t="n" s="3">
+        <v>430970.0</v>
+      </c>
       <c r="E343" t="s" s="3">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="F343" t="s" s="3">
-        <v>498</v>
+        <v>410</v>
       </c>
       <c r="G343" t="s" s="3">
         <v>302</v>
       </c>
       <c r="H343" t="n" s="4">
-        <v>433.41</v>
+        <v>38.62</v>
       </c>
     </row>
     <row r="344">
       <c r="B344" t="s" s="3">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="C344" t="s" s="3">
         <v>299</v>
       </c>
-      <c r="D344" s="3"/>
+      <c r="D344" t="n" s="3">
+        <v>430970.0</v>
+      </c>
       <c r="E344" t="s" s="3">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="F344" t="s" s="3">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="G344" t="s" s="3">
         <v>302</v>
       </c>
       <c r="H344" t="n" s="4">
-        <v>78.0</v>
+        <v>172.49</v>
       </c>
     </row>
     <row r="345">
-      <c r="A345" t="s" s="2">
-        <v>500</v>
-      </c>
-      <c r="H345" t="n" s="5">
-        <v>511.41</v>
+      <c r="B345" t="s" s="3">
+        <v>450</v>
+      </c>
+      <c r="C345" t="s" s="3">
+        <v>299</v>
+      </c>
+      <c r="D345" t="n" s="3">
+        <v>550835.0</v>
+      </c>
+      <c r="E345" t="s" s="3">
+        <v>418</v>
+      </c>
+      <c r="F345" t="s" s="3">
+        <v>501</v>
+      </c>
+      <c r="G345" t="s" s="3">
+        <v>302</v>
+      </c>
+      <c r="H345" t="n" s="4">
+        <v>4.76</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
+      </c>
+      <c r="H346" t="n" s="5">
+        <v>520.11</v>
       </c>
     </row>
     <row r="347">
-      <c r="B347" t="s" s="3">
-        <v>262</v>
-      </c>
-      <c r="C347" t="s" s="3">
-        <v>299</v>
-      </c>
-      <c r="D347" s="3"/>
-      <c r="E347" t="s" s="3">
-        <v>502</v>
-      </c>
-      <c r="F347" t="s" s="3">
+      <c r="A347" t="s" s="2">
         <v>503</v>
-      </c>
-      <c r="G347" t="s" s="3">
-        <v>302</v>
-      </c>
-      <c r="H347" t="n" s="4">
-        <v>68.58</v>
       </c>
     </row>
     <row r="348">
       <c r="B348" t="s" s="3">
-        <v>262</v>
+        <v>504</v>
       </c>
       <c r="C348" t="s" s="3">
         <v>299</v>
       </c>
       <c r="D348" s="3"/>
       <c r="E348" t="s" s="3">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="F348" t="s" s="3">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="G348" t="s" s="3">
         <v>302</v>
       </c>
       <c r="H348" t="n" s="4">
-        <v>30.87</v>
+        <v>78.0</v>
       </c>
     </row>
     <row r="349">
       <c r="B349" t="s" s="3">
-        <v>409</v>
+        <v>504</v>
       </c>
       <c r="C349" t="s" s="3">
         <v>299</v>
       </c>
-      <c r="D349" t="n" s="3">
-        <v>477011.0</v>
-      </c>
+      <c r="D349" s="3"/>
       <c r="E349" t="s" s="3">
-        <v>371</v>
+        <v>505</v>
       </c>
       <c r="F349" t="s" s="3">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="G349" t="s" s="3">
         <v>302</v>
       </c>
       <c r="H349" t="n" s="4">
-        <v>350.0</v>
+        <v>433.41</v>
       </c>
     </row>
     <row r="350">
-      <c r="B350" t="s" s="3">
-        <v>409</v>
-      </c>
-      <c r="C350" t="s" s="3">
-        <v>299</v>
-      </c>
-      <c r="D350" t="n" s="3">
-        <v>477011.0</v>
-      </c>
-      <c r="E350" t="s" s="3">
-        <v>371</v>
-      </c>
-      <c r="F350" t="s" s="3">
-        <v>507</v>
-      </c>
-      <c r="G350" t="s" s="3">
-        <v>302</v>
-      </c>
-      <c r="H350" t="n" s="4">
-        <v>300.0</v>
+      <c r="A350" t="s" s="2">
+        <v>508</v>
+      </c>
+      <c r="H350" t="n" s="5">
+        <v>511.41</v>
       </c>
     </row>
     <row r="351">
-      <c r="B351" t="s" s="3">
-        <v>409</v>
-      </c>
-      <c r="C351" t="s" s="3">
-        <v>299</v>
-      </c>
-      <c r="D351" t="n" s="3">
-        <v>477011.0</v>
-      </c>
-      <c r="E351" t="s" s="3">
-        <v>371</v>
-      </c>
-      <c r="F351" t="s" s="3">
-        <v>508</v>
-      </c>
-      <c r="G351" t="s" s="3">
-        <v>302</v>
-      </c>
-      <c r="H351" t="n" s="4">
-        <v>11.58</v>
+      <c r="A351" t="s" s="2">
+        <v>509</v>
       </c>
     </row>
     <row r="352">
       <c r="B352" t="s" s="3">
-        <v>409</v>
+        <v>262</v>
       </c>
       <c r="C352" t="s" s="3">
         <v>299</v>
       </c>
-      <c r="D352" t="n" s="3">
-        <v>477011.0</v>
-      </c>
+      <c r="D352" s="3"/>
       <c r="E352" t="s" s="3">
-        <v>371</v>
+        <v>510</v>
       </c>
       <c r="F352" t="s" s="3">
-        <v>399</v>
+        <v>511</v>
       </c>
       <c r="G352" t="s" s="3">
         <v>302</v>
       </c>
       <c r="H352" t="n" s="4">
-        <v>1.96</v>
+        <v>30.87</v>
       </c>
     </row>
     <row r="353">
       <c r="B353" t="s" s="3">
-        <v>409</v>
+        <v>262</v>
       </c>
       <c r="C353" t="s" s="3">
         <v>299</v>
       </c>
-      <c r="D353" t="n" s="3">
-        <v>477011.0</v>
-      </c>
+      <c r="D353" s="3"/>
       <c r="E353" t="s" s="3">
-        <v>371</v>
+        <v>512</v>
       </c>
       <c r="F353" t="s" s="3">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="G353" t="s" s="3">
         <v>302</v>
       </c>
       <c r="H353" t="n" s="4">
-        <v>12.63</v>
+        <v>68.58</v>
       </c>
     </row>
     <row r="354">
       <c r="B354" t="s" s="3">
-        <v>510</v>
+        <v>417</v>
       </c>
       <c r="C354" t="s" s="3">
-        <v>420</v>
-      </c>
-      <c r="D354" s="3"/>
+        <v>299</v>
+      </c>
+      <c r="D354" t="n" s="3">
+        <v>477011.0</v>
+      </c>
       <c r="E354" t="s" s="3">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="F354" t="s" s="3">
-        <v>511</v>
+        <v>410</v>
       </c>
       <c r="G354" t="s" s="3">
         <v>302</v>
       </c>
       <c r="H354" t="n" s="4">
-        <v>-0.04</v>
+        <v>1.96</v>
       </c>
     </row>
     <row r="355">
       <c r="B355" t="s" s="3">
-        <v>442</v>
+        <v>417</v>
       </c>
       <c r="C355" t="s" s="3">
         <v>299</v>
       </c>
       <c r="D355" t="n" s="3">
-        <v>550835.0</v>
+        <v>477011.0</v>
       </c>
       <c r="E355" t="s" s="3">
-        <v>410</v>
+        <v>379</v>
       </c>
       <c r="F355" t="s" s="3">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="G355" t="s" s="3">
         <v>302</v>
       </c>
       <c r="H355" t="n" s="4">
-        <v>11.0</v>
+        <v>12.63</v>
       </c>
     </row>
     <row r="356">
-      <c r="A356" t="s" s="2">
-        <v>513</v>
-      </c>
-      <c r="H356" t="n" s="5">
-        <v>786.58</v>
+      <c r="B356" t="s" s="3">
+        <v>417</v>
+      </c>
+      <c r="C356" t="s" s="3">
+        <v>299</v>
+      </c>
+      <c r="D356" t="n" s="3">
+        <v>477011.0</v>
+      </c>
+      <c r="E356" t="s" s="3">
+        <v>379</v>
+      </c>
+      <c r="F356" t="s" s="3">
+        <v>515</v>
+      </c>
+      <c r="G356" t="s" s="3">
+        <v>302</v>
+      </c>
+      <c r="H356" t="n" s="4">
+        <v>11.58</v>
       </c>
     </row>
     <row r="357">
-      <c r="A357" t="s" s="2">
-        <v>514</v>
+      <c r="B357" t="s" s="3">
+        <v>417</v>
+      </c>
+      <c r="C357" t="s" s="3">
+        <v>299</v>
+      </c>
+      <c r="D357" t="n" s="3">
+        <v>477011.0</v>
+      </c>
+      <c r="E357" t="s" s="3">
+        <v>379</v>
+      </c>
+      <c r="F357" t="s" s="3">
+        <v>516</v>
+      </c>
+      <c r="G357" t="s" s="3">
+        <v>302</v>
+      </c>
+      <c r="H357" t="n" s="4">
+        <v>300.0</v>
       </c>
     </row>
     <row r="358">
       <c r="B358" t="s" s="3">
-        <v>164</v>
+        <v>417</v>
       </c>
       <c r="C358" t="s" s="3">
-        <v>290</v>
-      </c>
-      <c r="D358" s="3"/>
+        <v>299</v>
+      </c>
+      <c r="D358" t="n" s="3">
+        <v>477011.0</v>
+      </c>
       <c r="E358" t="s" s="3">
-        <v>515</v>
+        <v>379</v>
       </c>
       <c r="F358" t="s" s="3">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="G358" t="s" s="3">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="H358" t="n" s="4">
-        <v>450.0</v>
+        <v>350.0</v>
       </c>
     </row>
     <row r="359">
       <c r="B359" t="s" s="3">
-        <v>164</v>
+        <v>518</v>
       </c>
       <c r="C359" t="s" s="3">
-        <v>290</v>
+        <v>428</v>
       </c>
       <c r="D359" s="3"/>
       <c r="E359" t="s" s="3">
-        <v>517</v>
+        <v>379</v>
       </c>
       <c r="F359" t="s" s="3">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="G359" t="s" s="3">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="H359" t="n" s="4">
-        <v>450.0</v>
+        <v>-0.04</v>
       </c>
     </row>
     <row r="360">
       <c r="B360" t="s" s="3">
+        <v>450</v>
+      </c>
+      <c r="C360" t="s" s="3">
+        <v>299</v>
+      </c>
+      <c r="D360" t="n" s="3">
+        <v>550835.0</v>
+      </c>
+      <c r="E360" t="s" s="3">
+        <v>418</v>
+      </c>
+      <c r="F360" t="s" s="3">
+        <v>520</v>
+      </c>
+      <c r="G360" t="s" s="3">
+        <v>302</v>
+      </c>
+      <c r="H360" t="n" s="4">
+        <v>11.0</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="s" s="2">
+        <v>521</v>
+      </c>
+      <c r="H361" t="n" s="5">
+        <v>786.58</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="s" s="2">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="B363" t="s" s="3">
         <v>164</v>
       </c>
-      <c r="C360" t="s" s="3">
+      <c r="C363" t="s" s="3">
         <v>290</v>
       </c>
-      <c r="D360" s="3"/>
-      <c r="E360" t="s" s="3">
-        <v>518</v>
-      </c>
-      <c r="F360" t="s" s="3">
-        <v>516</v>
-      </c>
-      <c r="G360" t="s" s="3">
+      <c r="D363" s="3"/>
+      <c r="E363" t="s" s="3">
+        <v>523</v>
+      </c>
+      <c r="F363" t="s" s="3">
+        <v>524</v>
+      </c>
+      <c r="G363" t="s" s="3">
         <v>293</v>
       </c>
-      <c r="H360" t="n" s="4">
+      <c r="H363" t="n" s="4">
+        <v>450.0</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="B364" t="s" s="3">
+        <v>164</v>
+      </c>
+      <c r="C364" t="s" s="3">
+        <v>290</v>
+      </c>
+      <c r="D364" s="3"/>
+      <c r="E364" t="s" s="3">
+        <v>525</v>
+      </c>
+      <c r="F364" t="s" s="3">
+        <v>524</v>
+      </c>
+      <c r="G364" t="s" s="3">
+        <v>293</v>
+      </c>
+      <c r="H364" t="n" s="4">
         <v>717.0</v>
-      </c>
-    </row>
-    <row r="361">
-      <c r="B361" t="s" s="3">
-        <v>164</v>
-      </c>
-      <c r="C361" t="s" s="3">
-        <v>290</v>
-      </c>
-      <c r="D361" s="3"/>
-      <c r="E361" t="s" s="3">
-        <v>519</v>
-      </c>
-      <c r="F361" t="s" s="3">
-        <v>516</v>
-      </c>
-      <c r="G361" t="s" s="3">
-        <v>293</v>
-      </c>
-      <c r="H361" t="n" s="4">
-        <v>1600.0</v>
-      </c>
-    </row>
-    <row r="362">
-      <c r="B362" t="s" s="3">
-        <v>520</v>
-      </c>
-      <c r="C362" t="s" s="3">
-        <v>290</v>
-      </c>
-      <c r="D362" t="s" s="3">
-        <v>521</v>
-      </c>
-      <c r="E362" t="s" s="3">
-        <v>522</v>
-      </c>
-      <c r="F362" t="s" s="3">
-        <v>523</v>
-      </c>
-      <c r="G362" t="s" s="3">
-        <v>293</v>
-      </c>
-      <c r="H362" t="n" s="4">
-        <v>1150.16</v>
-      </c>
-    </row>
-    <row r="363">
-      <c r="A363" t="s" s="2">
-        <v>524</v>
-      </c>
-      <c r="H363" t="n" s="5">
-        <v>4367.16</v>
-      </c>
-    </row>
-    <row r="364">
-      <c r="A364" t="s" s="2">
-        <v>525</v>
       </c>
     </row>
     <row r="365">
       <c r="B365" t="s" s="3">
-        <v>98</v>
+        <v>164</v>
       </c>
       <c r="C365" t="s" s="3">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="D365" s="3"/>
       <c r="E365" t="s" s="3">
-        <v>465</v>
+        <v>526</v>
       </c>
       <c r="F365" t="s" s="3">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="G365" t="s" s="3">
-        <v>65</v>
+        <v>293</v>
       </c>
       <c r="H365" t="n" s="4">
-        <v>24.31</v>
+        <v>450.0</v>
       </c>
     </row>
     <row r="366">
       <c r="B366" t="s" s="3">
-        <v>467</v>
+        <v>164</v>
       </c>
       <c r="C366" t="s" s="3">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="D366" s="3"/>
       <c r="E366" t="s" s="3">
-        <v>465</v>
+        <v>527</v>
       </c>
       <c r="F366" t="s" s="3">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="G366" t="s" s="3">
-        <v>65</v>
+        <v>293</v>
       </c>
       <c r="H366" t="n" s="4">
-        <v>3.0</v>
+        <v>1600.0</v>
       </c>
     </row>
     <row r="367">
       <c r="B367" t="s" s="3">
-        <v>469</v>
+        <v>528</v>
       </c>
       <c r="C367" t="s" s="3">
-        <v>299</v>
-      </c>
-      <c r="D367" s="3"/>
+        <v>290</v>
+      </c>
+      <c r="D367" t="s" s="3">
+        <v>529</v>
+      </c>
       <c r="E367" t="s" s="3">
-        <v>465</v>
+        <v>530</v>
       </c>
       <c r="F367" t="s" s="3">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="G367" t="s" s="3">
-        <v>65</v>
+        <v>293</v>
       </c>
       <c r="H367" t="n" s="4">
-        <v>1.5</v>
+        <v>1150.16</v>
       </c>
     </row>
     <row r="368">
-      <c r="B368" t="s" s="3">
-        <v>38</v>
-      </c>
-      <c r="C368" t="s" s="3">
-        <v>299</v>
-      </c>
-      <c r="D368" s="3"/>
-      <c r="E368" t="s" s="3">
-        <v>465</v>
-      </c>
-      <c r="F368" t="s" s="3">
-        <v>527</v>
-      </c>
-      <c r="G368" t="s" s="3">
-        <v>65</v>
-      </c>
-      <c r="H368" t="n" s="4">
-        <v>3.0</v>
+      <c r="A368" t="s" s="2">
+        <v>532</v>
+      </c>
+      <c r="H368" t="n" s="5">
+        <v>4367.16</v>
       </c>
     </row>
     <row r="369">
-      <c r="B369" t="s" s="3">
-        <v>113</v>
-      </c>
-      <c r="C369" t="s" s="3">
-        <v>299</v>
-      </c>
-      <c r="D369" s="3"/>
-      <c r="E369" t="s" s="3">
-        <v>465</v>
-      </c>
-      <c r="F369" t="s" s="3">
-        <v>527</v>
-      </c>
-      <c r="G369" t="s" s="3">
-        <v>65</v>
-      </c>
-      <c r="H369" t="n" s="4">
-        <v>3.0</v>
+      <c r="A369" t="s" s="2">
+        <v>533</v>
       </c>
     </row>
     <row r="370">
       <c r="B370" t="s" s="3">
-        <v>40</v>
+        <v>98</v>
       </c>
       <c r="C370" t="s" s="3">
         <v>299</v>
       </c>
       <c r="D370" s="3"/>
       <c r="E370" t="s" s="3">
-        <v>465</v>
+        <v>473</v>
       </c>
       <c r="F370" t="s" s="3">
-        <v>529</v>
+        <v>534</v>
       </c>
       <c r="G370" t="s" s="3">
         <v>65</v>
       </c>
       <c r="H370" t="n" s="4">
-        <v>6.3</v>
+        <v>24.31</v>
       </c>
     </row>
     <row r="371">
       <c r="B371" t="s" s="3">
-        <v>128</v>
+        <v>475</v>
       </c>
       <c r="C371" t="s" s="3">
         <v>299</v>
       </c>
       <c r="D371" s="3"/>
       <c r="E371" t="s" s="3">
-        <v>465</v>
+        <v>473</v>
       </c>
       <c r="F371" t="s" s="3">
-        <v>530</v>
+        <v>535</v>
       </c>
       <c r="G371" t="s" s="3">
         <v>65</v>
       </c>
       <c r="H371" t="n" s="4">
-        <v>10.81</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="372">
       <c r="B372" t="s" s="3">
-        <v>133</v>
+        <v>477</v>
       </c>
       <c r="C372" t="s" s="3">
         <v>299</v>
       </c>
       <c r="D372" s="3"/>
       <c r="E372" t="s" s="3">
-        <v>465</v>
+        <v>473</v>
       </c>
       <c r="F372" t="s" s="3">
-        <v>531</v>
+        <v>536</v>
       </c>
       <c r="G372" t="s" s="3">
         <v>65</v>
       </c>
       <c r="H372" t="n" s="4">
-        <v>3.6</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="373">
       <c r="B373" t="s" s="3">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="C373" t="s" s="3">
         <v>299</v>
       </c>
       <c r="D373" s="3"/>
       <c r="E373" t="s" s="3">
-        <v>465</v>
+        <v>473</v>
       </c>
       <c r="F373" t="s" s="3">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="G373" t="s" s="3">
         <v>65</v>
       </c>
       <c r="H373" t="n" s="4">
-        <v>12.59</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="374">
       <c r="B374" t="s" s="3">
-        <v>48</v>
+        <v>113</v>
       </c>
       <c r="C374" t="s" s="3">
         <v>299</v>
       </c>
       <c r="D374" s="3"/>
       <c r="E374" t="s" s="3">
-        <v>465</v>
+        <v>473</v>
       </c>
       <c r="F374" t="s" s="3">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="G374" t="s" s="3">
         <v>65</v>
       </c>
       <c r="H374" t="n" s="4">
-        <v>9.59</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="375">
       <c r="B375" t="s" s="3">
-        <v>164</v>
+        <v>40</v>
       </c>
       <c r="C375" t="s" s="3">
         <v>299</v>
       </c>
       <c r="D375" s="3"/>
       <c r="E375" t="s" s="3">
-        <v>465</v>
+        <v>473</v>
       </c>
       <c r="F375" t="s" s="3">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="G375" t="s" s="3">
         <v>65</v>
       </c>
       <c r="H375" t="n" s="4">
-        <v>15.01</v>
+        <v>6.3</v>
       </c>
     </row>
     <row r="376">
       <c r="B376" t="s" s="3">
-        <v>184</v>
+        <v>128</v>
       </c>
       <c r="C376" t="s" s="3">
         <v>299</v>
       </c>
       <c r="D376" s="3"/>
       <c r="E376" t="s" s="3">
-        <v>465</v>
+        <v>473</v>
       </c>
       <c r="F376" t="s" s="3">
-        <v>527</v>
+        <v>538</v>
       </c>
       <c r="G376" t="s" s="3">
         <v>65</v>
       </c>
       <c r="H376" t="n" s="4">
-        <v>3.0</v>
+        <v>10.81</v>
       </c>
     </row>
     <row r="377">
       <c r="B377" t="s" s="3">
-        <v>57</v>
+        <v>133</v>
       </c>
       <c r="C377" t="s" s="3">
         <v>299</v>
       </c>
       <c r="D377" s="3"/>
       <c r="E377" t="s" s="3">
-        <v>465</v>
+        <v>473</v>
       </c>
       <c r="F377" t="s" s="3">
-        <v>535</v>
+        <v>539</v>
       </c>
       <c r="G377" t="s" s="3">
         <v>65</v>
       </c>
       <c r="H377" t="n" s="4">
-        <v>6.0</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="378">
       <c r="B378" t="s" s="3">
-        <v>209</v>
+        <v>45</v>
       </c>
       <c r="C378" t="s" s="3">
         <v>299</v>
       </c>
       <c r="D378" s="3"/>
       <c r="E378" t="s" s="3">
-        <v>465</v>
+        <v>473</v>
       </c>
       <c r="F378" t="s" s="3">
-        <v>536</v>
+        <v>540</v>
       </c>
       <c r="G378" t="s" s="3">
         <v>65</v>
       </c>
       <c r="H378" t="n" s="4">
-        <v>18.0</v>
+        <v>12.59</v>
       </c>
     </row>
     <row r="379">
       <c r="B379" t="s" s="3">
-        <v>262</v>
+        <v>48</v>
       </c>
       <c r="C379" t="s" s="3">
         <v>299</v>
       </c>
       <c r="D379" s="3"/>
       <c r="E379" t="s" s="3">
-        <v>465</v>
+        <v>473</v>
       </c>
       <c r="F379" t="s" s="3">
-        <v>537</v>
+        <v>541</v>
       </c>
       <c r="G379" t="s" s="3">
         <v>65</v>
       </c>
       <c r="H379" t="n" s="4">
-        <v>24.6</v>
+        <v>9.59</v>
       </c>
     </row>
     <row r="380">
       <c r="B380" t="s" s="3">
-        <v>419</v>
+        <v>164</v>
       </c>
       <c r="C380" t="s" s="3">
         <v>299</v>
       </c>
       <c r="D380" s="3"/>
       <c r="E380" t="s" s="3">
-        <v>465</v>
+        <v>473</v>
       </c>
       <c r="F380" t="s" s="3">
-        <v>538</v>
+        <v>542</v>
       </c>
       <c r="G380" t="s" s="3">
         <v>65</v>
       </c>
       <c r="H380" t="n" s="4">
-        <v>9.6</v>
+        <v>15.01</v>
       </c>
     </row>
     <row r="381">
       <c r="B381" t="s" s="3">
-        <v>450</v>
+        <v>184</v>
       </c>
       <c r="C381" t="s" s="3">
         <v>299</v>
       </c>
       <c r="D381" s="3"/>
       <c r="E381" t="s" s="3">
-        <v>465</v>
+        <v>473</v>
       </c>
       <c r="F381" t="s" s="3">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="G381" t="s" s="3">
         <v>65</v>
@@ -9304,48 +9330,153 @@
       </c>
     </row>
     <row r="382">
-      <c r="A382" t="s" s="2">
-        <v>540</v>
-      </c>
-      <c r="H382" t="n" s="5">
+      <c r="B382" t="s" s="3">
+        <v>57</v>
+      </c>
+      <c r="C382" t="s" s="3">
+        <v>299</v>
+      </c>
+      <c r="D382" s="3"/>
+      <c r="E382" t="s" s="3">
+        <v>473</v>
+      </c>
+      <c r="F382" t="s" s="3">
+        <v>543</v>
+      </c>
+      <c r="G382" t="s" s="3">
+        <v>65</v>
+      </c>
+      <c r="H382" t="n" s="4">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="B383" t="s" s="3">
+        <v>209</v>
+      </c>
+      <c r="C383" t="s" s="3">
+        <v>299</v>
+      </c>
+      <c r="D383" s="3"/>
+      <c r="E383" t="s" s="3">
+        <v>473</v>
+      </c>
+      <c r="F383" t="s" s="3">
+        <v>544</v>
+      </c>
+      <c r="G383" t="s" s="3">
+        <v>65</v>
+      </c>
+      <c r="H383" t="n" s="4">
+        <v>18.0</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="B384" t="s" s="3">
+        <v>262</v>
+      </c>
+      <c r="C384" t="s" s="3">
+        <v>299</v>
+      </c>
+      <c r="D384" s="3"/>
+      <c r="E384" t="s" s="3">
+        <v>473</v>
+      </c>
+      <c r="F384" t="s" s="3">
+        <v>545</v>
+      </c>
+      <c r="G384" t="s" s="3">
+        <v>65</v>
+      </c>
+      <c r="H384" t="n" s="4">
+        <v>24.6</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="B385" t="s" s="3">
+        <v>427</v>
+      </c>
+      <c r="C385" t="s" s="3">
+        <v>299</v>
+      </c>
+      <c r="D385" s="3"/>
+      <c r="E385" t="s" s="3">
+        <v>473</v>
+      </c>
+      <c r="F385" t="s" s="3">
+        <v>546</v>
+      </c>
+      <c r="G385" t="s" s="3">
+        <v>65</v>
+      </c>
+      <c r="H385" t="n" s="4">
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="B386" t="s" s="3">
+        <v>458</v>
+      </c>
+      <c r="C386" t="s" s="3">
+        <v>299</v>
+      </c>
+      <c r="D386" s="3"/>
+      <c r="E386" t="s" s="3">
+        <v>473</v>
+      </c>
+      <c r="F386" t="s" s="3">
+        <v>547</v>
+      </c>
+      <c r="G386" t="s" s="3">
+        <v>65</v>
+      </c>
+      <c r="H386" t="n" s="4">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="s" s="2">
+        <v>548</v>
+      </c>
+      <c r="H387" t="n" s="5">
         <v>156.91</v>
       </c>
     </row>
-    <row r="383">
-      <c r="A383" t="s" s="2">
-        <v>541</v>
-      </c>
-      <c r="H383" t="n" s="5">
+    <row r="388">
+      <c r="A388" t="s" s="2">
+        <v>549</v>
+      </c>
+      <c r="H388" t="n" s="5">
         <v>18418.3</v>
       </c>
     </row>
-    <row r="384">
-      <c r="A384" t="s" s="2">
-        <v>542</v>
-      </c>
-      <c r="H384" t="n" s="5">
-        <v>22739.31</v>
-      </c>
-    </row>
-    <row r="385">
-      <c r="A385" t="s" s="2">
-        <v>543</v>
-      </c>
-      <c r="H385" t="n" s="5">
-        <v>-534.31</v>
-      </c>
-    </row>
-    <row r="388">
-      <c r="A388" s="6" t="s">
-        <v>544</v>
-      </c>
-      <c r="B388"/>
-      <c r="C388"/>
-      <c r="D388"/>
-      <c r="E388"/>
-      <c r="F388"/>
-      <c r="G388"/>
-      <c r="H388"/>
+    <row r="389">
+      <c r="A389" t="s" s="2">
+        <v>550</v>
+      </c>
+      <c r="H389" t="n" s="5">
+        <v>22830.86</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="s" s="2">
+        <v>551</v>
+      </c>
+      <c r="H390" t="n" s="5">
+        <v>-625.86</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" s="6" t="s">
+        <v>552</v>
+      </c>
+      <c r="B393"/>
+      <c r="C393"/>
+      <c r="D393"/>
+      <c r="E393"/>
+      <c r="F393"/>
+      <c r="G393"/>
+      <c r="H393"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -9373,47 +9504,47 @@
     <mergeCell ref="A183"/>
     <mergeCell ref="A190"/>
     <mergeCell ref="A191"/>
-    <mergeCell ref="A215"/>
-    <mergeCell ref="A216"/>
     <mergeCell ref="A220"/>
     <mergeCell ref="A221"/>
-    <mergeCell ref="A223"/>
-    <mergeCell ref="A224"/>
     <mergeCell ref="A225"/>
     <mergeCell ref="A226"/>
+    <mergeCell ref="A228"/>
     <mergeCell ref="A229"/>
     <mergeCell ref="A230"/>
-    <mergeCell ref="A236"/>
-    <mergeCell ref="A237"/>
+    <mergeCell ref="A231"/>
+    <mergeCell ref="A234"/>
+    <mergeCell ref="A235"/>
     <mergeCell ref="A241"/>
     <mergeCell ref="A242"/>
-    <mergeCell ref="A251"/>
-    <mergeCell ref="A252"/>
-    <mergeCell ref="A261"/>
-    <mergeCell ref="A262"/>
-    <mergeCell ref="A283"/>
-    <mergeCell ref="A284"/>
-    <mergeCell ref="A300"/>
-    <mergeCell ref="A301"/>
-    <mergeCell ref="A307"/>
-    <mergeCell ref="A308"/>
-    <mergeCell ref="A310"/>
-    <mergeCell ref="A311"/>
-    <mergeCell ref="A329"/>
-    <mergeCell ref="A330"/>
-    <mergeCell ref="A341"/>
-    <mergeCell ref="A342"/>
-    <mergeCell ref="A345"/>
+    <mergeCell ref="A246"/>
+    <mergeCell ref="A247"/>
+    <mergeCell ref="A256"/>
+    <mergeCell ref="A257"/>
+    <mergeCell ref="A266"/>
+    <mergeCell ref="A267"/>
+    <mergeCell ref="A288"/>
+    <mergeCell ref="A289"/>
+    <mergeCell ref="A305"/>
+    <mergeCell ref="A306"/>
+    <mergeCell ref="A312"/>
+    <mergeCell ref="A313"/>
+    <mergeCell ref="A315"/>
+    <mergeCell ref="A316"/>
+    <mergeCell ref="A334"/>
+    <mergeCell ref="A335"/>
     <mergeCell ref="A346"/>
-    <mergeCell ref="A356"/>
-    <mergeCell ref="A357"/>
-    <mergeCell ref="A363"/>
-    <mergeCell ref="A364"/>
-    <mergeCell ref="A382"/>
-    <mergeCell ref="A383"/>
-    <mergeCell ref="A384"/>
-    <mergeCell ref="A385"/>
-    <mergeCell ref="A388:H388"/>
+    <mergeCell ref="A347"/>
+    <mergeCell ref="A350"/>
+    <mergeCell ref="A351"/>
+    <mergeCell ref="A361"/>
+    <mergeCell ref="A362"/>
+    <mergeCell ref="A368"/>
+    <mergeCell ref="A369"/>
+    <mergeCell ref="A387"/>
+    <mergeCell ref="A388"/>
+    <mergeCell ref="A389"/>
+    <mergeCell ref="A390"/>
+    <mergeCell ref="A393:H393"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="A3:H3"/>

--- a/2020-sgfdevs-statement-of-activity-detail.xlsx
+++ b/2020-sgfdevs-statement-of-activity-detail.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1690" uniqueCount="556">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1720" uniqueCount="564">
   <si>
     <t>Date</t>
   </si>
@@ -92,24 +92,30 @@
     <t>Mobile App Sponsor ($750) for METHOD Developer Conference 03/05/2020. Refer to Sponsor Packet for Terms and Sponsor Benefits. ALL PAYMENTS DUE BY 02/15/2020. Founding Sponsor Discount 10%</t>
   </si>
   <si>
+    <t>Gravitate Solutions</t>
+  </si>
+  <si>
+    <t>EVENING DRINK Sponsorship for METHOD Developer Conference 03/05/2020. Refer to Sponsor Packet for Terms and Sponsor Benefits. ALL PAYMENTS DUE BY 02/15/2020.</t>
+  </si>
+  <si>
+    <t>BEVERAGE Sponsorship for METHOD Developer Conference 03/05/2020. Refer to Sponsor Packet for Terms and Sponsor Benefits. ALL PAYMENTS DUE BY 02/15/2020.</t>
+  </si>
+  <si>
+    <t>Added Innovation</t>
+  </si>
+  <si>
+    <t>Springfield Devs Founding Sponsor Discount (10%)</t>
+  </si>
+  <si>
     <t>Mostly Serious</t>
   </si>
   <si>
-    <t>Springfield Devs Founding Sponsor Discount (10%)</t>
-  </si>
-  <si>
-    <t>BEVERAGE Sponsorship for METHOD Developer Conference 03/05/2020. Refer to Sponsor Packet for Terms and Sponsor Benefits. ALL PAYMENTS DUE BY 02/15/2020.</t>
-  </si>
-  <si>
     <t>Mycra Therapy</t>
   </si>
   <si>
     <t>DIVERSITY Sponsorship for METHOD Developer Conference 03/05/2020. Refer to Sponsor Packet for Terms and Sponsor Benefits. ALL PAYMENTS DUE BY 02/15/2020.</t>
   </si>
   <si>
-    <t>Added Innovation</t>
-  </si>
-  <si>
     <t>BADGE Sponsorship for METHOD Developer Conference 03/05/2020. Refer to Sponsor Packet for Terms and Sponsor Benefits. ALL PAYMENTS DUE BY 02/15/2020.</t>
   </si>
   <si>
@@ -119,15 +125,9 @@
     <t>SPEAKER (Ruby Fleener) Sponsorship for METHOD Developer Conference 03/05/2020. Refer to Sponsor Packet for Terms and Sponsor Benefits. ALL PAYMENTS DUE BY 02/15/2020.</t>
   </si>
   <si>
-    <t>Gravitate Solutions</t>
-  </si>
-  <si>
     <t>LANYARD Sponsorship for METHOD Developer Conference 03/05/2020. Refer to Sponsor Packet for Terms and Sponsor Benefits. ALL PAYMENTS DUE BY 02/15/2020.</t>
   </si>
   <si>
-    <t>EVENING DRINK Sponsorship for METHOD Developer Conference 03/05/2020. Refer to Sponsor Packet for Terms and Sponsor Benefits. ALL PAYMENTS DUE BY 02/15/2020.</t>
-  </si>
-  <si>
     <t>01/30/2020</t>
   </si>
   <si>
@@ -203,13 +203,73 @@
     <t>Receipt</t>
   </si>
   <si>
+    <t>David Hahn</t>
+  </si>
+  <si>
+    <t>Attendee David Hahn -50% (sudo)</t>
+  </si>
+  <si>
+    <t>Devs Stripe</t>
+  </si>
+  <si>
+    <t>Benjamin Stange</t>
+  </si>
+  <si>
+    <t>Attendee Benjamin Stange -50% (sudo)</t>
+  </si>
+  <si>
+    <t>Kimberly Myers</t>
+  </si>
+  <si>
+    <t>Attendee Kimberly Myers</t>
+  </si>
+  <si>
+    <t>David Schlum</t>
+  </si>
+  <si>
+    <t>Attendee UNASSIGNED -50% (sudo)</t>
+  </si>
+  <si>
+    <t>David Hamilton</t>
+  </si>
+  <si>
+    <t>Attendee David Hamilton -100% (volunteer)</t>
+  </si>
+  <si>
+    <t>Frederick Lawler</t>
+  </si>
+  <si>
+    <t>Attendee Frederick Lawler -100% (volunteer)</t>
+  </si>
+  <si>
     <t>Thomas Rankin</t>
   </si>
   <si>
     <t>Attendee Thomas Rankin -100% (volunteer)</t>
   </si>
   <si>
-    <t>Devs Stripe</t>
+    <t>Mark Stepp</t>
+  </si>
+  <si>
+    <t>Attendee Mark Stepp -50% (sudo)</t>
+  </si>
+  <si>
+    <t>Matt Johnson</t>
+  </si>
+  <si>
+    <t>Attendee Matt Johnson -50% (sudo)</t>
+  </si>
+  <si>
+    <t>Kevin Kirchner</t>
+  </si>
+  <si>
+    <t>Attendee Kevin Kirchner -50% (sudo)</t>
+  </si>
+  <si>
+    <t>Keith Davis</t>
+  </si>
+  <si>
+    <t>Attendee Keith Davis -50% (sudo)</t>
   </si>
   <si>
     <t>David Alger</t>
@@ -227,66 +287,6 @@
     <t>Attendee Erik Hansen -50% (sudo)</t>
   </si>
   <si>
-    <t>David Schlum</t>
-  </si>
-  <si>
-    <t>Attendee UNASSIGNED -50% (sudo)</t>
-  </si>
-  <si>
-    <t>David Hahn</t>
-  </si>
-  <si>
-    <t>Attendee David Hahn -50% (sudo)</t>
-  </si>
-  <si>
-    <t>Benjamin Stange</t>
-  </si>
-  <si>
-    <t>Attendee Benjamin Stange -50% (sudo)</t>
-  </si>
-  <si>
-    <t>Keith Davis</t>
-  </si>
-  <si>
-    <t>Attendee Keith Davis -50% (sudo)</t>
-  </si>
-  <si>
-    <t>Kevin Kirchner</t>
-  </si>
-  <si>
-    <t>Attendee Kevin Kirchner -50% (sudo)</t>
-  </si>
-  <si>
-    <t>Matt Johnson</t>
-  </si>
-  <si>
-    <t>Attendee Matt Johnson -50% (sudo)</t>
-  </si>
-  <si>
-    <t>Mark Stepp</t>
-  </si>
-  <si>
-    <t>Attendee Mark Stepp -50% (sudo)</t>
-  </si>
-  <si>
-    <t>Kimberly Myers</t>
-  </si>
-  <si>
-    <t>Attendee Kimberly Myers</t>
-  </si>
-  <si>
-    <t>Frederick Lawler</t>
-  </si>
-  <si>
-    <t>Attendee Frederick Lawler -100% (volunteer)</t>
-  </si>
-  <si>
-    <t>David Hamilton</t>
-  </si>
-  <si>
-    <t>Attendee David Hamilton -100% (volunteer)</t>
-  </si>
-  <si>
     <t>Rich Clingman</t>
   </si>
   <si>
@@ -332,18 +332,18 @@
     <t>Attendee Christopher Wilding</t>
   </si>
   <si>
+    <t>Katie Kensinger</t>
+  </si>
+  <si>
+    <t>Attendee Rhyan Friesen</t>
+  </si>
+  <si>
     <t>Ruby Fleener</t>
   </si>
   <si>
     <t>Attendee Ruby Fleener -100% (speaker)</t>
   </si>
   <si>
-    <t>Katie Kensinger</t>
-  </si>
-  <si>
-    <t>Attendee Rhyan Friesen</t>
-  </si>
-  <si>
     <t>01/31/2020</t>
   </si>
   <si>
@@ -356,93 +356,93 @@
     <t>02/03/2020</t>
   </si>
   <si>
+    <t>Landon Lewis</t>
+  </si>
+  <si>
+    <t>Attendee Landon Lewis -30% (banno)</t>
+  </si>
+  <si>
+    <t>Kalin Bowden</t>
+  </si>
+  <si>
+    <t>Attendee Kalin Bowden -30% (sgfdev)</t>
+  </si>
+  <si>
     <t>Daniel Chilton</t>
   </si>
   <si>
     <t>Attendee Dan Chilton -30% (banno)</t>
   </si>
   <si>
-    <t>Kalin Bowden</t>
-  </si>
-  <si>
-    <t>Attendee Kalin Bowden -30% (sgfdev)</t>
-  </si>
-  <si>
-    <t>Landon Lewis</t>
-  </si>
-  <si>
-    <t>Attendee Landon Lewis -30% (banno)</t>
-  </si>
-  <si>
     <t>Justin Wells</t>
   </si>
   <si>
+    <t>Attendee Warren Scott -40% (sgfdev)</t>
+  </si>
+  <si>
+    <t>Attendee Jacob Schaum -40% (sgfdev)</t>
+  </si>
+  <si>
+    <t>Attendee Christy Bracher -40% (sgfdev)</t>
+  </si>
+  <si>
+    <t>Levi Zitting</t>
+  </si>
+  <si>
+    <t>Attendee Melissa Worthen -40% (sgfdev)</t>
+  </si>
+  <si>
     <t>Attendee Miles Collins -40% (sgfdev)</t>
   </si>
   <si>
     <t>Attendee Trevor Glauz -40% (sgfdev)</t>
   </si>
   <si>
-    <t>Attendee Jacob Schaum -40% (sgfdev)</t>
-  </si>
-  <si>
-    <t>Attendee Warren Scott -40% (sgfdev)</t>
-  </si>
-  <si>
-    <t>Attendee Christy Bracher -40% (sgfdev)</t>
-  </si>
-  <si>
-    <t>Levi Zitting</t>
-  </si>
-  <si>
-    <t>Attendee Melissa Worthen -40% (sgfdev)</t>
-  </si>
-  <si>
     <t>02/05/2020</t>
   </si>
   <si>
+    <t>Kendall Roberts</t>
+  </si>
+  <si>
+    <t>Attendee Kendall Roberts -50% (student)</t>
+  </si>
+  <si>
     <t>Jonathan Mann</t>
   </si>
   <si>
     <t>Attendee Jonathan Mann -30% (sgfdev)</t>
   </si>
   <si>
-    <t>Kendall Roberts</t>
-  </si>
-  <si>
-    <t>Attendee Kendall Roberts -50% (student)</t>
-  </si>
-  <si>
     <t>02/06/2020</t>
   </si>
   <si>
+    <t>Benjamin Ellis</t>
+  </si>
+  <si>
+    <t>Attendee Don Worthley -30% (sgfdev)</t>
+  </si>
+  <si>
+    <t>Attendee Daniel Mayfield -30% (sgfdev)</t>
+  </si>
+  <si>
+    <t>Attendee Dan Bennett -30% (sgfdev)</t>
+  </si>
+  <si>
+    <t>Chad Killingsworth</t>
+  </si>
+  <si>
+    <t>Attendee Chad Killingsworth -30% (banno)</t>
+  </si>
+  <si>
     <t>Mike Andrews</t>
   </si>
   <si>
     <t>Attendee Mike Andrews -30% (sgfdev)</t>
   </si>
   <si>
-    <t>Benjamin Ellis</t>
-  </si>
-  <si>
     <t>Attendee Ben Ellis -30% (sgfdev)</t>
   </si>
   <si>
-    <t>Attendee Don Worthley -30% (sgfdev)</t>
-  </si>
-  <si>
-    <t>Attendee Daniel Mayfield -30% (sgfdev)</t>
-  </si>
-  <si>
-    <t>Attendee Dan Bennett -30% (sgfdev)</t>
-  </si>
-  <si>
-    <t>Chad Killingsworth</t>
-  </si>
-  <si>
-    <t>Attendee Chad Killingsworth -30% (banno)</t>
-  </si>
-  <si>
     <t>Christopher Baunach</t>
   </si>
   <si>
@@ -458,6 +458,9 @@
     <t>Aaron Van Gorp</t>
   </si>
   <si>
+    <t>Attendee Aaron Van Gorp</t>
+  </si>
+  <si>
     <t>Attendee Cornelius Ukena</t>
   </si>
   <si>
@@ -467,45 +470,42 @@
     <t>Attendee Darren Williams -30% (banno)</t>
   </si>
   <si>
-    <t>Attendee Aaron Van Gorp</t>
-  </si>
-  <si>
     <t>Charles Hicks</t>
   </si>
   <si>
     <t>Attendee CK Hicks</t>
   </si>
   <si>
+    <t>Otto Borchert</t>
+  </si>
+  <si>
+    <t>Attendee Otto Borchert -50% (mssu)</t>
+  </si>
+  <si>
+    <t>Attendee Michael Blades -50% (mssu)</t>
+  </si>
+  <si>
+    <t>Attendee Dulio Gonzalez -50% (mssu)</t>
+  </si>
+  <si>
+    <t>Attendee Clayton Woodbridge -50% (mssu)</t>
+  </si>
+  <si>
+    <t>Attendee Ojurere Shonekan -50% (mssu)</t>
+  </si>
+  <si>
+    <t>Attendee Matt Griffin -50% (mssu)</t>
+  </si>
+  <si>
+    <t>Attendee Josh Ellis -50% (mssu)</t>
+  </si>
+  <si>
+    <t>Attendee Mark Gertiser -50% (volt)</t>
+  </si>
+  <si>
     <t>Attendee CK Hicks -30% (sgfdev) Manual Refund</t>
   </si>
   <si>
-    <t>Otto Borchert</t>
-  </si>
-  <si>
-    <t>Attendee Otto Borchert -50% (mssu)</t>
-  </si>
-  <si>
-    <t>Attendee Michael Blades -50% (mssu)</t>
-  </si>
-  <si>
-    <t>Attendee Dulio Gonzalez -50% (mssu)</t>
-  </si>
-  <si>
-    <t>Attendee Clayton Woodbridge -50% (mssu)</t>
-  </si>
-  <si>
-    <t>Attendee Ojurere Shonekan -50% (mssu)</t>
-  </si>
-  <si>
-    <t>Attendee Matt Griffin -50% (mssu)</t>
-  </si>
-  <si>
-    <t>Attendee Josh Ellis -50% (mssu)</t>
-  </si>
-  <si>
-    <t>Attendee Mark Gertiser -50% (volt)</t>
-  </si>
-  <si>
     <t>02/13/2020</t>
   </si>
   <si>
@@ -569,61 +569,67 @@
     <t>02/17/2020</t>
   </si>
   <si>
+    <t>David Harris</t>
+  </si>
+  <si>
+    <t>Attendee David Harris</t>
+  </si>
+  <si>
     <t>Jason Arend</t>
   </si>
   <si>
     <t>Attendee Jason Arend -50% (kind)</t>
   </si>
   <si>
+    <t>Amber Donaldson</t>
+  </si>
+  <si>
+    <t>Attendee Amber Donaldson -100% (scholarship)</t>
+  </si>
+  <si>
+    <t>Brenden Reeves</t>
+  </si>
+  <si>
+    <t>Attendee Brenden Reeves -100% (scholarship)</t>
+  </si>
+  <si>
+    <t>Jeremy Boles</t>
+  </si>
+  <si>
+    <t>Attendee Jeremy Boles -50% (kind)</t>
+  </si>
+  <si>
+    <t>Tylor Hindery</t>
+  </si>
+  <si>
+    <t>Attendee Tylor Hindery -50% (kind)</t>
+  </si>
+  <si>
+    <t>Melissa Smith</t>
+  </si>
+  <si>
+    <t>Attendee Kevin Waterland -50% (kind)</t>
+  </si>
+  <si>
+    <t>Attendee Will Vandergrift -50% (kind)</t>
+  </si>
+  <si>
+    <t>Attendee Carter Luther -50% (kind)</t>
+  </si>
+  <si>
+    <t>Attendee Randy Baker -50% (kind)</t>
+  </si>
+  <si>
     <t>Tim Franklin</t>
   </si>
   <si>
     <t>Attendee Tim Franklin -100% (volunteer)</t>
   </si>
   <si>
-    <t>Melissa Smith</t>
-  </si>
-  <si>
-    <t>Attendee Randy Baker -50% (kind)</t>
-  </si>
-  <si>
-    <t>Attendee Carter Luther -50% (kind)</t>
-  </si>
-  <si>
-    <t>Jeremy Boles</t>
-  </si>
-  <si>
-    <t>Attendee Jeremy Boles -50% (kind)</t>
-  </si>
-  <si>
-    <t>David Harris</t>
-  </si>
-  <si>
-    <t>Attendee David Harris</t>
-  </si>
-  <si>
-    <t>Brenden Reeves</t>
-  </si>
-  <si>
-    <t>Attendee Brenden Reeves -100% (scholarship)</t>
-  </si>
-  <si>
-    <t>Amber Donaldson</t>
-  </si>
-  <si>
-    <t>Attendee Amber Donaldson -100% (scholarship)</t>
-  </si>
-  <si>
-    <t>Tylor Hindery</t>
-  </si>
-  <si>
-    <t>Attendee Tylor Hindery -50% (kind)</t>
-  </si>
-  <si>
-    <t>Attendee Kevin Waterland -50% (kind)</t>
-  </si>
-  <si>
-    <t>Attendee Will Vandergrift -50% (kind)</t>
+    <t>Carwin Young</t>
+  </si>
+  <si>
+    <t>Attendee Carwin Young</t>
   </si>
   <si>
     <t>Laura Caruso</t>
@@ -635,21 +641,123 @@
     <t>Attendee Kirk Coleman -100% (sponsor)</t>
   </si>
   <si>
-    <t>Carwin Young</t>
-  </si>
-  <si>
-    <t>Attendee Carwin Young</t>
-  </si>
-  <si>
     <t>02/19/2020</t>
   </si>
   <si>
+    <t>Zackary Turner</t>
+  </si>
+  <si>
+    <t>Attendee Zackary Turner -100% (studentscholarship)</t>
+  </si>
+  <si>
+    <t>Caleb Whitlow</t>
+  </si>
+  <si>
+    <t>Attendee Caleb Whitlow -100% (scholarship)</t>
+  </si>
+  <si>
+    <t>Kero Miller</t>
+  </si>
+  <si>
+    <t>Attendee Kero Miller -100% (scholarship)</t>
+  </si>
+  <si>
+    <t>Carmen Creswell</t>
+  </si>
+  <si>
+    <t>Attendee Carmen Creswell -100% (scholarship)</t>
+  </si>
+  <si>
+    <t>Krista Peryer</t>
+  </si>
+  <si>
+    <t>Attendee Krista Peryer -100% (scholarship)</t>
+  </si>
+  <si>
+    <t>Wes Livesay</t>
+  </si>
+  <si>
+    <t>Attendee Wes Livesay -100% (sponsor)</t>
+  </si>
+  <si>
+    <t>Attendee Markus Pope -100% (sponsor)</t>
+  </si>
+  <si>
+    <t>Attendee Joel Nel -100% (sponsor)</t>
+  </si>
+  <si>
     <t>Scarlett Isbell</t>
   </si>
   <si>
     <t>Attendee Scarlett Isbell -100% (scholarship)</t>
   </si>
   <si>
+    <t>Kelly Crane</t>
+  </si>
+  <si>
+    <t>Attendee Kelly Crane -100% (scholarship)</t>
+  </si>
+  <si>
+    <t>Keegan Hart</t>
+  </si>
+  <si>
+    <t>Attendee Keegan Hart -100% (studentscholarship)</t>
+  </si>
+  <si>
+    <t>Attendee Megan Blevins -100% (sponsor)</t>
+  </si>
+  <si>
+    <t>Attendee Jeff Kern -100% (sponsor)</t>
+  </si>
+  <si>
+    <t>Jordan McAdoo</t>
+  </si>
+  <si>
+    <t>Attendee Jordan McAdoo -100% (scholarship)</t>
+  </si>
+  <si>
+    <t>Attendee Jim Carr -100% (sponsor)</t>
+  </si>
+  <si>
+    <t>Attendee Maddie Carr -100% (sponsor)</t>
+  </si>
+  <si>
+    <t>Christopher Smith</t>
+  </si>
+  <si>
+    <t>Attendee Christopher Smith -30% (banno)</t>
+  </si>
+  <si>
+    <t>Elliott Campbell</t>
+  </si>
+  <si>
+    <t>Attendee Elliott Campbell -30% (banno)</t>
+  </si>
+  <si>
+    <t>Attendee Craig Coenen -50% (kind)</t>
+  </si>
+  <si>
+    <t>Ryan Zachary De Lap</t>
+  </si>
+  <si>
+    <t>Attendee Ryan De Lap -50% (student)</t>
+  </si>
+  <si>
+    <t>Carissa Hurt</t>
+  </si>
+  <si>
+    <t>Attendee Carissa Hurt -50% (student)</t>
+  </si>
+  <si>
+    <t>Attendee Josh Sharp -50% (gravitate)</t>
+  </si>
+  <si>
+    <t>Seth Mabry</t>
+  </si>
+  <si>
+    <t>Attendee Seth Mabry -50% (codesci)</t>
+  </si>
+  <si>
     <t>Attendee Tara Walton -50% (codesci)</t>
   </si>
   <si>
@@ -671,42 +779,12 @@
     <t>Attendee Mark Rosenkrans -50% (gravitate)</t>
   </si>
   <si>
-    <t>Kelly Crane</t>
-  </si>
-  <si>
-    <t>Attendee Kelly Crane -100% (scholarship)</t>
-  </si>
-  <si>
-    <t>Keegan Hart</t>
-  </si>
-  <si>
-    <t>Attendee Keegan Hart -100% (studentscholarship)</t>
-  </si>
-  <si>
-    <t>Attendee Megan Blevins -100% (sponsor)</t>
-  </si>
-  <si>
-    <t>Attendee Jeff Kern -100% (sponsor)</t>
-  </si>
-  <si>
     <t>Attendee Brian Norris -50% (marlinnetwork)</t>
   </si>
   <si>
     <t>Attendee Eli Estes -50% (marlinnetwork)</t>
   </si>
   <si>
-    <t>Jordan McAdoo</t>
-  </si>
-  <si>
-    <t>Attendee Jordan McAdoo -100% (scholarship)</t>
-  </si>
-  <si>
-    <t>Attendee Jim Carr -100% (sponsor)</t>
-  </si>
-  <si>
-    <t>Attendee Maddie Carr -100% (sponsor)</t>
-  </si>
-  <si>
     <t>Trayvon Northern</t>
   </si>
   <si>
@@ -716,109 +794,43 @@
     <t>Attendee Hannah Sartin -50% (marlinnetwork)</t>
   </si>
   <si>
-    <t>Attendee Craig Coenen -50% (kind)</t>
-  </si>
-  <si>
     <t>Maranda Provance</t>
   </si>
   <si>
     <t>Attendee Maranda Provance -100% (sponsor)</t>
   </si>
   <si>
-    <t>Ryan Zachary De Lap</t>
-  </si>
-  <si>
-    <t>Attendee Ryan De Lap -50% (student)</t>
-  </si>
-  <si>
-    <t>Zackary Turner</t>
-  </si>
-  <si>
-    <t>Attendee Zackary Turner -100% (studentscholarship)</t>
-  </si>
-  <si>
-    <t>Christopher Smith</t>
-  </si>
-  <si>
-    <t>Attendee Christopher Smith -30% (banno)</t>
-  </si>
-  <si>
-    <t>Carissa Hurt</t>
-  </si>
-  <si>
-    <t>Attendee Carissa Hurt -50% (student)</t>
-  </si>
-  <si>
-    <t>Attendee Josh Sharp -50% (gravitate)</t>
-  </si>
-  <si>
-    <t>Caleb Whitlow</t>
-  </si>
-  <si>
-    <t>Attendee Caleb Whitlow -100% (scholarship)</t>
-  </si>
-  <si>
-    <t>Elliott Campbell</t>
-  </si>
-  <si>
-    <t>Attendee Elliott Campbell -30% (banno)</t>
-  </si>
-  <si>
-    <t>Seth Mabry</t>
-  </si>
-  <si>
-    <t>Attendee Seth Mabry -50% (codesci)</t>
-  </si>
-  <si>
-    <t>Kero Miller</t>
-  </si>
-  <si>
-    <t>Attendee Kero Miller -100% (scholarship)</t>
-  </si>
-  <si>
-    <t>Carmen Creswell</t>
-  </si>
-  <si>
-    <t>Attendee Carmen Creswell -100% (scholarship)</t>
-  </si>
-  <si>
-    <t>Krista Peryer</t>
-  </si>
-  <si>
-    <t>Attendee Krista Peryer -100% (scholarship)</t>
-  </si>
-  <si>
-    <t>Wes Livesay</t>
-  </si>
-  <si>
-    <t>Attendee Wes Livesay -100% (sponsor)</t>
-  </si>
-  <si>
-    <t>Attendee Markus Pope -100% (sponsor)</t>
-  </si>
-  <si>
-    <t>Attendee Joel Nel -100% (sponsor)</t>
-  </si>
-  <si>
     <t>02/20/2020</t>
   </si>
   <si>
+    <t>River Ginther</t>
+  </si>
+  <si>
+    <t>Attendee River Ginther</t>
+  </si>
+  <si>
+    <t>Danielle Kelly</t>
+  </si>
+  <si>
+    <t>Attendee Danielle Kelly -50% (student)</t>
+  </si>
+  <si>
+    <t>Mark Whisler</t>
+  </si>
+  <si>
+    <t>Attendee Mark Whisler -50% (kind)</t>
+  </si>
+  <si>
     <t>Bonnie Granda</t>
   </si>
   <si>
     <t>Attendee Bonnie Granda -100% (scholarship)</t>
   </si>
   <si>
-    <t>Danielle Kelly</t>
-  </si>
-  <si>
-    <t>Attendee Danielle Kelly -50% (student)</t>
-  </si>
-  <si>
-    <t>River Ginther</t>
-  </si>
-  <si>
-    <t>Attendee River Ginther</t>
+    <t>Madison Vodicka</t>
+  </si>
+  <si>
+    <t>Attendee Madison Vodicka -100% (scholarship)</t>
   </si>
   <si>
     <t>Alexander Hansen</t>
@@ -827,18 +839,6 @@
     <t>Attendee Alexander Hansen -100% (studentscholarship)</t>
   </si>
   <si>
-    <t>Mark Whisler</t>
-  </si>
-  <si>
-    <t>Attendee Mark Whisler -50% (kind)</t>
-  </si>
-  <si>
-    <t>Madison Vodicka</t>
-  </si>
-  <si>
-    <t>Attendee Madison Vodicka -100% (scholarship)</t>
-  </si>
-  <si>
     <t>02/26/2020</t>
   </si>
   <si>
@@ -921,6 +921,21 @@
   </si>
   <si>
     <t>Devs Checking (7527)</t>
+  </si>
+  <si>
+    <t>08/03/2020</t>
+  </si>
+  <si>
+    <t>Walmart</t>
+  </si>
+  <si>
+    <t>Wal-Mart Super C POS DEB 1603 08/02/20 35350853</t>
+  </si>
+  <si>
+    <t>08/07/2020</t>
+  </si>
+  <si>
+    <t>Dev Night Pizza</t>
   </si>
   <si>
     <t xml:space="preserve">         Total for Devs Member Meals</t>
@@ -1094,6 +1109,18 @@
     <t>Domain Renewals (helpsgf.com, methodconf.com)</t>
   </si>
   <si>
+    <t>08/01/2020</t>
+  </si>
+  <si>
+    <t>08/04/2020</t>
+  </si>
+  <si>
+    <t>AMAZON WEB SERVICES DBT CRD 1230 08/03/20 DBINVP2O</t>
+  </si>
+  <si>
+    <t>08/05/2020</t>
+  </si>
+  <si>
     <t xml:space="preserve">         Total for Devs Software &amp; Hosting</t>
   </si>
   <si>
@@ -1103,10 +1130,10 @@
     <t>BJ's Trophy</t>
   </si>
   <si>
+    <t>Springfield Devs Founding Sponsor Plaques (Sales Tax 8.10%)</t>
+  </si>
+  <si>
     <t>Springfield Devs Founding Sponsor Plaques (18@ $27.95)</t>
-  </si>
-  <si>
-    <t>Springfield Devs Founding Sponsor Plaques (Sales Tax 8.10%)</t>
   </si>
   <si>
     <t>Founding Sponsor Plaque 1@ $27.95 + Tax
@@ -1188,25 +1215,39 @@
     <t>Item 101WB Black, Front Side Imprint 130 @ 3.48</t>
   </si>
   <si>
+    <t>Screen Charge</t>
+  </si>
+  <si>
     <t>Coupon Code</t>
   </si>
   <si>
-    <t>Screen Charge</t>
-  </si>
-  <si>
     <t xml:space="preserve">         Total for Method Attendee Bags</t>
   </si>
   <si>
     <t xml:space="preserve">         Method Attendee Shirts</t>
   </si>
   <si>
+    <t>Sales Tax $2101@ 8.10%</t>
+  </si>
+  <si>
+    <t>Set up Fee *Waived 3rd Set Up Fee for placing 100+ Pieces* 2@ $25</t>
+  </si>
+  <si>
+    <t>Upcharge - Size 2XL 14@ $3</t>
+  </si>
+  <si>
+    <t>Ink Change - 2 Colors  2@ $7</t>
+  </si>
+  <si>
+    <t>8413 Bella + Canvas - Women's Triblend Short Sleeve Tee 16@ $15
+Solid Black Triblend: AS - 7, AM - 3, AL - 3, AXL - 1, A2XL - 2
+**Price includes Two Color front, 1 Color Back. Solid black triblend - Front is rojo red and white ink. Back is white ink</t>
+  </si>
+  <si>
     <t>Shipping from Manufacturer</t>
   </si>
   <si>
-    <t>Sales Tax $2101@ 8.10%</t>
-  </si>
-  <si>
-    <t>Upcharge - Size 2XL 14@ $3</t>
+    <t>Upcharge - Size 3XL 6@ $5</t>
   </si>
   <si>
     <t>3413 Bella + Canvas - Triblend Short Sleeve T-Shirt Solid 114@ $15
@@ -1215,20 +1256,6 @@
 **Price includes Two Color front, 1 Color Back. Solid black triblend - Front is rojo red and white ink. Back is white ink. Red triblend - Front is white and black ink. Back is white ink.</t>
   </si>
   <si>
-    <t>8413 Bella + Canvas - Women's Triblend Short Sleeve Tee 16@ $15
-Solid Black Triblend: AS - 7, AM - 3, AL - 3, AXL - 1, A2XL - 2
-**Price includes Two Color front, 1 Color Back. Solid black triblend - Front is rojo red and white ink. Back is white ink</t>
-  </si>
-  <si>
-    <t>Set up Fee *Waived 3rd Set Up Fee for placing 100+ Pieces* 2@ $25</t>
-  </si>
-  <si>
-    <t>Ink Change - 2 Colors  2@ $7</t>
-  </si>
-  <si>
-    <t>Upcharge - Size 3XL 6@ $5</t>
-  </si>
-  <si>
     <t xml:space="preserve">         Total for Method Attendee Shirts</t>
   </si>
   <si>
@@ -1238,30 +1265,30 @@
     <t>Headline Productions</t>
   </si>
   <si>
+    <t>Equipment Rental, Replacement Cost $49,521</t>
+  </si>
+  <si>
     <t>Equipment Crew</t>
   </si>
   <si>
-    <t>Equipment Rental, Replacement Cost $49,521</t>
+    <t>Shipping, Deliver by Friday 02/28</t>
+  </si>
+  <si>
+    <t>Sales Tax</t>
+  </si>
+  <si>
+    <t>2 of Cable Matters Snagless Cat6 Ethernet Cable (Cat6 Cable/Cat 6 Cable) in Black 75 Feet</t>
+  </si>
+  <si>
+    <t>2 of Cable Matters Snagless Cat6 Ethernet Cable (Cat6 Cable/Cat 6 Cable) in Black 25</t>
   </si>
   <si>
     <t>2 of REAL USA Professional Grade Gaffer Tape By Gaffer Power (2 Inches x 30 Yards, Black)</t>
   </si>
   <si>
-    <t>2 of Cable Matters Snagless Cat6 Ethernet Cable (Cat6 Cable/Cat 6 Cable) in Black 75 Feet</t>
-  </si>
-  <si>
     <t>1 of Cable Matters Snagless Cat6 Ethernet Cable (Cat6 Cable, Cat 6 Cable) in Black 50 Feet</t>
   </si>
   <si>
-    <t>2 of Cable Matters Snagless Cat6 Ethernet Cable (Cat6 Cable/Cat 6 Cable) in Black 25</t>
-  </si>
-  <si>
-    <t>Sales Tax</t>
-  </si>
-  <si>
-    <t>Shipping, Deliver by Friday 02/28</t>
-  </si>
-  <si>
     <t xml:space="preserve">         Total for Method Audio Visual</t>
   </si>
   <si>
@@ -1280,33 +1307,30 @@
     <t>02/22/2020</t>
   </si>
   <si>
-    <t>Walmart</t>
+    <t>Sales Tax 8.10%</t>
   </si>
   <si>
     <t>Flour Sack  1 @ 4.47</t>
   </si>
   <si>
+    <t>Fever Tree  2 @ 5.98</t>
+  </si>
+  <si>
     <t>CC Sinl Coff  1 @ 6.48</t>
   </si>
   <si>
     <t>FS KT  5 @ 1.64</t>
   </si>
   <si>
+    <t>Drinkware  2 @ 4.96</t>
+  </si>
+  <si>
+    <t>Sales Tax 5.10%</t>
+  </si>
+  <si>
     <t>Land Coffee  4 @ 1.48</t>
   </si>
   <si>
-    <t>Drinkware  2 @ 4.96</t>
-  </si>
-  <si>
-    <t>Sales Tax 8.10%</t>
-  </si>
-  <si>
-    <t>Sales Tax 5.10%</t>
-  </si>
-  <si>
-    <t>Fever Tree  2 @ 5.98</t>
-  </si>
-  <si>
     <t>02/23/2020</t>
   </si>
   <si>
@@ -1322,33 +1346,33 @@
     <t>4401039-1</t>
   </si>
   <si>
+    <t>Coupon</t>
+  </si>
+  <si>
+    <t>1 of: YETI Rambler 14 oz Stainless Steel Vacuum Insulated Mug with Lid, Brick Red</t>
+  </si>
+  <si>
     <t>Anker Soundcore Life Q20 Hybrid Active Noise Cancelling Headphones</t>
   </si>
   <si>
     <t>3 of: Yootech Wireless Charger, [2 Pack] Qi-Certified 10W</t>
   </si>
   <si>
-    <t>1 of: YETI Rambler 14 oz Stainless Steel Vacuum Insulated Mug with Lid, Brick Red</t>
-  </si>
-  <si>
     <t>1 of: Ember Temperature Control Smart Mug, 10 oz</t>
   </si>
   <si>
+    <t>2 of: Amazon.com Gift Card in a Black Gift Box</t>
+  </si>
+  <si>
+    <t>4401039-2</t>
+  </si>
+  <si>
+    <t>1 of: GPS Drone, DROCON 5G WiFi FPV Drone</t>
+  </si>
+  <si>
     <t>2 of: Audio-Technica ATH-M50xBT Wireless Bluetooth Over-Ear Headphones, Black</t>
   </si>
   <si>
-    <t>Coupon</t>
-  </si>
-  <si>
-    <t>4401039-2</t>
-  </si>
-  <si>
-    <t>1 of: GPS Drone, DROCON 5G WiFi FPV Drone</t>
-  </si>
-  <si>
-    <t>2 of: Amazon.com Gift Card in a Black Gift Box</t>
-  </si>
-  <si>
     <t>03/02/2020</t>
   </si>
   <si>
@@ -1364,42 +1388,42 @@
     <t>Diamond Room / Simply Delicious</t>
   </si>
   <si>
+    <t>Room Rental</t>
+  </si>
+  <si>
     <t>Sales Tax 8.1%</t>
   </si>
   <si>
-    <t>Room Rental</t>
+    <t>Credit for Deposit Received</t>
   </si>
   <si>
     <t>Morning Pastries and Fruit, Taco Station Lunch, Evening Charcuterie Station ($24.50/person x 130)</t>
   </si>
   <si>
-    <t>Credit for Deposit Received</t>
-  </si>
-  <si>
     <t>02/29/2020</t>
   </si>
   <si>
+    <t>Ice 10lb</t>
+  </si>
+  <si>
+    <t>Limes x6</t>
+  </si>
+  <si>
     <t>Coke x2</t>
   </si>
   <si>
     <t>Lemons x6</t>
   </si>
   <si>
-    <t>Limes x6</t>
-  </si>
-  <si>
     <t>SC 20oz 12pk</t>
   </si>
   <si>
-    <t>Ice 10lb</t>
+    <t>Food Gratuity for Method Conference ($3185 at 19.17%)</t>
   </si>
   <si>
     <t>Bar Gratuity for Method Conference ($523 at 19.12%)</t>
   </si>
   <si>
-    <t>Food Gratuity for Method Conference ($3185 at 19.17%)</t>
-  </si>
-  <si>
     <t>03/06/2020</t>
   </si>
   <si>
@@ -1511,24 +1535,24 @@
     <t>02/28/2020</t>
   </si>
   <si>
+    <t>Method Folded Note Cards x50</t>
+  </si>
+  <si>
+    <t>Method Retractable Banner 1 Sided w/ Stand and Carry Bag</t>
+  </si>
+  <si>
+    <t>Creative for Conference Materials</t>
+  </si>
+  <si>
     <t>Method Podium Sign Foam Core</t>
   </si>
   <si>
-    <t>Creative for Conference Materials</t>
-  </si>
-  <si>
     <t>Blank Envelopes for Folded Note Cards x50</t>
   </si>
   <si>
-    <t>Method Folded Note Cards x50</t>
-  </si>
-  <si>
     <t>Method Flat Note Card 4x6  x150</t>
   </si>
   <si>
-    <t>Method Retractable Banner 1 Sided w/ Stand and Carry Bag</t>
-  </si>
-  <si>
     <t>Cmnd Pic Hng x2</t>
   </si>
   <si>
@@ -1544,42 +1568,42 @@
     <t>Houlihans Restaurant</t>
   </si>
   <si>
+    <t>Food, Drinks, Sales Tax</t>
+  </si>
+  <si>
     <t>Gratuity (~19.5% of ~$400)</t>
   </si>
   <si>
-    <t>Food, Drinks, Sales Tax</t>
-  </si>
-  <si>
     <t xml:space="preserve">         Total for Method Speaker Dinner</t>
   </si>
   <si>
     <t xml:space="preserve">         Method Speaker Gifts</t>
   </si>
   <si>
+    <t>Chabom Teas and Spices</t>
+  </si>
+  <si>
+    <t>Detail Not Provided</t>
+  </si>
+  <si>
     <t>Askinosie Chocolate LLC</t>
   </si>
   <si>
     <t>Itty Bar Zamora Amazonia  31@ $0.85 + Tax</t>
   </si>
   <si>
-    <t>Chabom Teas and Spices</t>
-  </si>
-  <si>
-    <t>Detail Not Provided</t>
+    <t>7 of: Amazon.com Gift Card in a Black Gift Box</t>
+  </si>
+  <si>
+    <t>3 of: Uber Gift Card $100</t>
+  </si>
+  <si>
+    <t>1 of: The Gift Wrap Company Decorative Confetti Gift Bows, Large, Black, pack of 12</t>
   </si>
   <si>
     <t>1 of: The Gift Wrap Company 4832-03 Decorative Confetti Bows, Large, Red Metallic</t>
   </si>
   <si>
-    <t>1 of: The Gift Wrap Company Decorative Confetti Gift Bows, Large, Black, pack of 12</t>
-  </si>
-  <si>
-    <t>3 of: Uber Gift Card $100</t>
-  </si>
-  <si>
-    <t>7 of: Amazon.com Gift Card in a Black Gift Box</t>
-  </si>
-  <si>
     <t>02/24/2020</t>
   </si>
   <si>
@@ -1595,18 +1619,18 @@
     <t xml:space="preserve">         Method Speaker Travel</t>
   </si>
   <si>
+    <t>Sam Basu</t>
+  </si>
+  <si>
+    <t>Speaker Travel for Method Conference in Springfield Missouri on 03/05/2020</t>
+  </si>
+  <si>
     <t>Randy Walker</t>
   </si>
   <si>
-    <t>Speaker Travel for Method Conference in Springfield Missouri on 03/05/2020</t>
-  </si>
-  <si>
     <t>Erika Gerdes</t>
   </si>
   <si>
-    <t>Sam Basu</t>
-  </si>
-  <si>
     <t>Katie Womersley</t>
   </si>
   <si>
@@ -1682,7 +1706,7 @@
     <t>Net Revenue</t>
   </si>
   <si>
-    <t>Monday, Aug 10, 2020 08:46:08 PM GMT-7 - Accrual Basis</t>
+    <t>Sunday, Oct 04, 2020 05:08:06 PM GMT-7 - Accrual Basis</t>
   </si>
   <si>
     <t>Springfield Devs</t>
@@ -1691,7 +1715,7 @@
     <t>Statement of Activity Detail</t>
   </si>
   <si>
-    <t>January - July, 2020</t>
+    <t>January - August, 2020</t>
   </si>
 </sst>
 </file>
@@ -1816,7 +1840,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="7" t="s">
-        <v>553</v>
+        <v>561</v>
       </c>
       <c r="B1"/>
       <c r="C1"/>
@@ -1828,7 +1852,7 @@
     </row>
     <row r="2">
       <c r="A2" s="7" t="s">
-        <v>554</v>
+        <v>562</v>
       </c>
       <c r="B2"/>
       <c r="C2"/>
@@ -1840,7 +1864,7 @@
     </row>
     <row r="3">
       <c r="A3" s="8" t="s">
-        <v>555</v>
+        <v>563</v>
       </c>
       <c r="B3"/>
       <c r="C3"/>
@@ -2019,7 +2043,7 @@
         <v>12</v>
       </c>
       <c r="D18" t="n" s="3">
-        <v>1071.0</v>
+        <v>1072.0</v>
       </c>
       <c r="E18" t="s" s="3">
         <v>26</v>
@@ -2031,7 +2055,7 @@
         <v>15</v>
       </c>
       <c r="H18" t="n" s="4">
-        <v>-100.0</v>
+        <v>1000.0</v>
       </c>
     </row>
     <row r="19">
@@ -2065,19 +2089,19 @@
         <v>12</v>
       </c>
       <c r="D20" t="n" s="3">
-        <v>1073.0</v>
+        <v>1074.0</v>
       </c>
       <c r="E20" t="s" s="3">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="F20" t="s" s="3">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="G20" t="s" s="3">
         <v>15</v>
       </c>
       <c r="H20" t="n" s="4">
-        <v>-100.0</v>
+        <v>-200.0</v>
       </c>
     </row>
     <row r="21">
@@ -2088,10 +2112,10 @@
         <v>12</v>
       </c>
       <c r="D21" t="n" s="3">
-        <v>1075.0</v>
+        <v>1072.0</v>
       </c>
       <c r="E21" t="s" s="3">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F21" t="s" s="3">
         <v>30</v>
@@ -2100,7 +2124,7 @@
         <v>15</v>
       </c>
       <c r="H21" t="n" s="4">
-        <v>500.0</v>
+        <v>-200.0</v>
       </c>
     </row>
     <row r="22">
@@ -2111,19 +2135,19 @@
         <v>12</v>
       </c>
       <c r="D22" t="n" s="3">
-        <v>1075.0</v>
+        <v>1071.0</v>
       </c>
       <c r="E22" t="s" s="3">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F22" t="s" s="3">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="G22" t="s" s="3">
         <v>15</v>
       </c>
       <c r="H22" t="n" s="4">
-        <v>-50.0</v>
+        <v>-100.0</v>
       </c>
     </row>
     <row r="23">
@@ -2134,19 +2158,19 @@
         <v>12</v>
       </c>
       <c r="D23" t="n" s="3">
-        <v>1074.0</v>
+        <v>1073.0</v>
       </c>
       <c r="E23" t="s" s="3">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="F23" t="s" s="3">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="G23" t="s" s="3">
         <v>15</v>
       </c>
       <c r="H23" t="n" s="4">
-        <v>-200.0</v>
+        <v>-100.0</v>
       </c>
     </row>
     <row r="24">
@@ -2157,19 +2181,19 @@
         <v>12</v>
       </c>
       <c r="D24" t="n" s="3">
-        <v>1074.0</v>
+        <v>1075.0</v>
       </c>
       <c r="E24" t="s" s="3">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F24" t="s" s="3">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G24" t="s" s="3">
         <v>15</v>
       </c>
       <c r="H24" t="n" s="4">
-        <v>1000.0</v>
+        <v>-50.0</v>
       </c>
     </row>
     <row r="25">
@@ -2180,10 +2204,10 @@
         <v>12</v>
       </c>
       <c r="D25" t="n" s="3">
-        <v>1074.0</v>
+        <v>1075.0</v>
       </c>
       <c r="E25" t="s" s="3">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F25" t="s" s="3">
         <v>33</v>
@@ -2192,7 +2216,7 @@
         <v>15</v>
       </c>
       <c r="H25" t="n" s="4">
-        <v>1000.0</v>
+        <v>500.0</v>
       </c>
     </row>
     <row r="26">
@@ -2203,10 +2227,10 @@
         <v>12</v>
       </c>
       <c r="D26" t="n" s="3">
-        <v>1071.0</v>
+        <v>1074.0</v>
       </c>
       <c r="E26" t="s" s="3">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F26" t="s" s="3">
         <v>34</v>
@@ -2226,19 +2250,19 @@
         <v>12</v>
       </c>
       <c r="D27" t="n" s="3">
-        <v>1072.0</v>
+        <v>1074.0</v>
       </c>
       <c r="E27" t="s" s="3">
+        <v>29</v>
+      </c>
+      <c r="F27" t="s" s="3">
         <v>35</v>
-      </c>
-      <c r="F27" t="s" s="3">
-        <v>27</v>
       </c>
       <c r="G27" t="s" s="3">
         <v>15</v>
       </c>
       <c r="H27" t="n" s="4">
-        <v>-200.0</v>
+        <v>1000.0</v>
       </c>
     </row>
     <row r="28">
@@ -2249,10 +2273,10 @@
         <v>12</v>
       </c>
       <c r="D28" t="n" s="3">
-        <v>1072.0</v>
+        <v>1071.0</v>
       </c>
       <c r="E28" t="s" s="3">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F28" t="s" s="3">
         <v>36</v>
@@ -2275,7 +2299,7 @@
         <v>1072.0</v>
       </c>
       <c r="E29" t="s" s="3">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="F29" t="s" s="3">
         <v>37</v>
@@ -2301,13 +2325,13 @@
         <v>18</v>
       </c>
       <c r="F30" t="s" s="3">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="G30" t="s" s="3">
         <v>15</v>
       </c>
       <c r="H30" t="n" s="4">
-        <v>500.0</v>
+        <v>-50.0</v>
       </c>
     </row>
     <row r="31">
@@ -2324,13 +2348,13 @@
         <v>18</v>
       </c>
       <c r="F31" t="s" s="3">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G31" t="s" s="3">
         <v>15</v>
       </c>
       <c r="H31" t="n" s="4">
-        <v>-50.0</v>
+        <v>500.0</v>
       </c>
     </row>
     <row r="32">
@@ -2347,7 +2371,7 @@
         <v>41</v>
       </c>
       <c r="F32" t="s" s="3">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G32" t="s" s="3">
         <v>15</v>
@@ -2584,7 +2608,7 @@
         <v>62</v>
       </c>
       <c r="D44" t="n" s="3">
-        <v>1080.0</v>
+        <v>1082.0</v>
       </c>
       <c r="E44" t="s" s="3">
         <v>63</v>
@@ -2596,7 +2620,7 @@
         <v>65</v>
       </c>
       <c r="H44" t="n" s="4">
-        <v>0.0</v>
+        <v>50.0</v>
       </c>
     </row>
     <row r="45">
@@ -2607,7 +2631,7 @@
         <v>62</v>
       </c>
       <c r="D45" t="n" s="3">
-        <v>1086.0</v>
+        <v>1076.0</v>
       </c>
       <c r="E45" t="s" s="3">
         <v>66</v>
@@ -2630,7 +2654,7 @@
         <v>62</v>
       </c>
       <c r="D46" t="n" s="3">
-        <v>1079.0</v>
+        <v>1078.0</v>
       </c>
       <c r="E46" t="s" s="3">
         <v>68</v>
@@ -2642,7 +2666,7 @@
         <v>65</v>
       </c>
       <c r="H46" t="n" s="4">
-        <v>50.0</v>
+        <v>100.0</v>
       </c>
     </row>
     <row r="47">
@@ -2653,13 +2677,13 @@
         <v>62</v>
       </c>
       <c r="D47" t="n" s="3">
-        <v>1079.0</v>
+        <v>1077.0</v>
       </c>
       <c r="E47" t="s" s="3">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F47" t="s" s="3">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G47" t="s" s="3">
         <v>65</v>
@@ -2676,19 +2700,19 @@
         <v>62</v>
       </c>
       <c r="D48" t="n" s="3">
-        <v>1077.0</v>
+        <v>1085.0</v>
       </c>
       <c r="E48" t="s" s="3">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F48" t="s" s="3">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G48" t="s" s="3">
         <v>65</v>
       </c>
       <c r="H48" t="n" s="4">
-        <v>50.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="49">
@@ -2699,19 +2723,19 @@
         <v>62</v>
       </c>
       <c r="D49" t="n" s="3">
-        <v>1082.0</v>
+        <v>1081.0</v>
       </c>
       <c r="E49" t="s" s="3">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F49" t="s" s="3">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G49" t="s" s="3">
         <v>65</v>
       </c>
       <c r="H49" t="n" s="4">
-        <v>50.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="50">
@@ -2722,19 +2746,19 @@
         <v>62</v>
       </c>
       <c r="D50" t="n" s="3">
-        <v>1076.0</v>
+        <v>1080.0</v>
       </c>
       <c r="E50" t="s" s="3">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F50" t="s" s="3">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G50" t="s" s="3">
         <v>65</v>
       </c>
       <c r="H50" t="n" s="4">
-        <v>50.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="51">
@@ -2745,13 +2769,13 @@
         <v>62</v>
       </c>
       <c r="D51" t="n" s="3">
-        <v>1083.0</v>
+        <v>1087.0</v>
       </c>
       <c r="E51" t="s" s="3">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F51" t="s" s="3">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G51" t="s" s="3">
         <v>65</v>
@@ -2768,13 +2792,13 @@
         <v>62</v>
       </c>
       <c r="D52" t="n" s="3">
-        <v>1084.0</v>
+        <v>1088.0</v>
       </c>
       <c r="E52" t="s" s="3">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F52" t="s" s="3">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G52" t="s" s="3">
         <v>65</v>
@@ -2791,13 +2815,13 @@
         <v>62</v>
       </c>
       <c r="D53" t="n" s="3">
-        <v>1088.0</v>
+        <v>1084.0</v>
       </c>
       <c r="E53" t="s" s="3">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F53" t="s" s="3">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G53" t="s" s="3">
         <v>65</v>
@@ -2814,13 +2838,13 @@
         <v>62</v>
       </c>
       <c r="D54" t="n" s="3">
-        <v>1087.0</v>
+        <v>1083.0</v>
       </c>
       <c r="E54" t="s" s="3">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F54" t="s" s="3">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G54" t="s" s="3">
         <v>65</v>
@@ -2837,19 +2861,19 @@
         <v>62</v>
       </c>
       <c r="D55" t="n" s="3">
-        <v>1078.0</v>
+        <v>1086.0</v>
       </c>
       <c r="E55" t="s" s="3">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F55" t="s" s="3">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G55" t="s" s="3">
         <v>65</v>
       </c>
       <c r="H55" t="n" s="4">
-        <v>100.0</v>
+        <v>50.0</v>
       </c>
     </row>
     <row r="56">
@@ -2860,19 +2884,19 @@
         <v>62</v>
       </c>
       <c r="D56" t="n" s="3">
-        <v>1081.0</v>
+        <v>1079.0</v>
       </c>
       <c r="E56" t="s" s="3">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F56" t="s" s="3">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G56" t="s" s="3">
         <v>65</v>
       </c>
       <c r="H56" t="n" s="4">
-        <v>0.0</v>
+        <v>50.0</v>
       </c>
     </row>
     <row r="57">
@@ -2883,10 +2907,10 @@
         <v>62</v>
       </c>
       <c r="D57" t="n" s="3">
-        <v>1085.0</v>
+        <v>1079.0</v>
       </c>
       <c r="E57" t="s" s="3">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F57" t="s" s="3">
         <v>90</v>
@@ -2895,7 +2919,7 @@
         <v>65</v>
       </c>
       <c r="H57" t="n" s="4">
-        <v>0.0</v>
+        <v>50.0</v>
       </c>
     </row>
     <row r="58">
@@ -3044,7 +3068,7 @@
         <v>62</v>
       </c>
       <c r="D64" t="n" s="3">
-        <v>1097.0</v>
+        <v>1096.0</v>
       </c>
       <c r="E64" t="s" s="3">
         <v>106</v>
@@ -3056,7 +3080,7 @@
         <v>65</v>
       </c>
       <c r="H64" t="n" s="4">
-        <v>0.0</v>
+        <v>100.0</v>
       </c>
     </row>
     <row r="65">
@@ -3067,7 +3091,7 @@
         <v>62</v>
       </c>
       <c r="D65" t="n" s="3">
-        <v>1096.0</v>
+        <v>1097.0</v>
       </c>
       <c r="E65" t="s" s="3">
         <v>108</v>
@@ -3079,7 +3103,7 @@
         <v>65</v>
       </c>
       <c r="H65" t="n" s="4">
-        <v>100.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="66">
@@ -3113,7 +3137,7 @@
         <v>62</v>
       </c>
       <c r="D67" t="n" s="3">
-        <v>1100.0</v>
+        <v>1101.0</v>
       </c>
       <c r="E67" t="s" s="3">
         <v>114</v>
@@ -3159,7 +3183,7 @@
         <v>62</v>
       </c>
       <c r="D69" t="n" s="3">
-        <v>1101.0</v>
+        <v>1100.0</v>
       </c>
       <c r="E69" t="s" s="3">
         <v>118</v>
@@ -3251,13 +3275,13 @@
         <v>62</v>
       </c>
       <c r="D73" t="n" s="3">
-        <v>1110.0</v>
+        <v>1109.0</v>
       </c>
       <c r="E73" t="s" s="3">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="F73" t="s" s="3">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G73" t="s" s="3">
         <v>65</v>
@@ -3280,7 +3304,7 @@
         <v>120</v>
       </c>
       <c r="F74" t="s" s="3">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G74" t="s" s="3">
         <v>65</v>
@@ -3297,10 +3321,10 @@
         <v>62</v>
       </c>
       <c r="D75" t="n" s="3">
-        <v>1109.0</v>
+        <v>1110.0</v>
       </c>
       <c r="E75" t="s" s="3">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="F75" t="s" s="3">
         <v>127</v>
@@ -3320,7 +3344,7 @@
         <v>62</v>
       </c>
       <c r="D76" t="n" s="3">
-        <v>1112.0</v>
+        <v>1111.0</v>
       </c>
       <c r="E76" t="s" s="3">
         <v>129</v>
@@ -3332,7 +3356,7 @@
         <v>65</v>
       </c>
       <c r="H76" t="n" s="4">
-        <v>70.0</v>
+        <v>50.0</v>
       </c>
     </row>
     <row r="77">
@@ -3343,7 +3367,7 @@
         <v>62</v>
       </c>
       <c r="D77" t="n" s="3">
-        <v>1111.0</v>
+        <v>1112.0</v>
       </c>
       <c r="E77" t="s" s="3">
         <v>131</v>
@@ -3355,7 +3379,7 @@
         <v>65</v>
       </c>
       <c r="H77" t="n" s="4">
-        <v>50.0</v>
+        <v>70.0</v>
       </c>
     </row>
     <row r="78">
@@ -3366,7 +3390,7 @@
         <v>62</v>
       </c>
       <c r="D78" t="n" s="3">
-        <v>1114.0</v>
+        <v>1115.0</v>
       </c>
       <c r="E78" t="s" s="3">
         <v>134</v>
@@ -3392,10 +3416,10 @@
         <v>1115.0</v>
       </c>
       <c r="E79" t="s" s="3">
+        <v>134</v>
+      </c>
+      <c r="F79" t="s" s="3">
         <v>136</v>
-      </c>
-      <c r="F79" t="s" s="3">
-        <v>137</v>
       </c>
       <c r="G79" t="s" s="3">
         <v>65</v>
@@ -3415,10 +3439,10 @@
         <v>1115.0</v>
       </c>
       <c r="E80" t="s" s="3">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F80" t="s" s="3">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G80" t="s" s="3">
         <v>65</v>
@@ -3435,10 +3459,10 @@
         <v>62</v>
       </c>
       <c r="D81" t="n" s="3">
-        <v>1115.0</v>
+        <v>1113.0</v>
       </c>
       <c r="E81" t="s" s="3">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="F81" t="s" s="3">
         <v>139</v>
@@ -3458,13 +3482,13 @@
         <v>62</v>
       </c>
       <c r="D82" t="n" s="3">
-        <v>1115.0</v>
+        <v>1114.0</v>
       </c>
       <c r="E82" t="s" s="3">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="F82" t="s" s="3">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G82" t="s" s="3">
         <v>65</v>
@@ -3481,10 +3505,10 @@
         <v>62</v>
       </c>
       <c r="D83" t="n" s="3">
-        <v>1113.0</v>
+        <v>1115.0</v>
       </c>
       <c r="E83" t="s" s="3">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="F83" t="s" s="3">
         <v>142</v>
@@ -3573,19 +3597,19 @@
         <v>62</v>
       </c>
       <c r="D87" t="n" s="3">
-        <v>1119.0</v>
+        <v>1118.0</v>
       </c>
       <c r="E87" t="s" s="3">
+        <v>147</v>
+      </c>
+      <c r="F87" t="s" s="3">
         <v>149</v>
       </c>
-      <c r="F87" t="s" s="3">
-        <v>150</v>
-      </c>
       <c r="G87" t="s" s="3">
         <v>65</v>
       </c>
       <c r="H87" t="n" s="4">
-        <v>70.0</v>
+        <v>100.0</v>
       </c>
     </row>
     <row r="88">
@@ -3596,10 +3620,10 @@
         <v>62</v>
       </c>
       <c r="D88" t="n" s="3">
-        <v>1118.0</v>
+        <v>1119.0</v>
       </c>
       <c r="E88" t="s" s="3">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="F88" t="s" s="3">
         <v>151</v>
@@ -3608,7 +3632,7 @@
         <v>65</v>
       </c>
       <c r="H88" t="n" s="4">
-        <v>100.0</v>
+        <v>70.0</v>
       </c>
     </row>
     <row r="89">
@@ -3642,19 +3666,19 @@
         <v>62</v>
       </c>
       <c r="D90" t="n" s="3">
-        <v>1120.0</v>
+        <v>1121.0</v>
       </c>
       <c r="E90" t="s" s="3">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="F90" t="s" s="3">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="G90" t="s" s="3">
         <v>65</v>
       </c>
       <c r="H90" t="n" s="4">
-        <v>-30.0</v>
+        <v>50.0</v>
       </c>
     </row>
     <row r="91">
@@ -3668,7 +3692,7 @@
         <v>1121.0</v>
       </c>
       <c r="E91" t="s" s="3">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F91" t="s" s="3">
         <v>156</v>
@@ -3691,7 +3715,7 @@
         <v>1121.0</v>
       </c>
       <c r="E92" t="s" s="3">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F92" t="s" s="3">
         <v>157</v>
@@ -3714,7 +3738,7 @@
         <v>1121.0</v>
       </c>
       <c r="E93" t="s" s="3">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F93" t="s" s="3">
         <v>158</v>
@@ -3737,7 +3761,7 @@
         <v>1121.0</v>
       </c>
       <c r="E94" t="s" s="3">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F94" t="s" s="3">
         <v>159</v>
@@ -3760,7 +3784,7 @@
         <v>1121.0</v>
       </c>
       <c r="E95" t="s" s="3">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F95" t="s" s="3">
         <v>160</v>
@@ -3783,7 +3807,7 @@
         <v>1121.0</v>
       </c>
       <c r="E96" t="s" s="3">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F96" t="s" s="3">
         <v>161</v>
@@ -3803,10 +3827,10 @@
         <v>62</v>
       </c>
       <c r="D97" t="n" s="3">
-        <v>1121.0</v>
+        <v>1122.0</v>
       </c>
       <c r="E97" t="s" s="3">
-        <v>155</v>
+        <v>52</v>
       </c>
       <c r="F97" t="s" s="3">
         <v>162</v>
@@ -3826,10 +3850,10 @@
         <v>62</v>
       </c>
       <c r="D98" t="n" s="3">
-        <v>1122.0</v>
+        <v>1120.0</v>
       </c>
       <c r="E98" t="s" s="3">
-        <v>52</v>
+        <v>152</v>
       </c>
       <c r="F98" t="s" s="3">
         <v>163</v>
@@ -3838,7 +3862,7 @@
         <v>65</v>
       </c>
       <c r="H98" t="n" s="4">
-        <v>50.0</v>
+        <v>-30.0</v>
       </c>
     </row>
     <row r="99">
@@ -3921,7 +3945,7 @@
         <v>1127.0</v>
       </c>
       <c r="E102" t="s" s="3">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F102" t="s" s="3">
         <v>171</v>
@@ -3944,7 +3968,7 @@
         <v>1126.0</v>
       </c>
       <c r="E103" t="s" s="3">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="F103" t="s" s="3">
         <v>172</v>
@@ -3967,7 +3991,7 @@
         <v>1127.0</v>
       </c>
       <c r="E104" t="s" s="3">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F104" t="s" s="3">
         <v>173</v>
@@ -3990,7 +4014,7 @@
         <v>1128.0</v>
       </c>
       <c r="E105" t="s" s="3">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F105" t="s" s="3">
         <v>175</v>
@@ -4102,7 +4126,7 @@
         <v>62</v>
       </c>
       <c r="D110" t="n" s="3">
-        <v>1134.0</v>
+        <v>1137.0</v>
       </c>
       <c r="E110" t="s" s="3">
         <v>185</v>
@@ -4114,7 +4138,7 @@
         <v>65</v>
       </c>
       <c r="H110" t="n" s="4">
-        <v>50.0</v>
+        <v>100.0</v>
       </c>
     </row>
     <row r="111">
@@ -4125,7 +4149,7 @@
         <v>62</v>
       </c>
       <c r="D111" t="n" s="3">
-        <v>1133.0</v>
+        <v>1134.0</v>
       </c>
       <c r="E111" t="s" s="3">
         <v>187</v>
@@ -4137,7 +4161,7 @@
         <v>65</v>
       </c>
       <c r="H111" t="n" s="4">
-        <v>0.0</v>
+        <v>50.0</v>
       </c>
     </row>
     <row r="112">
@@ -4148,7 +4172,7 @@
         <v>62</v>
       </c>
       <c r="D112" t="n" s="3">
-        <v>1136.0</v>
+        <v>1139.0</v>
       </c>
       <c r="E112" t="s" s="3">
         <v>189</v>
@@ -4160,7 +4184,7 @@
         <v>65</v>
       </c>
       <c r="H112" t="n" s="4">
-        <v>50.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="113">
@@ -4171,19 +4195,19 @@
         <v>62</v>
       </c>
       <c r="D113" t="n" s="3">
-        <v>1136.0</v>
+        <v>1138.0</v>
       </c>
       <c r="E113" t="s" s="3">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="F113" t="s" s="3">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="G113" t="s" s="3">
         <v>65</v>
       </c>
       <c r="H113" t="n" s="4">
-        <v>50.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="114">
@@ -4197,10 +4221,10 @@
         <v>1135.0</v>
       </c>
       <c r="E114" t="s" s="3">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="F114" t="s" s="3">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="G114" t="s" s="3">
         <v>65</v>
@@ -4217,19 +4241,19 @@
         <v>62</v>
       </c>
       <c r="D115" t="n" s="3">
-        <v>1137.0</v>
+        <v>1140.0</v>
       </c>
       <c r="E115" t="s" s="3">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F115" t="s" s="3">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="G115" t="s" s="3">
         <v>65</v>
       </c>
       <c r="H115" t="n" s="4">
-        <v>100.0</v>
+        <v>50.0</v>
       </c>
     </row>
     <row r="116">
@@ -4240,19 +4264,19 @@
         <v>62</v>
       </c>
       <c r="D116" t="n" s="3">
-        <v>1138.0</v>
+        <v>1136.0</v>
       </c>
       <c r="E116" t="s" s="3">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="F116" t="s" s="3">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="G116" t="s" s="3">
         <v>65</v>
       </c>
       <c r="H116" t="n" s="4">
-        <v>0.0</v>
+        <v>50.0</v>
       </c>
     </row>
     <row r="117">
@@ -4263,10 +4287,10 @@
         <v>62</v>
       </c>
       <c r="D117" t="n" s="3">
-        <v>1139.0</v>
+        <v>1136.0</v>
       </c>
       <c r="E117" t="s" s="3">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F117" t="s" s="3">
         <v>199</v>
@@ -4275,7 +4299,7 @@
         <v>65</v>
       </c>
       <c r="H117" t="n" s="4">
-        <v>0.0</v>
+        <v>50.0</v>
       </c>
     </row>
     <row r="118">
@@ -4286,13 +4310,13 @@
         <v>62</v>
       </c>
       <c r="D118" t="n" s="3">
-        <v>1140.0</v>
+        <v>1136.0</v>
       </c>
       <c r="E118" t="s" s="3">
+        <v>197</v>
+      </c>
+      <c r="F118" t="s" s="3">
         <v>200</v>
-      </c>
-      <c r="F118" t="s" s="3">
-        <v>201</v>
       </c>
       <c r="G118" t="s" s="3">
         <v>65</v>
@@ -4312,10 +4336,10 @@
         <v>1136.0</v>
       </c>
       <c r="E119" t="s" s="3">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="F119" t="s" s="3">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G119" t="s" s="3">
         <v>65</v>
@@ -4332,10 +4356,10 @@
         <v>62</v>
       </c>
       <c r="D120" t="n" s="3">
-        <v>1136.0</v>
+        <v>1133.0</v>
       </c>
       <c r="E120" t="s" s="3">
-        <v>189</v>
+        <v>202</v>
       </c>
       <c r="F120" t="s" s="3">
         <v>203</v>
@@ -4344,7 +4368,7 @@
         <v>65</v>
       </c>
       <c r="H120" t="n" s="4">
-        <v>50.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="121">
@@ -4355,7 +4379,7 @@
         <v>62</v>
       </c>
       <c r="D121" t="n" s="3">
-        <v>1141.0</v>
+        <v>1143.0</v>
       </c>
       <c r="E121" t="s" s="3">
         <v>204</v>
@@ -4367,7 +4391,7 @@
         <v>65</v>
       </c>
       <c r="H121" t="n" s="4">
-        <v>50.0</v>
+        <v>100.0</v>
       </c>
     </row>
     <row r="122">
@@ -4378,19 +4402,19 @@
         <v>62</v>
       </c>
       <c r="D122" t="n" s="3">
-        <v>1142.0</v>
+        <v>1141.0</v>
       </c>
       <c r="E122" t="s" s="3">
-        <v>13</v>
+        <v>206</v>
       </c>
       <c r="F122" t="s" s="3">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="G122" t="s" s="3">
         <v>65</v>
       </c>
       <c r="H122" t="n" s="4">
-        <v>0.0</v>
+        <v>50.0</v>
       </c>
     </row>
     <row r="123">
@@ -4401,10 +4425,10 @@
         <v>62</v>
       </c>
       <c r="D123" t="n" s="3">
-        <v>1143.0</v>
+        <v>1142.0</v>
       </c>
       <c r="E123" t="s" s="3">
-        <v>207</v>
+        <v>13</v>
       </c>
       <c r="F123" t="s" s="3">
         <v>208</v>
@@ -4413,7 +4437,7 @@
         <v>65</v>
       </c>
       <c r="H123" t="n" s="4">
-        <v>100.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="124">
@@ -4424,7 +4448,7 @@
         <v>62</v>
       </c>
       <c r="D124" t="n" s="3">
-        <v>1155.0</v>
+        <v>1167.0</v>
       </c>
       <c r="E124" t="s" s="3">
         <v>210</v>
@@ -4447,19 +4471,19 @@
         <v>62</v>
       </c>
       <c r="D125" t="n" s="3">
-        <v>1156.0</v>
+        <v>1146.0</v>
       </c>
       <c r="E125" t="s" s="3">
-        <v>49</v>
+        <v>212</v>
       </c>
       <c r="F125" t="s" s="3">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="G125" t="s" s="3">
         <v>65</v>
       </c>
       <c r="H125" t="n" s="4">
-        <v>50.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="126">
@@ -4470,19 +4494,19 @@
         <v>62</v>
       </c>
       <c r="D126" t="n" s="3">
-        <v>1156.0</v>
+        <v>1150.0</v>
       </c>
       <c r="E126" t="s" s="3">
-        <v>49</v>
+        <v>214</v>
       </c>
       <c r="F126" t="s" s="3">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="G126" t="s" s="3">
         <v>65</v>
       </c>
       <c r="H126" t="n" s="4">
-        <v>50.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="127">
@@ -4493,19 +4517,19 @@
         <v>62</v>
       </c>
       <c r="D127" t="n" s="3">
-        <v>1156.0</v>
+        <v>1151.0</v>
       </c>
       <c r="E127" t="s" s="3">
-        <v>49</v>
+        <v>216</v>
       </c>
       <c r="F127" t="s" s="3">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="G127" t="s" s="3">
         <v>65</v>
       </c>
       <c r="H127" t="n" s="4">
-        <v>50.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="128">
@@ -4516,19 +4540,19 @@
         <v>62</v>
       </c>
       <c r="D128" t="n" s="3">
-        <v>1156.0</v>
+        <v>1152.0</v>
       </c>
       <c r="E128" t="s" s="3">
-        <v>49</v>
+        <v>218</v>
       </c>
       <c r="F128" t="s" s="3">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="G128" t="s" s="3">
         <v>65</v>
       </c>
       <c r="H128" t="n" s="4">
-        <v>50.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="129">
@@ -4539,19 +4563,19 @@
         <v>62</v>
       </c>
       <c r="D129" t="n" s="3">
-        <v>1156.0</v>
+        <v>1153.0</v>
       </c>
       <c r="E129" t="s" s="3">
-        <v>49</v>
+        <v>220</v>
       </c>
       <c r="F129" t="s" s="3">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="G129" t="s" s="3">
         <v>65</v>
       </c>
       <c r="H129" t="n" s="4">
-        <v>50.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="130">
@@ -4562,19 +4586,19 @@
         <v>62</v>
       </c>
       <c r="D130" t="n" s="3">
-        <v>1157.0</v>
+        <v>1154.0</v>
       </c>
       <c r="E130" t="s" s="3">
-        <v>187</v>
+        <v>49</v>
       </c>
       <c r="F130" t="s" s="3">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="G130" t="s" s="3">
         <v>65</v>
       </c>
       <c r="H130" t="n" s="4">
-        <v>50.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="131">
@@ -4585,19 +4609,19 @@
         <v>62</v>
       </c>
       <c r="D131" t="n" s="3">
-        <v>1157.0</v>
+        <v>1154.0</v>
       </c>
       <c r="E131" t="s" s="3">
-        <v>187</v>
+        <v>49</v>
       </c>
       <c r="F131" t="s" s="3">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="G131" t="s" s="3">
         <v>65</v>
       </c>
       <c r="H131" t="n" s="4">
-        <v>50.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="132">
@@ -4608,13 +4632,13 @@
         <v>62</v>
       </c>
       <c r="D132" t="n" s="3">
-        <v>1158.0</v>
+        <v>1155.0</v>
       </c>
       <c r="E132" t="s" s="3">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="F132" t="s" s="3">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="G132" t="s" s="3">
         <v>65</v>
@@ -4631,13 +4655,13 @@
         <v>62</v>
       </c>
       <c r="D133" t="n" s="3">
-        <v>1160.0</v>
+        <v>1158.0</v>
       </c>
       <c r="E133" t="s" s="3">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="F133" t="s" s="3">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="G133" t="s" s="3">
         <v>65</v>
@@ -4654,13 +4678,13 @@
         <v>62</v>
       </c>
       <c r="D134" t="n" s="3">
-        <v>1161.0</v>
+        <v>1160.0</v>
       </c>
       <c r="E134" t="s" s="3">
-        <v>18</v>
+        <v>228</v>
       </c>
       <c r="F134" t="s" s="3">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="G134" t="s" s="3">
         <v>65</v>
@@ -4683,7 +4707,7 @@
         <v>18</v>
       </c>
       <c r="F135" t="s" s="3">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="G135" t="s" s="3">
         <v>65</v>
@@ -4700,19 +4724,19 @@
         <v>62</v>
       </c>
       <c r="D136" t="n" s="3">
-        <v>1162.0</v>
+        <v>1161.0</v>
       </c>
       <c r="E136" t="s" s="3">
         <v>18</v>
       </c>
       <c r="F136" t="s" s="3">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="G136" t="s" s="3">
         <v>65</v>
       </c>
       <c r="H136" t="n" s="4">
-        <v>50.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="137">
@@ -4723,19 +4747,19 @@
         <v>62</v>
       </c>
       <c r="D137" t="n" s="3">
-        <v>1162.0</v>
+        <v>1163.0</v>
       </c>
       <c r="E137" t="s" s="3">
-        <v>18</v>
+        <v>232</v>
       </c>
       <c r="F137" t="s" s="3">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="G137" t="s" s="3">
         <v>65</v>
       </c>
       <c r="H137" t="n" s="4">
-        <v>50.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="138">
@@ -4746,13 +4770,13 @@
         <v>62</v>
       </c>
       <c r="D138" t="n" s="3">
-        <v>1163.0</v>
+        <v>1164.0</v>
       </c>
       <c r="E138" t="s" s="3">
-        <v>227</v>
+        <v>43</v>
       </c>
       <c r="F138" t="s" s="3">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="G138" t="s" s="3">
         <v>65</v>
@@ -4775,7 +4799,7 @@
         <v>43</v>
       </c>
       <c r="F139" t="s" s="3">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="G139" t="s" s="3">
         <v>65</v>
@@ -4792,19 +4816,19 @@
         <v>62</v>
       </c>
       <c r="D140" t="n" s="3">
-        <v>1164.0</v>
+        <v>1169.0</v>
       </c>
       <c r="E140" t="s" s="3">
-        <v>43</v>
+        <v>236</v>
       </c>
       <c r="F140" t="s" s="3">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c r="G140" t="s" s="3">
         <v>65</v>
       </c>
       <c r="H140" t="n" s="4">
-        <v>0.0</v>
+        <v>70.0</v>
       </c>
     </row>
     <row r="141">
@@ -4815,19 +4839,19 @@
         <v>62</v>
       </c>
       <c r="D141" t="n" s="3">
-        <v>1165.0</v>
+        <v>1147.0</v>
       </c>
       <c r="E141" t="s" s="3">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="F141" t="s" s="3">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="G141" t="s" s="3">
         <v>65</v>
       </c>
       <c r="H141" t="n" s="4">
-        <v>50.0</v>
+        <v>70.0</v>
       </c>
     </row>
     <row r="142">
@@ -4838,13 +4862,13 @@
         <v>62</v>
       </c>
       <c r="D142" t="n" s="3">
-        <v>1166.0</v>
+        <v>1159.0</v>
       </c>
       <c r="E142" t="s" s="3">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="F142" t="s" s="3">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="G142" t="s" s="3">
         <v>65</v>
@@ -4861,13 +4885,13 @@
         <v>62</v>
       </c>
       <c r="D143" t="n" s="3">
-        <v>1159.0</v>
+        <v>1168.0</v>
       </c>
       <c r="E143" t="s" s="3">
-        <v>29</v>
+        <v>241</v>
       </c>
       <c r="F143" t="s" s="3">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="G143" t="s" s="3">
         <v>65</v>
@@ -4884,19 +4908,19 @@
         <v>62</v>
       </c>
       <c r="D144" t="n" s="3">
-        <v>1149.0</v>
+        <v>1144.0</v>
       </c>
       <c r="E144" t="s" s="3">
-        <v>235</v>
+        <v>243</v>
       </c>
       <c r="F144" t="s" s="3">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="G144" t="s" s="3">
         <v>65</v>
       </c>
       <c r="H144" t="n" s="4">
-        <v>0.0</v>
+        <v>50.0</v>
       </c>
     </row>
     <row r="145">
@@ -4907,13 +4931,13 @@
         <v>62</v>
       </c>
       <c r="D145" t="n" s="3">
-        <v>1168.0</v>
+        <v>1145.0</v>
       </c>
       <c r="E145" t="s" s="3">
-        <v>237</v>
+        <v>202</v>
       </c>
       <c r="F145" t="s" s="3">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="G145" t="s" s="3">
         <v>65</v>
@@ -4930,19 +4954,19 @@
         <v>62</v>
       </c>
       <c r="D146" t="n" s="3">
-        <v>1167.0</v>
+        <v>1148.0</v>
       </c>
       <c r="E146" t="s" s="3">
-        <v>239</v>
+        <v>246</v>
       </c>
       <c r="F146" t="s" s="3">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="G146" t="s" s="3">
         <v>65</v>
       </c>
       <c r="H146" t="n" s="4">
-        <v>0.0</v>
+        <v>50.0</v>
       </c>
     </row>
     <row r="147">
@@ -4953,19 +4977,19 @@
         <v>62</v>
       </c>
       <c r="D147" t="n" s="3">
-        <v>1169.0</v>
+        <v>1156.0</v>
       </c>
       <c r="E147" t="s" s="3">
-        <v>241</v>
+        <v>49</v>
       </c>
       <c r="F147" t="s" s="3">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="G147" t="s" s="3">
         <v>65</v>
       </c>
       <c r="H147" t="n" s="4">
-        <v>70.0</v>
+        <v>50.0</v>
       </c>
     </row>
     <row r="148">
@@ -4976,13 +5000,13 @@
         <v>62</v>
       </c>
       <c r="D148" t="n" s="3">
-        <v>1144.0</v>
+        <v>1156.0</v>
       </c>
       <c r="E148" t="s" s="3">
-        <v>243</v>
+        <v>49</v>
       </c>
       <c r="F148" t="s" s="3">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="G148" t="s" s="3">
         <v>65</v>
@@ -4999,13 +5023,13 @@
         <v>62</v>
       </c>
       <c r="D149" t="n" s="3">
-        <v>1145.0</v>
+        <v>1156.0</v>
       </c>
       <c r="E149" t="s" s="3">
-        <v>187</v>
+        <v>49</v>
       </c>
       <c r="F149" t="s" s="3">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="G149" t="s" s="3">
         <v>65</v>
@@ -5022,19 +5046,19 @@
         <v>62</v>
       </c>
       <c r="D150" t="n" s="3">
-        <v>1146.0</v>
+        <v>1156.0</v>
       </c>
       <c r="E150" t="s" s="3">
-        <v>246</v>
+        <v>49</v>
       </c>
       <c r="F150" t="s" s="3">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="G150" t="s" s="3">
         <v>65</v>
       </c>
       <c r="H150" t="n" s="4">
-        <v>0.0</v>
+        <v>50.0</v>
       </c>
     </row>
     <row r="151">
@@ -5045,19 +5069,19 @@
         <v>62</v>
       </c>
       <c r="D151" t="n" s="3">
-        <v>1147.0</v>
+        <v>1156.0</v>
       </c>
       <c r="E151" t="s" s="3">
-        <v>248</v>
+        <v>49</v>
       </c>
       <c r="F151" t="s" s="3">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="G151" t="s" s="3">
         <v>65</v>
       </c>
       <c r="H151" t="n" s="4">
-        <v>70.0</v>
+        <v>50.0</v>
       </c>
     </row>
     <row r="152">
@@ -5068,13 +5092,13 @@
         <v>62</v>
       </c>
       <c r="D152" t="n" s="3">
-        <v>1148.0</v>
+        <v>1157.0</v>
       </c>
       <c r="E152" t="s" s="3">
-        <v>250</v>
+        <v>202</v>
       </c>
       <c r="F152" t="s" s="3">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="G152" t="s" s="3">
         <v>65</v>
@@ -5091,19 +5115,19 @@
         <v>62</v>
       </c>
       <c r="D153" t="n" s="3">
-        <v>1150.0</v>
+        <v>1157.0</v>
       </c>
       <c r="E153" t="s" s="3">
-        <v>252</v>
+        <v>202</v>
       </c>
       <c r="F153" t="s" s="3">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="G153" t="s" s="3">
         <v>65</v>
       </c>
       <c r="H153" t="n" s="4">
-        <v>0.0</v>
+        <v>50.0</v>
       </c>
     </row>
     <row r="154">
@@ -5114,10 +5138,10 @@
         <v>62</v>
       </c>
       <c r="D154" t="n" s="3">
-        <v>1151.0</v>
+        <v>1162.0</v>
       </c>
       <c r="E154" t="s" s="3">
-        <v>254</v>
+        <v>18</v>
       </c>
       <c r="F154" t="s" s="3">
         <v>255</v>
@@ -5126,7 +5150,7 @@
         <v>65</v>
       </c>
       <c r="H154" t="n" s="4">
-        <v>0.0</v>
+        <v>50.0</v>
       </c>
     </row>
     <row r="155">
@@ -5137,19 +5161,19 @@
         <v>62</v>
       </c>
       <c r="D155" t="n" s="3">
-        <v>1152.0</v>
+        <v>1162.0</v>
       </c>
       <c r="E155" t="s" s="3">
+        <v>18</v>
+      </c>
+      <c r="F155" t="s" s="3">
         <v>256</v>
       </c>
-      <c r="F155" t="s" s="3">
-        <v>257</v>
-      </c>
       <c r="G155" t="s" s="3">
         <v>65</v>
       </c>
       <c r="H155" t="n" s="4">
-        <v>0.0</v>
+        <v>50.0</v>
       </c>
     </row>
     <row r="156">
@@ -5160,19 +5184,19 @@
         <v>62</v>
       </c>
       <c r="D156" t="n" s="3">
-        <v>1153.0</v>
+        <v>1165.0</v>
       </c>
       <c r="E156" t="s" s="3">
+        <v>257</v>
+      </c>
+      <c r="F156" t="s" s="3">
         <v>258</v>
       </c>
-      <c r="F156" t="s" s="3">
-        <v>259</v>
-      </c>
       <c r="G156" t="s" s="3">
         <v>65</v>
       </c>
       <c r="H156" t="n" s="4">
-        <v>0.0</v>
+        <v>50.0</v>
       </c>
     </row>
     <row r="157">
@@ -5183,19 +5207,19 @@
         <v>62</v>
       </c>
       <c r="D157" t="n" s="3">
-        <v>1154.0</v>
+        <v>1166.0</v>
       </c>
       <c r="E157" t="s" s="3">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="F157" t="s" s="3">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G157" t="s" s="3">
         <v>65</v>
       </c>
       <c r="H157" t="n" s="4">
-        <v>0.0</v>
+        <v>50.0</v>
       </c>
     </row>
     <row r="158">
@@ -5206,10 +5230,10 @@
         <v>62</v>
       </c>
       <c r="D158" t="n" s="3">
-        <v>1154.0</v>
+        <v>1149.0</v>
       </c>
       <c r="E158" t="s" s="3">
-        <v>49</v>
+        <v>260</v>
       </c>
       <c r="F158" t="s" s="3">
         <v>261</v>
@@ -5229,7 +5253,7 @@
         <v>62</v>
       </c>
       <c r="D159" t="n" s="3">
-        <v>1171.0</v>
+        <v>1173.0</v>
       </c>
       <c r="E159" t="s" s="3">
         <v>263</v>
@@ -5241,7 +5265,7 @@
         <v>65</v>
       </c>
       <c r="H159" t="n" s="4">
-        <v>0.0</v>
+        <v>100.0</v>
       </c>
     </row>
     <row r="160">
@@ -5275,7 +5299,7 @@
         <v>62</v>
       </c>
       <c r="D161" t="n" s="3">
-        <v>1173.0</v>
+        <v>1174.0</v>
       </c>
       <c r="E161" t="s" s="3">
         <v>267</v>
@@ -5287,7 +5311,7 @@
         <v>65</v>
       </c>
       <c r="H161" t="n" s="4">
-        <v>100.0</v>
+        <v>50.0</v>
       </c>
     </row>
     <row r="162">
@@ -5298,7 +5322,7 @@
         <v>62</v>
       </c>
       <c r="D162" t="n" s="3">
-        <v>1175.0</v>
+        <v>1171.0</v>
       </c>
       <c r="E162" t="s" s="3">
         <v>269</v>
@@ -5321,7 +5345,7 @@
         <v>62</v>
       </c>
       <c r="D163" t="n" s="3">
-        <v>1174.0</v>
+        <v>1170.0</v>
       </c>
       <c r="E163" t="s" s="3">
         <v>271</v>
@@ -5333,7 +5357,7 @@
         <v>65</v>
       </c>
       <c r="H163" t="n" s="4">
-        <v>50.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="164">
@@ -5344,7 +5368,7 @@
         <v>62</v>
       </c>
       <c r="D164" t="n" s="3">
-        <v>1170.0</v>
+        <v>1175.0</v>
       </c>
       <c r="E164" t="s" s="3">
         <v>273</v>
@@ -5548,109 +5572,109 @@
       </c>
     </row>
     <row r="179">
-      <c r="A179" t="s" s="2">
+      <c r="B179" t="s" s="3">
         <v>303</v>
       </c>
-      <c r="H179" t="n" s="5">
-        <v>186.79</v>
+      <c r="C179" t="s" s="3">
+        <v>299</v>
+      </c>
+      <c r="D179" s="3"/>
+      <c r="E179" t="s" s="3">
+        <v>304</v>
+      </c>
+      <c r="F179" t="s" s="3">
+        <v>305</v>
+      </c>
+      <c r="G179" t="s" s="3">
+        <v>302</v>
+      </c>
+      <c r="H179" t="n" s="4">
+        <v>19.18</v>
       </c>
     </row>
     <row r="180">
-      <c r="A180" t="s" s="2">
-        <v>304</v>
+      <c r="B180" t="s" s="3">
+        <v>306</v>
+      </c>
+      <c r="C180" t="s" s="3">
+        <v>299</v>
+      </c>
+      <c r="D180" s="3"/>
+      <c r="E180" t="s" s="3">
+        <v>300</v>
+      </c>
+      <c r="F180" t="s" s="3">
+        <v>307</v>
+      </c>
+      <c r="G180" t="s" s="3">
+        <v>302</v>
+      </c>
+      <c r="H180" t="n" s="4">
+        <v>62.6</v>
       </c>
     </row>
     <row r="181">
-      <c r="B181" t="s" s="3">
-        <v>305</v>
-      </c>
-      <c r="C181" t="s" s="3">
-        <v>290</v>
-      </c>
-      <c r="D181" t="n" s="3">
-        <v>27413.0</v>
-      </c>
-      <c r="E181" t="s" s="3">
-        <v>306</v>
-      </c>
-      <c r="F181" t="s" s="3">
-        <v>307</v>
-      </c>
-      <c r="G181" t="s" s="3">
-        <v>293</v>
-      </c>
-      <c r="H181" t="n" s="4">
-        <v>270.76</v>
+      <c r="A181" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="H181" t="n" s="5">
+        <v>268.57</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="H182" t="n" s="5">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="B183" t="s" s="3">
+        <v>310</v>
+      </c>
+      <c r="C183" t="s" s="3">
+        <v>290</v>
+      </c>
+      <c r="D183" t="n" s="3">
+        <v>27413.0</v>
+      </c>
+      <c r="E183" t="s" s="3">
+        <v>311</v>
+      </c>
+      <c r="F183" t="s" s="3">
+        <v>312</v>
+      </c>
+      <c r="G183" t="s" s="3">
+        <v>293</v>
+      </c>
+      <c r="H183" t="n" s="4">
         <v>270.76</v>
       </c>
     </row>
-    <row r="183">
-      <c r="A183" t="s" s="2">
-        <v>309</v>
-      </c>
-    </row>
     <row r="184">
-      <c r="B184" t="s" s="3">
-        <v>310</v>
-      </c>
-      <c r="C184" t="s" s="3">
-        <v>299</v>
-      </c>
-      <c r="D184" s="3"/>
-      <c r="E184" t="s" s="3">
-        <v>311</v>
-      </c>
-      <c r="F184" t="s" s="3">
-        <v>312</v>
-      </c>
-      <c r="G184" t="s" s="3">
-        <v>302</v>
-      </c>
-      <c r="H184" t="n" s="4">
-        <v>14.75</v>
+      <c r="A184" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="H184" t="n" s="5">
+        <v>270.76</v>
       </c>
     </row>
     <row r="185">
-      <c r="B185" t="s" s="3">
-        <v>298</v>
-      </c>
-      <c r="C185" t="s" s="3">
-        <v>299</v>
-      </c>
-      <c r="D185" s="3"/>
-      <c r="E185" t="s" s="3">
-        <v>311</v>
-      </c>
-      <c r="F185" t="s" s="3">
-        <v>312</v>
-      </c>
-      <c r="G185" t="s" s="3">
-        <v>302</v>
-      </c>
-      <c r="H185" t="n" s="4">
-        <v>15.73</v>
+      <c r="A185" t="s" s="2">
+        <v>314</v>
       </c>
     </row>
     <row r="186">
       <c r="B186" t="s" s="3">
-        <v>16</v>
+        <v>315</v>
       </c>
       <c r="C186" t="s" s="3">
         <v>299</v>
       </c>
       <c r="D186" s="3"/>
       <c r="E186" t="s" s="3">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="F186" t="s" s="3">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="G186" t="s" s="3">
         <v>302</v>
@@ -5661,59 +5685,59 @@
     </row>
     <row r="187">
       <c r="B187" t="s" s="3">
-        <v>103</v>
+        <v>298</v>
       </c>
       <c r="C187" t="s" s="3">
         <v>299</v>
       </c>
       <c r="D187" s="3"/>
       <c r="E187" t="s" s="3">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="F187" t="s" s="3">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="G187" t="s" s="3">
         <v>302</v>
       </c>
       <c r="H187" t="n" s="4">
-        <v>14.75</v>
+        <v>15.73</v>
       </c>
     </row>
     <row r="188">
       <c r="B188" t="s" s="3">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="C188" t="s" s="3">
         <v>299</v>
       </c>
       <c r="D188" s="3"/>
       <c r="E188" t="s" s="3">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="F188" t="s" s="3">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="G188" t="s" s="3">
         <v>302</v>
       </c>
       <c r="H188" t="n" s="4">
-        <v>1.7</v>
+        <v>14.75</v>
       </c>
     </row>
     <row r="189">
       <c r="B189" t="s" s="3">
-        <v>314</v>
+        <v>103</v>
       </c>
       <c r="C189" t="s" s="3">
         <v>299</v>
       </c>
       <c r="D189" s="3"/>
       <c r="E189" t="s" s="3">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="F189" t="s" s="3">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="G189" t="s" s="3">
         <v>302</v>
@@ -5723,60 +5747,58 @@
       </c>
     </row>
     <row r="190">
-      <c r="A190" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="H190" t="n" s="5">
+      <c r="B190" t="s" s="3">
+        <v>40</v>
+      </c>
+      <c r="C190" t="s" s="3">
+        <v>299</v>
+      </c>
+      <c r="D190" s="3"/>
+      <c r="E190" t="s" s="3">
+        <v>316</v>
+      </c>
+      <c r="F190" t="s" s="3">
+        <v>317</v>
+      </c>
+      <c r="G190" t="s" s="3">
+        <v>302</v>
+      </c>
+      <c r="H190" t="n" s="4">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="B191" t="s" s="3">
+        <v>319</v>
+      </c>
+      <c r="C191" t="s" s="3">
+        <v>299</v>
+      </c>
+      <c r="D191" s="3"/>
+      <c r="E191" t="s" s="3">
+        <v>316</v>
+      </c>
+      <c r="F191" t="s" s="3">
+        <v>317</v>
+      </c>
+      <c r="G191" t="s" s="3">
+        <v>302</v>
+      </c>
+      <c r="H191" t="n" s="4">
+        <v>14.75</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="H192" t="n" s="5">
         <v>76.43</v>
       </c>
     </row>
-    <row r="191">
-      <c r="A191" t="s" s="2">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="192">
-      <c r="B192" t="s" s="3">
-        <v>317</v>
-      </c>
-      <c r="C192" t="s" s="3">
-        <v>290</v>
-      </c>
-      <c r="D192" t="n" s="3">
-        <v>7336.0</v>
-      </c>
-      <c r="E192" t="s" s="3">
-        <v>318</v>
-      </c>
-      <c r="F192" t="s" s="3">
-        <v>319</v>
-      </c>
-      <c r="G192" t="s" s="3">
-        <v>293</v>
-      </c>
-      <c r="H192" t="n" s="4">
-        <v>20.0</v>
-      </c>
-    </row>
     <row r="193">
-      <c r="B193" t="s" s="3">
-        <v>310</v>
-      </c>
-      <c r="C193" t="s" s="3">
-        <v>299</v>
-      </c>
-      <c r="D193" s="3"/>
-      <c r="E193" t="s" s="3">
-        <v>320</v>
-      </c>
-      <c r="F193" t="s" s="3">
+      <c r="A193" t="s" s="2">
         <v>321</v>
-      </c>
-      <c r="G193" t="s" s="3">
-        <v>302</v>
-      </c>
-      <c r="H193" t="n" s="4">
-        <v>0.59</v>
       </c>
     </row>
     <row r="194">
@@ -5786,7 +5808,9 @@
       <c r="C194" t="s" s="3">
         <v>290</v>
       </c>
-      <c r="D194" s="3"/>
+      <c r="D194" t="n" s="3">
+        <v>7336.0</v>
+      </c>
       <c r="E194" t="s" s="3">
         <v>323</v>
       </c>
@@ -5802,51 +5826,49 @@
     </row>
     <row r="195">
       <c r="B195" t="s" s="3">
-        <v>325</v>
+        <v>315</v>
       </c>
       <c r="C195" t="s" s="3">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="D195" s="3"/>
       <c r="E195" t="s" s="3">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="F195" t="s" s="3">
-        <v>319</v>
+        <v>326</v>
       </c>
       <c r="G195" t="s" s="3">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="H195" t="n" s="4">
-        <v>20.0</v>
+        <v>0.59</v>
       </c>
     </row>
     <row r="196">
       <c r="B196" t="s" s="3">
-        <v>113</v>
+        <v>327</v>
       </c>
       <c r="C196" t="s" s="3">
-        <v>299</v>
-      </c>
-      <c r="D196" t="n" s="3">
-        <v>3.86095465E8</v>
-      </c>
+        <v>290</v>
+      </c>
+      <c r="D196" s="3"/>
       <c r="E196" t="s" s="3">
-        <v>320</v>
+        <v>328</v>
       </c>
       <c r="F196" t="s" s="3">
-        <v>320</v>
+        <v>329</v>
       </c>
       <c r="G196" t="s" s="3">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="H196" t="n" s="4">
-        <v>0.59</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="197">
       <c r="B197" t="s" s="3">
-        <v>128</v>
+        <v>330</v>
       </c>
       <c r="C197" t="s" s="3">
         <v>290</v>
@@ -5867,123 +5889,125 @@
     </row>
     <row r="198">
       <c r="B198" t="s" s="3">
-        <v>133</v>
+        <v>113</v>
       </c>
       <c r="C198" t="s" s="3">
         <v>299</v>
       </c>
       <c r="D198" t="n" s="3">
-        <v>1.5662137E7</v>
+        <v>3.86095465E8</v>
       </c>
       <c r="E198" t="s" s="3">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F198" t="s" s="3">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="G198" t="s" s="3">
         <v>302</v>
       </c>
       <c r="H198" t="n" s="4">
-        <v>116.24</v>
+        <v>0.59</v>
       </c>
     </row>
     <row r="199">
       <c r="B199" t="s" s="3">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="C199" t="s" s="3">
-        <v>299</v>
-      </c>
-      <c r="D199" t="n" s="3">
-        <v>1.5662137E7</v>
-      </c>
+        <v>290</v>
+      </c>
+      <c r="D199" s="3"/>
       <c r="E199" t="s" s="3">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="F199" t="s" s="3">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="G199" t="s" s="3">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="H199" t="n" s="4">
-        <v>116.24</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="200">
       <c r="B200" t="s" s="3">
-        <v>329</v>
+        <v>133</v>
       </c>
       <c r="C200" t="s" s="3">
         <v>299</v>
       </c>
-      <c r="D200" s="3"/>
+      <c r="D200" t="n" s="3">
+        <v>1.5662137E7</v>
+      </c>
       <c r="E200" t="s" s="3">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="F200" t="s" s="3">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="G200" t="s" s="3">
         <v>302</v>
       </c>
       <c r="H200" t="n" s="4">
-        <v>25.0</v>
+        <v>116.24</v>
       </c>
     </row>
     <row r="201">
       <c r="B201" t="s" s="3">
-        <v>332</v>
+        <v>133</v>
       </c>
       <c r="C201" t="s" s="3">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="D201" t="n" s="3">
-        <v>7509.0</v>
+        <v>1.5662137E7</v>
       </c>
       <c r="E201" t="s" s="3">
-        <v>318</v>
+        <v>331</v>
       </c>
       <c r="F201" t="s" s="3">
-        <v>319</v>
+        <v>333</v>
       </c>
       <c r="G201" t="s" s="3">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="H201" t="n" s="4">
-        <v>20.0</v>
+        <v>116.24</v>
       </c>
     </row>
     <row r="202">
       <c r="B202" t="s" s="3">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C202" t="s" s="3">
         <v>299</v>
       </c>
       <c r="D202" s="3"/>
       <c r="E202" t="s" s="3">
-        <v>320</v>
-      </c>
-      <c r="F202" t="n" s="3">
-        <v>3.98900485E8</v>
+        <v>335</v>
+      </c>
+      <c r="F202" t="s" s="3">
+        <v>336</v>
       </c>
       <c r="G202" t="s" s="3">
         <v>302</v>
       </c>
       <c r="H202" t="n" s="4">
-        <v>0.59</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="203">
       <c r="B203" t="s" s="3">
-        <v>280</v>
+        <v>337</v>
       </c>
       <c r="C203" t="s" s="3">
         <v>290</v>
       </c>
-      <c r="D203" s="3"/>
+      <c r="D203" t="n" s="3">
+        <v>7509.0</v>
+      </c>
       <c r="E203" t="s" s="3">
         <v>323</v>
       </c>
@@ -5999,56 +6023,56 @@
     </row>
     <row r="204">
       <c r="B204" t="s" s="3">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="C204" t="s" s="3">
-        <v>290</v>
-      </c>
-      <c r="D204" t="n" s="3">
-        <v>7681.0</v>
-      </c>
+        <v>299</v>
+      </c>
+      <c r="D204" s="3"/>
       <c r="E204" t="s" s="3">
-        <v>318</v>
-      </c>
-      <c r="F204" t="s" s="3">
-        <v>319</v>
+        <v>325</v>
+      </c>
+      <c r="F204" t="n" s="3">
+        <v>3.98900485E8</v>
       </c>
       <c r="G204" t="s" s="3">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="H204" t="n" s="4">
-        <v>20.0</v>
+        <v>0.59</v>
       </c>
     </row>
     <row r="205">
       <c r="B205" t="s" s="3">
-        <v>335</v>
+        <v>280</v>
       </c>
       <c r="C205" t="s" s="3">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="D205" s="3"/>
       <c r="E205" t="s" s="3">
-        <v>320</v>
-      </c>
-      <c r="F205" t="n" s="3">
-        <v>4.14747233E8</v>
+        <v>328</v>
+      </c>
+      <c r="F205" t="s" s="3">
+        <v>329</v>
       </c>
       <c r="G205" t="s" s="3">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="H205" t="n" s="4">
-        <v>0.6</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="206">
       <c r="B206" t="s" s="3">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="C206" t="s" s="3">
         <v>290</v>
       </c>
-      <c r="D206" s="3"/>
+      <c r="D206" t="n" s="3">
+        <v>7681.0</v>
+      </c>
       <c r="E206" t="s" s="3">
         <v>323</v>
       </c>
@@ -6064,44 +6088,44 @@
     </row>
     <row r="207">
       <c r="B207" t="s" s="3">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="C207" t="s" s="3">
         <v>299</v>
       </c>
       <c r="D207" s="3"/>
       <c r="E207" t="s" s="3">
-        <v>338</v>
-      </c>
-      <c r="F207" t="s" s="3">
-        <v>339</v>
+        <v>325</v>
+      </c>
+      <c r="F207" t="n" s="3">
+        <v>4.14747233E8</v>
       </c>
       <c r="G207" t="s" s="3">
         <v>302</v>
       </c>
       <c r="H207" t="n" s="4">
-        <v>98.94</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="208">
       <c r="B208" t="s" s="3">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C208" t="s" s="3">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="D208" s="3"/>
       <c r="E208" t="s" s="3">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="F208" t="s" s="3">
-        <v>341</v>
+        <v>329</v>
       </c>
       <c r="G208" t="s" s="3">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="H208" t="n" s="4">
-        <v>12.98</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="209">
@@ -6109,46 +6133,46 @@
         <v>342</v>
       </c>
       <c r="C209" t="s" s="3">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="D209" s="3"/>
       <c r="E209" t="s" s="3">
-        <v>318</v>
+        <v>343</v>
       </c>
       <c r="F209" t="s" s="3">
-        <v>319</v>
+        <v>344</v>
       </c>
       <c r="G209" t="s" s="3">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="H209" t="n" s="4">
-        <v>20.0</v>
+        <v>98.94</v>
       </c>
     </row>
     <row r="210">
       <c r="B210" t="s" s="3">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="C210" t="s" s="3">
         <v>299</v>
       </c>
       <c r="D210" s="3"/>
       <c r="E210" t="s" s="3">
-        <v>320</v>
+        <v>331</v>
       </c>
       <c r="F210" t="s" s="3">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="G210" t="s" s="3">
         <v>302</v>
       </c>
       <c r="H210" t="n" s="4">
-        <v>0.6</v>
+        <v>12.98</v>
       </c>
     </row>
     <row r="211">
       <c r="B211" t="s" s="3">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="C211" t="s" s="3">
         <v>290</v>
@@ -6169,49 +6193,49 @@
     </row>
     <row r="212">
       <c r="B212" t="s" s="3">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="C212" t="s" s="3">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="D212" s="3"/>
       <c r="E212" t="s" s="3">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="F212" t="s" s="3">
-        <v>319</v>
+        <v>349</v>
       </c>
       <c r="G212" t="s" s="3">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="H212" t="n" s="4">
-        <v>20.0</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="213">
       <c r="B213" t="s" s="3">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="C213" t="s" s="3">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="D213" s="3"/>
       <c r="E213" t="s" s="3">
-        <v>320</v>
+        <v>328</v>
       </c>
       <c r="F213" t="s" s="3">
-        <v>348</v>
+        <v>329</v>
       </c>
       <c r="G213" t="s" s="3">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="H213" t="n" s="4">
-        <v>0.6</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="214">
       <c r="B214" t="s" s="3">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="C214" t="s" s="3">
         <v>290</v>
@@ -6232,67 +6256,67 @@
     </row>
     <row r="215">
       <c r="B215" t="s" s="3">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="C215" t="s" s="3">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="D215" s="3"/>
       <c r="E215" t="s" s="3">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="F215" t="s" s="3">
-        <v>319</v>
+        <v>353</v>
       </c>
       <c r="G215" t="s" s="3">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="H215" t="n" s="4">
-        <v>20.0</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="216">
       <c r="B216" t="s" s="3">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="C216" t="s" s="3">
         <v>290</v>
       </c>
-      <c r="D216" t="n" s="3">
-        <v>2.9050581E7</v>
-      </c>
+      <c r="D216" s="3"/>
       <c r="E216" t="s" s="3">
-        <v>351</v>
+        <v>328</v>
       </c>
       <c r="F216" t="s" s="3">
-        <v>352</v>
+        <v>329</v>
       </c>
       <c r="G216" t="s" s="3">
         <v>293</v>
       </c>
       <c r="H216" t="n" s="4">
-        <v>14.99</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="217">
       <c r="B217" t="s" s="3">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="C217" t="s" s="3">
-        <v>299</v>
-      </c>
-      <c r="D217" s="3"/>
+        <v>290</v>
+      </c>
+      <c r="D217" t="n" s="3">
+        <v>2.9050581E7</v>
+      </c>
       <c r="E217" t="s" s="3">
-        <v>320</v>
+        <v>356</v>
       </c>
       <c r="F217" t="s" s="3">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="G217" t="s" s="3">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="H217" t="n" s="4">
-        <v>0.6</v>
+        <v>14.99</v>
       </c>
     </row>
     <row r="218">
@@ -6318,572 +6342,560 @@
     </row>
     <row r="219">
       <c r="B219" t="s" s="3">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="C219" t="s" s="3">
         <v>299</v>
       </c>
       <c r="D219" s="3"/>
       <c r="E219" t="s" s="3">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F219" t="s" s="3">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="G219" t="s" s="3">
         <v>302</v>
       </c>
       <c r="H219" t="n" s="4">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="B220" t="s" s="3">
+        <v>360</v>
+      </c>
+      <c r="C220" t="s" s="3">
+        <v>290</v>
+      </c>
+      <c r="D220" s="3"/>
+      <c r="E220" t="s" s="3">
+        <v>328</v>
+      </c>
+      <c r="F220" t="s" s="3">
+        <v>329</v>
+      </c>
+      <c r="G220" t="s" s="3">
+        <v>293</v>
+      </c>
+      <c r="H220" t="n" s="4">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="B221" t="s" s="3">
+        <v>361</v>
+      </c>
+      <c r="C221" t="s" s="3">
+        <v>299</v>
+      </c>
+      <c r="D221" s="3"/>
+      <c r="E221" t="s" s="3">
+        <v>331</v>
+      </c>
+      <c r="F221" t="s" s="3">
+        <v>362</v>
+      </c>
+      <c r="G221" t="s" s="3">
+        <v>302</v>
+      </c>
+      <c r="H221" t="n" s="4">
         <v>35.96</v>
-      </c>
-    </row>
-    <row r="220">
-      <c r="A220" t="s" s="2">
-        <v>358</v>
-      </c>
-      <c r="H220" t="n" s="5">
-        <v>704.52</v>
-      </c>
-    </row>
-    <row r="221">
-      <c r="A221" t="s" s="2">
-        <v>359</v>
       </c>
     </row>
     <row r="222">
       <c r="B222" t="s" s="3">
-        <v>42</v>
+        <v>363</v>
       </c>
       <c r="C222" t="s" s="3">
         <v>290</v>
       </c>
-      <c r="D222" t="n" s="3">
-        <v>162673.0</v>
-      </c>
+      <c r="D222" s="3"/>
       <c r="E222" t="s" s="3">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="F222" t="s" s="3">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="G222" t="s" s="3">
         <v>293</v>
       </c>
       <c r="H222" t="n" s="4">
-        <v>503.1</v>
+        <v>14.99</v>
       </c>
     </row>
     <row r="223">
       <c r="B223" t="s" s="3">
-        <v>42</v>
+        <v>363</v>
       </c>
       <c r="C223" t="s" s="3">
         <v>290</v>
       </c>
-      <c r="D223" t="n" s="3">
-        <v>162673.0</v>
-      </c>
+      <c r="D223" s="3"/>
       <c r="E223" t="s" s="3">
-        <v>360</v>
+        <v>323</v>
       </c>
       <c r="F223" t="s" s="3">
-        <v>362</v>
+        <v>324</v>
       </c>
       <c r="G223" t="s" s="3">
         <v>293</v>
       </c>
       <c r="H223" t="n" s="4">
-        <v>40.75</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="224">
       <c r="B224" t="s" s="3">
-        <v>209</v>
+        <v>364</v>
       </c>
       <c r="C224" t="s" s="3">
         <v>299</v>
       </c>
-      <c r="D224" t="n" s="3">
-        <v>163049.0</v>
-      </c>
+      <c r="D224" s="3"/>
       <c r="E224" t="s" s="3">
-        <v>360</v>
+        <v>325</v>
       </c>
       <c r="F224" t="s" s="3">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="G224" t="s" s="3">
         <v>302</v>
       </c>
       <c r="H224" t="n" s="4">
-        <v>30.21</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="225">
-      <c r="A225" t="s" s="2">
-        <v>364</v>
-      </c>
-      <c r="H225" t="n" s="5">
-        <v>574.06</v>
+      <c r="B225" t="s" s="3">
+        <v>366</v>
+      </c>
+      <c r="C225" t="s" s="3">
+        <v>290</v>
+      </c>
+      <c r="D225" s="3"/>
+      <c r="E225" t="s" s="3">
+        <v>328</v>
+      </c>
+      <c r="F225" t="s" s="3">
+        <v>329</v>
+      </c>
+      <c r="G225" t="s" s="3">
+        <v>293</v>
+      </c>
+      <c r="H225" t="n" s="4">
+        <v>20.0</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="s" s="2">
-        <v>365</v>
+        <v>367</v>
+      </c>
+      <c r="H226" t="n" s="5">
+        <v>760.11</v>
       </c>
     </row>
     <row r="227">
-      <c r="B227" t="s" s="3">
-        <v>337</v>
-      </c>
-      <c r="C227" t="s" s="3">
-        <v>366</v>
-      </c>
-      <c r="D227" s="3"/>
-      <c r="E227" t="s" s="3">
-        <v>367</v>
-      </c>
-      <c r="F227" t="s" s="3">
+      <c r="A227" t="s" s="2">
         <v>368</v>
       </c>
-      <c r="G227" t="s" s="3">
+    </row>
+    <row r="228">
+      <c r="B228" t="s" s="3">
+        <v>42</v>
+      </c>
+      <c r="C228" t="s" s="3">
+        <v>290</v>
+      </c>
+      <c r="D228" t="n" s="3">
+        <v>162673.0</v>
+      </c>
+      <c r="E228" t="s" s="3">
+        <v>369</v>
+      </c>
+      <c r="F228" t="s" s="3">
+        <v>370</v>
+      </c>
+      <c r="G228" t="s" s="3">
+        <v>293</v>
+      </c>
+      <c r="H228" t="n" s="4">
+        <v>40.75</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="B229" t="s" s="3">
+        <v>42</v>
+      </c>
+      <c r="C229" t="s" s="3">
+        <v>290</v>
+      </c>
+      <c r="D229" t="n" s="3">
+        <v>162673.0</v>
+      </c>
+      <c r="E229" t="s" s="3">
+        <v>369</v>
+      </c>
+      <c r="F229" t="s" s="3">
+        <v>371</v>
+      </c>
+      <c r="G229" t="s" s="3">
+        <v>293</v>
+      </c>
+      <c r="H229" t="n" s="4">
+        <v>503.1</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="B230" t="s" s="3">
+        <v>209</v>
+      </c>
+      <c r="C230" t="s" s="3">
+        <v>299</v>
+      </c>
+      <c r="D230" t="n" s="3">
+        <v>163049.0</v>
+      </c>
+      <c r="E230" t="s" s="3">
+        <v>369</v>
+      </c>
+      <c r="F230" t="s" s="3">
+        <v>372</v>
+      </c>
+      <c r="G230" t="s" s="3">
         <v>302</v>
       </c>
-      <c r="H227" t="n" s="4">
-        <v>600.0</v>
-      </c>
-    </row>
-    <row r="228">
-      <c r="A228" t="s" s="2">
-        <v>369</v>
-      </c>
-      <c r="H228" t="n" s="5">
-        <v>600.0</v>
-      </c>
-    </row>
-    <row r="229">
-      <c r="A229" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="H229" t="n" s="5">
-        <v>4412.56</v>
-      </c>
-    </row>
-    <row r="230">
-      <c r="A230" t="s" s="2">
-        <v>371</v>
+      <c r="H230" t="n" s="4">
+        <v>30.21</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
+      </c>
+      <c r="H231" t="n" s="5">
+        <v>574.06</v>
       </c>
     </row>
     <row r="232">
-      <c r="B232" t="s" s="3">
-        <v>42</v>
-      </c>
-      <c r="C232" t="s" s="3">
-        <v>299</v>
-      </c>
-      <c r="D232" t="s" s="3">
-        <v>373</v>
-      </c>
-      <c r="E232" t="s" s="3">
+      <c r="A232" t="s" s="2">
         <v>374</v>
-      </c>
-      <c r="F232" t="s" s="3">
-        <v>375</v>
-      </c>
-      <c r="G232" t="s" s="3">
-        <v>302</v>
-      </c>
-      <c r="H232" t="n" s="4">
-        <v>25.0</v>
       </c>
     </row>
     <row r="233">
       <c r="B233" t="s" s="3">
-        <v>332</v>
+        <v>342</v>
       </c>
       <c r="C233" t="s" s="3">
-        <v>290</v>
-      </c>
-      <c r="D233" t="n" s="3">
-        <v>5517958.0</v>
-      </c>
+        <v>375</v>
+      </c>
+      <c r="D233" s="3"/>
       <c r="E233" t="s" s="3">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="F233" t="s" s="3">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="G233" t="s" s="3">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="H233" t="n" s="4">
-        <v>6.37</v>
+        <v>600.0</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="H234" t="n" s="5">
-        <v>31.37</v>
+        <v>600.0</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
+      </c>
+      <c r="H235" t="n" s="5">
+        <v>4549.93</v>
       </c>
     </row>
     <row r="236">
-      <c r="B236" t="s" s="3">
-        <v>42</v>
-      </c>
-      <c r="C236" t="s" s="3">
-        <v>299</v>
-      </c>
-      <c r="D236" t="n" s="3">
-        <v>3300212.0</v>
-      </c>
-      <c r="E236" t="s" s="3">
-        <v>379</v>
-      </c>
-      <c r="F236" t="s" s="3">
+      <c r="A236" t="s" s="2">
         <v>380</v>
       </c>
-      <c r="G236" t="s" s="3">
-        <v>302</v>
-      </c>
-      <c r="H236" t="n" s="4">
-        <v>25.99</v>
-      </c>
     </row>
     <row r="237">
-      <c r="B237" t="s" s="3">
-        <v>146</v>
-      </c>
-      <c r="C237" t="s" s="3">
-        <v>299</v>
-      </c>
-      <c r="D237" t="n" s="3">
-        <v>119025.0</v>
-      </c>
-      <c r="E237" t="s" s="3">
+      <c r="A237" t="s" s="2">
         <v>381</v>
-      </c>
-      <c r="F237" t="s" s="3">
-        <v>382</v>
-      </c>
-      <c r="G237" t="s" s="3">
-        <v>302</v>
-      </c>
-      <c r="H237" t="n" s="4">
-        <v>1.9</v>
       </c>
     </row>
     <row r="238">
       <c r="B238" t="s" s="3">
-        <v>146</v>
+        <v>42</v>
       </c>
       <c r="C238" t="s" s="3">
         <v>299</v>
       </c>
-      <c r="D238" t="n" s="3">
-        <v>119025.0</v>
+      <c r="D238" t="s" s="3">
+        <v>382</v>
       </c>
       <c r="E238" t="s" s="3">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="F238" t="s" s="3">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="G238" t="s" s="3">
         <v>302</v>
       </c>
       <c r="H238" t="n" s="4">
-        <v>1.9</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="239">
       <c r="B239" t="s" s="3">
-        <v>146</v>
+        <v>337</v>
       </c>
       <c r="C239" t="s" s="3">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="D239" t="n" s="3">
-        <v>119025.0</v>
+        <v>5517958.0</v>
       </c>
       <c r="E239" t="s" s="3">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="F239" t="s" s="3">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="G239" t="s" s="3">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="H239" t="n" s="4">
-        <v>1.9</v>
+        <v>6.37</v>
       </c>
     </row>
     <row r="240">
-      <c r="B240" t="s" s="3">
-        <v>146</v>
-      </c>
-      <c r="C240" t="s" s="3">
-        <v>299</v>
-      </c>
-      <c r="D240" t="n" s="3">
-        <v>119025.0</v>
-      </c>
-      <c r="E240" t="s" s="3">
-        <v>381</v>
-      </c>
-      <c r="F240" t="s" s="3">
-        <v>383</v>
-      </c>
-      <c r="G240" t="s" s="3">
-        <v>302</v>
-      </c>
-      <c r="H240" t="n" s="4">
-        <v>16.97</v>
+      <c r="A240" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="H240" t="n" s="5">
+        <v>31.37</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="s" s="2">
-        <v>384</v>
-      </c>
-      <c r="H241" t="n" s="5">
-        <v>48.66</v>
+        <v>387</v>
       </c>
     </row>
     <row r="242">
-      <c r="A242" t="s" s="2">
-        <v>385</v>
+      <c r="B242" t="s" s="3">
+        <v>42</v>
+      </c>
+      <c r="C242" t="s" s="3">
+        <v>299</v>
+      </c>
+      <c r="D242" t="n" s="3">
+        <v>3300212.0</v>
+      </c>
+      <c r="E242" t="s" s="3">
+        <v>388</v>
+      </c>
+      <c r="F242" t="s" s="3">
+        <v>389</v>
+      </c>
+      <c r="G242" t="s" s="3">
+        <v>302</v>
+      </c>
+      <c r="H242" t="n" s="4">
+        <v>25.99</v>
       </c>
     </row>
     <row r="243">
       <c r="B243" t="s" s="3">
-        <v>164</v>
+        <v>146</v>
       </c>
       <c r="C243" t="s" s="3">
         <v>299</v>
       </c>
-      <c r="D243" t="s" s="3">
-        <v>386</v>
+      <c r="D243" t="n" s="3">
+        <v>119025.0</v>
       </c>
       <c r="E243" t="s" s="3">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="F243" t="s" s="3">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="G243" t="s" s="3">
         <v>302</v>
       </c>
       <c r="H243" t="n" s="4">
-        <v>452.4</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="244">
       <c r="B244" t="s" s="3">
-        <v>164</v>
+        <v>146</v>
       </c>
       <c r="C244" t="s" s="3">
         <v>299</v>
       </c>
-      <c r="D244" t="s" s="3">
-        <v>386</v>
+      <c r="D244" t="n" s="3">
+        <v>119025.0</v>
       </c>
       <c r="E244" t="s" s="3">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="F244" t="s" s="3">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="G244" t="s" s="3">
         <v>302</v>
       </c>
       <c r="H244" t="n" s="4">
-        <v>-50.0</v>
+        <v>16.97</v>
       </c>
     </row>
     <row r="245">
       <c r="B245" t="s" s="3">
-        <v>164</v>
+        <v>146</v>
       </c>
       <c r="C245" t="s" s="3">
         <v>299</v>
       </c>
-      <c r="D245" t="s" s="3">
-        <v>386</v>
+      <c r="D245" t="n" s="3">
+        <v>119025.0</v>
       </c>
       <c r="E245" t="s" s="3">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="F245" t="s" s="3">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="G245" t="s" s="3">
         <v>302</v>
       </c>
       <c r="H245" t="n" s="4">
-        <v>49.0</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="246">
-      <c r="A246" t="s" s="2">
+      <c r="B246" t="s" s="3">
+        <v>146</v>
+      </c>
+      <c r="C246" t="s" s="3">
+        <v>299</v>
+      </c>
+      <c r="D246" t="n" s="3">
+        <v>119025.0</v>
+      </c>
+      <c r="E246" t="s" s="3">
+        <v>390</v>
+      </c>
+      <c r="F246" t="s" s="3">
         <v>391</v>
       </c>
-      <c r="H246" t="n" s="5">
-        <v>451.4</v>
+      <c r="G246" t="s" s="3">
+        <v>302</v>
+      </c>
+      <c r="H246" t="n" s="4">
+        <v>1.9</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
+      </c>
+      <c r="H247" t="n" s="5">
+        <v>48.66</v>
       </c>
     </row>
     <row r="248">
-      <c r="B248" t="s" s="3">
-        <v>146</v>
-      </c>
-      <c r="C248" t="s" s="3">
-        <v>290</v>
-      </c>
-      <c r="D248" t="n" s="3">
-        <v>27817.0</v>
-      </c>
-      <c r="E248" t="s" s="3">
-        <v>306</v>
-      </c>
-      <c r="F248" t="s" s="3">
-        <v>393</v>
-      </c>
-      <c r="G248" t="s" s="3">
-        <v>293</v>
-      </c>
-      <c r="H248" t="n" s="4">
-        <v>15.0</v>
+      <c r="A248" t="s" s="2">
+        <v>394</v>
       </c>
     </row>
     <row r="249">
       <c r="B249" t="s" s="3">
-        <v>146</v>
+        <v>164</v>
       </c>
       <c r="C249" t="s" s="3">
-        <v>290</v>
-      </c>
-      <c r="D249" t="n" s="3">
-        <v>27817.0</v>
+        <v>299</v>
+      </c>
+      <c r="D249" t="s" s="3">
+        <v>395</v>
       </c>
       <c r="E249" t="s" s="3">
-        <v>306</v>
+        <v>396</v>
       </c>
       <c r="F249" t="s" s="3">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="G249" t="s" s="3">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="H249" t="n" s="4">
-        <v>170.18</v>
+        <v>452.4</v>
       </c>
     </row>
     <row r="250">
       <c r="B250" t="s" s="3">
-        <v>146</v>
+        <v>164</v>
       </c>
       <c r="C250" t="s" s="3">
-        <v>290</v>
-      </c>
-      <c r="D250" t="n" s="3">
-        <v>27817.0</v>
+        <v>299</v>
+      </c>
+      <c r="D250" t="s" s="3">
+        <v>395</v>
       </c>
       <c r="E250" t="s" s="3">
-        <v>306</v>
+        <v>396</v>
       </c>
       <c r="F250" t="s" s="3">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="G250" t="s" s="3">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="H250" t="n" s="4">
-        <v>42.0</v>
+        <v>49.0</v>
       </c>
     </row>
     <row r="251">
       <c r="B251" t="s" s="3">
-        <v>146</v>
+        <v>164</v>
       </c>
       <c r="C251" t="s" s="3">
-        <v>290</v>
-      </c>
-      <c r="D251" t="n" s="3">
-        <v>27817.0</v>
+        <v>299</v>
+      </c>
+      <c r="D251" t="s" s="3">
+        <v>395</v>
       </c>
       <c r="E251" t="s" s="3">
-        <v>306</v>
+        <v>396</v>
       </c>
       <c r="F251" t="s" s="3">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="G251" t="s" s="3">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="H251" t="n" s="4">
-        <v>1710.0</v>
+        <v>-50.0</v>
       </c>
     </row>
     <row r="252">
-      <c r="B252" t="s" s="3">
-        <v>146</v>
-      </c>
-      <c r="C252" t="s" s="3">
-        <v>290</v>
-      </c>
-      <c r="D252" t="n" s="3">
-        <v>27817.0</v>
-      </c>
-      <c r="E252" t="s" s="3">
-        <v>306</v>
-      </c>
-      <c r="F252" t="s" s="3">
-        <v>397</v>
-      </c>
-      <c r="G252" t="s" s="3">
-        <v>293</v>
-      </c>
-      <c r="H252" t="n" s="4">
-        <v>240.0</v>
+      <c r="A252" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="H252" t="n" s="5">
+        <v>451.4</v>
       </c>
     </row>
     <row r="253">
-      <c r="B253" t="s" s="3">
-        <v>146</v>
-      </c>
-      <c r="C253" t="s" s="3">
-        <v>290</v>
-      </c>
-      <c r="D253" t="n" s="3">
-        <v>27817.0</v>
-      </c>
-      <c r="E253" t="s" s="3">
-        <v>306</v>
-      </c>
-      <c r="F253" t="s" s="3">
-        <v>398</v>
-      </c>
-      <c r="G253" t="s" s="3">
-        <v>293</v>
-      </c>
-      <c r="H253" t="n" s="4">
-        <v>50.0</v>
+      <c r="A253" t="s" s="2">
+        <v>401</v>
       </c>
     </row>
     <row r="254">
@@ -6897,16 +6909,16 @@
         <v>27817.0</v>
       </c>
       <c r="E254" t="s" s="3">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="F254" t="s" s="3">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="G254" t="s" s="3">
         <v>293</v>
       </c>
       <c r="H254" t="n" s="4">
-        <v>14.0</v>
+        <v>170.18</v>
       </c>
     </row>
     <row r="255">
@@ -6920,415 +6932,427 @@
         <v>27817.0</v>
       </c>
       <c r="E255" t="s" s="3">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="F255" t="s" s="3">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="G255" t="s" s="3">
         <v>293</v>
       </c>
       <c r="H255" t="n" s="4">
-        <v>30.0</v>
+        <v>50.0</v>
       </c>
     </row>
     <row r="256">
-      <c r="A256" t="s" s="2">
-        <v>401</v>
-      </c>
-      <c r="H256" t="n" s="5">
-        <v>2271.18</v>
+      <c r="B256" t="s" s="3">
+        <v>146</v>
+      </c>
+      <c r="C256" t="s" s="3">
+        <v>290</v>
+      </c>
+      <c r="D256" t="n" s="3">
+        <v>27817.0</v>
+      </c>
+      <c r="E256" t="s" s="3">
+        <v>311</v>
+      </c>
+      <c r="F256" t="s" s="3">
+        <v>404</v>
+      </c>
+      <c r="G256" t="s" s="3">
+        <v>293</v>
+      </c>
+      <c r="H256" t="n" s="4">
+        <v>42.0</v>
       </c>
     </row>
     <row r="257">
-      <c r="A257" t="s" s="2">
-        <v>402</v>
+      <c r="B257" t="s" s="3">
+        <v>146</v>
+      </c>
+      <c r="C257" t="s" s="3">
+        <v>290</v>
+      </c>
+      <c r="D257" t="n" s="3">
+        <v>27817.0</v>
+      </c>
+      <c r="E257" t="s" s="3">
+        <v>311</v>
+      </c>
+      <c r="F257" t="s" s="3">
+        <v>405</v>
+      </c>
+      <c r="G257" t="s" s="3">
+        <v>293</v>
+      </c>
+      <c r="H257" t="n" s="4">
+        <v>14.0</v>
       </c>
     </row>
     <row r="258">
       <c r="B258" t="s" s="3">
-        <v>209</v>
+        <v>146</v>
       </c>
       <c r="C258" t="s" s="3">
         <v>290</v>
       </c>
       <c r="D258" t="n" s="3">
-        <v>10196.0</v>
+        <v>27817.0</v>
       </c>
       <c r="E258" t="s" s="3">
-        <v>403</v>
+        <v>311</v>
       </c>
       <c r="F258" t="s" s="3">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="G258" t="s" s="3">
         <v>293</v>
       </c>
       <c r="H258" t="n" s="4">
-        <v>1800.0</v>
+        <v>240.0</v>
       </c>
     </row>
     <row r="259">
       <c r="B259" t="s" s="3">
-        <v>209</v>
+        <v>146</v>
       </c>
       <c r="C259" t="s" s="3">
         <v>290</v>
       </c>
       <c r="D259" t="n" s="3">
-        <v>10196.0</v>
+        <v>27817.0</v>
       </c>
       <c r="E259" t="s" s="3">
-        <v>403</v>
+        <v>311</v>
       </c>
       <c r="F259" t="s" s="3">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="G259" t="s" s="3">
         <v>293</v>
       </c>
       <c r="H259" t="n" s="4">
-        <v>760.2</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="260">
       <c r="B260" t="s" s="3">
-        <v>275</v>
+        <v>146</v>
       </c>
       <c r="C260" t="s" s="3">
-        <v>299</v>
-      </c>
-      <c r="D260" s="3"/>
+        <v>290</v>
+      </c>
+      <c r="D260" t="n" s="3">
+        <v>27817.0</v>
+      </c>
       <c r="E260" t="s" s="3">
-        <v>379</v>
+        <v>311</v>
       </c>
       <c r="F260" t="s" s="3">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="G260" t="s" s="3">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="H260" t="n" s="4">
-        <v>33.98</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="261">
       <c r="B261" t="s" s="3">
-        <v>275</v>
+        <v>146</v>
       </c>
       <c r="C261" t="s" s="3">
-        <v>299</v>
-      </c>
-      <c r="D261" s="3"/>
+        <v>290</v>
+      </c>
+      <c r="D261" t="n" s="3">
+        <v>27817.0</v>
+      </c>
       <c r="E261" t="s" s="3">
-        <v>379</v>
+        <v>311</v>
       </c>
       <c r="F261" t="s" s="3">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="G261" t="s" s="3">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="H261" t="n" s="4">
-        <v>37.98</v>
+        <v>1710.0</v>
       </c>
     </row>
     <row r="262">
-      <c r="B262" t="s" s="3">
-        <v>275</v>
-      </c>
-      <c r="C262" t="s" s="3">
-        <v>299</v>
-      </c>
-      <c r="D262" s="3"/>
-      <c r="E262" t="s" s="3">
-        <v>379</v>
-      </c>
-      <c r="F262" t="s" s="3">
-        <v>408</v>
-      </c>
-      <c r="G262" t="s" s="3">
-        <v>302</v>
-      </c>
-      <c r="H262" t="n" s="4">
-        <v>12.99</v>
+      <c r="A262" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="H262" t="n" s="5">
+        <v>2271.18</v>
       </c>
     </row>
     <row r="263">
-      <c r="B263" t="s" s="3">
-        <v>275</v>
-      </c>
-      <c r="C263" t="s" s="3">
-        <v>299</v>
-      </c>
-      <c r="D263" s="3"/>
-      <c r="E263" t="s" s="3">
-        <v>379</v>
-      </c>
-      <c r="F263" t="s" s="3">
-        <v>409</v>
-      </c>
-      <c r="G263" t="s" s="3">
-        <v>302</v>
-      </c>
-      <c r="H263" t="n" s="4">
-        <v>15.98</v>
+      <c r="A263" t="s" s="2">
+        <v>411</v>
       </c>
     </row>
     <row r="264">
       <c r="B264" t="s" s="3">
-        <v>275</v>
+        <v>209</v>
       </c>
       <c r="C264" t="s" s="3">
-        <v>299</v>
-      </c>
-      <c r="D264" s="3"/>
+        <v>290</v>
+      </c>
+      <c r="D264" t="n" s="3">
+        <v>10196.0</v>
+      </c>
       <c r="E264" t="s" s="3">
-        <v>379</v>
+        <v>412</v>
       </c>
       <c r="F264" t="s" s="3">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="G264" t="s" s="3">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="H264" t="n" s="4">
-        <v>4.26</v>
+        <v>760.2</v>
       </c>
     </row>
     <row r="265">
       <c r="B265" t="s" s="3">
+        <v>209</v>
+      </c>
+      <c r="C265" t="s" s="3">
+        <v>290</v>
+      </c>
+      <c r="D265" t="n" s="3">
+        <v>10196.0</v>
+      </c>
+      <c r="E265" t="s" s="3">
+        <v>412</v>
+      </c>
+      <c r="F265" t="s" s="3">
+        <v>414</v>
+      </c>
+      <c r="G265" t="s" s="3">
+        <v>293</v>
+      </c>
+      <c r="H265" t="n" s="4">
+        <v>1800.0</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="B266" t="s" s="3">
         <v>275</v>
       </c>
-      <c r="C265" t="s" s="3">
-        <v>299</v>
-      </c>
-      <c r="D265" s="3"/>
-      <c r="E265" t="s" s="3">
-        <v>379</v>
-      </c>
-      <c r="F265" t="s" s="3">
-        <v>411</v>
-      </c>
-      <c r="G265" t="s" s="3">
+      <c r="C266" t="s" s="3">
+        <v>299</v>
+      </c>
+      <c r="D266" s="3"/>
+      <c r="E266" t="s" s="3">
+        <v>388</v>
+      </c>
+      <c r="F266" t="s" s="3">
+        <v>415</v>
+      </c>
+      <c r="G266" t="s" s="3">
         <v>302</v>
       </c>
-      <c r="H265" t="n" s="4">
+      <c r="H266" t="n" s="4">
         <v>0.0</v>
       </c>
     </row>
-    <row r="266">
-      <c r="A266" t="s" s="2">
-        <v>412</v>
-      </c>
-      <c r="H266" t="n" s="5">
-        <v>2665.39</v>
-      </c>
-    </row>
     <row r="267">
-      <c r="A267" t="s" s="2">
-        <v>413</v>
+      <c r="B267" t="s" s="3">
+        <v>275</v>
+      </c>
+      <c r="C267" t="s" s="3">
+        <v>299</v>
+      </c>
+      <c r="D267" s="3"/>
+      <c r="E267" t="s" s="3">
+        <v>388</v>
+      </c>
+      <c r="F267" t="s" s="3">
+        <v>416</v>
+      </c>
+      <c r="G267" t="s" s="3">
+        <v>302</v>
+      </c>
+      <c r="H267" t="n" s="4">
+        <v>4.26</v>
       </c>
     </row>
     <row r="268">
       <c r="B268" t="s" s="3">
-        <v>414</v>
+        <v>275</v>
       </c>
       <c r="C268" t="s" s="3">
         <v>299</v>
       </c>
       <c r="D268" s="3"/>
       <c r="E268" t="s" s="3">
-        <v>415</v>
+        <v>388</v>
       </c>
       <c r="F268" t="s" s="3">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="G268" t="s" s="3">
         <v>302</v>
       </c>
       <c r="H268" t="n" s="4">
-        <v>42.13</v>
+        <v>37.98</v>
       </c>
     </row>
     <row r="269">
       <c r="B269" t="s" s="3">
-        <v>417</v>
+        <v>275</v>
       </c>
       <c r="C269" t="s" s="3">
         <v>299</v>
       </c>
       <c r="D269" s="3"/>
       <c r="E269" t="s" s="3">
+        <v>388</v>
+      </c>
+      <c r="F269" t="s" s="3">
         <v>418</v>
-      </c>
-      <c r="F269" t="s" s="3">
-        <v>419</v>
       </c>
       <c r="G269" t="s" s="3">
         <v>302</v>
       </c>
       <c r="H269" t="n" s="4">
-        <v>4.47</v>
+        <v>15.98</v>
       </c>
     </row>
     <row r="270">
       <c r="B270" t="s" s="3">
-        <v>417</v>
+        <v>275</v>
       </c>
       <c r="C270" t="s" s="3">
         <v>299</v>
       </c>
       <c r="D270" s="3"/>
       <c r="E270" t="s" s="3">
-        <v>418</v>
+        <v>388</v>
       </c>
       <c r="F270" t="s" s="3">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="G270" t="s" s="3">
         <v>302</v>
       </c>
       <c r="H270" t="n" s="4">
-        <v>6.48</v>
+        <v>33.98</v>
       </c>
     </row>
     <row r="271">
       <c r="B271" t="s" s="3">
-        <v>417</v>
+        <v>275</v>
       </c>
       <c r="C271" t="s" s="3">
         <v>299</v>
       </c>
       <c r="D271" s="3"/>
       <c r="E271" t="s" s="3">
-        <v>418</v>
+        <v>388</v>
       </c>
       <c r="F271" t="s" s="3">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="G271" t="s" s="3">
         <v>302</v>
       </c>
       <c r="H271" t="n" s="4">
-        <v>8.2</v>
+        <v>12.99</v>
       </c>
     </row>
     <row r="272">
-      <c r="B272" t="s" s="3">
-        <v>417</v>
-      </c>
-      <c r="C272" t="s" s="3">
-        <v>299</v>
-      </c>
-      <c r="D272" s="3"/>
-      <c r="E272" t="s" s="3">
-        <v>418</v>
-      </c>
-      <c r="F272" t="s" s="3">
+      <c r="A272" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="H272" t="n" s="5">
+        <v>2665.39</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="s" s="2">
         <v>422</v>
-      </c>
-      <c r="G272" t="s" s="3">
-        <v>302</v>
-      </c>
-      <c r="H272" t="n" s="4">
-        <v>5.92</v>
-      </c>
-    </row>
-    <row r="273">
-      <c r="B273" t="s" s="3">
-        <v>417</v>
-      </c>
-      <c r="C273" t="s" s="3">
-        <v>299</v>
-      </c>
-      <c r="D273" s="3"/>
-      <c r="E273" t="s" s="3">
-        <v>418</v>
-      </c>
-      <c r="F273" t="s" s="3">
-        <v>423</v>
-      </c>
-      <c r="G273" t="s" s="3">
-        <v>302</v>
-      </c>
-      <c r="H273" t="n" s="4">
-        <v>9.92</v>
       </c>
     </row>
     <row r="274">
       <c r="B274" t="s" s="3">
-        <v>417</v>
+        <v>423</v>
       </c>
       <c r="C274" t="s" s="3">
         <v>299</v>
       </c>
       <c r="D274" s="3"/>
       <c r="E274" t="s" s="3">
-        <v>418</v>
+        <v>424</v>
       </c>
       <c r="F274" t="s" s="3">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="G274" t="s" s="3">
         <v>302</v>
       </c>
       <c r="H274" t="n" s="4">
-        <v>1.83</v>
+        <v>42.13</v>
       </c>
     </row>
     <row r="275">
       <c r="B275" t="s" s="3">
-        <v>417</v>
+        <v>426</v>
       </c>
       <c r="C275" t="s" s="3">
         <v>299</v>
       </c>
       <c r="D275" s="3"/>
       <c r="E275" t="s" s="3">
-        <v>418</v>
+        <v>304</v>
       </c>
       <c r="F275" t="s" s="3">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="G275" t="s" s="3">
         <v>302</v>
       </c>
       <c r="H275" t="n" s="4">
-        <v>1.24</v>
+        <v>1.83</v>
       </c>
     </row>
     <row r="276">
       <c r="B276" t="s" s="3">
-        <v>417</v>
+        <v>426</v>
       </c>
       <c r="C276" t="s" s="3">
         <v>299</v>
       </c>
       <c r="D276" s="3"/>
       <c r="E276" t="s" s="3">
-        <v>418</v>
+        <v>304</v>
       </c>
       <c r="F276" t="s" s="3">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="G276" t="s" s="3">
         <v>302</v>
       </c>
       <c r="H276" t="n" s="4">
-        <v>11.96</v>
+        <v>4.47</v>
       </c>
     </row>
     <row r="277">
       <c r="B277" t="s" s="3">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C277" t="s" s="3">
-        <v>428</v>
+        <v>299</v>
       </c>
       <c r="D277" s="3"/>
       <c r="E277" t="s" s="3">
-        <v>418</v>
+        <v>304</v>
       </c>
       <c r="F277" t="s" s="3">
         <v>429</v>
@@ -7337,136 +7361,124 @@
         <v>302</v>
       </c>
       <c r="H277" t="n" s="4">
-        <v>-10.72</v>
+        <v>11.96</v>
       </c>
     </row>
     <row r="278">
       <c r="B278" t="s" s="3">
+        <v>426</v>
+      </c>
+      <c r="C278" t="s" s="3">
+        <v>299</v>
+      </c>
+      <c r="D278" s="3"/>
+      <c r="E278" t="s" s="3">
+        <v>304</v>
+      </c>
+      <c r="F278" t="s" s="3">
         <v>430</v>
-      </c>
-      <c r="C278" t="s" s="3">
-        <v>299</v>
-      </c>
-      <c r="D278" t="s" s="3">
-        <v>431</v>
-      </c>
-      <c r="E278" t="s" s="3">
-        <v>379</v>
-      </c>
-      <c r="F278" t="s" s="3">
-        <v>432</v>
       </c>
       <c r="G278" t="s" s="3">
         <v>302</v>
       </c>
       <c r="H278" t="n" s="4">
-        <v>59.99</v>
+        <v>6.48</v>
       </c>
     </row>
     <row r="279">
       <c r="B279" t="s" s="3">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="C279" t="s" s="3">
         <v>299</v>
       </c>
-      <c r="D279" t="s" s="3">
+      <c r="D279" s="3"/>
+      <c r="E279" t="s" s="3">
+        <v>304</v>
+      </c>
+      <c r="F279" t="s" s="3">
         <v>431</v>
-      </c>
-      <c r="E279" t="s" s="3">
-        <v>379</v>
-      </c>
-      <c r="F279" t="s" s="3">
-        <v>433</v>
       </c>
       <c r="G279" t="s" s="3">
         <v>302</v>
       </c>
       <c r="H279" t="n" s="4">
-        <v>74.97</v>
+        <v>8.2</v>
       </c>
     </row>
     <row r="280">
       <c r="B280" t="s" s="3">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="C280" t="s" s="3">
         <v>299</v>
       </c>
-      <c r="D280" t="s" s="3">
-        <v>431</v>
-      </c>
+      <c r="D280" s="3"/>
       <c r="E280" t="s" s="3">
-        <v>379</v>
+        <v>304</v>
       </c>
       <c r="F280" t="s" s="3">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="G280" t="s" s="3">
         <v>302</v>
       </c>
       <c r="H280" t="n" s="4">
-        <v>24.99</v>
+        <v>9.92</v>
       </c>
     </row>
     <row r="281">
       <c r="B281" t="s" s="3">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="C281" t="s" s="3">
         <v>299</v>
       </c>
-      <c r="D281" t="n" s="3">
-        <v>8997855.0</v>
-      </c>
+      <c r="D281" s="3"/>
       <c r="E281" t="s" s="3">
-        <v>379</v>
+        <v>304</v>
       </c>
       <c r="F281" t="s" s="3">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="G281" t="s" s="3">
         <v>302</v>
       </c>
       <c r="H281" t="n" s="4">
-        <v>79.94</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="282">
       <c r="B282" t="s" s="3">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="C282" t="s" s="3">
         <v>299</v>
       </c>
-      <c r="D282" t="s" s="3">
-        <v>431</v>
-      </c>
+      <c r="D282" s="3"/>
       <c r="E282" t="s" s="3">
-        <v>379</v>
+        <v>304</v>
       </c>
       <c r="F282" t="s" s="3">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="G282" t="s" s="3">
         <v>302</v>
       </c>
       <c r="H282" t="n" s="4">
-        <v>358.0</v>
+        <v>5.92</v>
       </c>
     </row>
     <row r="283">
       <c r="B283" t="s" s="3">
-        <v>430</v>
+        <v>435</v>
       </c>
       <c r="C283" t="s" s="3">
-        <v>299</v>
-      </c>
-      <c r="D283" t="s" s="3">
-        <v>431</v>
-      </c>
+        <v>436</v>
+      </c>
+      <c r="D283" s="3"/>
       <c r="E283" t="s" s="3">
-        <v>379</v>
+        <v>304</v>
       </c>
       <c r="F283" t="s" s="3">
         <v>437</v>
@@ -7475,88 +7487,90 @@
         <v>302</v>
       </c>
       <c r="H283" t="n" s="4">
-        <v>-12.0</v>
+        <v>-10.72</v>
       </c>
     </row>
     <row r="284">
       <c r="B284" t="s" s="3">
-        <v>430</v>
+        <v>438</v>
       </c>
       <c r="C284" t="s" s="3">
         <v>299</v>
       </c>
       <c r="D284" t="s" s="3">
-        <v>431</v>
+        <v>439</v>
       </c>
       <c r="E284" t="s" s="3">
-        <v>379</v>
+        <v>388</v>
       </c>
       <c r="F284" t="s" s="3">
-        <v>410</v>
+        <v>440</v>
       </c>
       <c r="G284" t="s" s="3">
         <v>302</v>
       </c>
       <c r="H284" t="n" s="4">
-        <v>30.59</v>
+        <v>-12.0</v>
       </c>
     </row>
     <row r="285">
       <c r="B285" t="s" s="3">
-        <v>430</v>
+        <v>438</v>
       </c>
       <c r="C285" t="s" s="3">
         <v>299</v>
       </c>
       <c r="D285" t="s" s="3">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="E285" t="s" s="3">
-        <v>379</v>
+        <v>388</v>
       </c>
       <c r="F285" t="s" s="3">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="G285" t="s" s="3">
         <v>302</v>
       </c>
       <c r="H285" t="n" s="4">
-        <v>169.99</v>
+        <v>24.99</v>
       </c>
     </row>
     <row r="286">
       <c r="B286" t="s" s="3">
-        <v>430</v>
+        <v>438</v>
       </c>
       <c r="C286" t="s" s="3">
         <v>299</v>
       </c>
-      <c r="D286" t="n" s="3">
-        <v>2343429.0</v>
+      <c r="D286" t="s" s="3">
+        <v>439</v>
       </c>
       <c r="E286" t="s" s="3">
-        <v>379</v>
+        <v>388</v>
       </c>
       <c r="F286" t="s" s="3">
-        <v>440</v>
+        <v>416</v>
       </c>
       <c r="G286" t="s" s="3">
         <v>302</v>
       </c>
       <c r="H286" t="n" s="4">
-        <v>100.0</v>
+        <v>30.59</v>
       </c>
     </row>
     <row r="287">
       <c r="B287" t="s" s="3">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="C287" t="s" s="3">
-        <v>428</v>
-      </c>
-      <c r="D287" s="3"/>
+        <v>299</v>
+      </c>
+      <c r="D287" t="s" s="3">
+        <v>439</v>
+      </c>
       <c r="E287" t="s" s="3">
-        <v>379</v>
+        <v>388</v>
       </c>
       <c r="F287" t="s" s="3">
         <v>442</v>
@@ -7565,247 +7579,245 @@
         <v>302</v>
       </c>
       <c r="H287" t="n" s="4">
-        <v>-6.26</v>
+        <v>59.99</v>
       </c>
     </row>
     <row r="288">
-      <c r="A288" t="s" s="2">
+      <c r="B288" t="s" s="3">
+        <v>438</v>
+      </c>
+      <c r="C288" t="s" s="3">
+        <v>299</v>
+      </c>
+      <c r="D288" t="s" s="3">
+        <v>439</v>
+      </c>
+      <c r="E288" t="s" s="3">
+        <v>388</v>
+      </c>
+      <c r="F288" t="s" s="3">
         <v>443</v>
       </c>
-      <c r="H288" t="n" s="5">
-        <v>961.64</v>
+      <c r="G288" t="s" s="3">
+        <v>302</v>
+      </c>
+      <c r="H288" t="n" s="4">
+        <v>74.97</v>
       </c>
     </row>
     <row r="289">
-      <c r="A289" t="s" s="2">
+      <c r="B289" t="s" s="3">
+        <v>438</v>
+      </c>
+      <c r="C289" t="s" s="3">
+        <v>299</v>
+      </c>
+      <c r="D289" t="n" s="3">
+        <v>8997855.0</v>
+      </c>
+      <c r="E289" t="s" s="3">
+        <v>388</v>
+      </c>
+      <c r="F289" t="s" s="3">
         <v>444</v>
+      </c>
+      <c r="G289" t="s" s="3">
+        <v>302</v>
+      </c>
+      <c r="H289" t="n" s="4">
+        <v>79.94</v>
       </c>
     </row>
     <row r="290">
       <c r="B290" t="s" s="3">
-        <v>275</v>
+        <v>438</v>
       </c>
       <c r="C290" t="s" s="3">
-        <v>290</v>
-      </c>
-      <c r="D290" s="3"/>
+        <v>299</v>
+      </c>
+      <c r="D290" t="n" s="3">
+        <v>2343429.0</v>
+      </c>
       <c r="E290" t="s" s="3">
+        <v>388</v>
+      </c>
+      <c r="F290" t="s" s="3">
         <v>445</v>
       </c>
-      <c r="F290" t="s" s="3">
-        <v>446</v>
-      </c>
       <c r="G290" t="s" s="3">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="H290" t="n" s="4">
-        <v>338.99</v>
+        <v>100.0</v>
       </c>
     </row>
     <row r="291">
       <c r="B291" t="s" s="3">
-        <v>275</v>
+        <v>438</v>
       </c>
       <c r="C291" t="s" s="3">
-        <v>290</v>
-      </c>
-      <c r="D291" s="3"/>
+        <v>299</v>
+      </c>
+      <c r="D291" t="s" s="3">
+        <v>446</v>
+      </c>
       <c r="E291" t="s" s="3">
-        <v>445</v>
+        <v>388</v>
       </c>
       <c r="F291" t="s" s="3">
         <v>447</v>
       </c>
       <c r="G291" t="s" s="3">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="H291" t="n" s="4">
-        <v>1000.0</v>
+        <v>169.99</v>
       </c>
     </row>
     <row r="292">
       <c r="B292" t="s" s="3">
-        <v>275</v>
+        <v>438</v>
       </c>
       <c r="C292" t="s" s="3">
-        <v>290</v>
-      </c>
-      <c r="D292" s="3"/>
+        <v>299</v>
+      </c>
+      <c r="D292" t="s" s="3">
+        <v>439</v>
+      </c>
       <c r="E292" t="s" s="3">
-        <v>445</v>
+        <v>388</v>
       </c>
       <c r="F292" t="s" s="3">
         <v>448</v>
       </c>
       <c r="G292" t="s" s="3">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="H292" t="n" s="4">
-        <v>3185.0</v>
+        <v>358.0</v>
       </c>
     </row>
     <row r="293">
       <c r="B293" t="s" s="3">
-        <v>275</v>
+        <v>449</v>
       </c>
       <c r="C293" t="s" s="3">
-        <v>290</v>
+        <v>436</v>
       </c>
       <c r="D293" s="3"/>
       <c r="E293" t="s" s="3">
-        <v>445</v>
+        <v>388</v>
       </c>
       <c r="F293" t="s" s="3">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="G293" t="s" s="3">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="H293" t="n" s="4">
-        <v>-500.0</v>
+        <v>-6.26</v>
       </c>
     </row>
     <row r="294">
-      <c r="B294" t="s" s="3">
-        <v>450</v>
-      </c>
-      <c r="C294" t="s" s="3">
-        <v>299</v>
-      </c>
-      <c r="D294" t="n" s="3">
-        <v>550835.0</v>
-      </c>
-      <c r="E294" t="s" s="3">
-        <v>418</v>
-      </c>
-      <c r="F294" t="s" s="3">
+      <c r="A294" t="s" s="2">
         <v>451</v>
       </c>
-      <c r="G294" t="s" s="3">
-        <v>302</v>
-      </c>
-      <c r="H294" t="n" s="4">
-        <v>5.0</v>
+      <c r="H294" t="n" s="5">
+        <v>961.64</v>
       </c>
     </row>
     <row r="295">
-      <c r="B295" t="s" s="3">
-        <v>450</v>
-      </c>
-      <c r="C295" t="s" s="3">
-        <v>299</v>
-      </c>
-      <c r="D295" t="n" s="3">
-        <v>550835.0</v>
-      </c>
-      <c r="E295" t="s" s="3">
-        <v>418</v>
-      </c>
-      <c r="F295" t="s" s="3">
+      <c r="A295" t="s" s="2">
         <v>452</v>
-      </c>
-      <c r="G295" t="s" s="3">
-        <v>302</v>
-      </c>
-      <c r="H295" t="n" s="4">
-        <v>3.24</v>
       </c>
     </row>
     <row r="296">
       <c r="B296" t="s" s="3">
-        <v>450</v>
+        <v>275</v>
       </c>
       <c r="C296" t="s" s="3">
-        <v>299</v>
-      </c>
-      <c r="D296" t="n" s="3">
-        <v>550835.0</v>
-      </c>
+        <v>290</v>
+      </c>
+      <c r="D296" s="3"/>
       <c r="E296" t="s" s="3">
-        <v>418</v>
+        <v>453</v>
       </c>
       <c r="F296" t="s" s="3">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="G296" t="s" s="3">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="H296" t="n" s="4">
-        <v>2.64</v>
+        <v>1000.0</v>
       </c>
     </row>
     <row r="297">
       <c r="B297" t="s" s="3">
-        <v>450</v>
+        <v>275</v>
       </c>
       <c r="C297" t="s" s="3">
-        <v>299</v>
-      </c>
-      <c r="D297" t="n" s="3">
-        <v>550835.0</v>
-      </c>
+        <v>290</v>
+      </c>
+      <c r="D297" s="3"/>
       <c r="E297" t="s" s="3">
-        <v>418</v>
+        <v>453</v>
       </c>
       <c r="F297" t="s" s="3">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="G297" t="s" s="3">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="H297" t="n" s="4">
-        <v>2.64</v>
+        <v>338.99</v>
       </c>
     </row>
     <row r="298">
       <c r="B298" t="s" s="3">
-        <v>450</v>
+        <v>275</v>
       </c>
       <c r="C298" t="s" s="3">
-        <v>299</v>
-      </c>
-      <c r="D298" t="n" s="3">
-        <v>550835.0</v>
-      </c>
+        <v>290</v>
+      </c>
+      <c r="D298" s="3"/>
       <c r="E298" t="s" s="3">
-        <v>418</v>
+        <v>453</v>
       </c>
       <c r="F298" t="s" s="3">
-        <v>425</v>
+        <v>456</v>
       </c>
       <c r="G298" t="s" s="3">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="H298" t="n" s="4">
-        <v>0.79</v>
+        <v>-500.0</v>
       </c>
     </row>
     <row r="299">
       <c r="B299" t="s" s="3">
-        <v>450</v>
+        <v>275</v>
       </c>
       <c r="C299" t="s" s="3">
-        <v>299</v>
-      </c>
-      <c r="D299" t="n" s="3">
-        <v>550835.0</v>
-      </c>
+        <v>290</v>
+      </c>
+      <c r="D299" s="3"/>
       <c r="E299" t="s" s="3">
-        <v>418</v>
+        <v>453</v>
       </c>
       <c r="F299" t="s" s="3">
-        <v>424</v>
+        <v>457</v>
       </c>
       <c r="G299" t="s" s="3">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="H299" t="n" s="4">
-        <v>0.39</v>
+        <v>3185.0</v>
       </c>
     </row>
     <row r="300">
       <c r="B300" t="s" s="3">
-        <v>450</v>
+        <v>458</v>
       </c>
       <c r="C300" t="s" s="3">
         <v>299</v>
@@ -7814,10 +7826,10 @@
         <v>550835.0</v>
       </c>
       <c r="E300" t="s" s="3">
-        <v>418</v>
+        <v>304</v>
       </c>
       <c r="F300" t="s" s="3">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="G300" t="s" s="3">
         <v>302</v>
@@ -7828,44 +7840,48 @@
     </row>
     <row r="301">
       <c r="B301" t="s" s="3">
-        <v>280</v>
+        <v>458</v>
       </c>
       <c r="C301" t="s" s="3">
-        <v>290</v>
-      </c>
-      <c r="D301" s="3"/>
+        <v>299</v>
+      </c>
+      <c r="D301" t="n" s="3">
+        <v>550835.0</v>
+      </c>
       <c r="E301" t="s" s="3">
-        <v>445</v>
+        <v>304</v>
       </c>
       <c r="F301" t="s" s="3">
-        <v>456</v>
+        <v>433</v>
       </c>
       <c r="G301" t="s" s="3">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="H301" t="n" s="4">
-        <v>100.0</v>
+        <v>0.79</v>
       </c>
     </row>
     <row r="302">
       <c r="B302" t="s" s="3">
-        <v>280</v>
+        <v>458</v>
       </c>
       <c r="C302" t="s" s="3">
-        <v>290</v>
-      </c>
-      <c r="D302" s="3"/>
+        <v>299</v>
+      </c>
+      <c r="D302" t="n" s="3">
+        <v>550835.0</v>
+      </c>
       <c r="E302" t="s" s="3">
-        <v>445</v>
+        <v>304</v>
       </c>
       <c r="F302" t="s" s="3">
-        <v>457</v>
+        <v>427</v>
       </c>
       <c r="G302" t="s" s="3">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="H302" t="n" s="4">
-        <v>610.65</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="303">
@@ -7873,20 +7889,22 @@
         <v>458</v>
       </c>
       <c r="C303" t="s" s="3">
-        <v>290</v>
-      </c>
-      <c r="D303" s="3"/>
+        <v>299</v>
+      </c>
+      <c r="D303" t="n" s="3">
+        <v>550835.0</v>
+      </c>
       <c r="E303" t="s" s="3">
-        <v>445</v>
+        <v>304</v>
       </c>
       <c r="F303" t="s" s="3">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="G303" t="s" s="3">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="H303" t="n" s="4">
-        <v>523.0</v>
+        <v>2.64</v>
       </c>
     </row>
     <row r="304">
@@ -7894,407 +7912,413 @@
         <v>458</v>
       </c>
       <c r="C304" t="s" s="3">
-        <v>290</v>
-      </c>
-      <c r="D304" s="3"/>
+        <v>299</v>
+      </c>
+      <c r="D304" t="n" s="3">
+        <v>550835.0</v>
+      </c>
       <c r="E304" t="s" s="3">
-        <v>445</v>
+        <v>304</v>
       </c>
       <c r="F304" t="s" s="3">
-        <v>446</v>
+        <v>461</v>
       </c>
       <c r="G304" t="s" s="3">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="H304" t="n" s="4">
-        <v>42.36</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="305">
-      <c r="A305" t="s" s="2">
-        <v>460</v>
-      </c>
-      <c r="H305" t="n" s="5">
-        <v>5316.7</v>
+      <c r="B305" t="s" s="3">
+        <v>458</v>
+      </c>
+      <c r="C305" t="s" s="3">
+        <v>299</v>
+      </c>
+      <c r="D305" t="n" s="3">
+        <v>550835.0</v>
+      </c>
+      <c r="E305" t="s" s="3">
+        <v>304</v>
+      </c>
+      <c r="F305" t="s" s="3">
+        <v>462</v>
+      </c>
+      <c r="G305" t="s" s="3">
+        <v>302</v>
+      </c>
+      <c r="H305" t="n" s="4">
+        <v>3.24</v>
       </c>
     </row>
     <row r="306">
-      <c r="A306" t="s" s="2">
-        <v>461</v>
+      <c r="B306" t="s" s="3">
+        <v>458</v>
+      </c>
+      <c r="C306" t="s" s="3">
+        <v>299</v>
+      </c>
+      <c r="D306" t="n" s="3">
+        <v>550835.0</v>
+      </c>
+      <c r="E306" t="s" s="3">
+        <v>304</v>
+      </c>
+      <c r="F306" t="s" s="3">
+        <v>463</v>
+      </c>
+      <c r="G306" t="s" s="3">
+        <v>302</v>
+      </c>
+      <c r="H306" t="n" s="4">
+        <v>2.64</v>
       </c>
     </row>
     <row r="307">
       <c r="B307" t="s" s="3">
-        <v>16</v>
+        <v>280</v>
       </c>
       <c r="C307" t="s" s="3">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="D307" s="3"/>
       <c r="E307" t="s" s="3">
-        <v>311</v>
+        <v>453</v>
       </c>
       <c r="F307" t="s" s="3">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="G307" t="s" s="3">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="H307" t="n" s="4">
-        <v>52.45</v>
+        <v>610.65</v>
       </c>
     </row>
     <row r="308">
       <c r="B308" t="s" s="3">
-        <v>16</v>
+        <v>280</v>
       </c>
       <c r="C308" t="s" s="3">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="D308" s="3"/>
       <c r="E308" t="s" s="3">
-        <v>311</v>
+        <v>453</v>
       </c>
       <c r="F308" t="s" s="3">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="G308" t="s" s="3">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="H308" t="n" s="4">
-        <v>26.35</v>
+        <v>100.0</v>
       </c>
     </row>
     <row r="309">
       <c r="B309" t="s" s="3">
-        <v>16</v>
+        <v>466</v>
       </c>
       <c r="C309" t="s" s="3">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="D309" s="3"/>
       <c r="E309" t="s" s="3">
-        <v>311</v>
+        <v>453</v>
       </c>
       <c r="F309" t="s" s="3">
-        <v>464</v>
+        <v>455</v>
       </c>
       <c r="G309" t="s" s="3">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="H309" t="n" s="4">
-        <v>52.45</v>
+        <v>42.36</v>
       </c>
     </row>
     <row r="310">
       <c r="B310" t="s" s="3">
-        <v>209</v>
+        <v>466</v>
       </c>
       <c r="C310" t="s" s="3">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="D310" s="3"/>
       <c r="E310" t="s" s="3">
-        <v>311</v>
+        <v>453</v>
       </c>
       <c r="F310" t="s" s="3">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="G310" t="s" s="3">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="H310" t="n" s="4">
-        <v>10.0</v>
+        <v>523.0</v>
       </c>
     </row>
     <row r="311">
-      <c r="B311" t="s" s="3">
-        <v>209</v>
-      </c>
-      <c r="C311" t="s" s="3">
-        <v>299</v>
-      </c>
-      <c r="D311" s="3"/>
-      <c r="E311" t="s" s="3">
-        <v>311</v>
-      </c>
-      <c r="F311" t="s" s="3">
-        <v>466</v>
-      </c>
-      <c r="G311" t="s" s="3">
-        <v>302</v>
-      </c>
-      <c r="H311" t="n" s="4">
-        <v>13.3</v>
+      <c r="A311" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="H311" t="n" s="5">
+        <v>5316.7</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="s" s="2">
-        <v>467</v>
-      </c>
-      <c r="H312" t="n" s="5">
-        <v>154.55</v>
+        <v>469</v>
       </c>
     </row>
     <row r="313">
-      <c r="A313" t="s" s="2">
-        <v>468</v>
+      <c r="B313" t="s" s="3">
+        <v>16</v>
+      </c>
+      <c r="C313" t="s" s="3">
+        <v>299</v>
+      </c>
+      <c r="D313" s="3"/>
+      <c r="E313" t="s" s="3">
+        <v>316</v>
+      </c>
+      <c r="F313" t="s" s="3">
+        <v>470</v>
+      </c>
+      <c r="G313" t="s" s="3">
+        <v>302</v>
+      </c>
+      <c r="H313" t="n" s="4">
+        <v>52.45</v>
       </c>
     </row>
     <row r="314">
       <c r="B314" t="s" s="3">
-        <v>209</v>
+        <v>16</v>
       </c>
       <c r="C314" t="s" s="3">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="D314" s="3"/>
       <c r="E314" t="s" s="3">
-        <v>469</v>
+        <v>316</v>
       </c>
       <c r="F314" t="s" s="3">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="G314" t="s" s="3">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="H314" t="n" s="4">
-        <v>4.99</v>
+        <v>26.35</v>
       </c>
     </row>
     <row r="315">
-      <c r="A315" t="s" s="2">
-        <v>471</v>
-      </c>
-      <c r="H315" t="n" s="5">
-        <v>4.99</v>
+      <c r="B315" t="s" s="3">
+        <v>16</v>
+      </c>
+      <c r="C315" t="s" s="3">
+        <v>299</v>
+      </c>
+      <c r="D315" s="3"/>
+      <c r="E315" t="s" s="3">
+        <v>316</v>
+      </c>
+      <c r="F315" t="s" s="3">
+        <v>472</v>
+      </c>
+      <c r="G315" t="s" s="3">
+        <v>302</v>
+      </c>
+      <c r="H315" t="n" s="4">
+        <v>52.45</v>
       </c>
     </row>
     <row r="316">
-      <c r="A316" t="s" s="2">
-        <v>472</v>
+      <c r="B316" t="s" s="3">
+        <v>209</v>
+      </c>
+      <c r="C316" t="s" s="3">
+        <v>299</v>
+      </c>
+      <c r="D316" s="3"/>
+      <c r="E316" t="s" s="3">
+        <v>316</v>
+      </c>
+      <c r="F316" t="s" s="3">
+        <v>473</v>
+      </c>
+      <c r="G316" t="s" s="3">
+        <v>302</v>
+      </c>
+      <c r="H316" t="n" s="4">
+        <v>10.0</v>
       </c>
     </row>
     <row r="317">
       <c r="B317" t="s" s="3">
-        <v>98</v>
+        <v>209</v>
       </c>
       <c r="C317" t="s" s="3">
         <v>299</v>
       </c>
       <c r="D317" s="3"/>
       <c r="E317" t="s" s="3">
-        <v>473</v>
+        <v>316</v>
       </c>
       <c r="F317" t="s" s="3">
         <v>474</v>
       </c>
       <c r="G317" t="s" s="3">
-        <v>65</v>
+        <v>302</v>
       </c>
       <c r="H317" t="n" s="4">
-        <v>27.69</v>
+        <v>13.3</v>
       </c>
     </row>
     <row r="318">
-      <c r="B318" t="s" s="3">
+      <c r="A318" t="s" s="2">
         <v>475</v>
       </c>
-      <c r="C318" t="s" s="3">
-        <v>299</v>
-      </c>
-      <c r="D318" s="3"/>
-      <c r="E318" t="s" s="3">
-        <v>473</v>
-      </c>
-      <c r="F318" t="s" s="3">
+      <c r="H318" t="n" s="5">
+        <v>154.55</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="s" s="2">
         <v>476</v>
-      </c>
-      <c r="G318" t="s" s="3">
-        <v>65</v>
-      </c>
-      <c r="H318" t="n" s="4">
-        <v>3.2</v>
-      </c>
-    </row>
-    <row r="319">
-      <c r="B319" t="s" s="3">
-        <v>477</v>
-      </c>
-      <c r="C319" t="s" s="3">
-        <v>299</v>
-      </c>
-      <c r="D319" s="3"/>
-      <c r="E319" t="s" s="3">
-        <v>473</v>
-      </c>
-      <c r="F319" t="s" s="3">
-        <v>478</v>
-      </c>
-      <c r="G319" t="s" s="3">
-        <v>65</v>
-      </c>
-      <c r="H319" t="n" s="4">
-        <v>1.75</v>
       </c>
     </row>
     <row r="320">
       <c r="B320" t="s" s="3">
-        <v>38</v>
+        <v>209</v>
       </c>
       <c r="C320" t="s" s="3">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="D320" s="3"/>
       <c r="E320" t="s" s="3">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="F320" t="s" s="3">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="G320" t="s" s="3">
-        <v>65</v>
+        <v>293</v>
       </c>
       <c r="H320" t="n" s="4">
-        <v>3.2</v>
+        <v>4.99</v>
       </c>
     </row>
     <row r="321">
-      <c r="B321" t="s" s="3">
-        <v>113</v>
-      </c>
-      <c r="C321" t="s" s="3">
-        <v>299</v>
-      </c>
-      <c r="D321" s="3"/>
-      <c r="E321" t="s" s="3">
-        <v>473</v>
-      </c>
-      <c r="F321" t="s" s="3">
-        <v>476</v>
-      </c>
-      <c r="G321" t="s" s="3">
-        <v>65</v>
-      </c>
-      <c r="H321" t="n" s="4">
-        <v>3.2</v>
+      <c r="A321" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="H321" t="n" s="5">
+        <v>4.99</v>
       </c>
     </row>
     <row r="322">
-      <c r="B322" t="s" s="3">
-        <v>40</v>
-      </c>
-      <c r="C322" t="s" s="3">
-        <v>299</v>
-      </c>
-      <c r="D322" s="3"/>
-      <c r="E322" t="s" s="3">
-        <v>473</v>
-      </c>
-      <c r="F322" t="s" s="3">
-        <v>479</v>
-      </c>
-      <c r="G322" t="s" s="3">
-        <v>65</v>
-      </c>
-      <c r="H322" t="n" s="4">
-        <v>6.99</v>
+      <c r="A322" t="s" s="2">
+        <v>480</v>
       </c>
     </row>
     <row r="323">
       <c r="B323" t="s" s="3">
-        <v>128</v>
+        <v>98</v>
       </c>
       <c r="C323" t="s" s="3">
         <v>299</v>
       </c>
       <c r="D323" s="3"/>
       <c r="E323" t="s" s="3">
-        <v>473</v>
+        <v>481</v>
       </c>
       <c r="F323" t="s" s="3">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="G323" t="s" s="3">
         <v>65</v>
       </c>
       <c r="H323" t="n" s="4">
-        <v>11.04</v>
+        <v>27.69</v>
       </c>
     </row>
     <row r="324">
       <c r="B324" t="s" s="3">
-        <v>133</v>
+        <v>483</v>
       </c>
       <c r="C324" t="s" s="3">
         <v>299</v>
       </c>
       <c r="D324" s="3"/>
       <c r="E324" t="s" s="3">
-        <v>473</v>
+        <v>481</v>
       </c>
       <c r="F324" t="s" s="3">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="G324" t="s" s="3">
         <v>65</v>
       </c>
       <c r="H324" t="n" s="4">
-        <v>4.08</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="325">
       <c r="B325" t="s" s="3">
-        <v>45</v>
+        <v>485</v>
       </c>
       <c r="C325" t="s" s="3">
         <v>299</v>
       </c>
       <c r="D325" s="3"/>
       <c r="E325" t="s" s="3">
-        <v>473</v>
+        <v>481</v>
       </c>
       <c r="F325" t="s" s="3">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="G325" t="s" s="3">
         <v>65</v>
       </c>
       <c r="H325" t="n" s="4">
-        <v>13.08</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="326">
       <c r="B326" t="s" s="3">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="C326" t="s" s="3">
         <v>299</v>
       </c>
       <c r="D326" s="3"/>
       <c r="E326" t="s" s="3">
-        <v>473</v>
+        <v>481</v>
       </c>
       <c r="F326" t="s" s="3">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="G326" t="s" s="3">
         <v>65</v>
       </c>
       <c r="H326" t="n" s="4">
-        <v>10.18</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="327">
       <c r="B327" t="s" s="3">
-        <v>164</v>
+        <v>113</v>
       </c>
       <c r="C327" t="s" s="3">
         <v>299</v>
       </c>
       <c r="D327" s="3"/>
       <c r="E327" t="s" s="3">
-        <v>473</v>
+        <v>481</v>
       </c>
       <c r="F327" t="s" s="3">
         <v>484</v>
@@ -8303,312 +8327,300 @@
         <v>65</v>
       </c>
       <c r="H327" t="n" s="4">
-        <v>15.4</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="328">
       <c r="B328" t="s" s="3">
-        <v>184</v>
+        <v>40</v>
       </c>
       <c r="C328" t="s" s="3">
         <v>299</v>
       </c>
       <c r="D328" s="3"/>
       <c r="E328" t="s" s="3">
-        <v>473</v>
+        <v>481</v>
       </c>
       <c r="F328" t="s" s="3">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="G328" t="s" s="3">
         <v>65</v>
       </c>
       <c r="H328" t="n" s="4">
-        <v>3.5</v>
+        <v>6.99</v>
       </c>
     </row>
     <row r="329">
       <c r="B329" t="s" s="3">
-        <v>57</v>
+        <v>128</v>
       </c>
       <c r="C329" t="s" s="3">
         <v>299</v>
       </c>
       <c r="D329" s="3"/>
       <c r="E329" t="s" s="3">
-        <v>473</v>
+        <v>481</v>
       </c>
       <c r="F329" t="s" s="3">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="G329" t="s" s="3">
         <v>65</v>
       </c>
       <c r="H329" t="n" s="4">
-        <v>6.7</v>
+        <v>11.04</v>
       </c>
     </row>
     <row r="330">
       <c r="B330" t="s" s="3">
-        <v>209</v>
+        <v>133</v>
       </c>
       <c r="C330" t="s" s="3">
         <v>299</v>
       </c>
       <c r="D330" s="3"/>
       <c r="E330" t="s" s="3">
-        <v>473</v>
+        <v>481</v>
       </c>
       <c r="F330" t="s" s="3">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="G330" t="s" s="3">
         <v>65</v>
       </c>
       <c r="H330" t="n" s="4">
-        <v>19.48</v>
+        <v>4.08</v>
       </c>
     </row>
     <row r="331">
       <c r="B331" t="s" s="3">
-        <v>262</v>
+        <v>45</v>
       </c>
       <c r="C331" t="s" s="3">
         <v>299</v>
       </c>
       <c r="D331" s="3"/>
       <c r="E331" t="s" s="3">
-        <v>473</v>
+        <v>481</v>
       </c>
       <c r="F331" t="s" s="3">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="G331" t="s" s="3">
         <v>65</v>
       </c>
       <c r="H331" t="n" s="4">
-        <v>26.78</v>
+        <v>13.08</v>
       </c>
     </row>
     <row r="332">
       <c r="B332" t="s" s="3">
-        <v>427</v>
+        <v>48</v>
       </c>
       <c r="C332" t="s" s="3">
         <v>299</v>
       </c>
       <c r="D332" s="3"/>
       <c r="E332" t="s" s="3">
-        <v>473</v>
+        <v>481</v>
       </c>
       <c r="F332" t="s" s="3">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="G332" t="s" s="3">
         <v>65</v>
       </c>
       <c r="H332" t="n" s="4">
-        <v>10.78</v>
+        <v>10.18</v>
       </c>
     </row>
     <row r="333">
       <c r="B333" t="s" s="3">
-        <v>458</v>
+        <v>164</v>
       </c>
       <c r="C333" t="s" s="3">
         <v>299</v>
       </c>
       <c r="D333" s="3"/>
       <c r="E333" t="s" s="3">
-        <v>473</v>
+        <v>481</v>
       </c>
       <c r="F333" t="s" s="3">
-        <v>476</v>
+        <v>492</v>
       </c>
       <c r="G333" t="s" s="3">
         <v>65</v>
       </c>
       <c r="H333" t="n" s="4">
-        <v>3.2</v>
+        <v>15.4</v>
       </c>
     </row>
     <row r="334">
-      <c r="A334" t="s" s="2">
-        <v>490</v>
-      </c>
-      <c r="H334" t="n" s="5">
-        <v>170.25</v>
+      <c r="B334" t="s" s="3">
+        <v>184</v>
+      </c>
+      <c r="C334" t="s" s="3">
+        <v>299</v>
+      </c>
+      <c r="D334" s="3"/>
+      <c r="E334" t="s" s="3">
+        <v>481</v>
+      </c>
+      <c r="F334" t="s" s="3">
+        <v>493</v>
+      </c>
+      <c r="G334" t="s" s="3">
+        <v>65</v>
+      </c>
+      <c r="H334" t="n" s="4">
+        <v>3.5</v>
       </c>
     </row>
     <row r="335">
-      <c r="A335" t="s" s="2">
-        <v>491</v>
+      <c r="B335" t="s" s="3">
+        <v>57</v>
+      </c>
+      <c r="C335" t="s" s="3">
+        <v>299</v>
+      </c>
+      <c r="D335" s="3"/>
+      <c r="E335" t="s" s="3">
+        <v>481</v>
+      </c>
+      <c r="F335" t="s" s="3">
+        <v>494</v>
+      </c>
+      <c r="G335" t="s" s="3">
+        <v>65</v>
+      </c>
+      <c r="H335" t="n" s="4">
+        <v>6.7</v>
       </c>
     </row>
     <row r="336">
       <c r="B336" t="s" s="3">
-        <v>414</v>
+        <v>209</v>
       </c>
       <c r="C336" t="s" s="3">
         <v>299</v>
       </c>
-      <c r="D336" t="n" s="3">
-        <v>698456.0</v>
-      </c>
+      <c r="D336" s="3"/>
       <c r="E336" t="s" s="3">
-        <v>492</v>
+        <v>481</v>
       </c>
       <c r="F336" t="s" s="3">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="G336" t="s" s="3">
-        <v>302</v>
+        <v>65</v>
       </c>
       <c r="H336" t="n" s="4">
-        <v>200.0</v>
+        <v>19.48</v>
       </c>
     </row>
     <row r="337">
       <c r="B337" t="s" s="3">
-        <v>494</v>
+        <v>262</v>
       </c>
       <c r="C337" t="s" s="3">
         <v>299</v>
       </c>
-      <c r="D337" t="n" s="3">
-        <v>430970.0</v>
-      </c>
+      <c r="D337" s="3"/>
       <c r="E337" t="s" s="3">
-        <v>492</v>
+        <v>481</v>
       </c>
       <c r="F337" t="s" s="3">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="G337" t="s" s="3">
-        <v>302</v>
+        <v>65</v>
       </c>
       <c r="H337" t="n" s="4">
-        <v>37.34</v>
+        <v>26.78</v>
       </c>
     </row>
     <row r="338">
       <c r="B338" t="s" s="3">
-        <v>494</v>
+        <v>435</v>
       </c>
       <c r="C338" t="s" s="3">
         <v>299</v>
       </c>
-      <c r="D338" t="n" s="3">
-        <v>430970.0</v>
-      </c>
+      <c r="D338" s="3"/>
       <c r="E338" t="s" s="3">
-        <v>492</v>
+        <v>481</v>
       </c>
       <c r="F338" t="s" s="3">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="G338" t="s" s="3">
-        <v>302</v>
+        <v>65</v>
       </c>
       <c r="H338" t="n" s="4">
-        <v>180.26</v>
+        <v>10.78</v>
       </c>
     </row>
     <row r="339">
       <c r="B339" t="s" s="3">
-        <v>494</v>
+        <v>466</v>
       </c>
       <c r="C339" t="s" s="3">
         <v>299</v>
       </c>
-      <c r="D339" t="n" s="3">
-        <v>430970.0</v>
-      </c>
+      <c r="D339" s="3"/>
       <c r="E339" t="s" s="3">
-        <v>492</v>
+        <v>481</v>
       </c>
       <c r="F339" t="s" s="3">
-        <v>493</v>
+        <v>484</v>
       </c>
       <c r="G339" t="s" s="3">
-        <v>302</v>
+        <v>65</v>
       </c>
       <c r="H339" t="n" s="4">
-        <v>-200.0</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="340">
-      <c r="B340" t="s" s="3">
-        <v>494</v>
-      </c>
-      <c r="C340" t="s" s="3">
-        <v>299</v>
-      </c>
-      <c r="D340" t="n" s="3">
-        <v>430970.0</v>
-      </c>
-      <c r="E340" t="s" s="3">
-        <v>492</v>
-      </c>
-      <c r="F340" t="s" s="3">
-        <v>497</v>
-      </c>
-      <c r="G340" t="s" s="3">
-        <v>302</v>
-      </c>
-      <c r="H340" t="n" s="4">
-        <v>4.84</v>
+      <c r="A340" t="s" s="2">
+        <v>498</v>
+      </c>
+      <c r="H340" t="n" s="5">
+        <v>170.25</v>
       </c>
     </row>
     <row r="341">
-      <c r="B341" t="s" s="3">
-        <v>494</v>
-      </c>
-      <c r="C341" t="s" s="3">
-        <v>299</v>
-      </c>
-      <c r="D341" t="n" s="3">
-        <v>430970.0</v>
-      </c>
-      <c r="E341" t="s" s="3">
-        <v>492</v>
-      </c>
-      <c r="F341" t="s" s="3">
-        <v>498</v>
-      </c>
-      <c r="G341" t="s" s="3">
-        <v>302</v>
-      </c>
-      <c r="H341" t="n" s="4">
-        <v>46.77</v>
+      <c r="A341" t="s" s="2">
+        <v>499</v>
       </c>
     </row>
     <row r="342">
       <c r="B342" t="s" s="3">
-        <v>494</v>
+        <v>423</v>
       </c>
       <c r="C342" t="s" s="3">
         <v>299</v>
       </c>
       <c r="D342" t="n" s="3">
-        <v>430970.0</v>
+        <v>698456.0</v>
       </c>
       <c r="E342" t="s" s="3">
-        <v>492</v>
+        <v>500</v>
       </c>
       <c r="F342" t="s" s="3">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="G342" t="s" s="3">
         <v>302</v>
       </c>
       <c r="H342" t="n" s="4">
-        <v>35.03</v>
+        <v>200.0</v>
       </c>
     </row>
     <row r="343">
       <c r="B343" t="s" s="3">
-        <v>494</v>
+        <v>502</v>
       </c>
       <c r="C343" t="s" s="3">
         <v>299</v>
@@ -8617,10 +8629,10 @@
         <v>430970.0</v>
       </c>
       <c r="E343" t="s" s="3">
-        <v>492</v>
+        <v>500</v>
       </c>
       <c r="F343" t="s" s="3">
-        <v>410</v>
+        <v>416</v>
       </c>
       <c r="G343" t="s" s="3">
         <v>302</v>
@@ -8631,7 +8643,7 @@
     </row>
     <row r="344">
       <c r="B344" t="s" s="3">
-        <v>494</v>
+        <v>502</v>
       </c>
       <c r="C344" t="s" s="3">
         <v>299</v>
@@ -8640,843 +8652,981 @@
         <v>430970.0</v>
       </c>
       <c r="E344" t="s" s="3">
-        <v>492</v>
+        <v>500</v>
       </c>
       <c r="F344" t="s" s="3">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="G344" t="s" s="3">
         <v>302</v>
       </c>
       <c r="H344" t="n" s="4">
-        <v>172.49</v>
+        <v>46.77</v>
       </c>
     </row>
     <row r="345">
       <c r="B345" t="s" s="3">
-        <v>450</v>
+        <v>502</v>
       </c>
       <c r="C345" t="s" s="3">
         <v>299</v>
       </c>
       <c r="D345" t="n" s="3">
-        <v>550835.0</v>
+        <v>430970.0</v>
       </c>
       <c r="E345" t="s" s="3">
-        <v>418</v>
+        <v>500</v>
       </c>
       <c r="F345" t="s" s="3">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="G345" t="s" s="3">
         <v>302</v>
       </c>
       <c r="H345" t="n" s="4">
-        <v>4.76</v>
+        <v>172.49</v>
       </c>
     </row>
     <row r="346">
-      <c r="A346" t="s" s="2">
+      <c r="B346" t="s" s="3">
         <v>502</v>
       </c>
-      <c r="H346" t="n" s="5">
-        <v>520.11</v>
+      <c r="C346" t="s" s="3">
+        <v>299</v>
+      </c>
+      <c r="D346" t="n" s="3">
+        <v>430970.0</v>
+      </c>
+      <c r="E346" t="s" s="3">
+        <v>500</v>
+      </c>
+      <c r="F346" t="s" s="3">
+        <v>505</v>
+      </c>
+      <c r="G346" t="s" s="3">
+        <v>302</v>
+      </c>
+      <c r="H346" t="n" s="4">
+        <v>180.26</v>
       </c>
     </row>
     <row r="347">
-      <c r="A347" t="s" s="2">
-        <v>503</v>
+      <c r="B347" t="s" s="3">
+        <v>502</v>
+      </c>
+      <c r="C347" t="s" s="3">
+        <v>299</v>
+      </c>
+      <c r="D347" t="n" s="3">
+        <v>430970.0</v>
+      </c>
+      <c r="E347" t="s" s="3">
+        <v>500</v>
+      </c>
+      <c r="F347" t="s" s="3">
+        <v>506</v>
+      </c>
+      <c r="G347" t="s" s="3">
+        <v>302</v>
+      </c>
+      <c r="H347" t="n" s="4">
+        <v>37.34</v>
       </c>
     </row>
     <row r="348">
       <c r="B348" t="s" s="3">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="C348" t="s" s="3">
         <v>299</v>
       </c>
-      <c r="D348" s="3"/>
+      <c r="D348" t="n" s="3">
+        <v>430970.0</v>
+      </c>
       <c r="E348" t="s" s="3">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="F348" t="s" s="3">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="G348" t="s" s="3">
         <v>302</v>
       </c>
       <c r="H348" t="n" s="4">
-        <v>78.0</v>
+        <v>4.84</v>
       </c>
     </row>
     <row r="349">
       <c r="B349" t="s" s="3">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="C349" t="s" s="3">
         <v>299</v>
       </c>
-      <c r="D349" s="3"/>
+      <c r="D349" t="n" s="3">
+        <v>430970.0</v>
+      </c>
       <c r="E349" t="s" s="3">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="F349" t="s" s="3">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="G349" t="s" s="3">
         <v>302</v>
       </c>
       <c r="H349" t="n" s="4">
-        <v>433.41</v>
+        <v>-200.0</v>
       </c>
     </row>
     <row r="350">
-      <c r="A350" t="s" s="2">
+      <c r="B350" t="s" s="3">
+        <v>502</v>
+      </c>
+      <c r="C350" t="s" s="3">
+        <v>299</v>
+      </c>
+      <c r="D350" t="n" s="3">
+        <v>430970.0</v>
+      </c>
+      <c r="E350" t="s" s="3">
+        <v>500</v>
+      </c>
+      <c r="F350" t="s" s="3">
         <v>508</v>
       </c>
-      <c r="H350" t="n" s="5">
-        <v>511.41</v>
+      <c r="G350" t="s" s="3">
+        <v>302</v>
+      </c>
+      <c r="H350" t="n" s="4">
+        <v>35.03</v>
       </c>
     </row>
     <row r="351">
-      <c r="A351" t="s" s="2">
+      <c r="B351" t="s" s="3">
+        <v>458</v>
+      </c>
+      <c r="C351" t="s" s="3">
+        <v>299</v>
+      </c>
+      <c r="D351" t="n" s="3">
+        <v>550835.0</v>
+      </c>
+      <c r="E351" t="s" s="3">
+        <v>304</v>
+      </c>
+      <c r="F351" t="s" s="3">
         <v>509</v>
       </c>
+      <c r="G351" t="s" s="3">
+        <v>302</v>
+      </c>
+      <c r="H351" t="n" s="4">
+        <v>4.76</v>
+      </c>
     </row>
     <row r="352">
-      <c r="B352" t="s" s="3">
-        <v>262</v>
-      </c>
-      <c r="C352" t="s" s="3">
-        <v>299</v>
-      </c>
-      <c r="D352" s="3"/>
-      <c r="E352" t="s" s="3">
+      <c r="A352" t="s" s="2">
         <v>510</v>
       </c>
-      <c r="F352" t="s" s="3">
+      <c r="H352" t="n" s="5">
+        <v>520.11</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="s" s="2">
         <v>511</v>
-      </c>
-      <c r="G352" t="s" s="3">
-        <v>302</v>
-      </c>
-      <c r="H352" t="n" s="4">
-        <v>30.87</v>
-      </c>
-    </row>
-    <row r="353">
-      <c r="B353" t="s" s="3">
-        <v>262</v>
-      </c>
-      <c r="C353" t="s" s="3">
-        <v>299</v>
-      </c>
-      <c r="D353" s="3"/>
-      <c r="E353" t="s" s="3">
-        <v>512</v>
-      </c>
-      <c r="F353" t="s" s="3">
-        <v>513</v>
-      </c>
-      <c r="G353" t="s" s="3">
-        <v>302</v>
-      </c>
-      <c r="H353" t="n" s="4">
-        <v>68.58</v>
       </c>
     </row>
     <row r="354">
       <c r="B354" t="s" s="3">
-        <v>417</v>
+        <v>512</v>
       </c>
       <c r="C354" t="s" s="3">
         <v>299</v>
       </c>
-      <c r="D354" t="n" s="3">
-        <v>477011.0</v>
-      </c>
+      <c r="D354" s="3"/>
       <c r="E354" t="s" s="3">
-        <v>379</v>
+        <v>513</v>
       </c>
       <c r="F354" t="s" s="3">
-        <v>410</v>
+        <v>514</v>
       </c>
       <c r="G354" t="s" s="3">
         <v>302</v>
       </c>
       <c r="H354" t="n" s="4">
-        <v>1.96</v>
+        <v>433.41</v>
       </c>
     </row>
     <row r="355">
       <c r="B355" t="s" s="3">
-        <v>417</v>
+        <v>512</v>
       </c>
       <c r="C355" t="s" s="3">
         <v>299</v>
       </c>
-      <c r="D355" t="n" s="3">
-        <v>477011.0</v>
-      </c>
+      <c r="D355" s="3"/>
       <c r="E355" t="s" s="3">
-        <v>379</v>
+        <v>513</v>
       </c>
       <c r="F355" t="s" s="3">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="G355" t="s" s="3">
         <v>302</v>
       </c>
       <c r="H355" t="n" s="4">
-        <v>12.63</v>
+        <v>78.0</v>
       </c>
     </row>
     <row r="356">
-      <c r="B356" t="s" s="3">
-        <v>417</v>
-      </c>
-      <c r="C356" t="s" s="3">
-        <v>299</v>
-      </c>
-      <c r="D356" t="n" s="3">
-        <v>477011.0</v>
-      </c>
-      <c r="E356" t="s" s="3">
-        <v>379</v>
-      </c>
-      <c r="F356" t="s" s="3">
-        <v>515</v>
-      </c>
-      <c r="G356" t="s" s="3">
-        <v>302</v>
-      </c>
-      <c r="H356" t="n" s="4">
-        <v>11.58</v>
+      <c r="A356" t="s" s="2">
+        <v>516</v>
+      </c>
+      <c r="H356" t="n" s="5">
+        <v>511.41</v>
       </c>
     </row>
     <row r="357">
-      <c r="B357" t="s" s="3">
-        <v>417</v>
-      </c>
-      <c r="C357" t="s" s="3">
-        <v>299</v>
-      </c>
-      <c r="D357" t="n" s="3">
-        <v>477011.0</v>
-      </c>
-      <c r="E357" t="s" s="3">
-        <v>379</v>
-      </c>
-      <c r="F357" t="s" s="3">
-        <v>516</v>
-      </c>
-      <c r="G357" t="s" s="3">
-        <v>302</v>
-      </c>
-      <c r="H357" t="n" s="4">
-        <v>300.0</v>
+      <c r="A357" t="s" s="2">
+        <v>517</v>
       </c>
     </row>
     <row r="358">
       <c r="B358" t="s" s="3">
-        <v>417</v>
+        <v>262</v>
       </c>
       <c r="C358" t="s" s="3">
         <v>299</v>
       </c>
-      <c r="D358" t="n" s="3">
-        <v>477011.0</v>
-      </c>
+      <c r="D358" s="3"/>
       <c r="E358" t="s" s="3">
-        <v>379</v>
+        <v>518</v>
       </c>
       <c r="F358" t="s" s="3">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="G358" t="s" s="3">
         <v>302</v>
       </c>
       <c r="H358" t="n" s="4">
-        <v>350.0</v>
+        <v>68.58</v>
       </c>
     </row>
     <row r="359">
       <c r="B359" t="s" s="3">
-        <v>518</v>
+        <v>262</v>
       </c>
       <c r="C359" t="s" s="3">
-        <v>428</v>
+        <v>299</v>
       </c>
       <c r="D359" s="3"/>
       <c r="E359" t="s" s="3">
-        <v>379</v>
+        <v>520</v>
       </c>
       <c r="F359" t="s" s="3">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="G359" t="s" s="3">
         <v>302</v>
       </c>
       <c r="H359" t="n" s="4">
-        <v>-0.04</v>
+        <v>30.87</v>
       </c>
     </row>
     <row r="360">
       <c r="B360" t="s" s="3">
-        <v>450</v>
+        <v>426</v>
       </c>
       <c r="C360" t="s" s="3">
         <v>299</v>
       </c>
       <c r="D360" t="n" s="3">
-        <v>550835.0</v>
+        <v>477011.0</v>
       </c>
       <c r="E360" t="s" s="3">
-        <v>418</v>
+        <v>388</v>
       </c>
       <c r="F360" t="s" s="3">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="G360" t="s" s="3">
         <v>302</v>
       </c>
       <c r="H360" t="n" s="4">
-        <v>11.0</v>
+        <v>350.0</v>
       </c>
     </row>
     <row r="361">
-      <c r="A361" t="s" s="2">
-        <v>521</v>
-      </c>
-      <c r="H361" t="n" s="5">
-        <v>786.58</v>
+      <c r="B361" t="s" s="3">
+        <v>426</v>
+      </c>
+      <c r="C361" t="s" s="3">
+        <v>299</v>
+      </c>
+      <c r="D361" t="n" s="3">
+        <v>477011.0</v>
+      </c>
+      <c r="E361" t="s" s="3">
+        <v>388</v>
+      </c>
+      <c r="F361" t="s" s="3">
+        <v>523</v>
+      </c>
+      <c r="G361" t="s" s="3">
+        <v>302</v>
+      </c>
+      <c r="H361" t="n" s="4">
+        <v>300.0</v>
       </c>
     </row>
     <row r="362">
-      <c r="A362" t="s" s="2">
-        <v>522</v>
+      <c r="B362" t="s" s="3">
+        <v>426</v>
+      </c>
+      <c r="C362" t="s" s="3">
+        <v>299</v>
+      </c>
+      <c r="D362" t="n" s="3">
+        <v>477011.0</v>
+      </c>
+      <c r="E362" t="s" s="3">
+        <v>388</v>
+      </c>
+      <c r="F362" t="s" s="3">
+        <v>524</v>
+      </c>
+      <c r="G362" t="s" s="3">
+        <v>302</v>
+      </c>
+      <c r="H362" t="n" s="4">
+        <v>11.58</v>
       </c>
     </row>
     <row r="363">
       <c r="B363" t="s" s="3">
-        <v>164</v>
+        <v>426</v>
       </c>
       <c r="C363" t="s" s="3">
-        <v>290</v>
-      </c>
-      <c r="D363" s="3"/>
+        <v>299</v>
+      </c>
+      <c r="D363" t="n" s="3">
+        <v>477011.0</v>
+      </c>
       <c r="E363" t="s" s="3">
-        <v>523</v>
+        <v>388</v>
       </c>
       <c r="F363" t="s" s="3">
-        <v>524</v>
+        <v>416</v>
       </c>
       <c r="G363" t="s" s="3">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="H363" t="n" s="4">
-        <v>450.0</v>
+        <v>1.96</v>
       </c>
     </row>
     <row r="364">
       <c r="B364" t="s" s="3">
-        <v>164</v>
+        <v>426</v>
       </c>
       <c r="C364" t="s" s="3">
-        <v>290</v>
-      </c>
-      <c r="D364" s="3"/>
+        <v>299</v>
+      </c>
+      <c r="D364" t="n" s="3">
+        <v>477011.0</v>
+      </c>
       <c r="E364" t="s" s="3">
+        <v>388</v>
+      </c>
+      <c r="F364" t="s" s="3">
         <v>525</v>
       </c>
-      <c r="F364" t="s" s="3">
-        <v>524</v>
-      </c>
       <c r="G364" t="s" s="3">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="H364" t="n" s="4">
-        <v>717.0</v>
+        <v>12.63</v>
       </c>
     </row>
     <row r="365">
       <c r="B365" t="s" s="3">
-        <v>164</v>
+        <v>526</v>
       </c>
       <c r="C365" t="s" s="3">
-        <v>290</v>
+        <v>436</v>
       </c>
       <c r="D365" s="3"/>
       <c r="E365" t="s" s="3">
-        <v>526</v>
+        <v>388</v>
       </c>
       <c r="F365" t="s" s="3">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="G365" t="s" s="3">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="H365" t="n" s="4">
-        <v>450.0</v>
+        <v>-0.04</v>
       </c>
     </row>
     <row r="366">
       <c r="B366" t="s" s="3">
-        <v>164</v>
+        <v>458</v>
       </c>
       <c r="C366" t="s" s="3">
-        <v>290</v>
-      </c>
-      <c r="D366" s="3"/>
+        <v>299</v>
+      </c>
+      <c r="D366" t="n" s="3">
+        <v>550835.0</v>
+      </c>
       <c r="E366" t="s" s="3">
-        <v>527</v>
+        <v>304</v>
       </c>
       <c r="F366" t="s" s="3">
-        <v>524</v>
+        <v>528</v>
       </c>
       <c r="G366" t="s" s="3">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="H366" t="n" s="4">
-        <v>1600.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="367">
-      <c r="B367" t="s" s="3">
-        <v>528</v>
-      </c>
-      <c r="C367" t="s" s="3">
-        <v>290</v>
-      </c>
-      <c r="D367" t="s" s="3">
+      <c r="A367" t="s" s="2">
         <v>529</v>
       </c>
-      <c r="E367" t="s" s="3">
-        <v>530</v>
-      </c>
-      <c r="F367" t="s" s="3">
-        <v>531</v>
-      </c>
-      <c r="G367" t="s" s="3">
-        <v>293</v>
-      </c>
-      <c r="H367" t="n" s="4">
-        <v>1150.16</v>
+      <c r="H367" t="n" s="5">
+        <v>786.58</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="s" s="2">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="B369" t="s" s="3">
+        <v>164</v>
+      </c>
+      <c r="C369" t="s" s="3">
+        <v>290</v>
+      </c>
+      <c r="D369" s="3"/>
+      <c r="E369" t="s" s="3">
+        <v>531</v>
+      </c>
+      <c r="F369" t="s" s="3">
         <v>532</v>
       </c>
-      <c r="H368" t="n" s="5">
-        <v>4367.16</v>
-      </c>
-    </row>
-    <row r="369">
-      <c r="A369" t="s" s="2">
-        <v>533</v>
+      <c r="G369" t="s" s="3">
+        <v>293</v>
+      </c>
+      <c r="H369" t="n" s="4">
+        <v>450.0</v>
       </c>
     </row>
     <row r="370">
       <c r="B370" t="s" s="3">
-        <v>98</v>
+        <v>164</v>
       </c>
       <c r="C370" t="s" s="3">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="D370" s="3"/>
       <c r="E370" t="s" s="3">
-        <v>473</v>
+        <v>533</v>
       </c>
       <c r="F370" t="s" s="3">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="G370" t="s" s="3">
-        <v>65</v>
+        <v>293</v>
       </c>
       <c r="H370" t="n" s="4">
-        <v>24.31</v>
+        <v>450.0</v>
       </c>
     </row>
     <row r="371">
       <c r="B371" t="s" s="3">
-        <v>475</v>
+        <v>164</v>
       </c>
       <c r="C371" t="s" s="3">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="D371" s="3"/>
       <c r="E371" t="s" s="3">
-        <v>473</v>
+        <v>534</v>
       </c>
       <c r="F371" t="s" s="3">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="G371" t="s" s="3">
-        <v>65</v>
+        <v>293</v>
       </c>
       <c r="H371" t="n" s="4">
-        <v>3.0</v>
+        <v>717.0</v>
       </c>
     </row>
     <row r="372">
       <c r="B372" t="s" s="3">
-        <v>477</v>
+        <v>164</v>
       </c>
       <c r="C372" t="s" s="3">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="D372" s="3"/>
       <c r="E372" t="s" s="3">
-        <v>473</v>
+        <v>535</v>
       </c>
       <c r="F372" t="s" s="3">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="G372" t="s" s="3">
-        <v>65</v>
+        <v>293</v>
       </c>
       <c r="H372" t="n" s="4">
-        <v>1.5</v>
+        <v>1600.0</v>
       </c>
     </row>
     <row r="373">
       <c r="B373" t="s" s="3">
-        <v>38</v>
+        <v>536</v>
       </c>
       <c r="C373" t="s" s="3">
-        <v>299</v>
-      </c>
-      <c r="D373" s="3"/>
+        <v>290</v>
+      </c>
+      <c r="D373" t="s" s="3">
+        <v>537</v>
+      </c>
       <c r="E373" t="s" s="3">
-        <v>473</v>
+        <v>538</v>
       </c>
       <c r="F373" t="s" s="3">
-        <v>535</v>
+        <v>539</v>
       </c>
       <c r="G373" t="s" s="3">
-        <v>65</v>
+        <v>293</v>
       </c>
       <c r="H373" t="n" s="4">
-        <v>3.0</v>
+        <v>1150.16</v>
       </c>
     </row>
     <row r="374">
-      <c r="B374" t="s" s="3">
-        <v>113</v>
-      </c>
-      <c r="C374" t="s" s="3">
-        <v>299</v>
-      </c>
-      <c r="D374" s="3"/>
-      <c r="E374" t="s" s="3">
-        <v>473</v>
-      </c>
-      <c r="F374" t="s" s="3">
-        <v>535</v>
-      </c>
-      <c r="G374" t="s" s="3">
-        <v>65</v>
-      </c>
-      <c r="H374" t="n" s="4">
-        <v>3.0</v>
+      <c r="A374" t="s" s="2">
+        <v>540</v>
+      </c>
+      <c r="H374" t="n" s="5">
+        <v>4367.16</v>
       </c>
     </row>
     <row r="375">
-      <c r="B375" t="s" s="3">
-        <v>40</v>
-      </c>
-      <c r="C375" t="s" s="3">
-        <v>299</v>
-      </c>
-      <c r="D375" s="3"/>
-      <c r="E375" t="s" s="3">
-        <v>473</v>
-      </c>
-      <c r="F375" t="s" s="3">
-        <v>537</v>
-      </c>
-      <c r="G375" t="s" s="3">
-        <v>65</v>
-      </c>
-      <c r="H375" t="n" s="4">
-        <v>6.3</v>
+      <c r="A375" t="s" s="2">
+        <v>541</v>
       </c>
     </row>
     <row r="376">
       <c r="B376" t="s" s="3">
-        <v>128</v>
+        <v>98</v>
       </c>
       <c r="C376" t="s" s="3">
         <v>299</v>
       </c>
       <c r="D376" s="3"/>
       <c r="E376" t="s" s="3">
-        <v>473</v>
+        <v>481</v>
       </c>
       <c r="F376" t="s" s="3">
-        <v>538</v>
+        <v>542</v>
       </c>
       <c r="G376" t="s" s="3">
         <v>65</v>
       </c>
       <c r="H376" t="n" s="4">
-        <v>10.81</v>
+        <v>24.31</v>
       </c>
     </row>
     <row r="377">
       <c r="B377" t="s" s="3">
-        <v>133</v>
+        <v>483</v>
       </c>
       <c r="C377" t="s" s="3">
         <v>299</v>
       </c>
       <c r="D377" s="3"/>
       <c r="E377" t="s" s="3">
-        <v>473</v>
+        <v>481</v>
       </c>
       <c r="F377" t="s" s="3">
-        <v>539</v>
+        <v>543</v>
       </c>
       <c r="G377" t="s" s="3">
         <v>65</v>
       </c>
       <c r="H377" t="n" s="4">
-        <v>3.6</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="378">
       <c r="B378" t="s" s="3">
-        <v>45</v>
+        <v>485</v>
       </c>
       <c r="C378" t="s" s="3">
         <v>299</v>
       </c>
       <c r="D378" s="3"/>
       <c r="E378" t="s" s="3">
-        <v>473</v>
+        <v>481</v>
       </c>
       <c r="F378" t="s" s="3">
-        <v>540</v>
+        <v>544</v>
       </c>
       <c r="G378" t="s" s="3">
         <v>65</v>
       </c>
       <c r="H378" t="n" s="4">
-        <v>12.59</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="379">
       <c r="B379" t="s" s="3">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="C379" t="s" s="3">
         <v>299</v>
       </c>
       <c r="D379" s="3"/>
       <c r="E379" t="s" s="3">
-        <v>473</v>
+        <v>481</v>
       </c>
       <c r="F379" t="s" s="3">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="G379" t="s" s="3">
         <v>65</v>
       </c>
       <c r="H379" t="n" s="4">
-        <v>9.59</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="380">
       <c r="B380" t="s" s="3">
-        <v>164</v>
+        <v>113</v>
       </c>
       <c r="C380" t="s" s="3">
         <v>299</v>
       </c>
       <c r="D380" s="3"/>
       <c r="E380" t="s" s="3">
-        <v>473</v>
+        <v>481</v>
       </c>
       <c r="F380" t="s" s="3">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="G380" t="s" s="3">
         <v>65</v>
       </c>
       <c r="H380" t="n" s="4">
-        <v>15.01</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="381">
       <c r="B381" t="s" s="3">
-        <v>184</v>
+        <v>40</v>
       </c>
       <c r="C381" t="s" s="3">
         <v>299</v>
       </c>
       <c r="D381" s="3"/>
       <c r="E381" t="s" s="3">
-        <v>473</v>
+        <v>481</v>
       </c>
       <c r="F381" t="s" s="3">
-        <v>535</v>
+        <v>545</v>
       </c>
       <c r="G381" t="s" s="3">
         <v>65</v>
       </c>
       <c r="H381" t="n" s="4">
-        <v>3.0</v>
+        <v>6.3</v>
       </c>
     </row>
     <row r="382">
       <c r="B382" t="s" s="3">
-        <v>57</v>
+        <v>128</v>
       </c>
       <c r="C382" t="s" s="3">
         <v>299</v>
       </c>
       <c r="D382" s="3"/>
       <c r="E382" t="s" s="3">
-        <v>473</v>
+        <v>481</v>
       </c>
       <c r="F382" t="s" s="3">
-        <v>543</v>
+        <v>546</v>
       </c>
       <c r="G382" t="s" s="3">
         <v>65</v>
       </c>
       <c r="H382" t="n" s="4">
-        <v>6.0</v>
+        <v>10.81</v>
       </c>
     </row>
     <row r="383">
       <c r="B383" t="s" s="3">
-        <v>209</v>
+        <v>133</v>
       </c>
       <c r="C383" t="s" s="3">
         <v>299</v>
       </c>
       <c r="D383" s="3"/>
       <c r="E383" t="s" s="3">
-        <v>473</v>
+        <v>481</v>
       </c>
       <c r="F383" t="s" s="3">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="G383" t="s" s="3">
         <v>65</v>
       </c>
       <c r="H383" t="n" s="4">
-        <v>18.0</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="384">
       <c r="B384" t="s" s="3">
-        <v>262</v>
+        <v>45</v>
       </c>
       <c r="C384" t="s" s="3">
         <v>299</v>
       </c>
       <c r="D384" s="3"/>
       <c r="E384" t="s" s="3">
-        <v>473</v>
+        <v>481</v>
       </c>
       <c r="F384" t="s" s="3">
-        <v>545</v>
+        <v>548</v>
       </c>
       <c r="G384" t="s" s="3">
         <v>65</v>
       </c>
       <c r="H384" t="n" s="4">
-        <v>24.6</v>
+        <v>12.59</v>
       </c>
     </row>
     <row r="385">
       <c r="B385" t="s" s="3">
-        <v>427</v>
+        <v>48</v>
       </c>
       <c r="C385" t="s" s="3">
         <v>299</v>
       </c>
       <c r="D385" s="3"/>
       <c r="E385" t="s" s="3">
-        <v>473</v>
+        <v>481</v>
       </c>
       <c r="F385" t="s" s="3">
-        <v>546</v>
+        <v>549</v>
       </c>
       <c r="G385" t="s" s="3">
         <v>65</v>
       </c>
       <c r="H385" t="n" s="4">
-        <v>9.6</v>
+        <v>9.59</v>
       </c>
     </row>
     <row r="386">
       <c r="B386" t="s" s="3">
-        <v>458</v>
+        <v>164</v>
       </c>
       <c r="C386" t="s" s="3">
         <v>299</v>
       </c>
       <c r="D386" s="3"/>
       <c r="E386" t="s" s="3">
-        <v>473</v>
+        <v>481</v>
       </c>
       <c r="F386" t="s" s="3">
-        <v>547</v>
+        <v>550</v>
       </c>
       <c r="G386" t="s" s="3">
         <v>65</v>
       </c>
       <c r="H386" t="n" s="4">
+        <v>15.01</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="B387" t="s" s="3">
+        <v>184</v>
+      </c>
+      <c r="C387" t="s" s="3">
+        <v>299</v>
+      </c>
+      <c r="D387" s="3"/>
+      <c r="E387" t="s" s="3">
+        <v>481</v>
+      </c>
+      <c r="F387" t="s" s="3">
+        <v>543</v>
+      </c>
+      <c r="G387" t="s" s="3">
+        <v>65</v>
+      </c>
+      <c r="H387" t="n" s="4">
         <v>3.0</v>
       </c>
     </row>
-    <row r="387">
-      <c r="A387" t="s" s="2">
-        <v>548</v>
-      </c>
-      <c r="H387" t="n" s="5">
+    <row r="388">
+      <c r="B388" t="s" s="3">
+        <v>57</v>
+      </c>
+      <c r="C388" t="s" s="3">
+        <v>299</v>
+      </c>
+      <c r="D388" s="3"/>
+      <c r="E388" t="s" s="3">
+        <v>481</v>
+      </c>
+      <c r="F388" t="s" s="3">
+        <v>551</v>
+      </c>
+      <c r="G388" t="s" s="3">
+        <v>65</v>
+      </c>
+      <c r="H388" t="n" s="4">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="B389" t="s" s="3">
+        <v>209</v>
+      </c>
+      <c r="C389" t="s" s="3">
+        <v>299</v>
+      </c>
+      <c r="D389" s="3"/>
+      <c r="E389" t="s" s="3">
+        <v>481</v>
+      </c>
+      <c r="F389" t="s" s="3">
+        <v>552</v>
+      </c>
+      <c r="G389" t="s" s="3">
+        <v>65</v>
+      </c>
+      <c r="H389" t="n" s="4">
+        <v>18.0</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="B390" t="s" s="3">
+        <v>262</v>
+      </c>
+      <c r="C390" t="s" s="3">
+        <v>299</v>
+      </c>
+      <c r="D390" s="3"/>
+      <c r="E390" t="s" s="3">
+        <v>481</v>
+      </c>
+      <c r="F390" t="s" s="3">
+        <v>553</v>
+      </c>
+      <c r="G390" t="s" s="3">
+        <v>65</v>
+      </c>
+      <c r="H390" t="n" s="4">
+        <v>24.6</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="B391" t="s" s="3">
+        <v>435</v>
+      </c>
+      <c r="C391" t="s" s="3">
+        <v>299</v>
+      </c>
+      <c r="D391" s="3"/>
+      <c r="E391" t="s" s="3">
+        <v>481</v>
+      </c>
+      <c r="F391" t="s" s="3">
+        <v>554</v>
+      </c>
+      <c r="G391" t="s" s="3">
+        <v>65</v>
+      </c>
+      <c r="H391" t="n" s="4">
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="B392" t="s" s="3">
+        <v>466</v>
+      </c>
+      <c r="C392" t="s" s="3">
+        <v>299</v>
+      </c>
+      <c r="D392" s="3"/>
+      <c r="E392" t="s" s="3">
+        <v>481</v>
+      </c>
+      <c r="F392" t="s" s="3">
+        <v>555</v>
+      </c>
+      <c r="G392" t="s" s="3">
+        <v>65</v>
+      </c>
+      <c r="H392" t="n" s="4">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="s" s="2">
+        <v>556</v>
+      </c>
+      <c r="H393" t="n" s="5">
         <v>156.91</v>
       </c>
     </row>
-    <row r="388">
-      <c r="A388" t="s" s="2">
-        <v>549</v>
-      </c>
-      <c r="H388" t="n" s="5">
+    <row r="394">
+      <c r="A394" t="s" s="2">
+        <v>557</v>
+      </c>
+      <c r="H394" t="n" s="5">
         <v>18418.3</v>
       </c>
     </row>
-    <row r="389">
-      <c r="A389" t="s" s="2">
-        <v>550</v>
-      </c>
-      <c r="H389" t="n" s="5">
-        <v>22830.86</v>
-      </c>
-    </row>
-    <row r="390">
-      <c r="A390" t="s" s="2">
-        <v>551</v>
-      </c>
-      <c r="H390" t="n" s="5">
-        <v>-625.86</v>
-      </c>
-    </row>
-    <row r="393">
-      <c r="A393" s="6" t="s">
-        <v>552</v>
-      </c>
-      <c r="B393"/>
-      <c r="C393"/>
-      <c r="D393"/>
-      <c r="E393"/>
-      <c r="F393"/>
-      <c r="G393"/>
-      <c r="H393"/>
+    <row r="395">
+      <c r="A395" t="s" s="2">
+        <v>558</v>
+      </c>
+      <c r="H395" t="n" s="5">
+        <v>22968.23</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="s" s="2">
+        <v>559</v>
+      </c>
+      <c r="H396" t="n" s="5">
+        <v>-763.23</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" s="6" t="s">
+        <v>560</v>
+      </c>
+      <c r="B399"/>
+      <c r="C399"/>
+      <c r="D399"/>
+      <c r="E399"/>
+      <c r="F399"/>
+      <c r="G399"/>
+      <c r="H399"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -9498,53 +9648,53 @@
     <mergeCell ref="A173"/>
     <mergeCell ref="A176"/>
     <mergeCell ref="A177"/>
-    <mergeCell ref="A179"/>
-    <mergeCell ref="A180"/>
+    <mergeCell ref="A181"/>
     <mergeCell ref="A182"/>
-    <mergeCell ref="A183"/>
-    <mergeCell ref="A190"/>
-    <mergeCell ref="A191"/>
-    <mergeCell ref="A220"/>
-    <mergeCell ref="A221"/>
-    <mergeCell ref="A225"/>
+    <mergeCell ref="A184"/>
+    <mergeCell ref="A185"/>
+    <mergeCell ref="A192"/>
+    <mergeCell ref="A193"/>
     <mergeCell ref="A226"/>
-    <mergeCell ref="A228"/>
-    <mergeCell ref="A229"/>
-    <mergeCell ref="A230"/>
+    <mergeCell ref="A227"/>
     <mergeCell ref="A231"/>
+    <mergeCell ref="A232"/>
     <mergeCell ref="A234"/>
     <mergeCell ref="A235"/>
+    <mergeCell ref="A236"/>
+    <mergeCell ref="A237"/>
+    <mergeCell ref="A240"/>
     <mergeCell ref="A241"/>
-    <mergeCell ref="A242"/>
-    <mergeCell ref="A246"/>
     <mergeCell ref="A247"/>
-    <mergeCell ref="A256"/>
-    <mergeCell ref="A257"/>
-    <mergeCell ref="A266"/>
-    <mergeCell ref="A267"/>
-    <mergeCell ref="A288"/>
-    <mergeCell ref="A289"/>
-    <mergeCell ref="A305"/>
-    <mergeCell ref="A306"/>
+    <mergeCell ref="A248"/>
+    <mergeCell ref="A252"/>
+    <mergeCell ref="A253"/>
+    <mergeCell ref="A262"/>
+    <mergeCell ref="A263"/>
+    <mergeCell ref="A272"/>
+    <mergeCell ref="A273"/>
+    <mergeCell ref="A294"/>
+    <mergeCell ref="A295"/>
+    <mergeCell ref="A311"/>
     <mergeCell ref="A312"/>
-    <mergeCell ref="A313"/>
-    <mergeCell ref="A315"/>
-    <mergeCell ref="A316"/>
-    <mergeCell ref="A334"/>
-    <mergeCell ref="A335"/>
-    <mergeCell ref="A346"/>
-    <mergeCell ref="A347"/>
-    <mergeCell ref="A350"/>
-    <mergeCell ref="A351"/>
-    <mergeCell ref="A361"/>
-    <mergeCell ref="A362"/>
+    <mergeCell ref="A318"/>
+    <mergeCell ref="A319"/>
+    <mergeCell ref="A321"/>
+    <mergeCell ref="A322"/>
+    <mergeCell ref="A340"/>
+    <mergeCell ref="A341"/>
+    <mergeCell ref="A352"/>
+    <mergeCell ref="A353"/>
+    <mergeCell ref="A356"/>
+    <mergeCell ref="A357"/>
+    <mergeCell ref="A367"/>
     <mergeCell ref="A368"/>
-    <mergeCell ref="A369"/>
-    <mergeCell ref="A387"/>
-    <mergeCell ref="A388"/>
-    <mergeCell ref="A389"/>
-    <mergeCell ref="A390"/>
-    <mergeCell ref="A393:H393"/>
+    <mergeCell ref="A374"/>
+    <mergeCell ref="A375"/>
+    <mergeCell ref="A393"/>
+    <mergeCell ref="A394"/>
+    <mergeCell ref="A395"/>
+    <mergeCell ref="A396"/>
+    <mergeCell ref="A399:H399"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="A3:H3"/>

--- a/2020-sgfdevs-statement-of-activity-detail.xlsx
+++ b/2020-sgfdevs-statement-of-activity-detail.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1720" uniqueCount="564">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1750" uniqueCount="572">
   <si>
     <t>Date</t>
   </si>
@@ -936,6 +936,12 @@
   </si>
   <si>
     <t>Dev Night Pizza</t>
+  </si>
+  <si>
+    <t>09/04/2020</t>
+  </si>
+  <si>
+    <t>Dev Night Food</t>
   </si>
   <si>
     <t xml:space="preserve">         Total for Devs Member Meals</t>
@@ -1016,12 +1022,12 @@
     <t>Name.com</t>
   </si>
   <si>
+    <t>Domain Renewal (springfield.dev)</t>
+  </si>
+  <si>
     <t>Domain Renewal (sgf.dev)</t>
   </si>
   <si>
-    <t>Domain Renewal (springfield.dev)</t>
-  </si>
-  <si>
     <t>02/25/2020</t>
   </si>
   <si>
@@ -1119,6 +1125,24 @@
   </si>
   <si>
     <t>08/05/2020</t>
+  </si>
+  <si>
+    <t>09/01/2020</t>
+  </si>
+  <si>
+    <t>09/03/2020</t>
+  </si>
+  <si>
+    <t>AMAZON WEB SERVICES DBT CRD 0038 09/03/20 DB1123GQ</t>
+  </si>
+  <si>
+    <t>09/05/2020</t>
+  </si>
+  <si>
+    <t>09/30/2020</t>
+  </si>
+  <si>
+    <t>sgfwebdevs.com 1YR</t>
   </si>
   <si>
     <t xml:space="preserve">         Total for Devs Software &amp; Hosting</t>
@@ -1194,12 +1218,12 @@
     <t>Raymond's Trophy &amp; Awards</t>
   </si>
   <si>
+    <t>Shipping</t>
+  </si>
+  <si>
     <t>Pre-Printed Badge Ribbon 10 @ 0.19</t>
   </si>
   <si>
-    <t>Shipping</t>
-  </si>
-  <si>
     <t xml:space="preserve">         Total for Method Attendee Badges</t>
   </si>
   <si>
@@ -1212,12 +1236,12 @@
     <t>Discount Mugs</t>
   </si>
   <si>
+    <t>Screen Charge</t>
+  </si>
+  <si>
     <t>Item 101WB Black, Front Side Imprint 130 @ 3.48</t>
   </si>
   <si>
-    <t>Screen Charge</t>
-  </si>
-  <si>
     <t>Coupon Code</t>
   </si>
   <si>
@@ -1225,29 +1249,11 @@
   </si>
   <si>
     <t xml:space="preserve">         Method Attendee Shirts</t>
-  </si>
-  <si>
-    <t>Sales Tax $2101@ 8.10%</t>
-  </si>
-  <si>
-    <t>Set up Fee *Waived 3rd Set Up Fee for placing 100+ Pieces* 2@ $25</t>
-  </si>
-  <si>
-    <t>Upcharge - Size 2XL 14@ $3</t>
-  </si>
-  <si>
-    <t>Ink Change - 2 Colors  2@ $7</t>
   </si>
   <si>
     <t>8413 Bella + Canvas - Women's Triblend Short Sleeve Tee 16@ $15
 Solid Black Triblend: AS - 7, AM - 3, AL - 3, AXL - 1, A2XL - 2
 **Price includes Two Color front, 1 Color Back. Solid black triblend - Front is rojo red and white ink. Back is white ink</t>
-  </si>
-  <si>
-    <t>Shipping from Manufacturer</t>
-  </si>
-  <si>
-    <t>Upcharge - Size 3XL 6@ $5</t>
   </si>
   <si>
     <t>3413 Bella + Canvas - Triblend Short Sleeve T-Shirt Solid 114@ $15
@@ -1256,6 +1262,24 @@
 **Price includes Two Color front, 1 Color Back. Solid black triblend - Front is rojo red and white ink. Back is white ink. Red triblend - Front is white and black ink. Back is white ink.</t>
   </si>
   <si>
+    <t>Sales Tax $2101@ 8.10%</t>
+  </si>
+  <si>
+    <t>Set up Fee *Waived 3rd Set Up Fee for placing 100+ Pieces* 2@ $25</t>
+  </si>
+  <si>
+    <t>Upcharge - Size 2XL 14@ $3</t>
+  </si>
+  <si>
+    <t>Upcharge - Size 3XL 6@ $5</t>
+  </si>
+  <si>
+    <t>Shipping from Manufacturer</t>
+  </si>
+  <si>
+    <t>Ink Change - 2 Colors  2@ $7</t>
+  </si>
+  <si>
     <t xml:space="preserve">         Total for Method Attendee Shirts</t>
   </si>
   <si>
@@ -1265,30 +1289,30 @@
     <t>Headline Productions</t>
   </si>
   <si>
+    <t>Equipment Crew</t>
+  </si>
+  <si>
     <t>Equipment Rental, Replacement Cost $49,521</t>
   </si>
   <si>
-    <t>Equipment Crew</t>
+    <t>2 of Cable Matters Snagless Cat6 Ethernet Cable (Cat6 Cable/Cat 6 Cable) in Black 75 Feet</t>
+  </si>
+  <si>
+    <t>2 of REAL USA Professional Grade Gaffer Tape By Gaffer Power (2 Inches x 30 Yards, Black)</t>
+  </si>
+  <si>
+    <t>2 of Cable Matters Snagless Cat6 Ethernet Cable (Cat6 Cable/Cat 6 Cable) in Black 25</t>
+  </si>
+  <si>
+    <t>1 of Cable Matters Snagless Cat6 Ethernet Cable (Cat6 Cable, Cat 6 Cable) in Black 50 Feet</t>
+  </si>
+  <si>
+    <t>Sales Tax</t>
   </si>
   <si>
     <t>Shipping, Deliver by Friday 02/28</t>
   </si>
   <si>
-    <t>Sales Tax</t>
-  </si>
-  <si>
-    <t>2 of Cable Matters Snagless Cat6 Ethernet Cable (Cat6 Cable/Cat 6 Cable) in Black 75 Feet</t>
-  </si>
-  <si>
-    <t>2 of Cable Matters Snagless Cat6 Ethernet Cable (Cat6 Cable/Cat 6 Cable) in Black 25</t>
-  </si>
-  <si>
-    <t>2 of REAL USA Professional Grade Gaffer Tape By Gaffer Power (2 Inches x 30 Yards, Black)</t>
-  </si>
-  <si>
-    <t>1 of Cable Matters Snagless Cat6 Ethernet Cable (Cat6 Cable, Cat 6 Cable) in Black 50 Feet</t>
-  </si>
-  <si>
     <t xml:space="preserve">         Total for Method Audio Visual</t>
   </si>
   <si>
@@ -1436,21 +1460,21 @@
     <t xml:space="preserve">         Method Payment Fees (Intuit)</t>
   </si>
   <si>
+    <t>Added Innovation (2.9% + 0.25)</t>
+  </si>
+  <si>
     <t>Gravitate Solutions (2.9% + 0.25)</t>
   </si>
   <si>
     <t>Mostly Serious (2.9% + 0.25)</t>
   </si>
   <si>
-    <t>Added Innovation (2.9% + 0.25)</t>
+    <t>Mycra Therapy (2.9% + 0.25)</t>
   </si>
   <si>
     <t>Code Scientists (1% max $10)</t>
   </si>
   <si>
-    <t>Mycra Therapy (2.9% + 0.25)</t>
-  </si>
-  <si>
     <t xml:space="preserve">         Total for Method Payment Fees (Intuit)</t>
   </si>
   <si>
@@ -1568,12 +1592,12 @@
     <t>Houlihans Restaurant</t>
   </si>
   <si>
+    <t>Gratuity (~19.5% of ~$400)</t>
+  </si>
+  <si>
     <t>Food, Drinks, Sales Tax</t>
   </si>
   <si>
-    <t>Gratuity (~19.5% of ~$400)</t>
-  </si>
-  <si>
     <t xml:space="preserve">         Total for Method Speaker Dinner</t>
   </si>
   <si>
@@ -1598,12 +1622,12 @@
     <t>3 of: Uber Gift Card $100</t>
   </si>
   <si>
+    <t>1 of: The Gift Wrap Company 4832-03 Decorative Confetti Bows, Large, Red Metallic</t>
+  </si>
+  <si>
     <t>1 of: The Gift Wrap Company Decorative Confetti Gift Bows, Large, Black, pack of 12</t>
   </si>
   <si>
-    <t>1 of: The Gift Wrap Company 4832-03 Decorative Confetti Bows, Large, Red Metallic</t>
-  </si>
-  <si>
     <t>02/24/2020</t>
   </si>
   <si>
@@ -1706,7 +1730,7 @@
     <t>Net Revenue</t>
   </si>
   <si>
-    <t>Sunday, Oct 04, 2020 05:08:06 PM GMT-7 - Accrual Basis</t>
+    <t>Sunday, Oct 11, 2020 06:32:57 PM GMT-7 - Accrual Basis</t>
   </si>
   <si>
     <t>Springfield Devs</t>
@@ -1715,7 +1739,7 @@
     <t>Statement of Activity Detail</t>
   </si>
   <si>
-    <t>January - August, 2020</t>
+    <t>January - September, 2020</t>
   </si>
 </sst>
 </file>
@@ -1840,7 +1864,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="7" t="s">
-        <v>561</v>
+        <v>569</v>
       </c>
       <c r="B1"/>
       <c r="C1"/>
@@ -1852,7 +1876,7 @@
     </row>
     <row r="2">
       <c r="A2" s="7" t="s">
-        <v>562</v>
+        <v>570</v>
       </c>
       <c r="B2"/>
       <c r="C2"/>
@@ -1864,7 +1888,7 @@
     </row>
     <row r="3">
       <c r="A3" s="8" t="s">
-        <v>563</v>
+        <v>571</v>
       </c>
       <c r="B3"/>
       <c r="C3"/>
@@ -5614,130 +5638,130 @@
       </c>
     </row>
     <row r="181">
-      <c r="A181" t="s" s="2">
+      <c r="B181" t="s" s="3">
         <v>308</v>
       </c>
-      <c r="H181" t="n" s="5">
-        <v>268.57</v>
+      <c r="C181" t="s" s="3">
+        <v>299</v>
+      </c>
+      <c r="D181" s="3"/>
+      <c r="E181" t="s" s="3">
+        <v>300</v>
+      </c>
+      <c r="F181" t="s" s="3">
+        <v>309</v>
+      </c>
+      <c r="G181" t="s" s="3">
+        <v>302</v>
+      </c>
+      <c r="H181" t="n" s="4">
+        <v>63.85</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
+      </c>
+      <c r="H182" t="n" s="5">
+        <v>332.42</v>
       </c>
     </row>
     <row r="183">
-      <c r="B183" t="s" s="3">
-        <v>310</v>
-      </c>
-      <c r="C183" t="s" s="3">
+      <c r="A183" t="s" s="2">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="B184" t="s" s="3">
+        <v>312</v>
+      </c>
+      <c r="C184" t="s" s="3">
         <v>290</v>
       </c>
-      <c r="D183" t="n" s="3">
+      <c r="D184" t="n" s="3">
         <v>27413.0</v>
       </c>
-      <c r="E183" t="s" s="3">
-        <v>311</v>
-      </c>
-      <c r="F183" t="s" s="3">
-        <v>312</v>
-      </c>
-      <c r="G183" t="s" s="3">
+      <c r="E184" t="s" s="3">
+        <v>313</v>
+      </c>
+      <c r="F184" t="s" s="3">
+        <v>314</v>
+      </c>
+      <c r="G184" t="s" s="3">
         <v>293</v>
       </c>
-      <c r="H183" t="n" s="4">
-        <v>270.76</v>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="H184" t="n" s="5">
+      <c r="H184" t="n" s="4">
         <v>270.76</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
+      </c>
+      <c r="H185" t="n" s="5">
+        <v>270.76</v>
       </c>
     </row>
     <row r="186">
-      <c r="B186" t="s" s="3">
-        <v>315</v>
-      </c>
-      <c r="C186" t="s" s="3">
-        <v>299</v>
-      </c>
-      <c r="D186" s="3"/>
-      <c r="E186" t="s" s="3">
+      <c r="A186" t="s" s="2">
         <v>316</v>
-      </c>
-      <c r="F186" t="s" s="3">
-        <v>317</v>
-      </c>
-      <c r="G186" t="s" s="3">
-        <v>302</v>
-      </c>
-      <c r="H186" t="n" s="4">
-        <v>14.75</v>
       </c>
     </row>
     <row r="187">
       <c r="B187" t="s" s="3">
-        <v>298</v>
+        <v>317</v>
       </c>
       <c r="C187" t="s" s="3">
         <v>299</v>
       </c>
       <c r="D187" s="3"/>
       <c r="E187" t="s" s="3">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="F187" t="s" s="3">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="G187" t="s" s="3">
         <v>302</v>
       </c>
       <c r="H187" t="n" s="4">
-        <v>15.73</v>
+        <v>14.75</v>
       </c>
     </row>
     <row r="188">
       <c r="B188" t="s" s="3">
-        <v>16</v>
+        <v>298</v>
       </c>
       <c r="C188" t="s" s="3">
         <v>299</v>
       </c>
       <c r="D188" s="3"/>
       <c r="E188" t="s" s="3">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="F188" t="s" s="3">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="G188" t="s" s="3">
         <v>302</v>
       </c>
       <c r="H188" t="n" s="4">
-        <v>14.75</v>
+        <v>15.73</v>
       </c>
     </row>
     <row r="189">
       <c r="B189" t="s" s="3">
-        <v>103</v>
+        <v>16</v>
       </c>
       <c r="C189" t="s" s="3">
         <v>299</v>
       </c>
       <c r="D189" s="3"/>
       <c r="E189" t="s" s="3">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="F189" t="s" s="3">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="G189" t="s" s="3">
         <v>302</v>
@@ -5748,90 +5772,90 @@
     </row>
     <row r="190">
       <c r="B190" t="s" s="3">
-        <v>40</v>
+        <v>103</v>
       </c>
       <c r="C190" t="s" s="3">
         <v>299</v>
       </c>
       <c r="D190" s="3"/>
       <c r="E190" t="s" s="3">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="F190" t="s" s="3">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="G190" t="s" s="3">
         <v>302</v>
       </c>
       <c r="H190" t="n" s="4">
-        <v>1.7</v>
+        <v>14.75</v>
       </c>
     </row>
     <row r="191">
       <c r="B191" t="s" s="3">
-        <v>319</v>
+        <v>40</v>
       </c>
       <c r="C191" t="s" s="3">
         <v>299</v>
       </c>
       <c r="D191" s="3"/>
       <c r="E191" t="s" s="3">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="F191" t="s" s="3">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="G191" t="s" s="3">
         <v>302</v>
       </c>
       <c r="H191" t="n" s="4">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="B192" t="s" s="3">
+        <v>321</v>
+      </c>
+      <c r="C192" t="s" s="3">
+        <v>299</v>
+      </c>
+      <c r="D192" s="3"/>
+      <c r="E192" t="s" s="3">
+        <v>318</v>
+      </c>
+      <c r="F192" t="s" s="3">
+        <v>319</v>
+      </c>
+      <c r="G192" t="s" s="3">
+        <v>302</v>
+      </c>
+      <c r="H192" t="n" s="4">
         <v>14.75</v>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="H192" t="n" s="5">
-        <v>76.43</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
+      </c>
+      <c r="H193" t="n" s="5">
+        <v>76.43</v>
       </c>
     </row>
     <row r="194">
-      <c r="B194" t="s" s="3">
-        <v>322</v>
-      </c>
-      <c r="C194" t="s" s="3">
-        <v>290</v>
-      </c>
-      <c r="D194" t="n" s="3">
-        <v>7336.0</v>
-      </c>
-      <c r="E194" t="s" s="3">
+      <c r="A194" t="s" s="2">
         <v>323</v>
-      </c>
-      <c r="F194" t="s" s="3">
-        <v>324</v>
-      </c>
-      <c r="G194" t="s" s="3">
-        <v>293</v>
-      </c>
-      <c r="H194" t="n" s="4">
-        <v>20.0</v>
       </c>
     </row>
     <row r="195">
       <c r="B195" t="s" s="3">
-        <v>315</v>
+        <v>324</v>
       </c>
       <c r="C195" t="s" s="3">
-        <v>299</v>
-      </c>
-      <c r="D195" s="3"/>
+        <v>290</v>
+      </c>
+      <c r="D195" t="n" s="3">
+        <v>7336.0</v>
+      </c>
       <c r="E195" t="s" s="3">
         <v>325</v>
       </c>
@@ -5839,46 +5863,46 @@
         <v>326</v>
       </c>
       <c r="G195" t="s" s="3">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="H195" t="n" s="4">
-        <v>0.59</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="196">
       <c r="B196" t="s" s="3">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="C196" t="s" s="3">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="D196" s="3"/>
       <c r="E196" t="s" s="3">
+        <v>327</v>
+      </c>
+      <c r="F196" t="s" s="3">
         <v>328</v>
       </c>
-      <c r="F196" t="s" s="3">
-        <v>329</v>
-      </c>
       <c r="G196" t="s" s="3">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="H196" t="n" s="4">
-        <v>20.0</v>
+        <v>0.59</v>
       </c>
     </row>
     <row r="197">
       <c r="B197" t="s" s="3">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C197" t="s" s="3">
         <v>290</v>
       </c>
       <c r="D197" s="3"/>
       <c r="E197" t="s" s="3">
-        <v>323</v>
+        <v>330</v>
       </c>
       <c r="F197" t="s" s="3">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="G197" t="s" s="3">
         <v>293</v>
@@ -5889,69 +5913,67 @@
     </row>
     <row r="198">
       <c r="B198" t="s" s="3">
-        <v>113</v>
+        <v>332</v>
       </c>
       <c r="C198" t="s" s="3">
-        <v>299</v>
-      </c>
-      <c r="D198" t="n" s="3">
-        <v>3.86095465E8</v>
-      </c>
+        <v>290</v>
+      </c>
+      <c r="D198" s="3"/>
       <c r="E198" t="s" s="3">
         <v>325</v>
       </c>
       <c r="F198" t="s" s="3">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="G198" t="s" s="3">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="H198" t="n" s="4">
-        <v>0.59</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="199">
       <c r="B199" t="s" s="3">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="C199" t="s" s="3">
-        <v>290</v>
-      </c>
-      <c r="D199" s="3"/>
+        <v>299</v>
+      </c>
+      <c r="D199" t="n" s="3">
+        <v>3.86095465E8</v>
+      </c>
       <c r="E199" t="s" s="3">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F199" t="s" s="3">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="G199" t="s" s="3">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="H199" t="n" s="4">
-        <v>20.0</v>
+        <v>0.59</v>
       </c>
     </row>
     <row r="200">
       <c r="B200" t="s" s="3">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="C200" t="s" s="3">
-        <v>299</v>
-      </c>
-      <c r="D200" t="n" s="3">
-        <v>1.5662137E7</v>
-      </c>
+        <v>290</v>
+      </c>
+      <c r="D200" s="3"/>
       <c r="E200" t="s" s="3">
+        <v>330</v>
+      </c>
+      <c r="F200" t="s" s="3">
         <v>331</v>
       </c>
-      <c r="F200" t="s" s="3">
-        <v>332</v>
-      </c>
       <c r="G200" t="s" s="3">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="H200" t="n" s="4">
-        <v>116.24</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="201">
@@ -5965,10 +5987,10 @@
         <v>1.5662137E7</v>
       </c>
       <c r="E201" t="s" s="3">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="F201" t="s" s="3">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="G201" t="s" s="3">
         <v>302</v>
@@ -5979,105 +6001,105 @@
     </row>
     <row r="202">
       <c r="B202" t="s" s="3">
-        <v>334</v>
+        <v>133</v>
       </c>
       <c r="C202" t="s" s="3">
         <v>299</v>
       </c>
-      <c r="D202" s="3"/>
+      <c r="D202" t="n" s="3">
+        <v>1.5662137E7</v>
+      </c>
       <c r="E202" t="s" s="3">
+        <v>333</v>
+      </c>
+      <c r="F202" t="s" s="3">
         <v>335</v>
-      </c>
-      <c r="F202" t="s" s="3">
-        <v>336</v>
       </c>
       <c r="G202" t="s" s="3">
         <v>302</v>
       </c>
       <c r="H202" t="n" s="4">
-        <v>25.0</v>
+        <v>116.24</v>
       </c>
     </row>
     <row r="203">
       <c r="B203" t="s" s="3">
+        <v>336</v>
+      </c>
+      <c r="C203" t="s" s="3">
+        <v>299</v>
+      </c>
+      <c r="D203" s="3"/>
+      <c r="E203" t="s" s="3">
         <v>337</v>
       </c>
-      <c r="C203" t="s" s="3">
-        <v>290</v>
-      </c>
-      <c r="D203" t="n" s="3">
-        <v>7509.0</v>
-      </c>
-      <c r="E203" t="s" s="3">
-        <v>323</v>
-      </c>
       <c r="F203" t="s" s="3">
-        <v>324</v>
+        <v>338</v>
       </c>
       <c r="G203" t="s" s="3">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="H203" t="n" s="4">
-        <v>20.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="204">
       <c r="B204" t="s" s="3">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C204" t="s" s="3">
-        <v>299</v>
-      </c>
-      <c r="D204" s="3"/>
+        <v>290</v>
+      </c>
+      <c r="D204" t="n" s="3">
+        <v>7509.0</v>
+      </c>
       <c r="E204" t="s" s="3">
         <v>325</v>
       </c>
-      <c r="F204" t="n" s="3">
-        <v>3.98900485E8</v>
+      <c r="F204" t="s" s="3">
+        <v>326</v>
       </c>
       <c r="G204" t="s" s="3">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="H204" t="n" s="4">
-        <v>0.59</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="205">
       <c r="B205" t="s" s="3">
-        <v>280</v>
+        <v>340</v>
       </c>
       <c r="C205" t="s" s="3">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="D205" s="3"/>
       <c r="E205" t="s" s="3">
-        <v>328</v>
-      </c>
-      <c r="F205" t="s" s="3">
-        <v>329</v>
+        <v>327</v>
+      </c>
+      <c r="F205" t="n" s="3">
+        <v>3.98900485E8</v>
       </c>
       <c r="G205" t="s" s="3">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="H205" t="n" s="4">
-        <v>20.0</v>
+        <v>0.59</v>
       </c>
     </row>
     <row r="206">
       <c r="B206" t="s" s="3">
-        <v>339</v>
+        <v>280</v>
       </c>
       <c r="C206" t="s" s="3">
         <v>290</v>
       </c>
-      <c r="D206" t="n" s="3">
-        <v>7681.0</v>
-      </c>
+      <c r="D206" s="3"/>
       <c r="E206" t="s" s="3">
-        <v>323</v>
+        <v>330</v>
       </c>
       <c r="F206" t="s" s="3">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="G206" t="s" s="3">
         <v>293</v>
@@ -6088,77 +6110,79 @@
     </row>
     <row r="207">
       <c r="B207" t="s" s="3">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C207" t="s" s="3">
-        <v>299</v>
-      </c>
-      <c r="D207" s="3"/>
+        <v>290</v>
+      </c>
+      <c r="D207" t="n" s="3">
+        <v>7681.0</v>
+      </c>
       <c r="E207" t="s" s="3">
         <v>325</v>
       </c>
-      <c r="F207" t="n" s="3">
-        <v>4.14747233E8</v>
+      <c r="F207" t="s" s="3">
+        <v>326</v>
       </c>
       <c r="G207" t="s" s="3">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="H207" t="n" s="4">
-        <v>0.6</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="208">
       <c r="B208" t="s" s="3">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C208" t="s" s="3">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="D208" s="3"/>
       <c r="E208" t="s" s="3">
-        <v>328</v>
-      </c>
-      <c r="F208" t="s" s="3">
-        <v>329</v>
+        <v>327</v>
+      </c>
+      <c r="F208" t="n" s="3">
+        <v>4.14747233E8</v>
       </c>
       <c r="G208" t="s" s="3">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="H208" t="n" s="4">
-        <v>20.0</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="209">
       <c r="B209" t="s" s="3">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C209" t="s" s="3">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="D209" s="3"/>
       <c r="E209" t="s" s="3">
-        <v>343</v>
+        <v>330</v>
       </c>
       <c r="F209" t="s" s="3">
-        <v>344</v>
+        <v>331</v>
       </c>
       <c r="G209" t="s" s="3">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="H209" t="n" s="4">
-        <v>98.94</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="210">
       <c r="B210" t="s" s="3">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C210" t="s" s="3">
         <v>299</v>
       </c>
       <c r="D210" s="3"/>
       <c r="E210" t="s" s="3">
-        <v>331</v>
+        <v>345</v>
       </c>
       <c r="F210" t="s" s="3">
         <v>346</v>
@@ -6167,7 +6191,7 @@
         <v>302</v>
       </c>
       <c r="H210" t="n" s="4">
-        <v>12.98</v>
+        <v>98.94</v>
       </c>
     </row>
     <row r="211">
@@ -6175,41 +6199,41 @@
         <v>347</v>
       </c>
       <c r="C211" t="s" s="3">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="D211" s="3"/>
       <c r="E211" t="s" s="3">
-        <v>323</v>
+        <v>333</v>
       </c>
       <c r="F211" t="s" s="3">
-        <v>324</v>
+        <v>348</v>
       </c>
       <c r="G211" t="s" s="3">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="H211" t="n" s="4">
-        <v>20.0</v>
+        <v>12.98</v>
       </c>
     </row>
     <row r="212">
       <c r="B212" t="s" s="3">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C212" t="s" s="3">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="D212" s="3"/>
       <c r="E212" t="s" s="3">
         <v>325</v>
       </c>
       <c r="F212" t="s" s="3">
-        <v>349</v>
+        <v>326</v>
       </c>
       <c r="G212" t="s" s="3">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="H212" t="n" s="4">
-        <v>0.6</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="213">
@@ -6217,35 +6241,35 @@
         <v>350</v>
       </c>
       <c r="C213" t="s" s="3">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="D213" s="3"/>
       <c r="E213" t="s" s="3">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F213" t="s" s="3">
-        <v>329</v>
+        <v>351</v>
       </c>
       <c r="G213" t="s" s="3">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="H213" t="n" s="4">
-        <v>20.0</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="214">
       <c r="B214" t="s" s="3">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C214" t="s" s="3">
         <v>290</v>
       </c>
       <c r="D214" s="3"/>
       <c r="E214" t="s" s="3">
-        <v>323</v>
+        <v>330</v>
       </c>
       <c r="F214" t="s" s="3">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="G214" t="s" s="3">
         <v>293</v>
@@ -6256,23 +6280,23 @@
     </row>
     <row r="215">
       <c r="B215" t="s" s="3">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C215" t="s" s="3">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="D215" s="3"/>
       <c r="E215" t="s" s="3">
         <v>325</v>
       </c>
       <c r="F215" t="s" s="3">
-        <v>353</v>
+        <v>326</v>
       </c>
       <c r="G215" t="s" s="3">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="H215" t="n" s="4">
-        <v>0.6</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="216">
@@ -6280,58 +6304,56 @@
         <v>354</v>
       </c>
       <c r="C216" t="s" s="3">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="D216" s="3"/>
       <c r="E216" t="s" s="3">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F216" t="s" s="3">
-        <v>329</v>
+        <v>355</v>
       </c>
       <c r="G216" t="s" s="3">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="H216" t="n" s="4">
-        <v>20.0</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="217">
       <c r="B217" t="s" s="3">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C217" t="s" s="3">
         <v>290</v>
       </c>
-      <c r="D217" t="n" s="3">
-        <v>2.9050581E7</v>
-      </c>
+      <c r="D217" s="3"/>
       <c r="E217" t="s" s="3">
-        <v>356</v>
+        <v>330</v>
       </c>
       <c r="F217" t="s" s="3">
-        <v>357</v>
+        <v>331</v>
       </c>
       <c r="G217" t="s" s="3">
         <v>293</v>
       </c>
       <c r="H217" t="n" s="4">
-        <v>14.99</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="218">
       <c r="B218" t="s" s="3">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="C218" t="s" s="3">
         <v>290</v>
       </c>
       <c r="D218" s="3"/>
       <c r="E218" t="s" s="3">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="F218" t="s" s="3">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="G218" t="s" s="3">
         <v>293</v>
@@ -6342,23 +6364,25 @@
     </row>
     <row r="219">
       <c r="B219" t="s" s="3">
+        <v>357</v>
+      </c>
+      <c r="C219" t="s" s="3">
+        <v>290</v>
+      </c>
+      <c r="D219" t="n" s="3">
+        <v>2.9050581E7</v>
+      </c>
+      <c r="E219" t="s" s="3">
         <v>358</v>
-      </c>
-      <c r="C219" t="s" s="3">
-        <v>299</v>
-      </c>
-      <c r="D219" s="3"/>
-      <c r="E219" t="s" s="3">
-        <v>325</v>
       </c>
       <c r="F219" t="s" s="3">
         <v>359</v>
       </c>
       <c r="G219" t="s" s="3">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="H219" t="n" s="4">
-        <v>0.6</v>
+        <v>14.99</v>
       </c>
     </row>
     <row r="220">
@@ -6366,41 +6390,41 @@
         <v>360</v>
       </c>
       <c r="C220" t="s" s="3">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="D220" s="3"/>
       <c r="E220" t="s" s="3">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F220" t="s" s="3">
-        <v>329</v>
+        <v>361</v>
       </c>
       <c r="G220" t="s" s="3">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="H220" t="n" s="4">
-        <v>20.0</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="221">
       <c r="B221" t="s" s="3">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C221" t="s" s="3">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="D221" s="3"/>
       <c r="E221" t="s" s="3">
+        <v>330</v>
+      </c>
+      <c r="F221" t="s" s="3">
         <v>331</v>
       </c>
-      <c r="F221" t="s" s="3">
-        <v>362</v>
-      </c>
       <c r="G221" t="s" s="3">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="H221" t="n" s="4">
-        <v>35.96</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="222">
@@ -6408,35 +6432,35 @@
         <v>363</v>
       </c>
       <c r="C222" t="s" s="3">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="D222" s="3"/>
       <c r="E222" t="s" s="3">
-        <v>356</v>
+        <v>333</v>
       </c>
       <c r="F222" t="s" s="3">
-        <v>357</v>
+        <v>364</v>
       </c>
       <c r="G222" t="s" s="3">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="H222" t="n" s="4">
-        <v>14.99</v>
+        <v>35.96</v>
       </c>
     </row>
     <row r="223">
       <c r="B223" t="s" s="3">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="C223" t="s" s="3">
         <v>290</v>
       </c>
       <c r="D223" s="3"/>
       <c r="E223" t="s" s="3">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="F223" t="s" s="3">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="G223" t="s" s="3">
         <v>293</v>
@@ -6447,23 +6471,23 @@
     </row>
     <row r="224">
       <c r="B224" t="s" s="3">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C224" t="s" s="3">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="D224" s="3"/>
       <c r="E224" t="s" s="3">
-        <v>325</v>
+        <v>358</v>
       </c>
       <c r="F224" t="s" s="3">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="G224" t="s" s="3">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="H224" t="n" s="4">
-        <v>0.6</v>
+        <v>14.99</v>
       </c>
     </row>
     <row r="225">
@@ -6471,208 +6495,262 @@
         <v>366</v>
       </c>
       <c r="C225" t="s" s="3">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="D225" s="3"/>
       <c r="E225" t="s" s="3">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F225" t="s" s="3">
-        <v>329</v>
+        <v>367</v>
       </c>
       <c r="G225" t="s" s="3">
+        <v>302</v>
+      </c>
+      <c r="H225" t="n" s="4">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="B226" t="s" s="3">
+        <v>368</v>
+      </c>
+      <c r="C226" t="s" s="3">
+        <v>290</v>
+      </c>
+      <c r="D226" s="3"/>
+      <c r="E226" t="s" s="3">
+        <v>330</v>
+      </c>
+      <c r="F226" t="s" s="3">
+        <v>331</v>
+      </c>
+      <c r="G226" t="s" s="3">
         <v>293</v>
       </c>
-      <c r="H225" t="n" s="4">
+      <c r="H226" t="n" s="4">
         <v>20.0</v>
       </c>
     </row>
-    <row r="226">
-      <c r="A226" t="s" s="2">
-        <v>367</v>
-      </c>
-      <c r="H226" t="n" s="5">
-        <v>760.11</v>
-      </c>
-    </row>
     <row r="227">
-      <c r="A227" t="s" s="2">
-        <v>368</v>
+      <c r="B227" t="s" s="3">
+        <v>369</v>
+      </c>
+      <c r="C227" t="s" s="3">
+        <v>290</v>
+      </c>
+      <c r="D227" s="3"/>
+      <c r="E227" t="s" s="3">
+        <v>358</v>
+      </c>
+      <c r="F227" t="s" s="3">
+        <v>359</v>
+      </c>
+      <c r="G227" t="s" s="3">
+        <v>293</v>
+      </c>
+      <c r="H227" t="n" s="4">
+        <v>14.99</v>
       </c>
     </row>
     <row r="228">
       <c r="B228" t="s" s="3">
-        <v>42</v>
+        <v>369</v>
       </c>
       <c r="C228" t="s" s="3">
         <v>290</v>
       </c>
-      <c r="D228" t="n" s="3">
-        <v>162673.0</v>
-      </c>
+      <c r="D228" s="3"/>
       <c r="E228" t="s" s="3">
-        <v>369</v>
+        <v>325</v>
       </c>
       <c r="F228" t="s" s="3">
-        <v>370</v>
+        <v>326</v>
       </c>
       <c r="G228" t="s" s="3">
         <v>293</v>
       </c>
       <c r="H228" t="n" s="4">
-        <v>40.75</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="229">
       <c r="B229" t="s" s="3">
-        <v>42</v>
+        <v>370</v>
       </c>
       <c r="C229" t="s" s="3">
-        <v>290</v>
-      </c>
-      <c r="D229" t="n" s="3">
-        <v>162673.0</v>
-      </c>
+        <v>299</v>
+      </c>
+      <c r="D229" s="3"/>
       <c r="E229" t="s" s="3">
-        <v>369</v>
+        <v>327</v>
       </c>
       <c r="F229" t="s" s="3">
         <v>371</v>
       </c>
       <c r="G229" t="s" s="3">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="H229" t="n" s="4">
-        <v>503.1</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="230">
       <c r="B230" t="s" s="3">
-        <v>209</v>
+        <v>372</v>
       </c>
       <c r="C230" t="s" s="3">
-        <v>299</v>
-      </c>
-      <c r="D230" t="n" s="3">
-        <v>163049.0</v>
-      </c>
+        <v>290</v>
+      </c>
+      <c r="D230" s="3"/>
       <c r="E230" t="s" s="3">
-        <v>369</v>
+        <v>330</v>
       </c>
       <c r="F230" t="s" s="3">
-        <v>372</v>
+        <v>331</v>
       </c>
       <c r="G230" t="s" s="3">
+        <v>293</v>
+      </c>
+      <c r="H230" t="n" s="4">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="B231" t="s" s="3">
+        <v>373</v>
+      </c>
+      <c r="C231" t="s" s="3">
+        <v>299</v>
+      </c>
+      <c r="D231" s="3"/>
+      <c r="E231" t="s" s="3">
+        <v>333</v>
+      </c>
+      <c r="F231" t="s" s="3">
+        <v>374</v>
+      </c>
+      <c r="G231" t="s" s="3">
         <v>302</v>
       </c>
-      <c r="H230" t="n" s="4">
-        <v>30.21</v>
-      </c>
-    </row>
-    <row r="231">
-      <c r="A231" t="s" s="2">
-        <v>373</v>
-      </c>
-      <c r="H231" t="n" s="5">
-        <v>574.06</v>
+      <c r="H231" t="n" s="4">
+        <v>17.98</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
+      </c>
+      <c r="H232" t="n" s="5">
+        <v>833.68</v>
       </c>
     </row>
     <row r="233">
-      <c r="B233" t="s" s="3">
-        <v>342</v>
-      </c>
-      <c r="C233" t="s" s="3">
-        <v>375</v>
-      </c>
-      <c r="D233" s="3"/>
-      <c r="E233" t="s" s="3">
+      <c r="A233" t="s" s="2">
         <v>376</v>
       </c>
-      <c r="F233" t="s" s="3">
+    </row>
+    <row r="234">
+      <c r="B234" t="s" s="3">
+        <v>42</v>
+      </c>
+      <c r="C234" t="s" s="3">
+        <v>290</v>
+      </c>
+      <c r="D234" t="n" s="3">
+        <v>162673.0</v>
+      </c>
+      <c r="E234" t="s" s="3">
         <v>377</v>
       </c>
-      <c r="G233" t="s" s="3">
+      <c r="F234" t="s" s="3">
+        <v>378</v>
+      </c>
+      <c r="G234" t="s" s="3">
+        <v>293</v>
+      </c>
+      <c r="H234" t="n" s="4">
+        <v>40.75</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="B235" t="s" s="3">
+        <v>42</v>
+      </c>
+      <c r="C235" t="s" s="3">
+        <v>290</v>
+      </c>
+      <c r="D235" t="n" s="3">
+        <v>162673.0</v>
+      </c>
+      <c r="E235" t="s" s="3">
+        <v>377</v>
+      </c>
+      <c r="F235" t="s" s="3">
+        <v>379</v>
+      </c>
+      <c r="G235" t="s" s="3">
+        <v>293</v>
+      </c>
+      <c r="H235" t="n" s="4">
+        <v>503.1</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="B236" t="s" s="3">
+        <v>209</v>
+      </c>
+      <c r="C236" t="s" s="3">
+        <v>299</v>
+      </c>
+      <c r="D236" t="n" s="3">
+        <v>163049.0</v>
+      </c>
+      <c r="E236" t="s" s="3">
+        <v>377</v>
+      </c>
+      <c r="F236" t="s" s="3">
+        <v>380</v>
+      </c>
+      <c r="G236" t="s" s="3">
         <v>302</v>
       </c>
-      <c r="H233" t="n" s="4">
-        <v>600.0</v>
-      </c>
-    </row>
-    <row r="234">
-      <c r="A234" t="s" s="2">
-        <v>378</v>
-      </c>
-      <c r="H234" t="n" s="5">
-        <v>600.0</v>
-      </c>
-    </row>
-    <row r="235">
-      <c r="A235" t="s" s="2">
-        <v>379</v>
-      </c>
-      <c r="H235" t="n" s="5">
-        <v>4549.93</v>
-      </c>
-    </row>
-    <row r="236">
-      <c r="A236" t="s" s="2">
-        <v>380</v>
+      <c r="H236" t="n" s="4">
+        <v>30.21</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="s" s="2">
         <v>381</v>
       </c>
+      <c r="H237" t="n" s="5">
+        <v>574.06</v>
+      </c>
     </row>
     <row r="238">
-      <c r="B238" t="s" s="3">
-        <v>42</v>
-      </c>
-      <c r="C238" t="s" s="3">
-        <v>299</v>
-      </c>
-      <c r="D238" t="s" s="3">
+      <c r="A238" t="s" s="2">
         <v>382</v>
-      </c>
-      <c r="E238" t="s" s="3">
-        <v>383</v>
-      </c>
-      <c r="F238" t="s" s="3">
-        <v>384</v>
-      </c>
-      <c r="G238" t="s" s="3">
-        <v>302</v>
-      </c>
-      <c r="H238" t="n" s="4">
-        <v>25.0</v>
       </c>
     </row>
     <row r="239">
       <c r="B239" t="s" s="3">
-        <v>337</v>
+        <v>344</v>
       </c>
       <c r="C239" t="s" s="3">
-        <v>290</v>
-      </c>
-      <c r="D239" t="n" s="3">
-        <v>5517958.0</v>
-      </c>
+        <v>383</v>
+      </c>
+      <c r="D239" s="3"/>
       <c r="E239" t="s" s="3">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="F239" t="s" s="3">
         <v>385</v>
       </c>
       <c r="G239" t="s" s="3">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="H239" t="n" s="4">
-        <v>6.37</v>
+        <v>600.0</v>
       </c>
     </row>
     <row r="240">
@@ -6680,72 +6758,39 @@
         <v>386</v>
       </c>
       <c r="H240" t="n" s="5">
-        <v>31.37</v>
+        <v>600.0</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="s" s="2">
         <v>387</v>
       </c>
+      <c r="H241" t="n" s="5">
+        <v>4687.35</v>
+      </c>
     </row>
     <row r="242">
-      <c r="B242" t="s" s="3">
-        <v>42</v>
-      </c>
-      <c r="C242" t="s" s="3">
-        <v>299</v>
-      </c>
-      <c r="D242" t="n" s="3">
-        <v>3300212.0</v>
-      </c>
-      <c r="E242" t="s" s="3">
+      <c r="A242" t="s" s="2">
         <v>388</v>
       </c>
-      <c r="F242" t="s" s="3">
+    </row>
+    <row r="243">
+      <c r="A243" t="s" s="2">
         <v>389</v>
-      </c>
-      <c r="G242" t="s" s="3">
-        <v>302</v>
-      </c>
-      <c r="H242" t="n" s="4">
-        <v>25.99</v>
-      </c>
-    </row>
-    <row r="243">
-      <c r="B243" t="s" s="3">
-        <v>146</v>
-      </c>
-      <c r="C243" t="s" s="3">
-        <v>299</v>
-      </c>
-      <c r="D243" t="n" s="3">
-        <v>119025.0</v>
-      </c>
-      <c r="E243" t="s" s="3">
-        <v>390</v>
-      </c>
-      <c r="F243" t="s" s="3">
-        <v>391</v>
-      </c>
-      <c r="G243" t="s" s="3">
-        <v>302</v>
-      </c>
-      <c r="H243" t="n" s="4">
-        <v>1.9</v>
       </c>
     </row>
     <row r="244">
       <c r="B244" t="s" s="3">
-        <v>146</v>
+        <v>42</v>
       </c>
       <c r="C244" t="s" s="3">
         <v>299</v>
       </c>
-      <c r="D244" t="n" s="3">
-        <v>119025.0</v>
+      <c r="D244" t="s" s="3">
+        <v>390</v>
       </c>
       <c r="E244" t="s" s="3">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="F244" t="s" s="3">
         <v>392</v>
@@ -6754,286 +6799,253 @@
         <v>302</v>
       </c>
       <c r="H244" t="n" s="4">
-        <v>16.97</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="245">
       <c r="B245" t="s" s="3">
-        <v>146</v>
+        <v>339</v>
       </c>
       <c r="C245" t="s" s="3">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="D245" t="n" s="3">
-        <v>119025.0</v>
+        <v>5517958.0</v>
       </c>
       <c r="E245" t="s" s="3">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="F245" t="s" s="3">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="G245" t="s" s="3">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="H245" t="n" s="4">
-        <v>1.9</v>
+        <v>6.37</v>
       </c>
     </row>
     <row r="246">
-      <c r="B246" t="s" s="3">
-        <v>146</v>
-      </c>
-      <c r="C246" t="s" s="3">
-        <v>299</v>
-      </c>
-      <c r="D246" t="n" s="3">
-        <v>119025.0</v>
-      </c>
-      <c r="E246" t="s" s="3">
-        <v>390</v>
-      </c>
-      <c r="F246" t="s" s="3">
-        <v>391</v>
-      </c>
-      <c r="G246" t="s" s="3">
-        <v>302</v>
-      </c>
-      <c r="H246" t="n" s="4">
-        <v>1.9</v>
+      <c r="A246" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="H246" t="n" s="5">
+        <v>31.37</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="H247" t="n" s="5">
-        <v>48.66</v>
+        <v>395</v>
       </c>
     </row>
     <row r="248">
-      <c r="A248" t="s" s="2">
-        <v>394</v>
+      <c r="B248" t="s" s="3">
+        <v>42</v>
+      </c>
+      <c r="C248" t="s" s="3">
+        <v>299</v>
+      </c>
+      <c r="D248" t="n" s="3">
+        <v>3300212.0</v>
+      </c>
+      <c r="E248" t="s" s="3">
+        <v>396</v>
+      </c>
+      <c r="F248" t="s" s="3">
+        <v>397</v>
+      </c>
+      <c r="G248" t="s" s="3">
+        <v>302</v>
+      </c>
+      <c r="H248" t="n" s="4">
+        <v>25.99</v>
       </c>
     </row>
     <row r="249">
       <c r="B249" t="s" s="3">
-        <v>164</v>
+        <v>146</v>
       </c>
       <c r="C249" t="s" s="3">
         <v>299</v>
       </c>
-      <c r="D249" t="s" s="3">
-        <v>395</v>
+      <c r="D249" t="n" s="3">
+        <v>119025.0</v>
       </c>
       <c r="E249" t="s" s="3">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="F249" t="s" s="3">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="G249" t="s" s="3">
         <v>302</v>
       </c>
       <c r="H249" t="n" s="4">
-        <v>452.4</v>
+        <v>16.97</v>
       </c>
     </row>
     <row r="250">
       <c r="B250" t="s" s="3">
-        <v>164</v>
+        <v>146</v>
       </c>
       <c r="C250" t="s" s="3">
         <v>299</v>
       </c>
-      <c r="D250" t="s" s="3">
-        <v>395</v>
+      <c r="D250" t="n" s="3">
+        <v>119025.0</v>
       </c>
       <c r="E250" t="s" s="3">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="F250" t="s" s="3">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="G250" t="s" s="3">
         <v>302</v>
       </c>
       <c r="H250" t="n" s="4">
-        <v>49.0</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="251">
       <c r="B251" t="s" s="3">
-        <v>164</v>
+        <v>146</v>
       </c>
       <c r="C251" t="s" s="3">
         <v>299</v>
       </c>
-      <c r="D251" t="s" s="3">
-        <v>395</v>
+      <c r="D251" t="n" s="3">
+        <v>119025.0</v>
       </c>
       <c r="E251" t="s" s="3">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="F251" t="s" s="3">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="G251" t="s" s="3">
         <v>302</v>
       </c>
       <c r="H251" t="n" s="4">
-        <v>-50.0</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="252">
-      <c r="A252" t="s" s="2">
+      <c r="B252" t="s" s="3">
+        <v>146</v>
+      </c>
+      <c r="C252" t="s" s="3">
+        <v>299</v>
+      </c>
+      <c r="D252" t="n" s="3">
+        <v>119025.0</v>
+      </c>
+      <c r="E252" t="s" s="3">
+        <v>398</v>
+      </c>
+      <c r="F252" t="s" s="3">
         <v>400</v>
       </c>
-      <c r="H252" t="n" s="5">
-        <v>451.4</v>
+      <c r="G252" t="s" s="3">
+        <v>302</v>
+      </c>
+      <c r="H252" t="n" s="4">
+        <v>1.9</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="s" s="2">
         <v>401</v>
       </c>
+      <c r="H253" t="n" s="5">
+        <v>48.66</v>
+      </c>
     </row>
     <row r="254">
-      <c r="B254" t="s" s="3">
-        <v>146</v>
-      </c>
-      <c r="C254" t="s" s="3">
-        <v>290</v>
-      </c>
-      <c r="D254" t="n" s="3">
-        <v>27817.0</v>
-      </c>
-      <c r="E254" t="s" s="3">
-        <v>311</v>
-      </c>
-      <c r="F254" t="s" s="3">
+      <c r="A254" t="s" s="2">
         <v>402</v>
-      </c>
-      <c r="G254" t="s" s="3">
-        <v>293</v>
-      </c>
-      <c r="H254" t="n" s="4">
-        <v>170.18</v>
       </c>
     </row>
     <row r="255">
       <c r="B255" t="s" s="3">
-        <v>146</v>
+        <v>164</v>
       </c>
       <c r="C255" t="s" s="3">
-        <v>290</v>
-      </c>
-      <c r="D255" t="n" s="3">
-        <v>27817.0</v>
+        <v>299</v>
+      </c>
+      <c r="D255" t="s" s="3">
+        <v>403</v>
       </c>
       <c r="E255" t="s" s="3">
-        <v>311</v>
+        <v>404</v>
       </c>
       <c r="F255" t="s" s="3">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="G255" t="s" s="3">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="H255" t="n" s="4">
-        <v>50.0</v>
+        <v>49.0</v>
       </c>
     </row>
     <row r="256">
       <c r="B256" t="s" s="3">
-        <v>146</v>
+        <v>164</v>
       </c>
       <c r="C256" t="s" s="3">
-        <v>290</v>
-      </c>
-      <c r="D256" t="n" s="3">
-        <v>27817.0</v>
+        <v>299</v>
+      </c>
+      <c r="D256" t="s" s="3">
+        <v>403</v>
       </c>
       <c r="E256" t="s" s="3">
-        <v>311</v>
+        <v>404</v>
       </c>
       <c r="F256" t="s" s="3">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="G256" t="s" s="3">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="H256" t="n" s="4">
-        <v>42.0</v>
+        <v>452.4</v>
       </c>
     </row>
     <row r="257">
       <c r="B257" t="s" s="3">
-        <v>146</v>
+        <v>164</v>
       </c>
       <c r="C257" t="s" s="3">
-        <v>290</v>
-      </c>
-      <c r="D257" t="n" s="3">
-        <v>27817.0</v>
+        <v>299</v>
+      </c>
+      <c r="D257" t="s" s="3">
+        <v>403</v>
       </c>
       <c r="E257" t="s" s="3">
-        <v>311</v>
+        <v>404</v>
       </c>
       <c r="F257" t="s" s="3">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="G257" t="s" s="3">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="H257" t="n" s="4">
-        <v>14.0</v>
+        <v>-50.0</v>
       </c>
     </row>
     <row r="258">
-      <c r="B258" t="s" s="3">
-        <v>146</v>
-      </c>
-      <c r="C258" t="s" s="3">
-        <v>290</v>
-      </c>
-      <c r="D258" t="n" s="3">
-        <v>27817.0</v>
-      </c>
-      <c r="E258" t="s" s="3">
-        <v>311</v>
-      </c>
-      <c r="F258" t="s" s="3">
-        <v>406</v>
-      </c>
-      <c r="G258" t="s" s="3">
-        <v>293</v>
-      </c>
-      <c r="H258" t="n" s="4">
-        <v>240.0</v>
+      <c r="A258" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="H258" t="n" s="5">
+        <v>451.4</v>
       </c>
     </row>
     <row r="259">
-      <c r="B259" t="s" s="3">
-        <v>146</v>
-      </c>
-      <c r="C259" t="s" s="3">
-        <v>290</v>
-      </c>
-      <c r="D259" t="n" s="3">
-        <v>27817.0</v>
-      </c>
-      <c r="E259" t="s" s="3">
-        <v>311</v>
-      </c>
-      <c r="F259" t="s" s="3">
-        <v>407</v>
-      </c>
-      <c r="G259" t="s" s="3">
-        <v>293</v>
-      </c>
-      <c r="H259" t="n" s="4">
-        <v>15.0</v>
+      <c r="A259" t="s" s="2">
+        <v>409</v>
       </c>
     </row>
     <row r="260">
@@ -7047,16 +7059,16 @@
         <v>27817.0</v>
       </c>
       <c r="E260" t="s" s="3">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="F260" t="s" s="3">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="G260" t="s" s="3">
         <v>293</v>
       </c>
       <c r="H260" t="n" s="4">
-        <v>30.0</v>
+        <v>240.0</v>
       </c>
     </row>
     <row r="261">
@@ -7070,10 +7082,10 @@
         <v>27817.0</v>
       </c>
       <c r="E261" t="s" s="3">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="F261" t="s" s="3">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="G261" t="s" s="3">
         <v>293</v>
@@ -7083,213 +7095,254 @@
       </c>
     </row>
     <row r="262">
-      <c r="A262" t="s" s="2">
-        <v>410</v>
-      </c>
-      <c r="H262" t="n" s="5">
-        <v>2271.18</v>
+      <c r="B262" t="s" s="3">
+        <v>146</v>
+      </c>
+      <c r="C262" t="s" s="3">
+        <v>290</v>
+      </c>
+      <c r="D262" t="n" s="3">
+        <v>27817.0</v>
+      </c>
+      <c r="E262" t="s" s="3">
+        <v>313</v>
+      </c>
+      <c r="F262" t="s" s="3">
+        <v>412</v>
+      </c>
+      <c r="G262" t="s" s="3">
+        <v>293</v>
+      </c>
+      <c r="H262" t="n" s="4">
+        <v>170.18</v>
       </c>
     </row>
     <row r="263">
-      <c r="A263" t="s" s="2">
-        <v>411</v>
+      <c r="B263" t="s" s="3">
+        <v>146</v>
+      </c>
+      <c r="C263" t="s" s="3">
+        <v>290</v>
+      </c>
+      <c r="D263" t="n" s="3">
+        <v>27817.0</v>
+      </c>
+      <c r="E263" t="s" s="3">
+        <v>313</v>
+      </c>
+      <c r="F263" t="s" s="3">
+        <v>413</v>
+      </c>
+      <c r="G263" t="s" s="3">
+        <v>293</v>
+      </c>
+      <c r="H263" t="n" s="4">
+        <v>50.0</v>
       </c>
     </row>
     <row r="264">
       <c r="B264" t="s" s="3">
-        <v>209</v>
+        <v>146</v>
       </c>
       <c r="C264" t="s" s="3">
         <v>290</v>
       </c>
       <c r="D264" t="n" s="3">
-        <v>10196.0</v>
+        <v>27817.0</v>
       </c>
       <c r="E264" t="s" s="3">
-        <v>412</v>
+        <v>313</v>
       </c>
       <c r="F264" t="s" s="3">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="G264" t="s" s="3">
         <v>293</v>
       </c>
       <c r="H264" t="n" s="4">
-        <v>760.2</v>
+        <v>42.0</v>
       </c>
     </row>
     <row r="265">
       <c r="B265" t="s" s="3">
-        <v>209</v>
+        <v>146</v>
       </c>
       <c r="C265" t="s" s="3">
         <v>290</v>
       </c>
       <c r="D265" t="n" s="3">
-        <v>10196.0</v>
+        <v>27817.0</v>
       </c>
       <c r="E265" t="s" s="3">
-        <v>412</v>
+        <v>313</v>
       </c>
       <c r="F265" t="s" s="3">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="G265" t="s" s="3">
         <v>293</v>
       </c>
       <c r="H265" t="n" s="4">
-        <v>1800.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="266">
       <c r="B266" t="s" s="3">
-        <v>275</v>
+        <v>146</v>
       </c>
       <c r="C266" t="s" s="3">
-        <v>299</v>
-      </c>
-      <c r="D266" s="3"/>
+        <v>290</v>
+      </c>
+      <c r="D266" t="n" s="3">
+        <v>27817.0</v>
+      </c>
       <c r="E266" t="s" s="3">
-        <v>388</v>
+        <v>313</v>
       </c>
       <c r="F266" t="s" s="3">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="G266" t="s" s="3">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="H266" t="n" s="4">
-        <v>0.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="267">
       <c r="B267" t="s" s="3">
-        <v>275</v>
+        <v>146</v>
       </c>
       <c r="C267" t="s" s="3">
-        <v>299</v>
-      </c>
-      <c r="D267" s="3"/>
+        <v>290</v>
+      </c>
+      <c r="D267" t="n" s="3">
+        <v>27817.0</v>
+      </c>
       <c r="E267" t="s" s="3">
-        <v>388</v>
+        <v>313</v>
       </c>
       <c r="F267" t="s" s="3">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="G267" t="s" s="3">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="H267" t="n" s="4">
-        <v>4.26</v>
+        <v>14.0</v>
       </c>
     </row>
     <row r="268">
-      <c r="B268" t="s" s="3">
-        <v>275</v>
-      </c>
-      <c r="C268" t="s" s="3">
-        <v>299</v>
-      </c>
-      <c r="D268" s="3"/>
-      <c r="E268" t="s" s="3">
-        <v>388</v>
-      </c>
-      <c r="F268" t="s" s="3">
-        <v>417</v>
-      </c>
-      <c r="G268" t="s" s="3">
-        <v>302</v>
-      </c>
-      <c r="H268" t="n" s="4">
-        <v>37.98</v>
+      <c r="A268" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="H268" t="n" s="5">
+        <v>2271.18</v>
       </c>
     </row>
     <row r="269">
-      <c r="B269" t="s" s="3">
-        <v>275</v>
-      </c>
-      <c r="C269" t="s" s="3">
-        <v>299</v>
-      </c>
-      <c r="D269" s="3"/>
-      <c r="E269" t="s" s="3">
-        <v>388</v>
-      </c>
-      <c r="F269" t="s" s="3">
-        <v>418</v>
-      </c>
-      <c r="G269" t="s" s="3">
-        <v>302</v>
-      </c>
-      <c r="H269" t="n" s="4">
-        <v>15.98</v>
+      <c r="A269" t="s" s="2">
+        <v>419</v>
       </c>
     </row>
     <row r="270">
       <c r="B270" t="s" s="3">
-        <v>275</v>
+        <v>209</v>
       </c>
       <c r="C270" t="s" s="3">
-        <v>299</v>
-      </c>
-      <c r="D270" s="3"/>
+        <v>290</v>
+      </c>
+      <c r="D270" t="n" s="3">
+        <v>10196.0</v>
+      </c>
       <c r="E270" t="s" s="3">
-        <v>388</v>
+        <v>420</v>
       </c>
       <c r="F270" t="s" s="3">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="G270" t="s" s="3">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="H270" t="n" s="4">
-        <v>33.98</v>
+        <v>1800.0</v>
       </c>
     </row>
     <row r="271">
       <c r="B271" t="s" s="3">
+        <v>209</v>
+      </c>
+      <c r="C271" t="s" s="3">
+        <v>290</v>
+      </c>
+      <c r="D271" t="n" s="3">
+        <v>10196.0</v>
+      </c>
+      <c r="E271" t="s" s="3">
+        <v>420</v>
+      </c>
+      <c r="F271" t="s" s="3">
+        <v>422</v>
+      </c>
+      <c r="G271" t="s" s="3">
+        <v>293</v>
+      </c>
+      <c r="H271" t="n" s="4">
+        <v>760.2</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="B272" t="s" s="3">
         <v>275</v>
       </c>
-      <c r="C271" t="s" s="3">
-        <v>299</v>
-      </c>
-      <c r="D271" s="3"/>
-      <c r="E271" t="s" s="3">
-        <v>388</v>
-      </c>
-      <c r="F271" t="s" s="3">
-        <v>420</v>
-      </c>
-      <c r="G271" t="s" s="3">
+      <c r="C272" t="s" s="3">
+        <v>299</v>
+      </c>
+      <c r="D272" s="3"/>
+      <c r="E272" t="s" s="3">
+        <v>396</v>
+      </c>
+      <c r="F272" t="s" s="3">
+        <v>423</v>
+      </c>
+      <c r="G272" t="s" s="3">
         <v>302</v>
       </c>
-      <c r="H271" t="n" s="4">
-        <v>12.99</v>
-      </c>
-    </row>
-    <row r="272">
-      <c r="A272" t="s" s="2">
-        <v>421</v>
-      </c>
-      <c r="H272" t="n" s="5">
-        <v>2665.39</v>
+      <c r="H272" t="n" s="4">
+        <v>37.98</v>
       </c>
     </row>
     <row r="273">
-      <c r="A273" t="s" s="2">
-        <v>422</v>
+      <c r="B273" t="s" s="3">
+        <v>275</v>
+      </c>
+      <c r="C273" t="s" s="3">
+        <v>299</v>
+      </c>
+      <c r="D273" s="3"/>
+      <c r="E273" t="s" s="3">
+        <v>396</v>
+      </c>
+      <c r="F273" t="s" s="3">
+        <v>424</v>
+      </c>
+      <c r="G273" t="s" s="3">
+        <v>302</v>
+      </c>
+      <c r="H273" t="n" s="4">
+        <v>33.98</v>
       </c>
     </row>
     <row r="274">
       <c r="B274" t="s" s="3">
-        <v>423</v>
+        <v>275</v>
       </c>
       <c r="C274" t="s" s="3">
         <v>299</v>
       </c>
       <c r="D274" s="3"/>
       <c r="E274" t="s" s="3">
-        <v>424</v>
+        <v>396</v>
       </c>
       <c r="F274" t="s" s="3">
         <v>425</v>
@@ -7298,138 +7351,109 @@
         <v>302</v>
       </c>
       <c r="H274" t="n" s="4">
-        <v>42.13</v>
+        <v>15.98</v>
       </c>
     </row>
     <row r="275">
       <c r="B275" t="s" s="3">
-        <v>426</v>
+        <v>275</v>
       </c>
       <c r="C275" t="s" s="3">
         <v>299</v>
       </c>
       <c r="D275" s="3"/>
       <c r="E275" t="s" s="3">
-        <v>304</v>
+        <v>396</v>
       </c>
       <c r="F275" t="s" s="3">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="G275" t="s" s="3">
         <v>302</v>
       </c>
       <c r="H275" t="n" s="4">
-        <v>1.83</v>
+        <v>12.99</v>
       </c>
     </row>
     <row r="276">
       <c r="B276" t="s" s="3">
-        <v>426</v>
+        <v>275</v>
       </c>
       <c r="C276" t="s" s="3">
         <v>299</v>
       </c>
       <c r="D276" s="3"/>
       <c r="E276" t="s" s="3">
-        <v>304</v>
+        <v>396</v>
       </c>
       <c r="F276" t="s" s="3">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="G276" t="s" s="3">
         <v>302</v>
       </c>
       <c r="H276" t="n" s="4">
-        <v>4.47</v>
+        <v>4.26</v>
       </c>
     </row>
     <row r="277">
       <c r="B277" t="s" s="3">
-        <v>426</v>
+        <v>275</v>
       </c>
       <c r="C277" t="s" s="3">
         <v>299</v>
       </c>
       <c r="D277" s="3"/>
       <c r="E277" t="s" s="3">
-        <v>304</v>
+        <v>396</v>
       </c>
       <c r="F277" t="s" s="3">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="G277" t="s" s="3">
         <v>302</v>
       </c>
       <c r="H277" t="n" s="4">
-        <v>11.96</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="278">
-      <c r="B278" t="s" s="3">
-        <v>426</v>
-      </c>
-      <c r="C278" t="s" s="3">
-        <v>299</v>
-      </c>
-      <c r="D278" s="3"/>
-      <c r="E278" t="s" s="3">
-        <v>304</v>
-      </c>
-      <c r="F278" t="s" s="3">
+      <c r="A278" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="H278" t="n" s="5">
+        <v>2665.39</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="s" s="2">
         <v>430</v>
-      </c>
-      <c r="G278" t="s" s="3">
-        <v>302</v>
-      </c>
-      <c r="H278" t="n" s="4">
-        <v>6.48</v>
-      </c>
-    </row>
-    <row r="279">
-      <c r="B279" t="s" s="3">
-        <v>426</v>
-      </c>
-      <c r="C279" t="s" s="3">
-        <v>299</v>
-      </c>
-      <c r="D279" s="3"/>
-      <c r="E279" t="s" s="3">
-        <v>304</v>
-      </c>
-      <c r="F279" t="s" s="3">
-        <v>431</v>
-      </c>
-      <c r="G279" t="s" s="3">
-        <v>302</v>
-      </c>
-      <c r="H279" t="n" s="4">
-        <v>8.2</v>
       </c>
     </row>
     <row r="280">
       <c r="B280" t="s" s="3">
-        <v>426</v>
+        <v>431</v>
       </c>
       <c r="C280" t="s" s="3">
         <v>299</v>
       </c>
       <c r="D280" s="3"/>
       <c r="E280" t="s" s="3">
-        <v>304</v>
+        <v>432</v>
       </c>
       <c r="F280" t="s" s="3">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="G280" t="s" s="3">
         <v>302</v>
       </c>
       <c r="H280" t="n" s="4">
-        <v>9.92</v>
+        <v>42.13</v>
       </c>
     </row>
     <row r="281">
       <c r="B281" t="s" s="3">
-        <v>426</v>
+        <v>434</v>
       </c>
       <c r="C281" t="s" s="3">
         <v>299</v>
@@ -7439,18 +7463,18 @@
         <v>304</v>
       </c>
       <c r="F281" t="s" s="3">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="G281" t="s" s="3">
         <v>302</v>
       </c>
       <c r="H281" t="n" s="4">
-        <v>1.24</v>
+        <v>1.83</v>
       </c>
     </row>
     <row r="282">
       <c r="B282" t="s" s="3">
-        <v>426</v>
+        <v>434</v>
       </c>
       <c r="C282" t="s" s="3">
         <v>299</v>
@@ -7460,21 +7484,21 @@
         <v>304</v>
       </c>
       <c r="F282" t="s" s="3">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="G282" t="s" s="3">
         <v>302</v>
       </c>
       <c r="H282" t="n" s="4">
-        <v>5.92</v>
+        <v>4.47</v>
       </c>
     </row>
     <row r="283">
       <c r="B283" t="s" s="3">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C283" t="s" s="3">
-        <v>436</v>
+        <v>299</v>
       </c>
       <c r="D283" s="3"/>
       <c r="E283" t="s" s="3">
@@ -7487,226 +7511,216 @@
         <v>302</v>
       </c>
       <c r="H283" t="n" s="4">
-        <v>-10.72</v>
+        <v>11.96</v>
       </c>
     </row>
     <row r="284">
       <c r="B284" t="s" s="3">
+        <v>434</v>
+      </c>
+      <c r="C284" t="s" s="3">
+        <v>299</v>
+      </c>
+      <c r="D284" s="3"/>
+      <c r="E284" t="s" s="3">
+        <v>304</v>
+      </c>
+      <c r="F284" t="s" s="3">
         <v>438</v>
-      </c>
-      <c r="C284" t="s" s="3">
-        <v>299</v>
-      </c>
-      <c r="D284" t="s" s="3">
-        <v>439</v>
-      </c>
-      <c r="E284" t="s" s="3">
-        <v>388</v>
-      </c>
-      <c r="F284" t="s" s="3">
-        <v>440</v>
       </c>
       <c r="G284" t="s" s="3">
         <v>302</v>
       </c>
       <c r="H284" t="n" s="4">
-        <v>-12.0</v>
+        <v>6.48</v>
       </c>
     </row>
     <row r="285">
       <c r="B285" t="s" s="3">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="C285" t="s" s="3">
         <v>299</v>
       </c>
-      <c r="D285" t="s" s="3">
+      <c r="D285" s="3"/>
+      <c r="E285" t="s" s="3">
+        <v>304</v>
+      </c>
+      <c r="F285" t="s" s="3">
         <v>439</v>
-      </c>
-      <c r="E285" t="s" s="3">
-        <v>388</v>
-      </c>
-      <c r="F285" t="s" s="3">
-        <v>441</v>
       </c>
       <c r="G285" t="s" s="3">
         <v>302</v>
       </c>
       <c r="H285" t="n" s="4">
-        <v>24.99</v>
+        <v>8.2</v>
       </c>
     </row>
     <row r="286">
       <c r="B286" t="s" s="3">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="C286" t="s" s="3">
         <v>299</v>
       </c>
-      <c r="D286" t="s" s="3">
-        <v>439</v>
-      </c>
+      <c r="D286" s="3"/>
       <c r="E286" t="s" s="3">
-        <v>388</v>
+        <v>304</v>
       </c>
       <c r="F286" t="s" s="3">
-        <v>416</v>
+        <v>440</v>
       </c>
       <c r="G286" t="s" s="3">
         <v>302</v>
       </c>
       <c r="H286" t="n" s="4">
-        <v>30.59</v>
+        <v>9.92</v>
       </c>
     </row>
     <row r="287">
       <c r="B287" t="s" s="3">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="C287" t="s" s="3">
         <v>299</v>
       </c>
-      <c r="D287" t="s" s="3">
-        <v>439</v>
-      </c>
+      <c r="D287" s="3"/>
       <c r="E287" t="s" s="3">
-        <v>388</v>
+        <v>304</v>
       </c>
       <c r="F287" t="s" s="3">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="G287" t="s" s="3">
         <v>302</v>
       </c>
       <c r="H287" t="n" s="4">
-        <v>59.99</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="288">
       <c r="B288" t="s" s="3">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="C288" t="s" s="3">
         <v>299</v>
       </c>
-      <c r="D288" t="s" s="3">
-        <v>439</v>
-      </c>
+      <c r="D288" s="3"/>
       <c r="E288" t="s" s="3">
-        <v>388</v>
+        <v>304</v>
       </c>
       <c r="F288" t="s" s="3">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="G288" t="s" s="3">
         <v>302</v>
       </c>
       <c r="H288" t="n" s="4">
-        <v>74.97</v>
+        <v>5.92</v>
       </c>
     </row>
     <row r="289">
       <c r="B289" t="s" s="3">
-        <v>438</v>
+        <v>443</v>
       </c>
       <c r="C289" t="s" s="3">
-        <v>299</v>
-      </c>
-      <c r="D289" t="n" s="3">
-        <v>8997855.0</v>
-      </c>
+        <v>444</v>
+      </c>
+      <c r="D289" s="3"/>
       <c r="E289" t="s" s="3">
-        <v>388</v>
+        <v>304</v>
       </c>
       <c r="F289" t="s" s="3">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="G289" t="s" s="3">
         <v>302</v>
       </c>
       <c r="H289" t="n" s="4">
-        <v>79.94</v>
+        <v>-10.72</v>
       </c>
     </row>
     <row r="290">
       <c r="B290" t="s" s="3">
-        <v>438</v>
+        <v>446</v>
       </c>
       <c r="C290" t="s" s="3">
         <v>299</v>
       </c>
-      <c r="D290" t="n" s="3">
-        <v>2343429.0</v>
+      <c r="D290" t="s" s="3">
+        <v>447</v>
       </c>
       <c r="E290" t="s" s="3">
-        <v>388</v>
+        <v>396</v>
       </c>
       <c r="F290" t="s" s="3">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="G290" t="s" s="3">
         <v>302</v>
       </c>
       <c r="H290" t="n" s="4">
-        <v>100.0</v>
+        <v>-12.0</v>
       </c>
     </row>
     <row r="291">
       <c r="B291" t="s" s="3">
-        <v>438</v>
+        <v>446</v>
       </c>
       <c r="C291" t="s" s="3">
         <v>299</v>
       </c>
       <c r="D291" t="s" s="3">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="E291" t="s" s="3">
-        <v>388</v>
+        <v>396</v>
       </c>
       <c r="F291" t="s" s="3">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="G291" t="s" s="3">
         <v>302</v>
       </c>
       <c r="H291" t="n" s="4">
-        <v>169.99</v>
+        <v>24.99</v>
       </c>
     </row>
     <row r="292">
       <c r="B292" t="s" s="3">
-        <v>438</v>
+        <v>446</v>
       </c>
       <c r="C292" t="s" s="3">
         <v>299</v>
       </c>
       <c r="D292" t="s" s="3">
-        <v>439</v>
+        <v>447</v>
       </c>
       <c r="E292" t="s" s="3">
-        <v>388</v>
+        <v>396</v>
       </c>
       <c r="F292" t="s" s="3">
-        <v>448</v>
+        <v>427</v>
       </c>
       <c r="G292" t="s" s="3">
         <v>302</v>
       </c>
       <c r="H292" t="n" s="4">
-        <v>358.0</v>
+        <v>30.59</v>
       </c>
     </row>
     <row r="293">
       <c r="B293" t="s" s="3">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="C293" t="s" s="3">
-        <v>436</v>
-      </c>
-      <c r="D293" s="3"/>
+        <v>299</v>
+      </c>
+      <c r="D293" t="s" s="3">
+        <v>447</v>
+      </c>
       <c r="E293" t="s" s="3">
-        <v>388</v>
+        <v>396</v>
       </c>
       <c r="F293" t="s" s="3">
         <v>450</v>
@@ -7715,247 +7729,245 @@
         <v>302</v>
       </c>
       <c r="H293" t="n" s="4">
-        <v>-6.26</v>
+        <v>59.99</v>
       </c>
     </row>
     <row r="294">
-      <c r="A294" t="s" s="2">
+      <c r="B294" t="s" s="3">
+        <v>446</v>
+      </c>
+      <c r="C294" t="s" s="3">
+        <v>299</v>
+      </c>
+      <c r="D294" t="s" s="3">
+        <v>447</v>
+      </c>
+      <c r="E294" t="s" s="3">
+        <v>396</v>
+      </c>
+      <c r="F294" t="s" s="3">
         <v>451</v>
       </c>
-      <c r="H294" t="n" s="5">
-        <v>961.64</v>
+      <c r="G294" t="s" s="3">
+        <v>302</v>
+      </c>
+      <c r="H294" t="n" s="4">
+        <v>74.97</v>
       </c>
     </row>
     <row r="295">
-      <c r="A295" t="s" s="2">
+      <c r="B295" t="s" s="3">
+        <v>446</v>
+      </c>
+      <c r="C295" t="s" s="3">
+        <v>299</v>
+      </c>
+      <c r="D295" t="n" s="3">
+        <v>8997855.0</v>
+      </c>
+      <c r="E295" t="s" s="3">
+        <v>396</v>
+      </c>
+      <c r="F295" t="s" s="3">
         <v>452</v>
+      </c>
+      <c r="G295" t="s" s="3">
+        <v>302</v>
+      </c>
+      <c r="H295" t="n" s="4">
+        <v>79.94</v>
       </c>
     </row>
     <row r="296">
       <c r="B296" t="s" s="3">
-        <v>275</v>
+        <v>446</v>
       </c>
       <c r="C296" t="s" s="3">
-        <v>290</v>
-      </c>
-      <c r="D296" s="3"/>
+        <v>299</v>
+      </c>
+      <c r="D296" t="n" s="3">
+        <v>2343429.0</v>
+      </c>
       <c r="E296" t="s" s="3">
+        <v>396</v>
+      </c>
+      <c r="F296" t="s" s="3">
         <v>453</v>
       </c>
-      <c r="F296" t="s" s="3">
-        <v>454</v>
-      </c>
       <c r="G296" t="s" s="3">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="H296" t="n" s="4">
-        <v>1000.0</v>
+        <v>100.0</v>
       </c>
     </row>
     <row r="297">
       <c r="B297" t="s" s="3">
-        <v>275</v>
+        <v>446</v>
       </c>
       <c r="C297" t="s" s="3">
-        <v>290</v>
-      </c>
-      <c r="D297" s="3"/>
+        <v>299</v>
+      </c>
+      <c r="D297" t="s" s="3">
+        <v>454</v>
+      </c>
       <c r="E297" t="s" s="3">
-        <v>453</v>
+        <v>396</v>
       </c>
       <c r="F297" t="s" s="3">
         <v>455</v>
       </c>
       <c r="G297" t="s" s="3">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="H297" t="n" s="4">
-        <v>338.99</v>
+        <v>169.99</v>
       </c>
     </row>
     <row r="298">
       <c r="B298" t="s" s="3">
-        <v>275</v>
+        <v>446</v>
       </c>
       <c r="C298" t="s" s="3">
-        <v>290</v>
-      </c>
-      <c r="D298" s="3"/>
+        <v>299</v>
+      </c>
+      <c r="D298" t="s" s="3">
+        <v>447</v>
+      </c>
       <c r="E298" t="s" s="3">
-        <v>453</v>
+        <v>396</v>
       </c>
       <c r="F298" t="s" s="3">
         <v>456</v>
       </c>
       <c r="G298" t="s" s="3">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="H298" t="n" s="4">
-        <v>-500.0</v>
+        <v>358.0</v>
       </c>
     </row>
     <row r="299">
       <c r="B299" t="s" s="3">
-        <v>275</v>
+        <v>457</v>
       </c>
       <c r="C299" t="s" s="3">
-        <v>290</v>
+        <v>444</v>
       </c>
       <c r="D299" s="3"/>
       <c r="E299" t="s" s="3">
-        <v>453</v>
+        <v>396</v>
       </c>
       <c r="F299" t="s" s="3">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="G299" t="s" s="3">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="H299" t="n" s="4">
-        <v>3185.0</v>
+        <v>-6.26</v>
       </c>
     </row>
     <row r="300">
-      <c r="B300" t="s" s="3">
-        <v>458</v>
-      </c>
-      <c r="C300" t="s" s="3">
-        <v>299</v>
-      </c>
-      <c r="D300" t="n" s="3">
-        <v>550835.0</v>
-      </c>
-      <c r="E300" t="s" s="3">
-        <v>304</v>
-      </c>
-      <c r="F300" t="s" s="3">
+      <c r="A300" t="s" s="2">
         <v>459</v>
       </c>
-      <c r="G300" t="s" s="3">
-        <v>302</v>
-      </c>
-      <c r="H300" t="n" s="4">
-        <v>2.0</v>
+      <c r="H300" t="n" s="5">
+        <v>961.64</v>
       </c>
     </row>
     <row r="301">
-      <c r="B301" t="s" s="3">
-        <v>458</v>
-      </c>
-      <c r="C301" t="s" s="3">
-        <v>299</v>
-      </c>
-      <c r="D301" t="n" s="3">
-        <v>550835.0</v>
-      </c>
-      <c r="E301" t="s" s="3">
-        <v>304</v>
-      </c>
-      <c r="F301" t="s" s="3">
-        <v>433</v>
-      </c>
-      <c r="G301" t="s" s="3">
-        <v>302</v>
-      </c>
-      <c r="H301" t="n" s="4">
-        <v>0.79</v>
+      <c r="A301" t="s" s="2">
+        <v>460</v>
       </c>
     </row>
     <row r="302">
       <c r="B302" t="s" s="3">
-        <v>458</v>
+        <v>275</v>
       </c>
       <c r="C302" t="s" s="3">
-        <v>299</v>
-      </c>
-      <c r="D302" t="n" s="3">
-        <v>550835.0</v>
-      </c>
+        <v>290</v>
+      </c>
+      <c r="D302" s="3"/>
       <c r="E302" t="s" s="3">
-        <v>304</v>
+        <v>461</v>
       </c>
       <c r="F302" t="s" s="3">
-        <v>427</v>
+        <v>462</v>
       </c>
       <c r="G302" t="s" s="3">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="H302" t="n" s="4">
-        <v>0.39</v>
+        <v>1000.0</v>
       </c>
     </row>
     <row r="303">
       <c r="B303" t="s" s="3">
-        <v>458</v>
+        <v>275</v>
       </c>
       <c r="C303" t="s" s="3">
-        <v>299</v>
-      </c>
-      <c r="D303" t="n" s="3">
-        <v>550835.0</v>
-      </c>
+        <v>290</v>
+      </c>
+      <c r="D303" s="3"/>
       <c r="E303" t="s" s="3">
-        <v>304</v>
+        <v>461</v>
       </c>
       <c r="F303" t="s" s="3">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="G303" t="s" s="3">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="H303" t="n" s="4">
-        <v>2.64</v>
+        <v>338.99</v>
       </c>
     </row>
     <row r="304">
       <c r="B304" t="s" s="3">
-        <v>458</v>
+        <v>275</v>
       </c>
       <c r="C304" t="s" s="3">
-        <v>299</v>
-      </c>
-      <c r="D304" t="n" s="3">
-        <v>550835.0</v>
-      </c>
+        <v>290</v>
+      </c>
+      <c r="D304" s="3"/>
       <c r="E304" t="s" s="3">
-        <v>304</v>
+        <v>461</v>
       </c>
       <c r="F304" t="s" s="3">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="G304" t="s" s="3">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="H304" t="n" s="4">
-        <v>5.0</v>
+        <v>-500.0</v>
       </c>
     </row>
     <row r="305">
       <c r="B305" t="s" s="3">
-        <v>458</v>
+        <v>275</v>
       </c>
       <c r="C305" t="s" s="3">
-        <v>299</v>
-      </c>
-      <c r="D305" t="n" s="3">
-        <v>550835.0</v>
-      </c>
+        <v>290</v>
+      </c>
+      <c r="D305" s="3"/>
       <c r="E305" t="s" s="3">
-        <v>304</v>
+        <v>461</v>
       </c>
       <c r="F305" t="s" s="3">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="G305" t="s" s="3">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="H305" t="n" s="4">
-        <v>3.24</v>
+        <v>3185.0</v>
       </c>
     </row>
     <row r="306">
       <c r="B306" t="s" s="3">
-        <v>458</v>
+        <v>466</v>
       </c>
       <c r="C306" t="s" s="3">
         <v>299</v>
@@ -7967,55 +7979,59 @@
         <v>304</v>
       </c>
       <c r="F306" t="s" s="3">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="G306" t="s" s="3">
         <v>302</v>
       </c>
       <c r="H306" t="n" s="4">
-        <v>2.64</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="307">
       <c r="B307" t="s" s="3">
-        <v>280</v>
+        <v>466</v>
       </c>
       <c r="C307" t="s" s="3">
-        <v>290</v>
-      </c>
-      <c r="D307" s="3"/>
+        <v>299</v>
+      </c>
+      <c r="D307" t="n" s="3">
+        <v>550835.0</v>
+      </c>
       <c r="E307" t="s" s="3">
-        <v>453</v>
+        <v>304</v>
       </c>
       <c r="F307" t="s" s="3">
-        <v>464</v>
+        <v>441</v>
       </c>
       <c r="G307" t="s" s="3">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="H307" t="n" s="4">
-        <v>610.65</v>
+        <v>0.79</v>
       </c>
     </row>
     <row r="308">
       <c r="B308" t="s" s="3">
-        <v>280</v>
+        <v>466</v>
       </c>
       <c r="C308" t="s" s="3">
-        <v>290</v>
-      </c>
-      <c r="D308" s="3"/>
+        <v>299</v>
+      </c>
+      <c r="D308" t="n" s="3">
+        <v>550835.0</v>
+      </c>
       <c r="E308" t="s" s="3">
-        <v>453</v>
+        <v>304</v>
       </c>
       <c r="F308" t="s" s="3">
-        <v>465</v>
+        <v>435</v>
       </c>
       <c r="G308" t="s" s="3">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="H308" t="n" s="4">
-        <v>100.0</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="309">
@@ -8023,20 +8039,22 @@
         <v>466</v>
       </c>
       <c r="C309" t="s" s="3">
-        <v>290</v>
-      </c>
-      <c r="D309" s="3"/>
+        <v>299</v>
+      </c>
+      <c r="D309" t="n" s="3">
+        <v>550835.0</v>
+      </c>
       <c r="E309" t="s" s="3">
-        <v>453</v>
+        <v>304</v>
       </c>
       <c r="F309" t="s" s="3">
-        <v>455</v>
+        <v>468</v>
       </c>
       <c r="G309" t="s" s="3">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="H309" t="n" s="4">
-        <v>42.36</v>
+        <v>2.64</v>
       </c>
     </row>
     <row r="310">
@@ -8044,407 +8062,413 @@
         <v>466</v>
       </c>
       <c r="C310" t="s" s="3">
-        <v>290</v>
-      </c>
-      <c r="D310" s="3"/>
+        <v>299</v>
+      </c>
+      <c r="D310" t="n" s="3">
+        <v>550835.0</v>
+      </c>
       <c r="E310" t="s" s="3">
-        <v>453</v>
+        <v>304</v>
       </c>
       <c r="F310" t="s" s="3">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="G310" t="s" s="3">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="H310" t="n" s="4">
-        <v>523.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="311">
-      <c r="A311" t="s" s="2">
-        <v>468</v>
-      </c>
-      <c r="H311" t="n" s="5">
-        <v>5316.7</v>
+      <c r="B311" t="s" s="3">
+        <v>466</v>
+      </c>
+      <c r="C311" t="s" s="3">
+        <v>299</v>
+      </c>
+      <c r="D311" t="n" s="3">
+        <v>550835.0</v>
+      </c>
+      <c r="E311" t="s" s="3">
+        <v>304</v>
+      </c>
+      <c r="F311" t="s" s="3">
+        <v>470</v>
+      </c>
+      <c r="G311" t="s" s="3">
+        <v>302</v>
+      </c>
+      <c r="H311" t="n" s="4">
+        <v>3.24</v>
       </c>
     </row>
     <row r="312">
-      <c r="A312" t="s" s="2">
-        <v>469</v>
+      <c r="B312" t="s" s="3">
+        <v>466</v>
+      </c>
+      <c r="C312" t="s" s="3">
+        <v>299</v>
+      </c>
+      <c r="D312" t="n" s="3">
+        <v>550835.0</v>
+      </c>
+      <c r="E312" t="s" s="3">
+        <v>304</v>
+      </c>
+      <c r="F312" t="s" s="3">
+        <v>471</v>
+      </c>
+      <c r="G312" t="s" s="3">
+        <v>302</v>
+      </c>
+      <c r="H312" t="n" s="4">
+        <v>2.64</v>
       </c>
     </row>
     <row r="313">
       <c r="B313" t="s" s="3">
-        <v>16</v>
+        <v>280</v>
       </c>
       <c r="C313" t="s" s="3">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="D313" s="3"/>
       <c r="E313" t="s" s="3">
-        <v>316</v>
+        <v>461</v>
       </c>
       <c r="F313" t="s" s="3">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="G313" t="s" s="3">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="H313" t="n" s="4">
-        <v>52.45</v>
+        <v>610.65</v>
       </c>
     </row>
     <row r="314">
       <c r="B314" t="s" s="3">
-        <v>16</v>
+        <v>280</v>
       </c>
       <c r="C314" t="s" s="3">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="D314" s="3"/>
       <c r="E314" t="s" s="3">
-        <v>316</v>
+        <v>461</v>
       </c>
       <c r="F314" t="s" s="3">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="G314" t="s" s="3">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="H314" t="n" s="4">
-        <v>26.35</v>
+        <v>100.0</v>
       </c>
     </row>
     <row r="315">
       <c r="B315" t="s" s="3">
-        <v>16</v>
+        <v>474</v>
       </c>
       <c r="C315" t="s" s="3">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="D315" s="3"/>
       <c r="E315" t="s" s="3">
-        <v>316</v>
+        <v>461</v>
       </c>
       <c r="F315" t="s" s="3">
-        <v>472</v>
+        <v>463</v>
       </c>
       <c r="G315" t="s" s="3">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="H315" t="n" s="4">
-        <v>52.45</v>
+        <v>42.36</v>
       </c>
     </row>
     <row r="316">
       <c r="B316" t="s" s="3">
-        <v>209</v>
+        <v>474</v>
       </c>
       <c r="C316" t="s" s="3">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="D316" s="3"/>
       <c r="E316" t="s" s="3">
-        <v>316</v>
+        <v>461</v>
       </c>
       <c r="F316" t="s" s="3">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="G316" t="s" s="3">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="H316" t="n" s="4">
-        <v>10.0</v>
+        <v>523.0</v>
       </c>
     </row>
     <row r="317">
-      <c r="B317" t="s" s="3">
-        <v>209</v>
-      </c>
-      <c r="C317" t="s" s="3">
-        <v>299</v>
-      </c>
-      <c r="D317" s="3"/>
-      <c r="E317" t="s" s="3">
-        <v>316</v>
-      </c>
-      <c r="F317" t="s" s="3">
-        <v>474</v>
-      </c>
-      <c r="G317" t="s" s="3">
-        <v>302</v>
-      </c>
-      <c r="H317" t="n" s="4">
-        <v>13.3</v>
+      <c r="A317" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="H317" t="n" s="5">
+        <v>5316.7</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="s" s="2">
-        <v>475</v>
-      </c>
-      <c r="H318" t="n" s="5">
-        <v>154.55</v>
+        <v>477</v>
       </c>
     </row>
     <row r="319">
-      <c r="A319" t="s" s="2">
-        <v>476</v>
+      <c r="B319" t="s" s="3">
+        <v>16</v>
+      </c>
+      <c r="C319" t="s" s="3">
+        <v>299</v>
+      </c>
+      <c r="D319" s="3"/>
+      <c r="E319" t="s" s="3">
+        <v>318</v>
+      </c>
+      <c r="F319" t="s" s="3">
+        <v>478</v>
+      </c>
+      <c r="G319" t="s" s="3">
+        <v>302</v>
+      </c>
+      <c r="H319" t="n" s="4">
+        <v>52.45</v>
       </c>
     </row>
     <row r="320">
       <c r="B320" t="s" s="3">
-        <v>209</v>
+        <v>16</v>
       </c>
       <c r="C320" t="s" s="3">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="D320" s="3"/>
       <c r="E320" t="s" s="3">
-        <v>477</v>
+        <v>318</v>
       </c>
       <c r="F320" t="s" s="3">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="G320" t="s" s="3">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="H320" t="n" s="4">
-        <v>4.99</v>
+        <v>52.45</v>
       </c>
     </row>
     <row r="321">
-      <c r="A321" t="s" s="2">
-        <v>479</v>
-      </c>
-      <c r="H321" t="n" s="5">
-        <v>4.99</v>
+      <c r="B321" t="s" s="3">
+        <v>16</v>
+      </c>
+      <c r="C321" t="s" s="3">
+        <v>299</v>
+      </c>
+      <c r="D321" s="3"/>
+      <c r="E321" t="s" s="3">
+        <v>318</v>
+      </c>
+      <c r="F321" t="s" s="3">
+        <v>480</v>
+      </c>
+      <c r="G321" t="s" s="3">
+        <v>302</v>
+      </c>
+      <c r="H321" t="n" s="4">
+        <v>26.35</v>
       </c>
     </row>
     <row r="322">
-      <c r="A322" t="s" s="2">
-        <v>480</v>
+      <c r="B322" t="s" s="3">
+        <v>209</v>
+      </c>
+      <c r="C322" t="s" s="3">
+        <v>299</v>
+      </c>
+      <c r="D322" s="3"/>
+      <c r="E322" t="s" s="3">
+        <v>318</v>
+      </c>
+      <c r="F322" t="s" s="3">
+        <v>481</v>
+      </c>
+      <c r="G322" t="s" s="3">
+        <v>302</v>
+      </c>
+      <c r="H322" t="n" s="4">
+        <v>13.3</v>
       </c>
     </row>
     <row r="323">
       <c r="B323" t="s" s="3">
-        <v>98</v>
+        <v>209</v>
       </c>
       <c r="C323" t="s" s="3">
         <v>299</v>
       </c>
       <c r="D323" s="3"/>
       <c r="E323" t="s" s="3">
-        <v>481</v>
+        <v>318</v>
       </c>
       <c r="F323" t="s" s="3">
         <v>482</v>
       </c>
       <c r="G323" t="s" s="3">
-        <v>65</v>
+        <v>302</v>
       </c>
       <c r="H323" t="n" s="4">
-        <v>27.69</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="324">
-      <c r="B324" t="s" s="3">
+      <c r="A324" t="s" s="2">
         <v>483</v>
       </c>
-      <c r="C324" t="s" s="3">
-        <v>299</v>
-      </c>
-      <c r="D324" s="3"/>
-      <c r="E324" t="s" s="3">
-        <v>481</v>
-      </c>
-      <c r="F324" t="s" s="3">
+      <c r="H324" t="n" s="5">
+        <v>154.55</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="s" s="2">
         <v>484</v>
-      </c>
-      <c r="G324" t="s" s="3">
-        <v>65</v>
-      </c>
-      <c r="H324" t="n" s="4">
-        <v>3.2</v>
-      </c>
-    </row>
-    <row r="325">
-      <c r="B325" t="s" s="3">
-        <v>485</v>
-      </c>
-      <c r="C325" t="s" s="3">
-        <v>299</v>
-      </c>
-      <c r="D325" s="3"/>
-      <c r="E325" t="s" s="3">
-        <v>481</v>
-      </c>
-      <c r="F325" t="s" s="3">
-        <v>486</v>
-      </c>
-      <c r="G325" t="s" s="3">
-        <v>65</v>
-      </c>
-      <c r="H325" t="n" s="4">
-        <v>1.75</v>
       </c>
     </row>
     <row r="326">
       <c r="B326" t="s" s="3">
-        <v>38</v>
+        <v>209</v>
       </c>
       <c r="C326" t="s" s="3">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="D326" s="3"/>
       <c r="E326" t="s" s="3">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="F326" t="s" s="3">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="G326" t="s" s="3">
-        <v>65</v>
+        <v>293</v>
       </c>
       <c r="H326" t="n" s="4">
-        <v>3.2</v>
+        <v>4.99</v>
       </c>
     </row>
     <row r="327">
-      <c r="B327" t="s" s="3">
-        <v>113</v>
-      </c>
-      <c r="C327" t="s" s="3">
-        <v>299</v>
-      </c>
-      <c r="D327" s="3"/>
-      <c r="E327" t="s" s="3">
-        <v>481</v>
-      </c>
-      <c r="F327" t="s" s="3">
-        <v>484</v>
-      </c>
-      <c r="G327" t="s" s="3">
-        <v>65</v>
-      </c>
-      <c r="H327" t="n" s="4">
-        <v>3.2</v>
+      <c r="A327" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="H327" t="n" s="5">
+        <v>4.99</v>
       </c>
     </row>
     <row r="328">
-      <c r="B328" t="s" s="3">
-        <v>40</v>
-      </c>
-      <c r="C328" t="s" s="3">
-        <v>299</v>
-      </c>
-      <c r="D328" s="3"/>
-      <c r="E328" t="s" s="3">
-        <v>481</v>
-      </c>
-      <c r="F328" t="s" s="3">
-        <v>487</v>
-      </c>
-      <c r="G328" t="s" s="3">
-        <v>65</v>
-      </c>
-      <c r="H328" t="n" s="4">
-        <v>6.99</v>
+      <c r="A328" t="s" s="2">
+        <v>488</v>
       </c>
     </row>
     <row r="329">
       <c r="B329" t="s" s="3">
-        <v>128</v>
+        <v>98</v>
       </c>
       <c r="C329" t="s" s="3">
         <v>299</v>
       </c>
       <c r="D329" s="3"/>
       <c r="E329" t="s" s="3">
-        <v>481</v>
+        <v>489</v>
       </c>
       <c r="F329" t="s" s="3">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="G329" t="s" s="3">
         <v>65</v>
       </c>
       <c r="H329" t="n" s="4">
-        <v>11.04</v>
+        <v>27.69</v>
       </c>
     </row>
     <row r="330">
       <c r="B330" t="s" s="3">
-        <v>133</v>
+        <v>491</v>
       </c>
       <c r="C330" t="s" s="3">
         <v>299</v>
       </c>
       <c r="D330" s="3"/>
       <c r="E330" t="s" s="3">
-        <v>481</v>
+        <v>489</v>
       </c>
       <c r="F330" t="s" s="3">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="G330" t="s" s="3">
         <v>65</v>
       </c>
       <c r="H330" t="n" s="4">
-        <v>4.08</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="331">
       <c r="B331" t="s" s="3">
-        <v>45</v>
+        <v>493</v>
       </c>
       <c r="C331" t="s" s="3">
         <v>299</v>
       </c>
       <c r="D331" s="3"/>
       <c r="E331" t="s" s="3">
-        <v>481</v>
+        <v>489</v>
       </c>
       <c r="F331" t="s" s="3">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="G331" t="s" s="3">
         <v>65</v>
       </c>
       <c r="H331" t="n" s="4">
-        <v>13.08</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="332">
       <c r="B332" t="s" s="3">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="C332" t="s" s="3">
         <v>299</v>
       </c>
       <c r="D332" s="3"/>
       <c r="E332" t="s" s="3">
-        <v>481</v>
+        <v>489</v>
       </c>
       <c r="F332" t="s" s="3">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="G332" t="s" s="3">
         <v>65</v>
       </c>
       <c r="H332" t="n" s="4">
-        <v>10.18</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="333">
       <c r="B333" t="s" s="3">
-        <v>164</v>
+        <v>113</v>
       </c>
       <c r="C333" t="s" s="3">
         <v>299</v>
       </c>
       <c r="D333" s="3"/>
       <c r="E333" t="s" s="3">
-        <v>481</v>
+        <v>489</v>
       </c>
       <c r="F333" t="s" s="3">
         <v>492</v>
@@ -8453,312 +8477,300 @@
         <v>65</v>
       </c>
       <c r="H333" t="n" s="4">
-        <v>15.4</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="334">
       <c r="B334" t="s" s="3">
-        <v>184</v>
+        <v>40</v>
       </c>
       <c r="C334" t="s" s="3">
         <v>299</v>
       </c>
       <c r="D334" s="3"/>
       <c r="E334" t="s" s="3">
-        <v>481</v>
+        <v>489</v>
       </c>
       <c r="F334" t="s" s="3">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="G334" t="s" s="3">
         <v>65</v>
       </c>
       <c r="H334" t="n" s="4">
-        <v>3.5</v>
+        <v>6.99</v>
       </c>
     </row>
     <row r="335">
       <c r="B335" t="s" s="3">
-        <v>57</v>
+        <v>128</v>
       </c>
       <c r="C335" t="s" s="3">
         <v>299</v>
       </c>
       <c r="D335" s="3"/>
       <c r="E335" t="s" s="3">
-        <v>481</v>
+        <v>489</v>
       </c>
       <c r="F335" t="s" s="3">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="G335" t="s" s="3">
         <v>65</v>
       </c>
       <c r="H335" t="n" s="4">
-        <v>6.7</v>
+        <v>11.04</v>
       </c>
     </row>
     <row r="336">
       <c r="B336" t="s" s="3">
-        <v>209</v>
+        <v>133</v>
       </c>
       <c r="C336" t="s" s="3">
         <v>299</v>
       </c>
       <c r="D336" s="3"/>
       <c r="E336" t="s" s="3">
-        <v>481</v>
+        <v>489</v>
       </c>
       <c r="F336" t="s" s="3">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="G336" t="s" s="3">
         <v>65</v>
       </c>
       <c r="H336" t="n" s="4">
-        <v>19.48</v>
+        <v>4.08</v>
       </c>
     </row>
     <row r="337">
       <c r="B337" t="s" s="3">
-        <v>262</v>
+        <v>45</v>
       </c>
       <c r="C337" t="s" s="3">
         <v>299</v>
       </c>
       <c r="D337" s="3"/>
       <c r="E337" t="s" s="3">
-        <v>481</v>
+        <v>489</v>
       </c>
       <c r="F337" t="s" s="3">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="G337" t="s" s="3">
         <v>65</v>
       </c>
       <c r="H337" t="n" s="4">
-        <v>26.78</v>
+        <v>13.08</v>
       </c>
     </row>
     <row r="338">
       <c r="B338" t="s" s="3">
-        <v>435</v>
+        <v>48</v>
       </c>
       <c r="C338" t="s" s="3">
         <v>299</v>
       </c>
       <c r="D338" s="3"/>
       <c r="E338" t="s" s="3">
-        <v>481</v>
+        <v>489</v>
       </c>
       <c r="F338" t="s" s="3">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="G338" t="s" s="3">
         <v>65</v>
       </c>
       <c r="H338" t="n" s="4">
-        <v>10.78</v>
+        <v>10.18</v>
       </c>
     </row>
     <row r="339">
       <c r="B339" t="s" s="3">
-        <v>466</v>
+        <v>164</v>
       </c>
       <c r="C339" t="s" s="3">
         <v>299</v>
       </c>
       <c r="D339" s="3"/>
       <c r="E339" t="s" s="3">
-        <v>481</v>
+        <v>489</v>
       </c>
       <c r="F339" t="s" s="3">
-        <v>484</v>
+        <v>500</v>
       </c>
       <c r="G339" t="s" s="3">
         <v>65</v>
       </c>
       <c r="H339" t="n" s="4">
-        <v>3.2</v>
+        <v>15.4</v>
       </c>
     </row>
     <row r="340">
-      <c r="A340" t="s" s="2">
-        <v>498</v>
-      </c>
-      <c r="H340" t="n" s="5">
-        <v>170.25</v>
+      <c r="B340" t="s" s="3">
+        <v>184</v>
+      </c>
+      <c r="C340" t="s" s="3">
+        <v>299</v>
+      </c>
+      <c r="D340" s="3"/>
+      <c r="E340" t="s" s="3">
+        <v>489</v>
+      </c>
+      <c r="F340" t="s" s="3">
+        <v>501</v>
+      </c>
+      <c r="G340" t="s" s="3">
+        <v>65</v>
+      </c>
+      <c r="H340" t="n" s="4">
+        <v>3.5</v>
       </c>
     </row>
     <row r="341">
-      <c r="A341" t="s" s="2">
-        <v>499</v>
+      <c r="B341" t="s" s="3">
+        <v>57</v>
+      </c>
+      <c r="C341" t="s" s="3">
+        <v>299</v>
+      </c>
+      <c r="D341" s="3"/>
+      <c r="E341" t="s" s="3">
+        <v>489</v>
+      </c>
+      <c r="F341" t="s" s="3">
+        <v>502</v>
+      </c>
+      <c r="G341" t="s" s="3">
+        <v>65</v>
+      </c>
+      <c r="H341" t="n" s="4">
+        <v>6.7</v>
       </c>
     </row>
     <row r="342">
       <c r="B342" t="s" s="3">
-        <v>423</v>
+        <v>209</v>
       </c>
       <c r="C342" t="s" s="3">
         <v>299</v>
       </c>
-      <c r="D342" t="n" s="3">
-        <v>698456.0</v>
-      </c>
+      <c r="D342" s="3"/>
       <c r="E342" t="s" s="3">
-        <v>500</v>
+        <v>489</v>
       </c>
       <c r="F342" t="s" s="3">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="G342" t="s" s="3">
-        <v>302</v>
+        <v>65</v>
       </c>
       <c r="H342" t="n" s="4">
-        <v>200.0</v>
+        <v>19.48</v>
       </c>
     </row>
     <row r="343">
       <c r="B343" t="s" s="3">
-        <v>502</v>
+        <v>262</v>
       </c>
       <c r="C343" t="s" s="3">
         <v>299</v>
       </c>
-      <c r="D343" t="n" s="3">
-        <v>430970.0</v>
-      </c>
+      <c r="D343" s="3"/>
       <c r="E343" t="s" s="3">
-        <v>500</v>
+        <v>489</v>
       </c>
       <c r="F343" t="s" s="3">
-        <v>416</v>
+        <v>504</v>
       </c>
       <c r="G343" t="s" s="3">
-        <v>302</v>
+        <v>65</v>
       </c>
       <c r="H343" t="n" s="4">
-        <v>38.62</v>
+        <v>26.78</v>
       </c>
     </row>
     <row r="344">
       <c r="B344" t="s" s="3">
-        <v>502</v>
+        <v>443</v>
       </c>
       <c r="C344" t="s" s="3">
         <v>299</v>
       </c>
-      <c r="D344" t="n" s="3">
-        <v>430970.0</v>
-      </c>
+      <c r="D344" s="3"/>
       <c r="E344" t="s" s="3">
-        <v>500</v>
+        <v>489</v>
       </c>
       <c r="F344" t="s" s="3">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="G344" t="s" s="3">
-        <v>302</v>
+        <v>65</v>
       </c>
       <c r="H344" t="n" s="4">
-        <v>46.77</v>
+        <v>10.78</v>
       </c>
     </row>
     <row r="345">
       <c r="B345" t="s" s="3">
-        <v>502</v>
+        <v>474</v>
       </c>
       <c r="C345" t="s" s="3">
         <v>299</v>
       </c>
-      <c r="D345" t="n" s="3">
-        <v>430970.0</v>
-      </c>
+      <c r="D345" s="3"/>
       <c r="E345" t="s" s="3">
-        <v>500</v>
+        <v>489</v>
       </c>
       <c r="F345" t="s" s="3">
-        <v>504</v>
+        <v>492</v>
       </c>
       <c r="G345" t="s" s="3">
-        <v>302</v>
+        <v>65</v>
       </c>
       <c r="H345" t="n" s="4">
-        <v>172.49</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="346">
-      <c r="B346" t="s" s="3">
-        <v>502</v>
-      </c>
-      <c r="C346" t="s" s="3">
-        <v>299</v>
-      </c>
-      <c r="D346" t="n" s="3">
-        <v>430970.0</v>
-      </c>
-      <c r="E346" t="s" s="3">
-        <v>500</v>
-      </c>
-      <c r="F346" t="s" s="3">
-        <v>505</v>
-      </c>
-      <c r="G346" t="s" s="3">
-        <v>302</v>
-      </c>
-      <c r="H346" t="n" s="4">
-        <v>180.26</v>
+      <c r="A346" t="s" s="2">
+        <v>506</v>
+      </c>
+      <c r="H346" t="n" s="5">
+        <v>170.25</v>
       </c>
     </row>
     <row r="347">
-      <c r="B347" t="s" s="3">
-        <v>502</v>
-      </c>
-      <c r="C347" t="s" s="3">
-        <v>299</v>
-      </c>
-      <c r="D347" t="n" s="3">
-        <v>430970.0</v>
-      </c>
-      <c r="E347" t="s" s="3">
-        <v>500</v>
-      </c>
-      <c r="F347" t="s" s="3">
-        <v>506</v>
-      </c>
-      <c r="G347" t="s" s="3">
-        <v>302</v>
-      </c>
-      <c r="H347" t="n" s="4">
-        <v>37.34</v>
+      <c r="A347" t="s" s="2">
+        <v>507</v>
       </c>
     </row>
     <row r="348">
       <c r="B348" t="s" s="3">
-        <v>502</v>
+        <v>431</v>
       </c>
       <c r="C348" t="s" s="3">
         <v>299</v>
       </c>
       <c r="D348" t="n" s="3">
-        <v>430970.0</v>
+        <v>698456.0</v>
       </c>
       <c r="E348" t="s" s="3">
-        <v>500</v>
+        <v>508</v>
       </c>
       <c r="F348" t="s" s="3">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="G348" t="s" s="3">
         <v>302</v>
       </c>
       <c r="H348" t="n" s="4">
-        <v>4.84</v>
+        <v>200.0</v>
       </c>
     </row>
     <row r="349">
       <c r="B349" t="s" s="3">
-        <v>502</v>
+        <v>510</v>
       </c>
       <c r="C349" t="s" s="3">
         <v>299</v>
@@ -8767,21 +8779,21 @@
         <v>430970.0</v>
       </c>
       <c r="E349" t="s" s="3">
-        <v>500</v>
+        <v>508</v>
       </c>
       <c r="F349" t="s" s="3">
-        <v>501</v>
+        <v>511</v>
       </c>
       <c r="G349" t="s" s="3">
         <v>302</v>
       </c>
       <c r="H349" t="n" s="4">
-        <v>-200.0</v>
+        <v>46.77</v>
       </c>
     </row>
     <row r="350">
       <c r="B350" t="s" s="3">
-        <v>502</v>
+        <v>510</v>
       </c>
       <c r="C350" t="s" s="3">
         <v>299</v>
@@ -8790,163 +8802,202 @@
         <v>430970.0</v>
       </c>
       <c r="E350" t="s" s="3">
-        <v>500</v>
+        <v>508</v>
       </c>
       <c r="F350" t="s" s="3">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="G350" t="s" s="3">
         <v>302</v>
       </c>
       <c r="H350" t="n" s="4">
-        <v>35.03</v>
+        <v>172.49</v>
       </c>
     </row>
     <row r="351">
       <c r="B351" t="s" s="3">
-        <v>458</v>
+        <v>510</v>
       </c>
       <c r="C351" t="s" s="3">
         <v>299</v>
       </c>
       <c r="D351" t="n" s="3">
-        <v>550835.0</v>
+        <v>430970.0</v>
       </c>
       <c r="E351" t="s" s="3">
-        <v>304</v>
+        <v>508</v>
       </c>
       <c r="F351" t="s" s="3">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="G351" t="s" s="3">
         <v>302</v>
       </c>
       <c r="H351" t="n" s="4">
-        <v>4.76</v>
+        <v>180.26</v>
       </c>
     </row>
     <row r="352">
-      <c r="A352" t="s" s="2">
+      <c r="B352" t="s" s="3">
         <v>510</v>
       </c>
-      <c r="H352" t="n" s="5">
-        <v>520.11</v>
+      <c r="C352" t="s" s="3">
+        <v>299</v>
+      </c>
+      <c r="D352" t="n" s="3">
+        <v>430970.0</v>
+      </c>
+      <c r="E352" t="s" s="3">
+        <v>508</v>
+      </c>
+      <c r="F352" t="s" s="3">
+        <v>514</v>
+      </c>
+      <c r="G352" t="s" s="3">
+        <v>302</v>
+      </c>
+      <c r="H352" t="n" s="4">
+        <v>37.34</v>
       </c>
     </row>
     <row r="353">
-      <c r="A353" t="s" s="2">
-        <v>511</v>
+      <c r="B353" t="s" s="3">
+        <v>510</v>
+      </c>
+      <c r="C353" t="s" s="3">
+        <v>299</v>
+      </c>
+      <c r="D353" t="n" s="3">
+        <v>430970.0</v>
+      </c>
+      <c r="E353" t="s" s="3">
+        <v>508</v>
+      </c>
+      <c r="F353" t="s" s="3">
+        <v>427</v>
+      </c>
+      <c r="G353" t="s" s="3">
+        <v>302</v>
+      </c>
+      <c r="H353" t="n" s="4">
+        <v>38.62</v>
       </c>
     </row>
     <row r="354">
       <c r="B354" t="s" s="3">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="C354" t="s" s="3">
         <v>299</v>
       </c>
-      <c r="D354" s="3"/>
+      <c r="D354" t="n" s="3">
+        <v>430970.0</v>
+      </c>
       <c r="E354" t="s" s="3">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="F354" t="s" s="3">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="G354" t="s" s="3">
         <v>302</v>
       </c>
       <c r="H354" t="n" s="4">
-        <v>433.41</v>
+        <v>4.84</v>
       </c>
     </row>
     <row r="355">
       <c r="B355" t="s" s="3">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="C355" t="s" s="3">
         <v>299</v>
       </c>
-      <c r="D355" s="3"/>
+      <c r="D355" t="n" s="3">
+        <v>430970.0</v>
+      </c>
       <c r="E355" t="s" s="3">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="F355" t="s" s="3">
-        <v>515</v>
+        <v>509</v>
       </c>
       <c r="G355" t="s" s="3">
         <v>302</v>
       </c>
       <c r="H355" t="n" s="4">
-        <v>78.0</v>
+        <v>-200.0</v>
       </c>
     </row>
     <row r="356">
-      <c r="A356" t="s" s="2">
+      <c r="B356" t="s" s="3">
+        <v>510</v>
+      </c>
+      <c r="C356" t="s" s="3">
+        <v>299</v>
+      </c>
+      <c r="D356" t="n" s="3">
+        <v>430970.0</v>
+      </c>
+      <c r="E356" t="s" s="3">
+        <v>508</v>
+      </c>
+      <c r="F356" t="s" s="3">
         <v>516</v>
       </c>
-      <c r="H356" t="n" s="5">
-        <v>511.41</v>
+      <c r="G356" t="s" s="3">
+        <v>302</v>
+      </c>
+      <c r="H356" t="n" s="4">
+        <v>35.03</v>
       </c>
     </row>
     <row r="357">
-      <c r="A357" t="s" s="2">
+      <c r="B357" t="s" s="3">
+        <v>466</v>
+      </c>
+      <c r="C357" t="s" s="3">
+        <v>299</v>
+      </c>
+      <c r="D357" t="n" s="3">
+        <v>550835.0</v>
+      </c>
+      <c r="E357" t="s" s="3">
+        <v>304</v>
+      </c>
+      <c r="F357" t="s" s="3">
         <v>517</v>
       </c>
+      <c r="G357" t="s" s="3">
+        <v>302</v>
+      </c>
+      <c r="H357" t="n" s="4">
+        <v>4.76</v>
+      </c>
     </row>
     <row r="358">
-      <c r="B358" t="s" s="3">
-        <v>262</v>
-      </c>
-      <c r="C358" t="s" s="3">
-        <v>299</v>
-      </c>
-      <c r="D358" s="3"/>
-      <c r="E358" t="s" s="3">
+      <c r="A358" t="s" s="2">
         <v>518</v>
       </c>
-      <c r="F358" t="s" s="3">
+      <c r="H358" t="n" s="5">
+        <v>520.11</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="s" s="2">
         <v>519</v>
-      </c>
-      <c r="G358" t="s" s="3">
-        <v>302</v>
-      </c>
-      <c r="H358" t="n" s="4">
-        <v>68.58</v>
-      </c>
-    </row>
-    <row r="359">
-      <c r="B359" t="s" s="3">
-        <v>262</v>
-      </c>
-      <c r="C359" t="s" s="3">
-        <v>299</v>
-      </c>
-      <c r="D359" s="3"/>
-      <c r="E359" t="s" s="3">
-        <v>520</v>
-      </c>
-      <c r="F359" t="s" s="3">
-        <v>521</v>
-      </c>
-      <c r="G359" t="s" s="3">
-        <v>302</v>
-      </c>
-      <c r="H359" t="n" s="4">
-        <v>30.87</v>
       </c>
     </row>
     <row r="360">
       <c r="B360" t="s" s="3">
-        <v>426</v>
+        <v>520</v>
       </c>
       <c r="C360" t="s" s="3">
         <v>299</v>
       </c>
-      <c r="D360" t="n" s="3">
-        <v>477011.0</v>
-      </c>
+      <c r="D360" s="3"/>
       <c r="E360" t="s" s="3">
-        <v>388</v>
+        <v>521</v>
       </c>
       <c r="F360" t="s" s="3">
         <v>522</v>
@@ -8955,21 +9006,19 @@
         <v>302</v>
       </c>
       <c r="H360" t="n" s="4">
-        <v>350.0</v>
+        <v>78.0</v>
       </c>
     </row>
     <row r="361">
       <c r="B361" t="s" s="3">
-        <v>426</v>
+        <v>520</v>
       </c>
       <c r="C361" t="s" s="3">
         <v>299</v>
       </c>
-      <c r="D361" t="n" s="3">
-        <v>477011.0</v>
-      </c>
+      <c r="D361" s="3"/>
       <c r="E361" t="s" s="3">
-        <v>388</v>
+        <v>521</v>
       </c>
       <c r="F361" t="s" s="3">
         <v>523</v>
@@ -8978,655 +9027,756 @@
         <v>302</v>
       </c>
       <c r="H361" t="n" s="4">
-        <v>300.0</v>
+        <v>433.41</v>
       </c>
     </row>
     <row r="362">
-      <c r="B362" t="s" s="3">
-        <v>426</v>
-      </c>
-      <c r="C362" t="s" s="3">
-        <v>299</v>
-      </c>
-      <c r="D362" t="n" s="3">
-        <v>477011.0</v>
-      </c>
-      <c r="E362" t="s" s="3">
-        <v>388</v>
-      </c>
-      <c r="F362" t="s" s="3">
+      <c r="A362" t="s" s="2">
         <v>524</v>
       </c>
-      <c r="G362" t="s" s="3">
-        <v>302</v>
-      </c>
-      <c r="H362" t="n" s="4">
-        <v>11.58</v>
+      <c r="H362" t="n" s="5">
+        <v>511.41</v>
       </c>
     </row>
     <row r="363">
-      <c r="B363" t="s" s="3">
-        <v>426</v>
-      </c>
-      <c r="C363" t="s" s="3">
-        <v>299</v>
-      </c>
-      <c r="D363" t="n" s="3">
-        <v>477011.0</v>
-      </c>
-      <c r="E363" t="s" s="3">
-        <v>388</v>
-      </c>
-      <c r="F363" t="s" s="3">
-        <v>416</v>
-      </c>
-      <c r="G363" t="s" s="3">
-        <v>302</v>
-      </c>
-      <c r="H363" t="n" s="4">
-        <v>1.96</v>
+      <c r="A363" t="s" s="2">
+        <v>525</v>
       </c>
     </row>
     <row r="364">
       <c r="B364" t="s" s="3">
-        <v>426</v>
+        <v>262</v>
       </c>
       <c r="C364" t="s" s="3">
         <v>299</v>
       </c>
-      <c r="D364" t="n" s="3">
-        <v>477011.0</v>
-      </c>
+      <c r="D364" s="3"/>
       <c r="E364" t="s" s="3">
-        <v>388</v>
+        <v>526</v>
       </c>
       <c r="F364" t="s" s="3">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="G364" t="s" s="3">
         <v>302</v>
       </c>
       <c r="H364" t="n" s="4">
-        <v>12.63</v>
+        <v>68.58</v>
       </c>
     </row>
     <row r="365">
       <c r="B365" t="s" s="3">
-        <v>526</v>
+        <v>262</v>
       </c>
       <c r="C365" t="s" s="3">
-        <v>436</v>
+        <v>299</v>
       </c>
       <c r="D365" s="3"/>
       <c r="E365" t="s" s="3">
-        <v>388</v>
+        <v>528</v>
       </c>
       <c r="F365" t="s" s="3">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="G365" t="s" s="3">
         <v>302</v>
       </c>
       <c r="H365" t="n" s="4">
-        <v>-0.04</v>
+        <v>30.87</v>
       </c>
     </row>
     <row r="366">
       <c r="B366" t="s" s="3">
-        <v>458</v>
+        <v>434</v>
       </c>
       <c r="C366" t="s" s="3">
         <v>299</v>
       </c>
       <c r="D366" t="n" s="3">
-        <v>550835.0</v>
+        <v>477011.0</v>
       </c>
       <c r="E366" t="s" s="3">
-        <v>304</v>
+        <v>396</v>
       </c>
       <c r="F366" t="s" s="3">
-        <v>528</v>
+        <v>427</v>
       </c>
       <c r="G366" t="s" s="3">
         <v>302</v>
       </c>
       <c r="H366" t="n" s="4">
-        <v>11.0</v>
+        <v>1.96</v>
       </c>
     </row>
     <row r="367">
-      <c r="A367" t="s" s="2">
-        <v>529</v>
-      </c>
-      <c r="H367" t="n" s="5">
-        <v>786.58</v>
+      <c r="B367" t="s" s="3">
+        <v>434</v>
+      </c>
+      <c r="C367" t="s" s="3">
+        <v>299</v>
+      </c>
+      <c r="D367" t="n" s="3">
+        <v>477011.0</v>
+      </c>
+      <c r="E367" t="s" s="3">
+        <v>396</v>
+      </c>
+      <c r="F367" t="s" s="3">
+        <v>530</v>
+      </c>
+      <c r="G367" t="s" s="3">
+        <v>302</v>
+      </c>
+      <c r="H367" t="n" s="4">
+        <v>350.0</v>
       </c>
     </row>
     <row r="368">
-      <c r="A368" t="s" s="2">
-        <v>530</v>
+      <c r="B368" t="s" s="3">
+        <v>434</v>
+      </c>
+      <c r="C368" t="s" s="3">
+        <v>299</v>
+      </c>
+      <c r="D368" t="n" s="3">
+        <v>477011.0</v>
+      </c>
+      <c r="E368" t="s" s="3">
+        <v>396</v>
+      </c>
+      <c r="F368" t="s" s="3">
+        <v>531</v>
+      </c>
+      <c r="G368" t="s" s="3">
+        <v>302</v>
+      </c>
+      <c r="H368" t="n" s="4">
+        <v>300.0</v>
       </c>
     </row>
     <row r="369">
       <c r="B369" t="s" s="3">
-        <v>164</v>
+        <v>434</v>
       </c>
       <c r="C369" t="s" s="3">
-        <v>290</v>
-      </c>
-      <c r="D369" s="3"/>
+        <v>299</v>
+      </c>
+      <c r="D369" t="n" s="3">
+        <v>477011.0</v>
+      </c>
       <c r="E369" t="s" s="3">
-        <v>531</v>
+        <v>396</v>
       </c>
       <c r="F369" t="s" s="3">
         <v>532</v>
       </c>
       <c r="G369" t="s" s="3">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="H369" t="n" s="4">
-        <v>450.0</v>
+        <v>12.63</v>
       </c>
     </row>
     <row r="370">
       <c r="B370" t="s" s="3">
-        <v>164</v>
+        <v>434</v>
       </c>
       <c r="C370" t="s" s="3">
-        <v>290</v>
-      </c>
-      <c r="D370" s="3"/>
+        <v>299</v>
+      </c>
+      <c r="D370" t="n" s="3">
+        <v>477011.0</v>
+      </c>
       <c r="E370" t="s" s="3">
+        <v>396</v>
+      </c>
+      <c r="F370" t="s" s="3">
         <v>533</v>
       </c>
-      <c r="F370" t="s" s="3">
-        <v>532</v>
-      </c>
       <c r="G370" t="s" s="3">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="H370" t="n" s="4">
-        <v>450.0</v>
+        <v>11.58</v>
       </c>
     </row>
     <row r="371">
       <c r="B371" t="s" s="3">
-        <v>164</v>
+        <v>534</v>
       </c>
       <c r="C371" t="s" s="3">
-        <v>290</v>
+        <v>444</v>
       </c>
       <c r="D371" s="3"/>
       <c r="E371" t="s" s="3">
-        <v>534</v>
+        <v>396</v>
       </c>
       <c r="F371" t="s" s="3">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="G371" t="s" s="3">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="H371" t="n" s="4">
-        <v>717.0</v>
+        <v>-0.04</v>
       </c>
     </row>
     <row r="372">
       <c r="B372" t="s" s="3">
-        <v>164</v>
+        <v>466</v>
       </c>
       <c r="C372" t="s" s="3">
-        <v>290</v>
-      </c>
-      <c r="D372" s="3"/>
+        <v>299</v>
+      </c>
+      <c r="D372" t="n" s="3">
+        <v>550835.0</v>
+      </c>
       <c r="E372" t="s" s="3">
-        <v>535</v>
+        <v>304</v>
       </c>
       <c r="F372" t="s" s="3">
-        <v>532</v>
+        <v>536</v>
       </c>
       <c r="G372" t="s" s="3">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="H372" t="n" s="4">
-        <v>1600.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="373">
-      <c r="B373" t="s" s="3">
-        <v>536</v>
-      </c>
-      <c r="C373" t="s" s="3">
-        <v>290</v>
-      </c>
-      <c r="D373" t="s" s="3">
+      <c r="A373" t="s" s="2">
         <v>537</v>
       </c>
-      <c r="E373" t="s" s="3">
-        <v>538</v>
-      </c>
-      <c r="F373" t="s" s="3">
-        <v>539</v>
-      </c>
-      <c r="G373" t="s" s="3">
-        <v>293</v>
-      </c>
-      <c r="H373" t="n" s="4">
-        <v>1150.16</v>
+      <c r="H373" t="n" s="5">
+        <v>786.58</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="s" s="2">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="B375" t="s" s="3">
+        <v>164</v>
+      </c>
+      <c r="C375" t="s" s="3">
+        <v>290</v>
+      </c>
+      <c r="D375" s="3"/>
+      <c r="E375" t="s" s="3">
+        <v>539</v>
+      </c>
+      <c r="F375" t="s" s="3">
         <v>540</v>
       </c>
-      <c r="H374" t="n" s="5">
-        <v>4367.16</v>
-      </c>
-    </row>
-    <row r="375">
-      <c r="A375" t="s" s="2">
-        <v>541</v>
+      <c r="G375" t="s" s="3">
+        <v>293</v>
+      </c>
+      <c r="H375" t="n" s="4">
+        <v>450.0</v>
       </c>
     </row>
     <row r="376">
       <c r="B376" t="s" s="3">
-        <v>98</v>
+        <v>164</v>
       </c>
       <c r="C376" t="s" s="3">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="D376" s="3"/>
       <c r="E376" t="s" s="3">
-        <v>481</v>
+        <v>541</v>
       </c>
       <c r="F376" t="s" s="3">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="G376" t="s" s="3">
-        <v>65</v>
+        <v>293</v>
       </c>
       <c r="H376" t="n" s="4">
-        <v>24.31</v>
+        <v>450.0</v>
       </c>
     </row>
     <row r="377">
       <c r="B377" t="s" s="3">
-        <v>483</v>
+        <v>164</v>
       </c>
       <c r="C377" t="s" s="3">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="D377" s="3"/>
       <c r="E377" t="s" s="3">
-        <v>481</v>
+        <v>542</v>
       </c>
       <c r="F377" t="s" s="3">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="G377" t="s" s="3">
-        <v>65</v>
+        <v>293</v>
       </c>
       <c r="H377" t="n" s="4">
-        <v>3.0</v>
+        <v>717.0</v>
       </c>
     </row>
     <row r="378">
       <c r="B378" t="s" s="3">
-        <v>485</v>
+        <v>164</v>
       </c>
       <c r="C378" t="s" s="3">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="D378" s="3"/>
       <c r="E378" t="s" s="3">
-        <v>481</v>
+        <v>543</v>
       </c>
       <c r="F378" t="s" s="3">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="G378" t="s" s="3">
-        <v>65</v>
+        <v>293</v>
       </c>
       <c r="H378" t="n" s="4">
-        <v>1.5</v>
+        <v>1600.0</v>
       </c>
     </row>
     <row r="379">
       <c r="B379" t="s" s="3">
-        <v>38</v>
+        <v>544</v>
       </c>
       <c r="C379" t="s" s="3">
-        <v>299</v>
-      </c>
-      <c r="D379" s="3"/>
+        <v>290</v>
+      </c>
+      <c r="D379" t="s" s="3">
+        <v>545</v>
+      </c>
       <c r="E379" t="s" s="3">
-        <v>481</v>
+        <v>546</v>
       </c>
       <c r="F379" t="s" s="3">
-        <v>543</v>
+        <v>547</v>
       </c>
       <c r="G379" t="s" s="3">
-        <v>65</v>
+        <v>293</v>
       </c>
       <c r="H379" t="n" s="4">
-        <v>3.0</v>
+        <v>1150.16</v>
       </c>
     </row>
     <row r="380">
-      <c r="B380" t="s" s="3">
-        <v>113</v>
-      </c>
-      <c r="C380" t="s" s="3">
-        <v>299</v>
-      </c>
-      <c r="D380" s="3"/>
-      <c r="E380" t="s" s="3">
-        <v>481</v>
-      </c>
-      <c r="F380" t="s" s="3">
-        <v>543</v>
-      </c>
-      <c r="G380" t="s" s="3">
-        <v>65</v>
-      </c>
-      <c r="H380" t="n" s="4">
-        <v>3.0</v>
+      <c r="A380" t="s" s="2">
+        <v>548</v>
+      </c>
+      <c r="H380" t="n" s="5">
+        <v>4367.16</v>
       </c>
     </row>
     <row r="381">
-      <c r="B381" t="s" s="3">
-        <v>40</v>
-      </c>
-      <c r="C381" t="s" s="3">
-        <v>299</v>
-      </c>
-      <c r="D381" s="3"/>
-      <c r="E381" t="s" s="3">
-        <v>481</v>
-      </c>
-      <c r="F381" t="s" s="3">
-        <v>545</v>
-      </c>
-      <c r="G381" t="s" s="3">
-        <v>65</v>
-      </c>
-      <c r="H381" t="n" s="4">
-        <v>6.3</v>
+      <c r="A381" t="s" s="2">
+        <v>549</v>
       </c>
     </row>
     <row r="382">
       <c r="B382" t="s" s="3">
-        <v>128</v>
+        <v>98</v>
       </c>
       <c r="C382" t="s" s="3">
         <v>299</v>
       </c>
       <c r="D382" s="3"/>
       <c r="E382" t="s" s="3">
-        <v>481</v>
+        <v>489</v>
       </c>
       <c r="F382" t="s" s="3">
-        <v>546</v>
+        <v>550</v>
       </c>
       <c r="G382" t="s" s="3">
         <v>65</v>
       </c>
       <c r="H382" t="n" s="4">
-        <v>10.81</v>
+        <v>24.31</v>
       </c>
     </row>
     <row r="383">
       <c r="B383" t="s" s="3">
-        <v>133</v>
+        <v>491</v>
       </c>
       <c r="C383" t="s" s="3">
         <v>299</v>
       </c>
       <c r="D383" s="3"/>
       <c r="E383" t="s" s="3">
-        <v>481</v>
+        <v>489</v>
       </c>
       <c r="F383" t="s" s="3">
-        <v>547</v>
+        <v>551</v>
       </c>
       <c r="G383" t="s" s="3">
         <v>65</v>
       </c>
       <c r="H383" t="n" s="4">
-        <v>3.6</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="384">
       <c r="B384" t="s" s="3">
-        <v>45</v>
+        <v>493</v>
       </c>
       <c r="C384" t="s" s="3">
         <v>299</v>
       </c>
       <c r="D384" s="3"/>
       <c r="E384" t="s" s="3">
-        <v>481</v>
+        <v>489</v>
       </c>
       <c r="F384" t="s" s="3">
-        <v>548</v>
+        <v>552</v>
       </c>
       <c r="G384" t="s" s="3">
         <v>65</v>
       </c>
       <c r="H384" t="n" s="4">
-        <v>12.59</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="385">
       <c r="B385" t="s" s="3">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="C385" t="s" s="3">
         <v>299</v>
       </c>
       <c r="D385" s="3"/>
       <c r="E385" t="s" s="3">
-        <v>481</v>
+        <v>489</v>
       </c>
       <c r="F385" t="s" s="3">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="G385" t="s" s="3">
         <v>65</v>
       </c>
       <c r="H385" t="n" s="4">
-        <v>9.59</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="386">
       <c r="B386" t="s" s="3">
-        <v>164</v>
+        <v>113</v>
       </c>
       <c r="C386" t="s" s="3">
         <v>299</v>
       </c>
       <c r="D386" s="3"/>
       <c r="E386" t="s" s="3">
-        <v>481</v>
+        <v>489</v>
       </c>
       <c r="F386" t="s" s="3">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="G386" t="s" s="3">
         <v>65</v>
       </c>
       <c r="H386" t="n" s="4">
-        <v>15.01</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="387">
       <c r="B387" t="s" s="3">
-        <v>184</v>
+        <v>40</v>
       </c>
       <c r="C387" t="s" s="3">
         <v>299</v>
       </c>
       <c r="D387" s="3"/>
       <c r="E387" t="s" s="3">
-        <v>481</v>
+        <v>489</v>
       </c>
       <c r="F387" t="s" s="3">
-        <v>543</v>
+        <v>553</v>
       </c>
       <c r="G387" t="s" s="3">
         <v>65</v>
       </c>
       <c r="H387" t="n" s="4">
-        <v>3.0</v>
+        <v>6.3</v>
       </c>
     </row>
     <row r="388">
       <c r="B388" t="s" s="3">
-        <v>57</v>
+        <v>128</v>
       </c>
       <c r="C388" t="s" s="3">
         <v>299</v>
       </c>
       <c r="D388" s="3"/>
       <c r="E388" t="s" s="3">
-        <v>481</v>
+        <v>489</v>
       </c>
       <c r="F388" t="s" s="3">
-        <v>551</v>
+        <v>554</v>
       </c>
       <c r="G388" t="s" s="3">
         <v>65</v>
       </c>
       <c r="H388" t="n" s="4">
-        <v>6.0</v>
+        <v>10.81</v>
       </c>
     </row>
     <row r="389">
       <c r="B389" t="s" s="3">
-        <v>209</v>
+        <v>133</v>
       </c>
       <c r="C389" t="s" s="3">
         <v>299</v>
       </c>
       <c r="D389" s="3"/>
       <c r="E389" t="s" s="3">
-        <v>481</v>
+        <v>489</v>
       </c>
       <c r="F389" t="s" s="3">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="G389" t="s" s="3">
         <v>65</v>
       </c>
       <c r="H389" t="n" s="4">
-        <v>18.0</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="390">
       <c r="B390" t="s" s="3">
-        <v>262</v>
+        <v>45</v>
       </c>
       <c r="C390" t="s" s="3">
         <v>299</v>
       </c>
       <c r="D390" s="3"/>
       <c r="E390" t="s" s="3">
-        <v>481</v>
+        <v>489</v>
       </c>
       <c r="F390" t="s" s="3">
-        <v>553</v>
+        <v>556</v>
       </c>
       <c r="G390" t="s" s="3">
         <v>65</v>
       </c>
       <c r="H390" t="n" s="4">
-        <v>24.6</v>
+        <v>12.59</v>
       </c>
     </row>
     <row r="391">
       <c r="B391" t="s" s="3">
-        <v>435</v>
+        <v>48</v>
       </c>
       <c r="C391" t="s" s="3">
         <v>299</v>
       </c>
       <c r="D391" s="3"/>
       <c r="E391" t="s" s="3">
-        <v>481</v>
+        <v>489</v>
       </c>
       <c r="F391" t="s" s="3">
-        <v>554</v>
+        <v>557</v>
       </c>
       <c r="G391" t="s" s="3">
         <v>65</v>
       </c>
       <c r="H391" t="n" s="4">
-        <v>9.6</v>
+        <v>9.59</v>
       </c>
     </row>
     <row r="392">
       <c r="B392" t="s" s="3">
-        <v>466</v>
+        <v>164</v>
       </c>
       <c r="C392" t="s" s="3">
         <v>299</v>
       </c>
       <c r="D392" s="3"/>
       <c r="E392" t="s" s="3">
-        <v>481</v>
+        <v>489</v>
       </c>
       <c r="F392" t="s" s="3">
-        <v>555</v>
+        <v>558</v>
       </c>
       <c r="G392" t="s" s="3">
         <v>65</v>
       </c>
       <c r="H392" t="n" s="4">
+        <v>15.01</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="B393" t="s" s="3">
+        <v>184</v>
+      </c>
+      <c r="C393" t="s" s="3">
+        <v>299</v>
+      </c>
+      <c r="D393" s="3"/>
+      <c r="E393" t="s" s="3">
+        <v>489</v>
+      </c>
+      <c r="F393" t="s" s="3">
+        <v>551</v>
+      </c>
+      <c r="G393" t="s" s="3">
+        <v>65</v>
+      </c>
+      <c r="H393" t="n" s="4">
         <v>3.0</v>
       </c>
     </row>
-    <row r="393">
-      <c r="A393" t="s" s="2">
-        <v>556</v>
-      </c>
-      <c r="H393" t="n" s="5">
+    <row r="394">
+      <c r="B394" t="s" s="3">
+        <v>57</v>
+      </c>
+      <c r="C394" t="s" s="3">
+        <v>299</v>
+      </c>
+      <c r="D394" s="3"/>
+      <c r="E394" t="s" s="3">
+        <v>489</v>
+      </c>
+      <c r="F394" t="s" s="3">
+        <v>559</v>
+      </c>
+      <c r="G394" t="s" s="3">
+        <v>65</v>
+      </c>
+      <c r="H394" t="n" s="4">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="B395" t="s" s="3">
+        <v>209</v>
+      </c>
+      <c r="C395" t="s" s="3">
+        <v>299</v>
+      </c>
+      <c r="D395" s="3"/>
+      <c r="E395" t="s" s="3">
+        <v>489</v>
+      </c>
+      <c r="F395" t="s" s="3">
+        <v>560</v>
+      </c>
+      <c r="G395" t="s" s="3">
+        <v>65</v>
+      </c>
+      <c r="H395" t="n" s="4">
+        <v>18.0</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="B396" t="s" s="3">
+        <v>262</v>
+      </c>
+      <c r="C396" t="s" s="3">
+        <v>299</v>
+      </c>
+      <c r="D396" s="3"/>
+      <c r="E396" t="s" s="3">
+        <v>489</v>
+      </c>
+      <c r="F396" t="s" s="3">
+        <v>561</v>
+      </c>
+      <c r="G396" t="s" s="3">
+        <v>65</v>
+      </c>
+      <c r="H396" t="n" s="4">
+        <v>24.6</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="B397" t="s" s="3">
+        <v>443</v>
+      </c>
+      <c r="C397" t="s" s="3">
+        <v>299</v>
+      </c>
+      <c r="D397" s="3"/>
+      <c r="E397" t="s" s="3">
+        <v>489</v>
+      </c>
+      <c r="F397" t="s" s="3">
+        <v>562</v>
+      </c>
+      <c r="G397" t="s" s="3">
+        <v>65</v>
+      </c>
+      <c r="H397" t="n" s="4">
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="B398" t="s" s="3">
+        <v>474</v>
+      </c>
+      <c r="C398" t="s" s="3">
+        <v>299</v>
+      </c>
+      <c r="D398" s="3"/>
+      <c r="E398" t="s" s="3">
+        <v>489</v>
+      </c>
+      <c r="F398" t="s" s="3">
+        <v>563</v>
+      </c>
+      <c r="G398" t="s" s="3">
+        <v>65</v>
+      </c>
+      <c r="H398" t="n" s="4">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="s" s="2">
+        <v>564</v>
+      </c>
+      <c r="H399" t="n" s="5">
         <v>156.91</v>
       </c>
     </row>
-    <row r="394">
-      <c r="A394" t="s" s="2">
-        <v>557</v>
-      </c>
-      <c r="H394" t="n" s="5">
+    <row r="400">
+      <c r="A400" t="s" s="2">
+        <v>565</v>
+      </c>
+      <c r="H400" t="n" s="5">
         <v>18418.3</v>
       </c>
     </row>
-    <row r="395">
-      <c r="A395" t="s" s="2">
-        <v>558</v>
-      </c>
-      <c r="H395" t="n" s="5">
-        <v>22968.23</v>
-      </c>
-    </row>
-    <row r="396">
-      <c r="A396" t="s" s="2">
-        <v>559</v>
-      </c>
-      <c r="H396" t="n" s="5">
-        <v>-763.23</v>
-      </c>
-    </row>
-    <row r="399">
-      <c r="A399" s="6" t="s">
-        <v>560</v>
-      </c>
-      <c r="B399"/>
-      <c r="C399"/>
-      <c r="D399"/>
-      <c r="E399"/>
-      <c r="F399"/>
-      <c r="G399"/>
-      <c r="H399"/>
+    <row r="401">
+      <c r="A401" t="s" s="2">
+        <v>566</v>
+      </c>
+      <c r="H401" t="n" s="5">
+        <v>23105.65</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="s" s="2">
+        <v>567</v>
+      </c>
+      <c r="H402" t="n" s="5">
+        <v>-900.65</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" s="6" t="s">
+        <v>568</v>
+      </c>
+      <c r="B405"/>
+      <c r="C405"/>
+      <c r="D405"/>
+      <c r="E405"/>
+      <c r="F405"/>
+      <c r="G405"/>
+      <c r="H405"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -9648,53 +9798,53 @@
     <mergeCell ref="A173"/>
     <mergeCell ref="A176"/>
     <mergeCell ref="A177"/>
-    <mergeCell ref="A181"/>
     <mergeCell ref="A182"/>
-    <mergeCell ref="A184"/>
+    <mergeCell ref="A183"/>
     <mergeCell ref="A185"/>
-    <mergeCell ref="A192"/>
+    <mergeCell ref="A186"/>
     <mergeCell ref="A193"/>
-    <mergeCell ref="A226"/>
-    <mergeCell ref="A227"/>
-    <mergeCell ref="A231"/>
+    <mergeCell ref="A194"/>
     <mergeCell ref="A232"/>
-    <mergeCell ref="A234"/>
-    <mergeCell ref="A235"/>
-    <mergeCell ref="A236"/>
+    <mergeCell ref="A233"/>
     <mergeCell ref="A237"/>
+    <mergeCell ref="A238"/>
     <mergeCell ref="A240"/>
     <mergeCell ref="A241"/>
+    <mergeCell ref="A242"/>
+    <mergeCell ref="A243"/>
+    <mergeCell ref="A246"/>
     <mergeCell ref="A247"/>
-    <mergeCell ref="A248"/>
-    <mergeCell ref="A252"/>
     <mergeCell ref="A253"/>
-    <mergeCell ref="A262"/>
-    <mergeCell ref="A263"/>
-    <mergeCell ref="A272"/>
-    <mergeCell ref="A273"/>
-    <mergeCell ref="A294"/>
-    <mergeCell ref="A295"/>
-    <mergeCell ref="A311"/>
-    <mergeCell ref="A312"/>
+    <mergeCell ref="A254"/>
+    <mergeCell ref="A258"/>
+    <mergeCell ref="A259"/>
+    <mergeCell ref="A268"/>
+    <mergeCell ref="A269"/>
+    <mergeCell ref="A278"/>
+    <mergeCell ref="A279"/>
+    <mergeCell ref="A300"/>
+    <mergeCell ref="A301"/>
+    <mergeCell ref="A317"/>
     <mergeCell ref="A318"/>
-    <mergeCell ref="A319"/>
-    <mergeCell ref="A321"/>
-    <mergeCell ref="A322"/>
-    <mergeCell ref="A340"/>
-    <mergeCell ref="A341"/>
-    <mergeCell ref="A352"/>
-    <mergeCell ref="A353"/>
-    <mergeCell ref="A356"/>
-    <mergeCell ref="A357"/>
-    <mergeCell ref="A367"/>
-    <mergeCell ref="A368"/>
+    <mergeCell ref="A324"/>
+    <mergeCell ref="A325"/>
+    <mergeCell ref="A327"/>
+    <mergeCell ref="A328"/>
+    <mergeCell ref="A346"/>
+    <mergeCell ref="A347"/>
+    <mergeCell ref="A358"/>
+    <mergeCell ref="A359"/>
+    <mergeCell ref="A362"/>
+    <mergeCell ref="A363"/>
+    <mergeCell ref="A373"/>
     <mergeCell ref="A374"/>
-    <mergeCell ref="A375"/>
-    <mergeCell ref="A393"/>
-    <mergeCell ref="A394"/>
-    <mergeCell ref="A395"/>
-    <mergeCell ref="A396"/>
-    <mergeCell ref="A399:H399"/>
+    <mergeCell ref="A380"/>
+    <mergeCell ref="A381"/>
+    <mergeCell ref="A399"/>
+    <mergeCell ref="A400"/>
+    <mergeCell ref="A401"/>
+    <mergeCell ref="A402"/>
+    <mergeCell ref="A405:H405"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="A3:H3"/>

--- a/2020-sgfdevs-statement-of-activity-detail.xlsx
+++ b/2020-sgfdevs-statement-of-activity-detail.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1750" uniqueCount="572">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1795" uniqueCount="584">
   <si>
     <t>Date</t>
   </si>
@@ -942,6 +942,9 @@
   </si>
   <si>
     <t>Dev Night Food</t>
+  </si>
+  <si>
+    <t>10/09/2020</t>
   </si>
   <si>
     <t xml:space="preserve">         Total for Devs Member Meals</t>
@@ -1145,6 +1148,39 @@
     <t>sgfwebdevs.com 1YR</t>
   </si>
   <si>
+    <t>10/01/2020</t>
+  </si>
+  <si>
+    <t>10/02/2020</t>
+  </si>
+  <si>
+    <t>1Password</t>
+  </si>
+  <si>
+    <t>1Password Families Plan (Annual)</t>
+  </si>
+  <si>
+    <t>10/05/2020</t>
+  </si>
+  <si>
+    <t>1Password Annual Renewal</t>
+  </si>
+  <si>
+    <t>Monthly Hosting</t>
+  </si>
+  <si>
+    <t>10/15/2020</t>
+  </si>
+  <si>
+    <t>Meetup 10/14/2020-04/14/2021</t>
+  </si>
+  <si>
+    <t>10/19/2020</t>
+  </si>
+  <si>
+    <t>devfestsgf.com 1YR</t>
+  </si>
+  <si>
     <t xml:space="preserve">         Total for Devs Software &amp; Hosting</t>
   </si>
   <si>
@@ -1730,7 +1766,7 @@
     <t>Net Revenue</t>
   </si>
   <si>
-    <t>Sunday, Oct 11, 2020 06:32:57 PM GMT-7 - Accrual Basis</t>
+    <t>Monday, Nov 09, 2020 07:28:13 PM GMT-8 - Accrual Basis</t>
   </si>
   <si>
     <t>Springfield Devs</t>
@@ -1739,7 +1775,7 @@
     <t>Statement of Activity Detail</t>
   </si>
   <si>
-    <t>January - September, 2020</t>
+    <t>January - October, 2020</t>
   </si>
 </sst>
 </file>
@@ -1747,8 +1783,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt numFmtId="165" formatCode="#,##0.00\ _€"/>
-    <numFmt numFmtId="166" formatCode="&quot;$&quot;* #,##0.00\ _€"/>
+    <numFmt numFmtId="164" formatCode="#,##0.00\ _€"/>
+    <numFmt numFmtId="165" formatCode="&quot;$&quot;* #,##0.00\ _€"/>
   </numFmts>
   <fonts count="6">
     <font>
@@ -1825,10 +1861,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment wrapText="true" horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true">
       <alignment wrapText="true" horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="2" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="2" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true">
       <alignment wrapText="true" horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -1846,7 +1882,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+  <dimension ref="A1:H414"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1864,7 +1900,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="7" t="s">
-        <v>569</v>
+        <v>581</v>
       </c>
       <c r="B1"/>
       <c r="C1"/>
@@ -1876,7 +1912,7 @@
     </row>
     <row r="2">
       <c r="A2" s="7" t="s">
-        <v>570</v>
+        <v>582</v>
       </c>
       <c r="B2"/>
       <c r="C2"/>
@@ -1888,7 +1924,7 @@
     </row>
     <row r="3">
       <c r="A3" s="8" t="s">
-        <v>571</v>
+        <v>583</v>
       </c>
       <c r="B3"/>
       <c r="C3"/>
@@ -5659,46 +5695,59 @@
       </c>
     </row>
     <row r="182">
-      <c r="A182" t="s" s="2">
+      <c r="B182" t="s" s="3">
         <v>310</v>
       </c>
-      <c r="H182" t="n" s="5">
-        <v>332.42</v>
+      <c r="C182" t="s" s="3">
+        <v>299</v>
+      </c>
+      <c r="D182" s="3"/>
+      <c r="E182" t="s" s="3">
+        <v>300</v>
+      </c>
+      <c r="F182" t="s" s="3">
+        <v>309</v>
+      </c>
+      <c r="G182" t="s" s="3">
+        <v>302</v>
+      </c>
+      <c r="H182" t="n" s="4">
+        <v>57.0</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="s" s="2">
         <v>311</v>
       </c>
+      <c r="H183" t="n" s="5">
+        <v>389.42</v>
+      </c>
     </row>
     <row r="184">
-      <c r="B184" t="s" s="3">
+      <c r="A184" t="s" s="2">
         <v>312</v>
       </c>
-      <c r="C184" t="s" s="3">
+    </row>
+    <row r="185">
+      <c r="B185" t="s" s="3">
+        <v>313</v>
+      </c>
+      <c r="C185" t="s" s="3">
         <v>290</v>
       </c>
-      <c r="D184" t="n" s="3">
+      <c r="D185" t="n" s="3">
         <v>27413.0</v>
       </c>
-      <c r="E184" t="s" s="3">
-        <v>313</v>
-      </c>
-      <c r="F184" t="s" s="3">
+      <c r="E185" t="s" s="3">
         <v>314</v>
       </c>
-      <c r="G184" t="s" s="3">
+      <c r="F185" t="s" s="3">
+        <v>315</v>
+      </c>
+      <c r="G185" t="s" s="3">
         <v>293</v>
       </c>
-      <c r="H184" t="n" s="4">
-        <v>270.76</v>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="H185" t="n" s="5">
+      <c r="H185" t="n" s="4">
         <v>270.76</v>
       </c>
     </row>
@@ -5706,59 +5755,46 @@
       <c r="A186" t="s" s="2">
         <v>316</v>
       </c>
+      <c r="H186" t="n" s="5">
+        <v>270.76</v>
+      </c>
     </row>
     <row r="187">
-      <c r="B187" t="s" s="3">
+      <c r="A187" t="s" s="2">
         <v>317</v>
-      </c>
-      <c r="C187" t="s" s="3">
-        <v>299</v>
-      </c>
-      <c r="D187" s="3"/>
-      <c r="E187" t="s" s="3">
-        <v>318</v>
-      </c>
-      <c r="F187" t="s" s="3">
-        <v>319</v>
-      </c>
-      <c r="G187" t="s" s="3">
-        <v>302</v>
-      </c>
-      <c r="H187" t="n" s="4">
-        <v>14.75</v>
       </c>
     </row>
     <row r="188">
       <c r="B188" t="s" s="3">
-        <v>298</v>
+        <v>318</v>
       </c>
       <c r="C188" t="s" s="3">
         <v>299</v>
       </c>
       <c r="D188" s="3"/>
       <c r="E188" t="s" s="3">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="F188" t="s" s="3">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="G188" t="s" s="3">
         <v>302</v>
       </c>
       <c r="H188" t="n" s="4">
-        <v>15.73</v>
+        <v>14.75</v>
       </c>
     </row>
     <row r="189">
       <c r="B189" t="s" s="3">
-        <v>16</v>
+        <v>298</v>
       </c>
       <c r="C189" t="s" s="3">
         <v>299</v>
       </c>
       <c r="D189" s="3"/>
       <c r="E189" t="s" s="3">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="F189" t="s" s="3">
         <v>320</v>
@@ -5767,22 +5803,22 @@
         <v>302</v>
       </c>
       <c r="H189" t="n" s="4">
-        <v>14.75</v>
+        <v>15.73</v>
       </c>
     </row>
     <row r="190">
       <c r="B190" t="s" s="3">
-        <v>103</v>
+        <v>16</v>
       </c>
       <c r="C190" t="s" s="3">
         <v>299</v>
       </c>
       <c r="D190" s="3"/>
       <c r="E190" t="s" s="3">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="F190" t="s" s="3">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="G190" t="s" s="3">
         <v>302</v>
@@ -5793,137 +5829,137 @@
     </row>
     <row r="191">
       <c r="B191" t="s" s="3">
-        <v>40</v>
+        <v>103</v>
       </c>
       <c r="C191" t="s" s="3">
         <v>299</v>
       </c>
       <c r="D191" s="3"/>
       <c r="E191" t="s" s="3">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="F191" t="s" s="3">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="G191" t="s" s="3">
         <v>302</v>
       </c>
       <c r="H191" t="n" s="4">
-        <v>1.7</v>
+        <v>14.75</v>
       </c>
     </row>
     <row r="192">
       <c r="B192" t="s" s="3">
-        <v>321</v>
+        <v>40</v>
       </c>
       <c r="C192" t="s" s="3">
         <v>299</v>
       </c>
       <c r="D192" s="3"/>
       <c r="E192" t="s" s="3">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="F192" t="s" s="3">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="G192" t="s" s="3">
         <v>302</v>
       </c>
       <c r="H192" t="n" s="4">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="B193" t="s" s="3">
+        <v>322</v>
+      </c>
+      <c r="C193" t="s" s="3">
+        <v>299</v>
+      </c>
+      <c r="D193" s="3"/>
+      <c r="E193" t="s" s="3">
+        <v>319</v>
+      </c>
+      <c r="F193" t="s" s="3">
+        <v>320</v>
+      </c>
+      <c r="G193" t="s" s="3">
+        <v>302</v>
+      </c>
+      <c r="H193" t="n" s="4">
         <v>14.75</v>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" t="s" s="2">
-        <v>322</v>
-      </c>
-      <c r="H193" t="n" s="5">
-        <v>76.43</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="s" s="2">
         <v>323</v>
       </c>
+      <c r="H194" t="n" s="5">
+        <v>76.43</v>
+      </c>
     </row>
     <row r="195">
-      <c r="B195" t="s" s="3">
+      <c r="A195" t="s" s="2">
         <v>324</v>
-      </c>
-      <c r="C195" t="s" s="3">
-        <v>290</v>
-      </c>
-      <c r="D195" t="n" s="3">
-        <v>7336.0</v>
-      </c>
-      <c r="E195" t="s" s="3">
-        <v>325</v>
-      </c>
-      <c r="F195" t="s" s="3">
-        <v>326</v>
-      </c>
-      <c r="G195" t="s" s="3">
-        <v>293</v>
-      </c>
-      <c r="H195" t="n" s="4">
-        <v>20.0</v>
       </c>
     </row>
     <row r="196">
       <c r="B196" t="s" s="3">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="C196" t="s" s="3">
-        <v>299</v>
-      </c>
-      <c r="D196" s="3"/>
+        <v>290</v>
+      </c>
+      <c r="D196" t="n" s="3">
+        <v>7336.0</v>
+      </c>
       <c r="E196" t="s" s="3">
+        <v>326</v>
+      </c>
+      <c r="F196" t="s" s="3">
         <v>327</v>
       </c>
-      <c r="F196" t="s" s="3">
-        <v>328</v>
-      </c>
       <c r="G196" t="s" s="3">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="H196" t="n" s="4">
-        <v>0.59</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="197">
       <c r="B197" t="s" s="3">
-        <v>329</v>
+        <v>318</v>
       </c>
       <c r="C197" t="s" s="3">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="D197" s="3"/>
       <c r="E197" t="s" s="3">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="F197" t="s" s="3">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="G197" t="s" s="3">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="H197" t="n" s="4">
-        <v>20.0</v>
+        <v>0.59</v>
       </c>
     </row>
     <row r="198">
       <c r="B198" t="s" s="3">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C198" t="s" s="3">
         <v>290</v>
       </c>
       <c r="D198" s="3"/>
       <c r="E198" t="s" s="3">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="F198" t="s" s="3">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="G198" t="s" s="3">
         <v>293</v>
@@ -5934,69 +5970,67 @@
     </row>
     <row r="199">
       <c r="B199" t="s" s="3">
-        <v>113</v>
+        <v>333</v>
       </c>
       <c r="C199" t="s" s="3">
-        <v>299</v>
-      </c>
-      <c r="D199" t="n" s="3">
-        <v>3.86095465E8</v>
-      </c>
+        <v>290</v>
+      </c>
+      <c r="D199" s="3"/>
       <c r="E199" t="s" s="3">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F199" t="s" s="3">
         <v>327</v>
       </c>
       <c r="G199" t="s" s="3">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="H199" t="n" s="4">
-        <v>0.59</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="200">
       <c r="B200" t="s" s="3">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="C200" t="s" s="3">
-        <v>290</v>
-      </c>
-      <c r="D200" s="3"/>
+        <v>299</v>
+      </c>
+      <c r="D200" t="n" s="3">
+        <v>3.86095465E8</v>
+      </c>
       <c r="E200" t="s" s="3">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="F200" t="s" s="3">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="G200" t="s" s="3">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="H200" t="n" s="4">
-        <v>20.0</v>
+        <v>0.59</v>
       </c>
     </row>
     <row r="201">
       <c r="B201" t="s" s="3">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="C201" t="s" s="3">
-        <v>299</v>
-      </c>
-      <c r="D201" t="n" s="3">
-        <v>1.5662137E7</v>
-      </c>
+        <v>290</v>
+      </c>
+      <c r="D201" s="3"/>
       <c r="E201" t="s" s="3">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="F201" t="s" s="3">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="G201" t="s" s="3">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="H201" t="n" s="4">
-        <v>116.24</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="202">
@@ -6010,7 +6044,7 @@
         <v>1.5662137E7</v>
       </c>
       <c r="E202" t="s" s="3">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="F202" t="s" s="3">
         <v>335</v>
@@ -6024,46 +6058,46 @@
     </row>
     <row r="203">
       <c r="B203" t="s" s="3">
+        <v>133</v>
+      </c>
+      <c r="C203" t="s" s="3">
+        <v>299</v>
+      </c>
+      <c r="D203" t="n" s="3">
+        <v>1.5662137E7</v>
+      </c>
+      <c r="E203" t="s" s="3">
+        <v>334</v>
+      </c>
+      <c r="F203" t="s" s="3">
         <v>336</v>
-      </c>
-      <c r="C203" t="s" s="3">
-        <v>299</v>
-      </c>
-      <c r="D203" s="3"/>
-      <c r="E203" t="s" s="3">
-        <v>337</v>
-      </c>
-      <c r="F203" t="s" s="3">
-        <v>338</v>
       </c>
       <c r="G203" t="s" s="3">
         <v>302</v>
       </c>
       <c r="H203" t="n" s="4">
-        <v>25.0</v>
+        <v>116.24</v>
       </c>
     </row>
     <row r="204">
       <c r="B204" t="s" s="3">
+        <v>337</v>
+      </c>
+      <c r="C204" t="s" s="3">
+        <v>299</v>
+      </c>
+      <c r="D204" s="3"/>
+      <c r="E204" t="s" s="3">
+        <v>338</v>
+      </c>
+      <c r="F204" t="s" s="3">
         <v>339</v>
       </c>
-      <c r="C204" t="s" s="3">
-        <v>290</v>
-      </c>
-      <c r="D204" t="n" s="3">
-        <v>7509.0</v>
-      </c>
-      <c r="E204" t="s" s="3">
-        <v>325</v>
-      </c>
-      <c r="F204" t="s" s="3">
-        <v>326</v>
-      </c>
       <c r="G204" t="s" s="3">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="H204" t="n" s="4">
-        <v>20.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="205">
@@ -6071,58 +6105,58 @@
         <v>340</v>
       </c>
       <c r="C205" t="s" s="3">
-        <v>299</v>
-      </c>
-      <c r="D205" s="3"/>
+        <v>290</v>
+      </c>
+      <c r="D205" t="n" s="3">
+        <v>7509.0</v>
+      </c>
       <c r="E205" t="s" s="3">
+        <v>326</v>
+      </c>
+      <c r="F205" t="s" s="3">
         <v>327</v>
       </c>
-      <c r="F205" t="n" s="3">
-        <v>3.98900485E8</v>
-      </c>
       <c r="G205" t="s" s="3">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="H205" t="n" s="4">
-        <v>0.59</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="206">
       <c r="B206" t="s" s="3">
-        <v>280</v>
+        <v>341</v>
       </c>
       <c r="C206" t="s" s="3">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="D206" s="3"/>
       <c r="E206" t="s" s="3">
-        <v>330</v>
-      </c>
-      <c r="F206" t="s" s="3">
-        <v>331</v>
+        <v>328</v>
+      </c>
+      <c r="F206" t="n" s="3">
+        <v>3.98900485E8</v>
       </c>
       <c r="G206" t="s" s="3">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="H206" t="n" s="4">
-        <v>20.0</v>
+        <v>0.59</v>
       </c>
     </row>
     <row r="207">
       <c r="B207" t="s" s="3">
-        <v>341</v>
+        <v>280</v>
       </c>
       <c r="C207" t="s" s="3">
         <v>290</v>
       </c>
-      <c r="D207" t="n" s="3">
-        <v>7681.0</v>
-      </c>
+      <c r="D207" s="3"/>
       <c r="E207" t="s" s="3">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="F207" t="s" s="3">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="G207" t="s" s="3">
         <v>293</v>
@@ -6136,20 +6170,22 @@
         <v>342</v>
       </c>
       <c r="C208" t="s" s="3">
-        <v>299</v>
-      </c>
-      <c r="D208" s="3"/>
+        <v>290</v>
+      </c>
+      <c r="D208" t="n" s="3">
+        <v>7681.0</v>
+      </c>
       <c r="E208" t="s" s="3">
+        <v>326</v>
+      </c>
+      <c r="F208" t="s" s="3">
         <v>327</v>
       </c>
-      <c r="F208" t="n" s="3">
-        <v>4.14747233E8</v>
-      </c>
       <c r="G208" t="s" s="3">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="H208" t="n" s="4">
-        <v>0.6</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="209">
@@ -6157,20 +6193,20 @@
         <v>343</v>
       </c>
       <c r="C209" t="s" s="3">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="D209" s="3"/>
       <c r="E209" t="s" s="3">
-        <v>330</v>
-      </c>
-      <c r="F209" t="s" s="3">
-        <v>331</v>
+        <v>328</v>
+      </c>
+      <c r="F209" t="n" s="3">
+        <v>4.14747233E8</v>
       </c>
       <c r="G209" t="s" s="3">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="H209" t="n" s="4">
-        <v>20.0</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="210">
@@ -6178,62 +6214,62 @@
         <v>344</v>
       </c>
       <c r="C210" t="s" s="3">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="D210" s="3"/>
       <c r="E210" t="s" s="3">
-        <v>345</v>
+        <v>331</v>
       </c>
       <c r="F210" t="s" s="3">
-        <v>346</v>
+        <v>332</v>
       </c>
       <c r="G210" t="s" s="3">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="H210" t="n" s="4">
-        <v>98.94</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="211">
       <c r="B211" t="s" s="3">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C211" t="s" s="3">
         <v>299</v>
       </c>
       <c r="D211" s="3"/>
       <c r="E211" t="s" s="3">
-        <v>333</v>
+        <v>346</v>
       </c>
       <c r="F211" t="s" s="3">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="G211" t="s" s="3">
         <v>302</v>
       </c>
       <c r="H211" t="n" s="4">
-        <v>12.98</v>
+        <v>98.94</v>
       </c>
     </row>
     <row r="212">
       <c r="B212" t="s" s="3">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C212" t="s" s="3">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="D212" s="3"/>
       <c r="E212" t="s" s="3">
-        <v>325</v>
+        <v>334</v>
       </c>
       <c r="F212" t="s" s="3">
-        <v>326</v>
+        <v>349</v>
       </c>
       <c r="G212" t="s" s="3">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="H212" t="n" s="4">
-        <v>20.0</v>
+        <v>12.98</v>
       </c>
     </row>
     <row r="213">
@@ -6241,41 +6277,41 @@
         <v>350</v>
       </c>
       <c r="C213" t="s" s="3">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="D213" s="3"/>
       <c r="E213" t="s" s="3">
+        <v>326</v>
+      </c>
+      <c r="F213" t="s" s="3">
         <v>327</v>
       </c>
-      <c r="F213" t="s" s="3">
-        <v>351</v>
-      </c>
       <c r="G213" t="s" s="3">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="H213" t="n" s="4">
-        <v>0.6</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="214">
       <c r="B214" t="s" s="3">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C214" t="s" s="3">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="D214" s="3"/>
       <c r="E214" t="s" s="3">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="F214" t="s" s="3">
-        <v>331</v>
+        <v>352</v>
       </c>
       <c r="G214" t="s" s="3">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="H214" t="n" s="4">
-        <v>20.0</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="215">
@@ -6287,10 +6323,10 @@
       </c>
       <c r="D215" s="3"/>
       <c r="E215" t="s" s="3">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="F215" t="s" s="3">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="G215" t="s" s="3">
         <v>293</v>
@@ -6304,41 +6340,41 @@
         <v>354</v>
       </c>
       <c r="C216" t="s" s="3">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="D216" s="3"/>
       <c r="E216" t="s" s="3">
+        <v>326</v>
+      </c>
+      <c r="F216" t="s" s="3">
         <v>327</v>
       </c>
-      <c r="F216" t="s" s="3">
-        <v>355</v>
-      </c>
       <c r="G216" t="s" s="3">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="H216" t="n" s="4">
-        <v>0.6</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="217">
       <c r="B217" t="s" s="3">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C217" t="s" s="3">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="D217" s="3"/>
       <c r="E217" t="s" s="3">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="F217" t="s" s="3">
-        <v>331</v>
+        <v>356</v>
       </c>
       <c r="G217" t="s" s="3">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="H217" t="n" s="4">
-        <v>20.0</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="218">
@@ -6350,10 +6386,10 @@
       </c>
       <c r="D218" s="3"/>
       <c r="E218" t="s" s="3">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="F218" t="s" s="3">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="G218" t="s" s="3">
         <v>293</v>
@@ -6364,67 +6400,67 @@
     </row>
     <row r="219">
       <c r="B219" t="s" s="3">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C219" t="s" s="3">
         <v>290</v>
       </c>
-      <c r="D219" t="n" s="3">
-        <v>2.9050581E7</v>
-      </c>
+      <c r="D219" s="3"/>
       <c r="E219" t="s" s="3">
-        <v>358</v>
+        <v>326</v>
       </c>
       <c r="F219" t="s" s="3">
-        <v>359</v>
+        <v>327</v>
       </c>
       <c r="G219" t="s" s="3">
         <v>293</v>
       </c>
       <c r="H219" t="n" s="4">
-        <v>14.99</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="220">
       <c r="B220" t="s" s="3">
+        <v>358</v>
+      </c>
+      <c r="C220" t="s" s="3">
+        <v>290</v>
+      </c>
+      <c r="D220" t="n" s="3">
+        <v>2.9050581E7</v>
+      </c>
+      <c r="E220" t="s" s="3">
+        <v>359</v>
+      </c>
+      <c r="F220" t="s" s="3">
         <v>360</v>
       </c>
-      <c r="C220" t="s" s="3">
-        <v>299</v>
-      </c>
-      <c r="D220" s="3"/>
-      <c r="E220" t="s" s="3">
-        <v>327</v>
-      </c>
-      <c r="F220" t="s" s="3">
-        <v>361</v>
-      </c>
       <c r="G220" t="s" s="3">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="H220" t="n" s="4">
-        <v>0.6</v>
+        <v>14.99</v>
       </c>
     </row>
     <row r="221">
       <c r="B221" t="s" s="3">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C221" t="s" s="3">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="D221" s="3"/>
       <c r="E221" t="s" s="3">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="F221" t="s" s="3">
-        <v>331</v>
+        <v>362</v>
       </c>
       <c r="G221" t="s" s="3">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="H221" t="n" s="4">
-        <v>20.0</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="222">
@@ -6432,62 +6468,62 @@
         <v>363</v>
       </c>
       <c r="C222" t="s" s="3">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="D222" s="3"/>
       <c r="E222" t="s" s="3">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="F222" t="s" s="3">
-        <v>364</v>
+        <v>332</v>
       </c>
       <c r="G222" t="s" s="3">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="H222" t="n" s="4">
-        <v>35.96</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="223">
       <c r="B223" t="s" s="3">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C223" t="s" s="3">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="D223" s="3"/>
       <c r="E223" t="s" s="3">
-        <v>325</v>
+        <v>334</v>
       </c>
       <c r="F223" t="s" s="3">
-        <v>326</v>
+        <v>365</v>
       </c>
       <c r="G223" t="s" s="3">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="H223" t="n" s="4">
-        <v>20.0</v>
+        <v>35.96</v>
       </c>
     </row>
     <row r="224">
       <c r="B224" t="s" s="3">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C224" t="s" s="3">
         <v>290</v>
       </c>
       <c r="D224" s="3"/>
       <c r="E224" t="s" s="3">
-        <v>358</v>
+        <v>326</v>
       </c>
       <c r="F224" t="s" s="3">
-        <v>359</v>
+        <v>327</v>
       </c>
       <c r="G224" t="s" s="3">
         <v>293</v>
       </c>
       <c r="H224" t="n" s="4">
-        <v>14.99</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="225">
@@ -6495,41 +6531,41 @@
         <v>366</v>
       </c>
       <c r="C225" t="s" s="3">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="D225" s="3"/>
       <c r="E225" t="s" s="3">
-        <v>327</v>
+        <v>359</v>
       </c>
       <c r="F225" t="s" s="3">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="G225" t="s" s="3">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="H225" t="n" s="4">
-        <v>0.6</v>
+        <v>14.99</v>
       </c>
     </row>
     <row r="226">
       <c r="B226" t="s" s="3">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C226" t="s" s="3">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="D226" s="3"/>
       <c r="E226" t="s" s="3">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="F226" t="s" s="3">
-        <v>331</v>
+        <v>368</v>
       </c>
       <c r="G226" t="s" s="3">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="H226" t="n" s="4">
-        <v>20.0</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="227">
@@ -6541,31 +6577,31 @@
       </c>
       <c r="D227" s="3"/>
       <c r="E227" t="s" s="3">
-        <v>358</v>
+        <v>331</v>
       </c>
       <c r="F227" t="s" s="3">
-        <v>359</v>
+        <v>332</v>
       </c>
       <c r="G227" t="s" s="3">
         <v>293</v>
       </c>
       <c r="H227" t="n" s="4">
-        <v>14.99</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="228">
       <c r="B228" t="s" s="3">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C228" t="s" s="3">
         <v>290</v>
       </c>
       <c r="D228" s="3"/>
       <c r="E228" t="s" s="3">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="F228" t="s" s="3">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="G228" t="s" s="3">
         <v>293</v>
@@ -6579,41 +6615,41 @@
         <v>370</v>
       </c>
       <c r="C229" t="s" s="3">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="D229" s="3"/>
       <c r="E229" t="s" s="3">
-        <v>327</v>
+        <v>359</v>
       </c>
       <c r="F229" t="s" s="3">
-        <v>371</v>
+        <v>360</v>
       </c>
       <c r="G229" t="s" s="3">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="H229" t="n" s="4">
-        <v>0.6</v>
+        <v>14.99</v>
       </c>
     </row>
     <row r="230">
       <c r="B230" t="s" s="3">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C230" t="s" s="3">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="D230" s="3"/>
       <c r="E230" t="s" s="3">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="F230" t="s" s="3">
-        <v>331</v>
+        <v>372</v>
       </c>
       <c r="G230" t="s" s="3">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="H230" t="n" s="4">
-        <v>20.0</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="231">
@@ -6621,70 +6657,95 @@
         <v>373</v>
       </c>
       <c r="C231" t="s" s="3">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="D231" s="3"/>
       <c r="E231" t="s" s="3">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="F231" t="s" s="3">
+        <v>332</v>
+      </c>
+      <c r="G231" t="s" s="3">
+        <v>293</v>
+      </c>
+      <c r="H231" t="n" s="4">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="B232" t="s" s="3">
         <v>374</v>
       </c>
-      <c r="G231" t="s" s="3">
+      <c r="C232" t="s" s="3">
+        <v>299</v>
+      </c>
+      <c r="D232" s="3"/>
+      <c r="E232" t="s" s="3">
+        <v>334</v>
+      </c>
+      <c r="F232" t="s" s="3">
+        <v>375</v>
+      </c>
+      <c r="G232" t="s" s="3">
         <v>302</v>
       </c>
-      <c r="H231" t="n" s="4">
+      <c r="H232" t="n" s="4">
         <v>17.98</v>
       </c>
     </row>
-    <row r="232">
-      <c r="A232" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="H232" t="n" s="5">
-        <v>833.68</v>
-      </c>
-    </row>
     <row r="233">
-      <c r="A233" t="s" s="2">
+      <c r="B233" t="s" s="3">
         <v>376</v>
+      </c>
+      <c r="C233" t="s" s="3">
+        <v>290</v>
+      </c>
+      <c r="D233" s="3"/>
+      <c r="E233" t="s" s="3">
+        <v>359</v>
+      </c>
+      <c r="F233" t="s" s="3">
+        <v>360</v>
+      </c>
+      <c r="G233" t="s" s="3">
+        <v>293</v>
+      </c>
+      <c r="H233" t="n" s="4">
+        <v>14.99</v>
       </c>
     </row>
     <row r="234">
       <c r="B234" t="s" s="3">
-        <v>42</v>
+        <v>376</v>
       </c>
       <c r="C234" t="s" s="3">
         <v>290</v>
       </c>
-      <c r="D234" t="n" s="3">
-        <v>162673.0</v>
-      </c>
+      <c r="D234" s="3"/>
       <c r="E234" t="s" s="3">
-        <v>377</v>
+        <v>326</v>
       </c>
       <c r="F234" t="s" s="3">
-        <v>378</v>
+        <v>327</v>
       </c>
       <c r="G234" t="s" s="3">
         <v>293</v>
       </c>
       <c r="H234" t="n" s="4">
-        <v>40.75</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="235">
       <c r="B235" t="s" s="3">
-        <v>42</v>
+        <v>377</v>
       </c>
       <c r="C235" t="s" s="3">
         <v>290</v>
       </c>
-      <c r="D235" t="n" s="3">
-        <v>162673.0</v>
-      </c>
+      <c r="D235" s="3"/>
       <c r="E235" t="s" s="3">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="F235" t="s" s="3">
         <v>379</v>
@@ -6693,72 +6754,112 @@
         <v>293</v>
       </c>
       <c r="H235" t="n" s="4">
-        <v>503.1</v>
+        <v>59.85</v>
       </c>
     </row>
     <row r="236">
       <c r="B236" t="s" s="3">
-        <v>209</v>
+        <v>380</v>
       </c>
       <c r="C236" t="s" s="3">
         <v>299</v>
       </c>
-      <c r="D236" t="n" s="3">
-        <v>163049.0</v>
-      </c>
+      <c r="D236" s="3"/>
       <c r="E236" t="s" s="3">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="F236" t="s" s="3">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="G236" t="s" s="3">
         <v>302</v>
       </c>
       <c r="H236" t="n" s="4">
-        <v>30.21</v>
+        <v>59.85</v>
       </c>
     </row>
     <row r="237">
-      <c r="A237" t="s" s="2">
-        <v>381</v>
-      </c>
-      <c r="H237" t="n" s="5">
-        <v>574.06</v>
+      <c r="B237" t="s" s="3">
+        <v>380</v>
+      </c>
+      <c r="C237" t="s" s="3">
+        <v>299</v>
+      </c>
+      <c r="D237" s="3"/>
+      <c r="E237" t="s" s="3">
+        <v>328</v>
+      </c>
+      <c r="F237" t="s" s="3">
+        <v>382</v>
+      </c>
+      <c r="G237" t="s" s="3">
+        <v>302</v>
+      </c>
+      <c r="H237" t="n" s="4">
+        <v>0.6</v>
       </c>
     </row>
     <row r="238">
-      <c r="A238" t="s" s="2">
-        <v>382</v>
+      <c r="B238" t="s" s="3">
+        <v>380</v>
+      </c>
+      <c r="C238" t="s" s="3">
+        <v>290</v>
+      </c>
+      <c r="D238" s="3"/>
+      <c r="E238" t="s" s="3">
+        <v>331</v>
+      </c>
+      <c r="F238" t="s" s="3">
+        <v>332</v>
+      </c>
+      <c r="G238" t="s" s="3">
+        <v>293</v>
+      </c>
+      <c r="H238" t="n" s="4">
+        <v>20.0</v>
       </c>
     </row>
     <row r="239">
       <c r="B239" t="s" s="3">
-        <v>344</v>
+        <v>383</v>
       </c>
       <c r="C239" t="s" s="3">
-        <v>383</v>
+        <v>299</v>
       </c>
       <c r="D239" s="3"/>
       <c r="E239" t="s" s="3">
+        <v>346</v>
+      </c>
+      <c r="F239" t="s" s="3">
         <v>384</v>
-      </c>
-      <c r="F239" t="s" s="3">
-        <v>385</v>
       </c>
       <c r="G239" t="s" s="3">
         <v>302</v>
       </c>
       <c r="H239" t="n" s="4">
-        <v>600.0</v>
+        <v>98.94</v>
       </c>
     </row>
     <row r="240">
-      <c r="A240" t="s" s="2">
+      <c r="B240" t="s" s="3">
+        <v>385</v>
+      </c>
+      <c r="C240" t="s" s="3">
+        <v>299</v>
+      </c>
+      <c r="D240" s="3"/>
+      <c r="E240" t="s" s="3">
+        <v>334</v>
+      </c>
+      <c r="F240" t="s" s="3">
         <v>386</v>
       </c>
-      <c r="H240" t="n" s="5">
-        <v>600.0</v>
+      <c r="G240" t="s" s="3">
+        <v>302</v>
+      </c>
+      <c r="H240" t="n" s="4">
+        <v>17.98</v>
       </c>
     </row>
     <row r="241">
@@ -6766,7 +6867,7 @@
         <v>387</v>
       </c>
       <c r="H241" t="n" s="5">
-        <v>4687.35</v>
+        <v>1125.89</v>
       </c>
     </row>
     <row r="242">
@@ -6775,8 +6876,26 @@
       </c>
     </row>
     <row r="243">
-      <c r="A243" t="s" s="2">
+      <c r="B243" t="s" s="3">
+        <v>42</v>
+      </c>
+      <c r="C243" t="s" s="3">
+        <v>290</v>
+      </c>
+      <c r="D243" t="n" s="3">
+        <v>162673.0</v>
+      </c>
+      <c r="E243" t="s" s="3">
         <v>389</v>
+      </c>
+      <c r="F243" t="s" s="3">
+        <v>390</v>
+      </c>
+      <c r="G243" t="s" s="3">
+        <v>293</v>
+      </c>
+      <c r="H243" t="n" s="4">
+        <v>40.75</v>
       </c>
     </row>
     <row r="244">
@@ -6784,70 +6903,68 @@
         <v>42</v>
       </c>
       <c r="C244" t="s" s="3">
-        <v>299</v>
-      </c>
-      <c r="D244" t="s" s="3">
-        <v>390</v>
+        <v>290</v>
+      </c>
+      <c r="D244" t="n" s="3">
+        <v>162673.0</v>
       </c>
       <c r="E244" t="s" s="3">
+        <v>389</v>
+      </c>
+      <c r="F244" t="s" s="3">
         <v>391</v>
       </c>
-      <c r="F244" t="s" s="3">
-        <v>392</v>
-      </c>
       <c r="G244" t="s" s="3">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="H244" t="n" s="4">
-        <v>25.0</v>
+        <v>503.1</v>
       </c>
     </row>
     <row r="245">
       <c r="B245" t="s" s="3">
-        <v>339</v>
+        <v>209</v>
       </c>
       <c r="C245" t="s" s="3">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="D245" t="n" s="3">
-        <v>5517958.0</v>
+        <v>163049.0</v>
       </c>
       <c r="E245" t="s" s="3">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="F245" t="s" s="3">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="G245" t="s" s="3">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="H245" t="n" s="4">
-        <v>6.37</v>
+        <v>30.21</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="s" s="2">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H246" t="n" s="5">
-        <v>31.37</v>
+        <v>574.06</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="s" s="2">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="248">
       <c r="B248" t="s" s="3">
-        <v>42</v>
+        <v>345</v>
       </c>
       <c r="C248" t="s" s="3">
-        <v>299</v>
-      </c>
-      <c r="D248" t="n" s="3">
-        <v>3300212.0</v>
-      </c>
+        <v>395</v>
+      </c>
+      <c r="D248" s="3"/>
       <c r="E248" t="s" s="3">
         <v>396</v>
       </c>
@@ -6858,194 +6975,161 @@
         <v>302</v>
       </c>
       <c r="H248" t="n" s="4">
-        <v>25.99</v>
+        <v>600.0</v>
       </c>
     </row>
     <row r="249">
-      <c r="B249" t="s" s="3">
-        <v>146</v>
-      </c>
-      <c r="C249" t="s" s="3">
-        <v>299</v>
-      </c>
-      <c r="D249" t="n" s="3">
-        <v>119025.0</v>
-      </c>
-      <c r="E249" t="s" s="3">
+      <c r="A249" t="s" s="2">
         <v>398</v>
       </c>
-      <c r="F249" t="s" s="3">
+      <c r="H249" t="n" s="5">
+        <v>600.0</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="s" s="2">
         <v>399</v>
       </c>
-      <c r="G249" t="s" s="3">
+      <c r="H250" t="n" s="5">
+        <v>5036.56</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="s" s="2">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="s" s="2">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="B253" t="s" s="3">
+        <v>42</v>
+      </c>
+      <c r="C253" t="s" s="3">
+        <v>299</v>
+      </c>
+      <c r="D253" t="s" s="3">
+        <v>402</v>
+      </c>
+      <c r="E253" t="s" s="3">
+        <v>403</v>
+      </c>
+      <c r="F253" t="s" s="3">
+        <v>404</v>
+      </c>
+      <c r="G253" t="s" s="3">
         <v>302</v>
       </c>
-      <c r="H249" t="n" s="4">
-        <v>16.97</v>
-      </c>
-    </row>
-    <row r="250">
-      <c r="B250" t="s" s="3">
-        <v>146</v>
-      </c>
-      <c r="C250" t="s" s="3">
-        <v>299</v>
-      </c>
-      <c r="D250" t="n" s="3">
-        <v>119025.0</v>
-      </c>
-      <c r="E250" t="s" s="3">
-        <v>398</v>
-      </c>
-      <c r="F250" t="s" s="3">
-        <v>400</v>
-      </c>
-      <c r="G250" t="s" s="3">
-        <v>302</v>
-      </c>
-      <c r="H250" t="n" s="4">
-        <v>1.9</v>
-      </c>
-    </row>
-    <row r="251">
-      <c r="B251" t="s" s="3">
-        <v>146</v>
-      </c>
-      <c r="C251" t="s" s="3">
-        <v>299</v>
-      </c>
-      <c r="D251" t="n" s="3">
-        <v>119025.0</v>
-      </c>
-      <c r="E251" t="s" s="3">
-        <v>398</v>
-      </c>
-      <c r="F251" t="s" s="3">
-        <v>400</v>
-      </c>
-      <c r="G251" t="s" s="3">
-        <v>302</v>
-      </c>
-      <c r="H251" t="n" s="4">
-        <v>1.9</v>
-      </c>
-    </row>
-    <row r="252">
-      <c r="B252" t="s" s="3">
-        <v>146</v>
-      </c>
-      <c r="C252" t="s" s="3">
-        <v>299</v>
-      </c>
-      <c r="D252" t="n" s="3">
-        <v>119025.0</v>
-      </c>
-      <c r="E252" t="s" s="3">
-        <v>398</v>
-      </c>
-      <c r="F252" t="s" s="3">
-        <v>400</v>
-      </c>
-      <c r="G252" t="s" s="3">
-        <v>302</v>
-      </c>
-      <c r="H252" t="n" s="4">
-        <v>1.9</v>
-      </c>
-    </row>
-    <row r="253">
-      <c r="A253" t="s" s="2">
-        <v>401</v>
-      </c>
-      <c r="H253" t="n" s="5">
-        <v>48.66</v>
+      <c r="H253" t="n" s="4">
+        <v>25.0</v>
       </c>
     </row>
     <row r="254">
-      <c r="A254" t="s" s="2">
-        <v>402</v>
+      <c r="B254" t="s" s="3">
+        <v>340</v>
+      </c>
+      <c r="C254" t="s" s="3">
+        <v>290</v>
+      </c>
+      <c r="D254" t="n" s="3">
+        <v>5517958.0</v>
+      </c>
+      <c r="E254" t="s" s="3">
+        <v>403</v>
+      </c>
+      <c r="F254" t="s" s="3">
+        <v>405</v>
+      </c>
+      <c r="G254" t="s" s="3">
+        <v>293</v>
+      </c>
+      <c r="H254" t="n" s="4">
+        <v>6.37</v>
       </c>
     </row>
     <row r="255">
-      <c r="B255" t="s" s="3">
-        <v>164</v>
-      </c>
-      <c r="C255" t="s" s="3">
-        <v>299</v>
-      </c>
-      <c r="D255" t="s" s="3">
-        <v>403</v>
-      </c>
-      <c r="E255" t="s" s="3">
-        <v>404</v>
-      </c>
-      <c r="F255" t="s" s="3">
-        <v>405</v>
-      </c>
-      <c r="G255" t="s" s="3">
-        <v>302</v>
-      </c>
-      <c r="H255" t="n" s="4">
-        <v>49.0</v>
+      <c r="A255" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="H255" t="n" s="5">
+        <v>31.37</v>
       </c>
     </row>
     <row r="256">
-      <c r="B256" t="s" s="3">
-        <v>164</v>
-      </c>
-      <c r="C256" t="s" s="3">
-        <v>299</v>
-      </c>
-      <c r="D256" t="s" s="3">
-        <v>403</v>
-      </c>
-      <c r="E256" t="s" s="3">
-        <v>404</v>
-      </c>
-      <c r="F256" t="s" s="3">
-        <v>406</v>
-      </c>
-      <c r="G256" t="s" s="3">
-        <v>302</v>
-      </c>
-      <c r="H256" t="n" s="4">
-        <v>452.4</v>
+      <c r="A256" t="s" s="2">
+        <v>407</v>
       </c>
     </row>
     <row r="257">
       <c r="B257" t="s" s="3">
-        <v>164</v>
+        <v>42</v>
       </c>
       <c r="C257" t="s" s="3">
         <v>299</v>
       </c>
-      <c r="D257" t="s" s="3">
-        <v>403</v>
+      <c r="D257" t="n" s="3">
+        <v>3300212.0</v>
       </c>
       <c r="E257" t="s" s="3">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="F257" t="s" s="3">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="G257" t="s" s="3">
         <v>302</v>
       </c>
       <c r="H257" t="n" s="4">
-        <v>-50.0</v>
+        <v>25.99</v>
       </c>
     </row>
     <row r="258">
-      <c r="A258" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="H258" t="n" s="5">
-        <v>451.4</v>
+      <c r="B258" t="s" s="3">
+        <v>146</v>
+      </c>
+      <c r="C258" t="s" s="3">
+        <v>299</v>
+      </c>
+      <c r="D258" t="n" s="3">
+        <v>119025.0</v>
+      </c>
+      <c r="E258" t="s" s="3">
+        <v>410</v>
+      </c>
+      <c r="F258" t="s" s="3">
+        <v>411</v>
+      </c>
+      <c r="G258" t="s" s="3">
+        <v>302</v>
+      </c>
+      <c r="H258" t="n" s="4">
+        <v>16.97</v>
       </c>
     </row>
     <row r="259">
-      <c r="A259" t="s" s="2">
-        <v>409</v>
+      <c r="B259" t="s" s="3">
+        <v>146</v>
+      </c>
+      <c r="C259" t="s" s="3">
+        <v>299</v>
+      </c>
+      <c r="D259" t="n" s="3">
+        <v>119025.0</v>
+      </c>
+      <c r="E259" t="s" s="3">
+        <v>410</v>
+      </c>
+      <c r="F259" t="s" s="3">
+        <v>412</v>
+      </c>
+      <c r="G259" t="s" s="3">
+        <v>302</v>
+      </c>
+      <c r="H259" t="n" s="4">
+        <v>1.9</v>
       </c>
     </row>
     <row r="260">
@@ -7053,22 +7137,22 @@
         <v>146</v>
       </c>
       <c r="C260" t="s" s="3">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="D260" t="n" s="3">
-        <v>27817.0</v>
+        <v>119025.0</v>
       </c>
       <c r="E260" t="s" s="3">
-        <v>313</v>
+        <v>410</v>
       </c>
       <c r="F260" t="s" s="3">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="G260" t="s" s="3">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="H260" t="n" s="4">
-        <v>240.0</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="261">
@@ -7076,391 +7160,372 @@
         <v>146</v>
       </c>
       <c r="C261" t="s" s="3">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="D261" t="n" s="3">
-        <v>27817.0</v>
+        <v>119025.0</v>
       </c>
       <c r="E261" t="s" s="3">
-        <v>313</v>
+        <v>410</v>
       </c>
       <c r="F261" t="s" s="3">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="G261" t="s" s="3">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="H261" t="n" s="4">
-        <v>1710.0</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="262">
-      <c r="B262" t="s" s="3">
-        <v>146</v>
-      </c>
-      <c r="C262" t="s" s="3">
-        <v>290</v>
-      </c>
-      <c r="D262" t="n" s="3">
-        <v>27817.0</v>
-      </c>
-      <c r="E262" t="s" s="3">
-        <v>313</v>
-      </c>
-      <c r="F262" t="s" s="3">
-        <v>412</v>
-      </c>
-      <c r="G262" t="s" s="3">
-        <v>293</v>
-      </c>
-      <c r="H262" t="n" s="4">
-        <v>170.18</v>
+      <c r="A262" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="H262" t="n" s="5">
+        <v>48.66</v>
       </c>
     </row>
     <row r="263">
-      <c r="B263" t="s" s="3">
-        <v>146</v>
-      </c>
-      <c r="C263" t="s" s="3">
-        <v>290</v>
-      </c>
-      <c r="D263" t="n" s="3">
-        <v>27817.0</v>
-      </c>
-      <c r="E263" t="s" s="3">
-        <v>313</v>
-      </c>
-      <c r="F263" t="s" s="3">
-        <v>413</v>
-      </c>
-      <c r="G263" t="s" s="3">
-        <v>293</v>
-      </c>
-      <c r="H263" t="n" s="4">
-        <v>50.0</v>
+      <c r="A263" t="s" s="2">
+        <v>414</v>
       </c>
     </row>
     <row r="264">
       <c r="B264" t="s" s="3">
-        <v>146</v>
+        <v>164</v>
       </c>
       <c r="C264" t="s" s="3">
-        <v>290</v>
-      </c>
-      <c r="D264" t="n" s="3">
-        <v>27817.0</v>
+        <v>299</v>
+      </c>
+      <c r="D264" t="s" s="3">
+        <v>415</v>
       </c>
       <c r="E264" t="s" s="3">
-        <v>313</v>
+        <v>416</v>
       </c>
       <c r="F264" t="s" s="3">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="G264" t="s" s="3">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="H264" t="n" s="4">
-        <v>42.0</v>
+        <v>49.0</v>
       </c>
     </row>
     <row r="265">
       <c r="B265" t="s" s="3">
-        <v>146</v>
+        <v>164</v>
       </c>
       <c r="C265" t="s" s="3">
-        <v>290</v>
-      </c>
-      <c r="D265" t="n" s="3">
-        <v>27817.0</v>
+        <v>299</v>
+      </c>
+      <c r="D265" t="s" s="3">
+        <v>415</v>
       </c>
       <c r="E265" t="s" s="3">
-        <v>313</v>
+        <v>416</v>
       </c>
       <c r="F265" t="s" s="3">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="G265" t="s" s="3">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="H265" t="n" s="4">
-        <v>30.0</v>
+        <v>452.4</v>
       </c>
     </row>
     <row r="266">
       <c r="B266" t="s" s="3">
-        <v>146</v>
+        <v>164</v>
       </c>
       <c r="C266" t="s" s="3">
-        <v>290</v>
-      </c>
-      <c r="D266" t="n" s="3">
-        <v>27817.0</v>
+        <v>299</v>
+      </c>
+      <c r="D266" t="s" s="3">
+        <v>415</v>
       </c>
       <c r="E266" t="s" s="3">
-        <v>313</v>
+        <v>416</v>
       </c>
       <c r="F266" t="s" s="3">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="G266" t="s" s="3">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="H266" t="n" s="4">
-        <v>15.0</v>
+        <v>-50.0</v>
       </c>
     </row>
     <row r="267">
-      <c r="B267" t="s" s="3">
-        <v>146</v>
-      </c>
-      <c r="C267" t="s" s="3">
-        <v>290</v>
-      </c>
-      <c r="D267" t="n" s="3">
-        <v>27817.0</v>
-      </c>
-      <c r="E267" t="s" s="3">
-        <v>313</v>
-      </c>
-      <c r="F267" t="s" s="3">
-        <v>417</v>
-      </c>
-      <c r="G267" t="s" s="3">
-        <v>293</v>
-      </c>
-      <c r="H267" t="n" s="4">
-        <v>14.0</v>
+      <c r="A267" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="H267" t="n" s="5">
+        <v>451.4</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="s" s="2">
-        <v>418</v>
-      </c>
-      <c r="H268" t="n" s="5">
-        <v>2271.18</v>
+        <v>421</v>
       </c>
     </row>
     <row r="269">
-      <c r="A269" t="s" s="2">
-        <v>419</v>
+      <c r="B269" t="s" s="3">
+        <v>146</v>
+      </c>
+      <c r="C269" t="s" s="3">
+        <v>290</v>
+      </c>
+      <c r="D269" t="n" s="3">
+        <v>27817.0</v>
+      </c>
+      <c r="E269" t="s" s="3">
+        <v>314</v>
+      </c>
+      <c r="F269" t="s" s="3">
+        <v>422</v>
+      </c>
+      <c r="G269" t="s" s="3">
+        <v>293</v>
+      </c>
+      <c r="H269" t="n" s="4">
+        <v>240.0</v>
       </c>
     </row>
     <row r="270">
       <c r="B270" t="s" s="3">
-        <v>209</v>
+        <v>146</v>
       </c>
       <c r="C270" t="s" s="3">
         <v>290</v>
       </c>
       <c r="D270" t="n" s="3">
-        <v>10196.0</v>
+        <v>27817.0</v>
       </c>
       <c r="E270" t="s" s="3">
-        <v>420</v>
+        <v>314</v>
       </c>
       <c r="F270" t="s" s="3">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="G270" t="s" s="3">
         <v>293</v>
       </c>
       <c r="H270" t="n" s="4">
-        <v>1800.0</v>
+        <v>1710.0</v>
       </c>
     </row>
     <row r="271">
       <c r="B271" t="s" s="3">
-        <v>209</v>
+        <v>146</v>
       </c>
       <c r="C271" t="s" s="3">
         <v>290</v>
       </c>
       <c r="D271" t="n" s="3">
-        <v>10196.0</v>
+        <v>27817.0</v>
       </c>
       <c r="E271" t="s" s="3">
-        <v>420</v>
+        <v>314</v>
       </c>
       <c r="F271" t="s" s="3">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="G271" t="s" s="3">
         <v>293</v>
       </c>
       <c r="H271" t="n" s="4">
-        <v>760.2</v>
+        <v>170.18</v>
       </c>
     </row>
     <row r="272">
       <c r="B272" t="s" s="3">
-        <v>275</v>
+        <v>146</v>
       </c>
       <c r="C272" t="s" s="3">
-        <v>299</v>
-      </c>
-      <c r="D272" s="3"/>
+        <v>290</v>
+      </c>
+      <c r="D272" t="n" s="3">
+        <v>27817.0</v>
+      </c>
       <c r="E272" t="s" s="3">
-        <v>396</v>
+        <v>314</v>
       </c>
       <c r="F272" t="s" s="3">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="G272" t="s" s="3">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="H272" t="n" s="4">
-        <v>37.98</v>
+        <v>50.0</v>
       </c>
     </row>
     <row r="273">
       <c r="B273" t="s" s="3">
-        <v>275</v>
+        <v>146</v>
       </c>
       <c r="C273" t="s" s="3">
-        <v>299</v>
-      </c>
-      <c r="D273" s="3"/>
+        <v>290</v>
+      </c>
+      <c r="D273" t="n" s="3">
+        <v>27817.0</v>
+      </c>
       <c r="E273" t="s" s="3">
-        <v>396</v>
+        <v>314</v>
       </c>
       <c r="F273" t="s" s="3">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="G273" t="s" s="3">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="H273" t="n" s="4">
-        <v>33.98</v>
+        <v>42.0</v>
       </c>
     </row>
     <row r="274">
       <c r="B274" t="s" s="3">
-        <v>275</v>
+        <v>146</v>
       </c>
       <c r="C274" t="s" s="3">
-        <v>299</v>
-      </c>
-      <c r="D274" s="3"/>
+        <v>290</v>
+      </c>
+      <c r="D274" t="n" s="3">
+        <v>27817.0</v>
+      </c>
       <c r="E274" t="s" s="3">
-        <v>396</v>
+        <v>314</v>
       </c>
       <c r="F274" t="s" s="3">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="G274" t="s" s="3">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="H274" t="n" s="4">
-        <v>15.98</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="275">
       <c r="B275" t="s" s="3">
-        <v>275</v>
+        <v>146</v>
       </c>
       <c r="C275" t="s" s="3">
-        <v>299</v>
-      </c>
-      <c r="D275" s="3"/>
+        <v>290</v>
+      </c>
+      <c r="D275" t="n" s="3">
+        <v>27817.0</v>
+      </c>
       <c r="E275" t="s" s="3">
-        <v>396</v>
+        <v>314</v>
       </c>
       <c r="F275" t="s" s="3">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="G275" t="s" s="3">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="H275" t="n" s="4">
-        <v>12.99</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="276">
       <c r="B276" t="s" s="3">
-        <v>275</v>
+        <v>146</v>
       </c>
       <c r="C276" t="s" s="3">
-        <v>299</v>
-      </c>
-      <c r="D276" s="3"/>
+        <v>290</v>
+      </c>
+      <c r="D276" t="n" s="3">
+        <v>27817.0</v>
+      </c>
       <c r="E276" t="s" s="3">
-        <v>396</v>
+        <v>314</v>
       </c>
       <c r="F276" t="s" s="3">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="G276" t="s" s="3">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="H276" t="n" s="4">
-        <v>4.26</v>
+        <v>14.0</v>
       </c>
     </row>
     <row r="277">
-      <c r="B277" t="s" s="3">
-        <v>275</v>
-      </c>
-      <c r="C277" t="s" s="3">
-        <v>299</v>
-      </c>
-      <c r="D277" s="3"/>
-      <c r="E277" t="s" s="3">
-        <v>396</v>
-      </c>
-      <c r="F277" t="s" s="3">
-        <v>428</v>
-      </c>
-      <c r="G277" t="s" s="3">
-        <v>302</v>
-      </c>
-      <c r="H277" t="n" s="4">
-        <v>0.0</v>
+      <c r="A277" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="H277" t="n" s="5">
+        <v>2271.18</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="s" s="2">
-        <v>429</v>
-      </c>
-      <c r="H278" t="n" s="5">
-        <v>2665.39</v>
+        <v>431</v>
       </c>
     </row>
     <row r="279">
-      <c r="A279" t="s" s="2">
-        <v>430</v>
+      <c r="B279" t="s" s="3">
+        <v>209</v>
+      </c>
+      <c r="C279" t="s" s="3">
+        <v>290</v>
+      </c>
+      <c r="D279" t="n" s="3">
+        <v>10196.0</v>
+      </c>
+      <c r="E279" t="s" s="3">
+        <v>432</v>
+      </c>
+      <c r="F279" t="s" s="3">
+        <v>433</v>
+      </c>
+      <c r="G279" t="s" s="3">
+        <v>293</v>
+      </c>
+      <c r="H279" t="n" s="4">
+        <v>1800.0</v>
       </c>
     </row>
     <row r="280">
       <c r="B280" t="s" s="3">
-        <v>431</v>
+        <v>209</v>
       </c>
       <c r="C280" t="s" s="3">
-        <v>299</v>
-      </c>
-      <c r="D280" s="3"/>
+        <v>290</v>
+      </c>
+      <c r="D280" t="n" s="3">
+        <v>10196.0</v>
+      </c>
       <c r="E280" t="s" s="3">
         <v>432</v>
       </c>
       <c r="F280" t="s" s="3">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="G280" t="s" s="3">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="H280" t="n" s="4">
-        <v>42.13</v>
+        <v>760.2</v>
       </c>
     </row>
     <row r="281">
       <c r="B281" t="s" s="3">
-        <v>434</v>
+        <v>275</v>
       </c>
       <c r="C281" t="s" s="3">
         <v>299</v>
       </c>
       <c r="D281" s="3"/>
       <c r="E281" t="s" s="3">
-        <v>304</v>
+        <v>408</v>
       </c>
       <c r="F281" t="s" s="3">
         <v>435</v>
@@ -7469,19 +7534,19 @@
         <v>302</v>
       </c>
       <c r="H281" t="n" s="4">
-        <v>1.83</v>
+        <v>37.98</v>
       </c>
     </row>
     <row r="282">
       <c r="B282" t="s" s="3">
-        <v>434</v>
+        <v>275</v>
       </c>
       <c r="C282" t="s" s="3">
         <v>299</v>
       </c>
       <c r="D282" s="3"/>
       <c r="E282" t="s" s="3">
-        <v>304</v>
+        <v>408</v>
       </c>
       <c r="F282" t="s" s="3">
         <v>436</v>
@@ -7490,19 +7555,19 @@
         <v>302</v>
       </c>
       <c r="H282" t="n" s="4">
-        <v>4.47</v>
+        <v>33.98</v>
       </c>
     </row>
     <row r="283">
       <c r="B283" t="s" s="3">
-        <v>434</v>
+        <v>275</v>
       </c>
       <c r="C283" t="s" s="3">
         <v>299</v>
       </c>
       <c r="D283" s="3"/>
       <c r="E283" t="s" s="3">
-        <v>304</v>
+        <v>408</v>
       </c>
       <c r="F283" t="s" s="3">
         <v>437</v>
@@ -7511,19 +7576,19 @@
         <v>302</v>
       </c>
       <c r="H283" t="n" s="4">
-        <v>11.96</v>
+        <v>15.98</v>
       </c>
     </row>
     <row r="284">
       <c r="B284" t="s" s="3">
-        <v>434</v>
+        <v>275</v>
       </c>
       <c r="C284" t="s" s="3">
         <v>299</v>
       </c>
       <c r="D284" s="3"/>
       <c r="E284" t="s" s="3">
-        <v>304</v>
+        <v>408</v>
       </c>
       <c r="F284" t="s" s="3">
         <v>438</v>
@@ -7532,19 +7597,19 @@
         <v>302</v>
       </c>
       <c r="H284" t="n" s="4">
-        <v>6.48</v>
+        <v>12.99</v>
       </c>
     </row>
     <row r="285">
       <c r="B285" t="s" s="3">
-        <v>434</v>
+        <v>275</v>
       </c>
       <c r="C285" t="s" s="3">
         <v>299</v>
       </c>
       <c r="D285" s="3"/>
       <c r="E285" t="s" s="3">
-        <v>304</v>
+        <v>408</v>
       </c>
       <c r="F285" t="s" s="3">
         <v>439</v>
@@ -7553,19 +7618,19 @@
         <v>302</v>
       </c>
       <c r="H285" t="n" s="4">
-        <v>8.2</v>
+        <v>4.26</v>
       </c>
     </row>
     <row r="286">
       <c r="B286" t="s" s="3">
-        <v>434</v>
+        <v>275</v>
       </c>
       <c r="C286" t="s" s="3">
         <v>299</v>
       </c>
       <c r="D286" s="3"/>
       <c r="E286" t="s" s="3">
-        <v>304</v>
+        <v>408</v>
       </c>
       <c r="F286" t="s" s="3">
         <v>440</v>
@@ -7574,49 +7639,20 @@
         <v>302</v>
       </c>
       <c r="H286" t="n" s="4">
-        <v>9.92</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="287">
-      <c r="B287" t="s" s="3">
-        <v>434</v>
-      </c>
-      <c r="C287" t="s" s="3">
-        <v>299</v>
-      </c>
-      <c r="D287" s="3"/>
-      <c r="E287" t="s" s="3">
-        <v>304</v>
-      </c>
-      <c r="F287" t="s" s="3">
+      <c r="A287" t="s" s="2">
         <v>441</v>
       </c>
-      <c r="G287" t="s" s="3">
-        <v>302</v>
-      </c>
-      <c r="H287" t="n" s="4">
-        <v>1.24</v>
+      <c r="H287" t="n" s="5">
+        <v>2665.39</v>
       </c>
     </row>
     <row r="288">
-      <c r="B288" t="s" s="3">
-        <v>434</v>
-      </c>
-      <c r="C288" t="s" s="3">
-        <v>299</v>
-      </c>
-      <c r="D288" s="3"/>
-      <c r="E288" t="s" s="3">
-        <v>304</v>
-      </c>
-      <c r="F288" t="s" s="3">
+      <c r="A288" t="s" s="2">
         <v>442</v>
-      </c>
-      <c r="G288" t="s" s="3">
-        <v>302</v>
-      </c>
-      <c r="H288" t="n" s="4">
-        <v>5.92</v>
       </c>
     </row>
     <row r="289">
@@ -7624,11 +7660,11 @@
         <v>443</v>
       </c>
       <c r="C289" t="s" s="3">
-        <v>444</v>
+        <v>299</v>
       </c>
       <c r="D289" s="3"/>
       <c r="E289" t="s" s="3">
-        <v>304</v>
+        <v>444</v>
       </c>
       <c r="F289" t="s" s="3">
         <v>445</v>
@@ -7637,7 +7673,7 @@
         <v>302</v>
       </c>
       <c r="H289" t="n" s="4">
-        <v>-10.72</v>
+        <v>42.13</v>
       </c>
     </row>
     <row r="290">
@@ -7647,20 +7683,18 @@
       <c r="C290" t="s" s="3">
         <v>299</v>
       </c>
-      <c r="D290" t="s" s="3">
+      <c r="D290" s="3"/>
+      <c r="E290" t="s" s="3">
+        <v>304</v>
+      </c>
+      <c r="F290" t="s" s="3">
         <v>447</v>
-      </c>
-      <c r="E290" t="s" s="3">
-        <v>396</v>
-      </c>
-      <c r="F290" t="s" s="3">
-        <v>448</v>
       </c>
       <c r="G290" t="s" s="3">
         <v>302</v>
       </c>
       <c r="H290" t="n" s="4">
-        <v>-12.0</v>
+        <v>1.83</v>
       </c>
     </row>
     <row r="291">
@@ -7670,20 +7704,18 @@
       <c r="C291" t="s" s="3">
         <v>299</v>
       </c>
-      <c r="D291" t="s" s="3">
-        <v>447</v>
-      </c>
+      <c r="D291" s="3"/>
       <c r="E291" t="s" s="3">
-        <v>396</v>
+        <v>304</v>
       </c>
       <c r="F291" t="s" s="3">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="G291" t="s" s="3">
         <v>302</v>
       </c>
       <c r="H291" t="n" s="4">
-        <v>24.99</v>
+        <v>4.47</v>
       </c>
     </row>
     <row r="292">
@@ -7693,20 +7725,18 @@
       <c r="C292" t="s" s="3">
         <v>299</v>
       </c>
-      <c r="D292" t="s" s="3">
-        <v>447</v>
-      </c>
+      <c r="D292" s="3"/>
       <c r="E292" t="s" s="3">
-        <v>396</v>
+        <v>304</v>
       </c>
       <c r="F292" t="s" s="3">
-        <v>427</v>
+        <v>449</v>
       </c>
       <c r="G292" t="s" s="3">
         <v>302</v>
       </c>
       <c r="H292" t="n" s="4">
-        <v>30.59</v>
+        <v>11.96</v>
       </c>
     </row>
     <row r="293">
@@ -7716,11 +7746,9 @@
       <c r="C293" t="s" s="3">
         <v>299</v>
       </c>
-      <c r="D293" t="s" s="3">
-        <v>447</v>
-      </c>
+      <c r="D293" s="3"/>
       <c r="E293" t="s" s="3">
-        <v>396</v>
+        <v>304</v>
       </c>
       <c r="F293" t="s" s="3">
         <v>450</v>
@@ -7729,7 +7757,7 @@
         <v>302</v>
       </c>
       <c r="H293" t="n" s="4">
-        <v>59.99</v>
+        <v>6.48</v>
       </c>
     </row>
     <row r="294">
@@ -7739,11 +7767,9 @@
       <c r="C294" t="s" s="3">
         <v>299</v>
       </c>
-      <c r="D294" t="s" s="3">
-        <v>447</v>
-      </c>
+      <c r="D294" s="3"/>
       <c r="E294" t="s" s="3">
-        <v>396</v>
+        <v>304</v>
       </c>
       <c r="F294" t="s" s="3">
         <v>451</v>
@@ -7752,7 +7778,7 @@
         <v>302</v>
       </c>
       <c r="H294" t="n" s="4">
-        <v>74.97</v>
+        <v>8.2</v>
       </c>
     </row>
     <row r="295">
@@ -7762,11 +7788,9 @@
       <c r="C295" t="s" s="3">
         <v>299</v>
       </c>
-      <c r="D295" t="n" s="3">
-        <v>8997855.0</v>
-      </c>
+      <c r="D295" s="3"/>
       <c r="E295" t="s" s="3">
-        <v>396</v>
+        <v>304</v>
       </c>
       <c r="F295" t="s" s="3">
         <v>452</v>
@@ -7775,7 +7799,7 @@
         <v>302</v>
       </c>
       <c r="H295" t="n" s="4">
-        <v>79.94</v>
+        <v>9.92</v>
       </c>
     </row>
     <row r="296">
@@ -7785,11 +7809,9 @@
       <c r="C296" t="s" s="3">
         <v>299</v>
       </c>
-      <c r="D296" t="n" s="3">
-        <v>2343429.0</v>
-      </c>
+      <c r="D296" s="3"/>
       <c r="E296" t="s" s="3">
-        <v>396</v>
+        <v>304</v>
       </c>
       <c r="F296" t="s" s="3">
         <v>453</v>
@@ -7798,7 +7820,7 @@
         <v>302</v>
       </c>
       <c r="H296" t="n" s="4">
-        <v>100.0</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="297">
@@ -7808,175 +7830,214 @@
       <c r="C297" t="s" s="3">
         <v>299</v>
       </c>
-      <c r="D297" t="s" s="3">
+      <c r="D297" s="3"/>
+      <c r="E297" t="s" s="3">
+        <v>304</v>
+      </c>
+      <c r="F297" t="s" s="3">
         <v>454</v>
-      </c>
-      <c r="E297" t="s" s="3">
-        <v>396</v>
-      </c>
-      <c r="F297" t="s" s="3">
-        <v>455</v>
       </c>
       <c r="G297" t="s" s="3">
         <v>302</v>
       </c>
       <c r="H297" t="n" s="4">
-        <v>169.99</v>
+        <v>5.92</v>
       </c>
     </row>
     <row r="298">
       <c r="B298" t="s" s="3">
-        <v>446</v>
+        <v>455</v>
       </c>
       <c r="C298" t="s" s="3">
-        <v>299</v>
-      </c>
-      <c r="D298" t="s" s="3">
-        <v>447</v>
-      </c>
+        <v>456</v>
+      </c>
+      <c r="D298" s="3"/>
       <c r="E298" t="s" s="3">
-        <v>396</v>
+        <v>304</v>
       </c>
       <c r="F298" t="s" s="3">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="G298" t="s" s="3">
         <v>302</v>
       </c>
       <c r="H298" t="n" s="4">
-        <v>358.0</v>
+        <v>-10.72</v>
       </c>
     </row>
     <row r="299">
       <c r="B299" t="s" s="3">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C299" t="s" s="3">
-        <v>444</v>
-      </c>
-      <c r="D299" s="3"/>
+        <v>299</v>
+      </c>
+      <c r="D299" t="s" s="3">
+        <v>459</v>
+      </c>
       <c r="E299" t="s" s="3">
-        <v>396</v>
+        <v>408</v>
       </c>
       <c r="F299" t="s" s="3">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="G299" t="s" s="3">
         <v>302</v>
       </c>
       <c r="H299" t="n" s="4">
-        <v>-6.26</v>
+        <v>-12.0</v>
       </c>
     </row>
     <row r="300">
-      <c r="A300" t="s" s="2">
+      <c r="B300" t="s" s="3">
+        <v>458</v>
+      </c>
+      <c r="C300" t="s" s="3">
+        <v>299</v>
+      </c>
+      <c r="D300" t="s" s="3">
         <v>459</v>
       </c>
-      <c r="H300" t="n" s="5">
-        <v>961.64</v>
+      <c r="E300" t="s" s="3">
+        <v>408</v>
+      </c>
+      <c r="F300" t="s" s="3">
+        <v>461</v>
+      </c>
+      <c r="G300" t="s" s="3">
+        <v>302</v>
+      </c>
+      <c r="H300" t="n" s="4">
+        <v>24.99</v>
       </c>
     </row>
     <row r="301">
-      <c r="A301" t="s" s="2">
-        <v>460</v>
+      <c r="B301" t="s" s="3">
+        <v>458</v>
+      </c>
+      <c r="C301" t="s" s="3">
+        <v>299</v>
+      </c>
+      <c r="D301" t="s" s="3">
+        <v>459</v>
+      </c>
+      <c r="E301" t="s" s="3">
+        <v>408</v>
+      </c>
+      <c r="F301" t="s" s="3">
+        <v>439</v>
+      </c>
+      <c r="G301" t="s" s="3">
+        <v>302</v>
+      </c>
+      <c r="H301" t="n" s="4">
+        <v>30.59</v>
       </c>
     </row>
     <row r="302">
       <c r="B302" t="s" s="3">
-        <v>275</v>
+        <v>458</v>
       </c>
       <c r="C302" t="s" s="3">
-        <v>290</v>
-      </c>
-      <c r="D302" s="3"/>
+        <v>299</v>
+      </c>
+      <c r="D302" t="s" s="3">
+        <v>459</v>
+      </c>
       <c r="E302" t="s" s="3">
-        <v>461</v>
+        <v>408</v>
       </c>
       <c r="F302" t="s" s="3">
         <v>462</v>
       </c>
       <c r="G302" t="s" s="3">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="H302" t="n" s="4">
-        <v>1000.0</v>
+        <v>59.99</v>
       </c>
     </row>
     <row r="303">
       <c r="B303" t="s" s="3">
-        <v>275</v>
+        <v>458</v>
       </c>
       <c r="C303" t="s" s="3">
-        <v>290</v>
-      </c>
-      <c r="D303" s="3"/>
+        <v>299</v>
+      </c>
+      <c r="D303" t="s" s="3">
+        <v>459</v>
+      </c>
       <c r="E303" t="s" s="3">
-        <v>461</v>
+        <v>408</v>
       </c>
       <c r="F303" t="s" s="3">
         <v>463</v>
       </c>
       <c r="G303" t="s" s="3">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="H303" t="n" s="4">
-        <v>338.99</v>
+        <v>74.97</v>
       </c>
     </row>
     <row r="304">
       <c r="B304" t="s" s="3">
-        <v>275</v>
+        <v>458</v>
       </c>
       <c r="C304" t="s" s="3">
-        <v>290</v>
-      </c>
-      <c r="D304" s="3"/>
+        <v>299</v>
+      </c>
+      <c r="D304" t="n" s="3">
+        <v>8997855.0</v>
+      </c>
       <c r="E304" t="s" s="3">
-        <v>461</v>
+        <v>408</v>
       </c>
       <c r="F304" t="s" s="3">
         <v>464</v>
       </c>
       <c r="G304" t="s" s="3">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="H304" t="n" s="4">
-        <v>-500.0</v>
+        <v>79.94</v>
       </c>
     </row>
     <row r="305">
       <c r="B305" t="s" s="3">
-        <v>275</v>
+        <v>458</v>
       </c>
       <c r="C305" t="s" s="3">
-        <v>290</v>
-      </c>
-      <c r="D305" s="3"/>
+        <v>299</v>
+      </c>
+      <c r="D305" t="n" s="3">
+        <v>2343429.0</v>
+      </c>
       <c r="E305" t="s" s="3">
-        <v>461</v>
+        <v>408</v>
       </c>
       <c r="F305" t="s" s="3">
         <v>465</v>
       </c>
       <c r="G305" t="s" s="3">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="H305" t="n" s="4">
-        <v>3185.0</v>
+        <v>100.0</v>
       </c>
     </row>
     <row r="306">
       <c r="B306" t="s" s="3">
+        <v>458</v>
+      </c>
+      <c r="C306" t="s" s="3">
+        <v>299</v>
+      </c>
+      <c r="D306" t="s" s="3">
         <v>466</v>
       </c>
-      <c r="C306" t="s" s="3">
-        <v>299</v>
-      </c>
-      <c r="D306" t="n" s="3">
-        <v>550835.0</v>
-      </c>
       <c r="E306" t="s" s="3">
-        <v>304</v>
+        <v>408</v>
       </c>
       <c r="F306" t="s" s="3">
         <v>467</v>
@@ -7985,1866 +8046,1966 @@
         <v>302</v>
       </c>
       <c r="H306" t="n" s="4">
-        <v>2.0</v>
+        <v>169.99</v>
       </c>
     </row>
     <row r="307">
       <c r="B307" t="s" s="3">
-        <v>466</v>
+        <v>458</v>
       </c>
       <c r="C307" t="s" s="3">
         <v>299</v>
       </c>
-      <c r="D307" t="n" s="3">
-        <v>550835.0</v>
+      <c r="D307" t="s" s="3">
+        <v>459</v>
       </c>
       <c r="E307" t="s" s="3">
-        <v>304</v>
+        <v>408</v>
       </c>
       <c r="F307" t="s" s="3">
-        <v>441</v>
+        <v>468</v>
       </c>
       <c r="G307" t="s" s="3">
         <v>302</v>
       </c>
       <c r="H307" t="n" s="4">
-        <v>0.79</v>
+        <v>358.0</v>
       </c>
     </row>
     <row r="308">
       <c r="B308" t="s" s="3">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="C308" t="s" s="3">
-        <v>299</v>
-      </c>
-      <c r="D308" t="n" s="3">
-        <v>550835.0</v>
-      </c>
+        <v>456</v>
+      </c>
+      <c r="D308" s="3"/>
       <c r="E308" t="s" s="3">
-        <v>304</v>
+        <v>408</v>
       </c>
       <c r="F308" t="s" s="3">
-        <v>435</v>
+        <v>470</v>
       </c>
       <c r="G308" t="s" s="3">
         <v>302</v>
       </c>
       <c r="H308" t="n" s="4">
-        <v>0.39</v>
+        <v>-6.26</v>
       </c>
     </row>
     <row r="309">
-      <c r="B309" t="s" s="3">
-        <v>466</v>
-      </c>
-      <c r="C309" t="s" s="3">
-        <v>299</v>
-      </c>
-      <c r="D309" t="n" s="3">
-        <v>550835.0</v>
-      </c>
-      <c r="E309" t="s" s="3">
-        <v>304</v>
-      </c>
-      <c r="F309" t="s" s="3">
-        <v>468</v>
-      </c>
-      <c r="G309" t="s" s="3">
-        <v>302</v>
-      </c>
-      <c r="H309" t="n" s="4">
-        <v>2.64</v>
+      <c r="A309" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="H309" t="n" s="5">
+        <v>961.64</v>
       </c>
     </row>
     <row r="310">
-      <c r="B310" t="s" s="3">
-        <v>466</v>
-      </c>
-      <c r="C310" t="s" s="3">
-        <v>299</v>
-      </c>
-      <c r="D310" t="n" s="3">
-        <v>550835.0</v>
-      </c>
-      <c r="E310" t="s" s="3">
-        <v>304</v>
-      </c>
-      <c r="F310" t="s" s="3">
-        <v>469</v>
-      </c>
-      <c r="G310" t="s" s="3">
-        <v>302</v>
-      </c>
-      <c r="H310" t="n" s="4">
-        <v>5.0</v>
+      <c r="A310" t="s" s="2">
+        <v>472</v>
       </c>
     </row>
     <row r="311">
       <c r="B311" t="s" s="3">
-        <v>466</v>
+        <v>275</v>
       </c>
       <c r="C311" t="s" s="3">
-        <v>299</v>
-      </c>
-      <c r="D311" t="n" s="3">
-        <v>550835.0</v>
-      </c>
+        <v>290</v>
+      </c>
+      <c r="D311" s="3"/>
       <c r="E311" t="s" s="3">
-        <v>304</v>
+        <v>473</v>
       </c>
       <c r="F311" t="s" s="3">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="G311" t="s" s="3">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="H311" t="n" s="4">
-        <v>3.24</v>
+        <v>1000.0</v>
       </c>
     </row>
     <row r="312">
       <c r="B312" t="s" s="3">
-        <v>466</v>
+        <v>275</v>
       </c>
       <c r="C312" t="s" s="3">
-        <v>299</v>
-      </c>
-      <c r="D312" t="n" s="3">
-        <v>550835.0</v>
-      </c>
+        <v>290</v>
+      </c>
+      <c r="D312" s="3"/>
       <c r="E312" t="s" s="3">
-        <v>304</v>
+        <v>473</v>
       </c>
       <c r="F312" t="s" s="3">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="G312" t="s" s="3">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="H312" t="n" s="4">
-        <v>2.64</v>
+        <v>338.99</v>
       </c>
     </row>
     <row r="313">
       <c r="B313" t="s" s="3">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="C313" t="s" s="3">
         <v>290</v>
       </c>
       <c r="D313" s="3"/>
       <c r="E313" t="s" s="3">
-        <v>461</v>
+        <v>473</v>
       </c>
       <c r="F313" t="s" s="3">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="G313" t="s" s="3">
         <v>293</v>
       </c>
       <c r="H313" t="n" s="4">
-        <v>610.65</v>
+        <v>-500.0</v>
       </c>
     </row>
     <row r="314">
       <c r="B314" t="s" s="3">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="C314" t="s" s="3">
         <v>290</v>
       </c>
       <c r="D314" s="3"/>
       <c r="E314" t="s" s="3">
-        <v>461</v>
+        <v>473</v>
       </c>
       <c r="F314" t="s" s="3">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="G314" t="s" s="3">
         <v>293</v>
       </c>
       <c r="H314" t="n" s="4">
-        <v>100.0</v>
+        <v>3185.0</v>
       </c>
     </row>
     <row r="315">
       <c r="B315" t="s" s="3">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="C315" t="s" s="3">
-        <v>290</v>
-      </c>
-      <c r="D315" s="3"/>
+        <v>299</v>
+      </c>
+      <c r="D315" t="n" s="3">
+        <v>550835.0</v>
+      </c>
       <c r="E315" t="s" s="3">
-        <v>461</v>
+        <v>304</v>
       </c>
       <c r="F315" t="s" s="3">
-        <v>463</v>
+        <v>479</v>
       </c>
       <c r="G315" t="s" s="3">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="H315" t="n" s="4">
-        <v>42.36</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="316">
       <c r="B316" t="s" s="3">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="C316" t="s" s="3">
-        <v>290</v>
-      </c>
-      <c r="D316" s="3"/>
+        <v>299</v>
+      </c>
+      <c r="D316" t="n" s="3">
+        <v>550835.0</v>
+      </c>
       <c r="E316" t="s" s="3">
-        <v>461</v>
+        <v>304</v>
       </c>
       <c r="F316" t="s" s="3">
-        <v>475</v>
+        <v>453</v>
       </c>
       <c r="G316" t="s" s="3">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="H316" t="n" s="4">
-        <v>523.0</v>
+        <v>0.79</v>
       </c>
     </row>
     <row r="317">
-      <c r="A317" t="s" s="2">
-        <v>476</v>
-      </c>
-      <c r="H317" t="n" s="5">
-        <v>5316.7</v>
+      <c r="B317" t="s" s="3">
+        <v>478</v>
+      </c>
+      <c r="C317" t="s" s="3">
+        <v>299</v>
+      </c>
+      <c r="D317" t="n" s="3">
+        <v>550835.0</v>
+      </c>
+      <c r="E317" t="s" s="3">
+        <v>304</v>
+      </c>
+      <c r="F317" t="s" s="3">
+        <v>447</v>
+      </c>
+      <c r="G317" t="s" s="3">
+        <v>302</v>
+      </c>
+      <c r="H317" t="n" s="4">
+        <v>0.39</v>
       </c>
     </row>
     <row r="318">
-      <c r="A318" t="s" s="2">
-        <v>477</v>
+      <c r="B318" t="s" s="3">
+        <v>478</v>
+      </c>
+      <c r="C318" t="s" s="3">
+        <v>299</v>
+      </c>
+      <c r="D318" t="n" s="3">
+        <v>550835.0</v>
+      </c>
+      <c r="E318" t="s" s="3">
+        <v>304</v>
+      </c>
+      <c r="F318" t="s" s="3">
+        <v>480</v>
+      </c>
+      <c r="G318" t="s" s="3">
+        <v>302</v>
+      </c>
+      <c r="H318" t="n" s="4">
+        <v>2.64</v>
       </c>
     </row>
     <row r="319">
       <c r="B319" t="s" s="3">
-        <v>16</v>
+        <v>478</v>
       </c>
       <c r="C319" t="s" s="3">
         <v>299</v>
       </c>
-      <c r="D319" s="3"/>
+      <c r="D319" t="n" s="3">
+        <v>550835.0</v>
+      </c>
       <c r="E319" t="s" s="3">
-        <v>318</v>
+        <v>304</v>
       </c>
       <c r="F319" t="s" s="3">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="G319" t="s" s="3">
         <v>302</v>
       </c>
       <c r="H319" t="n" s="4">
-        <v>52.45</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="320">
       <c r="B320" t="s" s="3">
-        <v>16</v>
+        <v>478</v>
       </c>
       <c r="C320" t="s" s="3">
         <v>299</v>
       </c>
-      <c r="D320" s="3"/>
+      <c r="D320" t="n" s="3">
+        <v>550835.0</v>
+      </c>
       <c r="E320" t="s" s="3">
-        <v>318</v>
+        <v>304</v>
       </c>
       <c r="F320" t="s" s="3">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="G320" t="s" s="3">
         <v>302</v>
       </c>
       <c r="H320" t="n" s="4">
-        <v>52.45</v>
+        <v>3.24</v>
       </c>
     </row>
     <row r="321">
       <c r="B321" t="s" s="3">
-        <v>16</v>
+        <v>478</v>
       </c>
       <c r="C321" t="s" s="3">
         <v>299</v>
       </c>
-      <c r="D321" s="3"/>
+      <c r="D321" t="n" s="3">
+        <v>550835.0</v>
+      </c>
       <c r="E321" t="s" s="3">
-        <v>318</v>
+        <v>304</v>
       </c>
       <c r="F321" t="s" s="3">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="G321" t="s" s="3">
         <v>302</v>
       </c>
       <c r="H321" t="n" s="4">
-        <v>26.35</v>
+        <v>2.64</v>
       </c>
     </row>
     <row r="322">
       <c r="B322" t="s" s="3">
-        <v>209</v>
+        <v>280</v>
       </c>
       <c r="C322" t="s" s="3">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="D322" s="3"/>
       <c r="E322" t="s" s="3">
-        <v>318</v>
+        <v>473</v>
       </c>
       <c r="F322" t="s" s="3">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="G322" t="s" s="3">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="H322" t="n" s="4">
-        <v>13.3</v>
+        <v>610.65</v>
       </c>
     </row>
     <row r="323">
       <c r="B323" t="s" s="3">
-        <v>209</v>
+        <v>280</v>
       </c>
       <c r="C323" t="s" s="3">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="D323" s="3"/>
       <c r="E323" t="s" s="3">
-        <v>318</v>
+        <v>473</v>
       </c>
       <c r="F323" t="s" s="3">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="G323" t="s" s="3">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="H323" t="n" s="4">
-        <v>10.0</v>
+        <v>100.0</v>
       </c>
     </row>
     <row r="324">
-      <c r="A324" t="s" s="2">
-        <v>483</v>
-      </c>
-      <c r="H324" t="n" s="5">
-        <v>154.55</v>
+      <c r="B324" t="s" s="3">
+        <v>486</v>
+      </c>
+      <c r="C324" t="s" s="3">
+        <v>290</v>
+      </c>
+      <c r="D324" s="3"/>
+      <c r="E324" t="s" s="3">
+        <v>473</v>
+      </c>
+      <c r="F324" t="s" s="3">
+        <v>475</v>
+      </c>
+      <c r="G324" t="s" s="3">
+        <v>293</v>
+      </c>
+      <c r="H324" t="n" s="4">
+        <v>42.36</v>
       </c>
     </row>
     <row r="325">
-      <c r="A325" t="s" s="2">
-        <v>484</v>
+      <c r="B325" t="s" s="3">
+        <v>486</v>
+      </c>
+      <c r="C325" t="s" s="3">
+        <v>290</v>
+      </c>
+      <c r="D325" s="3"/>
+      <c r="E325" t="s" s="3">
+        <v>473</v>
+      </c>
+      <c r="F325" t="s" s="3">
+        <v>487</v>
+      </c>
+      <c r="G325" t="s" s="3">
+        <v>293</v>
+      </c>
+      <c r="H325" t="n" s="4">
+        <v>523.0</v>
       </c>
     </row>
     <row r="326">
-      <c r="B326" t="s" s="3">
-        <v>209</v>
-      </c>
-      <c r="C326" t="s" s="3">
-        <v>290</v>
-      </c>
-      <c r="D326" s="3"/>
-      <c r="E326" t="s" s="3">
-        <v>485</v>
-      </c>
-      <c r="F326" t="s" s="3">
-        <v>486</v>
-      </c>
-      <c r="G326" t="s" s="3">
-        <v>293</v>
-      </c>
-      <c r="H326" t="n" s="4">
-        <v>4.99</v>
+      <c r="A326" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="H326" t="n" s="5">
+        <v>5316.7</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="s" s="2">
-        <v>487</v>
-      </c>
-      <c r="H327" t="n" s="5">
-        <v>4.99</v>
+        <v>489</v>
       </c>
     </row>
     <row r="328">
-      <c r="A328" t="s" s="2">
-        <v>488</v>
+      <c r="B328" t="s" s="3">
+        <v>16</v>
+      </c>
+      <c r="C328" t="s" s="3">
+        <v>299</v>
+      </c>
+      <c r="D328" s="3"/>
+      <c r="E328" t="s" s="3">
+        <v>319</v>
+      </c>
+      <c r="F328" t="s" s="3">
+        <v>490</v>
+      </c>
+      <c r="G328" t="s" s="3">
+        <v>302</v>
+      </c>
+      <c r="H328" t="n" s="4">
+        <v>52.45</v>
       </c>
     </row>
     <row r="329">
       <c r="B329" t="s" s="3">
-        <v>98</v>
+        <v>16</v>
       </c>
       <c r="C329" t="s" s="3">
         <v>299</v>
       </c>
       <c r="D329" s="3"/>
       <c r="E329" t="s" s="3">
-        <v>489</v>
+        <v>319</v>
       </c>
       <c r="F329" t="s" s="3">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="G329" t="s" s="3">
-        <v>65</v>
+        <v>302</v>
       </c>
       <c r="H329" t="n" s="4">
-        <v>27.69</v>
+        <v>52.45</v>
       </c>
     </row>
     <row r="330">
       <c r="B330" t="s" s="3">
-        <v>491</v>
+        <v>16</v>
       </c>
       <c r="C330" t="s" s="3">
         <v>299</v>
       </c>
       <c r="D330" s="3"/>
       <c r="E330" t="s" s="3">
-        <v>489</v>
+        <v>319</v>
       </c>
       <c r="F330" t="s" s="3">
         <v>492</v>
       </c>
       <c r="G330" t="s" s="3">
-        <v>65</v>
+        <v>302</v>
       </c>
       <c r="H330" t="n" s="4">
-        <v>3.2</v>
+        <v>26.35</v>
       </c>
     </row>
     <row r="331">
       <c r="B331" t="s" s="3">
-        <v>493</v>
+        <v>209</v>
       </c>
       <c r="C331" t="s" s="3">
         <v>299</v>
       </c>
       <c r="D331" s="3"/>
       <c r="E331" t="s" s="3">
-        <v>489</v>
+        <v>319</v>
       </c>
       <c r="F331" t="s" s="3">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="G331" t="s" s="3">
-        <v>65</v>
+        <v>302</v>
       </c>
       <c r="H331" t="n" s="4">
-        <v>1.75</v>
+        <v>13.3</v>
       </c>
     </row>
     <row r="332">
       <c r="B332" t="s" s="3">
-        <v>38</v>
+        <v>209</v>
       </c>
       <c r="C332" t="s" s="3">
         <v>299</v>
       </c>
       <c r="D332" s="3"/>
       <c r="E332" t="s" s="3">
-        <v>489</v>
+        <v>319</v>
       </c>
       <c r="F332" t="s" s="3">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="G332" t="s" s="3">
-        <v>65</v>
+        <v>302</v>
       </c>
       <c r="H332" t="n" s="4">
-        <v>3.2</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="333">
-      <c r="B333" t="s" s="3">
-        <v>113</v>
-      </c>
-      <c r="C333" t="s" s="3">
-        <v>299</v>
-      </c>
-      <c r="D333" s="3"/>
-      <c r="E333" t="s" s="3">
-        <v>489</v>
-      </c>
-      <c r="F333" t="s" s="3">
-        <v>492</v>
-      </c>
-      <c r="G333" t="s" s="3">
-        <v>65</v>
-      </c>
-      <c r="H333" t="n" s="4">
-        <v>3.2</v>
+      <c r="A333" t="s" s="2">
+        <v>495</v>
+      </c>
+      <c r="H333" t="n" s="5">
+        <v>154.55</v>
       </c>
     </row>
     <row r="334">
-      <c r="B334" t="s" s="3">
-        <v>40</v>
-      </c>
-      <c r="C334" t="s" s="3">
-        <v>299</v>
-      </c>
-      <c r="D334" s="3"/>
-      <c r="E334" t="s" s="3">
-        <v>489</v>
-      </c>
-      <c r="F334" t="s" s="3">
-        <v>495</v>
-      </c>
-      <c r="G334" t="s" s="3">
-        <v>65</v>
-      </c>
-      <c r="H334" t="n" s="4">
-        <v>6.99</v>
+      <c r="A334" t="s" s="2">
+        <v>496</v>
       </c>
     </row>
     <row r="335">
       <c r="B335" t="s" s="3">
-        <v>128</v>
+        <v>209</v>
       </c>
       <c r="C335" t="s" s="3">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="D335" s="3"/>
       <c r="E335" t="s" s="3">
-        <v>489</v>
+        <v>497</v>
       </c>
       <c r="F335" t="s" s="3">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="G335" t="s" s="3">
-        <v>65</v>
+        <v>293</v>
       </c>
       <c r="H335" t="n" s="4">
-        <v>11.04</v>
+        <v>4.99</v>
       </c>
     </row>
     <row r="336">
-      <c r="B336" t="s" s="3">
-        <v>133</v>
-      </c>
-      <c r="C336" t="s" s="3">
-        <v>299</v>
-      </c>
-      <c r="D336" s="3"/>
-      <c r="E336" t="s" s="3">
-        <v>489</v>
-      </c>
-      <c r="F336" t="s" s="3">
-        <v>497</v>
-      </c>
-      <c r="G336" t="s" s="3">
-        <v>65</v>
-      </c>
-      <c r="H336" t="n" s="4">
-        <v>4.08</v>
+      <c r="A336" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="H336" t="n" s="5">
+        <v>4.99</v>
       </c>
     </row>
     <row r="337">
-      <c r="B337" t="s" s="3">
-        <v>45</v>
-      </c>
-      <c r="C337" t="s" s="3">
-        <v>299</v>
-      </c>
-      <c r="D337" s="3"/>
-      <c r="E337" t="s" s="3">
-        <v>489</v>
-      </c>
-      <c r="F337" t="s" s="3">
-        <v>498</v>
-      </c>
-      <c r="G337" t="s" s="3">
-        <v>65</v>
-      </c>
-      <c r="H337" t="n" s="4">
-        <v>13.08</v>
+      <c r="A337" t="s" s="2">
+        <v>500</v>
       </c>
     </row>
     <row r="338">
       <c r="B338" t="s" s="3">
-        <v>48</v>
+        <v>98</v>
       </c>
       <c r="C338" t="s" s="3">
         <v>299</v>
       </c>
       <c r="D338" s="3"/>
       <c r="E338" t="s" s="3">
-        <v>489</v>
+        <v>501</v>
       </c>
       <c r="F338" t="s" s="3">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="G338" t="s" s="3">
         <v>65</v>
       </c>
       <c r="H338" t="n" s="4">
-        <v>10.18</v>
+        <v>27.69</v>
       </c>
     </row>
     <row r="339">
       <c r="B339" t="s" s="3">
-        <v>164</v>
+        <v>503</v>
       </c>
       <c r="C339" t="s" s="3">
         <v>299</v>
       </c>
       <c r="D339" s="3"/>
       <c r="E339" t="s" s="3">
-        <v>489</v>
+        <v>501</v>
       </c>
       <c r="F339" t="s" s="3">
-        <v>500</v>
+        <v>504</v>
       </c>
       <c r="G339" t="s" s="3">
         <v>65</v>
       </c>
       <c r="H339" t="n" s="4">
-        <v>15.4</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="340">
       <c r="B340" t="s" s="3">
-        <v>184</v>
+        <v>505</v>
       </c>
       <c r="C340" t="s" s="3">
         <v>299</v>
       </c>
       <c r="D340" s="3"/>
       <c r="E340" t="s" s="3">
-        <v>489</v>
+        <v>501</v>
       </c>
       <c r="F340" t="s" s="3">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="G340" t="s" s="3">
         <v>65</v>
       </c>
       <c r="H340" t="n" s="4">
-        <v>3.5</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="341">
       <c r="B341" t="s" s="3">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="C341" t="s" s="3">
         <v>299</v>
       </c>
       <c r="D341" s="3"/>
       <c r="E341" t="s" s="3">
-        <v>489</v>
+        <v>501</v>
       </c>
       <c r="F341" t="s" s="3">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="G341" t="s" s="3">
         <v>65</v>
       </c>
       <c r="H341" t="n" s="4">
-        <v>6.7</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="342">
       <c r="B342" t="s" s="3">
-        <v>209</v>
+        <v>113</v>
       </c>
       <c r="C342" t="s" s="3">
         <v>299</v>
       </c>
       <c r="D342" s="3"/>
       <c r="E342" t="s" s="3">
-        <v>489</v>
+        <v>501</v>
       </c>
       <c r="F342" t="s" s="3">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="G342" t="s" s="3">
         <v>65</v>
       </c>
       <c r="H342" t="n" s="4">
-        <v>19.48</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="343">
       <c r="B343" t="s" s="3">
-        <v>262</v>
+        <v>40</v>
       </c>
       <c r="C343" t="s" s="3">
         <v>299</v>
       </c>
       <c r="D343" s="3"/>
       <c r="E343" t="s" s="3">
-        <v>489</v>
+        <v>501</v>
       </c>
       <c r="F343" t="s" s="3">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="G343" t="s" s="3">
         <v>65</v>
       </c>
       <c r="H343" t="n" s="4">
-        <v>26.78</v>
+        <v>6.99</v>
       </c>
     </row>
     <row r="344">
       <c r="B344" t="s" s="3">
-        <v>443</v>
+        <v>128</v>
       </c>
       <c r="C344" t="s" s="3">
         <v>299</v>
       </c>
       <c r="D344" s="3"/>
       <c r="E344" t="s" s="3">
-        <v>489</v>
+        <v>501</v>
       </c>
       <c r="F344" t="s" s="3">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="G344" t="s" s="3">
         <v>65</v>
       </c>
       <c r="H344" t="n" s="4">
-        <v>10.78</v>
+        <v>11.04</v>
       </c>
     </row>
     <row r="345">
       <c r="B345" t="s" s="3">
-        <v>474</v>
+        <v>133</v>
       </c>
       <c r="C345" t="s" s="3">
         <v>299</v>
       </c>
       <c r="D345" s="3"/>
       <c r="E345" t="s" s="3">
-        <v>489</v>
+        <v>501</v>
       </c>
       <c r="F345" t="s" s="3">
-        <v>492</v>
+        <v>509</v>
       </c>
       <c r="G345" t="s" s="3">
         <v>65</v>
       </c>
       <c r="H345" t="n" s="4">
-        <v>3.2</v>
+        <v>4.08</v>
       </c>
     </row>
     <row r="346">
-      <c r="A346" t="s" s="2">
-        <v>506</v>
-      </c>
-      <c r="H346" t="n" s="5">
-        <v>170.25</v>
+      <c r="B346" t="s" s="3">
+        <v>45</v>
+      </c>
+      <c r="C346" t="s" s="3">
+        <v>299</v>
+      </c>
+      <c r="D346" s="3"/>
+      <c r="E346" t="s" s="3">
+        <v>501</v>
+      </c>
+      <c r="F346" t="s" s="3">
+        <v>510</v>
+      </c>
+      <c r="G346" t="s" s="3">
+        <v>65</v>
+      </c>
+      <c r="H346" t="n" s="4">
+        <v>13.08</v>
       </c>
     </row>
     <row r="347">
-      <c r="A347" t="s" s="2">
-        <v>507</v>
+      <c r="B347" t="s" s="3">
+        <v>48</v>
+      </c>
+      <c r="C347" t="s" s="3">
+        <v>299</v>
+      </c>
+      <c r="D347" s="3"/>
+      <c r="E347" t="s" s="3">
+        <v>501</v>
+      </c>
+      <c r="F347" t="s" s="3">
+        <v>511</v>
+      </c>
+      <c r="G347" t="s" s="3">
+        <v>65</v>
+      </c>
+      <c r="H347" t="n" s="4">
+        <v>10.18</v>
       </c>
     </row>
     <row r="348">
       <c r="B348" t="s" s="3">
-        <v>431</v>
+        <v>164</v>
       </c>
       <c r="C348" t="s" s="3">
         <v>299</v>
       </c>
-      <c r="D348" t="n" s="3">
-        <v>698456.0</v>
-      </c>
+      <c r="D348" s="3"/>
       <c r="E348" t="s" s="3">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="F348" t="s" s="3">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="G348" t="s" s="3">
-        <v>302</v>
+        <v>65</v>
       </c>
       <c r="H348" t="n" s="4">
-        <v>200.0</v>
+        <v>15.4</v>
       </c>
     </row>
     <row r="349">
       <c r="B349" t="s" s="3">
-        <v>510</v>
+        <v>184</v>
       </c>
       <c r="C349" t="s" s="3">
         <v>299</v>
       </c>
-      <c r="D349" t="n" s="3">
-        <v>430970.0</v>
-      </c>
+      <c r="D349" s="3"/>
       <c r="E349" t="s" s="3">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="F349" t="s" s="3">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="G349" t="s" s="3">
-        <v>302</v>
+        <v>65</v>
       </c>
       <c r="H349" t="n" s="4">
-        <v>46.77</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="350">
       <c r="B350" t="s" s="3">
-        <v>510</v>
+        <v>57</v>
       </c>
       <c r="C350" t="s" s="3">
         <v>299</v>
       </c>
-      <c r="D350" t="n" s="3">
-        <v>430970.0</v>
-      </c>
+      <c r="D350" s="3"/>
       <c r="E350" t="s" s="3">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="F350" t="s" s="3">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="G350" t="s" s="3">
-        <v>302</v>
+        <v>65</v>
       </c>
       <c r="H350" t="n" s="4">
-        <v>172.49</v>
+        <v>6.7</v>
       </c>
     </row>
     <row r="351">
       <c r="B351" t="s" s="3">
-        <v>510</v>
+        <v>209</v>
       </c>
       <c r="C351" t="s" s="3">
         <v>299</v>
       </c>
-      <c r="D351" t="n" s="3">
-        <v>430970.0</v>
-      </c>
+      <c r="D351" s="3"/>
       <c r="E351" t="s" s="3">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="F351" t="s" s="3">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="G351" t="s" s="3">
-        <v>302</v>
+        <v>65</v>
       </c>
       <c r="H351" t="n" s="4">
-        <v>180.26</v>
+        <v>19.48</v>
       </c>
     </row>
     <row r="352">
       <c r="B352" t="s" s="3">
-        <v>510</v>
+        <v>262</v>
       </c>
       <c r="C352" t="s" s="3">
         <v>299</v>
       </c>
-      <c r="D352" t="n" s="3">
-        <v>430970.0</v>
-      </c>
+      <c r="D352" s="3"/>
       <c r="E352" t="s" s="3">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="F352" t="s" s="3">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="G352" t="s" s="3">
-        <v>302</v>
+        <v>65</v>
       </c>
       <c r="H352" t="n" s="4">
-        <v>37.34</v>
+        <v>26.78</v>
       </c>
     </row>
     <row r="353">
       <c r="B353" t="s" s="3">
-        <v>510</v>
+        <v>455</v>
       </c>
       <c r="C353" t="s" s="3">
         <v>299</v>
       </c>
-      <c r="D353" t="n" s="3">
-        <v>430970.0</v>
-      </c>
+      <c r="D353" s="3"/>
       <c r="E353" t="s" s="3">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="F353" t="s" s="3">
-        <v>427</v>
+        <v>517</v>
       </c>
       <c r="G353" t="s" s="3">
-        <v>302</v>
+        <v>65</v>
       </c>
       <c r="H353" t="n" s="4">
-        <v>38.62</v>
+        <v>10.78</v>
       </c>
     </row>
     <row r="354">
       <c r="B354" t="s" s="3">
-        <v>510</v>
+        <v>486</v>
       </c>
       <c r="C354" t="s" s="3">
         <v>299</v>
       </c>
-      <c r="D354" t="n" s="3">
-        <v>430970.0</v>
-      </c>
+      <c r="D354" s="3"/>
       <c r="E354" t="s" s="3">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="F354" t="s" s="3">
-        <v>515</v>
+        <v>504</v>
       </c>
       <c r="G354" t="s" s="3">
-        <v>302</v>
+        <v>65</v>
       </c>
       <c r="H354" t="n" s="4">
-        <v>4.84</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="355">
-      <c r="B355" t="s" s="3">
-        <v>510</v>
-      </c>
-      <c r="C355" t="s" s="3">
-        <v>299</v>
-      </c>
-      <c r="D355" t="n" s="3">
-        <v>430970.0</v>
-      </c>
-      <c r="E355" t="s" s="3">
-        <v>508</v>
-      </c>
-      <c r="F355" t="s" s="3">
-        <v>509</v>
-      </c>
-      <c r="G355" t="s" s="3">
-        <v>302</v>
-      </c>
-      <c r="H355" t="n" s="4">
-        <v>-200.0</v>
+      <c r="A355" t="s" s="2">
+        <v>518</v>
+      </c>
+      <c r="H355" t="n" s="5">
+        <v>170.25</v>
       </c>
     </row>
     <row r="356">
-      <c r="B356" t="s" s="3">
-        <v>510</v>
-      </c>
-      <c r="C356" t="s" s="3">
-        <v>299</v>
-      </c>
-      <c r="D356" t="n" s="3">
-        <v>430970.0</v>
-      </c>
-      <c r="E356" t="s" s="3">
-        <v>508</v>
-      </c>
-      <c r="F356" t="s" s="3">
-        <v>516</v>
-      </c>
-      <c r="G356" t="s" s="3">
-        <v>302</v>
-      </c>
-      <c r="H356" t="n" s="4">
-        <v>35.03</v>
+      <c r="A356" t="s" s="2">
+        <v>519</v>
       </c>
     </row>
     <row r="357">
       <c r="B357" t="s" s="3">
-        <v>466</v>
+        <v>443</v>
       </c>
       <c r="C357" t="s" s="3">
         <v>299</v>
       </c>
       <c r="D357" t="n" s="3">
-        <v>550835.0</v>
+        <v>698456.0</v>
       </c>
       <c r="E357" t="s" s="3">
-        <v>304</v>
+        <v>520</v>
       </c>
       <c r="F357" t="s" s="3">
-        <v>517</v>
+        <v>521</v>
       </c>
       <c r="G357" t="s" s="3">
         <v>302</v>
       </c>
       <c r="H357" t="n" s="4">
-        <v>4.76</v>
+        <v>200.0</v>
       </c>
     </row>
     <row r="358">
-      <c r="A358" t="s" s="2">
-        <v>518</v>
-      </c>
-      <c r="H358" t="n" s="5">
-        <v>520.11</v>
+      <c r="B358" t="s" s="3">
+        <v>522</v>
+      </c>
+      <c r="C358" t="s" s="3">
+        <v>299</v>
+      </c>
+      <c r="D358" t="n" s="3">
+        <v>430970.0</v>
+      </c>
+      <c r="E358" t="s" s="3">
+        <v>520</v>
+      </c>
+      <c r="F358" t="s" s="3">
+        <v>523</v>
+      </c>
+      <c r="G358" t="s" s="3">
+        <v>302</v>
+      </c>
+      <c r="H358" t="n" s="4">
+        <v>46.77</v>
       </c>
     </row>
     <row r="359">
-      <c r="A359" t="s" s="2">
-        <v>519</v>
+      <c r="B359" t="s" s="3">
+        <v>522</v>
+      </c>
+      <c r="C359" t="s" s="3">
+        <v>299</v>
+      </c>
+      <c r="D359" t="n" s="3">
+        <v>430970.0</v>
+      </c>
+      <c r="E359" t="s" s="3">
+        <v>520</v>
+      </c>
+      <c r="F359" t="s" s="3">
+        <v>524</v>
+      </c>
+      <c r="G359" t="s" s="3">
+        <v>302</v>
+      </c>
+      <c r="H359" t="n" s="4">
+        <v>172.49</v>
       </c>
     </row>
     <row r="360">
       <c r="B360" t="s" s="3">
+        <v>522</v>
+      </c>
+      <c r="C360" t="s" s="3">
+        <v>299</v>
+      </c>
+      <c r="D360" t="n" s="3">
+        <v>430970.0</v>
+      </c>
+      <c r="E360" t="s" s="3">
         <v>520</v>
       </c>
-      <c r="C360" t="s" s="3">
-        <v>299</v>
-      </c>
-      <c r="D360" s="3"/>
-      <c r="E360" t="s" s="3">
-        <v>521</v>
-      </c>
       <c r="F360" t="s" s="3">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="G360" t="s" s="3">
         <v>302</v>
       </c>
       <c r="H360" t="n" s="4">
-        <v>78.0</v>
+        <v>180.26</v>
       </c>
     </row>
     <row r="361">
       <c r="B361" t="s" s="3">
+        <v>522</v>
+      </c>
+      <c r="C361" t="s" s="3">
+        <v>299</v>
+      </c>
+      <c r="D361" t="n" s="3">
+        <v>430970.0</v>
+      </c>
+      <c r="E361" t="s" s="3">
         <v>520</v>
       </c>
-      <c r="C361" t="s" s="3">
-        <v>299</v>
-      </c>
-      <c r="D361" s="3"/>
-      <c r="E361" t="s" s="3">
-        <v>521</v>
-      </c>
       <c r="F361" t="s" s="3">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="G361" t="s" s="3">
         <v>302</v>
       </c>
       <c r="H361" t="n" s="4">
-        <v>433.41</v>
+        <v>37.34</v>
       </c>
     </row>
     <row r="362">
-      <c r="A362" t="s" s="2">
-        <v>524</v>
-      </c>
-      <c r="H362" t="n" s="5">
-        <v>511.41</v>
+      <c r="B362" t="s" s="3">
+        <v>522</v>
+      </c>
+      <c r="C362" t="s" s="3">
+        <v>299</v>
+      </c>
+      <c r="D362" t="n" s="3">
+        <v>430970.0</v>
+      </c>
+      <c r="E362" t="s" s="3">
+        <v>520</v>
+      </c>
+      <c r="F362" t="s" s="3">
+        <v>439</v>
+      </c>
+      <c r="G362" t="s" s="3">
+        <v>302</v>
+      </c>
+      <c r="H362" t="n" s="4">
+        <v>38.62</v>
       </c>
     </row>
     <row r="363">
-      <c r="A363" t="s" s="2">
-        <v>525</v>
+      <c r="B363" t="s" s="3">
+        <v>522</v>
+      </c>
+      <c r="C363" t="s" s="3">
+        <v>299</v>
+      </c>
+      <c r="D363" t="n" s="3">
+        <v>430970.0</v>
+      </c>
+      <c r="E363" t="s" s="3">
+        <v>520</v>
+      </c>
+      <c r="F363" t="s" s="3">
+        <v>527</v>
+      </c>
+      <c r="G363" t="s" s="3">
+        <v>302</v>
+      </c>
+      <c r="H363" t="n" s="4">
+        <v>4.84</v>
       </c>
     </row>
     <row r="364">
       <c r="B364" t="s" s="3">
-        <v>262</v>
+        <v>522</v>
       </c>
       <c r="C364" t="s" s="3">
         <v>299</v>
       </c>
-      <c r="D364" s="3"/>
+      <c r="D364" t="n" s="3">
+        <v>430970.0</v>
+      </c>
       <c r="E364" t="s" s="3">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="F364" t="s" s="3">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="G364" t="s" s="3">
         <v>302</v>
       </c>
       <c r="H364" t="n" s="4">
-        <v>68.58</v>
+        <v>-200.0</v>
       </c>
     </row>
     <row r="365">
       <c r="B365" t="s" s="3">
-        <v>262</v>
+        <v>522</v>
       </c>
       <c r="C365" t="s" s="3">
         <v>299</v>
       </c>
-      <c r="D365" s="3"/>
+      <c r="D365" t="n" s="3">
+        <v>430970.0</v>
+      </c>
       <c r="E365" t="s" s="3">
+        <v>520</v>
+      </c>
+      <c r="F365" t="s" s="3">
         <v>528</v>
-      </c>
-      <c r="F365" t="s" s="3">
-        <v>529</v>
       </c>
       <c r="G365" t="s" s="3">
         <v>302</v>
       </c>
       <c r="H365" t="n" s="4">
-        <v>30.87</v>
+        <v>35.03</v>
       </c>
     </row>
     <row r="366">
       <c r="B366" t="s" s="3">
-        <v>434</v>
+        <v>478</v>
       </c>
       <c r="C366" t="s" s="3">
         <v>299</v>
       </c>
       <c r="D366" t="n" s="3">
-        <v>477011.0</v>
+        <v>550835.0</v>
       </c>
       <c r="E366" t="s" s="3">
-        <v>396</v>
+        <v>304</v>
       </c>
       <c r="F366" t="s" s="3">
-        <v>427</v>
+        <v>529</v>
       </c>
       <c r="G366" t="s" s="3">
         <v>302</v>
       </c>
       <c r="H366" t="n" s="4">
-        <v>1.96</v>
+        <v>4.76</v>
       </c>
     </row>
     <row r="367">
-      <c r="B367" t="s" s="3">
-        <v>434</v>
-      </c>
-      <c r="C367" t="s" s="3">
-        <v>299</v>
-      </c>
-      <c r="D367" t="n" s="3">
-        <v>477011.0</v>
-      </c>
-      <c r="E367" t="s" s="3">
-        <v>396</v>
-      </c>
-      <c r="F367" t="s" s="3">
+      <c r="A367" t="s" s="2">
         <v>530</v>
       </c>
-      <c r="G367" t="s" s="3">
-        <v>302</v>
-      </c>
-      <c r="H367" t="n" s="4">
-        <v>350.0</v>
+      <c r="H367" t="n" s="5">
+        <v>520.11</v>
       </c>
     </row>
     <row r="368">
-      <c r="B368" t="s" s="3">
-        <v>434</v>
-      </c>
-      <c r="C368" t="s" s="3">
-        <v>299</v>
-      </c>
-      <c r="D368" t="n" s="3">
-        <v>477011.0</v>
-      </c>
-      <c r="E368" t="s" s="3">
-        <v>396</v>
-      </c>
-      <c r="F368" t="s" s="3">
+      <c r="A368" t="s" s="2">
         <v>531</v>
-      </c>
-      <c r="G368" t="s" s="3">
-        <v>302</v>
-      </c>
-      <c r="H368" t="n" s="4">
-        <v>300.0</v>
       </c>
     </row>
     <row r="369">
       <c r="B369" t="s" s="3">
-        <v>434</v>
+        <v>532</v>
       </c>
       <c r="C369" t="s" s="3">
         <v>299</v>
       </c>
-      <c r="D369" t="n" s="3">
-        <v>477011.0</v>
-      </c>
+      <c r="D369" s="3"/>
       <c r="E369" t="s" s="3">
-        <v>396</v>
+        <v>533</v>
       </c>
       <c r="F369" t="s" s="3">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="G369" t="s" s="3">
         <v>302</v>
       </c>
       <c r="H369" t="n" s="4">
-        <v>12.63</v>
+        <v>78.0</v>
       </c>
     </row>
     <row r="370">
       <c r="B370" t="s" s="3">
-        <v>434</v>
+        <v>532</v>
       </c>
       <c r="C370" t="s" s="3">
         <v>299</v>
       </c>
-      <c r="D370" t="n" s="3">
-        <v>477011.0</v>
-      </c>
+      <c r="D370" s="3"/>
       <c r="E370" t="s" s="3">
-        <v>396</v>
+        <v>533</v>
       </c>
       <c r="F370" t="s" s="3">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="G370" t="s" s="3">
         <v>302</v>
       </c>
       <c r="H370" t="n" s="4">
-        <v>11.58</v>
+        <v>433.41</v>
       </c>
     </row>
     <row r="371">
-      <c r="B371" t="s" s="3">
-        <v>534</v>
-      </c>
-      <c r="C371" t="s" s="3">
-        <v>444</v>
-      </c>
-      <c r="D371" s="3"/>
-      <c r="E371" t="s" s="3">
-        <v>396</v>
-      </c>
-      <c r="F371" t="s" s="3">
-        <v>535</v>
-      </c>
-      <c r="G371" t="s" s="3">
+      <c r="A371" t="s" s="2">
+        <v>536</v>
+      </c>
+      <c r="H371" t="n" s="5">
+        <v>511.41</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="s" s="2">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="B373" t="s" s="3">
+        <v>262</v>
+      </c>
+      <c r="C373" t="s" s="3">
+        <v>299</v>
+      </c>
+      <c r="D373" s="3"/>
+      <c r="E373" t="s" s="3">
+        <v>538</v>
+      </c>
+      <c r="F373" t="s" s="3">
+        <v>539</v>
+      </c>
+      <c r="G373" t="s" s="3">
         <v>302</v>
       </c>
-      <c r="H371" t="n" s="4">
-        <v>-0.04</v>
-      </c>
-    </row>
-    <row r="372">
-      <c r="B372" t="s" s="3">
-        <v>466</v>
-      </c>
-      <c r="C372" t="s" s="3">
-        <v>299</v>
-      </c>
-      <c r="D372" t="n" s="3">
-        <v>550835.0</v>
-      </c>
-      <c r="E372" t="s" s="3">
-        <v>304</v>
-      </c>
-      <c r="F372" t="s" s="3">
-        <v>536</v>
-      </c>
-      <c r="G372" t="s" s="3">
+      <c r="H373" t="n" s="4">
+        <v>68.58</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="B374" t="s" s="3">
+        <v>262</v>
+      </c>
+      <c r="C374" t="s" s="3">
+        <v>299</v>
+      </c>
+      <c r="D374" s="3"/>
+      <c r="E374" t="s" s="3">
+        <v>540</v>
+      </c>
+      <c r="F374" t="s" s="3">
+        <v>541</v>
+      </c>
+      <c r="G374" t="s" s="3">
         <v>302</v>
       </c>
-      <c r="H372" t="n" s="4">
-        <v>11.0</v>
-      </c>
-    </row>
-    <row r="373">
-      <c r="A373" t="s" s="2">
-        <v>537</v>
-      </c>
-      <c r="H373" t="n" s="5">
-        <v>786.58</v>
-      </c>
-    </row>
-    <row r="374">
-      <c r="A374" t="s" s="2">
-        <v>538</v>
+      <c r="H374" t="n" s="4">
+        <v>30.87</v>
       </c>
     </row>
     <row r="375">
       <c r="B375" t="s" s="3">
-        <v>164</v>
+        <v>446</v>
       </c>
       <c r="C375" t="s" s="3">
-        <v>290</v>
-      </c>
-      <c r="D375" s="3"/>
+        <v>299</v>
+      </c>
+      <c r="D375" t="n" s="3">
+        <v>477011.0</v>
+      </c>
       <c r="E375" t="s" s="3">
-        <v>539</v>
+        <v>408</v>
       </c>
       <c r="F375" t="s" s="3">
-        <v>540</v>
+        <v>439</v>
       </c>
       <c r="G375" t="s" s="3">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="H375" t="n" s="4">
-        <v>450.0</v>
+        <v>1.96</v>
       </c>
     </row>
     <row r="376">
       <c r="B376" t="s" s="3">
-        <v>164</v>
+        <v>446</v>
       </c>
       <c r="C376" t="s" s="3">
-        <v>290</v>
-      </c>
-      <c r="D376" s="3"/>
+        <v>299</v>
+      </c>
+      <c r="D376" t="n" s="3">
+        <v>477011.0</v>
+      </c>
       <c r="E376" t="s" s="3">
-        <v>541</v>
+        <v>408</v>
       </c>
       <c r="F376" t="s" s="3">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="G376" t="s" s="3">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="H376" t="n" s="4">
-        <v>450.0</v>
+        <v>350.0</v>
       </c>
     </row>
     <row r="377">
       <c r="B377" t="s" s="3">
-        <v>164</v>
+        <v>446</v>
       </c>
       <c r="C377" t="s" s="3">
-        <v>290</v>
-      </c>
-      <c r="D377" s="3"/>
+        <v>299</v>
+      </c>
+      <c r="D377" t="n" s="3">
+        <v>477011.0</v>
+      </c>
       <c r="E377" t="s" s="3">
-        <v>542</v>
+        <v>408</v>
       </c>
       <c r="F377" t="s" s="3">
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="G377" t="s" s="3">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="H377" t="n" s="4">
-        <v>717.0</v>
+        <v>300.0</v>
       </c>
     </row>
     <row r="378">
       <c r="B378" t="s" s="3">
-        <v>164</v>
+        <v>446</v>
       </c>
       <c r="C378" t="s" s="3">
-        <v>290</v>
-      </c>
-      <c r="D378" s="3"/>
+        <v>299</v>
+      </c>
+      <c r="D378" t="n" s="3">
+        <v>477011.0</v>
+      </c>
       <c r="E378" t="s" s="3">
-        <v>543</v>
+        <v>408</v>
       </c>
       <c r="F378" t="s" s="3">
-        <v>540</v>
+        <v>544</v>
       </c>
       <c r="G378" t="s" s="3">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="H378" t="n" s="4">
-        <v>1600.0</v>
+        <v>12.63</v>
       </c>
     </row>
     <row r="379">
       <c r="B379" t="s" s="3">
-        <v>544</v>
+        <v>446</v>
       </c>
       <c r="C379" t="s" s="3">
-        <v>290</v>
-      </c>
-      <c r="D379" t="s" s="3">
+        <v>299</v>
+      </c>
+      <c r="D379" t="n" s="3">
+        <v>477011.0</v>
+      </c>
+      <c r="E379" t="s" s="3">
+        <v>408</v>
+      </c>
+      <c r="F379" t="s" s="3">
         <v>545</v>
       </c>
-      <c r="E379" t="s" s="3">
+      <c r="G379" t="s" s="3">
+        <v>302</v>
+      </c>
+      <c r="H379" t="n" s="4">
+        <v>11.58</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="B380" t="s" s="3">
         <v>546</v>
       </c>
-      <c r="F379" t="s" s="3">
+      <c r="C380" t="s" s="3">
+        <v>456</v>
+      </c>
+      <c r="D380" s="3"/>
+      <c r="E380" t="s" s="3">
+        <v>408</v>
+      </c>
+      <c r="F380" t="s" s="3">
         <v>547</v>
       </c>
-      <c r="G379" t="s" s="3">
-        <v>293</v>
-      </c>
-      <c r="H379" t="n" s="4">
-        <v>1150.16</v>
-      </c>
-    </row>
-    <row r="380">
-      <c r="A380" t="s" s="2">
+      <c r="G380" t="s" s="3">
+        <v>302</v>
+      </c>
+      <c r="H380" t="n" s="4">
+        <v>-0.04</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="B381" t="s" s="3">
+        <v>478</v>
+      </c>
+      <c r="C381" t="s" s="3">
+        <v>299</v>
+      </c>
+      <c r="D381" t="n" s="3">
+        <v>550835.0</v>
+      </c>
+      <c r="E381" t="s" s="3">
+        <v>304</v>
+      </c>
+      <c r="F381" t="s" s="3">
         <v>548</v>
       </c>
-      <c r="H380" t="n" s="5">
-        <v>4367.16</v>
-      </c>
-    </row>
-    <row r="381">
-      <c r="A381" t="s" s="2">
+      <c r="G381" t="s" s="3">
+        <v>302</v>
+      </c>
+      <c r="H381" t="n" s="4">
+        <v>11.0</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="s" s="2">
         <v>549</v>
       </c>
-    </row>
-    <row r="382">
-      <c r="B382" t="s" s="3">
-        <v>98</v>
-      </c>
-      <c r="C382" t="s" s="3">
-        <v>299</v>
-      </c>
-      <c r="D382" s="3"/>
-      <c r="E382" t="s" s="3">
-        <v>489</v>
-      </c>
-      <c r="F382" t="s" s="3">
+      <c r="H382" t="n" s="5">
+        <v>786.58</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="s" s="2">
         <v>550</v>
-      </c>
-      <c r="G382" t="s" s="3">
-        <v>65</v>
-      </c>
-      <c r="H382" t="n" s="4">
-        <v>24.31</v>
-      </c>
-    </row>
-    <row r="383">
-      <c r="B383" t="s" s="3">
-        <v>491</v>
-      </c>
-      <c r="C383" t="s" s="3">
-        <v>299</v>
-      </c>
-      <c r="D383" s="3"/>
-      <c r="E383" t="s" s="3">
-        <v>489</v>
-      </c>
-      <c r="F383" t="s" s="3">
-        <v>551</v>
-      </c>
-      <c r="G383" t="s" s="3">
-        <v>65</v>
-      </c>
-      <c r="H383" t="n" s="4">
-        <v>3.0</v>
       </c>
     </row>
     <row r="384">
       <c r="B384" t="s" s="3">
-        <v>493</v>
+        <v>164</v>
       </c>
       <c r="C384" t="s" s="3">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="D384" s="3"/>
       <c r="E384" t="s" s="3">
-        <v>489</v>
+        <v>551</v>
       </c>
       <c r="F384" t="s" s="3">
         <v>552</v>
       </c>
       <c r="G384" t="s" s="3">
-        <v>65</v>
+        <v>293</v>
       </c>
       <c r="H384" t="n" s="4">
-        <v>1.5</v>
+        <v>450.0</v>
       </c>
     </row>
     <row r="385">
       <c r="B385" t="s" s="3">
-        <v>38</v>
+        <v>164</v>
       </c>
       <c r="C385" t="s" s="3">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="D385" s="3"/>
       <c r="E385" t="s" s="3">
-        <v>489</v>
+        <v>553</v>
       </c>
       <c r="F385" t="s" s="3">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="G385" t="s" s="3">
-        <v>65</v>
+        <v>293</v>
       </c>
       <c r="H385" t="n" s="4">
-        <v>3.0</v>
+        <v>450.0</v>
       </c>
     </row>
     <row r="386">
       <c r="B386" t="s" s="3">
-        <v>113</v>
+        <v>164</v>
       </c>
       <c r="C386" t="s" s="3">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="D386" s="3"/>
       <c r="E386" t="s" s="3">
-        <v>489</v>
+        <v>554</v>
       </c>
       <c r="F386" t="s" s="3">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="G386" t="s" s="3">
-        <v>65</v>
+        <v>293</v>
       </c>
       <c r="H386" t="n" s="4">
-        <v>3.0</v>
+        <v>717.0</v>
       </c>
     </row>
     <row r="387">
       <c r="B387" t="s" s="3">
-        <v>40</v>
+        <v>164</v>
       </c>
       <c r="C387" t="s" s="3">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="D387" s="3"/>
       <c r="E387" t="s" s="3">
-        <v>489</v>
+        <v>555</v>
       </c>
       <c r="F387" t="s" s="3">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="G387" t="s" s="3">
-        <v>65</v>
+        <v>293</v>
       </c>
       <c r="H387" t="n" s="4">
-        <v>6.3</v>
+        <v>1600.0</v>
       </c>
     </row>
     <row r="388">
       <c r="B388" t="s" s="3">
-        <v>128</v>
+        <v>556</v>
       </c>
       <c r="C388" t="s" s="3">
-        <v>299</v>
-      </c>
-      <c r="D388" s="3"/>
+        <v>290</v>
+      </c>
+      <c r="D388" t="s" s="3">
+        <v>557</v>
+      </c>
       <c r="E388" t="s" s="3">
-        <v>489</v>
+        <v>558</v>
       </c>
       <c r="F388" t="s" s="3">
-        <v>554</v>
+        <v>559</v>
       </c>
       <c r="G388" t="s" s="3">
-        <v>65</v>
+        <v>293</v>
       </c>
       <c r="H388" t="n" s="4">
-        <v>10.81</v>
+        <v>1150.16</v>
       </c>
     </row>
     <row r="389">
-      <c r="B389" t="s" s="3">
-        <v>133</v>
-      </c>
-      <c r="C389" t="s" s="3">
-        <v>299</v>
-      </c>
-      <c r="D389" s="3"/>
-      <c r="E389" t="s" s="3">
-        <v>489</v>
-      </c>
-      <c r="F389" t="s" s="3">
-        <v>555</v>
-      </c>
-      <c r="G389" t="s" s="3">
-        <v>65</v>
-      </c>
-      <c r="H389" t="n" s="4">
-        <v>3.6</v>
+      <c r="A389" t="s" s="2">
+        <v>560</v>
+      </c>
+      <c r="H389" t="n" s="5">
+        <v>4367.16</v>
       </c>
     </row>
     <row r="390">
-      <c r="B390" t="s" s="3">
-        <v>45</v>
-      </c>
-      <c r="C390" t="s" s="3">
-        <v>299</v>
-      </c>
-      <c r="D390" s="3"/>
-      <c r="E390" t="s" s="3">
-        <v>489</v>
-      </c>
-      <c r="F390" t="s" s="3">
-        <v>556</v>
-      </c>
-      <c r="G390" t="s" s="3">
-        <v>65</v>
-      </c>
-      <c r="H390" t="n" s="4">
-        <v>12.59</v>
+      <c r="A390" t="s" s="2">
+        <v>561</v>
       </c>
     </row>
     <row r="391">
       <c r="B391" t="s" s="3">
-        <v>48</v>
+        <v>98</v>
       </c>
       <c r="C391" t="s" s="3">
         <v>299</v>
       </c>
       <c r="D391" s="3"/>
       <c r="E391" t="s" s="3">
-        <v>489</v>
+        <v>501</v>
       </c>
       <c r="F391" t="s" s="3">
-        <v>557</v>
+        <v>562</v>
       </c>
       <c r="G391" t="s" s="3">
         <v>65</v>
       </c>
       <c r="H391" t="n" s="4">
-        <v>9.59</v>
+        <v>24.31</v>
       </c>
     </row>
     <row r="392">
       <c r="B392" t="s" s="3">
-        <v>164</v>
+        <v>503</v>
       </c>
       <c r="C392" t="s" s="3">
         <v>299</v>
       </c>
       <c r="D392" s="3"/>
       <c r="E392" t="s" s="3">
-        <v>489</v>
+        <v>501</v>
       </c>
       <c r="F392" t="s" s="3">
-        <v>558</v>
+        <v>563</v>
       </c>
       <c r="G392" t="s" s="3">
         <v>65</v>
       </c>
       <c r="H392" t="n" s="4">
-        <v>15.01</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="393">
       <c r="B393" t="s" s="3">
-        <v>184</v>
+        <v>505</v>
       </c>
       <c r="C393" t="s" s="3">
         <v>299</v>
       </c>
       <c r="D393" s="3"/>
       <c r="E393" t="s" s="3">
-        <v>489</v>
+        <v>501</v>
       </c>
       <c r="F393" t="s" s="3">
-        <v>551</v>
+        <v>564</v>
       </c>
       <c r="G393" t="s" s="3">
         <v>65</v>
       </c>
       <c r="H393" t="n" s="4">
-        <v>3.0</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="394">
       <c r="B394" t="s" s="3">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="C394" t="s" s="3">
         <v>299</v>
       </c>
       <c r="D394" s="3"/>
       <c r="E394" t="s" s="3">
-        <v>489</v>
+        <v>501</v>
       </c>
       <c r="F394" t="s" s="3">
-        <v>559</v>
+        <v>563</v>
       </c>
       <c r="G394" t="s" s="3">
         <v>65</v>
       </c>
       <c r="H394" t="n" s="4">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="395">
       <c r="B395" t="s" s="3">
-        <v>209</v>
+        <v>113</v>
       </c>
       <c r="C395" t="s" s="3">
         <v>299</v>
       </c>
       <c r="D395" s="3"/>
       <c r="E395" t="s" s="3">
-        <v>489</v>
+        <v>501</v>
       </c>
       <c r="F395" t="s" s="3">
-        <v>560</v>
+        <v>563</v>
       </c>
       <c r="G395" t="s" s="3">
         <v>65</v>
       </c>
       <c r="H395" t="n" s="4">
-        <v>18.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="396">
       <c r="B396" t="s" s="3">
-        <v>262</v>
+        <v>40</v>
       </c>
       <c r="C396" t="s" s="3">
         <v>299</v>
       </c>
       <c r="D396" s="3"/>
       <c r="E396" t="s" s="3">
-        <v>489</v>
+        <v>501</v>
       </c>
       <c r="F396" t="s" s="3">
-        <v>561</v>
+        <v>565</v>
       </c>
       <c r="G396" t="s" s="3">
         <v>65</v>
       </c>
       <c r="H396" t="n" s="4">
-        <v>24.6</v>
+        <v>6.3</v>
       </c>
     </row>
     <row r="397">
       <c r="B397" t="s" s="3">
-        <v>443</v>
+        <v>128</v>
       </c>
       <c r="C397" t="s" s="3">
         <v>299</v>
       </c>
       <c r="D397" s="3"/>
       <c r="E397" t="s" s="3">
-        <v>489</v>
+        <v>501</v>
       </c>
       <c r="F397" t="s" s="3">
-        <v>562</v>
+        <v>566</v>
       </c>
       <c r="G397" t="s" s="3">
         <v>65</v>
       </c>
       <c r="H397" t="n" s="4">
-        <v>9.6</v>
+        <v>10.81</v>
       </c>
     </row>
     <row r="398">
       <c r="B398" t="s" s="3">
-        <v>474</v>
+        <v>133</v>
       </c>
       <c r="C398" t="s" s="3">
         <v>299</v>
       </c>
       <c r="D398" s="3"/>
       <c r="E398" t="s" s="3">
-        <v>489</v>
+        <v>501</v>
       </c>
       <c r="F398" t="s" s="3">
+        <v>567</v>
+      </c>
+      <c r="G398" t="s" s="3">
+        <v>65</v>
+      </c>
+      <c r="H398" t="n" s="4">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="B399" t="s" s="3">
+        <v>45</v>
+      </c>
+      <c r="C399" t="s" s="3">
+        <v>299</v>
+      </c>
+      <c r="D399" s="3"/>
+      <c r="E399" t="s" s="3">
+        <v>501</v>
+      </c>
+      <c r="F399" t="s" s="3">
+        <v>568</v>
+      </c>
+      <c r="G399" t="s" s="3">
+        <v>65</v>
+      </c>
+      <c r="H399" t="n" s="4">
+        <v>12.59</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="B400" t="s" s="3">
+        <v>48</v>
+      </c>
+      <c r="C400" t="s" s="3">
+        <v>299</v>
+      </c>
+      <c r="D400" s="3"/>
+      <c r="E400" t="s" s="3">
+        <v>501</v>
+      </c>
+      <c r="F400" t="s" s="3">
+        <v>569</v>
+      </c>
+      <c r="G400" t="s" s="3">
+        <v>65</v>
+      </c>
+      <c r="H400" t="n" s="4">
+        <v>9.59</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="B401" t="s" s="3">
+        <v>164</v>
+      </c>
+      <c r="C401" t="s" s="3">
+        <v>299</v>
+      </c>
+      <c r="D401" s="3"/>
+      <c r="E401" t="s" s="3">
+        <v>501</v>
+      </c>
+      <c r="F401" t="s" s="3">
+        <v>570</v>
+      </c>
+      <c r="G401" t="s" s="3">
+        <v>65</v>
+      </c>
+      <c r="H401" t="n" s="4">
+        <v>15.01</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="B402" t="s" s="3">
+        <v>184</v>
+      </c>
+      <c r="C402" t="s" s="3">
+        <v>299</v>
+      </c>
+      <c r="D402" s="3"/>
+      <c r="E402" t="s" s="3">
+        <v>501</v>
+      </c>
+      <c r="F402" t="s" s="3">
         <v>563</v>
       </c>
-      <c r="G398" t="s" s="3">
-        <v>65</v>
-      </c>
-      <c r="H398" t="n" s="4">
+      <c r="G402" t="s" s="3">
+        <v>65</v>
+      </c>
+      <c r="H402" t="n" s="4">
         <v>3.0</v>
       </c>
     </row>
-    <row r="399">
-      <c r="A399" t="s" s="2">
-        <v>564</v>
-      </c>
-      <c r="H399" t="n" s="5">
+    <row r="403">
+      <c r="B403" t="s" s="3">
+        <v>57</v>
+      </c>
+      <c r="C403" t="s" s="3">
+        <v>299</v>
+      </c>
+      <c r="D403" s="3"/>
+      <c r="E403" t="s" s="3">
+        <v>501</v>
+      </c>
+      <c r="F403" t="s" s="3">
+        <v>571</v>
+      </c>
+      <c r="G403" t="s" s="3">
+        <v>65</v>
+      </c>
+      <c r="H403" t="n" s="4">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="B404" t="s" s="3">
+        <v>209</v>
+      </c>
+      <c r="C404" t="s" s="3">
+        <v>299</v>
+      </c>
+      <c r="D404" s="3"/>
+      <c r="E404" t="s" s="3">
+        <v>501</v>
+      </c>
+      <c r="F404" t="s" s="3">
+        <v>572</v>
+      </c>
+      <c r="G404" t="s" s="3">
+        <v>65</v>
+      </c>
+      <c r="H404" t="n" s="4">
+        <v>18.0</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="B405" t="s" s="3">
+        <v>262</v>
+      </c>
+      <c r="C405" t="s" s="3">
+        <v>299</v>
+      </c>
+      <c r="D405" s="3"/>
+      <c r="E405" t="s" s="3">
+        <v>501</v>
+      </c>
+      <c r="F405" t="s" s="3">
+        <v>573</v>
+      </c>
+      <c r="G405" t="s" s="3">
+        <v>65</v>
+      </c>
+      <c r="H405" t="n" s="4">
+        <v>24.6</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="B406" t="s" s="3">
+        <v>455</v>
+      </c>
+      <c r="C406" t="s" s="3">
+        <v>299</v>
+      </c>
+      <c r="D406" s="3"/>
+      <c r="E406" t="s" s="3">
+        <v>501</v>
+      </c>
+      <c r="F406" t="s" s="3">
+        <v>574</v>
+      </c>
+      <c r="G406" t="s" s="3">
+        <v>65</v>
+      </c>
+      <c r="H406" t="n" s="4">
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="B407" t="s" s="3">
+        <v>486</v>
+      </c>
+      <c r="C407" t="s" s="3">
+        <v>299</v>
+      </c>
+      <c r="D407" s="3"/>
+      <c r="E407" t="s" s="3">
+        <v>501</v>
+      </c>
+      <c r="F407" t="s" s="3">
+        <v>575</v>
+      </c>
+      <c r="G407" t="s" s="3">
+        <v>65</v>
+      </c>
+      <c r="H407" t="n" s="4">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="s" s="2">
+        <v>576</v>
+      </c>
+      <c r="H408" t="n" s="5">
         <v>156.91</v>
       </c>
     </row>
-    <row r="400">
-      <c r="A400" t="s" s="2">
-        <v>565</v>
-      </c>
-      <c r="H400" t="n" s="5">
+    <row r="409">
+      <c r="A409" t="s" s="2">
+        <v>577</v>
+      </c>
+      <c r="H409" t="n" s="5">
         <v>18418.3</v>
       </c>
     </row>
-    <row r="401">
-      <c r="A401" t="s" s="2">
-        <v>566</v>
-      </c>
-      <c r="H401" t="n" s="5">
-        <v>23105.65</v>
-      </c>
-    </row>
-    <row r="402">
-      <c r="A402" t="s" s="2">
-        <v>567</v>
-      </c>
-      <c r="H402" t="n" s="5">
-        <v>-900.65</v>
-      </c>
-    </row>
-    <row r="405">
-      <c r="A405" s="6" t="s">
-        <v>568</v>
-      </c>
-      <c r="B405"/>
-      <c r="C405"/>
-      <c r="D405"/>
-      <c r="E405"/>
-      <c r="F405"/>
-      <c r="G405"/>
-      <c r="H405"/>
+    <row r="410">
+      <c r="A410" t="s" s="2">
+        <v>578</v>
+      </c>
+      <c r="H410" t="n" s="5">
+        <v>23454.86</v>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="s" s="2">
+        <v>579</v>
+      </c>
+      <c r="H411" t="n" s="5">
+        <v>-1249.86</v>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" s="6" t="s">
+        <v>580</v>
+      </c>
+      <c r="B414"/>
+      <c r="C414"/>
+      <c r="D414"/>
+      <c r="E414"/>
+      <c r="F414"/>
+      <c r="G414"/>
+      <c r="H414"/>
     </row>
   </sheetData>
-  <mergeCells>
-    <mergeCell ref="A6"/>
-    <mergeCell ref="A7"/>
-    <mergeCell ref="A8"/>
-    <mergeCell ref="A9"/>
-    <mergeCell ref="A13"/>
-    <mergeCell ref="A14"/>
-    <mergeCell ref="A15"/>
-    <mergeCell ref="A16"/>
-    <mergeCell ref="A42"/>
-    <mergeCell ref="A43"/>
-    <mergeCell ref="A168"/>
-    <mergeCell ref="A169"/>
-    <mergeCell ref="A170"/>
-    <mergeCell ref="A171"/>
-    <mergeCell ref="A172"/>
-    <mergeCell ref="A173"/>
-    <mergeCell ref="A176"/>
-    <mergeCell ref="A177"/>
-    <mergeCell ref="A182"/>
-    <mergeCell ref="A183"/>
-    <mergeCell ref="A185"/>
-    <mergeCell ref="A186"/>
-    <mergeCell ref="A193"/>
-    <mergeCell ref="A194"/>
-    <mergeCell ref="A232"/>
-    <mergeCell ref="A233"/>
-    <mergeCell ref="A237"/>
-    <mergeCell ref="A238"/>
-    <mergeCell ref="A240"/>
-    <mergeCell ref="A241"/>
-    <mergeCell ref="A242"/>
-    <mergeCell ref="A243"/>
-    <mergeCell ref="A246"/>
-    <mergeCell ref="A247"/>
-    <mergeCell ref="A253"/>
-    <mergeCell ref="A254"/>
-    <mergeCell ref="A258"/>
-    <mergeCell ref="A259"/>
-    <mergeCell ref="A268"/>
-    <mergeCell ref="A269"/>
-    <mergeCell ref="A278"/>
-    <mergeCell ref="A279"/>
-    <mergeCell ref="A300"/>
-    <mergeCell ref="A301"/>
-    <mergeCell ref="A317"/>
-    <mergeCell ref="A318"/>
-    <mergeCell ref="A324"/>
-    <mergeCell ref="A325"/>
-    <mergeCell ref="A327"/>
-    <mergeCell ref="A328"/>
-    <mergeCell ref="A346"/>
-    <mergeCell ref="A347"/>
-    <mergeCell ref="A358"/>
-    <mergeCell ref="A359"/>
-    <mergeCell ref="A362"/>
-    <mergeCell ref="A363"/>
-    <mergeCell ref="A373"/>
-    <mergeCell ref="A374"/>
-    <mergeCell ref="A380"/>
-    <mergeCell ref="A381"/>
-    <mergeCell ref="A399"/>
-    <mergeCell ref="A400"/>
-    <mergeCell ref="A401"/>
-    <mergeCell ref="A402"/>
-    <mergeCell ref="A405:H405"/>
+  <mergeCells count="4">
+    <mergeCell ref="A414:H414"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="A3:H3"/>
